--- a/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
+++ b/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6BE114-A351-4C2E-BE3F-BD6857894E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1471C17F-F730-42D7-A3CD-C078229722C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Runtime Verification for Spatio-Temporal Properties (with Aggregated Operators)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Mondragon Unibertsitatea
 TU Wien</t>
@@ -141,6 +138,21 @@
   </si>
   <si>
     <t>14/12/2021</t>
+  </si>
+  <si>
+    <t>Data storage (Time Chains)</t>
+  </si>
+  <si>
+    <t>Runtime Verification for Spatio-Temporal Properties over IoT networks</t>
+  </si>
+  <si>
+    <t>Manage the time</t>
+  </si>
+  <si>
+    <t>23/01/2022</t>
+  </si>
+  <si>
+    <t>01/07/2022</t>
   </si>
 </sst>
 </file>
@@ -324,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -643,6 +655,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -673,7 +700,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -736,22 +763,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,44 +796,17 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="2" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
@@ -867,6 +851,52 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,11 +1409,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IX32"/>
+  <dimension ref="A1:IX34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="CT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19:D22"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1399,7 +1429,7 @@
   <sheetData>
     <row r="1" spans="1:258" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1409,395 +1439,395 @@
     </row>
     <row r="2" spans="1:258" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="20"/>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="24">
+      <c r="C3" s="66">
         <f>DATE(2021,11,3)</f>
         <v>44503</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="66"/>
     </row>
     <row r="4" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="62">
         <f>G5</f>
         <v>44501</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="25">
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="62">
         <f>N5</f>
         <v>44508</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="25">
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="62">
         <f>U5</f>
         <v>44515</v>
       </c>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="25">
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="62">
         <f>AB5</f>
         <v>44522</v>
       </c>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="25">
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="62">
         <f>AI5</f>
         <v>44529</v>
       </c>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="25">
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="62">
         <f>AP5</f>
         <v>44536</v>
       </c>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="25">
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="62">
         <f>AW5</f>
         <v>44543</v>
       </c>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26"/>
-      <c r="BC4" s="27"/>
-      <c r="BD4" s="25">
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="62">
         <f>BD5</f>
         <v>44550</v>
       </c>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="26"/>
-      <c r="BG4" s="26"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="26"/>
-      <c r="BJ4" s="27"/>
-      <c r="BK4" s="25">
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="63"/>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="63"/>
+      <c r="BI4" s="63"/>
+      <c r="BJ4" s="64"/>
+      <c r="BK4" s="62">
         <f>BK5</f>
         <v>44557</v>
       </c>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="26"/>
-      <c r="BN4" s="26"/>
-      <c r="BO4" s="26"/>
-      <c r="BP4" s="26"/>
-      <c r="BQ4" s="27"/>
-      <c r="BR4" s="25">
+      <c r="BL4" s="63"/>
+      <c r="BM4" s="63"/>
+      <c r="BN4" s="63"/>
+      <c r="BO4" s="63"/>
+      <c r="BP4" s="63"/>
+      <c r="BQ4" s="64"/>
+      <c r="BR4" s="62">
         <f>BR5</f>
         <v>44564</v>
       </c>
-      <c r="BS4" s="26"/>
-      <c r="BT4" s="26"/>
-      <c r="BU4" s="26"/>
-      <c r="BV4" s="26"/>
-      <c r="BW4" s="26"/>
-      <c r="BX4" s="27"/>
-      <c r="BY4" s="25">
+      <c r="BS4" s="63"/>
+      <c r="BT4" s="63"/>
+      <c r="BU4" s="63"/>
+      <c r="BV4" s="63"/>
+      <c r="BW4" s="63"/>
+      <c r="BX4" s="64"/>
+      <c r="BY4" s="62">
         <f>BY5</f>
         <v>44571</v>
       </c>
-      <c r="BZ4" s="26"/>
-      <c r="CA4" s="26"/>
-      <c r="CB4" s="26"/>
-      <c r="CC4" s="26"/>
-      <c r="CD4" s="26"/>
-      <c r="CE4" s="27"/>
-      <c r="CF4" s="25">
+      <c r="BZ4" s="63"/>
+      <c r="CA4" s="63"/>
+      <c r="CB4" s="63"/>
+      <c r="CC4" s="63"/>
+      <c r="CD4" s="63"/>
+      <c r="CE4" s="64"/>
+      <c r="CF4" s="62">
         <f>CF5</f>
         <v>44578</v>
       </c>
-      <c r="CG4" s="26"/>
-      <c r="CH4" s="26"/>
-      <c r="CI4" s="26"/>
-      <c r="CJ4" s="26"/>
-      <c r="CK4" s="26"/>
-      <c r="CL4" s="27"/>
-      <c r="CM4" s="25">
+      <c r="CG4" s="63"/>
+      <c r="CH4" s="63"/>
+      <c r="CI4" s="63"/>
+      <c r="CJ4" s="63"/>
+      <c r="CK4" s="63"/>
+      <c r="CL4" s="64"/>
+      <c r="CM4" s="62">
         <f>CM5</f>
         <v>44585</v>
       </c>
-      <c r="CN4" s="26"/>
-      <c r="CO4" s="26"/>
-      <c r="CP4" s="26"/>
-      <c r="CQ4" s="26"/>
-      <c r="CR4" s="26"/>
-      <c r="CS4" s="27"/>
-      <c r="CT4" s="25">
+      <c r="CN4" s="63"/>
+      <c r="CO4" s="63"/>
+      <c r="CP4" s="63"/>
+      <c r="CQ4" s="63"/>
+      <c r="CR4" s="63"/>
+      <c r="CS4" s="64"/>
+      <c r="CT4" s="62">
         <f>CT5</f>
         <v>44592</v>
       </c>
-      <c r="CU4" s="26"/>
-      <c r="CV4" s="26"/>
-      <c r="CW4" s="26"/>
-      <c r="CX4" s="26"/>
-      <c r="CY4" s="26"/>
-      <c r="CZ4" s="27"/>
-      <c r="DA4" s="25">
+      <c r="CU4" s="63"/>
+      <c r="CV4" s="63"/>
+      <c r="CW4" s="63"/>
+      <c r="CX4" s="63"/>
+      <c r="CY4" s="63"/>
+      <c r="CZ4" s="64"/>
+      <c r="DA4" s="62">
         <f>DA5</f>
         <v>44599</v>
       </c>
-      <c r="DB4" s="26"/>
-      <c r="DC4" s="26"/>
-      <c r="DD4" s="26"/>
-      <c r="DE4" s="26"/>
-      <c r="DF4" s="26"/>
-      <c r="DG4" s="27"/>
-      <c r="DH4" s="25">
+      <c r="DB4" s="63"/>
+      <c r="DC4" s="63"/>
+      <c r="DD4" s="63"/>
+      <c r="DE4" s="63"/>
+      <c r="DF4" s="63"/>
+      <c r="DG4" s="64"/>
+      <c r="DH4" s="62">
         <f>DH5</f>
         <v>44606</v>
       </c>
-      <c r="DI4" s="26"/>
-      <c r="DJ4" s="26"/>
-      <c r="DK4" s="26"/>
-      <c r="DL4" s="26"/>
-      <c r="DM4" s="26"/>
-      <c r="DN4" s="27"/>
-      <c r="DO4" s="25">
+      <c r="DI4" s="63"/>
+      <c r="DJ4" s="63"/>
+      <c r="DK4" s="63"/>
+      <c r="DL4" s="63"/>
+      <c r="DM4" s="63"/>
+      <c r="DN4" s="64"/>
+      <c r="DO4" s="62">
         <f>DO5</f>
         <v>44613</v>
       </c>
-      <c r="DP4" s="26"/>
-      <c r="DQ4" s="26"/>
-      <c r="DR4" s="26"/>
-      <c r="DS4" s="26"/>
-      <c r="DT4" s="26"/>
-      <c r="DU4" s="27"/>
-      <c r="DV4" s="25">
+      <c r="DP4" s="63"/>
+      <c r="DQ4" s="63"/>
+      <c r="DR4" s="63"/>
+      <c r="DS4" s="63"/>
+      <c r="DT4" s="63"/>
+      <c r="DU4" s="64"/>
+      <c r="DV4" s="62">
         <f>DV5</f>
         <v>44620</v>
       </c>
-      <c r="DW4" s="26"/>
-      <c r="DX4" s="26"/>
-      <c r="DY4" s="26"/>
-      <c r="DZ4" s="26"/>
-      <c r="EA4" s="26"/>
-      <c r="EB4" s="27"/>
-      <c r="EC4" s="25">
+      <c r="DW4" s="63"/>
+      <c r="DX4" s="63"/>
+      <c r="DY4" s="63"/>
+      <c r="DZ4" s="63"/>
+      <c r="EA4" s="63"/>
+      <c r="EB4" s="64"/>
+      <c r="EC4" s="62">
         <f>EC5</f>
         <v>44627</v>
       </c>
-      <c r="ED4" s="26"/>
-      <c r="EE4" s="26"/>
-      <c r="EF4" s="26"/>
-      <c r="EG4" s="26"/>
-      <c r="EH4" s="26"/>
-      <c r="EI4" s="27"/>
-      <c r="EJ4" s="25">
+      <c r="ED4" s="63"/>
+      <c r="EE4" s="63"/>
+      <c r="EF4" s="63"/>
+      <c r="EG4" s="63"/>
+      <c r="EH4" s="63"/>
+      <c r="EI4" s="64"/>
+      <c r="EJ4" s="62">
         <f>EJ5</f>
         <v>44634</v>
       </c>
-      <c r="EK4" s="26"/>
-      <c r="EL4" s="26"/>
-      <c r="EM4" s="26"/>
-      <c r="EN4" s="26"/>
-      <c r="EO4" s="26"/>
-      <c r="EP4" s="27"/>
-      <c r="EQ4" s="25">
+      <c r="EK4" s="63"/>
+      <c r="EL4" s="63"/>
+      <c r="EM4" s="63"/>
+      <c r="EN4" s="63"/>
+      <c r="EO4" s="63"/>
+      <c r="EP4" s="64"/>
+      <c r="EQ4" s="62">
         <f>EQ5</f>
         <v>44641</v>
       </c>
-      <c r="ER4" s="26"/>
-      <c r="ES4" s="26"/>
-      <c r="ET4" s="26"/>
-      <c r="EU4" s="26"/>
-      <c r="EV4" s="26"/>
-      <c r="EW4" s="27"/>
-      <c r="EX4" s="25">
+      <c r="ER4" s="63"/>
+      <c r="ES4" s="63"/>
+      <c r="ET4" s="63"/>
+      <c r="EU4" s="63"/>
+      <c r="EV4" s="63"/>
+      <c r="EW4" s="64"/>
+      <c r="EX4" s="62">
         <f>EX5</f>
         <v>44648</v>
       </c>
-      <c r="EY4" s="26"/>
-      <c r="EZ4" s="26"/>
-      <c r="FA4" s="26"/>
-      <c r="FB4" s="26"/>
-      <c r="FC4" s="26"/>
-      <c r="FD4" s="27"/>
-      <c r="FE4" s="25">
+      <c r="EY4" s="63"/>
+      <c r="EZ4" s="63"/>
+      <c r="FA4" s="63"/>
+      <c r="FB4" s="63"/>
+      <c r="FC4" s="63"/>
+      <c r="FD4" s="64"/>
+      <c r="FE4" s="62">
         <f>FE5</f>
         <v>44655</v>
       </c>
-      <c r="FF4" s="26"/>
-      <c r="FG4" s="26"/>
-      <c r="FH4" s="26"/>
-      <c r="FI4" s="26"/>
-      <c r="FJ4" s="26"/>
-      <c r="FK4" s="27"/>
-      <c r="FL4" s="25">
+      <c r="FF4" s="63"/>
+      <c r="FG4" s="63"/>
+      <c r="FH4" s="63"/>
+      <c r="FI4" s="63"/>
+      <c r="FJ4" s="63"/>
+      <c r="FK4" s="64"/>
+      <c r="FL4" s="62">
         <f>FL5</f>
         <v>44662</v>
       </c>
-      <c r="FM4" s="26"/>
-      <c r="FN4" s="26"/>
-      <c r="FO4" s="26"/>
-      <c r="FP4" s="26"/>
-      <c r="FQ4" s="26"/>
-      <c r="FR4" s="27"/>
-      <c r="FS4" s="25">
+      <c r="FM4" s="63"/>
+      <c r="FN4" s="63"/>
+      <c r="FO4" s="63"/>
+      <c r="FP4" s="63"/>
+      <c r="FQ4" s="63"/>
+      <c r="FR4" s="64"/>
+      <c r="FS4" s="62">
         <f>FS5</f>
         <v>44669</v>
       </c>
-      <c r="FT4" s="26"/>
-      <c r="FU4" s="26"/>
-      <c r="FV4" s="26"/>
-      <c r="FW4" s="26"/>
-      <c r="FX4" s="26"/>
-      <c r="FY4" s="27"/>
-      <c r="FZ4" s="25">
+      <c r="FT4" s="63"/>
+      <c r="FU4" s="63"/>
+      <c r="FV4" s="63"/>
+      <c r="FW4" s="63"/>
+      <c r="FX4" s="63"/>
+      <c r="FY4" s="64"/>
+      <c r="FZ4" s="62">
         <f>FZ5</f>
         <v>44676</v>
       </c>
-      <c r="GA4" s="26"/>
-      <c r="GB4" s="26"/>
-      <c r="GC4" s="26"/>
-      <c r="GD4" s="26"/>
-      <c r="GE4" s="26"/>
-      <c r="GF4" s="27"/>
-      <c r="GG4" s="25">
+      <c r="GA4" s="63"/>
+      <c r="GB4" s="63"/>
+      <c r="GC4" s="63"/>
+      <c r="GD4" s="63"/>
+      <c r="GE4" s="63"/>
+      <c r="GF4" s="64"/>
+      <c r="GG4" s="62">
         <f>GG5</f>
         <v>44683</v>
       </c>
-      <c r="GH4" s="26"/>
-      <c r="GI4" s="26"/>
-      <c r="GJ4" s="26"/>
-      <c r="GK4" s="26"/>
-      <c r="GL4" s="26"/>
-      <c r="GM4" s="27"/>
-      <c r="GN4" s="25">
+      <c r="GH4" s="63"/>
+      <c r="GI4" s="63"/>
+      <c r="GJ4" s="63"/>
+      <c r="GK4" s="63"/>
+      <c r="GL4" s="63"/>
+      <c r="GM4" s="64"/>
+      <c r="GN4" s="62">
         <f>GN5</f>
         <v>44690</v>
       </c>
-      <c r="GO4" s="26"/>
-      <c r="GP4" s="26"/>
-      <c r="GQ4" s="26"/>
-      <c r="GR4" s="26"/>
-      <c r="GS4" s="26"/>
-      <c r="GT4" s="27"/>
-      <c r="GU4" s="25">
+      <c r="GO4" s="63"/>
+      <c r="GP4" s="63"/>
+      <c r="GQ4" s="63"/>
+      <c r="GR4" s="63"/>
+      <c r="GS4" s="63"/>
+      <c r="GT4" s="64"/>
+      <c r="GU4" s="62">
         <f>GU5</f>
         <v>44697</v>
       </c>
-      <c r="GV4" s="26"/>
-      <c r="GW4" s="26"/>
-      <c r="GX4" s="26"/>
-      <c r="GY4" s="26"/>
-      <c r="GZ4" s="26"/>
-      <c r="HA4" s="27"/>
-      <c r="HB4" s="25">
+      <c r="GV4" s="63"/>
+      <c r="GW4" s="63"/>
+      <c r="GX4" s="63"/>
+      <c r="GY4" s="63"/>
+      <c r="GZ4" s="63"/>
+      <c r="HA4" s="64"/>
+      <c r="HB4" s="62">
         <f>HB5</f>
         <v>44704</v>
       </c>
-      <c r="HC4" s="26"/>
-      <c r="HD4" s="26"/>
-      <c r="HE4" s="26"/>
-      <c r="HF4" s="26"/>
-      <c r="HG4" s="26"/>
-      <c r="HH4" s="27"/>
-      <c r="HI4" s="25">
+      <c r="HC4" s="63"/>
+      <c r="HD4" s="63"/>
+      <c r="HE4" s="63"/>
+      <c r="HF4" s="63"/>
+      <c r="HG4" s="63"/>
+      <c r="HH4" s="64"/>
+      <c r="HI4" s="62">
         <f>HI5</f>
         <v>44711</v>
       </c>
-      <c r="HJ4" s="26"/>
-      <c r="HK4" s="26"/>
-      <c r="HL4" s="26"/>
-      <c r="HM4" s="26"/>
-      <c r="HN4" s="26"/>
-      <c r="HO4" s="27"/>
-      <c r="HP4" s="25">
+      <c r="HJ4" s="63"/>
+      <c r="HK4" s="63"/>
+      <c r="HL4" s="63"/>
+      <c r="HM4" s="63"/>
+      <c r="HN4" s="63"/>
+      <c r="HO4" s="64"/>
+      <c r="HP4" s="62">
         <f>HP5</f>
         <v>44718</v>
       </c>
-      <c r="HQ4" s="26"/>
-      <c r="HR4" s="26"/>
-      <c r="HS4" s="26"/>
-      <c r="HT4" s="26"/>
-      <c r="HU4" s="26"/>
-      <c r="HV4" s="27"/>
-      <c r="HW4" s="25">
+      <c r="HQ4" s="63"/>
+      <c r="HR4" s="63"/>
+      <c r="HS4" s="63"/>
+      <c r="HT4" s="63"/>
+      <c r="HU4" s="63"/>
+      <c r="HV4" s="64"/>
+      <c r="HW4" s="62">
         <f>HW5</f>
         <v>44725</v>
       </c>
-      <c r="HX4" s="26"/>
-      <c r="HY4" s="26"/>
-      <c r="HZ4" s="26"/>
-      <c r="IA4" s="26"/>
-      <c r="IB4" s="26"/>
-      <c r="IC4" s="27"/>
-      <c r="ID4" s="25">
+      <c r="HX4" s="63"/>
+      <c r="HY4" s="63"/>
+      <c r="HZ4" s="63"/>
+      <c r="IA4" s="63"/>
+      <c r="IB4" s="63"/>
+      <c r="IC4" s="64"/>
+      <c r="ID4" s="62">
         <f>ID5</f>
         <v>44732</v>
       </c>
-      <c r="IE4" s="26"/>
-      <c r="IF4" s="26"/>
-      <c r="IG4" s="26"/>
-      <c r="IH4" s="26"/>
-      <c r="II4" s="26"/>
-      <c r="IJ4" s="27"/>
-      <c r="IK4" s="25">
+      <c r="IE4" s="63"/>
+      <c r="IF4" s="63"/>
+      <c r="IG4" s="63"/>
+      <c r="IH4" s="63"/>
+      <c r="II4" s="63"/>
+      <c r="IJ4" s="64"/>
+      <c r="IK4" s="62">
         <f>IK5</f>
         <v>44739</v>
       </c>
-      <c r="IL4" s="26"/>
-      <c r="IM4" s="26"/>
-      <c r="IN4" s="26"/>
-      <c r="IO4" s="26"/>
-      <c r="IP4" s="26"/>
-      <c r="IQ4" s="27"/>
-      <c r="IR4" s="25">
+      <c r="IL4" s="63"/>
+      <c r="IM4" s="63"/>
+      <c r="IN4" s="63"/>
+      <c r="IO4" s="63"/>
+      <c r="IP4" s="63"/>
+      <c r="IQ4" s="64"/>
+      <c r="IR4" s="62">
         <f>IR5</f>
         <v>44746</v>
       </c>
-      <c r="IS4" s="26"/>
-      <c r="IT4" s="26"/>
-      <c r="IU4" s="26"/>
-      <c r="IV4" s="26"/>
-      <c r="IW4" s="26"/>
-      <c r="IX4" s="27"/>
+      <c r="IS4" s="63"/>
+      <c r="IT4" s="63"/>
+      <c r="IU4" s="63"/>
+      <c r="IV4" s="63"/>
+      <c r="IW4" s="63"/>
+      <c r="IX4" s="64"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
       <c r="G5" s="9">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44501</v>
@@ -2809,18 +2839,18 @@
     </row>
     <row r="6" spans="1:258" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="11" t="str">
         <f t="shared" ref="G6" si="148">LEFT(TEXT(G5,"ddd"),1)</f>
@@ -3839,47 +3869,47 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57"/>
-      <c r="AW7" s="57"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
       <c r="AX7" s="14"/>
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
@@ -4091,65 +4121,65 @@
       <c r="IX7" s="14"/>
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="59" t="s">
+      <c r="A8" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
-        <f t="shared" ref="F8:F30" si="156">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="F8:F32" si="156">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>41</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="65"/>
-      <c r="AL8" s="65"/>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="65"/>
-      <c r="AT8" s="65"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="56"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="50"/>
+      <c r="AA8" s="50"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="50"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="50"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="50"/>
+      <c r="AL8" s="50"/>
+      <c r="AM8" s="50"/>
+      <c r="AN8" s="50"/>
+      <c r="AO8" s="50"/>
+      <c r="AP8" s="50"/>
+      <c r="AQ8" s="50"/>
+      <c r="AR8" s="50"/>
+      <c r="AS8" s="50"/>
+      <c r="AT8" s="50"/>
+      <c r="AU8" s="50"/>
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="50"/>
+      <c r="AX8" s="41"/>
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
       <c r="BA8" s="14"/>
@@ -4360,15 +4390,15 @@
       <c r="IX8" s="14"/>
     </row>
     <row r="9" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42">
+      <c r="A9" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="35">
         <f>Project_Start</f>
         <v>44503</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="35">
         <f>DATE(2021,11,12)</f>
         <v>44512</v>
       </c>
@@ -4379,47 +4409,47 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="58"/>
-      <c r="AN9" s="58"/>
-      <c r="AO9" s="58"/>
-      <c r="AP9" s="58"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="58"/>
-      <c r="AS9" s="58"/>
-      <c r="AT9" s="58"/>
-      <c r="AU9" s="58"/>
-      <c r="AV9" s="58"/>
-      <c r="AW9" s="58"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
       <c r="AX9" s="14"/>
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
@@ -4631,15 +4661,15 @@
       <c r="IX9" s="14"/>
     </row>
     <row r="10" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30">
+      <c r="A10" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="24">
         <f>D9+1</f>
         <v>44513</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="24">
         <f>DATE(2021,11,23)</f>
         <v>44523</v>
       </c>
@@ -4902,15 +4932,15 @@
       <c r="IX10" s="14"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30">
+      <c r="A11" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="24">
         <f>DATE(2021,11,24)</f>
         <v>44524</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="24">
         <f>C11+6</f>
         <v>44530</v>
       </c>
@@ -5173,15 +5203,15 @@
       <c r="IX11" s="14"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48">
+      <c r="A12" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="36">
         <f>DATE(2021,11,31)</f>
         <v>44531</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="36">
         <f>DATE(2021,12,13)</f>
         <v>44543</v>
       </c>
@@ -5208,170 +5238,170 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="57"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="57"/>
-      <c r="BF12" s="57"/>
-      <c r="BG12" s="57"/>
-      <c r="BH12" s="57"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="57"/>
-      <c r="BK12" s="57"/>
-      <c r="BL12" s="57"/>
-      <c r="BM12" s="57"/>
-      <c r="BN12" s="57"/>
-      <c r="BO12" s="57"/>
-      <c r="BP12" s="57"/>
-      <c r="BQ12" s="57"/>
-      <c r="BR12" s="57"/>
-      <c r="BS12" s="57"/>
-      <c r="BT12" s="57"/>
-      <c r="BU12" s="57"/>
-      <c r="BV12" s="57"/>
-      <c r="BW12" s="57"/>
-      <c r="BX12" s="57"/>
-      <c r="BY12" s="57"/>
-      <c r="BZ12" s="57"/>
-      <c r="CA12" s="57"/>
-      <c r="CB12" s="57"/>
-      <c r="CC12" s="57"/>
-      <c r="CD12" s="57"/>
-      <c r="CE12" s="57"/>
-      <c r="CF12" s="57"/>
-      <c r="CG12" s="57"/>
-      <c r="CH12" s="57"/>
-      <c r="CI12" s="57"/>
-      <c r="CJ12" s="57"/>
-      <c r="CK12" s="57"/>
-      <c r="CL12" s="57"/>
-      <c r="CM12" s="57"/>
-      <c r="CN12" s="57"/>
-      <c r="CO12" s="57"/>
-      <c r="CP12" s="57"/>
-      <c r="CQ12" s="57"/>
-      <c r="CR12" s="57"/>
-      <c r="CS12" s="57"/>
-      <c r="CT12" s="57"/>
-      <c r="CU12" s="57"/>
-      <c r="CV12" s="57"/>
-      <c r="CW12" s="57"/>
-      <c r="CX12" s="57"/>
-      <c r="CY12" s="57"/>
-      <c r="CZ12" s="57"/>
-      <c r="DA12" s="57"/>
-      <c r="DB12" s="57"/>
-      <c r="DC12" s="57"/>
-      <c r="DD12" s="57"/>
-      <c r="DE12" s="57"/>
-      <c r="DF12" s="57"/>
-      <c r="DG12" s="57"/>
-      <c r="DH12" s="57"/>
-      <c r="DI12" s="57"/>
-      <c r="DJ12" s="57"/>
-      <c r="DK12" s="57"/>
-      <c r="DL12" s="57"/>
-      <c r="DM12" s="57"/>
-      <c r="DN12" s="57"/>
-      <c r="DO12" s="57"/>
-      <c r="DP12" s="57"/>
-      <c r="DQ12" s="57"/>
-      <c r="DR12" s="57"/>
-      <c r="DS12" s="57"/>
-      <c r="DT12" s="57"/>
-      <c r="DU12" s="57"/>
-      <c r="DV12" s="57"/>
-      <c r="DW12" s="57"/>
-      <c r="DX12" s="57"/>
-      <c r="DY12" s="57"/>
-      <c r="DZ12" s="57"/>
-      <c r="EA12" s="57"/>
-      <c r="EB12" s="57"/>
-      <c r="EC12" s="57"/>
-      <c r="ED12" s="57"/>
-      <c r="EE12" s="57"/>
-      <c r="EF12" s="57"/>
-      <c r="EG12" s="57"/>
-      <c r="EH12" s="57"/>
-      <c r="EI12" s="57"/>
-      <c r="EJ12" s="57"/>
-      <c r="EK12" s="57"/>
-      <c r="EL12" s="57"/>
-      <c r="EM12" s="57"/>
-      <c r="EN12" s="57"/>
-      <c r="EO12" s="57"/>
-      <c r="EP12" s="57"/>
-      <c r="EQ12" s="57"/>
-      <c r="ER12" s="57"/>
-      <c r="ES12" s="57"/>
-      <c r="ET12" s="57"/>
-      <c r="EU12" s="57"/>
-      <c r="EV12" s="57"/>
-      <c r="EW12" s="57"/>
-      <c r="EX12" s="57"/>
-      <c r="EY12" s="57"/>
-      <c r="EZ12" s="57"/>
-      <c r="FA12" s="57"/>
-      <c r="FB12" s="57"/>
-      <c r="FC12" s="57"/>
-      <c r="FD12" s="57"/>
-      <c r="FE12" s="57"/>
-      <c r="FF12" s="57"/>
-      <c r="FG12" s="57"/>
-      <c r="FH12" s="57"/>
-      <c r="FI12" s="57"/>
-      <c r="FJ12" s="57"/>
-      <c r="FK12" s="57"/>
-      <c r="FL12" s="57"/>
-      <c r="FM12" s="57"/>
-      <c r="FN12" s="57"/>
-      <c r="FO12" s="57"/>
-      <c r="FP12" s="57"/>
-      <c r="FQ12" s="57"/>
-      <c r="FR12" s="57"/>
-      <c r="FS12" s="57"/>
-      <c r="FT12" s="57"/>
-      <c r="FU12" s="57"/>
-      <c r="FV12" s="57"/>
-      <c r="FW12" s="57"/>
-      <c r="FX12" s="57"/>
-      <c r="FY12" s="57"/>
-      <c r="FZ12" s="57"/>
-      <c r="GA12" s="57"/>
-      <c r="GB12" s="57"/>
-      <c r="GC12" s="57"/>
-      <c r="GD12" s="57"/>
-      <c r="GE12" s="57"/>
-      <c r="GF12" s="57"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="42"/>
+      <c r="BM12" s="42"/>
+      <c r="BN12" s="42"/>
+      <c r="BO12" s="42"/>
+      <c r="BP12" s="42"/>
+      <c r="BQ12" s="42"/>
+      <c r="BR12" s="42"/>
+      <c r="BS12" s="42"/>
+      <c r="BT12" s="42"/>
+      <c r="BU12" s="42"/>
+      <c r="BV12" s="42"/>
+      <c r="BW12" s="42"/>
+      <c r="BX12" s="42"/>
+      <c r="BY12" s="42"/>
+      <c r="BZ12" s="42"/>
+      <c r="CA12" s="42"/>
+      <c r="CB12" s="42"/>
+      <c r="CC12" s="42"/>
+      <c r="CD12" s="42"/>
+      <c r="CE12" s="42"/>
+      <c r="CF12" s="42"/>
+      <c r="CG12" s="42"/>
+      <c r="CH12" s="42"/>
+      <c r="CI12" s="42"/>
+      <c r="CJ12" s="42"/>
+      <c r="CK12" s="42"/>
+      <c r="CL12" s="42"/>
+      <c r="CM12" s="42"/>
+      <c r="CN12" s="42"/>
+      <c r="CO12" s="42"/>
+      <c r="CP12" s="42"/>
+      <c r="CQ12" s="42"/>
+      <c r="CR12" s="42"/>
+      <c r="CS12" s="42"/>
+      <c r="CT12" s="42"/>
+      <c r="CU12" s="42"/>
+      <c r="CV12" s="42"/>
+      <c r="CW12" s="42"/>
+      <c r="CX12" s="42"/>
+      <c r="CY12" s="42"/>
+      <c r="CZ12" s="42"/>
+      <c r="DA12" s="42"/>
+      <c r="DB12" s="42"/>
+      <c r="DC12" s="42"/>
+      <c r="DD12" s="42"/>
+      <c r="DE12" s="42"/>
+      <c r="DF12" s="42"/>
+      <c r="DG12" s="42"/>
+      <c r="DH12" s="42"/>
+      <c r="DI12" s="42"/>
+      <c r="DJ12" s="42"/>
+      <c r="DK12" s="42"/>
+      <c r="DL12" s="42"/>
+      <c r="DM12" s="42"/>
+      <c r="DN12" s="42"/>
+      <c r="DO12" s="42"/>
+      <c r="DP12" s="42"/>
+      <c r="DQ12" s="42"/>
+      <c r="DR12" s="42"/>
+      <c r="DS12" s="42"/>
+      <c r="DT12" s="42"/>
+      <c r="DU12" s="42"/>
+      <c r="DV12" s="42"/>
+      <c r="DW12" s="42"/>
+      <c r="DX12" s="42"/>
+      <c r="DY12" s="42"/>
+      <c r="DZ12" s="42"/>
+      <c r="EA12" s="42"/>
+      <c r="EB12" s="42"/>
+      <c r="EC12" s="42"/>
+      <c r="ED12" s="42"/>
+      <c r="EE12" s="42"/>
+      <c r="EF12" s="42"/>
+      <c r="EG12" s="42"/>
+      <c r="EH12" s="42"/>
+      <c r="EI12" s="42"/>
+      <c r="EJ12" s="42"/>
+      <c r="EK12" s="42"/>
+      <c r="EL12" s="42"/>
+      <c r="EM12" s="42"/>
+      <c r="EN12" s="42"/>
+      <c r="EO12" s="42"/>
+      <c r="EP12" s="42"/>
+      <c r="EQ12" s="42"/>
+      <c r="ER12" s="42"/>
+      <c r="ES12" s="42"/>
+      <c r="ET12" s="42"/>
+      <c r="EU12" s="42"/>
+      <c r="EV12" s="42"/>
+      <c r="EW12" s="42"/>
+      <c r="EX12" s="42"/>
+      <c r="EY12" s="42"/>
+      <c r="EZ12" s="42"/>
+      <c r="FA12" s="42"/>
+      <c r="FB12" s="42"/>
+      <c r="FC12" s="42"/>
+      <c r="FD12" s="42"/>
+      <c r="FE12" s="42"/>
+      <c r="FF12" s="42"/>
+      <c r="FG12" s="42"/>
+      <c r="FH12" s="42"/>
+      <c r="FI12" s="42"/>
+      <c r="FJ12" s="42"/>
+      <c r="FK12" s="42"/>
+      <c r="FL12" s="42"/>
+      <c r="FM12" s="42"/>
+      <c r="FN12" s="42"/>
+      <c r="FO12" s="42"/>
+      <c r="FP12" s="42"/>
+      <c r="FQ12" s="42"/>
+      <c r="FR12" s="42"/>
+      <c r="FS12" s="42"/>
+      <c r="FT12" s="42"/>
+      <c r="FU12" s="42"/>
+      <c r="FV12" s="42"/>
+      <c r="FW12" s="42"/>
+      <c r="FX12" s="42"/>
+      <c r="FY12" s="42"/>
+      <c r="FZ12" s="42"/>
+      <c r="GA12" s="42"/>
+      <c r="GB12" s="42"/>
+      <c r="GC12" s="42"/>
+      <c r="GD12" s="42"/>
+      <c r="GE12" s="42"/>
+      <c r="GF12" s="42"/>
       <c r="GG12" s="14"/>
       <c r="GH12" s="14"/>
       <c r="GI12" s="14"/>
@@ -5444,14 +5474,14 @@
       <c r="IX12" s="14"/>
     </row>
     <row r="13" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="52">
+      <c r="A13" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="38">
         <f>D16</f>
         <v>44682</v>
       </c>
@@ -5477,172 +5507,172 @@
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="65"/>
-      <c r="AF13" s="65"/>
-      <c r="AG13" s="65"/>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="65"/>
-      <c r="AK13" s="65"/>
-      <c r="AL13" s="65"/>
-      <c r="AM13" s="65"/>
-      <c r="AN13" s="65"/>
-      <c r="AO13" s="65"/>
-      <c r="AP13" s="65"/>
-      <c r="AQ13" s="65"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="65"/>
-      <c r="AT13" s="65"/>
-      <c r="AU13" s="65"/>
-      <c r="AV13" s="65"/>
-      <c r="AW13" s="65"/>
-      <c r="AX13" s="65"/>
-      <c r="AY13" s="65"/>
-      <c r="AZ13" s="65"/>
-      <c r="BA13" s="65"/>
-      <c r="BB13" s="65"/>
-      <c r="BC13" s="65"/>
-      <c r="BD13" s="65"/>
-      <c r="BE13" s="65"/>
-      <c r="BF13" s="65"/>
-      <c r="BG13" s="65"/>
-      <c r="BH13" s="65"/>
-      <c r="BI13" s="65"/>
-      <c r="BJ13" s="65"/>
-      <c r="BK13" s="65"/>
-      <c r="BL13" s="65"/>
-      <c r="BM13" s="65"/>
-      <c r="BN13" s="65"/>
-      <c r="BO13" s="65"/>
-      <c r="BP13" s="65"/>
-      <c r="BQ13" s="65"/>
-      <c r="BR13" s="65"/>
-      <c r="BS13" s="65"/>
-      <c r="BT13" s="65"/>
-      <c r="BU13" s="65"/>
-      <c r="BV13" s="65"/>
-      <c r="BW13" s="65"/>
-      <c r="BX13" s="65"/>
-      <c r="BY13" s="65"/>
-      <c r="BZ13" s="65"/>
-      <c r="CA13" s="65"/>
-      <c r="CB13" s="65"/>
-      <c r="CC13" s="65"/>
-      <c r="CD13" s="65"/>
-      <c r="CE13" s="65"/>
-      <c r="CF13" s="65"/>
-      <c r="CG13" s="65"/>
-      <c r="CH13" s="65"/>
-      <c r="CI13" s="65"/>
-      <c r="CJ13" s="65"/>
-      <c r="CK13" s="65"/>
-      <c r="CL13" s="65"/>
-      <c r="CM13" s="65"/>
-      <c r="CN13" s="65"/>
-      <c r="CO13" s="65"/>
-      <c r="CP13" s="65"/>
-      <c r="CQ13" s="65"/>
-      <c r="CR13" s="65"/>
-      <c r="CS13" s="65"/>
-      <c r="CT13" s="65"/>
-      <c r="CU13" s="65"/>
-      <c r="CV13" s="65"/>
-      <c r="CW13" s="65"/>
-      <c r="CX13" s="65"/>
-      <c r="CY13" s="65"/>
-      <c r="CZ13" s="65"/>
-      <c r="DA13" s="65"/>
-      <c r="DB13" s="65"/>
-      <c r="DC13" s="65"/>
-      <c r="DD13" s="65"/>
-      <c r="DE13" s="65"/>
-      <c r="DF13" s="65"/>
-      <c r="DG13" s="65"/>
-      <c r="DH13" s="65"/>
-      <c r="DI13" s="65"/>
-      <c r="DJ13" s="65"/>
-      <c r="DK13" s="65"/>
-      <c r="DL13" s="65"/>
-      <c r="DM13" s="65"/>
-      <c r="DN13" s="65"/>
-      <c r="DO13" s="65"/>
-      <c r="DP13" s="65"/>
-      <c r="DQ13" s="65"/>
-      <c r="DR13" s="65"/>
-      <c r="DS13" s="65"/>
-      <c r="DT13" s="65"/>
-      <c r="DU13" s="65"/>
-      <c r="DV13" s="65"/>
-      <c r="DW13" s="65"/>
-      <c r="DX13" s="65"/>
-      <c r="DY13" s="65"/>
-      <c r="DZ13" s="65"/>
-      <c r="EA13" s="65"/>
-      <c r="EB13" s="65"/>
-      <c r="EC13" s="65"/>
-      <c r="ED13" s="65"/>
-      <c r="EE13" s="65"/>
-      <c r="EF13" s="65"/>
-      <c r="EG13" s="65"/>
-      <c r="EH13" s="65"/>
-      <c r="EI13" s="65"/>
-      <c r="EJ13" s="65"/>
-      <c r="EK13" s="65"/>
-      <c r="EL13" s="65"/>
-      <c r="EM13" s="65"/>
-      <c r="EN13" s="65"/>
-      <c r="EO13" s="65"/>
-      <c r="EP13" s="65"/>
-      <c r="EQ13" s="65"/>
-      <c r="ER13" s="65"/>
-      <c r="ES13" s="65"/>
-      <c r="ET13" s="65"/>
-      <c r="EU13" s="65"/>
-      <c r="EV13" s="65"/>
-      <c r="EW13" s="65"/>
-      <c r="EX13" s="65"/>
-      <c r="EY13" s="65"/>
-      <c r="EZ13" s="65"/>
-      <c r="FA13" s="65"/>
-      <c r="FB13" s="65"/>
-      <c r="FC13" s="65"/>
-      <c r="FD13" s="65"/>
-      <c r="FE13" s="65"/>
-      <c r="FF13" s="65"/>
-      <c r="FG13" s="65"/>
-      <c r="FH13" s="65"/>
-      <c r="FI13" s="65"/>
-      <c r="FJ13" s="65"/>
-      <c r="FK13" s="65"/>
-      <c r="FL13" s="65"/>
-      <c r="FM13" s="65"/>
-      <c r="FN13" s="65"/>
-      <c r="FO13" s="65"/>
-      <c r="FP13" s="65"/>
-      <c r="FQ13" s="65"/>
-      <c r="FR13" s="65"/>
-      <c r="FS13" s="65"/>
-      <c r="FT13" s="65"/>
-      <c r="FU13" s="65"/>
-      <c r="FV13" s="65"/>
-      <c r="FW13" s="65"/>
-      <c r="FX13" s="65"/>
-      <c r="FY13" s="65"/>
-      <c r="FZ13" s="65"/>
-      <c r="GA13" s="65"/>
-      <c r="GB13" s="65"/>
-      <c r="GC13" s="65"/>
-      <c r="GD13" s="65"/>
-      <c r="GE13" s="65"/>
-      <c r="GF13" s="65"/>
-      <c r="GG13" s="56"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50"/>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="50"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+      <c r="AH13" s="50"/>
+      <c r="AI13" s="50"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="50"/>
+      <c r="AL13" s="50"/>
+      <c r="AM13" s="50"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50"/>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="50"/>
+      <c r="BA13" s="50"/>
+      <c r="BB13" s="50"/>
+      <c r="BC13" s="50"/>
+      <c r="BD13" s="50"/>
+      <c r="BE13" s="50"/>
+      <c r="BF13" s="50"/>
+      <c r="BG13" s="50"/>
+      <c r="BH13" s="50"/>
+      <c r="BI13" s="50"/>
+      <c r="BJ13" s="50"/>
+      <c r="BK13" s="50"/>
+      <c r="BL13" s="50"/>
+      <c r="BM13" s="50"/>
+      <c r="BN13" s="50"/>
+      <c r="BO13" s="50"/>
+      <c r="BP13" s="50"/>
+      <c r="BQ13" s="50"/>
+      <c r="BR13" s="50"/>
+      <c r="BS13" s="50"/>
+      <c r="BT13" s="50"/>
+      <c r="BU13" s="50"/>
+      <c r="BV13" s="50"/>
+      <c r="BW13" s="50"/>
+      <c r="BX13" s="50"/>
+      <c r="BY13" s="50"/>
+      <c r="BZ13" s="50"/>
+      <c r="CA13" s="50"/>
+      <c r="CB13" s="50"/>
+      <c r="CC13" s="50"/>
+      <c r="CD13" s="50"/>
+      <c r="CE13" s="50"/>
+      <c r="CF13" s="50"/>
+      <c r="CG13" s="50"/>
+      <c r="CH13" s="50"/>
+      <c r="CI13" s="50"/>
+      <c r="CJ13" s="50"/>
+      <c r="CK13" s="50"/>
+      <c r="CL13" s="50"/>
+      <c r="CM13" s="50"/>
+      <c r="CN13" s="50"/>
+      <c r="CO13" s="50"/>
+      <c r="CP13" s="50"/>
+      <c r="CQ13" s="50"/>
+      <c r="CR13" s="50"/>
+      <c r="CS13" s="50"/>
+      <c r="CT13" s="50"/>
+      <c r="CU13" s="50"/>
+      <c r="CV13" s="50"/>
+      <c r="CW13" s="50"/>
+      <c r="CX13" s="50"/>
+      <c r="CY13" s="50"/>
+      <c r="CZ13" s="50"/>
+      <c r="DA13" s="50"/>
+      <c r="DB13" s="50"/>
+      <c r="DC13" s="50"/>
+      <c r="DD13" s="50"/>
+      <c r="DE13" s="50"/>
+      <c r="DF13" s="50"/>
+      <c r="DG13" s="50"/>
+      <c r="DH13" s="50"/>
+      <c r="DI13" s="50"/>
+      <c r="DJ13" s="50"/>
+      <c r="DK13" s="50"/>
+      <c r="DL13" s="50"/>
+      <c r="DM13" s="50"/>
+      <c r="DN13" s="50"/>
+      <c r="DO13" s="50"/>
+      <c r="DP13" s="50"/>
+      <c r="DQ13" s="50"/>
+      <c r="DR13" s="50"/>
+      <c r="DS13" s="50"/>
+      <c r="DT13" s="50"/>
+      <c r="DU13" s="50"/>
+      <c r="DV13" s="50"/>
+      <c r="DW13" s="50"/>
+      <c r="DX13" s="50"/>
+      <c r="DY13" s="50"/>
+      <c r="DZ13" s="50"/>
+      <c r="EA13" s="50"/>
+      <c r="EB13" s="50"/>
+      <c r="EC13" s="50"/>
+      <c r="ED13" s="50"/>
+      <c r="EE13" s="50"/>
+      <c r="EF13" s="50"/>
+      <c r="EG13" s="50"/>
+      <c r="EH13" s="50"/>
+      <c r="EI13" s="50"/>
+      <c r="EJ13" s="50"/>
+      <c r="EK13" s="50"/>
+      <c r="EL13" s="50"/>
+      <c r="EM13" s="50"/>
+      <c r="EN13" s="50"/>
+      <c r="EO13" s="50"/>
+      <c r="EP13" s="50"/>
+      <c r="EQ13" s="50"/>
+      <c r="ER13" s="50"/>
+      <c r="ES13" s="50"/>
+      <c r="ET13" s="50"/>
+      <c r="EU13" s="50"/>
+      <c r="EV13" s="50"/>
+      <c r="EW13" s="50"/>
+      <c r="EX13" s="50"/>
+      <c r="EY13" s="50"/>
+      <c r="EZ13" s="50"/>
+      <c r="FA13" s="50"/>
+      <c r="FB13" s="50"/>
+      <c r="FC13" s="50"/>
+      <c r="FD13" s="50"/>
+      <c r="FE13" s="50"/>
+      <c r="FF13" s="50"/>
+      <c r="FG13" s="50"/>
+      <c r="FH13" s="50"/>
+      <c r="FI13" s="50"/>
+      <c r="FJ13" s="50"/>
+      <c r="FK13" s="50"/>
+      <c r="FL13" s="50"/>
+      <c r="FM13" s="50"/>
+      <c r="FN13" s="50"/>
+      <c r="FO13" s="50"/>
+      <c r="FP13" s="50"/>
+      <c r="FQ13" s="50"/>
+      <c r="FR13" s="50"/>
+      <c r="FS13" s="50"/>
+      <c r="FT13" s="50"/>
+      <c r="FU13" s="50"/>
+      <c r="FV13" s="50"/>
+      <c r="FW13" s="50"/>
+      <c r="FX13" s="50"/>
+      <c r="FY13" s="50"/>
+      <c r="FZ13" s="50"/>
+      <c r="GA13" s="50"/>
+      <c r="GB13" s="50"/>
+      <c r="GC13" s="50"/>
+      <c r="GD13" s="50"/>
+      <c r="GE13" s="50"/>
+      <c r="GF13" s="50"/>
+      <c r="GG13" s="41"/>
       <c r="GH13" s="14"/>
       <c r="GI13" s="14"/>
       <c r="GJ13" s="14"/>
@@ -5714,15 +5744,15 @@
       <c r="IX13" s="14"/>
     </row>
     <row r="14" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42">
+      <c r="A14" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="35">
         <f>DATE(2021,11,19)</f>
         <v>44519</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="35">
         <f>DATE(2022,2,6)</f>
         <v>44598</v>
       </c>
@@ -5749,170 +5779,170 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="58"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="58"/>
-      <c r="AO14" s="58"/>
-      <c r="AP14" s="58"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="58"/>
-      <c r="AT14" s="58"/>
-      <c r="AU14" s="58"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="58"/>
-      <c r="AY14" s="58"/>
-      <c r="AZ14" s="58"/>
-      <c r="BA14" s="58"/>
-      <c r="BB14" s="58"/>
-      <c r="BC14" s="58"/>
-      <c r="BD14" s="58"/>
-      <c r="BE14" s="58"/>
-      <c r="BF14" s="58"/>
-      <c r="BG14" s="58"/>
-      <c r="BH14" s="58"/>
-      <c r="BI14" s="58"/>
-      <c r="BJ14" s="58"/>
-      <c r="BK14" s="58"/>
-      <c r="BL14" s="58"/>
-      <c r="BM14" s="58"/>
-      <c r="BN14" s="58"/>
-      <c r="BO14" s="58"/>
-      <c r="BP14" s="58"/>
-      <c r="BQ14" s="58"/>
-      <c r="BR14" s="58"/>
-      <c r="BS14" s="58"/>
-      <c r="BT14" s="58"/>
-      <c r="BU14" s="58"/>
-      <c r="BV14" s="58"/>
-      <c r="BW14" s="58"/>
-      <c r="BX14" s="58"/>
-      <c r="BY14" s="58"/>
-      <c r="BZ14" s="58"/>
-      <c r="CA14" s="58"/>
-      <c r="CB14" s="58"/>
-      <c r="CC14" s="58"/>
-      <c r="CD14" s="58"/>
-      <c r="CE14" s="58"/>
-      <c r="CF14" s="58"/>
-      <c r="CG14" s="58"/>
-      <c r="CH14" s="58"/>
-      <c r="CI14" s="58"/>
-      <c r="CJ14" s="58"/>
-      <c r="CK14" s="58"/>
-      <c r="CL14" s="58"/>
-      <c r="CM14" s="58"/>
-      <c r="CN14" s="58"/>
-      <c r="CO14" s="58"/>
-      <c r="CP14" s="58"/>
-      <c r="CQ14" s="58"/>
-      <c r="CR14" s="58"/>
-      <c r="CS14" s="58"/>
-      <c r="CT14" s="58"/>
-      <c r="CU14" s="58"/>
-      <c r="CV14" s="58"/>
-      <c r="CW14" s="58"/>
-      <c r="CX14" s="58"/>
-      <c r="CY14" s="58"/>
-      <c r="CZ14" s="58"/>
-      <c r="DA14" s="58"/>
-      <c r="DB14" s="58"/>
-      <c r="DC14" s="58"/>
-      <c r="DD14" s="58"/>
-      <c r="DE14" s="58"/>
-      <c r="DF14" s="58"/>
-      <c r="DG14" s="58"/>
-      <c r="DH14" s="58"/>
-      <c r="DI14" s="58"/>
-      <c r="DJ14" s="58"/>
-      <c r="DK14" s="58"/>
-      <c r="DL14" s="58"/>
-      <c r="DM14" s="58"/>
-      <c r="DN14" s="58"/>
-      <c r="DO14" s="58"/>
-      <c r="DP14" s="58"/>
-      <c r="DQ14" s="58"/>
-      <c r="DR14" s="58"/>
-      <c r="DS14" s="58"/>
-      <c r="DT14" s="58"/>
-      <c r="DU14" s="58"/>
-      <c r="DV14" s="58"/>
-      <c r="DW14" s="58"/>
-      <c r="DX14" s="58"/>
-      <c r="DY14" s="58"/>
-      <c r="DZ14" s="58"/>
-      <c r="EA14" s="58"/>
-      <c r="EB14" s="58"/>
-      <c r="EC14" s="58"/>
-      <c r="ED14" s="58"/>
-      <c r="EE14" s="58"/>
-      <c r="EF14" s="58"/>
-      <c r="EG14" s="58"/>
-      <c r="EH14" s="58"/>
-      <c r="EI14" s="58"/>
-      <c r="EJ14" s="58"/>
-      <c r="EK14" s="58"/>
-      <c r="EL14" s="58"/>
-      <c r="EM14" s="58"/>
-      <c r="EN14" s="58"/>
-      <c r="EO14" s="58"/>
-      <c r="EP14" s="58"/>
-      <c r="EQ14" s="58"/>
-      <c r="ER14" s="58"/>
-      <c r="ES14" s="58"/>
-      <c r="ET14" s="58"/>
-      <c r="EU14" s="58"/>
-      <c r="EV14" s="58"/>
-      <c r="EW14" s="58"/>
-      <c r="EX14" s="58"/>
-      <c r="EY14" s="58"/>
-      <c r="EZ14" s="58"/>
-      <c r="FA14" s="58"/>
-      <c r="FB14" s="58"/>
-      <c r="FC14" s="58"/>
-      <c r="FD14" s="58"/>
-      <c r="FE14" s="58"/>
-      <c r="FF14" s="58"/>
-      <c r="FG14" s="58"/>
-      <c r="FH14" s="58"/>
-      <c r="FI14" s="58"/>
-      <c r="FJ14" s="58"/>
-      <c r="FK14" s="58"/>
-      <c r="FL14" s="58"/>
-      <c r="FM14" s="58"/>
-      <c r="FN14" s="58"/>
-      <c r="FO14" s="58"/>
-      <c r="FP14" s="58"/>
-      <c r="FQ14" s="58"/>
-      <c r="FR14" s="58"/>
-      <c r="FS14" s="58"/>
-      <c r="FT14" s="58"/>
-      <c r="FU14" s="58"/>
-      <c r="FV14" s="58"/>
-      <c r="FW14" s="58"/>
-      <c r="FX14" s="63"/>
-      <c r="FY14" s="64"/>
-      <c r="FZ14" s="58"/>
-      <c r="GA14" s="58"/>
-      <c r="GB14" s="58"/>
-      <c r="GC14" s="58"/>
-      <c r="GD14" s="58"/>
-      <c r="GE14" s="58"/>
-      <c r="GF14" s="58"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="43"/>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="43"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="43"/>
+      <c r="AO14" s="43"/>
+      <c r="AP14" s="43"/>
+      <c r="AQ14" s="43"/>
+      <c r="AR14" s="43"/>
+      <c r="AS14" s="43"/>
+      <c r="AT14" s="43"/>
+      <c r="AU14" s="43"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
+      <c r="BB14" s="43"/>
+      <c r="BC14" s="43"/>
+      <c r="BD14" s="43"/>
+      <c r="BE14" s="43"/>
+      <c r="BF14" s="43"/>
+      <c r="BG14" s="43"/>
+      <c r="BH14" s="43"/>
+      <c r="BI14" s="43"/>
+      <c r="BJ14" s="43"/>
+      <c r="BK14" s="43"/>
+      <c r="BL14" s="43"/>
+      <c r="BM14" s="43"/>
+      <c r="BN14" s="43"/>
+      <c r="BO14" s="43"/>
+      <c r="BP14" s="43"/>
+      <c r="BQ14" s="43"/>
+      <c r="BR14" s="43"/>
+      <c r="BS14" s="43"/>
+      <c r="BT14" s="43"/>
+      <c r="BU14" s="43"/>
+      <c r="BV14" s="43"/>
+      <c r="BW14" s="43"/>
+      <c r="BX14" s="43"/>
+      <c r="BY14" s="43"/>
+      <c r="BZ14" s="43"/>
+      <c r="CA14" s="43"/>
+      <c r="CB14" s="43"/>
+      <c r="CC14" s="43"/>
+      <c r="CD14" s="43"/>
+      <c r="CE14" s="43"/>
+      <c r="CF14" s="43"/>
+      <c r="CG14" s="43"/>
+      <c r="CH14" s="43"/>
+      <c r="CI14" s="43"/>
+      <c r="CJ14" s="43"/>
+      <c r="CK14" s="43"/>
+      <c r="CL14" s="43"/>
+      <c r="CM14" s="43"/>
+      <c r="CN14" s="43"/>
+      <c r="CO14" s="43"/>
+      <c r="CP14" s="43"/>
+      <c r="CQ14" s="43"/>
+      <c r="CR14" s="43"/>
+      <c r="CS14" s="43"/>
+      <c r="CT14" s="43"/>
+      <c r="CU14" s="43"/>
+      <c r="CV14" s="43"/>
+      <c r="CW14" s="43"/>
+      <c r="CX14" s="43"/>
+      <c r="CY14" s="43"/>
+      <c r="CZ14" s="43"/>
+      <c r="DA14" s="43"/>
+      <c r="DB14" s="43"/>
+      <c r="DC14" s="43"/>
+      <c r="DD14" s="43"/>
+      <c r="DE14" s="43"/>
+      <c r="DF14" s="43"/>
+      <c r="DG14" s="43"/>
+      <c r="DH14" s="43"/>
+      <c r="DI14" s="43"/>
+      <c r="DJ14" s="43"/>
+      <c r="DK14" s="43"/>
+      <c r="DL14" s="43"/>
+      <c r="DM14" s="43"/>
+      <c r="DN14" s="43"/>
+      <c r="DO14" s="43"/>
+      <c r="DP14" s="43"/>
+      <c r="DQ14" s="43"/>
+      <c r="DR14" s="43"/>
+      <c r="DS14" s="43"/>
+      <c r="DT14" s="43"/>
+      <c r="DU14" s="43"/>
+      <c r="DV14" s="43"/>
+      <c r="DW14" s="43"/>
+      <c r="DX14" s="43"/>
+      <c r="DY14" s="43"/>
+      <c r="DZ14" s="43"/>
+      <c r="EA14" s="43"/>
+      <c r="EB14" s="43"/>
+      <c r="EC14" s="43"/>
+      <c r="ED14" s="43"/>
+      <c r="EE14" s="43"/>
+      <c r="EF14" s="43"/>
+      <c r="EG14" s="43"/>
+      <c r="EH14" s="43"/>
+      <c r="EI14" s="43"/>
+      <c r="EJ14" s="43"/>
+      <c r="EK14" s="43"/>
+      <c r="EL14" s="43"/>
+      <c r="EM14" s="43"/>
+      <c r="EN14" s="43"/>
+      <c r="EO14" s="43"/>
+      <c r="EP14" s="43"/>
+      <c r="EQ14" s="43"/>
+      <c r="ER14" s="43"/>
+      <c r="ES14" s="43"/>
+      <c r="ET14" s="43"/>
+      <c r="EU14" s="43"/>
+      <c r="EV14" s="43"/>
+      <c r="EW14" s="43"/>
+      <c r="EX14" s="43"/>
+      <c r="EY14" s="43"/>
+      <c r="EZ14" s="43"/>
+      <c r="FA14" s="43"/>
+      <c r="FB14" s="43"/>
+      <c r="FC14" s="43"/>
+      <c r="FD14" s="43"/>
+      <c r="FE14" s="43"/>
+      <c r="FF14" s="43"/>
+      <c r="FG14" s="43"/>
+      <c r="FH14" s="43"/>
+      <c r="FI14" s="43"/>
+      <c r="FJ14" s="43"/>
+      <c r="FK14" s="43"/>
+      <c r="FL14" s="43"/>
+      <c r="FM14" s="43"/>
+      <c r="FN14" s="43"/>
+      <c r="FO14" s="43"/>
+      <c r="FP14" s="43"/>
+      <c r="FQ14" s="43"/>
+      <c r="FR14" s="43"/>
+      <c r="FS14" s="43"/>
+      <c r="FT14" s="43"/>
+      <c r="FU14" s="43"/>
+      <c r="FV14" s="43"/>
+      <c r="FW14" s="43"/>
+      <c r="FX14" s="48"/>
+      <c r="FY14" s="49"/>
+      <c r="FZ14" s="43"/>
+      <c r="GA14" s="43"/>
+      <c r="GB14" s="43"/>
+      <c r="GC14" s="43"/>
+      <c r="GD14" s="43"/>
+      <c r="GE14" s="43"/>
+      <c r="GF14" s="43"/>
       <c r="GG14" s="14"/>
       <c r="GH14" s="14"/>
       <c r="GI14" s="14"/>
@@ -5985,15 +6015,15 @@
       <c r="IX14" s="14"/>
     </row>
     <row r="15" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30">
+      <c r="A15" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="24">
         <f>DATE(2022,1,10)</f>
         <v>44571</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="24">
         <f>DATE(2022,2,6)</f>
         <v>44598</v>
       </c>
@@ -6256,15 +6286,15 @@
       <c r="IX15" s="14"/>
     </row>
     <row r="16" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48">
+      <c r="A16" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="36">
         <f>DATE(2022,2,7)</f>
         <v>44599</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="36">
         <f>DATE(2022,5,1)</f>
         <v>44682</v>
       </c>
@@ -6316,205 +6346,205 @@
       <c r="AU16" s="14"/>
       <c r="AV16" s="14"/>
       <c r="AW16" s="14"/>
-      <c r="AX16" s="57"/>
-      <c r="AY16" s="57"/>
-      <c r="AZ16" s="57"/>
-      <c r="BA16" s="57"/>
-      <c r="BB16" s="57"/>
-      <c r="BC16" s="57"/>
-      <c r="BD16" s="57"/>
-      <c r="BE16" s="57"/>
-      <c r="BF16" s="57"/>
-      <c r="BG16" s="57"/>
-      <c r="BH16" s="57"/>
-      <c r="BI16" s="57"/>
-      <c r="BJ16" s="57"/>
-      <c r="BK16" s="57"/>
-      <c r="BL16" s="57"/>
-      <c r="BM16" s="57"/>
-      <c r="BN16" s="57"/>
-      <c r="BO16" s="57"/>
-      <c r="BP16" s="57"/>
-      <c r="BQ16" s="57"/>
-      <c r="BR16" s="57"/>
-      <c r="BS16" s="57"/>
-      <c r="BT16" s="57"/>
-      <c r="BU16" s="57"/>
-      <c r="BV16" s="57"/>
-      <c r="BW16" s="57"/>
-      <c r="BX16" s="57"/>
-      <c r="BY16" s="57"/>
-      <c r="BZ16" s="57"/>
-      <c r="CA16" s="57"/>
-      <c r="CB16" s="57"/>
-      <c r="CC16" s="57"/>
-      <c r="CD16" s="57"/>
-      <c r="CE16" s="57"/>
-      <c r="CF16" s="57"/>
-      <c r="CG16" s="57"/>
-      <c r="CH16" s="57"/>
-      <c r="CI16" s="57"/>
-      <c r="CJ16" s="57"/>
-      <c r="CK16" s="57"/>
-      <c r="CL16" s="57"/>
-      <c r="CM16" s="57"/>
-      <c r="CN16" s="57"/>
-      <c r="CO16" s="57"/>
-      <c r="CP16" s="57"/>
-      <c r="CQ16" s="57"/>
-      <c r="CR16" s="57"/>
-      <c r="CS16" s="57"/>
-      <c r="CT16" s="57"/>
-      <c r="CU16" s="57"/>
-      <c r="CV16" s="57"/>
-      <c r="CW16" s="57"/>
-      <c r="CX16" s="57"/>
-      <c r="CY16" s="57"/>
-      <c r="CZ16" s="57"/>
-      <c r="DA16" s="57"/>
-      <c r="DB16" s="57"/>
-      <c r="DC16" s="57"/>
-      <c r="DD16" s="57"/>
-      <c r="DE16" s="57"/>
-      <c r="DF16" s="57"/>
-      <c r="DG16" s="57"/>
-      <c r="DH16" s="57"/>
-      <c r="DI16" s="57"/>
-      <c r="DJ16" s="57"/>
-      <c r="DK16" s="57"/>
-      <c r="DL16" s="57"/>
-      <c r="DM16" s="57"/>
-      <c r="DN16" s="57"/>
-      <c r="DO16" s="57"/>
-      <c r="DP16" s="57"/>
-      <c r="DQ16" s="57"/>
-      <c r="DR16" s="57"/>
-      <c r="DS16" s="57"/>
-      <c r="DT16" s="57"/>
-      <c r="DU16" s="57"/>
-      <c r="DV16" s="57"/>
-      <c r="DW16" s="57"/>
-      <c r="DX16" s="57"/>
-      <c r="DY16" s="57"/>
-      <c r="DZ16" s="57"/>
-      <c r="EA16" s="57"/>
-      <c r="EB16" s="57"/>
-      <c r="EC16" s="57"/>
-      <c r="ED16" s="57"/>
-      <c r="EE16" s="57"/>
-      <c r="EF16" s="57"/>
-      <c r="EG16" s="57"/>
-      <c r="EH16" s="57"/>
-      <c r="EI16" s="57"/>
-      <c r="EJ16" s="57"/>
-      <c r="EK16" s="57"/>
-      <c r="EL16" s="57"/>
-      <c r="EM16" s="57"/>
-      <c r="EN16" s="57"/>
-      <c r="EO16" s="57"/>
-      <c r="EP16" s="57"/>
-      <c r="EQ16" s="57"/>
-      <c r="ER16" s="57"/>
-      <c r="ES16" s="57"/>
-      <c r="ET16" s="57"/>
-      <c r="EU16" s="57"/>
-      <c r="EV16" s="57"/>
-      <c r="EW16" s="57"/>
-      <c r="EX16" s="57"/>
-      <c r="EY16" s="57"/>
-      <c r="EZ16" s="57"/>
-      <c r="FA16" s="57"/>
-      <c r="FB16" s="57"/>
-      <c r="FC16" s="57"/>
-      <c r="FD16" s="57"/>
-      <c r="FE16" s="57"/>
-      <c r="FF16" s="57"/>
-      <c r="FG16" s="57"/>
-      <c r="FH16" s="57"/>
-      <c r="FI16" s="57"/>
-      <c r="FJ16" s="57"/>
-      <c r="FK16" s="57"/>
-      <c r="FL16" s="57"/>
-      <c r="FM16" s="57"/>
-      <c r="FN16" s="57"/>
-      <c r="FO16" s="57"/>
-      <c r="FP16" s="57"/>
-      <c r="FQ16" s="57"/>
-      <c r="FR16" s="57"/>
-      <c r="FS16" s="57"/>
-      <c r="FT16" s="57"/>
-      <c r="FU16" s="57"/>
-      <c r="FV16" s="57"/>
-      <c r="FW16" s="57"/>
-      <c r="FX16" s="57"/>
-      <c r="FY16" s="57"/>
-      <c r="FZ16" s="57"/>
-      <c r="GA16" s="57"/>
-      <c r="GB16" s="57"/>
-      <c r="GC16" s="57"/>
-      <c r="GD16" s="57"/>
-      <c r="GE16" s="57"/>
-      <c r="GF16" s="57"/>
-      <c r="GG16" s="57"/>
-      <c r="GH16" s="57"/>
-      <c r="GI16" s="57"/>
-      <c r="GJ16" s="57"/>
-      <c r="GK16" s="57"/>
-      <c r="GL16" s="57"/>
-      <c r="GM16" s="57"/>
-      <c r="GN16" s="57"/>
-      <c r="GO16" s="57"/>
-      <c r="GP16" s="57"/>
-      <c r="GQ16" s="57"/>
-      <c r="GR16" s="57"/>
-      <c r="GS16" s="57"/>
-      <c r="GT16" s="57"/>
-      <c r="GU16" s="57"/>
-      <c r="GV16" s="57"/>
-      <c r="GW16" s="57"/>
-      <c r="GX16" s="57"/>
-      <c r="GY16" s="57"/>
-      <c r="GZ16" s="57"/>
-      <c r="HA16" s="57"/>
-      <c r="HB16" s="57"/>
-      <c r="HC16" s="57"/>
-      <c r="HD16" s="57"/>
-      <c r="HE16" s="57"/>
-      <c r="HF16" s="57"/>
-      <c r="HG16" s="57"/>
-      <c r="HH16" s="57"/>
-      <c r="HI16" s="57"/>
-      <c r="HJ16" s="57"/>
-      <c r="HK16" s="57"/>
-      <c r="HL16" s="57"/>
-      <c r="HM16" s="57"/>
-      <c r="HN16" s="57"/>
-      <c r="HO16" s="57"/>
-      <c r="HP16" s="57"/>
-      <c r="HQ16" s="57"/>
-      <c r="HR16" s="57"/>
-      <c r="HS16" s="57"/>
-      <c r="HT16" s="57"/>
-      <c r="HU16" s="57"/>
-      <c r="HV16" s="57"/>
-      <c r="HW16" s="57"/>
-      <c r="HX16" s="57"/>
-      <c r="HY16" s="57"/>
-      <c r="HZ16" s="57"/>
-      <c r="IA16" s="57"/>
-      <c r="IB16" s="57"/>
-      <c r="IC16" s="57"/>
-      <c r="ID16" s="57"/>
-      <c r="IE16" s="57"/>
-      <c r="IF16" s="57"/>
-      <c r="IG16" s="57"/>
-      <c r="IH16" s="57"/>
-      <c r="II16" s="57"/>
-      <c r="IJ16" s="57"/>
-      <c r="IK16" s="57"/>
-      <c r="IL16" s="57"/>
-      <c r="IM16" s="57"/>
-      <c r="IN16" s="57"/>
+      <c r="AX16" s="42"/>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="42"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="42"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="42"/>
+      <c r="BF16" s="42"/>
+      <c r="BG16" s="42"/>
+      <c r="BH16" s="42"/>
+      <c r="BI16" s="42"/>
+      <c r="BJ16" s="42"/>
+      <c r="BK16" s="42"/>
+      <c r="BL16" s="42"/>
+      <c r="BM16" s="42"/>
+      <c r="BN16" s="42"/>
+      <c r="BO16" s="42"/>
+      <c r="BP16" s="42"/>
+      <c r="BQ16" s="42"/>
+      <c r="BR16" s="42"/>
+      <c r="BS16" s="42"/>
+      <c r="BT16" s="42"/>
+      <c r="BU16" s="42"/>
+      <c r="BV16" s="42"/>
+      <c r="BW16" s="42"/>
+      <c r="BX16" s="42"/>
+      <c r="BY16" s="42"/>
+      <c r="BZ16" s="42"/>
+      <c r="CA16" s="42"/>
+      <c r="CB16" s="42"/>
+      <c r="CC16" s="42"/>
+      <c r="CD16" s="42"/>
+      <c r="CE16" s="42"/>
+      <c r="CF16" s="42"/>
+      <c r="CG16" s="42"/>
+      <c r="CH16" s="42"/>
+      <c r="CI16" s="42"/>
+      <c r="CJ16" s="42"/>
+      <c r="CK16" s="42"/>
+      <c r="CL16" s="42"/>
+      <c r="CM16" s="42"/>
+      <c r="CN16" s="42"/>
+      <c r="CO16" s="42"/>
+      <c r="CP16" s="42"/>
+      <c r="CQ16" s="42"/>
+      <c r="CR16" s="42"/>
+      <c r="CS16" s="42"/>
+      <c r="CT16" s="42"/>
+      <c r="CU16" s="42"/>
+      <c r="CV16" s="42"/>
+      <c r="CW16" s="42"/>
+      <c r="CX16" s="42"/>
+      <c r="CY16" s="42"/>
+      <c r="CZ16" s="42"/>
+      <c r="DA16" s="42"/>
+      <c r="DB16" s="42"/>
+      <c r="DC16" s="42"/>
+      <c r="DD16" s="42"/>
+      <c r="DE16" s="42"/>
+      <c r="DF16" s="42"/>
+      <c r="DG16" s="42"/>
+      <c r="DH16" s="42"/>
+      <c r="DI16" s="42"/>
+      <c r="DJ16" s="42"/>
+      <c r="DK16" s="42"/>
+      <c r="DL16" s="42"/>
+      <c r="DM16" s="42"/>
+      <c r="DN16" s="42"/>
+      <c r="DO16" s="42"/>
+      <c r="DP16" s="42"/>
+      <c r="DQ16" s="42"/>
+      <c r="DR16" s="42"/>
+      <c r="DS16" s="42"/>
+      <c r="DT16" s="42"/>
+      <c r="DU16" s="42"/>
+      <c r="DV16" s="42"/>
+      <c r="DW16" s="42"/>
+      <c r="DX16" s="42"/>
+      <c r="DY16" s="42"/>
+      <c r="DZ16" s="42"/>
+      <c r="EA16" s="42"/>
+      <c r="EB16" s="42"/>
+      <c r="EC16" s="42"/>
+      <c r="ED16" s="42"/>
+      <c r="EE16" s="42"/>
+      <c r="EF16" s="42"/>
+      <c r="EG16" s="42"/>
+      <c r="EH16" s="42"/>
+      <c r="EI16" s="42"/>
+      <c r="EJ16" s="42"/>
+      <c r="EK16" s="42"/>
+      <c r="EL16" s="42"/>
+      <c r="EM16" s="42"/>
+      <c r="EN16" s="42"/>
+      <c r="EO16" s="42"/>
+      <c r="EP16" s="42"/>
+      <c r="EQ16" s="42"/>
+      <c r="ER16" s="42"/>
+      <c r="ES16" s="42"/>
+      <c r="ET16" s="42"/>
+      <c r="EU16" s="42"/>
+      <c r="EV16" s="42"/>
+      <c r="EW16" s="42"/>
+      <c r="EX16" s="42"/>
+      <c r="EY16" s="42"/>
+      <c r="EZ16" s="42"/>
+      <c r="FA16" s="42"/>
+      <c r="FB16" s="42"/>
+      <c r="FC16" s="42"/>
+      <c r="FD16" s="42"/>
+      <c r="FE16" s="42"/>
+      <c r="FF16" s="42"/>
+      <c r="FG16" s="42"/>
+      <c r="FH16" s="42"/>
+      <c r="FI16" s="42"/>
+      <c r="FJ16" s="42"/>
+      <c r="FK16" s="42"/>
+      <c r="FL16" s="42"/>
+      <c r="FM16" s="42"/>
+      <c r="FN16" s="42"/>
+      <c r="FO16" s="42"/>
+      <c r="FP16" s="42"/>
+      <c r="FQ16" s="42"/>
+      <c r="FR16" s="42"/>
+      <c r="FS16" s="42"/>
+      <c r="FT16" s="42"/>
+      <c r="FU16" s="42"/>
+      <c r="FV16" s="42"/>
+      <c r="FW16" s="42"/>
+      <c r="FX16" s="42"/>
+      <c r="FY16" s="42"/>
+      <c r="FZ16" s="42"/>
+      <c r="GA16" s="42"/>
+      <c r="GB16" s="42"/>
+      <c r="GC16" s="42"/>
+      <c r="GD16" s="42"/>
+      <c r="GE16" s="42"/>
+      <c r="GF16" s="42"/>
+      <c r="GG16" s="42"/>
+      <c r="GH16" s="42"/>
+      <c r="GI16" s="42"/>
+      <c r="GJ16" s="42"/>
+      <c r="GK16" s="42"/>
+      <c r="GL16" s="42"/>
+      <c r="GM16" s="42"/>
+      <c r="GN16" s="42"/>
+      <c r="GO16" s="42"/>
+      <c r="GP16" s="42"/>
+      <c r="GQ16" s="42"/>
+      <c r="GR16" s="42"/>
+      <c r="GS16" s="42"/>
+      <c r="GT16" s="42"/>
+      <c r="GU16" s="42"/>
+      <c r="GV16" s="42"/>
+      <c r="GW16" s="42"/>
+      <c r="GX16" s="42"/>
+      <c r="GY16" s="42"/>
+      <c r="GZ16" s="42"/>
+      <c r="HA16" s="42"/>
+      <c r="HB16" s="42"/>
+      <c r="HC16" s="42"/>
+      <c r="HD16" s="42"/>
+      <c r="HE16" s="42"/>
+      <c r="HF16" s="42"/>
+      <c r="HG16" s="42"/>
+      <c r="HH16" s="42"/>
+      <c r="HI16" s="42"/>
+      <c r="HJ16" s="42"/>
+      <c r="HK16" s="42"/>
+      <c r="HL16" s="42"/>
+      <c r="HM16" s="42"/>
+      <c r="HN16" s="42"/>
+      <c r="HO16" s="42"/>
+      <c r="HP16" s="42"/>
+      <c r="HQ16" s="42"/>
+      <c r="HR16" s="42"/>
+      <c r="HS16" s="42"/>
+      <c r="HT16" s="42"/>
+      <c r="HU16" s="42"/>
+      <c r="HV16" s="42"/>
+      <c r="HW16" s="42"/>
+      <c r="HX16" s="42"/>
+      <c r="HY16" s="42"/>
+      <c r="HZ16" s="42"/>
+      <c r="IA16" s="42"/>
+      <c r="IB16" s="42"/>
+      <c r="IC16" s="42"/>
+      <c r="ID16" s="42"/>
+      <c r="IE16" s="42"/>
+      <c r="IF16" s="42"/>
+      <c r="IG16" s="42"/>
+      <c r="IH16" s="42"/>
+      <c r="II16" s="42"/>
+      <c r="IJ16" s="42"/>
+      <c r="IK16" s="42"/>
+      <c r="IL16" s="42"/>
+      <c r="IM16" s="42"/>
+      <c r="IN16" s="42"/>
       <c r="IO16" s="14"/>
       <c r="IP16" s="14"/>
       <c r="IQ16" s="14"/>
@@ -6527,16 +6557,16 @@
       <c r="IX16" s="14"/>
     </row>
     <row r="17" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51" t="str">
+      <c r="A17" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="37" t="str">
         <f>C18</f>
         <v>14/12/2021</v>
       </c>
-      <c r="D17" s="52">
-        <f>D24</f>
+      <c r="D17" s="38">
+        <f>D26</f>
         <v>44742</v>
       </c>
       <c r="E17" s="13"/>
@@ -6587,205 +6617,205 @@
       <c r="AU17" s="14"/>
       <c r="AV17" s="14"/>
       <c r="AW17" s="14"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="67"/>
-      <c r="AZ17" s="67"/>
-      <c r="BA17" s="67"/>
-      <c r="BB17" s="67"/>
-      <c r="BC17" s="67"/>
-      <c r="BD17" s="67"/>
-      <c r="BE17" s="67"/>
-      <c r="BF17" s="67"/>
-      <c r="BG17" s="67"/>
-      <c r="BH17" s="67"/>
-      <c r="BI17" s="67"/>
-      <c r="BJ17" s="67"/>
-      <c r="BK17" s="67"/>
-      <c r="BL17" s="67"/>
-      <c r="BM17" s="67"/>
-      <c r="BN17" s="67"/>
-      <c r="BO17" s="67"/>
-      <c r="BP17" s="67"/>
-      <c r="BQ17" s="67"/>
-      <c r="BR17" s="67"/>
-      <c r="BS17" s="67"/>
-      <c r="BT17" s="67"/>
-      <c r="BU17" s="67"/>
-      <c r="BV17" s="67"/>
-      <c r="BW17" s="67"/>
-      <c r="BX17" s="67"/>
-      <c r="BY17" s="67"/>
-      <c r="BZ17" s="67"/>
-      <c r="CA17" s="67"/>
-      <c r="CB17" s="67"/>
-      <c r="CC17" s="67"/>
-      <c r="CD17" s="67"/>
-      <c r="CE17" s="67"/>
-      <c r="CF17" s="67"/>
-      <c r="CG17" s="67"/>
-      <c r="CH17" s="67"/>
-      <c r="CI17" s="67"/>
-      <c r="CJ17" s="67"/>
-      <c r="CK17" s="67"/>
-      <c r="CL17" s="67"/>
-      <c r="CM17" s="67"/>
-      <c r="CN17" s="67"/>
-      <c r="CO17" s="67"/>
-      <c r="CP17" s="67"/>
-      <c r="CQ17" s="67"/>
-      <c r="CR17" s="67"/>
-      <c r="CS17" s="67"/>
-      <c r="CT17" s="67"/>
-      <c r="CU17" s="67"/>
-      <c r="CV17" s="67"/>
-      <c r="CW17" s="67"/>
-      <c r="CX17" s="67"/>
-      <c r="CY17" s="67"/>
-      <c r="CZ17" s="67"/>
-      <c r="DA17" s="67"/>
-      <c r="DB17" s="67"/>
-      <c r="DC17" s="67"/>
-      <c r="DD17" s="67"/>
-      <c r="DE17" s="67"/>
-      <c r="DF17" s="67"/>
-      <c r="DG17" s="67"/>
-      <c r="DH17" s="67"/>
-      <c r="DI17" s="67"/>
-      <c r="DJ17" s="67"/>
-      <c r="DK17" s="67"/>
-      <c r="DL17" s="67"/>
-      <c r="DM17" s="67"/>
-      <c r="DN17" s="67"/>
-      <c r="DO17" s="67"/>
-      <c r="DP17" s="67"/>
-      <c r="DQ17" s="67"/>
-      <c r="DR17" s="67"/>
-      <c r="DS17" s="67"/>
-      <c r="DT17" s="67"/>
-      <c r="DU17" s="67"/>
-      <c r="DV17" s="67"/>
-      <c r="DW17" s="67"/>
-      <c r="DX17" s="67"/>
-      <c r="DY17" s="67"/>
-      <c r="DZ17" s="67"/>
-      <c r="EA17" s="67"/>
-      <c r="EB17" s="67"/>
-      <c r="EC17" s="67"/>
-      <c r="ED17" s="67"/>
-      <c r="EE17" s="67"/>
-      <c r="EF17" s="67"/>
-      <c r="EG17" s="67"/>
-      <c r="EH17" s="67"/>
-      <c r="EI17" s="67"/>
-      <c r="EJ17" s="67"/>
-      <c r="EK17" s="67"/>
-      <c r="EL17" s="67"/>
-      <c r="EM17" s="67"/>
-      <c r="EN17" s="67"/>
-      <c r="EO17" s="67"/>
-      <c r="EP17" s="67"/>
-      <c r="EQ17" s="67"/>
-      <c r="ER17" s="67"/>
-      <c r="ES17" s="67"/>
-      <c r="ET17" s="67"/>
-      <c r="EU17" s="67"/>
-      <c r="EV17" s="67"/>
-      <c r="EW17" s="67"/>
-      <c r="EX17" s="67"/>
-      <c r="EY17" s="67"/>
-      <c r="EZ17" s="67"/>
-      <c r="FA17" s="67"/>
-      <c r="FB17" s="67"/>
-      <c r="FC17" s="67"/>
-      <c r="FD17" s="67"/>
-      <c r="FE17" s="67"/>
-      <c r="FF17" s="67"/>
-      <c r="FG17" s="67"/>
-      <c r="FH17" s="67"/>
-      <c r="FI17" s="67"/>
-      <c r="FJ17" s="67"/>
-      <c r="FK17" s="67"/>
-      <c r="FL17" s="67"/>
-      <c r="FM17" s="67"/>
-      <c r="FN17" s="67"/>
-      <c r="FO17" s="67"/>
-      <c r="FP17" s="67"/>
-      <c r="FQ17" s="67"/>
-      <c r="FR17" s="67"/>
-      <c r="FS17" s="67"/>
-      <c r="FT17" s="67"/>
-      <c r="FU17" s="67"/>
-      <c r="FV17" s="67"/>
-      <c r="FW17" s="67"/>
-      <c r="FX17" s="67"/>
-      <c r="FY17" s="67"/>
-      <c r="FZ17" s="67"/>
-      <c r="GA17" s="67"/>
-      <c r="GB17" s="67"/>
-      <c r="GC17" s="67"/>
-      <c r="GD17" s="67"/>
-      <c r="GE17" s="67"/>
-      <c r="GF17" s="67"/>
-      <c r="GG17" s="67"/>
-      <c r="GH17" s="67"/>
-      <c r="GI17" s="67"/>
-      <c r="GJ17" s="67"/>
-      <c r="GK17" s="67"/>
-      <c r="GL17" s="67"/>
-      <c r="GM17" s="67"/>
-      <c r="GN17" s="67"/>
-      <c r="GO17" s="67"/>
-      <c r="GP17" s="67"/>
-      <c r="GQ17" s="67"/>
-      <c r="GR17" s="67"/>
-      <c r="GS17" s="67"/>
-      <c r="GT17" s="67"/>
-      <c r="GU17" s="67"/>
-      <c r="GV17" s="67"/>
-      <c r="GW17" s="67"/>
-      <c r="GX17" s="67"/>
-      <c r="GY17" s="67"/>
-      <c r="GZ17" s="67"/>
-      <c r="HA17" s="67"/>
-      <c r="HB17" s="67"/>
-      <c r="HC17" s="67"/>
-      <c r="HD17" s="67"/>
-      <c r="HE17" s="67"/>
-      <c r="HF17" s="67"/>
-      <c r="HG17" s="67"/>
-      <c r="HH17" s="67"/>
-      <c r="HI17" s="67"/>
-      <c r="HJ17" s="67"/>
-      <c r="HK17" s="67"/>
-      <c r="HL17" s="67"/>
-      <c r="HM17" s="67"/>
-      <c r="HN17" s="67"/>
-      <c r="HO17" s="67"/>
-      <c r="HP17" s="67"/>
-      <c r="HQ17" s="67"/>
-      <c r="HR17" s="67"/>
-      <c r="HS17" s="67"/>
-      <c r="HT17" s="67"/>
-      <c r="HU17" s="67"/>
-      <c r="HV17" s="67"/>
-      <c r="HW17" s="67"/>
-      <c r="HX17" s="67"/>
-      <c r="HY17" s="67"/>
-      <c r="HZ17" s="67"/>
-      <c r="IA17" s="67"/>
-      <c r="IB17" s="67"/>
-      <c r="IC17" s="67"/>
-      <c r="ID17" s="67"/>
-      <c r="IE17" s="67"/>
-      <c r="IF17" s="67"/>
-      <c r="IG17" s="67"/>
-      <c r="IH17" s="67"/>
-      <c r="II17" s="67"/>
-      <c r="IJ17" s="67"/>
-      <c r="IK17" s="67"/>
-      <c r="IL17" s="67"/>
-      <c r="IM17" s="67"/>
-      <c r="IN17" s="68"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="52"/>
+      <c r="AZ17" s="52"/>
+      <c r="BA17" s="52"/>
+      <c r="BB17" s="52"/>
+      <c r="BC17" s="52"/>
+      <c r="BD17" s="52"/>
+      <c r="BE17" s="52"/>
+      <c r="BF17" s="52"/>
+      <c r="BG17" s="52"/>
+      <c r="BH17" s="52"/>
+      <c r="BI17" s="52"/>
+      <c r="BJ17" s="52"/>
+      <c r="BK17" s="52"/>
+      <c r="BL17" s="52"/>
+      <c r="BM17" s="52"/>
+      <c r="BN17" s="52"/>
+      <c r="BO17" s="52"/>
+      <c r="BP17" s="52"/>
+      <c r="BQ17" s="52"/>
+      <c r="BR17" s="52"/>
+      <c r="BS17" s="52"/>
+      <c r="BT17" s="52"/>
+      <c r="BU17" s="52"/>
+      <c r="BV17" s="52"/>
+      <c r="BW17" s="52"/>
+      <c r="BX17" s="52"/>
+      <c r="BY17" s="52"/>
+      <c r="BZ17" s="52"/>
+      <c r="CA17" s="52"/>
+      <c r="CB17" s="52"/>
+      <c r="CC17" s="52"/>
+      <c r="CD17" s="52"/>
+      <c r="CE17" s="52"/>
+      <c r="CF17" s="52"/>
+      <c r="CG17" s="52"/>
+      <c r="CH17" s="52"/>
+      <c r="CI17" s="52"/>
+      <c r="CJ17" s="52"/>
+      <c r="CK17" s="52"/>
+      <c r="CL17" s="52"/>
+      <c r="CM17" s="52"/>
+      <c r="CN17" s="52"/>
+      <c r="CO17" s="52"/>
+      <c r="CP17" s="52"/>
+      <c r="CQ17" s="52"/>
+      <c r="CR17" s="52"/>
+      <c r="CS17" s="52"/>
+      <c r="CT17" s="52"/>
+      <c r="CU17" s="52"/>
+      <c r="CV17" s="52"/>
+      <c r="CW17" s="52"/>
+      <c r="CX17" s="52"/>
+      <c r="CY17" s="52"/>
+      <c r="CZ17" s="52"/>
+      <c r="DA17" s="52"/>
+      <c r="DB17" s="52"/>
+      <c r="DC17" s="52"/>
+      <c r="DD17" s="52"/>
+      <c r="DE17" s="52"/>
+      <c r="DF17" s="52"/>
+      <c r="DG17" s="52"/>
+      <c r="DH17" s="52"/>
+      <c r="DI17" s="52"/>
+      <c r="DJ17" s="52"/>
+      <c r="DK17" s="52"/>
+      <c r="DL17" s="52"/>
+      <c r="DM17" s="52"/>
+      <c r="DN17" s="52"/>
+      <c r="DO17" s="52"/>
+      <c r="DP17" s="52"/>
+      <c r="DQ17" s="52"/>
+      <c r="DR17" s="52"/>
+      <c r="DS17" s="52"/>
+      <c r="DT17" s="52"/>
+      <c r="DU17" s="52"/>
+      <c r="DV17" s="52"/>
+      <c r="DW17" s="52"/>
+      <c r="DX17" s="52"/>
+      <c r="DY17" s="52"/>
+      <c r="DZ17" s="52"/>
+      <c r="EA17" s="52"/>
+      <c r="EB17" s="52"/>
+      <c r="EC17" s="52"/>
+      <c r="ED17" s="52"/>
+      <c r="EE17" s="52"/>
+      <c r="EF17" s="52"/>
+      <c r="EG17" s="52"/>
+      <c r="EH17" s="52"/>
+      <c r="EI17" s="52"/>
+      <c r="EJ17" s="52"/>
+      <c r="EK17" s="52"/>
+      <c r="EL17" s="52"/>
+      <c r="EM17" s="52"/>
+      <c r="EN17" s="52"/>
+      <c r="EO17" s="52"/>
+      <c r="EP17" s="52"/>
+      <c r="EQ17" s="52"/>
+      <c r="ER17" s="52"/>
+      <c r="ES17" s="52"/>
+      <c r="ET17" s="52"/>
+      <c r="EU17" s="52"/>
+      <c r="EV17" s="52"/>
+      <c r="EW17" s="52"/>
+      <c r="EX17" s="52"/>
+      <c r="EY17" s="52"/>
+      <c r="EZ17" s="52"/>
+      <c r="FA17" s="52"/>
+      <c r="FB17" s="52"/>
+      <c r="FC17" s="52"/>
+      <c r="FD17" s="52"/>
+      <c r="FE17" s="52"/>
+      <c r="FF17" s="52"/>
+      <c r="FG17" s="52"/>
+      <c r="FH17" s="52"/>
+      <c r="FI17" s="52"/>
+      <c r="FJ17" s="52"/>
+      <c r="FK17" s="52"/>
+      <c r="FL17" s="52"/>
+      <c r="FM17" s="52"/>
+      <c r="FN17" s="52"/>
+      <c r="FO17" s="52"/>
+      <c r="FP17" s="52"/>
+      <c r="FQ17" s="52"/>
+      <c r="FR17" s="52"/>
+      <c r="FS17" s="52"/>
+      <c r="FT17" s="52"/>
+      <c r="FU17" s="52"/>
+      <c r="FV17" s="52"/>
+      <c r="FW17" s="52"/>
+      <c r="FX17" s="52"/>
+      <c r="FY17" s="52"/>
+      <c r="FZ17" s="52"/>
+      <c r="GA17" s="52"/>
+      <c r="GB17" s="52"/>
+      <c r="GC17" s="52"/>
+      <c r="GD17" s="52"/>
+      <c r="GE17" s="52"/>
+      <c r="GF17" s="52"/>
+      <c r="GG17" s="52"/>
+      <c r="GH17" s="52"/>
+      <c r="GI17" s="52"/>
+      <c r="GJ17" s="52"/>
+      <c r="GK17" s="52"/>
+      <c r="GL17" s="52"/>
+      <c r="GM17" s="52"/>
+      <c r="GN17" s="52"/>
+      <c r="GO17" s="52"/>
+      <c r="GP17" s="52"/>
+      <c r="GQ17" s="52"/>
+      <c r="GR17" s="52"/>
+      <c r="GS17" s="52"/>
+      <c r="GT17" s="52"/>
+      <c r="GU17" s="52"/>
+      <c r="GV17" s="52"/>
+      <c r="GW17" s="52"/>
+      <c r="GX17" s="52"/>
+      <c r="GY17" s="52"/>
+      <c r="GZ17" s="52"/>
+      <c r="HA17" s="52"/>
+      <c r="HB17" s="52"/>
+      <c r="HC17" s="52"/>
+      <c r="HD17" s="52"/>
+      <c r="HE17" s="52"/>
+      <c r="HF17" s="52"/>
+      <c r="HG17" s="52"/>
+      <c r="HH17" s="52"/>
+      <c r="HI17" s="52"/>
+      <c r="HJ17" s="52"/>
+      <c r="HK17" s="52"/>
+      <c r="HL17" s="52"/>
+      <c r="HM17" s="52"/>
+      <c r="HN17" s="52"/>
+      <c r="HO17" s="52"/>
+      <c r="HP17" s="52"/>
+      <c r="HQ17" s="52"/>
+      <c r="HR17" s="52"/>
+      <c r="HS17" s="52"/>
+      <c r="HT17" s="52"/>
+      <c r="HU17" s="52"/>
+      <c r="HV17" s="52"/>
+      <c r="HW17" s="52"/>
+      <c r="HX17" s="52"/>
+      <c r="HY17" s="52"/>
+      <c r="HZ17" s="52"/>
+      <c r="IA17" s="52"/>
+      <c r="IB17" s="52"/>
+      <c r="IC17" s="52"/>
+      <c r="ID17" s="52"/>
+      <c r="IE17" s="52"/>
+      <c r="IF17" s="52"/>
+      <c r="IG17" s="52"/>
+      <c r="IH17" s="52"/>
+      <c r="II17" s="52"/>
+      <c r="IJ17" s="52"/>
+      <c r="IK17" s="52"/>
+      <c r="IL17" s="52"/>
+      <c r="IM17" s="52"/>
+      <c r="IN17" s="53"/>
       <c r="IO17" s="14"/>
       <c r="IP17" s="14"/>
       <c r="IQ17" s="14"/>
@@ -6798,14 +6828,14 @@
       <c r="IX17" s="14"/>
     </row>
     <row r="18" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="54">
+      <c r="A18" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="39">
         <f>DATE(2022,4,1)</f>
         <v>44652</v>
       </c>
@@ -6857,205 +6887,205 @@
       <c r="AU18" s="14"/>
       <c r="AV18" s="14"/>
       <c r="AW18" s="14"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="58"/>
-      <c r="BB18" s="58"/>
-      <c r="BC18" s="58"/>
-      <c r="BD18" s="58"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="58"/>
-      <c r="BG18" s="58"/>
-      <c r="BH18" s="58"/>
-      <c r="BI18" s="58"/>
-      <c r="BJ18" s="58"/>
-      <c r="BK18" s="58"/>
-      <c r="BL18" s="58"/>
-      <c r="BM18" s="58"/>
-      <c r="BN18" s="58"/>
-      <c r="BO18" s="58"/>
-      <c r="BP18" s="58"/>
-      <c r="BQ18" s="58"/>
-      <c r="BR18" s="58"/>
-      <c r="BS18" s="58"/>
-      <c r="BT18" s="58"/>
-      <c r="BU18" s="58"/>
-      <c r="BV18" s="58"/>
-      <c r="BW18" s="58"/>
-      <c r="BX18" s="58"/>
-      <c r="BY18" s="58"/>
-      <c r="BZ18" s="58"/>
-      <c r="CA18" s="58"/>
-      <c r="CB18" s="58"/>
-      <c r="CC18" s="58"/>
-      <c r="CD18" s="58"/>
-      <c r="CE18" s="58"/>
-      <c r="CF18" s="58"/>
-      <c r="CG18" s="58"/>
-      <c r="CH18" s="58"/>
-      <c r="CI18" s="58"/>
-      <c r="CJ18" s="58"/>
-      <c r="CK18" s="58"/>
-      <c r="CL18" s="58"/>
-      <c r="CM18" s="58"/>
-      <c r="CN18" s="58"/>
-      <c r="CO18" s="58"/>
-      <c r="CP18" s="58"/>
-      <c r="CQ18" s="58"/>
-      <c r="CR18" s="58"/>
-      <c r="CS18" s="58"/>
-      <c r="CT18" s="58"/>
-      <c r="CU18" s="58"/>
-      <c r="CV18" s="58"/>
-      <c r="CW18" s="58"/>
-      <c r="CX18" s="58"/>
-      <c r="CY18" s="58"/>
-      <c r="CZ18" s="58"/>
-      <c r="DA18" s="58"/>
-      <c r="DB18" s="58"/>
-      <c r="DC18" s="58"/>
-      <c r="DD18" s="58"/>
-      <c r="DE18" s="58"/>
-      <c r="DF18" s="58"/>
-      <c r="DG18" s="58"/>
-      <c r="DH18" s="58"/>
-      <c r="DI18" s="58"/>
-      <c r="DJ18" s="58"/>
-      <c r="DK18" s="58"/>
-      <c r="DL18" s="58"/>
-      <c r="DM18" s="58"/>
-      <c r="DN18" s="58"/>
-      <c r="DO18" s="58"/>
-      <c r="DP18" s="58"/>
-      <c r="DQ18" s="58"/>
-      <c r="DR18" s="58"/>
-      <c r="DS18" s="58"/>
-      <c r="DT18" s="58"/>
-      <c r="DU18" s="58"/>
-      <c r="DV18" s="58"/>
-      <c r="DW18" s="58"/>
-      <c r="DX18" s="58"/>
-      <c r="DY18" s="58"/>
-      <c r="DZ18" s="58"/>
-      <c r="EA18" s="58"/>
-      <c r="EB18" s="58"/>
-      <c r="EC18" s="58"/>
-      <c r="ED18" s="58"/>
-      <c r="EE18" s="58"/>
-      <c r="EF18" s="58"/>
-      <c r="EG18" s="58"/>
-      <c r="EH18" s="58"/>
-      <c r="EI18" s="58"/>
-      <c r="EJ18" s="58"/>
-      <c r="EK18" s="58"/>
-      <c r="EL18" s="58"/>
-      <c r="EM18" s="58"/>
-      <c r="EN18" s="58"/>
-      <c r="EO18" s="58"/>
-      <c r="EP18" s="58"/>
-      <c r="EQ18" s="58"/>
-      <c r="ER18" s="58"/>
-      <c r="ES18" s="58"/>
-      <c r="ET18" s="58"/>
-      <c r="EU18" s="58"/>
-      <c r="EV18" s="58"/>
-      <c r="EW18" s="58"/>
-      <c r="EX18" s="58"/>
-      <c r="EY18" s="58"/>
-      <c r="EZ18" s="58"/>
-      <c r="FA18" s="58"/>
-      <c r="FB18" s="58"/>
-      <c r="FC18" s="58"/>
-      <c r="FD18" s="58"/>
-      <c r="FE18" s="58"/>
-      <c r="FF18" s="58"/>
-      <c r="FG18" s="58"/>
-      <c r="FH18" s="58"/>
-      <c r="FI18" s="58"/>
-      <c r="FJ18" s="58"/>
-      <c r="FK18" s="58"/>
-      <c r="FL18" s="58"/>
-      <c r="FM18" s="58"/>
-      <c r="FN18" s="58"/>
-      <c r="FO18" s="58"/>
-      <c r="FP18" s="58"/>
-      <c r="FQ18" s="58"/>
-      <c r="FR18" s="58"/>
-      <c r="FS18" s="58"/>
-      <c r="FT18" s="58"/>
-      <c r="FU18" s="58"/>
-      <c r="FV18" s="58"/>
-      <c r="FW18" s="58"/>
-      <c r="FX18" s="58"/>
-      <c r="FY18" s="58"/>
-      <c r="FZ18" s="58"/>
-      <c r="GA18" s="58"/>
-      <c r="GB18" s="58"/>
-      <c r="GC18" s="58"/>
-      <c r="GD18" s="58"/>
-      <c r="GE18" s="58"/>
-      <c r="GF18" s="58"/>
-      <c r="GG18" s="58"/>
-      <c r="GH18" s="58"/>
-      <c r="GI18" s="58"/>
-      <c r="GJ18" s="58"/>
-      <c r="GK18" s="58"/>
-      <c r="GL18" s="58"/>
-      <c r="GM18" s="58"/>
-      <c r="GN18" s="58"/>
-      <c r="GO18" s="58"/>
-      <c r="GP18" s="58"/>
-      <c r="GQ18" s="58"/>
-      <c r="GR18" s="58"/>
-      <c r="GS18" s="58"/>
-      <c r="GT18" s="58"/>
-      <c r="GU18" s="58"/>
-      <c r="GV18" s="58"/>
-      <c r="GW18" s="58"/>
-      <c r="GX18" s="58"/>
-      <c r="GY18" s="58"/>
-      <c r="GZ18" s="58"/>
-      <c r="HA18" s="58"/>
-      <c r="HB18" s="58"/>
-      <c r="HC18" s="58"/>
-      <c r="HD18" s="58"/>
-      <c r="HE18" s="58"/>
-      <c r="HF18" s="58"/>
-      <c r="HG18" s="58"/>
-      <c r="HH18" s="58"/>
-      <c r="HI18" s="58"/>
-      <c r="HJ18" s="58"/>
-      <c r="HK18" s="58"/>
-      <c r="HL18" s="58"/>
-      <c r="HM18" s="58"/>
-      <c r="HN18" s="58"/>
-      <c r="HO18" s="58"/>
-      <c r="HP18" s="58"/>
-      <c r="HQ18" s="58"/>
-      <c r="HR18" s="58"/>
-      <c r="HS18" s="58"/>
-      <c r="HT18" s="58"/>
-      <c r="HU18" s="58"/>
-      <c r="HV18" s="58"/>
-      <c r="HW18" s="58"/>
-      <c r="HX18" s="58"/>
-      <c r="HY18" s="58"/>
-      <c r="HZ18" s="58"/>
-      <c r="IA18" s="58"/>
-      <c r="IB18" s="58"/>
-      <c r="IC18" s="58"/>
-      <c r="ID18" s="58"/>
-      <c r="IE18" s="58"/>
-      <c r="IF18" s="58"/>
-      <c r="IG18" s="58"/>
-      <c r="IH18" s="58"/>
-      <c r="II18" s="58"/>
-      <c r="IJ18" s="58"/>
-      <c r="IK18" s="58"/>
-      <c r="IL18" s="58"/>
-      <c r="IM18" s="58"/>
-      <c r="IN18" s="58"/>
+      <c r="AX18" s="43"/>
+      <c r="AY18" s="43"/>
+      <c r="AZ18" s="43"/>
+      <c r="BA18" s="43"/>
+      <c r="BB18" s="43"/>
+      <c r="BC18" s="43"/>
+      <c r="BD18" s="43"/>
+      <c r="BE18" s="43"/>
+      <c r="BF18" s="43"/>
+      <c r="BG18" s="43"/>
+      <c r="BH18" s="43"/>
+      <c r="BI18" s="43"/>
+      <c r="BJ18" s="43"/>
+      <c r="BK18" s="43"/>
+      <c r="BL18" s="43"/>
+      <c r="BM18" s="43"/>
+      <c r="BN18" s="43"/>
+      <c r="BO18" s="43"/>
+      <c r="BP18" s="43"/>
+      <c r="BQ18" s="43"/>
+      <c r="BR18" s="43"/>
+      <c r="BS18" s="43"/>
+      <c r="BT18" s="43"/>
+      <c r="BU18" s="43"/>
+      <c r="BV18" s="43"/>
+      <c r="BW18" s="43"/>
+      <c r="BX18" s="43"/>
+      <c r="BY18" s="43"/>
+      <c r="BZ18" s="43"/>
+      <c r="CA18" s="43"/>
+      <c r="CB18" s="43"/>
+      <c r="CC18" s="43"/>
+      <c r="CD18" s="43"/>
+      <c r="CE18" s="43"/>
+      <c r="CF18" s="43"/>
+      <c r="CG18" s="43"/>
+      <c r="CH18" s="43"/>
+      <c r="CI18" s="43"/>
+      <c r="CJ18" s="43"/>
+      <c r="CK18" s="43"/>
+      <c r="CL18" s="43"/>
+      <c r="CM18" s="43"/>
+      <c r="CN18" s="43"/>
+      <c r="CO18" s="43"/>
+      <c r="CP18" s="43"/>
+      <c r="CQ18" s="43"/>
+      <c r="CR18" s="43"/>
+      <c r="CS18" s="43"/>
+      <c r="CT18" s="43"/>
+      <c r="CU18" s="43"/>
+      <c r="CV18" s="43"/>
+      <c r="CW18" s="43"/>
+      <c r="CX18" s="43"/>
+      <c r="CY18" s="43"/>
+      <c r="CZ18" s="43"/>
+      <c r="DA18" s="43"/>
+      <c r="DB18" s="43"/>
+      <c r="DC18" s="43"/>
+      <c r="DD18" s="43"/>
+      <c r="DE18" s="43"/>
+      <c r="DF18" s="43"/>
+      <c r="DG18" s="43"/>
+      <c r="DH18" s="43"/>
+      <c r="DI18" s="43"/>
+      <c r="DJ18" s="43"/>
+      <c r="DK18" s="43"/>
+      <c r="DL18" s="43"/>
+      <c r="DM18" s="43"/>
+      <c r="DN18" s="43"/>
+      <c r="DO18" s="43"/>
+      <c r="DP18" s="43"/>
+      <c r="DQ18" s="43"/>
+      <c r="DR18" s="43"/>
+      <c r="DS18" s="43"/>
+      <c r="DT18" s="43"/>
+      <c r="DU18" s="43"/>
+      <c r="DV18" s="43"/>
+      <c r="DW18" s="43"/>
+      <c r="DX18" s="43"/>
+      <c r="DY18" s="43"/>
+      <c r="DZ18" s="43"/>
+      <c r="EA18" s="43"/>
+      <c r="EB18" s="43"/>
+      <c r="EC18" s="43"/>
+      <c r="ED18" s="43"/>
+      <c r="EE18" s="43"/>
+      <c r="EF18" s="43"/>
+      <c r="EG18" s="43"/>
+      <c r="EH18" s="43"/>
+      <c r="EI18" s="43"/>
+      <c r="EJ18" s="43"/>
+      <c r="EK18" s="43"/>
+      <c r="EL18" s="43"/>
+      <c r="EM18" s="43"/>
+      <c r="EN18" s="43"/>
+      <c r="EO18" s="43"/>
+      <c r="EP18" s="43"/>
+      <c r="EQ18" s="43"/>
+      <c r="ER18" s="43"/>
+      <c r="ES18" s="43"/>
+      <c r="ET18" s="43"/>
+      <c r="EU18" s="43"/>
+      <c r="EV18" s="43"/>
+      <c r="EW18" s="43"/>
+      <c r="EX18" s="43"/>
+      <c r="EY18" s="43"/>
+      <c r="EZ18" s="43"/>
+      <c r="FA18" s="43"/>
+      <c r="FB18" s="43"/>
+      <c r="FC18" s="43"/>
+      <c r="FD18" s="43"/>
+      <c r="FE18" s="43"/>
+      <c r="FF18" s="43"/>
+      <c r="FG18" s="43"/>
+      <c r="FH18" s="43"/>
+      <c r="FI18" s="43"/>
+      <c r="FJ18" s="43"/>
+      <c r="FK18" s="43"/>
+      <c r="FL18" s="43"/>
+      <c r="FM18" s="43"/>
+      <c r="FN18" s="43"/>
+      <c r="FO18" s="43"/>
+      <c r="FP18" s="43"/>
+      <c r="FQ18" s="43"/>
+      <c r="FR18" s="43"/>
+      <c r="FS18" s="43"/>
+      <c r="FT18" s="43"/>
+      <c r="FU18" s="43"/>
+      <c r="FV18" s="43"/>
+      <c r="FW18" s="43"/>
+      <c r="FX18" s="43"/>
+      <c r="FY18" s="43"/>
+      <c r="FZ18" s="43"/>
+      <c r="GA18" s="43"/>
+      <c r="GB18" s="43"/>
+      <c r="GC18" s="43"/>
+      <c r="GD18" s="43"/>
+      <c r="GE18" s="43"/>
+      <c r="GF18" s="43"/>
+      <c r="GG18" s="43"/>
+      <c r="GH18" s="43"/>
+      <c r="GI18" s="43"/>
+      <c r="GJ18" s="43"/>
+      <c r="GK18" s="43"/>
+      <c r="GL18" s="43"/>
+      <c r="GM18" s="43"/>
+      <c r="GN18" s="43"/>
+      <c r="GO18" s="43"/>
+      <c r="GP18" s="43"/>
+      <c r="GQ18" s="43"/>
+      <c r="GR18" s="43"/>
+      <c r="GS18" s="43"/>
+      <c r="GT18" s="43"/>
+      <c r="GU18" s="43"/>
+      <c r="GV18" s="43"/>
+      <c r="GW18" s="43"/>
+      <c r="GX18" s="43"/>
+      <c r="GY18" s="43"/>
+      <c r="GZ18" s="43"/>
+      <c r="HA18" s="43"/>
+      <c r="HB18" s="43"/>
+      <c r="HC18" s="43"/>
+      <c r="HD18" s="43"/>
+      <c r="HE18" s="43"/>
+      <c r="HF18" s="43"/>
+      <c r="HG18" s="43"/>
+      <c r="HH18" s="43"/>
+      <c r="HI18" s="43"/>
+      <c r="HJ18" s="43"/>
+      <c r="HK18" s="43"/>
+      <c r="HL18" s="43"/>
+      <c r="HM18" s="43"/>
+      <c r="HN18" s="43"/>
+      <c r="HO18" s="43"/>
+      <c r="HP18" s="43"/>
+      <c r="HQ18" s="43"/>
+      <c r="HR18" s="43"/>
+      <c r="HS18" s="43"/>
+      <c r="HT18" s="43"/>
+      <c r="HU18" s="43"/>
+      <c r="HV18" s="43"/>
+      <c r="HW18" s="43"/>
+      <c r="HX18" s="43"/>
+      <c r="HY18" s="43"/>
+      <c r="HZ18" s="43"/>
+      <c r="IA18" s="43"/>
+      <c r="IB18" s="43"/>
+      <c r="IC18" s="43"/>
+      <c r="ID18" s="43"/>
+      <c r="IE18" s="43"/>
+      <c r="IF18" s="43"/>
+      <c r="IG18" s="43"/>
+      <c r="IH18" s="43"/>
+      <c r="II18" s="43"/>
+      <c r="IJ18" s="43"/>
+      <c r="IK18" s="43"/>
+      <c r="IL18" s="43"/>
+      <c r="IM18" s="43"/>
+      <c r="IN18" s="43"/>
       <c r="IO18" s="14"/>
       <c r="IP18" s="14"/>
       <c r="IQ18" s="14"/>
@@ -7068,15 +7098,15 @@
       <c r="IX18" s="14"/>
     </row>
     <row r="19" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33">
+      <c r="A19" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27">
         <f>DATE(2021,12,14)</f>
         <v>44544</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="27">
         <f>DATE(2022,2,20)</f>
         <v>44612</v>
       </c>
@@ -7336,15 +7366,15 @@
       <c r="IX19" s="14"/>
     </row>
     <row r="20" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33">
+      <c r="A20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27">
         <f>DATE(2022,2,21)</f>
         <v>44613</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="27">
         <f>DATE(2022,2,28)</f>
         <v>44620</v>
       </c>
@@ -7604,15 +7634,15 @@
       <c r="IX20" s="14"/>
     </row>
     <row r="21" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36">
+      <c r="A21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30">
         <f>DATE(2022,3,1)</f>
         <v>44621</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="30">
         <f>DATE(2022,3,2)</f>
         <v>44622</v>
       </c>
@@ -7875,15 +7905,15 @@
       <c r="IX21" s="14"/>
     </row>
     <row r="22" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39">
+      <c r="A22" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33">
         <f>DATE(2022,3,3)</f>
         <v>44623</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="33">
         <f>DATE(2022,3,7)</f>
         <v>44627</v>
       </c>
@@ -8143,17 +8173,17 @@
       <c r="IX22" s="14"/>
     </row>
     <row r="23" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="30">
-        <f>DATE(2022,4,1)</f>
-        <v>44652</v>
-      </c>
-      <c r="D23" s="30">
-        <f>DATE(2022,6,30)</f>
-        <v>44742</v>
+      <c r="A23" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33">
+        <f>DATE(2022,3,8)</f>
+        <v>44628</v>
+      </c>
+      <c r="D23" s="33">
+        <f>DATE(2022,3,21)</f>
+        <v>44641</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -8411,18 +8441,15 @@
       <c r="IX23" s="14"/>
     </row>
     <row r="24" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30">
-        <f>DATE(2022,5,2)</f>
-        <v>44683</v>
-      </c>
-      <c r="D24" s="30">
-        <f>DATE(2022,6,30)</f>
-        <v>44742</v>
-      </c>
+      <c r="A24" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33">
+        <f>DATE(2022,3,22)</f>
+        <v>44642</v>
+      </c>
+      <c r="D24" s="33"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
@@ -8679,23 +8706,20 @@
       <c r="IX24" s="14"/>
     </row>
     <row r="25" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48">
-        <f>DATE(2022,1,1)</f>
-        <v>44562</v>
-      </c>
-      <c r="D25" s="48">
-        <f>DATE(2022,1,23)</f>
-        <v>44584</v>
+      <c r="A25" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="24">
+        <f>DATE(2022,4,1)</f>
+        <v>44652</v>
+      </c>
+      <c r="D25" s="24">
+        <f>DATE(2022,6,30)</f>
+        <v>44742</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="13">
-        <f t="shared" si="156"/>
-        <v>23</v>
-      </c>
+      <c r="F25" s="13"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -8950,17 +8974,20 @@
       <c r="IX25" s="14"/>
     </row>
     <row r="26" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
+      <c r="A26" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="24">
+        <f>DATE(2022,2,21)</f>
+        <v>44613</v>
+      </c>
+      <c r="D26" s="24">
+        <f>DATE(2022,6,30)</f>
+        <v>44742</v>
+      </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="13" t="str">
-        <f t="shared" si="156"/>
-        <v/>
-      </c>
+      <c r="F26" s="13"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -9215,22 +9242,22 @@
       <c r="IX26" s="14"/>
     </row>
     <row r="27" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42">
+      <c r="A27" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="59"/>
+      <c r="C27" s="36">
+        <f>DATE(2022,1,1)</f>
+        <v>44562</v>
+      </c>
+      <c r="D27" s="36">
         <f>DATE(2022,1,23)</f>
         <v>44584</v>
-      </c>
-      <c r="D27" s="42">
-        <f>DATE(2022,2,13)</f>
-        <v>44605</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13">
         <f t="shared" si="156"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -9246,235 +9273,235 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
-      <c r="AR27" s="14"/>
-      <c r="AS27" s="14"/>
-      <c r="AT27" s="14"/>
-      <c r="AU27" s="14"/>
-      <c r="AV27" s="14"/>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="14"/>
-      <c r="AY27" s="14"/>
-      <c r="AZ27" s="14"/>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="14"/>
-      <c r="BC27" s="14"/>
-      <c r="BD27" s="14"/>
-      <c r="BE27" s="14"/>
-      <c r="BF27" s="14"/>
-      <c r="BG27" s="14"/>
-      <c r="BH27" s="14"/>
-      <c r="BI27" s="14"/>
-      <c r="BJ27" s="14"/>
-      <c r="BK27" s="14"/>
-      <c r="BL27" s="14"/>
-      <c r="BM27" s="14"/>
-      <c r="BN27" s="14"/>
-      <c r="BO27" s="14"/>
-      <c r="BP27" s="14"/>
-      <c r="BQ27" s="14"/>
-      <c r="BR27" s="14"/>
-      <c r="BS27" s="14"/>
-      <c r="BT27" s="14"/>
-      <c r="BU27" s="14"/>
-      <c r="BV27" s="14"/>
-      <c r="BW27" s="14"/>
-      <c r="BX27" s="14"/>
-      <c r="BY27" s="14"/>
-      <c r="BZ27" s="14"/>
-      <c r="CA27" s="14"/>
-      <c r="CB27" s="14"/>
-      <c r="CC27" s="14"/>
-      <c r="CD27" s="14"/>
-      <c r="CE27" s="14"/>
-      <c r="CF27" s="14"/>
-      <c r="CG27" s="14"/>
-      <c r="CH27" s="14"/>
-      <c r="CI27" s="14"/>
-      <c r="CJ27" s="14"/>
-      <c r="CK27" s="14"/>
-      <c r="CL27" s="14"/>
-      <c r="CM27" s="14"/>
-      <c r="CN27" s="14"/>
-      <c r="CO27" s="14"/>
-      <c r="CP27" s="14"/>
-      <c r="CQ27" s="14"/>
-      <c r="CR27" s="14"/>
-      <c r="CS27" s="14"/>
-      <c r="CT27" s="14"/>
-      <c r="CU27" s="14"/>
-      <c r="CV27" s="14"/>
-      <c r="CW27" s="14"/>
-      <c r="CX27" s="14"/>
-      <c r="CY27" s="14"/>
-      <c r="CZ27" s="14"/>
-      <c r="DA27" s="14"/>
-      <c r="DB27" s="14"/>
-      <c r="DC27" s="14"/>
-      <c r="DD27" s="14"/>
-      <c r="DE27" s="14"/>
-      <c r="DF27" s="14"/>
-      <c r="DG27" s="14"/>
-      <c r="DH27" s="14"/>
-      <c r="DI27" s="14"/>
-      <c r="DJ27" s="14"/>
-      <c r="DK27" s="14"/>
-      <c r="DL27" s="14"/>
-      <c r="DM27" s="14"/>
-      <c r="DN27" s="14"/>
-      <c r="DO27" s="14"/>
-      <c r="DP27" s="14"/>
-      <c r="DQ27" s="14"/>
-      <c r="DR27" s="14"/>
-      <c r="DS27" s="14"/>
-      <c r="DT27" s="14"/>
-      <c r="DU27" s="14"/>
-      <c r="DV27" s="14"/>
-      <c r="DW27" s="14"/>
-      <c r="DX27" s="14"/>
-      <c r="DY27" s="14"/>
-      <c r="DZ27" s="14"/>
-      <c r="EA27" s="14"/>
-      <c r="EB27" s="14"/>
-      <c r="EC27" s="14"/>
-      <c r="ED27" s="14"/>
-      <c r="EE27" s="14"/>
-      <c r="EF27" s="14"/>
-      <c r="EG27" s="14"/>
-      <c r="EH27" s="14"/>
-      <c r="EI27" s="14"/>
-      <c r="EJ27" s="14"/>
-      <c r="EK27" s="14"/>
-      <c r="EL27" s="14"/>
-      <c r="EM27" s="14"/>
-      <c r="EN27" s="14"/>
-      <c r="EO27" s="14"/>
-      <c r="EP27" s="14"/>
-      <c r="EQ27" s="14"/>
-      <c r="ER27" s="14"/>
-      <c r="ES27" s="14"/>
-      <c r="ET27" s="14"/>
-      <c r="EU27" s="14"/>
-      <c r="EV27" s="14"/>
-      <c r="EW27" s="14"/>
-      <c r="EX27" s="14"/>
-      <c r="EY27" s="14"/>
-      <c r="EZ27" s="14"/>
-      <c r="FA27" s="14"/>
-      <c r="FB27" s="14"/>
-      <c r="FC27" s="14"/>
-      <c r="FD27" s="14"/>
-      <c r="FE27" s="14"/>
-      <c r="FF27" s="14"/>
-      <c r="FG27" s="14"/>
-      <c r="FH27" s="14"/>
-      <c r="FI27" s="14"/>
-      <c r="FJ27" s="14"/>
-      <c r="FK27" s="14"/>
-      <c r="FL27" s="14"/>
-      <c r="FM27" s="14"/>
-      <c r="FN27" s="14"/>
-      <c r="FO27" s="14"/>
-      <c r="FP27" s="14"/>
-      <c r="FQ27" s="14"/>
-      <c r="FR27" s="14"/>
-      <c r="FS27" s="14"/>
-      <c r="FT27" s="14"/>
-      <c r="FU27" s="14"/>
-      <c r="FV27" s="14"/>
-      <c r="FW27" s="14"/>
-      <c r="FX27" s="14"/>
-      <c r="FY27" s="14"/>
-      <c r="FZ27" s="14"/>
-      <c r="GA27" s="14"/>
-      <c r="GB27" s="14"/>
-      <c r="GC27" s="14"/>
-      <c r="GD27" s="14"/>
-      <c r="GE27" s="14"/>
-      <c r="GF27" s="14"/>
-      <c r="GG27" s="14"/>
-      <c r="GH27" s="14"/>
-      <c r="GI27" s="14"/>
-      <c r="GJ27" s="14"/>
-      <c r="GK27" s="14"/>
-      <c r="GL27" s="14"/>
-      <c r="GM27" s="14"/>
-      <c r="GN27" s="14"/>
-      <c r="GO27" s="14"/>
-      <c r="GP27" s="14"/>
-      <c r="GQ27" s="14"/>
-      <c r="GR27" s="14"/>
-      <c r="GS27" s="14"/>
-      <c r="GT27" s="14"/>
-      <c r="GU27" s="14"/>
-      <c r="GV27" s="14"/>
-      <c r="GW27" s="14"/>
-      <c r="GX27" s="14"/>
-      <c r="GY27" s="14"/>
-      <c r="GZ27" s="14"/>
-      <c r="HA27" s="14"/>
-      <c r="HB27" s="14"/>
-      <c r="HC27" s="14"/>
-      <c r="HD27" s="14"/>
-      <c r="HE27" s="14"/>
-      <c r="HF27" s="14"/>
-      <c r="HG27" s="14"/>
-      <c r="HH27" s="14"/>
-      <c r="HI27" s="14"/>
-      <c r="HJ27" s="14"/>
-      <c r="HK27" s="14"/>
-      <c r="HL27" s="14"/>
-      <c r="HM27" s="14"/>
-      <c r="HN27" s="14"/>
-      <c r="HO27" s="14"/>
-      <c r="HP27" s="14"/>
-      <c r="HQ27" s="14"/>
-      <c r="HR27" s="14"/>
-      <c r="HS27" s="14"/>
-      <c r="HT27" s="14"/>
-      <c r="HU27" s="14"/>
-      <c r="HV27" s="14"/>
-      <c r="HW27" s="14"/>
-      <c r="HX27" s="14"/>
-      <c r="HY27" s="14"/>
-      <c r="HZ27" s="14"/>
-      <c r="IA27" s="14"/>
-      <c r="IB27" s="14"/>
-      <c r="IC27" s="14"/>
-      <c r="ID27" s="14"/>
-      <c r="IE27" s="14"/>
-      <c r="IF27" s="14"/>
-      <c r="IG27" s="14"/>
-      <c r="IH27" s="14"/>
-      <c r="II27" s="14"/>
-      <c r="IJ27" s="14"/>
-      <c r="IK27" s="14"/>
-      <c r="IL27" s="14"/>
-      <c r="IM27" s="14"/>
-      <c r="IN27" s="14"/>
-      <c r="IO27" s="14"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="42"/>
+      <c r="AU27" s="42"/>
+      <c r="AV27" s="42"/>
+      <c r="AW27" s="42"/>
+      <c r="AX27" s="42"/>
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="42"/>
+      <c r="BA27" s="42"/>
+      <c r="BB27" s="42"/>
+      <c r="BC27" s="42"/>
+      <c r="BD27" s="42"/>
+      <c r="BE27" s="42"/>
+      <c r="BF27" s="42"/>
+      <c r="BG27" s="42"/>
+      <c r="BH27" s="42"/>
+      <c r="BI27" s="42"/>
+      <c r="BJ27" s="42"/>
+      <c r="BK27" s="42"/>
+      <c r="BL27" s="42"/>
+      <c r="BM27" s="42"/>
+      <c r="BN27" s="42"/>
+      <c r="BO27" s="42"/>
+      <c r="BP27" s="42"/>
+      <c r="BQ27" s="42"/>
+      <c r="BR27" s="42"/>
+      <c r="BS27" s="42"/>
+      <c r="BT27" s="42"/>
+      <c r="BU27" s="42"/>
+      <c r="BV27" s="42"/>
+      <c r="BW27" s="42"/>
+      <c r="BX27" s="42"/>
+      <c r="BY27" s="42"/>
+      <c r="BZ27" s="42"/>
+      <c r="CA27" s="42"/>
+      <c r="CB27" s="42"/>
+      <c r="CC27" s="42"/>
+      <c r="CD27" s="42"/>
+      <c r="CE27" s="42"/>
+      <c r="CF27" s="42"/>
+      <c r="CG27" s="42"/>
+      <c r="CH27" s="42"/>
+      <c r="CI27" s="42"/>
+      <c r="CJ27" s="42"/>
+      <c r="CK27" s="42"/>
+      <c r="CL27" s="42"/>
+      <c r="CM27" s="42"/>
+      <c r="CN27" s="42"/>
+      <c r="CO27" s="42"/>
+      <c r="CP27" s="42"/>
+      <c r="CQ27" s="42"/>
+      <c r="CR27" s="42"/>
+      <c r="CS27" s="42"/>
+      <c r="CT27" s="42"/>
+      <c r="CU27" s="42"/>
+      <c r="CV27" s="42"/>
+      <c r="CW27" s="42"/>
+      <c r="CX27" s="42"/>
+      <c r="CY27" s="42"/>
+      <c r="CZ27" s="42"/>
+      <c r="DA27" s="42"/>
+      <c r="DB27" s="42"/>
+      <c r="DC27" s="42"/>
+      <c r="DD27" s="42"/>
+      <c r="DE27" s="42"/>
+      <c r="DF27" s="42"/>
+      <c r="DG27" s="42"/>
+      <c r="DH27" s="42"/>
+      <c r="DI27" s="42"/>
+      <c r="DJ27" s="42"/>
+      <c r="DK27" s="42"/>
+      <c r="DL27" s="42"/>
+      <c r="DM27" s="42"/>
+      <c r="DN27" s="42"/>
+      <c r="DO27" s="42"/>
+      <c r="DP27" s="42"/>
+      <c r="DQ27" s="42"/>
+      <c r="DR27" s="42"/>
+      <c r="DS27" s="42"/>
+      <c r="DT27" s="42"/>
+      <c r="DU27" s="42"/>
+      <c r="DV27" s="42"/>
+      <c r="DW27" s="42"/>
+      <c r="DX27" s="42"/>
+      <c r="DY27" s="42"/>
+      <c r="DZ27" s="42"/>
+      <c r="EA27" s="42"/>
+      <c r="EB27" s="42"/>
+      <c r="EC27" s="42"/>
+      <c r="ED27" s="42"/>
+      <c r="EE27" s="42"/>
+      <c r="EF27" s="42"/>
+      <c r="EG27" s="42"/>
+      <c r="EH27" s="42"/>
+      <c r="EI27" s="42"/>
+      <c r="EJ27" s="42"/>
+      <c r="EK27" s="42"/>
+      <c r="EL27" s="42"/>
+      <c r="EM27" s="42"/>
+      <c r="EN27" s="42"/>
+      <c r="EO27" s="42"/>
+      <c r="EP27" s="42"/>
+      <c r="EQ27" s="42"/>
+      <c r="ER27" s="42"/>
+      <c r="ES27" s="42"/>
+      <c r="ET27" s="42"/>
+      <c r="EU27" s="42"/>
+      <c r="EV27" s="42"/>
+      <c r="EW27" s="42"/>
+      <c r="EX27" s="42"/>
+      <c r="EY27" s="42"/>
+      <c r="EZ27" s="42"/>
+      <c r="FA27" s="42"/>
+      <c r="FB27" s="42"/>
+      <c r="FC27" s="42"/>
+      <c r="FD27" s="42"/>
+      <c r="FE27" s="42"/>
+      <c r="FF27" s="42"/>
+      <c r="FG27" s="42"/>
+      <c r="FH27" s="42"/>
+      <c r="FI27" s="42"/>
+      <c r="FJ27" s="42"/>
+      <c r="FK27" s="42"/>
+      <c r="FL27" s="42"/>
+      <c r="FM27" s="42"/>
+      <c r="FN27" s="42"/>
+      <c r="FO27" s="42"/>
+      <c r="FP27" s="42"/>
+      <c r="FQ27" s="42"/>
+      <c r="FR27" s="42"/>
+      <c r="FS27" s="42"/>
+      <c r="FT27" s="42"/>
+      <c r="FU27" s="42"/>
+      <c r="FV27" s="42"/>
+      <c r="FW27" s="42"/>
+      <c r="FX27" s="42"/>
+      <c r="FY27" s="42"/>
+      <c r="FZ27" s="42"/>
+      <c r="GA27" s="42"/>
+      <c r="GB27" s="42"/>
+      <c r="GC27" s="42"/>
+      <c r="GD27" s="42"/>
+      <c r="GE27" s="42"/>
+      <c r="GF27" s="42"/>
+      <c r="GG27" s="42"/>
+      <c r="GH27" s="42"/>
+      <c r="GI27" s="42"/>
+      <c r="GJ27" s="42"/>
+      <c r="GK27" s="42"/>
+      <c r="GL27" s="42"/>
+      <c r="GM27" s="42"/>
+      <c r="GN27" s="42"/>
+      <c r="GO27" s="42"/>
+      <c r="GP27" s="42"/>
+      <c r="GQ27" s="42"/>
+      <c r="GR27" s="42"/>
+      <c r="GS27" s="42"/>
+      <c r="GT27" s="42"/>
+      <c r="GU27" s="42"/>
+      <c r="GV27" s="42"/>
+      <c r="GW27" s="42"/>
+      <c r="GX27" s="42"/>
+      <c r="GY27" s="42"/>
+      <c r="GZ27" s="42"/>
+      <c r="HA27" s="42"/>
+      <c r="HB27" s="42"/>
+      <c r="HC27" s="42"/>
+      <c r="HD27" s="42"/>
+      <c r="HE27" s="42"/>
+      <c r="HF27" s="42"/>
+      <c r="HG27" s="42"/>
+      <c r="HH27" s="42"/>
+      <c r="HI27" s="42"/>
+      <c r="HJ27" s="42"/>
+      <c r="HK27" s="42"/>
+      <c r="HL27" s="42"/>
+      <c r="HM27" s="42"/>
+      <c r="HN27" s="42"/>
+      <c r="HO27" s="42"/>
+      <c r="HP27" s="42"/>
+      <c r="HQ27" s="42"/>
+      <c r="HR27" s="42"/>
+      <c r="HS27" s="42"/>
+      <c r="HT27" s="42"/>
+      <c r="HU27" s="42"/>
+      <c r="HV27" s="42"/>
+      <c r="HW27" s="42"/>
+      <c r="HX27" s="42"/>
+      <c r="HY27" s="42"/>
+      <c r="HZ27" s="42"/>
+      <c r="IA27" s="42"/>
+      <c r="IB27" s="42"/>
+      <c r="IC27" s="42"/>
+      <c r="ID27" s="42"/>
+      <c r="IE27" s="42"/>
+      <c r="IF27" s="42"/>
+      <c r="IG27" s="42"/>
+      <c r="IH27" s="42"/>
+      <c r="II27" s="42"/>
+      <c r="IJ27" s="42"/>
+      <c r="IK27" s="42"/>
+      <c r="IL27" s="42"/>
+      <c r="IM27" s="42"/>
+      <c r="IN27" s="42"/>
+      <c r="IO27" s="42"/>
       <c r="IP27" s="14"/>
       <c r="IQ27" s="14"/>
       <c r="IR27" s="14"/>
@@ -9486,22 +9513,20 @@
       <c r="IX27" s="14"/>
     </row>
     <row r="28" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30">
-        <f>DATE(2021,11,15)</f>
-        <v>44515</v>
-      </c>
-      <c r="D28" s="30">
-        <f>DATE(2022,1,31)</f>
-        <v>44592</v>
+      <c r="A28" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>37</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13">
         <f t="shared" si="156"/>
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -9516,237 +9541,237 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="14"/>
-      <c r="AM28" s="14"/>
-      <c r="AN28" s="14"/>
-      <c r="AO28" s="14"/>
-      <c r="AP28" s="14"/>
-      <c r="AQ28" s="14"/>
-      <c r="AR28" s="14"/>
-      <c r="AS28" s="14"/>
-      <c r="AT28" s="14"/>
-      <c r="AU28" s="14"/>
-      <c r="AV28" s="14"/>
-      <c r="AW28" s="14"/>
-      <c r="AX28" s="14"/>
-      <c r="AY28" s="14"/>
-      <c r="AZ28" s="14"/>
-      <c r="BA28" s="14"/>
-      <c r="BB28" s="14"/>
-      <c r="BC28" s="14"/>
-      <c r="BD28" s="14"/>
-      <c r="BE28" s="14"/>
-      <c r="BF28" s="14"/>
-      <c r="BG28" s="14"/>
-      <c r="BH28" s="14"/>
-      <c r="BI28" s="14"/>
-      <c r="BJ28" s="14"/>
-      <c r="BK28" s="14"/>
-      <c r="BL28" s="14"/>
-      <c r="BM28" s="14"/>
-      <c r="BN28" s="14"/>
-      <c r="BO28" s="14"/>
-      <c r="BP28" s="14"/>
-      <c r="BQ28" s="14"/>
-      <c r="BR28" s="14"/>
-      <c r="BS28" s="14"/>
-      <c r="BT28" s="14"/>
-      <c r="BU28" s="14"/>
-      <c r="BV28" s="14"/>
-      <c r="BW28" s="14"/>
-      <c r="BX28" s="14"/>
-      <c r="BY28" s="14"/>
-      <c r="BZ28" s="14"/>
-      <c r="CA28" s="14"/>
-      <c r="CB28" s="14"/>
-      <c r="CC28" s="14"/>
-      <c r="CD28" s="14"/>
-      <c r="CE28" s="14"/>
-      <c r="CF28" s="14"/>
-      <c r="CG28" s="14"/>
-      <c r="CH28" s="14"/>
-      <c r="CI28" s="14"/>
-      <c r="CJ28" s="14"/>
-      <c r="CK28" s="14"/>
-      <c r="CL28" s="14"/>
-      <c r="CM28" s="14"/>
-      <c r="CN28" s="14"/>
-      <c r="CO28" s="14"/>
-      <c r="CP28" s="14"/>
-      <c r="CQ28" s="14"/>
-      <c r="CR28" s="14"/>
-      <c r="CS28" s="14"/>
-      <c r="CT28" s="14"/>
-      <c r="CU28" s="14"/>
-      <c r="CV28" s="14"/>
-      <c r="CW28" s="14"/>
-      <c r="CX28" s="14"/>
-      <c r="CY28" s="14"/>
-      <c r="CZ28" s="14"/>
-      <c r="DA28" s="14"/>
-      <c r="DB28" s="14"/>
-      <c r="DC28" s="14"/>
-      <c r="DD28" s="14"/>
-      <c r="DE28" s="14"/>
-      <c r="DF28" s="14"/>
-      <c r="DG28" s="14"/>
-      <c r="DH28" s="14"/>
-      <c r="DI28" s="14"/>
-      <c r="DJ28" s="14"/>
-      <c r="DK28" s="14"/>
-      <c r="DL28" s="14"/>
-      <c r="DM28" s="14"/>
-      <c r="DN28" s="14"/>
-      <c r="DO28" s="14"/>
-      <c r="DP28" s="14"/>
-      <c r="DQ28" s="14"/>
-      <c r="DR28" s="14"/>
-      <c r="DS28" s="14"/>
-      <c r="DT28" s="14"/>
-      <c r="DU28" s="14"/>
-      <c r="DV28" s="14"/>
-      <c r="DW28" s="14"/>
-      <c r="DX28" s="14"/>
-      <c r="DY28" s="14"/>
-      <c r="DZ28" s="14"/>
-      <c r="EA28" s="14"/>
-      <c r="EB28" s="14"/>
-      <c r="EC28" s="14"/>
-      <c r="ED28" s="14"/>
-      <c r="EE28" s="14"/>
-      <c r="EF28" s="14"/>
-      <c r="EG28" s="14"/>
-      <c r="EH28" s="14"/>
-      <c r="EI28" s="14"/>
-      <c r="EJ28" s="14"/>
-      <c r="EK28" s="14"/>
-      <c r="EL28" s="14"/>
-      <c r="EM28" s="14"/>
-      <c r="EN28" s="14"/>
-      <c r="EO28" s="14"/>
-      <c r="EP28" s="14"/>
-      <c r="EQ28" s="14"/>
-      <c r="ER28" s="14"/>
-      <c r="ES28" s="14"/>
-      <c r="ET28" s="14"/>
-      <c r="EU28" s="14"/>
-      <c r="EV28" s="14"/>
-      <c r="EW28" s="14"/>
-      <c r="EX28" s="14"/>
-      <c r="EY28" s="14"/>
-      <c r="EZ28" s="14"/>
-      <c r="FA28" s="14"/>
-      <c r="FB28" s="14"/>
-      <c r="FC28" s="14"/>
-      <c r="FD28" s="14"/>
-      <c r="FE28" s="14"/>
-      <c r="FF28" s="14"/>
-      <c r="FG28" s="14"/>
-      <c r="FH28" s="14"/>
-      <c r="FI28" s="14"/>
-      <c r="FJ28" s="14"/>
-      <c r="FK28" s="14"/>
-      <c r="FL28" s="14"/>
-      <c r="FM28" s="14"/>
-      <c r="FN28" s="14"/>
-      <c r="FO28" s="14"/>
-      <c r="FP28" s="14"/>
-      <c r="FQ28" s="14"/>
-      <c r="FR28" s="14"/>
-      <c r="FS28" s="14"/>
-      <c r="FT28" s="14"/>
-      <c r="FU28" s="14"/>
-      <c r="FV28" s="14"/>
-      <c r="FW28" s="14"/>
-      <c r="FX28" s="14"/>
-      <c r="FY28" s="14"/>
-      <c r="FZ28" s="14"/>
-      <c r="GA28" s="14"/>
-      <c r="GB28" s="14"/>
-      <c r="GC28" s="14"/>
-      <c r="GD28" s="14"/>
-      <c r="GE28" s="14"/>
-      <c r="GF28" s="14"/>
-      <c r="GG28" s="14"/>
-      <c r="GH28" s="14"/>
-      <c r="GI28" s="14"/>
-      <c r="GJ28" s="14"/>
-      <c r="GK28" s="14"/>
-      <c r="GL28" s="14"/>
-      <c r="GM28" s="14"/>
-      <c r="GN28" s="14"/>
-      <c r="GO28" s="14"/>
-      <c r="GP28" s="14"/>
-      <c r="GQ28" s="14"/>
-      <c r="GR28" s="14"/>
-      <c r="GS28" s="14"/>
-      <c r="GT28" s="14"/>
-      <c r="GU28" s="14"/>
-      <c r="GV28" s="14"/>
-      <c r="GW28" s="14"/>
-      <c r="GX28" s="14"/>
-      <c r="GY28" s="14"/>
-      <c r="GZ28" s="14"/>
-      <c r="HA28" s="14"/>
-      <c r="HB28" s="14"/>
-      <c r="HC28" s="14"/>
-      <c r="HD28" s="14"/>
-      <c r="HE28" s="14"/>
-      <c r="HF28" s="14"/>
-      <c r="HG28" s="14"/>
-      <c r="HH28" s="14"/>
-      <c r="HI28" s="14"/>
-      <c r="HJ28" s="14"/>
-      <c r="HK28" s="14"/>
-      <c r="HL28" s="14"/>
-      <c r="HM28" s="14"/>
-      <c r="HN28" s="14"/>
-      <c r="HO28" s="14"/>
-      <c r="HP28" s="14"/>
-      <c r="HQ28" s="14"/>
-      <c r="HR28" s="14"/>
-      <c r="HS28" s="14"/>
-      <c r="HT28" s="14"/>
-      <c r="HU28" s="14"/>
-      <c r="HV28" s="14"/>
-      <c r="HW28" s="14"/>
-      <c r="HX28" s="14"/>
-      <c r="HY28" s="14"/>
-      <c r="HZ28" s="14"/>
-      <c r="IA28" s="14"/>
-      <c r="IB28" s="14"/>
-      <c r="IC28" s="14"/>
-      <c r="ID28" s="14"/>
-      <c r="IE28" s="14"/>
-      <c r="IF28" s="14"/>
-      <c r="IG28" s="14"/>
-      <c r="IH28" s="14"/>
-      <c r="II28" s="14"/>
-      <c r="IJ28" s="14"/>
-      <c r="IK28" s="14"/>
-      <c r="IL28" s="14"/>
-      <c r="IM28" s="14"/>
-      <c r="IN28" s="14"/>
-      <c r="IO28" s="14"/>
-      <c r="IP28" s="14"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="69"/>
+      <c r="AM28" s="69"/>
+      <c r="AN28" s="69"/>
+      <c r="AO28" s="69"/>
+      <c r="AP28" s="69"/>
+      <c r="AQ28" s="69"/>
+      <c r="AR28" s="69"/>
+      <c r="AS28" s="69"/>
+      <c r="AT28" s="69"/>
+      <c r="AU28" s="69"/>
+      <c r="AV28" s="69"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="69"/>
+      <c r="AZ28" s="69"/>
+      <c r="BA28" s="69"/>
+      <c r="BB28" s="69"/>
+      <c r="BC28" s="69"/>
+      <c r="BD28" s="69"/>
+      <c r="BE28" s="69"/>
+      <c r="BF28" s="69"/>
+      <c r="BG28" s="69"/>
+      <c r="BH28" s="69"/>
+      <c r="BI28" s="69"/>
+      <c r="BJ28" s="69"/>
+      <c r="BK28" s="69"/>
+      <c r="BL28" s="69"/>
+      <c r="BM28" s="69"/>
+      <c r="BN28" s="69"/>
+      <c r="BO28" s="69"/>
+      <c r="BP28" s="69"/>
+      <c r="BQ28" s="69"/>
+      <c r="BR28" s="69"/>
+      <c r="BS28" s="69"/>
+      <c r="BT28" s="69"/>
+      <c r="BU28" s="69"/>
+      <c r="BV28" s="69"/>
+      <c r="BW28" s="69"/>
+      <c r="BX28" s="69"/>
+      <c r="BY28" s="69"/>
+      <c r="BZ28" s="69"/>
+      <c r="CA28" s="69"/>
+      <c r="CB28" s="69"/>
+      <c r="CC28" s="69"/>
+      <c r="CD28" s="69"/>
+      <c r="CE28" s="69"/>
+      <c r="CF28" s="69"/>
+      <c r="CG28" s="69"/>
+      <c r="CH28" s="69"/>
+      <c r="CI28" s="69"/>
+      <c r="CJ28" s="69"/>
+      <c r="CK28" s="69"/>
+      <c r="CL28" s="69"/>
+      <c r="CM28" s="69"/>
+      <c r="CN28" s="69"/>
+      <c r="CO28" s="69"/>
+      <c r="CP28" s="69"/>
+      <c r="CQ28" s="69"/>
+      <c r="CR28" s="69"/>
+      <c r="CS28" s="69"/>
+      <c r="CT28" s="69"/>
+      <c r="CU28" s="69"/>
+      <c r="CV28" s="69"/>
+      <c r="CW28" s="69"/>
+      <c r="CX28" s="69"/>
+      <c r="CY28" s="69"/>
+      <c r="CZ28" s="69"/>
+      <c r="DA28" s="69"/>
+      <c r="DB28" s="69"/>
+      <c r="DC28" s="69"/>
+      <c r="DD28" s="69"/>
+      <c r="DE28" s="69"/>
+      <c r="DF28" s="69"/>
+      <c r="DG28" s="69"/>
+      <c r="DH28" s="69"/>
+      <c r="DI28" s="69"/>
+      <c r="DJ28" s="69"/>
+      <c r="DK28" s="69"/>
+      <c r="DL28" s="69"/>
+      <c r="DM28" s="69"/>
+      <c r="DN28" s="69"/>
+      <c r="DO28" s="69"/>
+      <c r="DP28" s="69"/>
+      <c r="DQ28" s="69"/>
+      <c r="DR28" s="69"/>
+      <c r="DS28" s="69"/>
+      <c r="DT28" s="69"/>
+      <c r="DU28" s="69"/>
+      <c r="DV28" s="69"/>
+      <c r="DW28" s="69"/>
+      <c r="DX28" s="69"/>
+      <c r="DY28" s="69"/>
+      <c r="DZ28" s="69"/>
+      <c r="EA28" s="69"/>
+      <c r="EB28" s="69"/>
+      <c r="EC28" s="69"/>
+      <c r="ED28" s="69"/>
+      <c r="EE28" s="69"/>
+      <c r="EF28" s="69"/>
+      <c r="EG28" s="69"/>
+      <c r="EH28" s="69"/>
+      <c r="EI28" s="69"/>
+      <c r="EJ28" s="69"/>
+      <c r="EK28" s="69"/>
+      <c r="EL28" s="69"/>
+      <c r="EM28" s="69"/>
+      <c r="EN28" s="69"/>
+      <c r="EO28" s="69"/>
+      <c r="EP28" s="69"/>
+      <c r="EQ28" s="69"/>
+      <c r="ER28" s="69"/>
+      <c r="ES28" s="69"/>
+      <c r="ET28" s="69"/>
+      <c r="EU28" s="69"/>
+      <c r="EV28" s="69"/>
+      <c r="EW28" s="69"/>
+      <c r="EX28" s="69"/>
+      <c r="EY28" s="69"/>
+      <c r="EZ28" s="69"/>
+      <c r="FA28" s="69"/>
+      <c r="FB28" s="69"/>
+      <c r="FC28" s="69"/>
+      <c r="FD28" s="69"/>
+      <c r="FE28" s="69"/>
+      <c r="FF28" s="69"/>
+      <c r="FG28" s="69"/>
+      <c r="FH28" s="69"/>
+      <c r="FI28" s="69"/>
+      <c r="FJ28" s="69"/>
+      <c r="FK28" s="69"/>
+      <c r="FL28" s="69"/>
+      <c r="FM28" s="69"/>
+      <c r="FN28" s="69"/>
+      <c r="FO28" s="69"/>
+      <c r="FP28" s="69"/>
+      <c r="FQ28" s="69"/>
+      <c r="FR28" s="69"/>
+      <c r="FS28" s="69"/>
+      <c r="FT28" s="69"/>
+      <c r="FU28" s="69"/>
+      <c r="FV28" s="69"/>
+      <c r="FW28" s="69"/>
+      <c r="FX28" s="69"/>
+      <c r="FY28" s="69"/>
+      <c r="FZ28" s="69"/>
+      <c r="GA28" s="69"/>
+      <c r="GB28" s="69"/>
+      <c r="GC28" s="69"/>
+      <c r="GD28" s="69"/>
+      <c r="GE28" s="69"/>
+      <c r="GF28" s="69"/>
+      <c r="GG28" s="69"/>
+      <c r="GH28" s="69"/>
+      <c r="GI28" s="69"/>
+      <c r="GJ28" s="69"/>
+      <c r="GK28" s="69"/>
+      <c r="GL28" s="69"/>
+      <c r="GM28" s="69"/>
+      <c r="GN28" s="69"/>
+      <c r="GO28" s="69"/>
+      <c r="GP28" s="69"/>
+      <c r="GQ28" s="69"/>
+      <c r="GR28" s="69"/>
+      <c r="GS28" s="69"/>
+      <c r="GT28" s="69"/>
+      <c r="GU28" s="69"/>
+      <c r="GV28" s="69"/>
+      <c r="GW28" s="69"/>
+      <c r="GX28" s="69"/>
+      <c r="GY28" s="69"/>
+      <c r="GZ28" s="69"/>
+      <c r="HA28" s="69"/>
+      <c r="HB28" s="69"/>
+      <c r="HC28" s="69"/>
+      <c r="HD28" s="69"/>
+      <c r="HE28" s="69"/>
+      <c r="HF28" s="69"/>
+      <c r="HG28" s="69"/>
+      <c r="HH28" s="69"/>
+      <c r="HI28" s="69"/>
+      <c r="HJ28" s="69"/>
+      <c r="HK28" s="69"/>
+      <c r="HL28" s="69"/>
+      <c r="HM28" s="69"/>
+      <c r="HN28" s="69"/>
+      <c r="HO28" s="69"/>
+      <c r="HP28" s="69"/>
+      <c r="HQ28" s="69"/>
+      <c r="HR28" s="69"/>
+      <c r="HS28" s="69"/>
+      <c r="HT28" s="69"/>
+      <c r="HU28" s="69"/>
+      <c r="HV28" s="69"/>
+      <c r="HW28" s="69"/>
+      <c r="HX28" s="69"/>
+      <c r="HY28" s="69"/>
+      <c r="HZ28" s="69"/>
+      <c r="IA28" s="69"/>
+      <c r="IB28" s="69"/>
+      <c r="IC28" s="69"/>
+      <c r="ID28" s="69"/>
+      <c r="IE28" s="69"/>
+      <c r="IF28" s="69"/>
+      <c r="IG28" s="69"/>
+      <c r="IH28" s="69"/>
+      <c r="II28" s="69"/>
+      <c r="IJ28" s="69"/>
+      <c r="IK28" s="69"/>
+      <c r="IL28" s="69"/>
+      <c r="IM28" s="69"/>
+      <c r="IN28" s="69"/>
+      <c r="IO28" s="69"/>
+      <c r="IP28" s="41"/>
       <c r="IQ28" s="14"/>
       <c r="IR28" s="14"/>
       <c r="IS28" s="14"/>
@@ -9757,22 +9782,22 @@
       <c r="IX28" s="14"/>
     </row>
     <row r="29" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30">
-        <f>DATE(2022,6,1)</f>
-        <v>44713</v>
-      </c>
-      <c r="D29" s="30">
-        <f>DATE(2022,6,31)</f>
-        <v>44743</v>
+      <c r="A29" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="35">
+        <f>DATE(2022,1,23)</f>
+        <v>44584</v>
+      </c>
+      <c r="D29" s="35">
+        <f>DATE(2022,2,13)</f>
+        <v>44605</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13">
         <f t="shared" si="156"/>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -9788,235 +9813,235 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="14"/>
-      <c r="AM29" s="14"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="14"/>
-      <c r="AP29" s="14"/>
-      <c r="AQ29" s="14"/>
-      <c r="AR29" s="14"/>
-      <c r="AS29" s="14"/>
-      <c r="AT29" s="14"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="14"/>
-      <c r="AW29" s="14"/>
-      <c r="AX29" s="14"/>
-      <c r="AY29" s="14"/>
-      <c r="AZ29" s="14"/>
-      <c r="BA29" s="14"/>
-      <c r="BB29" s="14"/>
-      <c r="BC29" s="14"/>
-      <c r="BD29" s="14"/>
-      <c r="BE29" s="14"/>
-      <c r="BF29" s="14"/>
-      <c r="BG29" s="14"/>
-      <c r="BH29" s="14"/>
-      <c r="BI29" s="14"/>
-      <c r="BJ29" s="14"/>
-      <c r="BK29" s="14"/>
-      <c r="BL29" s="14"/>
-      <c r="BM29" s="14"/>
-      <c r="BN29" s="14"/>
-      <c r="BO29" s="14"/>
-      <c r="BP29" s="14"/>
-      <c r="BQ29" s="14"/>
-      <c r="BR29" s="14"/>
-      <c r="BS29" s="14"/>
-      <c r="BT29" s="14"/>
-      <c r="BU29" s="14"/>
-      <c r="BV29" s="14"/>
-      <c r="BW29" s="14"/>
-      <c r="BX29" s="14"/>
-      <c r="BY29" s="14"/>
-      <c r="BZ29" s="14"/>
-      <c r="CA29" s="14"/>
-      <c r="CB29" s="14"/>
-      <c r="CC29" s="14"/>
-      <c r="CD29" s="14"/>
-      <c r="CE29" s="14"/>
-      <c r="CF29" s="14"/>
-      <c r="CG29" s="14"/>
-      <c r="CH29" s="14"/>
-      <c r="CI29" s="14"/>
-      <c r="CJ29" s="14"/>
-      <c r="CK29" s="14"/>
-      <c r="CL29" s="14"/>
-      <c r="CM29" s="14"/>
-      <c r="CN29" s="14"/>
-      <c r="CO29" s="14"/>
-      <c r="CP29" s="14"/>
-      <c r="CQ29" s="14"/>
-      <c r="CR29" s="14"/>
-      <c r="CS29" s="14"/>
-      <c r="CT29" s="14"/>
-      <c r="CU29" s="14"/>
-      <c r="CV29" s="14"/>
-      <c r="CW29" s="14"/>
-      <c r="CX29" s="14"/>
-      <c r="CY29" s="14"/>
-      <c r="CZ29" s="14"/>
-      <c r="DA29" s="14"/>
-      <c r="DB29" s="14"/>
-      <c r="DC29" s="14"/>
-      <c r="DD29" s="14"/>
-      <c r="DE29" s="14"/>
-      <c r="DF29" s="14"/>
-      <c r="DG29" s="14"/>
-      <c r="DH29" s="14"/>
-      <c r="DI29" s="14"/>
-      <c r="DJ29" s="14"/>
-      <c r="DK29" s="14"/>
-      <c r="DL29" s="14"/>
-      <c r="DM29" s="14"/>
-      <c r="DN29" s="14"/>
-      <c r="DO29" s="14"/>
-      <c r="DP29" s="14"/>
-      <c r="DQ29" s="14"/>
-      <c r="DR29" s="14"/>
-      <c r="DS29" s="14"/>
-      <c r="DT29" s="14"/>
-      <c r="DU29" s="14"/>
-      <c r="DV29" s="14"/>
-      <c r="DW29" s="14"/>
-      <c r="DX29" s="14"/>
-      <c r="DY29" s="14"/>
-      <c r="DZ29" s="14"/>
-      <c r="EA29" s="14"/>
-      <c r="EB29" s="14"/>
-      <c r="EC29" s="14"/>
-      <c r="ED29" s="14"/>
-      <c r="EE29" s="14"/>
-      <c r="EF29" s="14"/>
-      <c r="EG29" s="14"/>
-      <c r="EH29" s="14"/>
-      <c r="EI29" s="14"/>
-      <c r="EJ29" s="14"/>
-      <c r="EK29" s="14"/>
-      <c r="EL29" s="14"/>
-      <c r="EM29" s="14"/>
-      <c r="EN29" s="14"/>
-      <c r="EO29" s="14"/>
-      <c r="EP29" s="14"/>
-      <c r="EQ29" s="14"/>
-      <c r="ER29" s="14"/>
-      <c r="ES29" s="14"/>
-      <c r="ET29" s="14"/>
-      <c r="EU29" s="14"/>
-      <c r="EV29" s="14"/>
-      <c r="EW29" s="14"/>
-      <c r="EX29" s="14"/>
-      <c r="EY29" s="14"/>
-      <c r="EZ29" s="14"/>
-      <c r="FA29" s="14"/>
-      <c r="FB29" s="14"/>
-      <c r="FC29" s="14"/>
-      <c r="FD29" s="14"/>
-      <c r="FE29" s="14"/>
-      <c r="FF29" s="14"/>
-      <c r="FG29" s="14"/>
-      <c r="FH29" s="14"/>
-      <c r="FI29" s="14"/>
-      <c r="FJ29" s="14"/>
-      <c r="FK29" s="14"/>
-      <c r="FL29" s="14"/>
-      <c r="FM29" s="14"/>
-      <c r="FN29" s="14"/>
-      <c r="FO29" s="14"/>
-      <c r="FP29" s="14"/>
-      <c r="FQ29" s="14"/>
-      <c r="FR29" s="14"/>
-      <c r="FS29" s="14"/>
-      <c r="FT29" s="14"/>
-      <c r="FU29" s="14"/>
-      <c r="FV29" s="14"/>
-      <c r="FW29" s="14"/>
-      <c r="FX29" s="14"/>
-      <c r="FY29" s="14"/>
-      <c r="FZ29" s="14"/>
-      <c r="GA29" s="14"/>
-      <c r="GB29" s="14"/>
-      <c r="GC29" s="14"/>
-      <c r="GD29" s="14"/>
-      <c r="GE29" s="14"/>
-      <c r="GF29" s="14"/>
-      <c r="GG29" s="14"/>
-      <c r="GH29" s="14"/>
-      <c r="GI29" s="14"/>
-      <c r="GJ29" s="14"/>
-      <c r="GK29" s="14"/>
-      <c r="GL29" s="14"/>
-      <c r="GM29" s="14"/>
-      <c r="GN29" s="14"/>
-      <c r="GO29" s="14"/>
-      <c r="GP29" s="14"/>
-      <c r="GQ29" s="14"/>
-      <c r="GR29" s="14"/>
-      <c r="GS29" s="14"/>
-      <c r="GT29" s="14"/>
-      <c r="GU29" s="14"/>
-      <c r="GV29" s="14"/>
-      <c r="GW29" s="14"/>
-      <c r="GX29" s="14"/>
-      <c r="GY29" s="14"/>
-      <c r="GZ29" s="14"/>
-      <c r="HA29" s="14"/>
-      <c r="HB29" s="14"/>
-      <c r="HC29" s="14"/>
-      <c r="HD29" s="14"/>
-      <c r="HE29" s="14"/>
-      <c r="HF29" s="14"/>
-      <c r="HG29" s="14"/>
-      <c r="HH29" s="14"/>
-      <c r="HI29" s="14"/>
-      <c r="HJ29" s="14"/>
-      <c r="HK29" s="14"/>
-      <c r="HL29" s="14"/>
-      <c r="HM29" s="14"/>
-      <c r="HN29" s="14"/>
-      <c r="HO29" s="14"/>
-      <c r="HP29" s="14"/>
-      <c r="HQ29" s="14"/>
-      <c r="HR29" s="14"/>
-      <c r="HS29" s="14"/>
-      <c r="HT29" s="14"/>
-      <c r="HU29" s="14"/>
-      <c r="HV29" s="14"/>
-      <c r="HW29" s="14"/>
-      <c r="HX29" s="14"/>
-      <c r="HY29" s="14"/>
-      <c r="HZ29" s="14"/>
-      <c r="IA29" s="14"/>
-      <c r="IB29" s="14"/>
-      <c r="IC29" s="14"/>
-      <c r="ID29" s="14"/>
-      <c r="IE29" s="14"/>
-      <c r="IF29" s="14"/>
-      <c r="IG29" s="14"/>
-      <c r="IH29" s="14"/>
-      <c r="II29" s="14"/>
-      <c r="IJ29" s="14"/>
-      <c r="IK29" s="14"/>
-      <c r="IL29" s="14"/>
-      <c r="IM29" s="14"/>
-      <c r="IN29" s="14"/>
-      <c r="IO29" s="14"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="43"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="43"/>
+      <c r="AV29" s="43"/>
+      <c r="AW29" s="43"/>
+      <c r="AX29" s="43"/>
+      <c r="AY29" s="43"/>
+      <c r="AZ29" s="43"/>
+      <c r="BA29" s="43"/>
+      <c r="BB29" s="43"/>
+      <c r="BC29" s="43"/>
+      <c r="BD29" s="43"/>
+      <c r="BE29" s="43"/>
+      <c r="BF29" s="43"/>
+      <c r="BG29" s="43"/>
+      <c r="BH29" s="43"/>
+      <c r="BI29" s="43"/>
+      <c r="BJ29" s="43"/>
+      <c r="BK29" s="43"/>
+      <c r="BL29" s="43"/>
+      <c r="BM29" s="43"/>
+      <c r="BN29" s="43"/>
+      <c r="BO29" s="43"/>
+      <c r="BP29" s="43"/>
+      <c r="BQ29" s="43"/>
+      <c r="BR29" s="43"/>
+      <c r="BS29" s="43"/>
+      <c r="BT29" s="43"/>
+      <c r="BU29" s="43"/>
+      <c r="BV29" s="43"/>
+      <c r="BW29" s="43"/>
+      <c r="BX29" s="43"/>
+      <c r="BY29" s="43"/>
+      <c r="BZ29" s="43"/>
+      <c r="CA29" s="43"/>
+      <c r="CB29" s="43"/>
+      <c r="CC29" s="43"/>
+      <c r="CD29" s="43"/>
+      <c r="CE29" s="43"/>
+      <c r="CF29" s="43"/>
+      <c r="CG29" s="43"/>
+      <c r="CH29" s="43"/>
+      <c r="CI29" s="43"/>
+      <c r="CJ29" s="43"/>
+      <c r="CK29" s="43"/>
+      <c r="CL29" s="43"/>
+      <c r="CM29" s="43"/>
+      <c r="CN29" s="43"/>
+      <c r="CO29" s="43"/>
+      <c r="CP29" s="43"/>
+      <c r="CQ29" s="43"/>
+      <c r="CR29" s="43"/>
+      <c r="CS29" s="43"/>
+      <c r="CT29" s="43"/>
+      <c r="CU29" s="43"/>
+      <c r="CV29" s="43"/>
+      <c r="CW29" s="43"/>
+      <c r="CX29" s="43"/>
+      <c r="CY29" s="43"/>
+      <c r="CZ29" s="43"/>
+      <c r="DA29" s="43"/>
+      <c r="DB29" s="43"/>
+      <c r="DC29" s="43"/>
+      <c r="DD29" s="43"/>
+      <c r="DE29" s="43"/>
+      <c r="DF29" s="43"/>
+      <c r="DG29" s="43"/>
+      <c r="DH29" s="43"/>
+      <c r="DI29" s="43"/>
+      <c r="DJ29" s="43"/>
+      <c r="DK29" s="43"/>
+      <c r="DL29" s="43"/>
+      <c r="DM29" s="43"/>
+      <c r="DN29" s="43"/>
+      <c r="DO29" s="43"/>
+      <c r="DP29" s="43"/>
+      <c r="DQ29" s="43"/>
+      <c r="DR29" s="43"/>
+      <c r="DS29" s="43"/>
+      <c r="DT29" s="43"/>
+      <c r="DU29" s="43"/>
+      <c r="DV29" s="43"/>
+      <c r="DW29" s="43"/>
+      <c r="DX29" s="43"/>
+      <c r="DY29" s="43"/>
+      <c r="DZ29" s="43"/>
+      <c r="EA29" s="43"/>
+      <c r="EB29" s="43"/>
+      <c r="EC29" s="43"/>
+      <c r="ED29" s="43"/>
+      <c r="EE29" s="43"/>
+      <c r="EF29" s="43"/>
+      <c r="EG29" s="43"/>
+      <c r="EH29" s="43"/>
+      <c r="EI29" s="43"/>
+      <c r="EJ29" s="43"/>
+      <c r="EK29" s="43"/>
+      <c r="EL29" s="43"/>
+      <c r="EM29" s="43"/>
+      <c r="EN29" s="43"/>
+      <c r="EO29" s="43"/>
+      <c r="EP29" s="43"/>
+      <c r="EQ29" s="43"/>
+      <c r="ER29" s="43"/>
+      <c r="ES29" s="43"/>
+      <c r="ET29" s="43"/>
+      <c r="EU29" s="43"/>
+      <c r="EV29" s="43"/>
+      <c r="EW29" s="43"/>
+      <c r="EX29" s="43"/>
+      <c r="EY29" s="43"/>
+      <c r="EZ29" s="43"/>
+      <c r="FA29" s="43"/>
+      <c r="FB29" s="43"/>
+      <c r="FC29" s="43"/>
+      <c r="FD29" s="43"/>
+      <c r="FE29" s="43"/>
+      <c r="FF29" s="43"/>
+      <c r="FG29" s="43"/>
+      <c r="FH29" s="43"/>
+      <c r="FI29" s="43"/>
+      <c r="FJ29" s="43"/>
+      <c r="FK29" s="43"/>
+      <c r="FL29" s="43"/>
+      <c r="FM29" s="43"/>
+      <c r="FN29" s="43"/>
+      <c r="FO29" s="43"/>
+      <c r="FP29" s="43"/>
+      <c r="FQ29" s="43"/>
+      <c r="FR29" s="43"/>
+      <c r="FS29" s="43"/>
+      <c r="FT29" s="43"/>
+      <c r="FU29" s="43"/>
+      <c r="FV29" s="43"/>
+      <c r="FW29" s="43"/>
+      <c r="FX29" s="43"/>
+      <c r="FY29" s="43"/>
+      <c r="FZ29" s="43"/>
+      <c r="GA29" s="43"/>
+      <c r="GB29" s="43"/>
+      <c r="GC29" s="43"/>
+      <c r="GD29" s="43"/>
+      <c r="GE29" s="43"/>
+      <c r="GF29" s="43"/>
+      <c r="GG29" s="43"/>
+      <c r="GH29" s="43"/>
+      <c r="GI29" s="43"/>
+      <c r="GJ29" s="43"/>
+      <c r="GK29" s="43"/>
+      <c r="GL29" s="43"/>
+      <c r="GM29" s="43"/>
+      <c r="GN29" s="43"/>
+      <c r="GO29" s="43"/>
+      <c r="GP29" s="43"/>
+      <c r="GQ29" s="43"/>
+      <c r="GR29" s="43"/>
+      <c r="GS29" s="43"/>
+      <c r="GT29" s="43"/>
+      <c r="GU29" s="43"/>
+      <c r="GV29" s="43"/>
+      <c r="GW29" s="43"/>
+      <c r="GX29" s="43"/>
+      <c r="GY29" s="43"/>
+      <c r="GZ29" s="43"/>
+      <c r="HA29" s="43"/>
+      <c r="HB29" s="43"/>
+      <c r="HC29" s="43"/>
+      <c r="HD29" s="43"/>
+      <c r="HE29" s="43"/>
+      <c r="HF29" s="43"/>
+      <c r="HG29" s="43"/>
+      <c r="HH29" s="43"/>
+      <c r="HI29" s="43"/>
+      <c r="HJ29" s="43"/>
+      <c r="HK29" s="43"/>
+      <c r="HL29" s="43"/>
+      <c r="HM29" s="43"/>
+      <c r="HN29" s="43"/>
+      <c r="HO29" s="43"/>
+      <c r="HP29" s="43"/>
+      <c r="HQ29" s="43"/>
+      <c r="HR29" s="43"/>
+      <c r="HS29" s="43"/>
+      <c r="HT29" s="43"/>
+      <c r="HU29" s="43"/>
+      <c r="HV29" s="43"/>
+      <c r="HW29" s="43"/>
+      <c r="HX29" s="43"/>
+      <c r="HY29" s="43"/>
+      <c r="HZ29" s="43"/>
+      <c r="IA29" s="43"/>
+      <c r="IB29" s="43"/>
+      <c r="IC29" s="43"/>
+      <c r="ID29" s="43"/>
+      <c r="IE29" s="43"/>
+      <c r="IF29" s="43"/>
+      <c r="IG29" s="43"/>
+      <c r="IH29" s="43"/>
+      <c r="II29" s="43"/>
+      <c r="IJ29" s="43"/>
+      <c r="IK29" s="43"/>
+      <c r="IL29" s="43"/>
+      <c r="IM29" s="43"/>
+      <c r="IN29" s="43"/>
+      <c r="IO29" s="43"/>
       <c r="IP29" s="14"/>
       <c r="IQ29" s="14"/>
       <c r="IR29" s="14"/>
@@ -10028,14 +10053,22 @@
       <c r="IX29" s="14"/>
     </row>
     <row r="30" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="24">
+        <f>DATE(2021,11,15)</f>
+        <v>44515</v>
+      </c>
+      <c r="D30" s="24">
+        <f>DATE(2022,1,31)</f>
+        <v>44592</v>
+      </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="13" t="str">
+      <c r="F30" s="13">
         <f t="shared" si="156"/>
-        <v/>
+        <v>78</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -10290,39 +10323,562 @@
       <c r="IW30" s="14"/>
       <c r="IX30" s="14"/>
     </row>
-    <row r="31" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="4"/>
+    <row r="31" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="24">
+        <f>DATE(2022,6,1)</f>
+        <v>44713</v>
+      </c>
+      <c r="D31" s="24">
+        <f>DATE(2022,6,31)</f>
+        <v>44743</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13">
+        <f t="shared" si="156"/>
+        <v>31</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="14"/>
+      <c r="AS31" s="14"/>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="14"/>
+      <c r="AZ31" s="14"/>
+      <c r="BA31" s="14"/>
+      <c r="BB31" s="14"/>
+      <c r="BC31" s="14"/>
+      <c r="BD31" s="14"/>
+      <c r="BE31" s="14"/>
+      <c r="BF31" s="14"/>
+      <c r="BG31" s="14"/>
+      <c r="BH31" s="14"/>
+      <c r="BI31" s="14"/>
+      <c r="BJ31" s="14"/>
+      <c r="BK31" s="14"/>
+      <c r="BL31" s="14"/>
+      <c r="BM31" s="14"/>
+      <c r="BN31" s="14"/>
+      <c r="BO31" s="14"/>
+      <c r="BP31" s="14"/>
+      <c r="BQ31" s="14"/>
+      <c r="BR31" s="14"/>
+      <c r="BS31" s="14"/>
+      <c r="BT31" s="14"/>
+      <c r="BU31" s="14"/>
+      <c r="BV31" s="14"/>
+      <c r="BW31" s="14"/>
+      <c r="BX31" s="14"/>
+      <c r="BY31" s="14"/>
+      <c r="BZ31" s="14"/>
+      <c r="CA31" s="14"/>
+      <c r="CB31" s="14"/>
+      <c r="CC31" s="14"/>
+      <c r="CD31" s="14"/>
+      <c r="CE31" s="14"/>
+      <c r="CF31" s="14"/>
+      <c r="CG31" s="14"/>
+      <c r="CH31" s="14"/>
+      <c r="CI31" s="14"/>
+      <c r="CJ31" s="14"/>
+      <c r="CK31" s="14"/>
+      <c r="CL31" s="14"/>
+      <c r="CM31" s="14"/>
+      <c r="CN31" s="14"/>
+      <c r="CO31" s="14"/>
+      <c r="CP31" s="14"/>
+      <c r="CQ31" s="14"/>
+      <c r="CR31" s="14"/>
+      <c r="CS31" s="14"/>
+      <c r="CT31" s="14"/>
+      <c r="CU31" s="14"/>
+      <c r="CV31" s="14"/>
+      <c r="CW31" s="14"/>
+      <c r="CX31" s="14"/>
+      <c r="CY31" s="14"/>
+      <c r="CZ31" s="14"/>
+      <c r="DA31" s="14"/>
+      <c r="DB31" s="14"/>
+      <c r="DC31" s="14"/>
+      <c r="DD31" s="14"/>
+      <c r="DE31" s="14"/>
+      <c r="DF31" s="14"/>
+      <c r="DG31" s="14"/>
+      <c r="DH31" s="14"/>
+      <c r="DI31" s="14"/>
+      <c r="DJ31" s="14"/>
+      <c r="DK31" s="14"/>
+      <c r="DL31" s="14"/>
+      <c r="DM31" s="14"/>
+      <c r="DN31" s="14"/>
+      <c r="DO31" s="14"/>
+      <c r="DP31" s="14"/>
+      <c r="DQ31" s="14"/>
+      <c r="DR31" s="14"/>
+      <c r="DS31" s="14"/>
+      <c r="DT31" s="14"/>
+      <c r="DU31" s="14"/>
+      <c r="DV31" s="14"/>
+      <c r="DW31" s="14"/>
+      <c r="DX31" s="14"/>
+      <c r="DY31" s="14"/>
+      <c r="DZ31" s="14"/>
+      <c r="EA31" s="14"/>
+      <c r="EB31" s="14"/>
+      <c r="EC31" s="14"/>
+      <c r="ED31" s="14"/>
+      <c r="EE31" s="14"/>
+      <c r="EF31" s="14"/>
+      <c r="EG31" s="14"/>
+      <c r="EH31" s="14"/>
+      <c r="EI31" s="14"/>
+      <c r="EJ31" s="14"/>
+      <c r="EK31" s="14"/>
+      <c r="EL31" s="14"/>
+      <c r="EM31" s="14"/>
+      <c r="EN31" s="14"/>
+      <c r="EO31" s="14"/>
+      <c r="EP31" s="14"/>
+      <c r="EQ31" s="14"/>
+      <c r="ER31" s="14"/>
+      <c r="ES31" s="14"/>
+      <c r="ET31" s="14"/>
+      <c r="EU31" s="14"/>
+      <c r="EV31" s="14"/>
+      <c r="EW31" s="14"/>
+      <c r="EX31" s="14"/>
+      <c r="EY31" s="14"/>
+      <c r="EZ31" s="14"/>
+      <c r="FA31" s="14"/>
+      <c r="FB31" s="14"/>
+      <c r="FC31" s="14"/>
+      <c r="FD31" s="14"/>
+      <c r="FE31" s="14"/>
+      <c r="FF31" s="14"/>
+      <c r="FG31" s="14"/>
+      <c r="FH31" s="14"/>
+      <c r="FI31" s="14"/>
+      <c r="FJ31" s="14"/>
+      <c r="FK31" s="14"/>
+      <c r="FL31" s="14"/>
+      <c r="FM31" s="14"/>
+      <c r="FN31" s="14"/>
+      <c r="FO31" s="14"/>
+      <c r="FP31" s="14"/>
+      <c r="FQ31" s="14"/>
+      <c r="FR31" s="14"/>
+      <c r="FS31" s="14"/>
+      <c r="FT31" s="14"/>
+      <c r="FU31" s="14"/>
+      <c r="FV31" s="14"/>
+      <c r="FW31" s="14"/>
+      <c r="FX31" s="14"/>
+      <c r="FY31" s="14"/>
+      <c r="FZ31" s="14"/>
+      <c r="GA31" s="14"/>
+      <c r="GB31" s="14"/>
+      <c r="GC31" s="14"/>
+      <c r="GD31" s="14"/>
+      <c r="GE31" s="14"/>
+      <c r="GF31" s="14"/>
+      <c r="GG31" s="14"/>
+      <c r="GH31" s="14"/>
+      <c r="GI31" s="14"/>
+      <c r="GJ31" s="14"/>
+      <c r="GK31" s="14"/>
+      <c r="GL31" s="14"/>
+      <c r="GM31" s="14"/>
+      <c r="GN31" s="14"/>
+      <c r="GO31" s="14"/>
+      <c r="GP31" s="14"/>
+      <c r="GQ31" s="14"/>
+      <c r="GR31" s="14"/>
+      <c r="GS31" s="14"/>
+      <c r="GT31" s="14"/>
+      <c r="GU31" s="14"/>
+      <c r="GV31" s="14"/>
+      <c r="GW31" s="14"/>
+      <c r="GX31" s="14"/>
+      <c r="GY31" s="14"/>
+      <c r="GZ31" s="14"/>
+      <c r="HA31" s="14"/>
+      <c r="HB31" s="14"/>
+      <c r="HC31" s="14"/>
+      <c r="HD31" s="14"/>
+      <c r="HE31" s="14"/>
+      <c r="HF31" s="14"/>
+      <c r="HG31" s="14"/>
+      <c r="HH31" s="14"/>
+      <c r="HI31" s="14"/>
+      <c r="HJ31" s="14"/>
+      <c r="HK31" s="14"/>
+      <c r="HL31" s="14"/>
+      <c r="HM31" s="14"/>
+      <c r="HN31" s="14"/>
+      <c r="HO31" s="14"/>
+      <c r="HP31" s="14"/>
+      <c r="HQ31" s="14"/>
+      <c r="HR31" s="14"/>
+      <c r="HS31" s="14"/>
+      <c r="HT31" s="14"/>
+      <c r="HU31" s="14"/>
+      <c r="HV31" s="14"/>
+      <c r="HW31" s="14"/>
+      <c r="HX31" s="14"/>
+      <c r="HY31" s="14"/>
+      <c r="HZ31" s="14"/>
+      <c r="IA31" s="14"/>
+      <c r="IB31" s="14"/>
+      <c r="IC31" s="14"/>
+      <c r="ID31" s="14"/>
+      <c r="IE31" s="14"/>
+      <c r="IF31" s="14"/>
+      <c r="IG31" s="14"/>
+      <c r="IH31" s="14"/>
+      <c r="II31" s="14"/>
+      <c r="IJ31" s="14"/>
+      <c r="IK31" s="14"/>
+      <c r="IL31" s="14"/>
+      <c r="IM31" s="14"/>
+      <c r="IN31" s="14"/>
+      <c r="IO31" s="14"/>
+      <c r="IP31" s="14"/>
+      <c r="IQ31" s="14"/>
+      <c r="IR31" s="14"/>
+      <c r="IS31" s="14"/>
+      <c r="IT31" s="14"/>
+      <c r="IU31" s="14"/>
+      <c r="IV31" s="14"/>
+      <c r="IW31" s="14"/>
+      <c r="IX31" s="14"/>
     </row>
-    <row r="32" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="16"/>
+    <row r="32" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="str">
+        <f t="shared" si="156"/>
+        <v/>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="14"/>
+      <c r="AS32" s="14"/>
+      <c r="AT32" s="14"/>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="14"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="14"/>
+      <c r="AZ32" s="14"/>
+      <c r="BA32" s="14"/>
+      <c r="BB32" s="14"/>
+      <c r="BC32" s="14"/>
+      <c r="BD32" s="14"/>
+      <c r="BE32" s="14"/>
+      <c r="BF32" s="14"/>
+      <c r="BG32" s="14"/>
+      <c r="BH32" s="14"/>
+      <c r="BI32" s="14"/>
+      <c r="BJ32" s="14"/>
+      <c r="BK32" s="14"/>
+      <c r="BL32" s="14"/>
+      <c r="BM32" s="14"/>
+      <c r="BN32" s="14"/>
+      <c r="BO32" s="14"/>
+      <c r="BP32" s="14"/>
+      <c r="BQ32" s="14"/>
+      <c r="BR32" s="14"/>
+      <c r="BS32" s="14"/>
+      <c r="BT32" s="14"/>
+      <c r="BU32" s="14"/>
+      <c r="BV32" s="14"/>
+      <c r="BW32" s="14"/>
+      <c r="BX32" s="14"/>
+      <c r="BY32" s="14"/>
+      <c r="BZ32" s="14"/>
+      <c r="CA32" s="14"/>
+      <c r="CB32" s="14"/>
+      <c r="CC32" s="14"/>
+      <c r="CD32" s="14"/>
+      <c r="CE32" s="14"/>
+      <c r="CF32" s="14"/>
+      <c r="CG32" s="14"/>
+      <c r="CH32" s="14"/>
+      <c r="CI32" s="14"/>
+      <c r="CJ32" s="14"/>
+      <c r="CK32" s="14"/>
+      <c r="CL32" s="14"/>
+      <c r="CM32" s="14"/>
+      <c r="CN32" s="14"/>
+      <c r="CO32" s="14"/>
+      <c r="CP32" s="14"/>
+      <c r="CQ32" s="14"/>
+      <c r="CR32" s="14"/>
+      <c r="CS32" s="14"/>
+      <c r="CT32" s="14"/>
+      <c r="CU32" s="14"/>
+      <c r="CV32" s="14"/>
+      <c r="CW32" s="14"/>
+      <c r="CX32" s="14"/>
+      <c r="CY32" s="14"/>
+      <c r="CZ32" s="14"/>
+      <c r="DA32" s="14"/>
+      <c r="DB32" s="14"/>
+      <c r="DC32" s="14"/>
+      <c r="DD32" s="14"/>
+      <c r="DE32" s="14"/>
+      <c r="DF32" s="14"/>
+      <c r="DG32" s="14"/>
+      <c r="DH32" s="14"/>
+      <c r="DI32" s="14"/>
+      <c r="DJ32" s="14"/>
+      <c r="DK32" s="14"/>
+      <c r="DL32" s="14"/>
+      <c r="DM32" s="14"/>
+      <c r="DN32" s="14"/>
+      <c r="DO32" s="14"/>
+      <c r="DP32" s="14"/>
+      <c r="DQ32" s="14"/>
+      <c r="DR32" s="14"/>
+      <c r="DS32" s="14"/>
+      <c r="DT32" s="14"/>
+      <c r="DU32" s="14"/>
+      <c r="DV32" s="14"/>
+      <c r="DW32" s="14"/>
+      <c r="DX32" s="14"/>
+      <c r="DY32" s="14"/>
+      <c r="DZ32" s="14"/>
+      <c r="EA32" s="14"/>
+      <c r="EB32" s="14"/>
+      <c r="EC32" s="14"/>
+      <c r="ED32" s="14"/>
+      <c r="EE32" s="14"/>
+      <c r="EF32" s="14"/>
+      <c r="EG32" s="14"/>
+      <c r="EH32" s="14"/>
+      <c r="EI32" s="14"/>
+      <c r="EJ32" s="14"/>
+      <c r="EK32" s="14"/>
+      <c r="EL32" s="14"/>
+      <c r="EM32" s="14"/>
+      <c r="EN32" s="14"/>
+      <c r="EO32" s="14"/>
+      <c r="EP32" s="14"/>
+      <c r="EQ32" s="14"/>
+      <c r="ER32" s="14"/>
+      <c r="ES32" s="14"/>
+      <c r="ET32" s="14"/>
+      <c r="EU32" s="14"/>
+      <c r="EV32" s="14"/>
+      <c r="EW32" s="14"/>
+      <c r="EX32" s="14"/>
+      <c r="EY32" s="14"/>
+      <c r="EZ32" s="14"/>
+      <c r="FA32" s="14"/>
+      <c r="FB32" s="14"/>
+      <c r="FC32" s="14"/>
+      <c r="FD32" s="14"/>
+      <c r="FE32" s="14"/>
+      <c r="FF32" s="14"/>
+      <c r="FG32" s="14"/>
+      <c r="FH32" s="14"/>
+      <c r="FI32" s="14"/>
+      <c r="FJ32" s="14"/>
+      <c r="FK32" s="14"/>
+      <c r="FL32" s="14"/>
+      <c r="FM32" s="14"/>
+      <c r="FN32" s="14"/>
+      <c r="FO32" s="14"/>
+      <c r="FP32" s="14"/>
+      <c r="FQ32" s="14"/>
+      <c r="FR32" s="14"/>
+      <c r="FS32" s="14"/>
+      <c r="FT32" s="14"/>
+      <c r="FU32" s="14"/>
+      <c r="FV32" s="14"/>
+      <c r="FW32" s="14"/>
+      <c r="FX32" s="14"/>
+      <c r="FY32" s="14"/>
+      <c r="FZ32" s="14"/>
+      <c r="GA32" s="14"/>
+      <c r="GB32" s="14"/>
+      <c r="GC32" s="14"/>
+      <c r="GD32" s="14"/>
+      <c r="GE32" s="14"/>
+      <c r="GF32" s="14"/>
+      <c r="GG32" s="14"/>
+      <c r="GH32" s="14"/>
+      <c r="GI32" s="14"/>
+      <c r="GJ32" s="14"/>
+      <c r="GK32" s="14"/>
+      <c r="GL32" s="14"/>
+      <c r="GM32" s="14"/>
+      <c r="GN32" s="14"/>
+      <c r="GO32" s="14"/>
+      <c r="GP32" s="14"/>
+      <c r="GQ32" s="14"/>
+      <c r="GR32" s="14"/>
+      <c r="GS32" s="14"/>
+      <c r="GT32" s="14"/>
+      <c r="GU32" s="14"/>
+      <c r="GV32" s="14"/>
+      <c r="GW32" s="14"/>
+      <c r="GX32" s="14"/>
+      <c r="GY32" s="14"/>
+      <c r="GZ32" s="14"/>
+      <c r="HA32" s="14"/>
+      <c r="HB32" s="14"/>
+      <c r="HC32" s="14"/>
+      <c r="HD32" s="14"/>
+      <c r="HE32" s="14"/>
+      <c r="HF32" s="14"/>
+      <c r="HG32" s="14"/>
+      <c r="HH32" s="14"/>
+      <c r="HI32" s="14"/>
+      <c r="HJ32" s="14"/>
+      <c r="HK32" s="14"/>
+      <c r="HL32" s="14"/>
+      <c r="HM32" s="14"/>
+      <c r="HN32" s="14"/>
+      <c r="HO32" s="14"/>
+      <c r="HP32" s="14"/>
+      <c r="HQ32" s="14"/>
+      <c r="HR32" s="14"/>
+      <c r="HS32" s="14"/>
+      <c r="HT32" s="14"/>
+      <c r="HU32" s="14"/>
+      <c r="HV32" s="14"/>
+      <c r="HW32" s="14"/>
+      <c r="HX32" s="14"/>
+      <c r="HY32" s="14"/>
+      <c r="HZ32" s="14"/>
+      <c r="IA32" s="14"/>
+      <c r="IB32" s="14"/>
+      <c r="IC32" s="14"/>
+      <c r="ID32" s="14"/>
+      <c r="IE32" s="14"/>
+      <c r="IF32" s="14"/>
+      <c r="IG32" s="14"/>
+      <c r="IH32" s="14"/>
+      <c r="II32" s="14"/>
+      <c r="IJ32" s="14"/>
+      <c r="IK32" s="14"/>
+      <c r="IL32" s="14"/>
+      <c r="IM32" s="14"/>
+      <c r="IN32" s="14"/>
+      <c r="IO32" s="14"/>
+      <c r="IP32" s="14"/>
+      <c r="IQ32" s="14"/>
+      <c r="IR32" s="14"/>
+      <c r="IS32" s="14"/>
+      <c r="IT32" s="14"/>
+      <c r="IU32" s="14"/>
+      <c r="IV32" s="14"/>
+      <c r="IW32" s="14"/>
+      <c r="IX32" s="14"/>
+    </row>
+    <row r="33" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="EQ4:EW4"/>
-    <mergeCell ref="EX4:FD4"/>
-    <mergeCell ref="HW4:IC4"/>
-    <mergeCell ref="FE4:FK4"/>
-    <mergeCell ref="FL4:FR4"/>
-    <mergeCell ref="FS4:FY4"/>
-    <mergeCell ref="FZ4:GF4"/>
-    <mergeCell ref="GG4:GM4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="CF4:CL4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="CM4:CS4"/>
     <mergeCell ref="ID4:IJ4"/>
     <mergeCell ref="IK4:IQ4"/>
@@ -10339,28 +10895,39 @@
     <mergeCell ref="DV4:EB4"/>
     <mergeCell ref="EC4:EI4"/>
     <mergeCell ref="EJ4:EP4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="CF4:CL4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="EQ4:EW4"/>
+    <mergeCell ref="EX4:FD4"/>
+    <mergeCell ref="HW4:IC4"/>
+    <mergeCell ref="FE4:FK4"/>
+    <mergeCell ref="FL4:FR4"/>
+    <mergeCell ref="FS4:FY4"/>
+    <mergeCell ref="FZ4:GF4"/>
+    <mergeCell ref="GG4:GM4"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="G5:IX30">
+  <conditionalFormatting sqref="G5:IX32">
     <cfRule type="expression" dxfId="2" priority="126">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:IX30">
+  <conditionalFormatting sqref="G7:IX32">
     <cfRule type="expression" dxfId="1" priority="120">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
@@ -10494,6 +11061,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010021CB413651170D4FBFA874F8BEE755CA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="42743fc73206d53d9dc0a38c59eadd60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dc598aa0-d9ce-4a6b-81d3-1bfd1d95be93" xmlns:ns4="0f3824ba-70ce-4e7b-b9df-d016a901c15a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe924b3eb92af8fdbe5696825ae74dba" ns3:_="" ns4:_="">
     <xsd:import namespace="dc598aa0-d9ce-4a6b-81d3-1bfd1d95be93"/>
@@ -10678,22 +11260,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94DE01B-F382-4B59-8124-92C815CDB8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5933DF-E5C2-4102-897C-E72E9DA32B8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFF8F1F2-15C5-48DC-909D-47DBCB39B9F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10710,21 +11294,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5933DF-E5C2-4102-897C-E72E9DA32B8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94DE01B-F382-4B59-8124-92C815CDB8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
+++ b/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1471C17F-F730-42D7-A3CD-C078229722C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CDE485-433B-46DA-8496-254E992C747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,13 +146,13 @@
     <t>Runtime Verification for Spatio-Temporal Properties over IoT networks</t>
   </si>
   <si>
-    <t>Manage the time</t>
-  </si>
-  <si>
     <t>23/01/2022</t>
   </si>
   <si>
     <t>01/07/2022</t>
+  </si>
+  <si>
+    <t>Reorganize to support SOA</t>
   </si>
 </sst>
 </file>
@@ -853,29 +853,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -887,17 +875,29 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1411,9 +1411,9 @@
   </sheetPr>
   <dimension ref="A1:IX34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C27" sqref="C27"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1451,383 +1451,383 @@
       <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="66">
+      <c r="C3" s="57">
         <f>DATE(2021,11,3)</f>
         <v>44503</v>
       </c>
-      <c r="D3" s="66"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="58">
         <f>G5</f>
         <v>44501</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="62">
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="58">
         <f>N5</f>
         <v>44508</v>
       </c>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="62">
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="58">
         <f>U5</f>
         <v>44515</v>
       </c>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="62">
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="58">
         <f>AB5</f>
         <v>44522</v>
       </c>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="62">
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="58">
         <f>AI5</f>
         <v>44529</v>
       </c>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="64"/>
-      <c r="AP4" s="62">
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="58">
         <f>AP5</f>
         <v>44536</v>
       </c>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="62">
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="58">
         <f>AW5</f>
         <v>44543</v>
       </c>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="64"/>
-      <c r="BD4" s="62">
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="58">
         <f>BD5</f>
         <v>44550</v>
       </c>
-      <c r="BE4" s="63"/>
-      <c r="BF4" s="63"/>
-      <c r="BG4" s="63"/>
-      <c r="BH4" s="63"/>
-      <c r="BI4" s="63"/>
-      <c r="BJ4" s="64"/>
-      <c r="BK4" s="62">
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="58">
         <f>BK5</f>
         <v>44557</v>
       </c>
-      <c r="BL4" s="63"/>
-      <c r="BM4" s="63"/>
-      <c r="BN4" s="63"/>
-      <c r="BO4" s="63"/>
-      <c r="BP4" s="63"/>
-      <c r="BQ4" s="64"/>
-      <c r="BR4" s="62">
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="59"/>
+      <c r="BQ4" s="60"/>
+      <c r="BR4" s="58">
         <f>BR5</f>
         <v>44564</v>
       </c>
-      <c r="BS4" s="63"/>
-      <c r="BT4" s="63"/>
-      <c r="BU4" s="63"/>
-      <c r="BV4" s="63"/>
-      <c r="BW4" s="63"/>
-      <c r="BX4" s="64"/>
-      <c r="BY4" s="62">
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="59"/>
+      <c r="BU4" s="59"/>
+      <c r="BV4" s="59"/>
+      <c r="BW4" s="59"/>
+      <c r="BX4" s="60"/>
+      <c r="BY4" s="58">
         <f>BY5</f>
         <v>44571</v>
       </c>
-      <c r="BZ4" s="63"/>
-      <c r="CA4" s="63"/>
-      <c r="CB4" s="63"/>
-      <c r="CC4" s="63"/>
-      <c r="CD4" s="63"/>
-      <c r="CE4" s="64"/>
-      <c r="CF4" s="62">
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="59"/>
+      <c r="CB4" s="59"/>
+      <c r="CC4" s="59"/>
+      <c r="CD4" s="59"/>
+      <c r="CE4" s="60"/>
+      <c r="CF4" s="58">
         <f>CF5</f>
         <v>44578</v>
       </c>
-      <c r="CG4" s="63"/>
-      <c r="CH4" s="63"/>
-      <c r="CI4" s="63"/>
-      <c r="CJ4" s="63"/>
-      <c r="CK4" s="63"/>
-      <c r="CL4" s="64"/>
-      <c r="CM4" s="62">
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="59"/>
+      <c r="CI4" s="59"/>
+      <c r="CJ4" s="59"/>
+      <c r="CK4" s="59"/>
+      <c r="CL4" s="60"/>
+      <c r="CM4" s="58">
         <f>CM5</f>
         <v>44585</v>
       </c>
-      <c r="CN4" s="63"/>
-      <c r="CO4" s="63"/>
-      <c r="CP4" s="63"/>
-      <c r="CQ4" s="63"/>
-      <c r="CR4" s="63"/>
-      <c r="CS4" s="64"/>
-      <c r="CT4" s="62">
+      <c r="CN4" s="59"/>
+      <c r="CO4" s="59"/>
+      <c r="CP4" s="59"/>
+      <c r="CQ4" s="59"/>
+      <c r="CR4" s="59"/>
+      <c r="CS4" s="60"/>
+      <c r="CT4" s="58">
         <f>CT5</f>
         <v>44592</v>
       </c>
-      <c r="CU4" s="63"/>
-      <c r="CV4" s="63"/>
-      <c r="CW4" s="63"/>
-      <c r="CX4" s="63"/>
-      <c r="CY4" s="63"/>
-      <c r="CZ4" s="64"/>
-      <c r="DA4" s="62">
+      <c r="CU4" s="59"/>
+      <c r="CV4" s="59"/>
+      <c r="CW4" s="59"/>
+      <c r="CX4" s="59"/>
+      <c r="CY4" s="59"/>
+      <c r="CZ4" s="60"/>
+      <c r="DA4" s="58">
         <f>DA5</f>
         <v>44599</v>
       </c>
-      <c r="DB4" s="63"/>
-      <c r="DC4" s="63"/>
-      <c r="DD4" s="63"/>
-      <c r="DE4" s="63"/>
-      <c r="DF4" s="63"/>
-      <c r="DG4" s="64"/>
-      <c r="DH4" s="62">
+      <c r="DB4" s="59"/>
+      <c r="DC4" s="59"/>
+      <c r="DD4" s="59"/>
+      <c r="DE4" s="59"/>
+      <c r="DF4" s="59"/>
+      <c r="DG4" s="60"/>
+      <c r="DH4" s="58">
         <f>DH5</f>
         <v>44606</v>
       </c>
-      <c r="DI4" s="63"/>
-      <c r="DJ4" s="63"/>
-      <c r="DK4" s="63"/>
-      <c r="DL4" s="63"/>
-      <c r="DM4" s="63"/>
-      <c r="DN4" s="64"/>
-      <c r="DO4" s="62">
+      <c r="DI4" s="59"/>
+      <c r="DJ4" s="59"/>
+      <c r="DK4" s="59"/>
+      <c r="DL4" s="59"/>
+      <c r="DM4" s="59"/>
+      <c r="DN4" s="60"/>
+      <c r="DO4" s="58">
         <f>DO5</f>
         <v>44613</v>
       </c>
-      <c r="DP4" s="63"/>
-      <c r="DQ4" s="63"/>
-      <c r="DR4" s="63"/>
-      <c r="DS4" s="63"/>
-      <c r="DT4" s="63"/>
-      <c r="DU4" s="64"/>
-      <c r="DV4" s="62">
+      <c r="DP4" s="59"/>
+      <c r="DQ4" s="59"/>
+      <c r="DR4" s="59"/>
+      <c r="DS4" s="59"/>
+      <c r="DT4" s="59"/>
+      <c r="DU4" s="60"/>
+      <c r="DV4" s="58">
         <f>DV5</f>
         <v>44620</v>
       </c>
-      <c r="DW4" s="63"/>
-      <c r="DX4" s="63"/>
-      <c r="DY4" s="63"/>
-      <c r="DZ4" s="63"/>
-      <c r="EA4" s="63"/>
-      <c r="EB4" s="64"/>
-      <c r="EC4" s="62">
+      <c r="DW4" s="59"/>
+      <c r="DX4" s="59"/>
+      <c r="DY4" s="59"/>
+      <c r="DZ4" s="59"/>
+      <c r="EA4" s="59"/>
+      <c r="EB4" s="60"/>
+      <c r="EC4" s="58">
         <f>EC5</f>
         <v>44627</v>
       </c>
-      <c r="ED4" s="63"/>
-      <c r="EE4" s="63"/>
-      <c r="EF4" s="63"/>
-      <c r="EG4" s="63"/>
-      <c r="EH4" s="63"/>
-      <c r="EI4" s="64"/>
-      <c r="EJ4" s="62">
+      <c r="ED4" s="59"/>
+      <c r="EE4" s="59"/>
+      <c r="EF4" s="59"/>
+      <c r="EG4" s="59"/>
+      <c r="EH4" s="59"/>
+      <c r="EI4" s="60"/>
+      <c r="EJ4" s="58">
         <f>EJ5</f>
         <v>44634</v>
       </c>
-      <c r="EK4" s="63"/>
-      <c r="EL4" s="63"/>
-      <c r="EM4" s="63"/>
-      <c r="EN4" s="63"/>
-      <c r="EO4" s="63"/>
-      <c r="EP4" s="64"/>
-      <c r="EQ4" s="62">
+      <c r="EK4" s="59"/>
+      <c r="EL4" s="59"/>
+      <c r="EM4" s="59"/>
+      <c r="EN4" s="59"/>
+      <c r="EO4" s="59"/>
+      <c r="EP4" s="60"/>
+      <c r="EQ4" s="58">
         <f>EQ5</f>
         <v>44641</v>
       </c>
-      <c r="ER4" s="63"/>
-      <c r="ES4" s="63"/>
-      <c r="ET4" s="63"/>
-      <c r="EU4" s="63"/>
-      <c r="EV4" s="63"/>
-      <c r="EW4" s="64"/>
-      <c r="EX4" s="62">
+      <c r="ER4" s="59"/>
+      <c r="ES4" s="59"/>
+      <c r="ET4" s="59"/>
+      <c r="EU4" s="59"/>
+      <c r="EV4" s="59"/>
+      <c r="EW4" s="60"/>
+      <c r="EX4" s="58">
         <f>EX5</f>
         <v>44648</v>
       </c>
-      <c r="EY4" s="63"/>
-      <c r="EZ4" s="63"/>
-      <c r="FA4" s="63"/>
-      <c r="FB4" s="63"/>
-      <c r="FC4" s="63"/>
-      <c r="FD4" s="64"/>
-      <c r="FE4" s="62">
+      <c r="EY4" s="59"/>
+      <c r="EZ4" s="59"/>
+      <c r="FA4" s="59"/>
+      <c r="FB4" s="59"/>
+      <c r="FC4" s="59"/>
+      <c r="FD4" s="60"/>
+      <c r="FE4" s="58">
         <f>FE5</f>
         <v>44655</v>
       </c>
-      <c r="FF4" s="63"/>
-      <c r="FG4" s="63"/>
-      <c r="FH4" s="63"/>
-      <c r="FI4" s="63"/>
-      <c r="FJ4" s="63"/>
-      <c r="FK4" s="64"/>
-      <c r="FL4" s="62">
+      <c r="FF4" s="59"/>
+      <c r="FG4" s="59"/>
+      <c r="FH4" s="59"/>
+      <c r="FI4" s="59"/>
+      <c r="FJ4" s="59"/>
+      <c r="FK4" s="60"/>
+      <c r="FL4" s="58">
         <f>FL5</f>
         <v>44662</v>
       </c>
-      <c r="FM4" s="63"/>
-      <c r="FN4" s="63"/>
-      <c r="FO4" s="63"/>
-      <c r="FP4" s="63"/>
-      <c r="FQ4" s="63"/>
-      <c r="FR4" s="64"/>
-      <c r="FS4" s="62">
+      <c r="FM4" s="59"/>
+      <c r="FN4" s="59"/>
+      <c r="FO4" s="59"/>
+      <c r="FP4" s="59"/>
+      <c r="FQ4" s="59"/>
+      <c r="FR4" s="60"/>
+      <c r="FS4" s="58">
         <f>FS5</f>
         <v>44669</v>
       </c>
-      <c r="FT4" s="63"/>
-      <c r="FU4" s="63"/>
-      <c r="FV4" s="63"/>
-      <c r="FW4" s="63"/>
-      <c r="FX4" s="63"/>
-      <c r="FY4" s="64"/>
-      <c r="FZ4" s="62">
+      <c r="FT4" s="59"/>
+      <c r="FU4" s="59"/>
+      <c r="FV4" s="59"/>
+      <c r="FW4" s="59"/>
+      <c r="FX4" s="59"/>
+      <c r="FY4" s="60"/>
+      <c r="FZ4" s="58">
         <f>FZ5</f>
         <v>44676</v>
       </c>
-      <c r="GA4" s="63"/>
-      <c r="GB4" s="63"/>
-      <c r="GC4" s="63"/>
-      <c r="GD4" s="63"/>
-      <c r="GE4" s="63"/>
-      <c r="GF4" s="64"/>
-      <c r="GG4" s="62">
+      <c r="GA4" s="59"/>
+      <c r="GB4" s="59"/>
+      <c r="GC4" s="59"/>
+      <c r="GD4" s="59"/>
+      <c r="GE4" s="59"/>
+      <c r="GF4" s="60"/>
+      <c r="GG4" s="58">
         <f>GG5</f>
         <v>44683</v>
       </c>
-      <c r="GH4" s="63"/>
-      <c r="GI4" s="63"/>
-      <c r="GJ4" s="63"/>
-      <c r="GK4" s="63"/>
-      <c r="GL4" s="63"/>
-      <c r="GM4" s="64"/>
-      <c r="GN4" s="62">
+      <c r="GH4" s="59"/>
+      <c r="GI4" s="59"/>
+      <c r="GJ4" s="59"/>
+      <c r="GK4" s="59"/>
+      <c r="GL4" s="59"/>
+      <c r="GM4" s="60"/>
+      <c r="GN4" s="58">
         <f>GN5</f>
         <v>44690</v>
       </c>
-      <c r="GO4" s="63"/>
-      <c r="GP4" s="63"/>
-      <c r="GQ4" s="63"/>
-      <c r="GR4" s="63"/>
-      <c r="GS4" s="63"/>
-      <c r="GT4" s="64"/>
-      <c r="GU4" s="62">
+      <c r="GO4" s="59"/>
+      <c r="GP4" s="59"/>
+      <c r="GQ4" s="59"/>
+      <c r="GR4" s="59"/>
+      <c r="GS4" s="59"/>
+      <c r="GT4" s="60"/>
+      <c r="GU4" s="58">
         <f>GU5</f>
         <v>44697</v>
       </c>
-      <c r="GV4" s="63"/>
-      <c r="GW4" s="63"/>
-      <c r="GX4" s="63"/>
-      <c r="GY4" s="63"/>
-      <c r="GZ4" s="63"/>
-      <c r="HA4" s="64"/>
-      <c r="HB4" s="62">
+      <c r="GV4" s="59"/>
+      <c r="GW4" s="59"/>
+      <c r="GX4" s="59"/>
+      <c r="GY4" s="59"/>
+      <c r="GZ4" s="59"/>
+      <c r="HA4" s="60"/>
+      <c r="HB4" s="58">
         <f>HB5</f>
         <v>44704</v>
       </c>
-      <c r="HC4" s="63"/>
-      <c r="HD4" s="63"/>
-      <c r="HE4" s="63"/>
-      <c r="HF4" s="63"/>
-      <c r="HG4" s="63"/>
-      <c r="HH4" s="64"/>
-      <c r="HI4" s="62">
+      <c r="HC4" s="59"/>
+      <c r="HD4" s="59"/>
+      <c r="HE4" s="59"/>
+      <c r="HF4" s="59"/>
+      <c r="HG4" s="59"/>
+      <c r="HH4" s="60"/>
+      <c r="HI4" s="58">
         <f>HI5</f>
         <v>44711</v>
       </c>
-      <c r="HJ4" s="63"/>
-      <c r="HK4" s="63"/>
-      <c r="HL4" s="63"/>
-      <c r="HM4" s="63"/>
-      <c r="HN4" s="63"/>
-      <c r="HO4" s="64"/>
-      <c r="HP4" s="62">
+      <c r="HJ4" s="59"/>
+      <c r="HK4" s="59"/>
+      <c r="HL4" s="59"/>
+      <c r="HM4" s="59"/>
+      <c r="HN4" s="59"/>
+      <c r="HO4" s="60"/>
+      <c r="HP4" s="58">
         <f>HP5</f>
         <v>44718</v>
       </c>
-      <c r="HQ4" s="63"/>
-      <c r="HR4" s="63"/>
-      <c r="HS4" s="63"/>
-      <c r="HT4" s="63"/>
-      <c r="HU4" s="63"/>
-      <c r="HV4" s="64"/>
-      <c r="HW4" s="62">
+      <c r="HQ4" s="59"/>
+      <c r="HR4" s="59"/>
+      <c r="HS4" s="59"/>
+      <c r="HT4" s="59"/>
+      <c r="HU4" s="59"/>
+      <c r="HV4" s="60"/>
+      <c r="HW4" s="58">
         <f>HW5</f>
         <v>44725</v>
       </c>
-      <c r="HX4" s="63"/>
-      <c r="HY4" s="63"/>
-      <c r="HZ4" s="63"/>
-      <c r="IA4" s="63"/>
-      <c r="IB4" s="63"/>
-      <c r="IC4" s="64"/>
-      <c r="ID4" s="62">
+      <c r="HX4" s="59"/>
+      <c r="HY4" s="59"/>
+      <c r="HZ4" s="59"/>
+      <c r="IA4" s="59"/>
+      <c r="IB4" s="59"/>
+      <c r="IC4" s="60"/>
+      <c r="ID4" s="58">
         <f>ID5</f>
         <v>44732</v>
       </c>
-      <c r="IE4" s="63"/>
-      <c r="IF4" s="63"/>
-      <c r="IG4" s="63"/>
-      <c r="IH4" s="63"/>
-      <c r="II4" s="63"/>
-      <c r="IJ4" s="64"/>
-      <c r="IK4" s="62">
+      <c r="IE4" s="59"/>
+      <c r="IF4" s="59"/>
+      <c r="IG4" s="59"/>
+      <c r="IH4" s="59"/>
+      <c r="II4" s="59"/>
+      <c r="IJ4" s="60"/>
+      <c r="IK4" s="58">
         <f>IK5</f>
         <v>44739</v>
       </c>
-      <c r="IL4" s="63"/>
-      <c r="IM4" s="63"/>
-      <c r="IN4" s="63"/>
-      <c r="IO4" s="63"/>
-      <c r="IP4" s="63"/>
-      <c r="IQ4" s="64"/>
-      <c r="IR4" s="62">
+      <c r="IL4" s="59"/>
+      <c r="IM4" s="59"/>
+      <c r="IN4" s="59"/>
+      <c r="IO4" s="59"/>
+      <c r="IP4" s="59"/>
+      <c r="IQ4" s="60"/>
+      <c r="IR4" s="58">
         <f>IR5</f>
         <v>44746</v>
       </c>
-      <c r="IS4" s="63"/>
-      <c r="IT4" s="63"/>
-      <c r="IU4" s="63"/>
-      <c r="IV4" s="63"/>
-      <c r="IW4" s="63"/>
-      <c r="IX4" s="64"/>
+      <c r="IS4" s="59"/>
+      <c r="IT4" s="59"/>
+      <c r="IU4" s="59"/>
+      <c r="IV4" s="59"/>
+      <c r="IW4" s="59"/>
+      <c r="IX4" s="60"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="G5" s="9">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44501</v>
@@ -4121,10 +4121,10 @@
       <c r="IX7" s="14"/>
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="44" t="s">
         <v>29</v>
       </c>
@@ -4390,10 +4390,10 @@
       <c r="IX8" s="14"/>
     </row>
     <row r="9" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="35">
         <f>Project_Start</f>
         <v>44503</v>
@@ -4661,10 +4661,10 @@
       <c r="IX9" s="14"/>
     </row>
     <row r="10" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="24">
         <f>D9+1</f>
         <v>44513</v>
@@ -4932,10 +4932,10 @@
       <c r="IX10" s="14"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="24">
         <f>DATE(2021,11,24)</f>
         <v>44524</v>
@@ -5203,10 +5203,10 @@
       <c r="IX11" s="14"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="36">
         <f>DATE(2021,11,31)</f>
         <v>44531</v>
@@ -5474,10 +5474,10 @@
       <c r="IX12" s="14"/>
     </row>
     <row r="13" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="46" t="s">
         <v>31</v>
       </c>
@@ -5744,10 +5744,10 @@
       <c r="IX13" s="14"/>
     </row>
     <row r="14" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="35">
         <f>DATE(2021,11,19)</f>
         <v>44519</v>
@@ -6015,10 +6015,10 @@
       <c r="IX14" s="14"/>
     </row>
     <row r="15" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="24">
         <f>DATE(2022,1,10)</f>
         <v>44571</v>
@@ -6286,10 +6286,10 @@
       <c r="IX15" s="14"/>
     </row>
     <row r="16" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="36">
         <f>DATE(2022,2,7)</f>
         <v>44599</v>
@@ -6557,10 +6557,10 @@
       <c r="IX16" s="14"/>
     </row>
     <row r="17" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="61"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="37" t="str">
         <f>C18</f>
         <v>14/12/2021</v>
@@ -6828,10 +6828,10 @@
       <c r="IX17" s="14"/>
     </row>
     <row r="18" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="56"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="47" t="s">
         <v>32</v>
       </c>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="24" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="32"/>
       <c r="C24" s="33">
@@ -8974,10 +8974,10 @@
       <c r="IX25" s="14"/>
     </row>
     <row r="26" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="54"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="24">
         <f>DATE(2022,2,21)</f>
         <v>44613</v>
@@ -9242,10 +9242,10 @@
       <c r="IX26" s="14"/>
     </row>
     <row r="27" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="36">
         <f>DATE(2022,1,1)</f>
         <v>44562</v>
@@ -9513,15 +9513,15 @@
       <c r="IX27" s="14"/>
     </row>
     <row r="28" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="67" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="55" t="s">
         <v>36</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>37</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13">
@@ -9542,235 +9542,235 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="40"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="69"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-      <c r="AL28" s="69"/>
-      <c r="AM28" s="69"/>
-      <c r="AN28" s="69"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
-      <c r="AQ28" s="69"/>
-      <c r="AR28" s="69"/>
-      <c r="AS28" s="69"/>
-      <c r="AT28" s="69"/>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="69"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="69"/>
-      <c r="BA28" s="69"/>
-      <c r="BB28" s="69"/>
-      <c r="BC28" s="69"/>
-      <c r="BD28" s="69"/>
-      <c r="BE28" s="69"/>
-      <c r="BF28" s="69"/>
-      <c r="BG28" s="69"/>
-      <c r="BH28" s="69"/>
-      <c r="BI28" s="69"/>
-      <c r="BJ28" s="69"/>
-      <c r="BK28" s="69"/>
-      <c r="BL28" s="69"/>
-      <c r="BM28" s="69"/>
-      <c r="BN28" s="69"/>
-      <c r="BO28" s="69"/>
-      <c r="BP28" s="69"/>
-      <c r="BQ28" s="69"/>
-      <c r="BR28" s="69"/>
-      <c r="BS28" s="69"/>
-      <c r="BT28" s="69"/>
-      <c r="BU28" s="69"/>
-      <c r="BV28" s="69"/>
-      <c r="BW28" s="69"/>
-      <c r="BX28" s="69"/>
-      <c r="BY28" s="69"/>
-      <c r="BZ28" s="69"/>
-      <c r="CA28" s="69"/>
-      <c r="CB28" s="69"/>
-      <c r="CC28" s="69"/>
-      <c r="CD28" s="69"/>
-      <c r="CE28" s="69"/>
-      <c r="CF28" s="69"/>
-      <c r="CG28" s="69"/>
-      <c r="CH28" s="69"/>
-      <c r="CI28" s="69"/>
-      <c r="CJ28" s="69"/>
-      <c r="CK28" s="69"/>
-      <c r="CL28" s="69"/>
-      <c r="CM28" s="69"/>
-      <c r="CN28" s="69"/>
-      <c r="CO28" s="69"/>
-      <c r="CP28" s="69"/>
-      <c r="CQ28" s="69"/>
-      <c r="CR28" s="69"/>
-      <c r="CS28" s="69"/>
-      <c r="CT28" s="69"/>
-      <c r="CU28" s="69"/>
-      <c r="CV28" s="69"/>
-      <c r="CW28" s="69"/>
-      <c r="CX28" s="69"/>
-      <c r="CY28" s="69"/>
-      <c r="CZ28" s="69"/>
-      <c r="DA28" s="69"/>
-      <c r="DB28" s="69"/>
-      <c r="DC28" s="69"/>
-      <c r="DD28" s="69"/>
-      <c r="DE28" s="69"/>
-      <c r="DF28" s="69"/>
-      <c r="DG28" s="69"/>
-      <c r="DH28" s="69"/>
-      <c r="DI28" s="69"/>
-      <c r="DJ28" s="69"/>
-      <c r="DK28" s="69"/>
-      <c r="DL28" s="69"/>
-      <c r="DM28" s="69"/>
-      <c r="DN28" s="69"/>
-      <c r="DO28" s="69"/>
-      <c r="DP28" s="69"/>
-      <c r="DQ28" s="69"/>
-      <c r="DR28" s="69"/>
-      <c r="DS28" s="69"/>
-      <c r="DT28" s="69"/>
-      <c r="DU28" s="69"/>
-      <c r="DV28" s="69"/>
-      <c r="DW28" s="69"/>
-      <c r="DX28" s="69"/>
-      <c r="DY28" s="69"/>
-      <c r="DZ28" s="69"/>
-      <c r="EA28" s="69"/>
-      <c r="EB28" s="69"/>
-      <c r="EC28" s="69"/>
-      <c r="ED28" s="69"/>
-      <c r="EE28" s="69"/>
-      <c r="EF28" s="69"/>
-      <c r="EG28" s="69"/>
-      <c r="EH28" s="69"/>
-      <c r="EI28" s="69"/>
-      <c r="EJ28" s="69"/>
-      <c r="EK28" s="69"/>
-      <c r="EL28" s="69"/>
-      <c r="EM28" s="69"/>
-      <c r="EN28" s="69"/>
-      <c r="EO28" s="69"/>
-      <c r="EP28" s="69"/>
-      <c r="EQ28" s="69"/>
-      <c r="ER28" s="69"/>
-      <c r="ES28" s="69"/>
-      <c r="ET28" s="69"/>
-      <c r="EU28" s="69"/>
-      <c r="EV28" s="69"/>
-      <c r="EW28" s="69"/>
-      <c r="EX28" s="69"/>
-      <c r="EY28" s="69"/>
-      <c r="EZ28" s="69"/>
-      <c r="FA28" s="69"/>
-      <c r="FB28" s="69"/>
-      <c r="FC28" s="69"/>
-      <c r="FD28" s="69"/>
-      <c r="FE28" s="69"/>
-      <c r="FF28" s="69"/>
-      <c r="FG28" s="69"/>
-      <c r="FH28" s="69"/>
-      <c r="FI28" s="69"/>
-      <c r="FJ28" s="69"/>
-      <c r="FK28" s="69"/>
-      <c r="FL28" s="69"/>
-      <c r="FM28" s="69"/>
-      <c r="FN28" s="69"/>
-      <c r="FO28" s="69"/>
-      <c r="FP28" s="69"/>
-      <c r="FQ28" s="69"/>
-      <c r="FR28" s="69"/>
-      <c r="FS28" s="69"/>
-      <c r="FT28" s="69"/>
-      <c r="FU28" s="69"/>
-      <c r="FV28" s="69"/>
-      <c r="FW28" s="69"/>
-      <c r="FX28" s="69"/>
-      <c r="FY28" s="69"/>
-      <c r="FZ28" s="69"/>
-      <c r="GA28" s="69"/>
-      <c r="GB28" s="69"/>
-      <c r="GC28" s="69"/>
-      <c r="GD28" s="69"/>
-      <c r="GE28" s="69"/>
-      <c r="GF28" s="69"/>
-      <c r="GG28" s="69"/>
-      <c r="GH28" s="69"/>
-      <c r="GI28" s="69"/>
-      <c r="GJ28" s="69"/>
-      <c r="GK28" s="69"/>
-      <c r="GL28" s="69"/>
-      <c r="GM28" s="69"/>
-      <c r="GN28" s="69"/>
-      <c r="GO28" s="69"/>
-      <c r="GP28" s="69"/>
-      <c r="GQ28" s="69"/>
-      <c r="GR28" s="69"/>
-      <c r="GS28" s="69"/>
-      <c r="GT28" s="69"/>
-      <c r="GU28" s="69"/>
-      <c r="GV28" s="69"/>
-      <c r="GW28" s="69"/>
-      <c r="GX28" s="69"/>
-      <c r="GY28" s="69"/>
-      <c r="GZ28" s="69"/>
-      <c r="HA28" s="69"/>
-      <c r="HB28" s="69"/>
-      <c r="HC28" s="69"/>
-      <c r="HD28" s="69"/>
-      <c r="HE28" s="69"/>
-      <c r="HF28" s="69"/>
-      <c r="HG28" s="69"/>
-      <c r="HH28" s="69"/>
-      <c r="HI28" s="69"/>
-      <c r="HJ28" s="69"/>
-      <c r="HK28" s="69"/>
-      <c r="HL28" s="69"/>
-      <c r="HM28" s="69"/>
-      <c r="HN28" s="69"/>
-      <c r="HO28" s="69"/>
-      <c r="HP28" s="69"/>
-      <c r="HQ28" s="69"/>
-      <c r="HR28" s="69"/>
-      <c r="HS28" s="69"/>
-      <c r="HT28" s="69"/>
-      <c r="HU28" s="69"/>
-      <c r="HV28" s="69"/>
-      <c r="HW28" s="69"/>
-      <c r="HX28" s="69"/>
-      <c r="HY28" s="69"/>
-      <c r="HZ28" s="69"/>
-      <c r="IA28" s="69"/>
-      <c r="IB28" s="69"/>
-      <c r="IC28" s="69"/>
-      <c r="ID28" s="69"/>
-      <c r="IE28" s="69"/>
-      <c r="IF28" s="69"/>
-      <c r="IG28" s="69"/>
-      <c r="IH28" s="69"/>
-      <c r="II28" s="69"/>
-      <c r="IJ28" s="69"/>
-      <c r="IK28" s="69"/>
-      <c r="IL28" s="69"/>
-      <c r="IM28" s="69"/>
-      <c r="IN28" s="69"/>
-      <c r="IO28" s="69"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="56"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="56"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="56"/>
+      <c r="BD28" s="56"/>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="56"/>
+      <c r="BG28" s="56"/>
+      <c r="BH28" s="56"/>
+      <c r="BI28" s="56"/>
+      <c r="BJ28" s="56"/>
+      <c r="BK28" s="56"/>
+      <c r="BL28" s="56"/>
+      <c r="BM28" s="56"/>
+      <c r="BN28" s="56"/>
+      <c r="BO28" s="56"/>
+      <c r="BP28" s="56"/>
+      <c r="BQ28" s="56"/>
+      <c r="BR28" s="56"/>
+      <c r="BS28" s="56"/>
+      <c r="BT28" s="56"/>
+      <c r="BU28" s="56"/>
+      <c r="BV28" s="56"/>
+      <c r="BW28" s="56"/>
+      <c r="BX28" s="56"/>
+      <c r="BY28" s="56"/>
+      <c r="BZ28" s="56"/>
+      <c r="CA28" s="56"/>
+      <c r="CB28" s="56"/>
+      <c r="CC28" s="56"/>
+      <c r="CD28" s="56"/>
+      <c r="CE28" s="56"/>
+      <c r="CF28" s="56"/>
+      <c r="CG28" s="56"/>
+      <c r="CH28" s="56"/>
+      <c r="CI28" s="56"/>
+      <c r="CJ28" s="56"/>
+      <c r="CK28" s="56"/>
+      <c r="CL28" s="56"/>
+      <c r="CM28" s="56"/>
+      <c r="CN28" s="56"/>
+      <c r="CO28" s="56"/>
+      <c r="CP28" s="56"/>
+      <c r="CQ28" s="56"/>
+      <c r="CR28" s="56"/>
+      <c r="CS28" s="56"/>
+      <c r="CT28" s="56"/>
+      <c r="CU28" s="56"/>
+      <c r="CV28" s="56"/>
+      <c r="CW28" s="56"/>
+      <c r="CX28" s="56"/>
+      <c r="CY28" s="56"/>
+      <c r="CZ28" s="56"/>
+      <c r="DA28" s="56"/>
+      <c r="DB28" s="56"/>
+      <c r="DC28" s="56"/>
+      <c r="DD28" s="56"/>
+      <c r="DE28" s="56"/>
+      <c r="DF28" s="56"/>
+      <c r="DG28" s="56"/>
+      <c r="DH28" s="56"/>
+      <c r="DI28" s="56"/>
+      <c r="DJ28" s="56"/>
+      <c r="DK28" s="56"/>
+      <c r="DL28" s="56"/>
+      <c r="DM28" s="56"/>
+      <c r="DN28" s="56"/>
+      <c r="DO28" s="56"/>
+      <c r="DP28" s="56"/>
+      <c r="DQ28" s="56"/>
+      <c r="DR28" s="56"/>
+      <c r="DS28" s="56"/>
+      <c r="DT28" s="56"/>
+      <c r="DU28" s="56"/>
+      <c r="DV28" s="56"/>
+      <c r="DW28" s="56"/>
+      <c r="DX28" s="56"/>
+      <c r="DY28" s="56"/>
+      <c r="DZ28" s="56"/>
+      <c r="EA28" s="56"/>
+      <c r="EB28" s="56"/>
+      <c r="EC28" s="56"/>
+      <c r="ED28" s="56"/>
+      <c r="EE28" s="56"/>
+      <c r="EF28" s="56"/>
+      <c r="EG28" s="56"/>
+      <c r="EH28" s="56"/>
+      <c r="EI28" s="56"/>
+      <c r="EJ28" s="56"/>
+      <c r="EK28" s="56"/>
+      <c r="EL28" s="56"/>
+      <c r="EM28" s="56"/>
+      <c r="EN28" s="56"/>
+      <c r="EO28" s="56"/>
+      <c r="EP28" s="56"/>
+      <c r="EQ28" s="56"/>
+      <c r="ER28" s="56"/>
+      <c r="ES28" s="56"/>
+      <c r="ET28" s="56"/>
+      <c r="EU28" s="56"/>
+      <c r="EV28" s="56"/>
+      <c r="EW28" s="56"/>
+      <c r="EX28" s="56"/>
+      <c r="EY28" s="56"/>
+      <c r="EZ28" s="56"/>
+      <c r="FA28" s="56"/>
+      <c r="FB28" s="56"/>
+      <c r="FC28" s="56"/>
+      <c r="FD28" s="56"/>
+      <c r="FE28" s="56"/>
+      <c r="FF28" s="56"/>
+      <c r="FG28" s="56"/>
+      <c r="FH28" s="56"/>
+      <c r="FI28" s="56"/>
+      <c r="FJ28" s="56"/>
+      <c r="FK28" s="56"/>
+      <c r="FL28" s="56"/>
+      <c r="FM28" s="56"/>
+      <c r="FN28" s="56"/>
+      <c r="FO28" s="56"/>
+      <c r="FP28" s="56"/>
+      <c r="FQ28" s="56"/>
+      <c r="FR28" s="56"/>
+      <c r="FS28" s="56"/>
+      <c r="FT28" s="56"/>
+      <c r="FU28" s="56"/>
+      <c r="FV28" s="56"/>
+      <c r="FW28" s="56"/>
+      <c r="FX28" s="56"/>
+      <c r="FY28" s="56"/>
+      <c r="FZ28" s="56"/>
+      <c r="GA28" s="56"/>
+      <c r="GB28" s="56"/>
+      <c r="GC28" s="56"/>
+      <c r="GD28" s="56"/>
+      <c r="GE28" s="56"/>
+      <c r="GF28" s="56"/>
+      <c r="GG28" s="56"/>
+      <c r="GH28" s="56"/>
+      <c r="GI28" s="56"/>
+      <c r="GJ28" s="56"/>
+      <c r="GK28" s="56"/>
+      <c r="GL28" s="56"/>
+      <c r="GM28" s="56"/>
+      <c r="GN28" s="56"/>
+      <c r="GO28" s="56"/>
+      <c r="GP28" s="56"/>
+      <c r="GQ28" s="56"/>
+      <c r="GR28" s="56"/>
+      <c r="GS28" s="56"/>
+      <c r="GT28" s="56"/>
+      <c r="GU28" s="56"/>
+      <c r="GV28" s="56"/>
+      <c r="GW28" s="56"/>
+      <c r="GX28" s="56"/>
+      <c r="GY28" s="56"/>
+      <c r="GZ28" s="56"/>
+      <c r="HA28" s="56"/>
+      <c r="HB28" s="56"/>
+      <c r="HC28" s="56"/>
+      <c r="HD28" s="56"/>
+      <c r="HE28" s="56"/>
+      <c r="HF28" s="56"/>
+      <c r="HG28" s="56"/>
+      <c r="HH28" s="56"/>
+      <c r="HI28" s="56"/>
+      <c r="HJ28" s="56"/>
+      <c r="HK28" s="56"/>
+      <c r="HL28" s="56"/>
+      <c r="HM28" s="56"/>
+      <c r="HN28" s="56"/>
+      <c r="HO28" s="56"/>
+      <c r="HP28" s="56"/>
+      <c r="HQ28" s="56"/>
+      <c r="HR28" s="56"/>
+      <c r="HS28" s="56"/>
+      <c r="HT28" s="56"/>
+      <c r="HU28" s="56"/>
+      <c r="HV28" s="56"/>
+      <c r="HW28" s="56"/>
+      <c r="HX28" s="56"/>
+      <c r="HY28" s="56"/>
+      <c r="HZ28" s="56"/>
+      <c r="IA28" s="56"/>
+      <c r="IB28" s="56"/>
+      <c r="IC28" s="56"/>
+      <c r="ID28" s="56"/>
+      <c r="IE28" s="56"/>
+      <c r="IF28" s="56"/>
+      <c r="IG28" s="56"/>
+      <c r="IH28" s="56"/>
+      <c r="II28" s="56"/>
+      <c r="IJ28" s="56"/>
+      <c r="IK28" s="56"/>
+      <c r="IL28" s="56"/>
+      <c r="IM28" s="56"/>
+      <c r="IN28" s="56"/>
+      <c r="IO28" s="56"/>
       <c r="IP28" s="41"/>
       <c r="IQ28" s="14"/>
       <c r="IR28" s="14"/>
@@ -9782,10 +9782,10 @@
       <c r="IX28" s="14"/>
     </row>
     <row r="29" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="56"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="35">
         <f>DATE(2022,1,23)</f>
         <v>44584</v>
@@ -10053,10 +10053,10 @@
       <c r="IX29" s="14"/>
     </row>
     <row r="30" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="54"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="24">
         <f>DATE(2021,11,15)</f>
         <v>44515</v>
@@ -10324,10 +10324,10 @@
       <c r="IX30" s="14"/>
     </row>
     <row r="31" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="54"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="24">
         <f>DATE(2022,6,1)</f>
         <v>44713</v>
@@ -10865,20 +10865,31 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="CF4:CL4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="EQ4:EW4"/>
+    <mergeCell ref="EX4:FD4"/>
+    <mergeCell ref="HW4:IC4"/>
+    <mergeCell ref="FE4:FK4"/>
+    <mergeCell ref="FL4:FR4"/>
+    <mergeCell ref="FS4:FY4"/>
+    <mergeCell ref="FZ4:GF4"/>
+    <mergeCell ref="GG4:GM4"/>
     <mergeCell ref="CM4:CS4"/>
     <mergeCell ref="ID4:IJ4"/>
     <mergeCell ref="IK4:IQ4"/>
@@ -10895,31 +10906,20 @@
     <mergeCell ref="DV4:EB4"/>
     <mergeCell ref="EC4:EI4"/>
     <mergeCell ref="EJ4:EP4"/>
-    <mergeCell ref="EQ4:EW4"/>
-    <mergeCell ref="EX4:FD4"/>
-    <mergeCell ref="HW4:IC4"/>
-    <mergeCell ref="FE4:FK4"/>
-    <mergeCell ref="FL4:FR4"/>
-    <mergeCell ref="FS4:FY4"/>
-    <mergeCell ref="FZ4:GF4"/>
-    <mergeCell ref="GG4:GM4"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="CF4:CL4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G5:IX32">
@@ -11061,21 +11061,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010021CB413651170D4FBFA874F8BEE755CA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="42743fc73206d53d9dc0a38c59eadd60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dc598aa0-d9ce-4a6b-81d3-1bfd1d95be93" xmlns:ns4="0f3824ba-70ce-4e7b-b9df-d016a901c15a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe924b3eb92af8fdbe5696825ae74dba" ns3:_="" ns4:_="">
     <xsd:import namespace="dc598aa0-d9ce-4a6b-81d3-1bfd1d95be93"/>
@@ -11260,24 +11245,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94DE01B-F382-4B59-8124-92C815CDB8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5933DF-E5C2-4102-897C-E72E9DA32B8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFF8F1F2-15C5-48DC-909D-47DBCB39B9F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11294,4 +11277,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5933DF-E5C2-4102-897C-E72E9DA32B8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94DE01B-F382-4B59-8124-92C815CDB8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
+++ b/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CDE485-433B-46DA-8496-254E992C747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF52909-45E0-4C20-A05A-375F4A78B7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,7 +700,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -793,9 +793,6 @@
     <xf numFmtId="14" fontId="15" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,6 +858,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1409,11 +1412,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IX34"/>
+  <dimension ref="A1:IX35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A25" sqref="A25"/>
+      <selection pane="topRight" activeCell="A26" sqref="A26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1451,383 +1454,383 @@
       <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="58">
         <f>DATE(2021,11,3)</f>
         <v>44503</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="59">
         <f>G5</f>
         <v>44501</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="58">
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="59">
         <f>N5</f>
         <v>44508</v>
       </c>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="58">
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="59">
         <f>U5</f>
         <v>44515</v>
       </c>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="58">
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="59">
         <f>AB5</f>
         <v>44522</v>
       </c>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="58">
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="59">
         <f>AI5</f>
         <v>44529</v>
       </c>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="58">
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="59">
         <f>AP5</f>
         <v>44536</v>
       </c>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="58">
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="59">
         <f>AW5</f>
         <v>44543</v>
       </c>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="58">
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="61"/>
+      <c r="BD4" s="59">
         <f>BD5</f>
         <v>44550</v>
       </c>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="59"/>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="58">
+      <c r="BE4" s="60"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60"/>
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="61"/>
+      <c r="BK4" s="59">
         <f>BK5</f>
         <v>44557</v>
       </c>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="59"/>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="59"/>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="58">
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="60"/>
+      <c r="BN4" s="60"/>
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="60"/>
+      <c r="BQ4" s="61"/>
+      <c r="BR4" s="59">
         <f>BR5</f>
         <v>44564</v>
       </c>
-      <c r="BS4" s="59"/>
-      <c r="BT4" s="59"/>
-      <c r="BU4" s="59"/>
-      <c r="BV4" s="59"/>
-      <c r="BW4" s="59"/>
-      <c r="BX4" s="60"/>
-      <c r="BY4" s="58">
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="60"/>
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="61"/>
+      <c r="BY4" s="59">
         <f>BY5</f>
         <v>44571</v>
       </c>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="59"/>
-      <c r="CB4" s="59"/>
-      <c r="CC4" s="59"/>
-      <c r="CD4" s="59"/>
-      <c r="CE4" s="60"/>
-      <c r="CF4" s="58">
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="60"/>
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="60"/>
+      <c r="CD4" s="60"/>
+      <c r="CE4" s="61"/>
+      <c r="CF4" s="59">
         <f>CF5</f>
         <v>44578</v>
       </c>
-      <c r="CG4" s="59"/>
-      <c r="CH4" s="59"/>
-      <c r="CI4" s="59"/>
-      <c r="CJ4" s="59"/>
-      <c r="CK4" s="59"/>
-      <c r="CL4" s="60"/>
-      <c r="CM4" s="58">
+      <c r="CG4" s="60"/>
+      <c r="CH4" s="60"/>
+      <c r="CI4" s="60"/>
+      <c r="CJ4" s="60"/>
+      <c r="CK4" s="60"/>
+      <c r="CL4" s="61"/>
+      <c r="CM4" s="59">
         <f>CM5</f>
         <v>44585</v>
       </c>
-      <c r="CN4" s="59"/>
-      <c r="CO4" s="59"/>
-      <c r="CP4" s="59"/>
-      <c r="CQ4" s="59"/>
-      <c r="CR4" s="59"/>
-      <c r="CS4" s="60"/>
-      <c r="CT4" s="58">
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="60"/>
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60"/>
+      <c r="CS4" s="61"/>
+      <c r="CT4" s="59">
         <f>CT5</f>
         <v>44592</v>
       </c>
-      <c r="CU4" s="59"/>
-      <c r="CV4" s="59"/>
-      <c r="CW4" s="59"/>
-      <c r="CX4" s="59"/>
-      <c r="CY4" s="59"/>
-      <c r="CZ4" s="60"/>
-      <c r="DA4" s="58">
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="60"/>
+      <c r="CW4" s="60"/>
+      <c r="CX4" s="60"/>
+      <c r="CY4" s="60"/>
+      <c r="CZ4" s="61"/>
+      <c r="DA4" s="59">
         <f>DA5</f>
         <v>44599</v>
       </c>
-      <c r="DB4" s="59"/>
-      <c r="DC4" s="59"/>
-      <c r="DD4" s="59"/>
-      <c r="DE4" s="59"/>
-      <c r="DF4" s="59"/>
-      <c r="DG4" s="60"/>
-      <c r="DH4" s="58">
+      <c r="DB4" s="60"/>
+      <c r="DC4" s="60"/>
+      <c r="DD4" s="60"/>
+      <c r="DE4" s="60"/>
+      <c r="DF4" s="60"/>
+      <c r="DG4" s="61"/>
+      <c r="DH4" s="59">
         <f>DH5</f>
         <v>44606</v>
       </c>
-      <c r="DI4" s="59"/>
-      <c r="DJ4" s="59"/>
-      <c r="DK4" s="59"/>
-      <c r="DL4" s="59"/>
-      <c r="DM4" s="59"/>
-      <c r="DN4" s="60"/>
-      <c r="DO4" s="58">
+      <c r="DI4" s="60"/>
+      <c r="DJ4" s="60"/>
+      <c r="DK4" s="60"/>
+      <c r="DL4" s="60"/>
+      <c r="DM4" s="60"/>
+      <c r="DN4" s="61"/>
+      <c r="DO4" s="59">
         <f>DO5</f>
         <v>44613</v>
       </c>
-      <c r="DP4" s="59"/>
-      <c r="DQ4" s="59"/>
-      <c r="DR4" s="59"/>
-      <c r="DS4" s="59"/>
-      <c r="DT4" s="59"/>
-      <c r="DU4" s="60"/>
-      <c r="DV4" s="58">
+      <c r="DP4" s="60"/>
+      <c r="DQ4" s="60"/>
+      <c r="DR4" s="60"/>
+      <c r="DS4" s="60"/>
+      <c r="DT4" s="60"/>
+      <c r="DU4" s="61"/>
+      <c r="DV4" s="59">
         <f>DV5</f>
         <v>44620</v>
       </c>
-      <c r="DW4" s="59"/>
-      <c r="DX4" s="59"/>
-      <c r="DY4" s="59"/>
-      <c r="DZ4" s="59"/>
-      <c r="EA4" s="59"/>
-      <c r="EB4" s="60"/>
-      <c r="EC4" s="58">
+      <c r="DW4" s="60"/>
+      <c r="DX4" s="60"/>
+      <c r="DY4" s="60"/>
+      <c r="DZ4" s="60"/>
+      <c r="EA4" s="60"/>
+      <c r="EB4" s="61"/>
+      <c r="EC4" s="59">
         <f>EC5</f>
         <v>44627</v>
       </c>
-      <c r="ED4" s="59"/>
-      <c r="EE4" s="59"/>
-      <c r="EF4" s="59"/>
-      <c r="EG4" s="59"/>
-      <c r="EH4" s="59"/>
-      <c r="EI4" s="60"/>
-      <c r="EJ4" s="58">
+      <c r="ED4" s="60"/>
+      <c r="EE4" s="60"/>
+      <c r="EF4" s="60"/>
+      <c r="EG4" s="60"/>
+      <c r="EH4" s="60"/>
+      <c r="EI4" s="61"/>
+      <c r="EJ4" s="59">
         <f>EJ5</f>
         <v>44634</v>
       </c>
-      <c r="EK4" s="59"/>
-      <c r="EL4" s="59"/>
-      <c r="EM4" s="59"/>
-      <c r="EN4" s="59"/>
-      <c r="EO4" s="59"/>
-      <c r="EP4" s="60"/>
-      <c r="EQ4" s="58">
+      <c r="EK4" s="60"/>
+      <c r="EL4" s="60"/>
+      <c r="EM4" s="60"/>
+      <c r="EN4" s="60"/>
+      <c r="EO4" s="60"/>
+      <c r="EP4" s="61"/>
+      <c r="EQ4" s="59">
         <f>EQ5</f>
         <v>44641</v>
       </c>
-      <c r="ER4" s="59"/>
-      <c r="ES4" s="59"/>
-      <c r="ET4" s="59"/>
-      <c r="EU4" s="59"/>
-      <c r="EV4" s="59"/>
-      <c r="EW4" s="60"/>
-      <c r="EX4" s="58">
+      <c r="ER4" s="60"/>
+      <c r="ES4" s="60"/>
+      <c r="ET4" s="60"/>
+      <c r="EU4" s="60"/>
+      <c r="EV4" s="60"/>
+      <c r="EW4" s="61"/>
+      <c r="EX4" s="59">
         <f>EX5</f>
         <v>44648</v>
       </c>
-      <c r="EY4" s="59"/>
-      <c r="EZ4" s="59"/>
-      <c r="FA4" s="59"/>
-      <c r="FB4" s="59"/>
-      <c r="FC4" s="59"/>
-      <c r="FD4" s="60"/>
-      <c r="FE4" s="58">
+      <c r="EY4" s="60"/>
+      <c r="EZ4" s="60"/>
+      <c r="FA4" s="60"/>
+      <c r="FB4" s="60"/>
+      <c r="FC4" s="60"/>
+      <c r="FD4" s="61"/>
+      <c r="FE4" s="59">
         <f>FE5</f>
         <v>44655</v>
       </c>
-      <c r="FF4" s="59"/>
-      <c r="FG4" s="59"/>
-      <c r="FH4" s="59"/>
-      <c r="FI4" s="59"/>
-      <c r="FJ4" s="59"/>
-      <c r="FK4" s="60"/>
-      <c r="FL4" s="58">
+      <c r="FF4" s="60"/>
+      <c r="FG4" s="60"/>
+      <c r="FH4" s="60"/>
+      <c r="FI4" s="60"/>
+      <c r="FJ4" s="60"/>
+      <c r="FK4" s="61"/>
+      <c r="FL4" s="59">
         <f>FL5</f>
         <v>44662</v>
       </c>
-      <c r="FM4" s="59"/>
-      <c r="FN4" s="59"/>
-      <c r="FO4" s="59"/>
-      <c r="FP4" s="59"/>
-      <c r="FQ4" s="59"/>
-      <c r="FR4" s="60"/>
-      <c r="FS4" s="58">
+      <c r="FM4" s="60"/>
+      <c r="FN4" s="60"/>
+      <c r="FO4" s="60"/>
+      <c r="FP4" s="60"/>
+      <c r="FQ4" s="60"/>
+      <c r="FR4" s="61"/>
+      <c r="FS4" s="59">
         <f>FS5</f>
         <v>44669</v>
       </c>
-      <c r="FT4" s="59"/>
-      <c r="FU4" s="59"/>
-      <c r="FV4" s="59"/>
-      <c r="FW4" s="59"/>
-      <c r="FX4" s="59"/>
-      <c r="FY4" s="60"/>
-      <c r="FZ4" s="58">
+      <c r="FT4" s="60"/>
+      <c r="FU4" s="60"/>
+      <c r="FV4" s="60"/>
+      <c r="FW4" s="60"/>
+      <c r="FX4" s="60"/>
+      <c r="FY4" s="61"/>
+      <c r="FZ4" s="59">
         <f>FZ5</f>
         <v>44676</v>
       </c>
-      <c r="GA4" s="59"/>
-      <c r="GB4" s="59"/>
-      <c r="GC4" s="59"/>
-      <c r="GD4" s="59"/>
-      <c r="GE4" s="59"/>
-      <c r="GF4" s="60"/>
-      <c r="GG4" s="58">
+      <c r="GA4" s="60"/>
+      <c r="GB4" s="60"/>
+      <c r="GC4" s="60"/>
+      <c r="GD4" s="60"/>
+      <c r="GE4" s="60"/>
+      <c r="GF4" s="61"/>
+      <c r="GG4" s="59">
         <f>GG5</f>
         <v>44683</v>
       </c>
-      <c r="GH4" s="59"/>
-      <c r="GI4" s="59"/>
-      <c r="GJ4" s="59"/>
-      <c r="GK4" s="59"/>
-      <c r="GL4" s="59"/>
-      <c r="GM4" s="60"/>
-      <c r="GN4" s="58">
+      <c r="GH4" s="60"/>
+      <c r="GI4" s="60"/>
+      <c r="GJ4" s="60"/>
+      <c r="GK4" s="60"/>
+      <c r="GL4" s="60"/>
+      <c r="GM4" s="61"/>
+      <c r="GN4" s="59">
         <f>GN5</f>
         <v>44690</v>
       </c>
-      <c r="GO4" s="59"/>
-      <c r="GP4" s="59"/>
-      <c r="GQ4" s="59"/>
-      <c r="GR4" s="59"/>
-      <c r="GS4" s="59"/>
-      <c r="GT4" s="60"/>
-      <c r="GU4" s="58">
+      <c r="GO4" s="60"/>
+      <c r="GP4" s="60"/>
+      <c r="GQ4" s="60"/>
+      <c r="GR4" s="60"/>
+      <c r="GS4" s="60"/>
+      <c r="GT4" s="61"/>
+      <c r="GU4" s="59">
         <f>GU5</f>
         <v>44697</v>
       </c>
-      <c r="GV4" s="59"/>
-      <c r="GW4" s="59"/>
-      <c r="GX4" s="59"/>
-      <c r="GY4" s="59"/>
-      <c r="GZ4" s="59"/>
-      <c r="HA4" s="60"/>
-      <c r="HB4" s="58">
+      <c r="GV4" s="60"/>
+      <c r="GW4" s="60"/>
+      <c r="GX4" s="60"/>
+      <c r="GY4" s="60"/>
+      <c r="GZ4" s="60"/>
+      <c r="HA4" s="61"/>
+      <c r="HB4" s="59">
         <f>HB5</f>
         <v>44704</v>
       </c>
-      <c r="HC4" s="59"/>
-      <c r="HD4" s="59"/>
-      <c r="HE4" s="59"/>
-      <c r="HF4" s="59"/>
-      <c r="HG4" s="59"/>
-      <c r="HH4" s="60"/>
-      <c r="HI4" s="58">
+      <c r="HC4" s="60"/>
+      <c r="HD4" s="60"/>
+      <c r="HE4" s="60"/>
+      <c r="HF4" s="60"/>
+      <c r="HG4" s="60"/>
+      <c r="HH4" s="61"/>
+      <c r="HI4" s="59">
         <f>HI5</f>
         <v>44711</v>
       </c>
-      <c r="HJ4" s="59"/>
-      <c r="HK4" s="59"/>
-      <c r="HL4" s="59"/>
-      <c r="HM4" s="59"/>
-      <c r="HN4" s="59"/>
-      <c r="HO4" s="60"/>
-      <c r="HP4" s="58">
+      <c r="HJ4" s="60"/>
+      <c r="HK4" s="60"/>
+      <c r="HL4" s="60"/>
+      <c r="HM4" s="60"/>
+      <c r="HN4" s="60"/>
+      <c r="HO4" s="61"/>
+      <c r="HP4" s="59">
         <f>HP5</f>
         <v>44718</v>
       </c>
-      <c r="HQ4" s="59"/>
-      <c r="HR4" s="59"/>
-      <c r="HS4" s="59"/>
-      <c r="HT4" s="59"/>
-      <c r="HU4" s="59"/>
-      <c r="HV4" s="60"/>
-      <c r="HW4" s="58">
+      <c r="HQ4" s="60"/>
+      <c r="HR4" s="60"/>
+      <c r="HS4" s="60"/>
+      <c r="HT4" s="60"/>
+      <c r="HU4" s="60"/>
+      <c r="HV4" s="61"/>
+      <c r="HW4" s="59">
         <f>HW5</f>
         <v>44725</v>
       </c>
-      <c r="HX4" s="59"/>
-      <c r="HY4" s="59"/>
-      <c r="HZ4" s="59"/>
-      <c r="IA4" s="59"/>
-      <c r="IB4" s="59"/>
-      <c r="IC4" s="60"/>
-      <c r="ID4" s="58">
+      <c r="HX4" s="60"/>
+      <c r="HY4" s="60"/>
+      <c r="HZ4" s="60"/>
+      <c r="IA4" s="60"/>
+      <c r="IB4" s="60"/>
+      <c r="IC4" s="61"/>
+      <c r="ID4" s="59">
         <f>ID5</f>
         <v>44732</v>
       </c>
-      <c r="IE4" s="59"/>
-      <c r="IF4" s="59"/>
-      <c r="IG4" s="59"/>
-      <c r="IH4" s="59"/>
-      <c r="II4" s="59"/>
-      <c r="IJ4" s="60"/>
-      <c r="IK4" s="58">
+      <c r="IE4" s="60"/>
+      <c r="IF4" s="60"/>
+      <c r="IG4" s="60"/>
+      <c r="IH4" s="60"/>
+      <c r="II4" s="60"/>
+      <c r="IJ4" s="61"/>
+      <c r="IK4" s="59">
         <f>IK5</f>
         <v>44739</v>
       </c>
-      <c r="IL4" s="59"/>
-      <c r="IM4" s="59"/>
-      <c r="IN4" s="59"/>
-      <c r="IO4" s="59"/>
-      <c r="IP4" s="59"/>
-      <c r="IQ4" s="60"/>
-      <c r="IR4" s="58">
+      <c r="IL4" s="60"/>
+      <c r="IM4" s="60"/>
+      <c r="IN4" s="60"/>
+      <c r="IO4" s="60"/>
+      <c r="IP4" s="60"/>
+      <c r="IQ4" s="61"/>
+      <c r="IR4" s="59">
         <f>IR5</f>
         <v>44746</v>
       </c>
-      <c r="IS4" s="59"/>
-      <c r="IT4" s="59"/>
-      <c r="IU4" s="59"/>
-      <c r="IV4" s="59"/>
-      <c r="IW4" s="59"/>
-      <c r="IX4" s="60"/>
+      <c r="IS4" s="60"/>
+      <c r="IT4" s="60"/>
+      <c r="IU4" s="60"/>
+      <c r="IV4" s="60"/>
+      <c r="IW4" s="60"/>
+      <c r="IX4" s="61"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="G5" s="9">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44501</v>
@@ -3869,47 +3872,47 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="41"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="41"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="41"/>
+      <c r="AH7" s="41"/>
+      <c r="AI7" s="41"/>
+      <c r="AJ7" s="41"/>
+      <c r="AK7" s="41"/>
+      <c r="AL7" s="41"/>
+      <c r="AM7" s="41"/>
+      <c r="AN7" s="41"/>
+      <c r="AO7" s="41"/>
+      <c r="AP7" s="41"/>
+      <c r="AQ7" s="41"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="41"/>
+      <c r="AU7" s="41"/>
+      <c r="AV7" s="41"/>
+      <c r="AW7" s="41"/>
       <c r="AX7" s="14"/>
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
@@ -4121,65 +4124,65 @@
       <c r="IX7" s="14"/>
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="44" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
-        <f t="shared" ref="F8:F32" si="156">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="F8:F33" si="156">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>41</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
-      <c r="AD8" s="50"/>
-      <c r="AE8" s="50"/>
-      <c r="AF8" s="50"/>
-      <c r="AG8" s="50"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="50"/>
-      <c r="AJ8" s="50"/>
-      <c r="AK8" s="50"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
-      <c r="AT8" s="50"/>
-      <c r="AU8" s="50"/>
-      <c r="AV8" s="50"/>
-      <c r="AW8" s="50"/>
-      <c r="AX8" s="41"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="40"/>
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
       <c r="BA8" s="14"/>
@@ -4390,15 +4393,15 @@
       <c r="IX8" s="14"/>
     </row>
     <row r="9" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="35">
+      <c r="B9" s="65"/>
+      <c r="C9" s="34">
         <f>Project_Start</f>
         <v>44503</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <f>DATE(2021,11,12)</f>
         <v>44512</v>
       </c>
@@ -4409,47 +4412,47 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43"/>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="43"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
       <c r="AX9" s="14"/>
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
@@ -4661,10 +4664,10 @@
       <c r="IX9" s="14"/>
     </row>
     <row r="10" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="24">
         <f>D9+1</f>
         <v>44513</v>
@@ -4932,10 +4935,10 @@
       <c r="IX10" s="14"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="24">
         <f>DATE(2021,11,24)</f>
         <v>44524</v>
@@ -5203,15 +5206,15 @@
       <c r="IX11" s="14"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="36">
+      <c r="B12" s="67"/>
+      <c r="C12" s="35">
         <f>DATE(2021,11,31)</f>
         <v>44531</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <f>DATE(2021,12,13)</f>
         <v>44543</v>
       </c>
@@ -5238,170 +5241,170 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="42"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
-      <c r="BL12" s="42"/>
-      <c r="BM12" s="42"/>
-      <c r="BN12" s="42"/>
-      <c r="BO12" s="42"/>
-      <c r="BP12" s="42"/>
-      <c r="BQ12" s="42"/>
-      <c r="BR12" s="42"/>
-      <c r="BS12" s="42"/>
-      <c r="BT12" s="42"/>
-      <c r="BU12" s="42"/>
-      <c r="BV12" s="42"/>
-      <c r="BW12" s="42"/>
-      <c r="BX12" s="42"/>
-      <c r="BY12" s="42"/>
-      <c r="BZ12" s="42"/>
-      <c r="CA12" s="42"/>
-      <c r="CB12" s="42"/>
-      <c r="CC12" s="42"/>
-      <c r="CD12" s="42"/>
-      <c r="CE12" s="42"/>
-      <c r="CF12" s="42"/>
-      <c r="CG12" s="42"/>
-      <c r="CH12" s="42"/>
-      <c r="CI12" s="42"/>
-      <c r="CJ12" s="42"/>
-      <c r="CK12" s="42"/>
-      <c r="CL12" s="42"/>
-      <c r="CM12" s="42"/>
-      <c r="CN12" s="42"/>
-      <c r="CO12" s="42"/>
-      <c r="CP12" s="42"/>
-      <c r="CQ12" s="42"/>
-      <c r="CR12" s="42"/>
-      <c r="CS12" s="42"/>
-      <c r="CT12" s="42"/>
-      <c r="CU12" s="42"/>
-      <c r="CV12" s="42"/>
-      <c r="CW12" s="42"/>
-      <c r="CX12" s="42"/>
-      <c r="CY12" s="42"/>
-      <c r="CZ12" s="42"/>
-      <c r="DA12" s="42"/>
-      <c r="DB12" s="42"/>
-      <c r="DC12" s="42"/>
-      <c r="DD12" s="42"/>
-      <c r="DE12" s="42"/>
-      <c r="DF12" s="42"/>
-      <c r="DG12" s="42"/>
-      <c r="DH12" s="42"/>
-      <c r="DI12" s="42"/>
-      <c r="DJ12" s="42"/>
-      <c r="DK12" s="42"/>
-      <c r="DL12" s="42"/>
-      <c r="DM12" s="42"/>
-      <c r="DN12" s="42"/>
-      <c r="DO12" s="42"/>
-      <c r="DP12" s="42"/>
-      <c r="DQ12" s="42"/>
-      <c r="DR12" s="42"/>
-      <c r="DS12" s="42"/>
-      <c r="DT12" s="42"/>
-      <c r="DU12" s="42"/>
-      <c r="DV12" s="42"/>
-      <c r="DW12" s="42"/>
-      <c r="DX12" s="42"/>
-      <c r="DY12" s="42"/>
-      <c r="DZ12" s="42"/>
-      <c r="EA12" s="42"/>
-      <c r="EB12" s="42"/>
-      <c r="EC12" s="42"/>
-      <c r="ED12" s="42"/>
-      <c r="EE12" s="42"/>
-      <c r="EF12" s="42"/>
-      <c r="EG12" s="42"/>
-      <c r="EH12" s="42"/>
-      <c r="EI12" s="42"/>
-      <c r="EJ12" s="42"/>
-      <c r="EK12" s="42"/>
-      <c r="EL12" s="42"/>
-      <c r="EM12" s="42"/>
-      <c r="EN12" s="42"/>
-      <c r="EO12" s="42"/>
-      <c r="EP12" s="42"/>
-      <c r="EQ12" s="42"/>
-      <c r="ER12" s="42"/>
-      <c r="ES12" s="42"/>
-      <c r="ET12" s="42"/>
-      <c r="EU12" s="42"/>
-      <c r="EV12" s="42"/>
-      <c r="EW12" s="42"/>
-      <c r="EX12" s="42"/>
-      <c r="EY12" s="42"/>
-      <c r="EZ12" s="42"/>
-      <c r="FA12" s="42"/>
-      <c r="FB12" s="42"/>
-      <c r="FC12" s="42"/>
-      <c r="FD12" s="42"/>
-      <c r="FE12" s="42"/>
-      <c r="FF12" s="42"/>
-      <c r="FG12" s="42"/>
-      <c r="FH12" s="42"/>
-      <c r="FI12" s="42"/>
-      <c r="FJ12" s="42"/>
-      <c r="FK12" s="42"/>
-      <c r="FL12" s="42"/>
-      <c r="FM12" s="42"/>
-      <c r="FN12" s="42"/>
-      <c r="FO12" s="42"/>
-      <c r="FP12" s="42"/>
-      <c r="FQ12" s="42"/>
-      <c r="FR12" s="42"/>
-      <c r="FS12" s="42"/>
-      <c r="FT12" s="42"/>
-      <c r="FU12" s="42"/>
-      <c r="FV12" s="42"/>
-      <c r="FW12" s="42"/>
-      <c r="FX12" s="42"/>
-      <c r="FY12" s="42"/>
-      <c r="FZ12" s="42"/>
-      <c r="GA12" s="42"/>
-      <c r="GB12" s="42"/>
-      <c r="GC12" s="42"/>
-      <c r="GD12" s="42"/>
-      <c r="GE12" s="42"/>
-      <c r="GF12" s="42"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="41"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
+      <c r="AZ12" s="41"/>
+      <c r="BA12" s="41"/>
+      <c r="BB12" s="41"/>
+      <c r="BC12" s="41"/>
+      <c r="BD12" s="41"/>
+      <c r="BE12" s="41"/>
+      <c r="BF12" s="41"/>
+      <c r="BG12" s="41"/>
+      <c r="BH12" s="41"/>
+      <c r="BI12" s="41"/>
+      <c r="BJ12" s="41"/>
+      <c r="BK12" s="41"/>
+      <c r="BL12" s="41"/>
+      <c r="BM12" s="41"/>
+      <c r="BN12" s="41"/>
+      <c r="BO12" s="41"/>
+      <c r="BP12" s="41"/>
+      <c r="BQ12" s="41"/>
+      <c r="BR12" s="41"/>
+      <c r="BS12" s="41"/>
+      <c r="BT12" s="41"/>
+      <c r="BU12" s="41"/>
+      <c r="BV12" s="41"/>
+      <c r="BW12" s="41"/>
+      <c r="BX12" s="41"/>
+      <c r="BY12" s="41"/>
+      <c r="BZ12" s="41"/>
+      <c r="CA12" s="41"/>
+      <c r="CB12" s="41"/>
+      <c r="CC12" s="41"/>
+      <c r="CD12" s="41"/>
+      <c r="CE12" s="41"/>
+      <c r="CF12" s="41"/>
+      <c r="CG12" s="41"/>
+      <c r="CH12" s="41"/>
+      <c r="CI12" s="41"/>
+      <c r="CJ12" s="41"/>
+      <c r="CK12" s="41"/>
+      <c r="CL12" s="41"/>
+      <c r="CM12" s="41"/>
+      <c r="CN12" s="41"/>
+      <c r="CO12" s="41"/>
+      <c r="CP12" s="41"/>
+      <c r="CQ12" s="41"/>
+      <c r="CR12" s="41"/>
+      <c r="CS12" s="41"/>
+      <c r="CT12" s="41"/>
+      <c r="CU12" s="41"/>
+      <c r="CV12" s="41"/>
+      <c r="CW12" s="41"/>
+      <c r="CX12" s="41"/>
+      <c r="CY12" s="41"/>
+      <c r="CZ12" s="41"/>
+      <c r="DA12" s="41"/>
+      <c r="DB12" s="41"/>
+      <c r="DC12" s="41"/>
+      <c r="DD12" s="41"/>
+      <c r="DE12" s="41"/>
+      <c r="DF12" s="41"/>
+      <c r="DG12" s="41"/>
+      <c r="DH12" s="41"/>
+      <c r="DI12" s="41"/>
+      <c r="DJ12" s="41"/>
+      <c r="DK12" s="41"/>
+      <c r="DL12" s="41"/>
+      <c r="DM12" s="41"/>
+      <c r="DN12" s="41"/>
+      <c r="DO12" s="41"/>
+      <c r="DP12" s="41"/>
+      <c r="DQ12" s="41"/>
+      <c r="DR12" s="41"/>
+      <c r="DS12" s="41"/>
+      <c r="DT12" s="41"/>
+      <c r="DU12" s="41"/>
+      <c r="DV12" s="41"/>
+      <c r="DW12" s="41"/>
+      <c r="DX12" s="41"/>
+      <c r="DY12" s="41"/>
+      <c r="DZ12" s="41"/>
+      <c r="EA12" s="41"/>
+      <c r="EB12" s="41"/>
+      <c r="EC12" s="41"/>
+      <c r="ED12" s="41"/>
+      <c r="EE12" s="41"/>
+      <c r="EF12" s="41"/>
+      <c r="EG12" s="41"/>
+      <c r="EH12" s="41"/>
+      <c r="EI12" s="41"/>
+      <c r="EJ12" s="41"/>
+      <c r="EK12" s="41"/>
+      <c r="EL12" s="41"/>
+      <c r="EM12" s="41"/>
+      <c r="EN12" s="41"/>
+      <c r="EO12" s="41"/>
+      <c r="EP12" s="41"/>
+      <c r="EQ12" s="41"/>
+      <c r="ER12" s="41"/>
+      <c r="ES12" s="41"/>
+      <c r="ET12" s="41"/>
+      <c r="EU12" s="41"/>
+      <c r="EV12" s="41"/>
+      <c r="EW12" s="41"/>
+      <c r="EX12" s="41"/>
+      <c r="EY12" s="41"/>
+      <c r="EZ12" s="41"/>
+      <c r="FA12" s="41"/>
+      <c r="FB12" s="41"/>
+      <c r="FC12" s="41"/>
+      <c r="FD12" s="41"/>
+      <c r="FE12" s="41"/>
+      <c r="FF12" s="41"/>
+      <c r="FG12" s="41"/>
+      <c r="FH12" s="41"/>
+      <c r="FI12" s="41"/>
+      <c r="FJ12" s="41"/>
+      <c r="FK12" s="41"/>
+      <c r="FL12" s="41"/>
+      <c r="FM12" s="41"/>
+      <c r="FN12" s="41"/>
+      <c r="FO12" s="41"/>
+      <c r="FP12" s="41"/>
+      <c r="FQ12" s="41"/>
+      <c r="FR12" s="41"/>
+      <c r="FS12" s="41"/>
+      <c r="FT12" s="41"/>
+      <c r="FU12" s="41"/>
+      <c r="FV12" s="41"/>
+      <c r="FW12" s="41"/>
+      <c r="FX12" s="41"/>
+      <c r="FY12" s="41"/>
+      <c r="FZ12" s="41"/>
+      <c r="GA12" s="41"/>
+      <c r="GB12" s="41"/>
+      <c r="GC12" s="41"/>
+      <c r="GD12" s="41"/>
+      <c r="GE12" s="41"/>
+      <c r="GF12" s="41"/>
       <c r="GG12" s="14"/>
       <c r="GH12" s="14"/>
       <c r="GI12" s="14"/>
@@ -5474,14 +5477,14 @@
       <c r="IX12" s="14"/>
     </row>
     <row r="13" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <f>D16</f>
         <v>44682</v>
       </c>
@@ -5507,172 +5510,172 @@
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="50"/>
-      <c r="AZ13" s="50"/>
-      <c r="BA13" s="50"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="50"/>
-      <c r="BD13" s="50"/>
-      <c r="BE13" s="50"/>
-      <c r="BF13" s="50"/>
-      <c r="BG13" s="50"/>
-      <c r="BH13" s="50"/>
-      <c r="BI13" s="50"/>
-      <c r="BJ13" s="50"/>
-      <c r="BK13" s="50"/>
-      <c r="BL13" s="50"/>
-      <c r="BM13" s="50"/>
-      <c r="BN13" s="50"/>
-      <c r="BO13" s="50"/>
-      <c r="BP13" s="50"/>
-      <c r="BQ13" s="50"/>
-      <c r="BR13" s="50"/>
-      <c r="BS13" s="50"/>
-      <c r="BT13" s="50"/>
-      <c r="BU13" s="50"/>
-      <c r="BV13" s="50"/>
-      <c r="BW13" s="50"/>
-      <c r="BX13" s="50"/>
-      <c r="BY13" s="50"/>
-      <c r="BZ13" s="50"/>
-      <c r="CA13" s="50"/>
-      <c r="CB13" s="50"/>
-      <c r="CC13" s="50"/>
-      <c r="CD13" s="50"/>
-      <c r="CE13" s="50"/>
-      <c r="CF13" s="50"/>
-      <c r="CG13" s="50"/>
-      <c r="CH13" s="50"/>
-      <c r="CI13" s="50"/>
-      <c r="CJ13" s="50"/>
-      <c r="CK13" s="50"/>
-      <c r="CL13" s="50"/>
-      <c r="CM13" s="50"/>
-      <c r="CN13" s="50"/>
-      <c r="CO13" s="50"/>
-      <c r="CP13" s="50"/>
-      <c r="CQ13" s="50"/>
-      <c r="CR13" s="50"/>
-      <c r="CS13" s="50"/>
-      <c r="CT13" s="50"/>
-      <c r="CU13" s="50"/>
-      <c r="CV13" s="50"/>
-      <c r="CW13" s="50"/>
-      <c r="CX13" s="50"/>
-      <c r="CY13" s="50"/>
-      <c r="CZ13" s="50"/>
-      <c r="DA13" s="50"/>
-      <c r="DB13" s="50"/>
-      <c r="DC13" s="50"/>
-      <c r="DD13" s="50"/>
-      <c r="DE13" s="50"/>
-      <c r="DF13" s="50"/>
-      <c r="DG13" s="50"/>
-      <c r="DH13" s="50"/>
-      <c r="DI13" s="50"/>
-      <c r="DJ13" s="50"/>
-      <c r="DK13" s="50"/>
-      <c r="DL13" s="50"/>
-      <c r="DM13" s="50"/>
-      <c r="DN13" s="50"/>
-      <c r="DO13" s="50"/>
-      <c r="DP13" s="50"/>
-      <c r="DQ13" s="50"/>
-      <c r="DR13" s="50"/>
-      <c r="DS13" s="50"/>
-      <c r="DT13" s="50"/>
-      <c r="DU13" s="50"/>
-      <c r="DV13" s="50"/>
-      <c r="DW13" s="50"/>
-      <c r="DX13" s="50"/>
-      <c r="DY13" s="50"/>
-      <c r="DZ13" s="50"/>
-      <c r="EA13" s="50"/>
-      <c r="EB13" s="50"/>
-      <c r="EC13" s="50"/>
-      <c r="ED13" s="50"/>
-      <c r="EE13" s="50"/>
-      <c r="EF13" s="50"/>
-      <c r="EG13" s="50"/>
-      <c r="EH13" s="50"/>
-      <c r="EI13" s="50"/>
-      <c r="EJ13" s="50"/>
-      <c r="EK13" s="50"/>
-      <c r="EL13" s="50"/>
-      <c r="EM13" s="50"/>
-      <c r="EN13" s="50"/>
-      <c r="EO13" s="50"/>
-      <c r="EP13" s="50"/>
-      <c r="EQ13" s="50"/>
-      <c r="ER13" s="50"/>
-      <c r="ES13" s="50"/>
-      <c r="ET13" s="50"/>
-      <c r="EU13" s="50"/>
-      <c r="EV13" s="50"/>
-      <c r="EW13" s="50"/>
-      <c r="EX13" s="50"/>
-      <c r="EY13" s="50"/>
-      <c r="EZ13" s="50"/>
-      <c r="FA13" s="50"/>
-      <c r="FB13" s="50"/>
-      <c r="FC13" s="50"/>
-      <c r="FD13" s="50"/>
-      <c r="FE13" s="50"/>
-      <c r="FF13" s="50"/>
-      <c r="FG13" s="50"/>
-      <c r="FH13" s="50"/>
-      <c r="FI13" s="50"/>
-      <c r="FJ13" s="50"/>
-      <c r="FK13" s="50"/>
-      <c r="FL13" s="50"/>
-      <c r="FM13" s="50"/>
-      <c r="FN13" s="50"/>
-      <c r="FO13" s="50"/>
-      <c r="FP13" s="50"/>
-      <c r="FQ13" s="50"/>
-      <c r="FR13" s="50"/>
-      <c r="FS13" s="50"/>
-      <c r="FT13" s="50"/>
-      <c r="FU13" s="50"/>
-      <c r="FV13" s="50"/>
-      <c r="FW13" s="50"/>
-      <c r="FX13" s="50"/>
-      <c r="FY13" s="50"/>
-      <c r="FZ13" s="50"/>
-      <c r="GA13" s="50"/>
-      <c r="GB13" s="50"/>
-      <c r="GC13" s="50"/>
-      <c r="GD13" s="50"/>
-      <c r="GE13" s="50"/>
-      <c r="GF13" s="50"/>
-      <c r="GG13" s="41"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="49"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
+      <c r="AV13" s="49"/>
+      <c r="AW13" s="49"/>
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="49"/>
+      <c r="AZ13" s="49"/>
+      <c r="BA13" s="49"/>
+      <c r="BB13" s="49"/>
+      <c r="BC13" s="49"/>
+      <c r="BD13" s="49"/>
+      <c r="BE13" s="49"/>
+      <c r="BF13" s="49"/>
+      <c r="BG13" s="49"/>
+      <c r="BH13" s="49"/>
+      <c r="BI13" s="49"/>
+      <c r="BJ13" s="49"/>
+      <c r="BK13" s="49"/>
+      <c r="BL13" s="49"/>
+      <c r="BM13" s="49"/>
+      <c r="BN13" s="49"/>
+      <c r="BO13" s="49"/>
+      <c r="BP13" s="49"/>
+      <c r="BQ13" s="49"/>
+      <c r="BR13" s="49"/>
+      <c r="BS13" s="49"/>
+      <c r="BT13" s="49"/>
+      <c r="BU13" s="49"/>
+      <c r="BV13" s="49"/>
+      <c r="BW13" s="49"/>
+      <c r="BX13" s="49"/>
+      <c r="BY13" s="49"/>
+      <c r="BZ13" s="49"/>
+      <c r="CA13" s="49"/>
+      <c r="CB13" s="49"/>
+      <c r="CC13" s="49"/>
+      <c r="CD13" s="49"/>
+      <c r="CE13" s="49"/>
+      <c r="CF13" s="49"/>
+      <c r="CG13" s="49"/>
+      <c r="CH13" s="49"/>
+      <c r="CI13" s="49"/>
+      <c r="CJ13" s="49"/>
+      <c r="CK13" s="49"/>
+      <c r="CL13" s="49"/>
+      <c r="CM13" s="49"/>
+      <c r="CN13" s="49"/>
+      <c r="CO13" s="49"/>
+      <c r="CP13" s="49"/>
+      <c r="CQ13" s="49"/>
+      <c r="CR13" s="49"/>
+      <c r="CS13" s="49"/>
+      <c r="CT13" s="49"/>
+      <c r="CU13" s="49"/>
+      <c r="CV13" s="49"/>
+      <c r="CW13" s="49"/>
+      <c r="CX13" s="49"/>
+      <c r="CY13" s="49"/>
+      <c r="CZ13" s="49"/>
+      <c r="DA13" s="49"/>
+      <c r="DB13" s="49"/>
+      <c r="DC13" s="49"/>
+      <c r="DD13" s="49"/>
+      <c r="DE13" s="49"/>
+      <c r="DF13" s="49"/>
+      <c r="DG13" s="49"/>
+      <c r="DH13" s="49"/>
+      <c r="DI13" s="49"/>
+      <c r="DJ13" s="49"/>
+      <c r="DK13" s="49"/>
+      <c r="DL13" s="49"/>
+      <c r="DM13" s="49"/>
+      <c r="DN13" s="49"/>
+      <c r="DO13" s="49"/>
+      <c r="DP13" s="49"/>
+      <c r="DQ13" s="49"/>
+      <c r="DR13" s="49"/>
+      <c r="DS13" s="49"/>
+      <c r="DT13" s="49"/>
+      <c r="DU13" s="49"/>
+      <c r="DV13" s="49"/>
+      <c r="DW13" s="49"/>
+      <c r="DX13" s="49"/>
+      <c r="DY13" s="49"/>
+      <c r="DZ13" s="49"/>
+      <c r="EA13" s="49"/>
+      <c r="EB13" s="49"/>
+      <c r="EC13" s="49"/>
+      <c r="ED13" s="49"/>
+      <c r="EE13" s="49"/>
+      <c r="EF13" s="49"/>
+      <c r="EG13" s="49"/>
+      <c r="EH13" s="49"/>
+      <c r="EI13" s="49"/>
+      <c r="EJ13" s="49"/>
+      <c r="EK13" s="49"/>
+      <c r="EL13" s="49"/>
+      <c r="EM13" s="49"/>
+      <c r="EN13" s="49"/>
+      <c r="EO13" s="49"/>
+      <c r="EP13" s="49"/>
+      <c r="EQ13" s="49"/>
+      <c r="ER13" s="49"/>
+      <c r="ES13" s="49"/>
+      <c r="ET13" s="49"/>
+      <c r="EU13" s="49"/>
+      <c r="EV13" s="49"/>
+      <c r="EW13" s="49"/>
+      <c r="EX13" s="49"/>
+      <c r="EY13" s="49"/>
+      <c r="EZ13" s="49"/>
+      <c r="FA13" s="49"/>
+      <c r="FB13" s="49"/>
+      <c r="FC13" s="49"/>
+      <c r="FD13" s="49"/>
+      <c r="FE13" s="49"/>
+      <c r="FF13" s="49"/>
+      <c r="FG13" s="49"/>
+      <c r="FH13" s="49"/>
+      <c r="FI13" s="49"/>
+      <c r="FJ13" s="49"/>
+      <c r="FK13" s="49"/>
+      <c r="FL13" s="49"/>
+      <c r="FM13" s="49"/>
+      <c r="FN13" s="49"/>
+      <c r="FO13" s="49"/>
+      <c r="FP13" s="49"/>
+      <c r="FQ13" s="49"/>
+      <c r="FR13" s="49"/>
+      <c r="FS13" s="49"/>
+      <c r="FT13" s="49"/>
+      <c r="FU13" s="49"/>
+      <c r="FV13" s="49"/>
+      <c r="FW13" s="49"/>
+      <c r="FX13" s="49"/>
+      <c r="FY13" s="49"/>
+      <c r="FZ13" s="49"/>
+      <c r="GA13" s="49"/>
+      <c r="GB13" s="49"/>
+      <c r="GC13" s="49"/>
+      <c r="GD13" s="49"/>
+      <c r="GE13" s="49"/>
+      <c r="GF13" s="49"/>
+      <c r="GG13" s="40"/>
       <c r="GH13" s="14"/>
       <c r="GI13" s="14"/>
       <c r="GJ13" s="14"/>
@@ -5744,15 +5747,15 @@
       <c r="IX13" s="14"/>
     </row>
     <row r="14" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="35">
+      <c r="B14" s="65"/>
+      <c r="C14" s="34">
         <f>DATE(2021,11,19)</f>
         <v>44519</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <f>DATE(2022,2,6)</f>
         <v>44598</v>
       </c>
@@ -5779,170 +5782,170 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="43"/>
-      <c r="AH14" s="43"/>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="43"/>
-      <c r="AK14" s="43"/>
-      <c r="AL14" s="43"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="43"/>
-      <c r="AO14" s="43"/>
-      <c r="AP14" s="43"/>
-      <c r="AQ14" s="43"/>
-      <c r="AR14" s="43"/>
-      <c r="AS14" s="43"/>
-      <c r="AT14" s="43"/>
-      <c r="AU14" s="43"/>
-      <c r="AV14" s="43"/>
-      <c r="AW14" s="43"/>
-      <c r="AX14" s="43"/>
-      <c r="AY14" s="43"/>
-      <c r="AZ14" s="43"/>
-      <c r="BA14" s="43"/>
-      <c r="BB14" s="43"/>
-      <c r="BC14" s="43"/>
-      <c r="BD14" s="43"/>
-      <c r="BE14" s="43"/>
-      <c r="BF14" s="43"/>
-      <c r="BG14" s="43"/>
-      <c r="BH14" s="43"/>
-      <c r="BI14" s="43"/>
-      <c r="BJ14" s="43"/>
-      <c r="BK14" s="43"/>
-      <c r="BL14" s="43"/>
-      <c r="BM14" s="43"/>
-      <c r="BN14" s="43"/>
-      <c r="BO14" s="43"/>
-      <c r="BP14" s="43"/>
-      <c r="BQ14" s="43"/>
-      <c r="BR14" s="43"/>
-      <c r="BS14" s="43"/>
-      <c r="BT14" s="43"/>
-      <c r="BU14" s="43"/>
-      <c r="BV14" s="43"/>
-      <c r="BW14" s="43"/>
-      <c r="BX14" s="43"/>
-      <c r="BY14" s="43"/>
-      <c r="BZ14" s="43"/>
-      <c r="CA14" s="43"/>
-      <c r="CB14" s="43"/>
-      <c r="CC14" s="43"/>
-      <c r="CD14" s="43"/>
-      <c r="CE14" s="43"/>
-      <c r="CF14" s="43"/>
-      <c r="CG14" s="43"/>
-      <c r="CH14" s="43"/>
-      <c r="CI14" s="43"/>
-      <c r="CJ14" s="43"/>
-      <c r="CK14" s="43"/>
-      <c r="CL14" s="43"/>
-      <c r="CM14" s="43"/>
-      <c r="CN14" s="43"/>
-      <c r="CO14" s="43"/>
-      <c r="CP14" s="43"/>
-      <c r="CQ14" s="43"/>
-      <c r="CR14" s="43"/>
-      <c r="CS14" s="43"/>
-      <c r="CT14" s="43"/>
-      <c r="CU14" s="43"/>
-      <c r="CV14" s="43"/>
-      <c r="CW14" s="43"/>
-      <c r="CX14" s="43"/>
-      <c r="CY14" s="43"/>
-      <c r="CZ14" s="43"/>
-      <c r="DA14" s="43"/>
-      <c r="DB14" s="43"/>
-      <c r="DC14" s="43"/>
-      <c r="DD14" s="43"/>
-      <c r="DE14" s="43"/>
-      <c r="DF14" s="43"/>
-      <c r="DG14" s="43"/>
-      <c r="DH14" s="43"/>
-      <c r="DI14" s="43"/>
-      <c r="DJ14" s="43"/>
-      <c r="DK14" s="43"/>
-      <c r="DL14" s="43"/>
-      <c r="DM14" s="43"/>
-      <c r="DN14" s="43"/>
-      <c r="DO14" s="43"/>
-      <c r="DP14" s="43"/>
-      <c r="DQ14" s="43"/>
-      <c r="DR14" s="43"/>
-      <c r="DS14" s="43"/>
-      <c r="DT14" s="43"/>
-      <c r="DU14" s="43"/>
-      <c r="DV14" s="43"/>
-      <c r="DW14" s="43"/>
-      <c r="DX14" s="43"/>
-      <c r="DY14" s="43"/>
-      <c r="DZ14" s="43"/>
-      <c r="EA14" s="43"/>
-      <c r="EB14" s="43"/>
-      <c r="EC14" s="43"/>
-      <c r="ED14" s="43"/>
-      <c r="EE14" s="43"/>
-      <c r="EF14" s="43"/>
-      <c r="EG14" s="43"/>
-      <c r="EH14" s="43"/>
-      <c r="EI14" s="43"/>
-      <c r="EJ14" s="43"/>
-      <c r="EK14" s="43"/>
-      <c r="EL14" s="43"/>
-      <c r="EM14" s="43"/>
-      <c r="EN14" s="43"/>
-      <c r="EO14" s="43"/>
-      <c r="EP14" s="43"/>
-      <c r="EQ14" s="43"/>
-      <c r="ER14" s="43"/>
-      <c r="ES14" s="43"/>
-      <c r="ET14" s="43"/>
-      <c r="EU14" s="43"/>
-      <c r="EV14" s="43"/>
-      <c r="EW14" s="43"/>
-      <c r="EX14" s="43"/>
-      <c r="EY14" s="43"/>
-      <c r="EZ14" s="43"/>
-      <c r="FA14" s="43"/>
-      <c r="FB14" s="43"/>
-      <c r="FC14" s="43"/>
-      <c r="FD14" s="43"/>
-      <c r="FE14" s="43"/>
-      <c r="FF14" s="43"/>
-      <c r="FG14" s="43"/>
-      <c r="FH14" s="43"/>
-      <c r="FI14" s="43"/>
-      <c r="FJ14" s="43"/>
-      <c r="FK14" s="43"/>
-      <c r="FL14" s="43"/>
-      <c r="FM14" s="43"/>
-      <c r="FN14" s="43"/>
-      <c r="FO14" s="43"/>
-      <c r="FP14" s="43"/>
-      <c r="FQ14" s="43"/>
-      <c r="FR14" s="43"/>
-      <c r="FS14" s="43"/>
-      <c r="FT14" s="43"/>
-      <c r="FU14" s="43"/>
-      <c r="FV14" s="43"/>
-      <c r="FW14" s="43"/>
-      <c r="FX14" s="48"/>
-      <c r="FY14" s="49"/>
-      <c r="FZ14" s="43"/>
-      <c r="GA14" s="43"/>
-      <c r="GB14" s="43"/>
-      <c r="GC14" s="43"/>
-      <c r="GD14" s="43"/>
-      <c r="GE14" s="43"/>
-      <c r="GF14" s="43"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
+      <c r="AQ14" s="42"/>
+      <c r="AR14" s="42"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="42"/>
+      <c r="AV14" s="42"/>
+      <c r="AW14" s="42"/>
+      <c r="AX14" s="42"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="42"/>
+      <c r="BA14" s="42"/>
+      <c r="BB14" s="42"/>
+      <c r="BC14" s="42"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="42"/>
+      <c r="BG14" s="42"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="42"/>
+      <c r="BJ14" s="42"/>
+      <c r="BK14" s="42"/>
+      <c r="BL14" s="42"/>
+      <c r="BM14" s="42"/>
+      <c r="BN14" s="42"/>
+      <c r="BO14" s="42"/>
+      <c r="BP14" s="42"/>
+      <c r="BQ14" s="42"/>
+      <c r="BR14" s="42"/>
+      <c r="BS14" s="42"/>
+      <c r="BT14" s="42"/>
+      <c r="BU14" s="42"/>
+      <c r="BV14" s="42"/>
+      <c r="BW14" s="42"/>
+      <c r="BX14" s="42"/>
+      <c r="BY14" s="42"/>
+      <c r="BZ14" s="42"/>
+      <c r="CA14" s="42"/>
+      <c r="CB14" s="42"/>
+      <c r="CC14" s="42"/>
+      <c r="CD14" s="42"/>
+      <c r="CE14" s="42"/>
+      <c r="CF14" s="42"/>
+      <c r="CG14" s="42"/>
+      <c r="CH14" s="42"/>
+      <c r="CI14" s="42"/>
+      <c r="CJ14" s="42"/>
+      <c r="CK14" s="42"/>
+      <c r="CL14" s="42"/>
+      <c r="CM14" s="42"/>
+      <c r="CN14" s="42"/>
+      <c r="CO14" s="42"/>
+      <c r="CP14" s="42"/>
+      <c r="CQ14" s="42"/>
+      <c r="CR14" s="42"/>
+      <c r="CS14" s="42"/>
+      <c r="CT14" s="42"/>
+      <c r="CU14" s="42"/>
+      <c r="CV14" s="42"/>
+      <c r="CW14" s="42"/>
+      <c r="CX14" s="42"/>
+      <c r="CY14" s="42"/>
+      <c r="CZ14" s="42"/>
+      <c r="DA14" s="42"/>
+      <c r="DB14" s="42"/>
+      <c r="DC14" s="42"/>
+      <c r="DD14" s="42"/>
+      <c r="DE14" s="42"/>
+      <c r="DF14" s="42"/>
+      <c r="DG14" s="42"/>
+      <c r="DH14" s="42"/>
+      <c r="DI14" s="42"/>
+      <c r="DJ14" s="42"/>
+      <c r="DK14" s="42"/>
+      <c r="DL14" s="42"/>
+      <c r="DM14" s="42"/>
+      <c r="DN14" s="42"/>
+      <c r="DO14" s="42"/>
+      <c r="DP14" s="42"/>
+      <c r="DQ14" s="42"/>
+      <c r="DR14" s="42"/>
+      <c r="DS14" s="42"/>
+      <c r="DT14" s="42"/>
+      <c r="DU14" s="42"/>
+      <c r="DV14" s="42"/>
+      <c r="DW14" s="42"/>
+      <c r="DX14" s="42"/>
+      <c r="DY14" s="42"/>
+      <c r="DZ14" s="42"/>
+      <c r="EA14" s="42"/>
+      <c r="EB14" s="42"/>
+      <c r="EC14" s="42"/>
+      <c r="ED14" s="42"/>
+      <c r="EE14" s="42"/>
+      <c r="EF14" s="42"/>
+      <c r="EG14" s="42"/>
+      <c r="EH14" s="42"/>
+      <c r="EI14" s="42"/>
+      <c r="EJ14" s="42"/>
+      <c r="EK14" s="42"/>
+      <c r="EL14" s="42"/>
+      <c r="EM14" s="42"/>
+      <c r="EN14" s="42"/>
+      <c r="EO14" s="42"/>
+      <c r="EP14" s="42"/>
+      <c r="EQ14" s="42"/>
+      <c r="ER14" s="42"/>
+      <c r="ES14" s="42"/>
+      <c r="ET14" s="42"/>
+      <c r="EU14" s="42"/>
+      <c r="EV14" s="42"/>
+      <c r="EW14" s="42"/>
+      <c r="EX14" s="42"/>
+      <c r="EY14" s="42"/>
+      <c r="EZ14" s="42"/>
+      <c r="FA14" s="42"/>
+      <c r="FB14" s="42"/>
+      <c r="FC14" s="42"/>
+      <c r="FD14" s="42"/>
+      <c r="FE14" s="42"/>
+      <c r="FF14" s="42"/>
+      <c r="FG14" s="42"/>
+      <c r="FH14" s="42"/>
+      <c r="FI14" s="42"/>
+      <c r="FJ14" s="42"/>
+      <c r="FK14" s="42"/>
+      <c r="FL14" s="42"/>
+      <c r="FM14" s="42"/>
+      <c r="FN14" s="42"/>
+      <c r="FO14" s="42"/>
+      <c r="FP14" s="42"/>
+      <c r="FQ14" s="42"/>
+      <c r="FR14" s="42"/>
+      <c r="FS14" s="42"/>
+      <c r="FT14" s="42"/>
+      <c r="FU14" s="42"/>
+      <c r="FV14" s="42"/>
+      <c r="FW14" s="42"/>
+      <c r="FX14" s="47"/>
+      <c r="FY14" s="48"/>
+      <c r="FZ14" s="42"/>
+      <c r="GA14" s="42"/>
+      <c r="GB14" s="42"/>
+      <c r="GC14" s="42"/>
+      <c r="GD14" s="42"/>
+      <c r="GE14" s="42"/>
+      <c r="GF14" s="42"/>
       <c r="GG14" s="14"/>
       <c r="GH14" s="14"/>
       <c r="GI14" s="14"/>
@@ -6015,10 +6018,10 @@
       <c r="IX14" s="14"/>
     </row>
     <row r="15" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="24">
         <f>DATE(2022,1,10)</f>
         <v>44571</v>
@@ -6286,15 +6289,15 @@
       <c r="IX15" s="14"/>
     </row>
     <row r="16" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="36">
+      <c r="B16" s="67"/>
+      <c r="C16" s="35">
         <f>DATE(2022,2,7)</f>
         <v>44599</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <f>DATE(2022,5,1)</f>
         <v>44682</v>
       </c>
@@ -6346,205 +6349,205 @@
       <c r="AU16" s="14"/>
       <c r="AV16" s="14"/>
       <c r="AW16" s="14"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="42"/>
-      <c r="BG16" s="42"/>
-      <c r="BH16" s="42"/>
-      <c r="BI16" s="42"/>
-      <c r="BJ16" s="42"/>
-      <c r="BK16" s="42"/>
-      <c r="BL16" s="42"/>
-      <c r="BM16" s="42"/>
-      <c r="BN16" s="42"/>
-      <c r="BO16" s="42"/>
-      <c r="BP16" s="42"/>
-      <c r="BQ16" s="42"/>
-      <c r="BR16" s="42"/>
-      <c r="BS16" s="42"/>
-      <c r="BT16" s="42"/>
-      <c r="BU16" s="42"/>
-      <c r="BV16" s="42"/>
-      <c r="BW16" s="42"/>
-      <c r="BX16" s="42"/>
-      <c r="BY16" s="42"/>
-      <c r="BZ16" s="42"/>
-      <c r="CA16" s="42"/>
-      <c r="CB16" s="42"/>
-      <c r="CC16" s="42"/>
-      <c r="CD16" s="42"/>
-      <c r="CE16" s="42"/>
-      <c r="CF16" s="42"/>
-      <c r="CG16" s="42"/>
-      <c r="CH16" s="42"/>
-      <c r="CI16" s="42"/>
-      <c r="CJ16" s="42"/>
-      <c r="CK16" s="42"/>
-      <c r="CL16" s="42"/>
-      <c r="CM16" s="42"/>
-      <c r="CN16" s="42"/>
-      <c r="CO16" s="42"/>
-      <c r="CP16" s="42"/>
-      <c r="CQ16" s="42"/>
-      <c r="CR16" s="42"/>
-      <c r="CS16" s="42"/>
-      <c r="CT16" s="42"/>
-      <c r="CU16" s="42"/>
-      <c r="CV16" s="42"/>
-      <c r="CW16" s="42"/>
-      <c r="CX16" s="42"/>
-      <c r="CY16" s="42"/>
-      <c r="CZ16" s="42"/>
-      <c r="DA16" s="42"/>
-      <c r="DB16" s="42"/>
-      <c r="DC16" s="42"/>
-      <c r="DD16" s="42"/>
-      <c r="DE16" s="42"/>
-      <c r="DF16" s="42"/>
-      <c r="DG16" s="42"/>
-      <c r="DH16" s="42"/>
-      <c r="DI16" s="42"/>
-      <c r="DJ16" s="42"/>
-      <c r="DK16" s="42"/>
-      <c r="DL16" s="42"/>
-      <c r="DM16" s="42"/>
-      <c r="DN16" s="42"/>
-      <c r="DO16" s="42"/>
-      <c r="DP16" s="42"/>
-      <c r="DQ16" s="42"/>
-      <c r="DR16" s="42"/>
-      <c r="DS16" s="42"/>
-      <c r="DT16" s="42"/>
-      <c r="DU16" s="42"/>
-      <c r="DV16" s="42"/>
-      <c r="DW16" s="42"/>
-      <c r="DX16" s="42"/>
-      <c r="DY16" s="42"/>
-      <c r="DZ16" s="42"/>
-      <c r="EA16" s="42"/>
-      <c r="EB16" s="42"/>
-      <c r="EC16" s="42"/>
-      <c r="ED16" s="42"/>
-      <c r="EE16" s="42"/>
-      <c r="EF16" s="42"/>
-      <c r="EG16" s="42"/>
-      <c r="EH16" s="42"/>
-      <c r="EI16" s="42"/>
-      <c r="EJ16" s="42"/>
-      <c r="EK16" s="42"/>
-      <c r="EL16" s="42"/>
-      <c r="EM16" s="42"/>
-      <c r="EN16" s="42"/>
-      <c r="EO16" s="42"/>
-      <c r="EP16" s="42"/>
-      <c r="EQ16" s="42"/>
-      <c r="ER16" s="42"/>
-      <c r="ES16" s="42"/>
-      <c r="ET16" s="42"/>
-      <c r="EU16" s="42"/>
-      <c r="EV16" s="42"/>
-      <c r="EW16" s="42"/>
-      <c r="EX16" s="42"/>
-      <c r="EY16" s="42"/>
-      <c r="EZ16" s="42"/>
-      <c r="FA16" s="42"/>
-      <c r="FB16" s="42"/>
-      <c r="FC16" s="42"/>
-      <c r="FD16" s="42"/>
-      <c r="FE16" s="42"/>
-      <c r="FF16" s="42"/>
-      <c r="FG16" s="42"/>
-      <c r="FH16" s="42"/>
-      <c r="FI16" s="42"/>
-      <c r="FJ16" s="42"/>
-      <c r="FK16" s="42"/>
-      <c r="FL16" s="42"/>
-      <c r="FM16" s="42"/>
-      <c r="FN16" s="42"/>
-      <c r="FO16" s="42"/>
-      <c r="FP16" s="42"/>
-      <c r="FQ16" s="42"/>
-      <c r="FR16" s="42"/>
-      <c r="FS16" s="42"/>
-      <c r="FT16" s="42"/>
-      <c r="FU16" s="42"/>
-      <c r="FV16" s="42"/>
-      <c r="FW16" s="42"/>
-      <c r="FX16" s="42"/>
-      <c r="FY16" s="42"/>
-      <c r="FZ16" s="42"/>
-      <c r="GA16" s="42"/>
-      <c r="GB16" s="42"/>
-      <c r="GC16" s="42"/>
-      <c r="GD16" s="42"/>
-      <c r="GE16" s="42"/>
-      <c r="GF16" s="42"/>
-      <c r="GG16" s="42"/>
-      <c r="GH16" s="42"/>
-      <c r="GI16" s="42"/>
-      <c r="GJ16" s="42"/>
-      <c r="GK16" s="42"/>
-      <c r="GL16" s="42"/>
-      <c r="GM16" s="42"/>
-      <c r="GN16" s="42"/>
-      <c r="GO16" s="42"/>
-      <c r="GP16" s="42"/>
-      <c r="GQ16" s="42"/>
-      <c r="GR16" s="42"/>
-      <c r="GS16" s="42"/>
-      <c r="GT16" s="42"/>
-      <c r="GU16" s="42"/>
-      <c r="GV16" s="42"/>
-      <c r="GW16" s="42"/>
-      <c r="GX16" s="42"/>
-      <c r="GY16" s="42"/>
-      <c r="GZ16" s="42"/>
-      <c r="HA16" s="42"/>
-      <c r="HB16" s="42"/>
-      <c r="HC16" s="42"/>
-      <c r="HD16" s="42"/>
-      <c r="HE16" s="42"/>
-      <c r="HF16" s="42"/>
-      <c r="HG16" s="42"/>
-      <c r="HH16" s="42"/>
-      <c r="HI16" s="42"/>
-      <c r="HJ16" s="42"/>
-      <c r="HK16" s="42"/>
-      <c r="HL16" s="42"/>
-      <c r="HM16" s="42"/>
-      <c r="HN16" s="42"/>
-      <c r="HO16" s="42"/>
-      <c r="HP16" s="42"/>
-      <c r="HQ16" s="42"/>
-      <c r="HR16" s="42"/>
-      <c r="HS16" s="42"/>
-      <c r="HT16" s="42"/>
-      <c r="HU16" s="42"/>
-      <c r="HV16" s="42"/>
-      <c r="HW16" s="42"/>
-      <c r="HX16" s="42"/>
-      <c r="HY16" s="42"/>
-      <c r="HZ16" s="42"/>
-      <c r="IA16" s="42"/>
-      <c r="IB16" s="42"/>
-      <c r="IC16" s="42"/>
-      <c r="ID16" s="42"/>
-      <c r="IE16" s="42"/>
-      <c r="IF16" s="42"/>
-      <c r="IG16" s="42"/>
-      <c r="IH16" s="42"/>
-      <c r="II16" s="42"/>
-      <c r="IJ16" s="42"/>
-      <c r="IK16" s="42"/>
-      <c r="IL16" s="42"/>
-      <c r="IM16" s="42"/>
-      <c r="IN16" s="42"/>
+      <c r="AX16" s="41"/>
+      <c r="AY16" s="41"/>
+      <c r="AZ16" s="41"/>
+      <c r="BA16" s="41"/>
+      <c r="BB16" s="41"/>
+      <c r="BC16" s="41"/>
+      <c r="BD16" s="41"/>
+      <c r="BE16" s="41"/>
+      <c r="BF16" s="41"/>
+      <c r="BG16" s="41"/>
+      <c r="BH16" s="41"/>
+      <c r="BI16" s="41"/>
+      <c r="BJ16" s="41"/>
+      <c r="BK16" s="41"/>
+      <c r="BL16" s="41"/>
+      <c r="BM16" s="41"/>
+      <c r="BN16" s="41"/>
+      <c r="BO16" s="41"/>
+      <c r="BP16" s="41"/>
+      <c r="BQ16" s="41"/>
+      <c r="BR16" s="41"/>
+      <c r="BS16" s="41"/>
+      <c r="BT16" s="41"/>
+      <c r="BU16" s="41"/>
+      <c r="BV16" s="41"/>
+      <c r="BW16" s="41"/>
+      <c r="BX16" s="41"/>
+      <c r="BY16" s="41"/>
+      <c r="BZ16" s="41"/>
+      <c r="CA16" s="41"/>
+      <c r="CB16" s="41"/>
+      <c r="CC16" s="41"/>
+      <c r="CD16" s="41"/>
+      <c r="CE16" s="41"/>
+      <c r="CF16" s="41"/>
+      <c r="CG16" s="41"/>
+      <c r="CH16" s="41"/>
+      <c r="CI16" s="41"/>
+      <c r="CJ16" s="41"/>
+      <c r="CK16" s="41"/>
+      <c r="CL16" s="41"/>
+      <c r="CM16" s="41"/>
+      <c r="CN16" s="41"/>
+      <c r="CO16" s="41"/>
+      <c r="CP16" s="41"/>
+      <c r="CQ16" s="41"/>
+      <c r="CR16" s="41"/>
+      <c r="CS16" s="41"/>
+      <c r="CT16" s="41"/>
+      <c r="CU16" s="41"/>
+      <c r="CV16" s="41"/>
+      <c r="CW16" s="41"/>
+      <c r="CX16" s="41"/>
+      <c r="CY16" s="41"/>
+      <c r="CZ16" s="41"/>
+      <c r="DA16" s="41"/>
+      <c r="DB16" s="41"/>
+      <c r="DC16" s="41"/>
+      <c r="DD16" s="41"/>
+      <c r="DE16" s="41"/>
+      <c r="DF16" s="41"/>
+      <c r="DG16" s="41"/>
+      <c r="DH16" s="41"/>
+      <c r="DI16" s="41"/>
+      <c r="DJ16" s="41"/>
+      <c r="DK16" s="41"/>
+      <c r="DL16" s="41"/>
+      <c r="DM16" s="41"/>
+      <c r="DN16" s="41"/>
+      <c r="DO16" s="41"/>
+      <c r="DP16" s="41"/>
+      <c r="DQ16" s="41"/>
+      <c r="DR16" s="41"/>
+      <c r="DS16" s="41"/>
+      <c r="DT16" s="41"/>
+      <c r="DU16" s="41"/>
+      <c r="DV16" s="41"/>
+      <c r="DW16" s="41"/>
+      <c r="DX16" s="41"/>
+      <c r="DY16" s="41"/>
+      <c r="DZ16" s="41"/>
+      <c r="EA16" s="41"/>
+      <c r="EB16" s="41"/>
+      <c r="EC16" s="41"/>
+      <c r="ED16" s="41"/>
+      <c r="EE16" s="41"/>
+      <c r="EF16" s="41"/>
+      <c r="EG16" s="41"/>
+      <c r="EH16" s="41"/>
+      <c r="EI16" s="41"/>
+      <c r="EJ16" s="41"/>
+      <c r="EK16" s="41"/>
+      <c r="EL16" s="41"/>
+      <c r="EM16" s="41"/>
+      <c r="EN16" s="41"/>
+      <c r="EO16" s="41"/>
+      <c r="EP16" s="41"/>
+      <c r="EQ16" s="41"/>
+      <c r="ER16" s="41"/>
+      <c r="ES16" s="41"/>
+      <c r="ET16" s="41"/>
+      <c r="EU16" s="41"/>
+      <c r="EV16" s="41"/>
+      <c r="EW16" s="41"/>
+      <c r="EX16" s="41"/>
+      <c r="EY16" s="41"/>
+      <c r="EZ16" s="41"/>
+      <c r="FA16" s="41"/>
+      <c r="FB16" s="41"/>
+      <c r="FC16" s="41"/>
+      <c r="FD16" s="41"/>
+      <c r="FE16" s="41"/>
+      <c r="FF16" s="41"/>
+      <c r="FG16" s="41"/>
+      <c r="FH16" s="41"/>
+      <c r="FI16" s="41"/>
+      <c r="FJ16" s="41"/>
+      <c r="FK16" s="41"/>
+      <c r="FL16" s="41"/>
+      <c r="FM16" s="41"/>
+      <c r="FN16" s="41"/>
+      <c r="FO16" s="41"/>
+      <c r="FP16" s="41"/>
+      <c r="FQ16" s="41"/>
+      <c r="FR16" s="41"/>
+      <c r="FS16" s="41"/>
+      <c r="FT16" s="41"/>
+      <c r="FU16" s="41"/>
+      <c r="FV16" s="41"/>
+      <c r="FW16" s="41"/>
+      <c r="FX16" s="41"/>
+      <c r="FY16" s="41"/>
+      <c r="FZ16" s="41"/>
+      <c r="GA16" s="41"/>
+      <c r="GB16" s="41"/>
+      <c r="GC16" s="41"/>
+      <c r="GD16" s="41"/>
+      <c r="GE16" s="41"/>
+      <c r="GF16" s="41"/>
+      <c r="GG16" s="41"/>
+      <c r="GH16" s="41"/>
+      <c r="GI16" s="41"/>
+      <c r="GJ16" s="41"/>
+      <c r="GK16" s="41"/>
+      <c r="GL16" s="41"/>
+      <c r="GM16" s="41"/>
+      <c r="GN16" s="41"/>
+      <c r="GO16" s="41"/>
+      <c r="GP16" s="41"/>
+      <c r="GQ16" s="41"/>
+      <c r="GR16" s="41"/>
+      <c r="GS16" s="41"/>
+      <c r="GT16" s="41"/>
+      <c r="GU16" s="41"/>
+      <c r="GV16" s="41"/>
+      <c r="GW16" s="41"/>
+      <c r="GX16" s="41"/>
+      <c r="GY16" s="41"/>
+      <c r="GZ16" s="41"/>
+      <c r="HA16" s="41"/>
+      <c r="HB16" s="41"/>
+      <c r="HC16" s="41"/>
+      <c r="HD16" s="41"/>
+      <c r="HE16" s="41"/>
+      <c r="HF16" s="41"/>
+      <c r="HG16" s="41"/>
+      <c r="HH16" s="41"/>
+      <c r="HI16" s="41"/>
+      <c r="HJ16" s="41"/>
+      <c r="HK16" s="41"/>
+      <c r="HL16" s="41"/>
+      <c r="HM16" s="41"/>
+      <c r="HN16" s="41"/>
+      <c r="HO16" s="41"/>
+      <c r="HP16" s="41"/>
+      <c r="HQ16" s="41"/>
+      <c r="HR16" s="41"/>
+      <c r="HS16" s="41"/>
+      <c r="HT16" s="41"/>
+      <c r="HU16" s="41"/>
+      <c r="HV16" s="41"/>
+      <c r="HW16" s="41"/>
+      <c r="HX16" s="41"/>
+      <c r="HY16" s="41"/>
+      <c r="HZ16" s="41"/>
+      <c r="IA16" s="41"/>
+      <c r="IB16" s="41"/>
+      <c r="IC16" s="41"/>
+      <c r="ID16" s="41"/>
+      <c r="IE16" s="41"/>
+      <c r="IF16" s="41"/>
+      <c r="IG16" s="41"/>
+      <c r="IH16" s="41"/>
+      <c r="II16" s="41"/>
+      <c r="IJ16" s="41"/>
+      <c r="IK16" s="41"/>
+      <c r="IL16" s="41"/>
+      <c r="IM16" s="41"/>
+      <c r="IN16" s="41"/>
       <c r="IO16" s="14"/>
       <c r="IP16" s="14"/>
       <c r="IQ16" s="14"/>
@@ -6557,16 +6560,16 @@
       <c r="IX16" s="14"/>
     </row>
     <row r="17" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="37" t="str">
+      <c r="B17" s="64"/>
+      <c r="C17" s="36" t="str">
         <f>C18</f>
         <v>14/12/2021</v>
       </c>
-      <c r="D17" s="38">
-        <f>D26</f>
+      <c r="D17" s="37">
+        <f>D27</f>
         <v>44742</v>
       </c>
       <c r="E17" s="13"/>
@@ -6617,205 +6620,205 @@
       <c r="AU17" s="14"/>
       <c r="AV17" s="14"/>
       <c r="AW17" s="14"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="52"/>
-      <c r="AZ17" s="52"/>
-      <c r="BA17" s="52"/>
-      <c r="BB17" s="52"/>
-      <c r="BC17" s="52"/>
-      <c r="BD17" s="52"/>
-      <c r="BE17" s="52"/>
-      <c r="BF17" s="52"/>
-      <c r="BG17" s="52"/>
-      <c r="BH17" s="52"/>
-      <c r="BI17" s="52"/>
-      <c r="BJ17" s="52"/>
-      <c r="BK17" s="52"/>
-      <c r="BL17" s="52"/>
-      <c r="BM17" s="52"/>
-      <c r="BN17" s="52"/>
-      <c r="BO17" s="52"/>
-      <c r="BP17" s="52"/>
-      <c r="BQ17" s="52"/>
-      <c r="BR17" s="52"/>
-      <c r="BS17" s="52"/>
-      <c r="BT17" s="52"/>
-      <c r="BU17" s="52"/>
-      <c r="BV17" s="52"/>
-      <c r="BW17" s="52"/>
-      <c r="BX17" s="52"/>
-      <c r="BY17" s="52"/>
-      <c r="BZ17" s="52"/>
-      <c r="CA17" s="52"/>
-      <c r="CB17" s="52"/>
-      <c r="CC17" s="52"/>
-      <c r="CD17" s="52"/>
-      <c r="CE17" s="52"/>
-      <c r="CF17" s="52"/>
-      <c r="CG17" s="52"/>
-      <c r="CH17" s="52"/>
-      <c r="CI17" s="52"/>
-      <c r="CJ17" s="52"/>
-      <c r="CK17" s="52"/>
-      <c r="CL17" s="52"/>
-      <c r="CM17" s="52"/>
-      <c r="CN17" s="52"/>
-      <c r="CO17" s="52"/>
-      <c r="CP17" s="52"/>
-      <c r="CQ17" s="52"/>
-      <c r="CR17" s="52"/>
-      <c r="CS17" s="52"/>
-      <c r="CT17" s="52"/>
-      <c r="CU17" s="52"/>
-      <c r="CV17" s="52"/>
-      <c r="CW17" s="52"/>
-      <c r="CX17" s="52"/>
-      <c r="CY17" s="52"/>
-      <c r="CZ17" s="52"/>
-      <c r="DA17" s="52"/>
-      <c r="DB17" s="52"/>
-      <c r="DC17" s="52"/>
-      <c r="DD17" s="52"/>
-      <c r="DE17" s="52"/>
-      <c r="DF17" s="52"/>
-      <c r="DG17" s="52"/>
-      <c r="DH17" s="52"/>
-      <c r="DI17" s="52"/>
-      <c r="DJ17" s="52"/>
-      <c r="DK17" s="52"/>
-      <c r="DL17" s="52"/>
-      <c r="DM17" s="52"/>
-      <c r="DN17" s="52"/>
-      <c r="DO17" s="52"/>
-      <c r="DP17" s="52"/>
-      <c r="DQ17" s="52"/>
-      <c r="DR17" s="52"/>
-      <c r="DS17" s="52"/>
-      <c r="DT17" s="52"/>
-      <c r="DU17" s="52"/>
-      <c r="DV17" s="52"/>
-      <c r="DW17" s="52"/>
-      <c r="DX17" s="52"/>
-      <c r="DY17" s="52"/>
-      <c r="DZ17" s="52"/>
-      <c r="EA17" s="52"/>
-      <c r="EB17" s="52"/>
-      <c r="EC17" s="52"/>
-      <c r="ED17" s="52"/>
-      <c r="EE17" s="52"/>
-      <c r="EF17" s="52"/>
-      <c r="EG17" s="52"/>
-      <c r="EH17" s="52"/>
-      <c r="EI17" s="52"/>
-      <c r="EJ17" s="52"/>
-      <c r="EK17" s="52"/>
-      <c r="EL17" s="52"/>
-      <c r="EM17" s="52"/>
-      <c r="EN17" s="52"/>
-      <c r="EO17" s="52"/>
-      <c r="EP17" s="52"/>
-      <c r="EQ17" s="52"/>
-      <c r="ER17" s="52"/>
-      <c r="ES17" s="52"/>
-      <c r="ET17" s="52"/>
-      <c r="EU17" s="52"/>
-      <c r="EV17" s="52"/>
-      <c r="EW17" s="52"/>
-      <c r="EX17" s="52"/>
-      <c r="EY17" s="52"/>
-      <c r="EZ17" s="52"/>
-      <c r="FA17" s="52"/>
-      <c r="FB17" s="52"/>
-      <c r="FC17" s="52"/>
-      <c r="FD17" s="52"/>
-      <c r="FE17" s="52"/>
-      <c r="FF17" s="52"/>
-      <c r="FG17" s="52"/>
-      <c r="FH17" s="52"/>
-      <c r="FI17" s="52"/>
-      <c r="FJ17" s="52"/>
-      <c r="FK17" s="52"/>
-      <c r="FL17" s="52"/>
-      <c r="FM17" s="52"/>
-      <c r="FN17" s="52"/>
-      <c r="FO17" s="52"/>
-      <c r="FP17" s="52"/>
-      <c r="FQ17" s="52"/>
-      <c r="FR17" s="52"/>
-      <c r="FS17" s="52"/>
-      <c r="FT17" s="52"/>
-      <c r="FU17" s="52"/>
-      <c r="FV17" s="52"/>
-      <c r="FW17" s="52"/>
-      <c r="FX17" s="52"/>
-      <c r="FY17" s="52"/>
-      <c r="FZ17" s="52"/>
-      <c r="GA17" s="52"/>
-      <c r="GB17" s="52"/>
-      <c r="GC17" s="52"/>
-      <c r="GD17" s="52"/>
-      <c r="GE17" s="52"/>
-      <c r="GF17" s="52"/>
-      <c r="GG17" s="52"/>
-      <c r="GH17" s="52"/>
-      <c r="GI17" s="52"/>
-      <c r="GJ17" s="52"/>
-      <c r="GK17" s="52"/>
-      <c r="GL17" s="52"/>
-      <c r="GM17" s="52"/>
-      <c r="GN17" s="52"/>
-      <c r="GO17" s="52"/>
-      <c r="GP17" s="52"/>
-      <c r="GQ17" s="52"/>
-      <c r="GR17" s="52"/>
-      <c r="GS17" s="52"/>
-      <c r="GT17" s="52"/>
-      <c r="GU17" s="52"/>
-      <c r="GV17" s="52"/>
-      <c r="GW17" s="52"/>
-      <c r="GX17" s="52"/>
-      <c r="GY17" s="52"/>
-      <c r="GZ17" s="52"/>
-      <c r="HA17" s="52"/>
-      <c r="HB17" s="52"/>
-      <c r="HC17" s="52"/>
-      <c r="HD17" s="52"/>
-      <c r="HE17" s="52"/>
-      <c r="HF17" s="52"/>
-      <c r="HG17" s="52"/>
-      <c r="HH17" s="52"/>
-      <c r="HI17" s="52"/>
-      <c r="HJ17" s="52"/>
-      <c r="HK17" s="52"/>
-      <c r="HL17" s="52"/>
-      <c r="HM17" s="52"/>
-      <c r="HN17" s="52"/>
-      <c r="HO17" s="52"/>
-      <c r="HP17" s="52"/>
-      <c r="HQ17" s="52"/>
-      <c r="HR17" s="52"/>
-      <c r="HS17" s="52"/>
-      <c r="HT17" s="52"/>
-      <c r="HU17" s="52"/>
-      <c r="HV17" s="52"/>
-      <c r="HW17" s="52"/>
-      <c r="HX17" s="52"/>
-      <c r="HY17" s="52"/>
-      <c r="HZ17" s="52"/>
-      <c r="IA17" s="52"/>
-      <c r="IB17" s="52"/>
-      <c r="IC17" s="52"/>
-      <c r="ID17" s="52"/>
-      <c r="IE17" s="52"/>
-      <c r="IF17" s="52"/>
-      <c r="IG17" s="52"/>
-      <c r="IH17" s="52"/>
-      <c r="II17" s="52"/>
-      <c r="IJ17" s="52"/>
-      <c r="IK17" s="52"/>
-      <c r="IL17" s="52"/>
-      <c r="IM17" s="52"/>
-      <c r="IN17" s="53"/>
+      <c r="AX17" s="50"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="51"/>
+      <c r="BA17" s="51"/>
+      <c r="BB17" s="51"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
+      <c r="BM17" s="51"/>
+      <c r="BN17" s="51"/>
+      <c r="BO17" s="51"/>
+      <c r="BP17" s="51"/>
+      <c r="BQ17" s="51"/>
+      <c r="BR17" s="51"/>
+      <c r="BS17" s="51"/>
+      <c r="BT17" s="51"/>
+      <c r="BU17" s="51"/>
+      <c r="BV17" s="51"/>
+      <c r="BW17" s="51"/>
+      <c r="BX17" s="51"/>
+      <c r="BY17" s="51"/>
+      <c r="BZ17" s="51"/>
+      <c r="CA17" s="51"/>
+      <c r="CB17" s="51"/>
+      <c r="CC17" s="51"/>
+      <c r="CD17" s="51"/>
+      <c r="CE17" s="51"/>
+      <c r="CF17" s="51"/>
+      <c r="CG17" s="51"/>
+      <c r="CH17" s="51"/>
+      <c r="CI17" s="51"/>
+      <c r="CJ17" s="51"/>
+      <c r="CK17" s="51"/>
+      <c r="CL17" s="51"/>
+      <c r="CM17" s="51"/>
+      <c r="CN17" s="51"/>
+      <c r="CO17" s="51"/>
+      <c r="CP17" s="51"/>
+      <c r="CQ17" s="51"/>
+      <c r="CR17" s="51"/>
+      <c r="CS17" s="51"/>
+      <c r="CT17" s="51"/>
+      <c r="CU17" s="51"/>
+      <c r="CV17" s="51"/>
+      <c r="CW17" s="51"/>
+      <c r="CX17" s="51"/>
+      <c r="CY17" s="51"/>
+      <c r="CZ17" s="51"/>
+      <c r="DA17" s="51"/>
+      <c r="DB17" s="51"/>
+      <c r="DC17" s="51"/>
+      <c r="DD17" s="51"/>
+      <c r="DE17" s="51"/>
+      <c r="DF17" s="51"/>
+      <c r="DG17" s="51"/>
+      <c r="DH17" s="51"/>
+      <c r="DI17" s="51"/>
+      <c r="DJ17" s="51"/>
+      <c r="DK17" s="51"/>
+      <c r="DL17" s="51"/>
+      <c r="DM17" s="51"/>
+      <c r="DN17" s="51"/>
+      <c r="DO17" s="51"/>
+      <c r="DP17" s="51"/>
+      <c r="DQ17" s="51"/>
+      <c r="DR17" s="51"/>
+      <c r="DS17" s="51"/>
+      <c r="DT17" s="51"/>
+      <c r="DU17" s="51"/>
+      <c r="DV17" s="51"/>
+      <c r="DW17" s="51"/>
+      <c r="DX17" s="51"/>
+      <c r="DY17" s="51"/>
+      <c r="DZ17" s="51"/>
+      <c r="EA17" s="51"/>
+      <c r="EB17" s="51"/>
+      <c r="EC17" s="51"/>
+      <c r="ED17" s="51"/>
+      <c r="EE17" s="51"/>
+      <c r="EF17" s="51"/>
+      <c r="EG17" s="51"/>
+      <c r="EH17" s="51"/>
+      <c r="EI17" s="51"/>
+      <c r="EJ17" s="51"/>
+      <c r="EK17" s="51"/>
+      <c r="EL17" s="51"/>
+      <c r="EM17" s="51"/>
+      <c r="EN17" s="51"/>
+      <c r="EO17" s="51"/>
+      <c r="EP17" s="51"/>
+      <c r="EQ17" s="51"/>
+      <c r="ER17" s="51"/>
+      <c r="ES17" s="51"/>
+      <c r="ET17" s="51"/>
+      <c r="EU17" s="51"/>
+      <c r="EV17" s="51"/>
+      <c r="EW17" s="51"/>
+      <c r="EX17" s="51"/>
+      <c r="EY17" s="51"/>
+      <c r="EZ17" s="51"/>
+      <c r="FA17" s="51"/>
+      <c r="FB17" s="51"/>
+      <c r="FC17" s="51"/>
+      <c r="FD17" s="51"/>
+      <c r="FE17" s="51"/>
+      <c r="FF17" s="51"/>
+      <c r="FG17" s="51"/>
+      <c r="FH17" s="51"/>
+      <c r="FI17" s="51"/>
+      <c r="FJ17" s="51"/>
+      <c r="FK17" s="51"/>
+      <c r="FL17" s="51"/>
+      <c r="FM17" s="51"/>
+      <c r="FN17" s="51"/>
+      <c r="FO17" s="51"/>
+      <c r="FP17" s="51"/>
+      <c r="FQ17" s="51"/>
+      <c r="FR17" s="51"/>
+      <c r="FS17" s="51"/>
+      <c r="FT17" s="51"/>
+      <c r="FU17" s="51"/>
+      <c r="FV17" s="51"/>
+      <c r="FW17" s="51"/>
+      <c r="FX17" s="51"/>
+      <c r="FY17" s="51"/>
+      <c r="FZ17" s="51"/>
+      <c r="GA17" s="51"/>
+      <c r="GB17" s="51"/>
+      <c r="GC17" s="51"/>
+      <c r="GD17" s="51"/>
+      <c r="GE17" s="51"/>
+      <c r="GF17" s="51"/>
+      <c r="GG17" s="51"/>
+      <c r="GH17" s="51"/>
+      <c r="GI17" s="51"/>
+      <c r="GJ17" s="51"/>
+      <c r="GK17" s="51"/>
+      <c r="GL17" s="51"/>
+      <c r="GM17" s="51"/>
+      <c r="GN17" s="51"/>
+      <c r="GO17" s="51"/>
+      <c r="GP17" s="51"/>
+      <c r="GQ17" s="51"/>
+      <c r="GR17" s="51"/>
+      <c r="GS17" s="51"/>
+      <c r="GT17" s="51"/>
+      <c r="GU17" s="51"/>
+      <c r="GV17" s="51"/>
+      <c r="GW17" s="51"/>
+      <c r="GX17" s="51"/>
+      <c r="GY17" s="51"/>
+      <c r="GZ17" s="51"/>
+      <c r="HA17" s="51"/>
+      <c r="HB17" s="51"/>
+      <c r="HC17" s="51"/>
+      <c r="HD17" s="51"/>
+      <c r="HE17" s="51"/>
+      <c r="HF17" s="51"/>
+      <c r="HG17" s="51"/>
+      <c r="HH17" s="51"/>
+      <c r="HI17" s="51"/>
+      <c r="HJ17" s="51"/>
+      <c r="HK17" s="51"/>
+      <c r="HL17" s="51"/>
+      <c r="HM17" s="51"/>
+      <c r="HN17" s="51"/>
+      <c r="HO17" s="51"/>
+      <c r="HP17" s="51"/>
+      <c r="HQ17" s="51"/>
+      <c r="HR17" s="51"/>
+      <c r="HS17" s="51"/>
+      <c r="HT17" s="51"/>
+      <c r="HU17" s="51"/>
+      <c r="HV17" s="51"/>
+      <c r="HW17" s="51"/>
+      <c r="HX17" s="51"/>
+      <c r="HY17" s="51"/>
+      <c r="HZ17" s="51"/>
+      <c r="IA17" s="51"/>
+      <c r="IB17" s="51"/>
+      <c r="IC17" s="51"/>
+      <c r="ID17" s="51"/>
+      <c r="IE17" s="51"/>
+      <c r="IF17" s="51"/>
+      <c r="IG17" s="51"/>
+      <c r="IH17" s="51"/>
+      <c r="II17" s="51"/>
+      <c r="IJ17" s="51"/>
+      <c r="IK17" s="51"/>
+      <c r="IL17" s="51"/>
+      <c r="IM17" s="51"/>
+      <c r="IN17" s="52"/>
       <c r="IO17" s="14"/>
       <c r="IP17" s="14"/>
       <c r="IQ17" s="14"/>
@@ -6828,14 +6831,14 @@
       <c r="IX17" s="14"/>
     </row>
     <row r="18" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="47" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="38">
         <f>DATE(2022,4,1)</f>
         <v>44652</v>
       </c>
@@ -6887,205 +6890,205 @@
       <c r="AU18" s="14"/>
       <c r="AV18" s="14"/>
       <c r="AW18" s="14"/>
-      <c r="AX18" s="43"/>
-      <c r="AY18" s="43"/>
-      <c r="AZ18" s="43"/>
-      <c r="BA18" s="43"/>
-      <c r="BB18" s="43"/>
-      <c r="BC18" s="43"/>
-      <c r="BD18" s="43"/>
-      <c r="BE18" s="43"/>
-      <c r="BF18" s="43"/>
-      <c r="BG18" s="43"/>
-      <c r="BH18" s="43"/>
-      <c r="BI18" s="43"/>
-      <c r="BJ18" s="43"/>
-      <c r="BK18" s="43"/>
-      <c r="BL18" s="43"/>
-      <c r="BM18" s="43"/>
-      <c r="BN18" s="43"/>
-      <c r="BO18" s="43"/>
-      <c r="BP18" s="43"/>
-      <c r="BQ18" s="43"/>
-      <c r="BR18" s="43"/>
-      <c r="BS18" s="43"/>
-      <c r="BT18" s="43"/>
-      <c r="BU18" s="43"/>
-      <c r="BV18" s="43"/>
-      <c r="BW18" s="43"/>
-      <c r="BX18" s="43"/>
-      <c r="BY18" s="43"/>
-      <c r="BZ18" s="43"/>
-      <c r="CA18" s="43"/>
-      <c r="CB18" s="43"/>
-      <c r="CC18" s="43"/>
-      <c r="CD18" s="43"/>
-      <c r="CE18" s="43"/>
-      <c r="CF18" s="43"/>
-      <c r="CG18" s="43"/>
-      <c r="CH18" s="43"/>
-      <c r="CI18" s="43"/>
-      <c r="CJ18" s="43"/>
-      <c r="CK18" s="43"/>
-      <c r="CL18" s="43"/>
-      <c r="CM18" s="43"/>
-      <c r="CN18" s="43"/>
-      <c r="CO18" s="43"/>
-      <c r="CP18" s="43"/>
-      <c r="CQ18" s="43"/>
-      <c r="CR18" s="43"/>
-      <c r="CS18" s="43"/>
-      <c r="CT18" s="43"/>
-      <c r="CU18" s="43"/>
-      <c r="CV18" s="43"/>
-      <c r="CW18" s="43"/>
-      <c r="CX18" s="43"/>
-      <c r="CY18" s="43"/>
-      <c r="CZ18" s="43"/>
-      <c r="DA18" s="43"/>
-      <c r="DB18" s="43"/>
-      <c r="DC18" s="43"/>
-      <c r="DD18" s="43"/>
-      <c r="DE18" s="43"/>
-      <c r="DF18" s="43"/>
-      <c r="DG18" s="43"/>
-      <c r="DH18" s="43"/>
-      <c r="DI18" s="43"/>
-      <c r="DJ18" s="43"/>
-      <c r="DK18" s="43"/>
-      <c r="DL18" s="43"/>
-      <c r="DM18" s="43"/>
-      <c r="DN18" s="43"/>
-      <c r="DO18" s="43"/>
-      <c r="DP18" s="43"/>
-      <c r="DQ18" s="43"/>
-      <c r="DR18" s="43"/>
-      <c r="DS18" s="43"/>
-      <c r="DT18" s="43"/>
-      <c r="DU18" s="43"/>
-      <c r="DV18" s="43"/>
-      <c r="DW18" s="43"/>
-      <c r="DX18" s="43"/>
-      <c r="DY18" s="43"/>
-      <c r="DZ18" s="43"/>
-      <c r="EA18" s="43"/>
-      <c r="EB18" s="43"/>
-      <c r="EC18" s="43"/>
-      <c r="ED18" s="43"/>
-      <c r="EE18" s="43"/>
-      <c r="EF18" s="43"/>
-      <c r="EG18" s="43"/>
-      <c r="EH18" s="43"/>
-      <c r="EI18" s="43"/>
-      <c r="EJ18" s="43"/>
-      <c r="EK18" s="43"/>
-      <c r="EL18" s="43"/>
-      <c r="EM18" s="43"/>
-      <c r="EN18" s="43"/>
-      <c r="EO18" s="43"/>
-      <c r="EP18" s="43"/>
-      <c r="EQ18" s="43"/>
-      <c r="ER18" s="43"/>
-      <c r="ES18" s="43"/>
-      <c r="ET18" s="43"/>
-      <c r="EU18" s="43"/>
-      <c r="EV18" s="43"/>
-      <c r="EW18" s="43"/>
-      <c r="EX18" s="43"/>
-      <c r="EY18" s="43"/>
-      <c r="EZ18" s="43"/>
-      <c r="FA18" s="43"/>
-      <c r="FB18" s="43"/>
-      <c r="FC18" s="43"/>
-      <c r="FD18" s="43"/>
-      <c r="FE18" s="43"/>
-      <c r="FF18" s="43"/>
-      <c r="FG18" s="43"/>
-      <c r="FH18" s="43"/>
-      <c r="FI18" s="43"/>
-      <c r="FJ18" s="43"/>
-      <c r="FK18" s="43"/>
-      <c r="FL18" s="43"/>
-      <c r="FM18" s="43"/>
-      <c r="FN18" s="43"/>
-      <c r="FO18" s="43"/>
-      <c r="FP18" s="43"/>
-      <c r="FQ18" s="43"/>
-      <c r="FR18" s="43"/>
-      <c r="FS18" s="43"/>
-      <c r="FT18" s="43"/>
-      <c r="FU18" s="43"/>
-      <c r="FV18" s="43"/>
-      <c r="FW18" s="43"/>
-      <c r="FX18" s="43"/>
-      <c r="FY18" s="43"/>
-      <c r="FZ18" s="43"/>
-      <c r="GA18" s="43"/>
-      <c r="GB18" s="43"/>
-      <c r="GC18" s="43"/>
-      <c r="GD18" s="43"/>
-      <c r="GE18" s="43"/>
-      <c r="GF18" s="43"/>
-      <c r="GG18" s="43"/>
-      <c r="GH18" s="43"/>
-      <c r="GI18" s="43"/>
-      <c r="GJ18" s="43"/>
-      <c r="GK18" s="43"/>
-      <c r="GL18" s="43"/>
-      <c r="GM18" s="43"/>
-      <c r="GN18" s="43"/>
-      <c r="GO18" s="43"/>
-      <c r="GP18" s="43"/>
-      <c r="GQ18" s="43"/>
-      <c r="GR18" s="43"/>
-      <c r="GS18" s="43"/>
-      <c r="GT18" s="43"/>
-      <c r="GU18" s="43"/>
-      <c r="GV18" s="43"/>
-      <c r="GW18" s="43"/>
-      <c r="GX18" s="43"/>
-      <c r="GY18" s="43"/>
-      <c r="GZ18" s="43"/>
-      <c r="HA18" s="43"/>
-      <c r="HB18" s="43"/>
-      <c r="HC18" s="43"/>
-      <c r="HD18" s="43"/>
-      <c r="HE18" s="43"/>
-      <c r="HF18" s="43"/>
-      <c r="HG18" s="43"/>
-      <c r="HH18" s="43"/>
-      <c r="HI18" s="43"/>
-      <c r="HJ18" s="43"/>
-      <c r="HK18" s="43"/>
-      <c r="HL18" s="43"/>
-      <c r="HM18" s="43"/>
-      <c r="HN18" s="43"/>
-      <c r="HO18" s="43"/>
-      <c r="HP18" s="43"/>
-      <c r="HQ18" s="43"/>
-      <c r="HR18" s="43"/>
-      <c r="HS18" s="43"/>
-      <c r="HT18" s="43"/>
-      <c r="HU18" s="43"/>
-      <c r="HV18" s="43"/>
-      <c r="HW18" s="43"/>
-      <c r="HX18" s="43"/>
-      <c r="HY18" s="43"/>
-      <c r="HZ18" s="43"/>
-      <c r="IA18" s="43"/>
-      <c r="IB18" s="43"/>
-      <c r="IC18" s="43"/>
-      <c r="ID18" s="43"/>
-      <c r="IE18" s="43"/>
-      <c r="IF18" s="43"/>
-      <c r="IG18" s="43"/>
-      <c r="IH18" s="43"/>
-      <c r="II18" s="43"/>
-      <c r="IJ18" s="43"/>
-      <c r="IK18" s="43"/>
-      <c r="IL18" s="43"/>
-      <c r="IM18" s="43"/>
-      <c r="IN18" s="43"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="42"/>
+      <c r="BG18" s="42"/>
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="42"/>
+      <c r="BJ18" s="42"/>
+      <c r="BK18" s="42"/>
+      <c r="BL18" s="42"/>
+      <c r="BM18" s="42"/>
+      <c r="BN18" s="42"/>
+      <c r="BO18" s="42"/>
+      <c r="BP18" s="42"/>
+      <c r="BQ18" s="42"/>
+      <c r="BR18" s="42"/>
+      <c r="BS18" s="42"/>
+      <c r="BT18" s="42"/>
+      <c r="BU18" s="42"/>
+      <c r="BV18" s="42"/>
+      <c r="BW18" s="42"/>
+      <c r="BX18" s="42"/>
+      <c r="BY18" s="42"/>
+      <c r="BZ18" s="42"/>
+      <c r="CA18" s="42"/>
+      <c r="CB18" s="42"/>
+      <c r="CC18" s="42"/>
+      <c r="CD18" s="42"/>
+      <c r="CE18" s="42"/>
+      <c r="CF18" s="42"/>
+      <c r="CG18" s="42"/>
+      <c r="CH18" s="42"/>
+      <c r="CI18" s="42"/>
+      <c r="CJ18" s="42"/>
+      <c r="CK18" s="42"/>
+      <c r="CL18" s="42"/>
+      <c r="CM18" s="42"/>
+      <c r="CN18" s="42"/>
+      <c r="CO18" s="42"/>
+      <c r="CP18" s="42"/>
+      <c r="CQ18" s="42"/>
+      <c r="CR18" s="42"/>
+      <c r="CS18" s="42"/>
+      <c r="CT18" s="42"/>
+      <c r="CU18" s="42"/>
+      <c r="CV18" s="42"/>
+      <c r="CW18" s="42"/>
+      <c r="CX18" s="42"/>
+      <c r="CY18" s="42"/>
+      <c r="CZ18" s="42"/>
+      <c r="DA18" s="42"/>
+      <c r="DB18" s="42"/>
+      <c r="DC18" s="42"/>
+      <c r="DD18" s="42"/>
+      <c r="DE18" s="42"/>
+      <c r="DF18" s="42"/>
+      <c r="DG18" s="42"/>
+      <c r="DH18" s="42"/>
+      <c r="DI18" s="42"/>
+      <c r="DJ18" s="42"/>
+      <c r="DK18" s="42"/>
+      <c r="DL18" s="42"/>
+      <c r="DM18" s="42"/>
+      <c r="DN18" s="42"/>
+      <c r="DO18" s="42"/>
+      <c r="DP18" s="42"/>
+      <c r="DQ18" s="42"/>
+      <c r="DR18" s="42"/>
+      <c r="DS18" s="42"/>
+      <c r="DT18" s="42"/>
+      <c r="DU18" s="42"/>
+      <c r="DV18" s="42"/>
+      <c r="DW18" s="42"/>
+      <c r="DX18" s="42"/>
+      <c r="DY18" s="42"/>
+      <c r="DZ18" s="42"/>
+      <c r="EA18" s="42"/>
+      <c r="EB18" s="42"/>
+      <c r="EC18" s="42"/>
+      <c r="ED18" s="42"/>
+      <c r="EE18" s="42"/>
+      <c r="EF18" s="42"/>
+      <c r="EG18" s="42"/>
+      <c r="EH18" s="42"/>
+      <c r="EI18" s="42"/>
+      <c r="EJ18" s="42"/>
+      <c r="EK18" s="42"/>
+      <c r="EL18" s="42"/>
+      <c r="EM18" s="42"/>
+      <c r="EN18" s="42"/>
+      <c r="EO18" s="42"/>
+      <c r="EP18" s="42"/>
+      <c r="EQ18" s="42"/>
+      <c r="ER18" s="42"/>
+      <c r="ES18" s="42"/>
+      <c r="ET18" s="42"/>
+      <c r="EU18" s="42"/>
+      <c r="EV18" s="42"/>
+      <c r="EW18" s="42"/>
+      <c r="EX18" s="42"/>
+      <c r="EY18" s="42"/>
+      <c r="EZ18" s="42"/>
+      <c r="FA18" s="42"/>
+      <c r="FB18" s="42"/>
+      <c r="FC18" s="42"/>
+      <c r="FD18" s="42"/>
+      <c r="FE18" s="42"/>
+      <c r="FF18" s="42"/>
+      <c r="FG18" s="42"/>
+      <c r="FH18" s="42"/>
+      <c r="FI18" s="42"/>
+      <c r="FJ18" s="42"/>
+      <c r="FK18" s="42"/>
+      <c r="FL18" s="42"/>
+      <c r="FM18" s="42"/>
+      <c r="FN18" s="42"/>
+      <c r="FO18" s="42"/>
+      <c r="FP18" s="42"/>
+      <c r="FQ18" s="42"/>
+      <c r="FR18" s="42"/>
+      <c r="FS18" s="42"/>
+      <c r="FT18" s="42"/>
+      <c r="FU18" s="42"/>
+      <c r="FV18" s="42"/>
+      <c r="FW18" s="42"/>
+      <c r="FX18" s="42"/>
+      <c r="FY18" s="42"/>
+      <c r="FZ18" s="42"/>
+      <c r="GA18" s="42"/>
+      <c r="GB18" s="42"/>
+      <c r="GC18" s="42"/>
+      <c r="GD18" s="42"/>
+      <c r="GE18" s="42"/>
+      <c r="GF18" s="42"/>
+      <c r="GG18" s="42"/>
+      <c r="GH18" s="42"/>
+      <c r="GI18" s="42"/>
+      <c r="GJ18" s="42"/>
+      <c r="GK18" s="42"/>
+      <c r="GL18" s="42"/>
+      <c r="GM18" s="42"/>
+      <c r="GN18" s="42"/>
+      <c r="GO18" s="42"/>
+      <c r="GP18" s="42"/>
+      <c r="GQ18" s="42"/>
+      <c r="GR18" s="42"/>
+      <c r="GS18" s="42"/>
+      <c r="GT18" s="42"/>
+      <c r="GU18" s="42"/>
+      <c r="GV18" s="42"/>
+      <c r="GW18" s="42"/>
+      <c r="GX18" s="42"/>
+      <c r="GY18" s="42"/>
+      <c r="GZ18" s="42"/>
+      <c r="HA18" s="42"/>
+      <c r="HB18" s="42"/>
+      <c r="HC18" s="42"/>
+      <c r="HD18" s="42"/>
+      <c r="HE18" s="42"/>
+      <c r="HF18" s="42"/>
+      <c r="HG18" s="42"/>
+      <c r="HH18" s="42"/>
+      <c r="HI18" s="42"/>
+      <c r="HJ18" s="42"/>
+      <c r="HK18" s="42"/>
+      <c r="HL18" s="42"/>
+      <c r="HM18" s="42"/>
+      <c r="HN18" s="42"/>
+      <c r="HO18" s="42"/>
+      <c r="HP18" s="42"/>
+      <c r="HQ18" s="42"/>
+      <c r="HR18" s="42"/>
+      <c r="HS18" s="42"/>
+      <c r="HT18" s="42"/>
+      <c r="HU18" s="42"/>
+      <c r="HV18" s="42"/>
+      <c r="HW18" s="42"/>
+      <c r="HX18" s="42"/>
+      <c r="HY18" s="42"/>
+      <c r="HZ18" s="42"/>
+      <c r="IA18" s="42"/>
+      <c r="IB18" s="42"/>
+      <c r="IC18" s="42"/>
+      <c r="ID18" s="42"/>
+      <c r="IE18" s="42"/>
+      <c r="IF18" s="42"/>
+      <c r="IG18" s="42"/>
+      <c r="IH18" s="42"/>
+      <c r="II18" s="42"/>
+      <c r="IJ18" s="42"/>
+      <c r="IK18" s="42"/>
+      <c r="IL18" s="42"/>
+      <c r="IM18" s="42"/>
+      <c r="IN18" s="42"/>
       <c r="IO18" s="14"/>
       <c r="IP18" s="14"/>
       <c r="IQ18" s="14"/>
@@ -8449,7 +8452,10 @@
         <f>DATE(2022,3,22)</f>
         <v>44642</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="33">
+        <f>DATE(2022,3,28)</f>
+        <v>44648</v>
+      </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
@@ -8706,15 +8712,15 @@
       <c r="IX24" s="14"/>
     </row>
     <row r="25" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="24">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57">
         <f>DATE(2022,4,1)</f>
         <v>44652</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="57">
         <f>DATE(2022,6,30)</f>
         <v>44742</v>
       </c>
@@ -8974,18 +8980,10 @@
       <c r="IX25" s="14"/>
     </row>
     <row r="26" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="24">
-        <f>DATE(2022,2,21)</f>
-        <v>44613</v>
-      </c>
-      <c r="D26" s="24">
-        <f>DATE(2022,6,30)</f>
-        <v>44742</v>
-      </c>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
@@ -9243,22 +9241,19 @@
     </row>
     <row r="27" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="66" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B27" s="66"/>
-      <c r="C27" s="36">
-        <f>DATE(2022,1,1)</f>
-        <v>44562</v>
-      </c>
-      <c r="D27" s="36">
-        <f>DATE(2022,1,23)</f>
-        <v>44584</v>
+      <c r="C27" s="24">
+        <f>DATE(2022,2,21)</f>
+        <v>44613</v>
+      </c>
+      <c r="D27" s="24">
+        <f>DATE(2022,6,30)</f>
+        <v>44742</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="13">
-        <f t="shared" si="156"/>
-        <v>23</v>
-      </c>
+      <c r="F27" s="13"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -9273,235 +9268,235 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="42"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-      <c r="AT27" s="42"/>
-      <c r="AU27" s="42"/>
-      <c r="AV27" s="42"/>
-      <c r="AW27" s="42"/>
-      <c r="AX27" s="42"/>
-      <c r="AY27" s="42"/>
-      <c r="AZ27" s="42"/>
-      <c r="BA27" s="42"/>
-      <c r="BB27" s="42"/>
-      <c r="BC27" s="42"/>
-      <c r="BD27" s="42"/>
-      <c r="BE27" s="42"/>
-      <c r="BF27" s="42"/>
-      <c r="BG27" s="42"/>
-      <c r="BH27" s="42"/>
-      <c r="BI27" s="42"/>
-      <c r="BJ27" s="42"/>
-      <c r="BK27" s="42"/>
-      <c r="BL27" s="42"/>
-      <c r="BM27" s="42"/>
-      <c r="BN27" s="42"/>
-      <c r="BO27" s="42"/>
-      <c r="BP27" s="42"/>
-      <c r="BQ27" s="42"/>
-      <c r="BR27" s="42"/>
-      <c r="BS27" s="42"/>
-      <c r="BT27" s="42"/>
-      <c r="BU27" s="42"/>
-      <c r="BV27" s="42"/>
-      <c r="BW27" s="42"/>
-      <c r="BX27" s="42"/>
-      <c r="BY27" s="42"/>
-      <c r="BZ27" s="42"/>
-      <c r="CA27" s="42"/>
-      <c r="CB27" s="42"/>
-      <c r="CC27" s="42"/>
-      <c r="CD27" s="42"/>
-      <c r="CE27" s="42"/>
-      <c r="CF27" s="42"/>
-      <c r="CG27" s="42"/>
-      <c r="CH27" s="42"/>
-      <c r="CI27" s="42"/>
-      <c r="CJ27" s="42"/>
-      <c r="CK27" s="42"/>
-      <c r="CL27" s="42"/>
-      <c r="CM27" s="42"/>
-      <c r="CN27" s="42"/>
-      <c r="CO27" s="42"/>
-      <c r="CP27" s="42"/>
-      <c r="CQ27" s="42"/>
-      <c r="CR27" s="42"/>
-      <c r="CS27" s="42"/>
-      <c r="CT27" s="42"/>
-      <c r="CU27" s="42"/>
-      <c r="CV27" s="42"/>
-      <c r="CW27" s="42"/>
-      <c r="CX27" s="42"/>
-      <c r="CY27" s="42"/>
-      <c r="CZ27" s="42"/>
-      <c r="DA27" s="42"/>
-      <c r="DB27" s="42"/>
-      <c r="DC27" s="42"/>
-      <c r="DD27" s="42"/>
-      <c r="DE27" s="42"/>
-      <c r="DF27" s="42"/>
-      <c r="DG27" s="42"/>
-      <c r="DH27" s="42"/>
-      <c r="DI27" s="42"/>
-      <c r="DJ27" s="42"/>
-      <c r="DK27" s="42"/>
-      <c r="DL27" s="42"/>
-      <c r="DM27" s="42"/>
-      <c r="DN27" s="42"/>
-      <c r="DO27" s="42"/>
-      <c r="DP27" s="42"/>
-      <c r="DQ27" s="42"/>
-      <c r="DR27" s="42"/>
-      <c r="DS27" s="42"/>
-      <c r="DT27" s="42"/>
-      <c r="DU27" s="42"/>
-      <c r="DV27" s="42"/>
-      <c r="DW27" s="42"/>
-      <c r="DX27" s="42"/>
-      <c r="DY27" s="42"/>
-      <c r="DZ27" s="42"/>
-      <c r="EA27" s="42"/>
-      <c r="EB27" s="42"/>
-      <c r="EC27" s="42"/>
-      <c r="ED27" s="42"/>
-      <c r="EE27" s="42"/>
-      <c r="EF27" s="42"/>
-      <c r="EG27" s="42"/>
-      <c r="EH27" s="42"/>
-      <c r="EI27" s="42"/>
-      <c r="EJ27" s="42"/>
-      <c r="EK27" s="42"/>
-      <c r="EL27" s="42"/>
-      <c r="EM27" s="42"/>
-      <c r="EN27" s="42"/>
-      <c r="EO27" s="42"/>
-      <c r="EP27" s="42"/>
-      <c r="EQ27" s="42"/>
-      <c r="ER27" s="42"/>
-      <c r="ES27" s="42"/>
-      <c r="ET27" s="42"/>
-      <c r="EU27" s="42"/>
-      <c r="EV27" s="42"/>
-      <c r="EW27" s="42"/>
-      <c r="EX27" s="42"/>
-      <c r="EY27" s="42"/>
-      <c r="EZ27" s="42"/>
-      <c r="FA27" s="42"/>
-      <c r="FB27" s="42"/>
-      <c r="FC27" s="42"/>
-      <c r="FD27" s="42"/>
-      <c r="FE27" s="42"/>
-      <c r="FF27" s="42"/>
-      <c r="FG27" s="42"/>
-      <c r="FH27" s="42"/>
-      <c r="FI27" s="42"/>
-      <c r="FJ27" s="42"/>
-      <c r="FK27" s="42"/>
-      <c r="FL27" s="42"/>
-      <c r="FM27" s="42"/>
-      <c r="FN27" s="42"/>
-      <c r="FO27" s="42"/>
-      <c r="FP27" s="42"/>
-      <c r="FQ27" s="42"/>
-      <c r="FR27" s="42"/>
-      <c r="FS27" s="42"/>
-      <c r="FT27" s="42"/>
-      <c r="FU27" s="42"/>
-      <c r="FV27" s="42"/>
-      <c r="FW27" s="42"/>
-      <c r="FX27" s="42"/>
-      <c r="FY27" s="42"/>
-      <c r="FZ27" s="42"/>
-      <c r="GA27" s="42"/>
-      <c r="GB27" s="42"/>
-      <c r="GC27" s="42"/>
-      <c r="GD27" s="42"/>
-      <c r="GE27" s="42"/>
-      <c r="GF27" s="42"/>
-      <c r="GG27" s="42"/>
-      <c r="GH27" s="42"/>
-      <c r="GI27" s="42"/>
-      <c r="GJ27" s="42"/>
-      <c r="GK27" s="42"/>
-      <c r="GL27" s="42"/>
-      <c r="GM27" s="42"/>
-      <c r="GN27" s="42"/>
-      <c r="GO27" s="42"/>
-      <c r="GP27" s="42"/>
-      <c r="GQ27" s="42"/>
-      <c r="GR27" s="42"/>
-      <c r="GS27" s="42"/>
-      <c r="GT27" s="42"/>
-      <c r="GU27" s="42"/>
-      <c r="GV27" s="42"/>
-      <c r="GW27" s="42"/>
-      <c r="GX27" s="42"/>
-      <c r="GY27" s="42"/>
-      <c r="GZ27" s="42"/>
-      <c r="HA27" s="42"/>
-      <c r="HB27" s="42"/>
-      <c r="HC27" s="42"/>
-      <c r="HD27" s="42"/>
-      <c r="HE27" s="42"/>
-      <c r="HF27" s="42"/>
-      <c r="HG27" s="42"/>
-      <c r="HH27" s="42"/>
-      <c r="HI27" s="42"/>
-      <c r="HJ27" s="42"/>
-      <c r="HK27" s="42"/>
-      <c r="HL27" s="42"/>
-      <c r="HM27" s="42"/>
-      <c r="HN27" s="42"/>
-      <c r="HO27" s="42"/>
-      <c r="HP27" s="42"/>
-      <c r="HQ27" s="42"/>
-      <c r="HR27" s="42"/>
-      <c r="HS27" s="42"/>
-      <c r="HT27" s="42"/>
-      <c r="HU27" s="42"/>
-      <c r="HV27" s="42"/>
-      <c r="HW27" s="42"/>
-      <c r="HX27" s="42"/>
-      <c r="HY27" s="42"/>
-      <c r="HZ27" s="42"/>
-      <c r="IA27" s="42"/>
-      <c r="IB27" s="42"/>
-      <c r="IC27" s="42"/>
-      <c r="ID27" s="42"/>
-      <c r="IE27" s="42"/>
-      <c r="IF27" s="42"/>
-      <c r="IG27" s="42"/>
-      <c r="IH27" s="42"/>
-      <c r="II27" s="42"/>
-      <c r="IJ27" s="42"/>
-      <c r="IK27" s="42"/>
-      <c r="IL27" s="42"/>
-      <c r="IM27" s="42"/>
-      <c r="IN27" s="42"/>
-      <c r="IO27" s="42"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="14"/>
+      <c r="BA27" s="14"/>
+      <c r="BB27" s="14"/>
+      <c r="BC27" s="14"/>
+      <c r="BD27" s="14"/>
+      <c r="BE27" s="14"/>
+      <c r="BF27" s="14"/>
+      <c r="BG27" s="14"/>
+      <c r="BH27" s="14"/>
+      <c r="BI27" s="14"/>
+      <c r="BJ27" s="14"/>
+      <c r="BK27" s="14"/>
+      <c r="BL27" s="14"/>
+      <c r="BM27" s="14"/>
+      <c r="BN27" s="14"/>
+      <c r="BO27" s="14"/>
+      <c r="BP27" s="14"/>
+      <c r="BQ27" s="14"/>
+      <c r="BR27" s="14"/>
+      <c r="BS27" s="14"/>
+      <c r="BT27" s="14"/>
+      <c r="BU27" s="14"/>
+      <c r="BV27" s="14"/>
+      <c r="BW27" s="14"/>
+      <c r="BX27" s="14"/>
+      <c r="BY27" s="14"/>
+      <c r="BZ27" s="14"/>
+      <c r="CA27" s="14"/>
+      <c r="CB27" s="14"/>
+      <c r="CC27" s="14"/>
+      <c r="CD27" s="14"/>
+      <c r="CE27" s="14"/>
+      <c r="CF27" s="14"/>
+      <c r="CG27" s="14"/>
+      <c r="CH27" s="14"/>
+      <c r="CI27" s="14"/>
+      <c r="CJ27" s="14"/>
+      <c r="CK27" s="14"/>
+      <c r="CL27" s="14"/>
+      <c r="CM27" s="14"/>
+      <c r="CN27" s="14"/>
+      <c r="CO27" s="14"/>
+      <c r="CP27" s="14"/>
+      <c r="CQ27" s="14"/>
+      <c r="CR27" s="14"/>
+      <c r="CS27" s="14"/>
+      <c r="CT27" s="14"/>
+      <c r="CU27" s="14"/>
+      <c r="CV27" s="14"/>
+      <c r="CW27" s="14"/>
+      <c r="CX27" s="14"/>
+      <c r="CY27" s="14"/>
+      <c r="CZ27" s="14"/>
+      <c r="DA27" s="14"/>
+      <c r="DB27" s="14"/>
+      <c r="DC27" s="14"/>
+      <c r="DD27" s="14"/>
+      <c r="DE27" s="14"/>
+      <c r="DF27" s="14"/>
+      <c r="DG27" s="14"/>
+      <c r="DH27" s="14"/>
+      <c r="DI27" s="14"/>
+      <c r="DJ27" s="14"/>
+      <c r="DK27" s="14"/>
+      <c r="DL27" s="14"/>
+      <c r="DM27" s="14"/>
+      <c r="DN27" s="14"/>
+      <c r="DO27" s="14"/>
+      <c r="DP27" s="14"/>
+      <c r="DQ27" s="14"/>
+      <c r="DR27" s="14"/>
+      <c r="DS27" s="14"/>
+      <c r="DT27" s="14"/>
+      <c r="DU27" s="14"/>
+      <c r="DV27" s="14"/>
+      <c r="DW27" s="14"/>
+      <c r="DX27" s="14"/>
+      <c r="DY27" s="14"/>
+      <c r="DZ27" s="14"/>
+      <c r="EA27" s="14"/>
+      <c r="EB27" s="14"/>
+      <c r="EC27" s="14"/>
+      <c r="ED27" s="14"/>
+      <c r="EE27" s="14"/>
+      <c r="EF27" s="14"/>
+      <c r="EG27" s="14"/>
+      <c r="EH27" s="14"/>
+      <c r="EI27" s="14"/>
+      <c r="EJ27" s="14"/>
+      <c r="EK27" s="14"/>
+      <c r="EL27" s="14"/>
+      <c r="EM27" s="14"/>
+      <c r="EN27" s="14"/>
+      <c r="EO27" s="14"/>
+      <c r="EP27" s="14"/>
+      <c r="EQ27" s="14"/>
+      <c r="ER27" s="14"/>
+      <c r="ES27" s="14"/>
+      <c r="ET27" s="14"/>
+      <c r="EU27" s="14"/>
+      <c r="EV27" s="14"/>
+      <c r="EW27" s="14"/>
+      <c r="EX27" s="14"/>
+      <c r="EY27" s="14"/>
+      <c r="EZ27" s="14"/>
+      <c r="FA27" s="14"/>
+      <c r="FB27" s="14"/>
+      <c r="FC27" s="14"/>
+      <c r="FD27" s="14"/>
+      <c r="FE27" s="14"/>
+      <c r="FF27" s="14"/>
+      <c r="FG27" s="14"/>
+      <c r="FH27" s="14"/>
+      <c r="FI27" s="14"/>
+      <c r="FJ27" s="14"/>
+      <c r="FK27" s="14"/>
+      <c r="FL27" s="14"/>
+      <c r="FM27" s="14"/>
+      <c r="FN27" s="14"/>
+      <c r="FO27" s="14"/>
+      <c r="FP27" s="14"/>
+      <c r="FQ27" s="14"/>
+      <c r="FR27" s="14"/>
+      <c r="FS27" s="14"/>
+      <c r="FT27" s="14"/>
+      <c r="FU27" s="14"/>
+      <c r="FV27" s="14"/>
+      <c r="FW27" s="14"/>
+      <c r="FX27" s="14"/>
+      <c r="FY27" s="14"/>
+      <c r="FZ27" s="14"/>
+      <c r="GA27" s="14"/>
+      <c r="GB27" s="14"/>
+      <c r="GC27" s="14"/>
+      <c r="GD27" s="14"/>
+      <c r="GE27" s="14"/>
+      <c r="GF27" s="14"/>
+      <c r="GG27" s="14"/>
+      <c r="GH27" s="14"/>
+      <c r="GI27" s="14"/>
+      <c r="GJ27" s="14"/>
+      <c r="GK27" s="14"/>
+      <c r="GL27" s="14"/>
+      <c r="GM27" s="14"/>
+      <c r="GN27" s="14"/>
+      <c r="GO27" s="14"/>
+      <c r="GP27" s="14"/>
+      <c r="GQ27" s="14"/>
+      <c r="GR27" s="14"/>
+      <c r="GS27" s="14"/>
+      <c r="GT27" s="14"/>
+      <c r="GU27" s="14"/>
+      <c r="GV27" s="14"/>
+      <c r="GW27" s="14"/>
+      <c r="GX27" s="14"/>
+      <c r="GY27" s="14"/>
+      <c r="GZ27" s="14"/>
+      <c r="HA27" s="14"/>
+      <c r="HB27" s="14"/>
+      <c r="HC27" s="14"/>
+      <c r="HD27" s="14"/>
+      <c r="HE27" s="14"/>
+      <c r="HF27" s="14"/>
+      <c r="HG27" s="14"/>
+      <c r="HH27" s="14"/>
+      <c r="HI27" s="14"/>
+      <c r="HJ27" s="14"/>
+      <c r="HK27" s="14"/>
+      <c r="HL27" s="14"/>
+      <c r="HM27" s="14"/>
+      <c r="HN27" s="14"/>
+      <c r="HO27" s="14"/>
+      <c r="HP27" s="14"/>
+      <c r="HQ27" s="14"/>
+      <c r="HR27" s="14"/>
+      <c r="HS27" s="14"/>
+      <c r="HT27" s="14"/>
+      <c r="HU27" s="14"/>
+      <c r="HV27" s="14"/>
+      <c r="HW27" s="14"/>
+      <c r="HX27" s="14"/>
+      <c r="HY27" s="14"/>
+      <c r="HZ27" s="14"/>
+      <c r="IA27" s="14"/>
+      <c r="IB27" s="14"/>
+      <c r="IC27" s="14"/>
+      <c r="ID27" s="14"/>
+      <c r="IE27" s="14"/>
+      <c r="IF27" s="14"/>
+      <c r="IG27" s="14"/>
+      <c r="IH27" s="14"/>
+      <c r="II27" s="14"/>
+      <c r="IJ27" s="14"/>
+      <c r="IK27" s="14"/>
+      <c r="IL27" s="14"/>
+      <c r="IM27" s="14"/>
+      <c r="IN27" s="14"/>
+      <c r="IO27" s="14"/>
       <c r="IP27" s="14"/>
       <c r="IQ27" s="14"/>
       <c r="IR27" s="14"/>
@@ -9514,19 +9509,21 @@
     </row>
     <row r="28" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="B28" s="67"/>
+      <c r="C28" s="35">
+        <f>DATE(2022,1,1)</f>
+        <v>44562</v>
+      </c>
+      <c r="D28" s="35">
+        <f>DATE(2022,1,23)</f>
+        <v>44584</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13">
         <f t="shared" si="156"/>
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -9541,237 +9538,237 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
-      <c r="AR28" s="56"/>
-      <c r="AS28" s="56"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="56"/>
-      <c r="AV28" s="56"/>
-      <c r="AW28" s="56"/>
-      <c r="AX28" s="56"/>
-      <c r="AY28" s="56"/>
-      <c r="AZ28" s="56"/>
-      <c r="BA28" s="56"/>
-      <c r="BB28" s="56"/>
-      <c r="BC28" s="56"/>
-      <c r="BD28" s="56"/>
-      <c r="BE28" s="56"/>
-      <c r="BF28" s="56"/>
-      <c r="BG28" s="56"/>
-      <c r="BH28" s="56"/>
-      <c r="BI28" s="56"/>
-      <c r="BJ28" s="56"/>
-      <c r="BK28" s="56"/>
-      <c r="BL28" s="56"/>
-      <c r="BM28" s="56"/>
-      <c r="BN28" s="56"/>
-      <c r="BO28" s="56"/>
-      <c r="BP28" s="56"/>
-      <c r="BQ28" s="56"/>
-      <c r="BR28" s="56"/>
-      <c r="BS28" s="56"/>
-      <c r="BT28" s="56"/>
-      <c r="BU28" s="56"/>
-      <c r="BV28" s="56"/>
-      <c r="BW28" s="56"/>
-      <c r="BX28" s="56"/>
-      <c r="BY28" s="56"/>
-      <c r="BZ28" s="56"/>
-      <c r="CA28" s="56"/>
-      <c r="CB28" s="56"/>
-      <c r="CC28" s="56"/>
-      <c r="CD28" s="56"/>
-      <c r="CE28" s="56"/>
-      <c r="CF28" s="56"/>
-      <c r="CG28" s="56"/>
-      <c r="CH28" s="56"/>
-      <c r="CI28" s="56"/>
-      <c r="CJ28" s="56"/>
-      <c r="CK28" s="56"/>
-      <c r="CL28" s="56"/>
-      <c r="CM28" s="56"/>
-      <c r="CN28" s="56"/>
-      <c r="CO28" s="56"/>
-      <c r="CP28" s="56"/>
-      <c r="CQ28" s="56"/>
-      <c r="CR28" s="56"/>
-      <c r="CS28" s="56"/>
-      <c r="CT28" s="56"/>
-      <c r="CU28" s="56"/>
-      <c r="CV28" s="56"/>
-      <c r="CW28" s="56"/>
-      <c r="CX28" s="56"/>
-      <c r="CY28" s="56"/>
-      <c r="CZ28" s="56"/>
-      <c r="DA28" s="56"/>
-      <c r="DB28" s="56"/>
-      <c r="DC28" s="56"/>
-      <c r="DD28" s="56"/>
-      <c r="DE28" s="56"/>
-      <c r="DF28" s="56"/>
-      <c r="DG28" s="56"/>
-      <c r="DH28" s="56"/>
-      <c r="DI28" s="56"/>
-      <c r="DJ28" s="56"/>
-      <c r="DK28" s="56"/>
-      <c r="DL28" s="56"/>
-      <c r="DM28" s="56"/>
-      <c r="DN28" s="56"/>
-      <c r="DO28" s="56"/>
-      <c r="DP28" s="56"/>
-      <c r="DQ28" s="56"/>
-      <c r="DR28" s="56"/>
-      <c r="DS28" s="56"/>
-      <c r="DT28" s="56"/>
-      <c r="DU28" s="56"/>
-      <c r="DV28" s="56"/>
-      <c r="DW28" s="56"/>
-      <c r="DX28" s="56"/>
-      <c r="DY28" s="56"/>
-      <c r="DZ28" s="56"/>
-      <c r="EA28" s="56"/>
-      <c r="EB28" s="56"/>
-      <c r="EC28" s="56"/>
-      <c r="ED28" s="56"/>
-      <c r="EE28" s="56"/>
-      <c r="EF28" s="56"/>
-      <c r="EG28" s="56"/>
-      <c r="EH28" s="56"/>
-      <c r="EI28" s="56"/>
-      <c r="EJ28" s="56"/>
-      <c r="EK28" s="56"/>
-      <c r="EL28" s="56"/>
-      <c r="EM28" s="56"/>
-      <c r="EN28" s="56"/>
-      <c r="EO28" s="56"/>
-      <c r="EP28" s="56"/>
-      <c r="EQ28" s="56"/>
-      <c r="ER28" s="56"/>
-      <c r="ES28" s="56"/>
-      <c r="ET28" s="56"/>
-      <c r="EU28" s="56"/>
-      <c r="EV28" s="56"/>
-      <c r="EW28" s="56"/>
-      <c r="EX28" s="56"/>
-      <c r="EY28" s="56"/>
-      <c r="EZ28" s="56"/>
-      <c r="FA28" s="56"/>
-      <c r="FB28" s="56"/>
-      <c r="FC28" s="56"/>
-      <c r="FD28" s="56"/>
-      <c r="FE28" s="56"/>
-      <c r="FF28" s="56"/>
-      <c r="FG28" s="56"/>
-      <c r="FH28" s="56"/>
-      <c r="FI28" s="56"/>
-      <c r="FJ28" s="56"/>
-      <c r="FK28" s="56"/>
-      <c r="FL28" s="56"/>
-      <c r="FM28" s="56"/>
-      <c r="FN28" s="56"/>
-      <c r="FO28" s="56"/>
-      <c r="FP28" s="56"/>
-      <c r="FQ28" s="56"/>
-      <c r="FR28" s="56"/>
-      <c r="FS28" s="56"/>
-      <c r="FT28" s="56"/>
-      <c r="FU28" s="56"/>
-      <c r="FV28" s="56"/>
-      <c r="FW28" s="56"/>
-      <c r="FX28" s="56"/>
-      <c r="FY28" s="56"/>
-      <c r="FZ28" s="56"/>
-      <c r="GA28" s="56"/>
-      <c r="GB28" s="56"/>
-      <c r="GC28" s="56"/>
-      <c r="GD28" s="56"/>
-      <c r="GE28" s="56"/>
-      <c r="GF28" s="56"/>
-      <c r="GG28" s="56"/>
-      <c r="GH28" s="56"/>
-      <c r="GI28" s="56"/>
-      <c r="GJ28" s="56"/>
-      <c r="GK28" s="56"/>
-      <c r="GL28" s="56"/>
-      <c r="GM28" s="56"/>
-      <c r="GN28" s="56"/>
-      <c r="GO28" s="56"/>
-      <c r="GP28" s="56"/>
-      <c r="GQ28" s="56"/>
-      <c r="GR28" s="56"/>
-      <c r="GS28" s="56"/>
-      <c r="GT28" s="56"/>
-      <c r="GU28" s="56"/>
-      <c r="GV28" s="56"/>
-      <c r="GW28" s="56"/>
-      <c r="GX28" s="56"/>
-      <c r="GY28" s="56"/>
-      <c r="GZ28" s="56"/>
-      <c r="HA28" s="56"/>
-      <c r="HB28" s="56"/>
-      <c r="HC28" s="56"/>
-      <c r="HD28" s="56"/>
-      <c r="HE28" s="56"/>
-      <c r="HF28" s="56"/>
-      <c r="HG28" s="56"/>
-      <c r="HH28" s="56"/>
-      <c r="HI28" s="56"/>
-      <c r="HJ28" s="56"/>
-      <c r="HK28" s="56"/>
-      <c r="HL28" s="56"/>
-      <c r="HM28" s="56"/>
-      <c r="HN28" s="56"/>
-      <c r="HO28" s="56"/>
-      <c r="HP28" s="56"/>
-      <c r="HQ28" s="56"/>
-      <c r="HR28" s="56"/>
-      <c r="HS28" s="56"/>
-      <c r="HT28" s="56"/>
-      <c r="HU28" s="56"/>
-      <c r="HV28" s="56"/>
-      <c r="HW28" s="56"/>
-      <c r="HX28" s="56"/>
-      <c r="HY28" s="56"/>
-      <c r="HZ28" s="56"/>
-      <c r="IA28" s="56"/>
-      <c r="IB28" s="56"/>
-      <c r="IC28" s="56"/>
-      <c r="ID28" s="56"/>
-      <c r="IE28" s="56"/>
-      <c r="IF28" s="56"/>
-      <c r="IG28" s="56"/>
-      <c r="IH28" s="56"/>
-      <c r="II28" s="56"/>
-      <c r="IJ28" s="56"/>
-      <c r="IK28" s="56"/>
-      <c r="IL28" s="56"/>
-      <c r="IM28" s="56"/>
-      <c r="IN28" s="56"/>
-      <c r="IO28" s="56"/>
-      <c r="IP28" s="41"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="41"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+      <c r="AK28" s="41"/>
+      <c r="AL28" s="41"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="41"/>
+      <c r="AP28" s="41"/>
+      <c r="AQ28" s="41"/>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="41"/>
+      <c r="AT28" s="41"/>
+      <c r="AU28" s="41"/>
+      <c r="AV28" s="41"/>
+      <c r="AW28" s="41"/>
+      <c r="AX28" s="41"/>
+      <c r="AY28" s="41"/>
+      <c r="AZ28" s="41"/>
+      <c r="BA28" s="41"/>
+      <c r="BB28" s="41"/>
+      <c r="BC28" s="41"/>
+      <c r="BD28" s="41"/>
+      <c r="BE28" s="41"/>
+      <c r="BF28" s="41"/>
+      <c r="BG28" s="41"/>
+      <c r="BH28" s="41"/>
+      <c r="BI28" s="41"/>
+      <c r="BJ28" s="41"/>
+      <c r="BK28" s="41"/>
+      <c r="BL28" s="41"/>
+      <c r="BM28" s="41"/>
+      <c r="BN28" s="41"/>
+      <c r="BO28" s="41"/>
+      <c r="BP28" s="41"/>
+      <c r="BQ28" s="41"/>
+      <c r="BR28" s="41"/>
+      <c r="BS28" s="41"/>
+      <c r="BT28" s="41"/>
+      <c r="BU28" s="41"/>
+      <c r="BV28" s="41"/>
+      <c r="BW28" s="41"/>
+      <c r="BX28" s="41"/>
+      <c r="BY28" s="41"/>
+      <c r="BZ28" s="41"/>
+      <c r="CA28" s="41"/>
+      <c r="CB28" s="41"/>
+      <c r="CC28" s="41"/>
+      <c r="CD28" s="41"/>
+      <c r="CE28" s="41"/>
+      <c r="CF28" s="41"/>
+      <c r="CG28" s="41"/>
+      <c r="CH28" s="41"/>
+      <c r="CI28" s="41"/>
+      <c r="CJ28" s="41"/>
+      <c r="CK28" s="41"/>
+      <c r="CL28" s="41"/>
+      <c r="CM28" s="41"/>
+      <c r="CN28" s="41"/>
+      <c r="CO28" s="41"/>
+      <c r="CP28" s="41"/>
+      <c r="CQ28" s="41"/>
+      <c r="CR28" s="41"/>
+      <c r="CS28" s="41"/>
+      <c r="CT28" s="41"/>
+      <c r="CU28" s="41"/>
+      <c r="CV28" s="41"/>
+      <c r="CW28" s="41"/>
+      <c r="CX28" s="41"/>
+      <c r="CY28" s="41"/>
+      <c r="CZ28" s="41"/>
+      <c r="DA28" s="41"/>
+      <c r="DB28" s="41"/>
+      <c r="DC28" s="41"/>
+      <c r="DD28" s="41"/>
+      <c r="DE28" s="41"/>
+      <c r="DF28" s="41"/>
+      <c r="DG28" s="41"/>
+      <c r="DH28" s="41"/>
+      <c r="DI28" s="41"/>
+      <c r="DJ28" s="41"/>
+      <c r="DK28" s="41"/>
+      <c r="DL28" s="41"/>
+      <c r="DM28" s="41"/>
+      <c r="DN28" s="41"/>
+      <c r="DO28" s="41"/>
+      <c r="DP28" s="41"/>
+      <c r="DQ28" s="41"/>
+      <c r="DR28" s="41"/>
+      <c r="DS28" s="41"/>
+      <c r="DT28" s="41"/>
+      <c r="DU28" s="41"/>
+      <c r="DV28" s="41"/>
+      <c r="DW28" s="41"/>
+      <c r="DX28" s="41"/>
+      <c r="DY28" s="41"/>
+      <c r="DZ28" s="41"/>
+      <c r="EA28" s="41"/>
+      <c r="EB28" s="41"/>
+      <c r="EC28" s="41"/>
+      <c r="ED28" s="41"/>
+      <c r="EE28" s="41"/>
+      <c r="EF28" s="41"/>
+      <c r="EG28" s="41"/>
+      <c r="EH28" s="41"/>
+      <c r="EI28" s="41"/>
+      <c r="EJ28" s="41"/>
+      <c r="EK28" s="41"/>
+      <c r="EL28" s="41"/>
+      <c r="EM28" s="41"/>
+      <c r="EN28" s="41"/>
+      <c r="EO28" s="41"/>
+      <c r="EP28" s="41"/>
+      <c r="EQ28" s="41"/>
+      <c r="ER28" s="41"/>
+      <c r="ES28" s="41"/>
+      <c r="ET28" s="41"/>
+      <c r="EU28" s="41"/>
+      <c r="EV28" s="41"/>
+      <c r="EW28" s="41"/>
+      <c r="EX28" s="41"/>
+      <c r="EY28" s="41"/>
+      <c r="EZ28" s="41"/>
+      <c r="FA28" s="41"/>
+      <c r="FB28" s="41"/>
+      <c r="FC28" s="41"/>
+      <c r="FD28" s="41"/>
+      <c r="FE28" s="41"/>
+      <c r="FF28" s="41"/>
+      <c r="FG28" s="41"/>
+      <c r="FH28" s="41"/>
+      <c r="FI28" s="41"/>
+      <c r="FJ28" s="41"/>
+      <c r="FK28" s="41"/>
+      <c r="FL28" s="41"/>
+      <c r="FM28" s="41"/>
+      <c r="FN28" s="41"/>
+      <c r="FO28" s="41"/>
+      <c r="FP28" s="41"/>
+      <c r="FQ28" s="41"/>
+      <c r="FR28" s="41"/>
+      <c r="FS28" s="41"/>
+      <c r="FT28" s="41"/>
+      <c r="FU28" s="41"/>
+      <c r="FV28" s="41"/>
+      <c r="FW28" s="41"/>
+      <c r="FX28" s="41"/>
+      <c r="FY28" s="41"/>
+      <c r="FZ28" s="41"/>
+      <c r="GA28" s="41"/>
+      <c r="GB28" s="41"/>
+      <c r="GC28" s="41"/>
+      <c r="GD28" s="41"/>
+      <c r="GE28" s="41"/>
+      <c r="GF28" s="41"/>
+      <c r="GG28" s="41"/>
+      <c r="GH28" s="41"/>
+      <c r="GI28" s="41"/>
+      <c r="GJ28" s="41"/>
+      <c r="GK28" s="41"/>
+      <c r="GL28" s="41"/>
+      <c r="GM28" s="41"/>
+      <c r="GN28" s="41"/>
+      <c r="GO28" s="41"/>
+      <c r="GP28" s="41"/>
+      <c r="GQ28" s="41"/>
+      <c r="GR28" s="41"/>
+      <c r="GS28" s="41"/>
+      <c r="GT28" s="41"/>
+      <c r="GU28" s="41"/>
+      <c r="GV28" s="41"/>
+      <c r="GW28" s="41"/>
+      <c r="GX28" s="41"/>
+      <c r="GY28" s="41"/>
+      <c r="GZ28" s="41"/>
+      <c r="HA28" s="41"/>
+      <c r="HB28" s="41"/>
+      <c r="HC28" s="41"/>
+      <c r="HD28" s="41"/>
+      <c r="HE28" s="41"/>
+      <c r="HF28" s="41"/>
+      <c r="HG28" s="41"/>
+      <c r="HH28" s="41"/>
+      <c r="HI28" s="41"/>
+      <c r="HJ28" s="41"/>
+      <c r="HK28" s="41"/>
+      <c r="HL28" s="41"/>
+      <c r="HM28" s="41"/>
+      <c r="HN28" s="41"/>
+      <c r="HO28" s="41"/>
+      <c r="HP28" s="41"/>
+      <c r="HQ28" s="41"/>
+      <c r="HR28" s="41"/>
+      <c r="HS28" s="41"/>
+      <c r="HT28" s="41"/>
+      <c r="HU28" s="41"/>
+      <c r="HV28" s="41"/>
+      <c r="HW28" s="41"/>
+      <c r="HX28" s="41"/>
+      <c r="HY28" s="41"/>
+      <c r="HZ28" s="41"/>
+      <c r="IA28" s="41"/>
+      <c r="IB28" s="41"/>
+      <c r="IC28" s="41"/>
+      <c r="ID28" s="41"/>
+      <c r="IE28" s="41"/>
+      <c r="IF28" s="41"/>
+      <c r="IG28" s="41"/>
+      <c r="IH28" s="41"/>
+      <c r="II28" s="41"/>
+      <c r="IJ28" s="41"/>
+      <c r="IK28" s="41"/>
+      <c r="IL28" s="41"/>
+      <c r="IM28" s="41"/>
+      <c r="IN28" s="41"/>
+      <c r="IO28" s="41"/>
+      <c r="IP28" s="14"/>
       <c r="IQ28" s="14"/>
       <c r="IR28" s="14"/>
       <c r="IS28" s="14"/>
@@ -9782,22 +9779,20 @@
       <c r="IX28" s="14"/>
     </row>
     <row r="29" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="35">
-        <f>DATE(2022,1,23)</f>
-        <v>44584</v>
-      </c>
-      <c r="D29" s="35">
-        <f>DATE(2022,2,13)</f>
-        <v>44605</v>
+      <c r="A29" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="69"/>
+      <c r="C29" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13">
         <f t="shared" si="156"/>
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -9812,237 +9807,237 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="43"/>
-      <c r="AH29" s="43"/>
-      <c r="AI29" s="43"/>
-      <c r="AJ29" s="43"/>
-      <c r="AK29" s="43"/>
-      <c r="AL29" s="43"/>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="43"/>
-      <c r="AO29" s="43"/>
-      <c r="AP29" s="43"/>
-      <c r="AQ29" s="43"/>
-      <c r="AR29" s="43"/>
-      <c r="AS29" s="43"/>
-      <c r="AT29" s="43"/>
-      <c r="AU29" s="43"/>
-      <c r="AV29" s="43"/>
-      <c r="AW29" s="43"/>
-      <c r="AX29" s="43"/>
-      <c r="AY29" s="43"/>
-      <c r="AZ29" s="43"/>
-      <c r="BA29" s="43"/>
-      <c r="BB29" s="43"/>
-      <c r="BC29" s="43"/>
-      <c r="BD29" s="43"/>
-      <c r="BE29" s="43"/>
-      <c r="BF29" s="43"/>
-      <c r="BG29" s="43"/>
-      <c r="BH29" s="43"/>
-      <c r="BI29" s="43"/>
-      <c r="BJ29" s="43"/>
-      <c r="BK29" s="43"/>
-      <c r="BL29" s="43"/>
-      <c r="BM29" s="43"/>
-      <c r="BN29" s="43"/>
-      <c r="BO29" s="43"/>
-      <c r="BP29" s="43"/>
-      <c r="BQ29" s="43"/>
-      <c r="BR29" s="43"/>
-      <c r="BS29" s="43"/>
-      <c r="BT29" s="43"/>
-      <c r="BU29" s="43"/>
-      <c r="BV29" s="43"/>
-      <c r="BW29" s="43"/>
-      <c r="BX29" s="43"/>
-      <c r="BY29" s="43"/>
-      <c r="BZ29" s="43"/>
-      <c r="CA29" s="43"/>
-      <c r="CB29" s="43"/>
-      <c r="CC29" s="43"/>
-      <c r="CD29" s="43"/>
-      <c r="CE29" s="43"/>
-      <c r="CF29" s="43"/>
-      <c r="CG29" s="43"/>
-      <c r="CH29" s="43"/>
-      <c r="CI29" s="43"/>
-      <c r="CJ29" s="43"/>
-      <c r="CK29" s="43"/>
-      <c r="CL29" s="43"/>
-      <c r="CM29" s="43"/>
-      <c r="CN29" s="43"/>
-      <c r="CO29" s="43"/>
-      <c r="CP29" s="43"/>
-      <c r="CQ29" s="43"/>
-      <c r="CR29" s="43"/>
-      <c r="CS29" s="43"/>
-      <c r="CT29" s="43"/>
-      <c r="CU29" s="43"/>
-      <c r="CV29" s="43"/>
-      <c r="CW29" s="43"/>
-      <c r="CX29" s="43"/>
-      <c r="CY29" s="43"/>
-      <c r="CZ29" s="43"/>
-      <c r="DA29" s="43"/>
-      <c r="DB29" s="43"/>
-      <c r="DC29" s="43"/>
-      <c r="DD29" s="43"/>
-      <c r="DE29" s="43"/>
-      <c r="DF29" s="43"/>
-      <c r="DG29" s="43"/>
-      <c r="DH29" s="43"/>
-      <c r="DI29" s="43"/>
-      <c r="DJ29" s="43"/>
-      <c r="DK29" s="43"/>
-      <c r="DL29" s="43"/>
-      <c r="DM29" s="43"/>
-      <c r="DN29" s="43"/>
-      <c r="DO29" s="43"/>
-      <c r="DP29" s="43"/>
-      <c r="DQ29" s="43"/>
-      <c r="DR29" s="43"/>
-      <c r="DS29" s="43"/>
-      <c r="DT29" s="43"/>
-      <c r="DU29" s="43"/>
-      <c r="DV29" s="43"/>
-      <c r="DW29" s="43"/>
-      <c r="DX29" s="43"/>
-      <c r="DY29" s="43"/>
-      <c r="DZ29" s="43"/>
-      <c r="EA29" s="43"/>
-      <c r="EB29" s="43"/>
-      <c r="EC29" s="43"/>
-      <c r="ED29" s="43"/>
-      <c r="EE29" s="43"/>
-      <c r="EF29" s="43"/>
-      <c r="EG29" s="43"/>
-      <c r="EH29" s="43"/>
-      <c r="EI29" s="43"/>
-      <c r="EJ29" s="43"/>
-      <c r="EK29" s="43"/>
-      <c r="EL29" s="43"/>
-      <c r="EM29" s="43"/>
-      <c r="EN29" s="43"/>
-      <c r="EO29" s="43"/>
-      <c r="EP29" s="43"/>
-      <c r="EQ29" s="43"/>
-      <c r="ER29" s="43"/>
-      <c r="ES29" s="43"/>
-      <c r="ET29" s="43"/>
-      <c r="EU29" s="43"/>
-      <c r="EV29" s="43"/>
-      <c r="EW29" s="43"/>
-      <c r="EX29" s="43"/>
-      <c r="EY29" s="43"/>
-      <c r="EZ29" s="43"/>
-      <c r="FA29" s="43"/>
-      <c r="FB29" s="43"/>
-      <c r="FC29" s="43"/>
-      <c r="FD29" s="43"/>
-      <c r="FE29" s="43"/>
-      <c r="FF29" s="43"/>
-      <c r="FG29" s="43"/>
-      <c r="FH29" s="43"/>
-      <c r="FI29" s="43"/>
-      <c r="FJ29" s="43"/>
-      <c r="FK29" s="43"/>
-      <c r="FL29" s="43"/>
-      <c r="FM29" s="43"/>
-      <c r="FN29" s="43"/>
-      <c r="FO29" s="43"/>
-      <c r="FP29" s="43"/>
-      <c r="FQ29" s="43"/>
-      <c r="FR29" s="43"/>
-      <c r="FS29" s="43"/>
-      <c r="FT29" s="43"/>
-      <c r="FU29" s="43"/>
-      <c r="FV29" s="43"/>
-      <c r="FW29" s="43"/>
-      <c r="FX29" s="43"/>
-      <c r="FY29" s="43"/>
-      <c r="FZ29" s="43"/>
-      <c r="GA29" s="43"/>
-      <c r="GB29" s="43"/>
-      <c r="GC29" s="43"/>
-      <c r="GD29" s="43"/>
-      <c r="GE29" s="43"/>
-      <c r="GF29" s="43"/>
-      <c r="GG29" s="43"/>
-      <c r="GH29" s="43"/>
-      <c r="GI29" s="43"/>
-      <c r="GJ29" s="43"/>
-      <c r="GK29" s="43"/>
-      <c r="GL29" s="43"/>
-      <c r="GM29" s="43"/>
-      <c r="GN29" s="43"/>
-      <c r="GO29" s="43"/>
-      <c r="GP29" s="43"/>
-      <c r="GQ29" s="43"/>
-      <c r="GR29" s="43"/>
-      <c r="GS29" s="43"/>
-      <c r="GT29" s="43"/>
-      <c r="GU29" s="43"/>
-      <c r="GV29" s="43"/>
-      <c r="GW29" s="43"/>
-      <c r="GX29" s="43"/>
-      <c r="GY29" s="43"/>
-      <c r="GZ29" s="43"/>
-      <c r="HA29" s="43"/>
-      <c r="HB29" s="43"/>
-      <c r="HC29" s="43"/>
-      <c r="HD29" s="43"/>
-      <c r="HE29" s="43"/>
-      <c r="HF29" s="43"/>
-      <c r="HG29" s="43"/>
-      <c r="HH29" s="43"/>
-      <c r="HI29" s="43"/>
-      <c r="HJ29" s="43"/>
-      <c r="HK29" s="43"/>
-      <c r="HL29" s="43"/>
-      <c r="HM29" s="43"/>
-      <c r="HN29" s="43"/>
-      <c r="HO29" s="43"/>
-      <c r="HP29" s="43"/>
-      <c r="HQ29" s="43"/>
-      <c r="HR29" s="43"/>
-      <c r="HS29" s="43"/>
-      <c r="HT29" s="43"/>
-      <c r="HU29" s="43"/>
-      <c r="HV29" s="43"/>
-      <c r="HW29" s="43"/>
-      <c r="HX29" s="43"/>
-      <c r="HY29" s="43"/>
-      <c r="HZ29" s="43"/>
-      <c r="IA29" s="43"/>
-      <c r="IB29" s="43"/>
-      <c r="IC29" s="43"/>
-      <c r="ID29" s="43"/>
-      <c r="IE29" s="43"/>
-      <c r="IF29" s="43"/>
-      <c r="IG29" s="43"/>
-      <c r="IH29" s="43"/>
-      <c r="II29" s="43"/>
-      <c r="IJ29" s="43"/>
-      <c r="IK29" s="43"/>
-      <c r="IL29" s="43"/>
-      <c r="IM29" s="43"/>
-      <c r="IN29" s="43"/>
-      <c r="IO29" s="43"/>
-      <c r="IP29" s="14"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="55"/>
+      <c r="AO29" s="55"/>
+      <c r="AP29" s="55"/>
+      <c r="AQ29" s="55"/>
+      <c r="AR29" s="55"/>
+      <c r="AS29" s="55"/>
+      <c r="AT29" s="55"/>
+      <c r="AU29" s="55"/>
+      <c r="AV29" s="55"/>
+      <c r="AW29" s="55"/>
+      <c r="AX29" s="55"/>
+      <c r="AY29" s="55"/>
+      <c r="AZ29" s="55"/>
+      <c r="BA29" s="55"/>
+      <c r="BB29" s="55"/>
+      <c r="BC29" s="55"/>
+      <c r="BD29" s="55"/>
+      <c r="BE29" s="55"/>
+      <c r="BF29" s="55"/>
+      <c r="BG29" s="55"/>
+      <c r="BH29" s="55"/>
+      <c r="BI29" s="55"/>
+      <c r="BJ29" s="55"/>
+      <c r="BK29" s="55"/>
+      <c r="BL29" s="55"/>
+      <c r="BM29" s="55"/>
+      <c r="BN29" s="55"/>
+      <c r="BO29" s="55"/>
+      <c r="BP29" s="55"/>
+      <c r="BQ29" s="55"/>
+      <c r="BR29" s="55"/>
+      <c r="BS29" s="55"/>
+      <c r="BT29" s="55"/>
+      <c r="BU29" s="55"/>
+      <c r="BV29" s="55"/>
+      <c r="BW29" s="55"/>
+      <c r="BX29" s="55"/>
+      <c r="BY29" s="55"/>
+      <c r="BZ29" s="55"/>
+      <c r="CA29" s="55"/>
+      <c r="CB29" s="55"/>
+      <c r="CC29" s="55"/>
+      <c r="CD29" s="55"/>
+      <c r="CE29" s="55"/>
+      <c r="CF29" s="55"/>
+      <c r="CG29" s="55"/>
+      <c r="CH29" s="55"/>
+      <c r="CI29" s="55"/>
+      <c r="CJ29" s="55"/>
+      <c r="CK29" s="55"/>
+      <c r="CL29" s="55"/>
+      <c r="CM29" s="55"/>
+      <c r="CN29" s="55"/>
+      <c r="CO29" s="55"/>
+      <c r="CP29" s="55"/>
+      <c r="CQ29" s="55"/>
+      <c r="CR29" s="55"/>
+      <c r="CS29" s="55"/>
+      <c r="CT29" s="55"/>
+      <c r="CU29" s="55"/>
+      <c r="CV29" s="55"/>
+      <c r="CW29" s="55"/>
+      <c r="CX29" s="55"/>
+      <c r="CY29" s="55"/>
+      <c r="CZ29" s="55"/>
+      <c r="DA29" s="55"/>
+      <c r="DB29" s="55"/>
+      <c r="DC29" s="55"/>
+      <c r="DD29" s="55"/>
+      <c r="DE29" s="55"/>
+      <c r="DF29" s="55"/>
+      <c r="DG29" s="55"/>
+      <c r="DH29" s="55"/>
+      <c r="DI29" s="55"/>
+      <c r="DJ29" s="55"/>
+      <c r="DK29" s="55"/>
+      <c r="DL29" s="55"/>
+      <c r="DM29" s="55"/>
+      <c r="DN29" s="55"/>
+      <c r="DO29" s="55"/>
+      <c r="DP29" s="55"/>
+      <c r="DQ29" s="55"/>
+      <c r="DR29" s="55"/>
+      <c r="DS29" s="55"/>
+      <c r="DT29" s="55"/>
+      <c r="DU29" s="55"/>
+      <c r="DV29" s="55"/>
+      <c r="DW29" s="55"/>
+      <c r="DX29" s="55"/>
+      <c r="DY29" s="55"/>
+      <c r="DZ29" s="55"/>
+      <c r="EA29" s="55"/>
+      <c r="EB29" s="55"/>
+      <c r="EC29" s="55"/>
+      <c r="ED29" s="55"/>
+      <c r="EE29" s="55"/>
+      <c r="EF29" s="55"/>
+      <c r="EG29" s="55"/>
+      <c r="EH29" s="55"/>
+      <c r="EI29" s="55"/>
+      <c r="EJ29" s="55"/>
+      <c r="EK29" s="55"/>
+      <c r="EL29" s="55"/>
+      <c r="EM29" s="55"/>
+      <c r="EN29" s="55"/>
+      <c r="EO29" s="55"/>
+      <c r="EP29" s="55"/>
+      <c r="EQ29" s="55"/>
+      <c r="ER29" s="55"/>
+      <c r="ES29" s="55"/>
+      <c r="ET29" s="55"/>
+      <c r="EU29" s="55"/>
+      <c r="EV29" s="55"/>
+      <c r="EW29" s="55"/>
+      <c r="EX29" s="55"/>
+      <c r="EY29" s="55"/>
+      <c r="EZ29" s="55"/>
+      <c r="FA29" s="55"/>
+      <c r="FB29" s="55"/>
+      <c r="FC29" s="55"/>
+      <c r="FD29" s="55"/>
+      <c r="FE29" s="55"/>
+      <c r="FF29" s="55"/>
+      <c r="FG29" s="55"/>
+      <c r="FH29" s="55"/>
+      <c r="FI29" s="55"/>
+      <c r="FJ29" s="55"/>
+      <c r="FK29" s="55"/>
+      <c r="FL29" s="55"/>
+      <c r="FM29" s="55"/>
+      <c r="FN29" s="55"/>
+      <c r="FO29" s="55"/>
+      <c r="FP29" s="55"/>
+      <c r="FQ29" s="55"/>
+      <c r="FR29" s="55"/>
+      <c r="FS29" s="55"/>
+      <c r="FT29" s="55"/>
+      <c r="FU29" s="55"/>
+      <c r="FV29" s="55"/>
+      <c r="FW29" s="55"/>
+      <c r="FX29" s="55"/>
+      <c r="FY29" s="55"/>
+      <c r="FZ29" s="55"/>
+      <c r="GA29" s="55"/>
+      <c r="GB29" s="55"/>
+      <c r="GC29" s="55"/>
+      <c r="GD29" s="55"/>
+      <c r="GE29" s="55"/>
+      <c r="GF29" s="55"/>
+      <c r="GG29" s="55"/>
+      <c r="GH29" s="55"/>
+      <c r="GI29" s="55"/>
+      <c r="GJ29" s="55"/>
+      <c r="GK29" s="55"/>
+      <c r="GL29" s="55"/>
+      <c r="GM29" s="55"/>
+      <c r="GN29" s="55"/>
+      <c r="GO29" s="55"/>
+      <c r="GP29" s="55"/>
+      <c r="GQ29" s="55"/>
+      <c r="GR29" s="55"/>
+      <c r="GS29" s="55"/>
+      <c r="GT29" s="55"/>
+      <c r="GU29" s="55"/>
+      <c r="GV29" s="55"/>
+      <c r="GW29" s="55"/>
+      <c r="GX29" s="55"/>
+      <c r="GY29" s="55"/>
+      <c r="GZ29" s="55"/>
+      <c r="HA29" s="55"/>
+      <c r="HB29" s="55"/>
+      <c r="HC29" s="55"/>
+      <c r="HD29" s="55"/>
+      <c r="HE29" s="55"/>
+      <c r="HF29" s="55"/>
+      <c r="HG29" s="55"/>
+      <c r="HH29" s="55"/>
+      <c r="HI29" s="55"/>
+      <c r="HJ29" s="55"/>
+      <c r="HK29" s="55"/>
+      <c r="HL29" s="55"/>
+      <c r="HM29" s="55"/>
+      <c r="HN29" s="55"/>
+      <c r="HO29" s="55"/>
+      <c r="HP29" s="55"/>
+      <c r="HQ29" s="55"/>
+      <c r="HR29" s="55"/>
+      <c r="HS29" s="55"/>
+      <c r="HT29" s="55"/>
+      <c r="HU29" s="55"/>
+      <c r="HV29" s="55"/>
+      <c r="HW29" s="55"/>
+      <c r="HX29" s="55"/>
+      <c r="HY29" s="55"/>
+      <c r="HZ29" s="55"/>
+      <c r="IA29" s="55"/>
+      <c r="IB29" s="55"/>
+      <c r="IC29" s="55"/>
+      <c r="ID29" s="55"/>
+      <c r="IE29" s="55"/>
+      <c r="IF29" s="55"/>
+      <c r="IG29" s="55"/>
+      <c r="IH29" s="55"/>
+      <c r="II29" s="55"/>
+      <c r="IJ29" s="55"/>
+      <c r="IK29" s="55"/>
+      <c r="IL29" s="55"/>
+      <c r="IM29" s="55"/>
+      <c r="IN29" s="55"/>
+      <c r="IO29" s="55"/>
+      <c r="IP29" s="40"/>
       <c r="IQ29" s="14"/>
       <c r="IR29" s="14"/>
       <c r="IS29" s="14"/>
@@ -10054,21 +10049,21 @@
     </row>
     <row r="30" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="65"/>
-      <c r="C30" s="24">
-        <f>DATE(2021,11,15)</f>
-        <v>44515</v>
-      </c>
-      <c r="D30" s="24">
-        <f>DATE(2022,1,31)</f>
-        <v>44592</v>
+      <c r="C30" s="34">
+        <f>DATE(2022,1,23)</f>
+        <v>44584</v>
+      </c>
+      <c r="D30" s="34">
+        <f>DATE(2022,2,13)</f>
+        <v>44605</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13">
         <f t="shared" si="156"/>
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -10084,235 +10079,235 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="14"/>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="14"/>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="14"/>
-      <c r="AS30" s="14"/>
-      <c r="AT30" s="14"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="14"/>
-      <c r="AW30" s="14"/>
-      <c r="AX30" s="14"/>
-      <c r="AY30" s="14"/>
-      <c r="AZ30" s="14"/>
-      <c r="BA30" s="14"/>
-      <c r="BB30" s="14"/>
-      <c r="BC30" s="14"/>
-      <c r="BD30" s="14"/>
-      <c r="BE30" s="14"/>
-      <c r="BF30" s="14"/>
-      <c r="BG30" s="14"/>
-      <c r="BH30" s="14"/>
-      <c r="BI30" s="14"/>
-      <c r="BJ30" s="14"/>
-      <c r="BK30" s="14"/>
-      <c r="BL30" s="14"/>
-      <c r="BM30" s="14"/>
-      <c r="BN30" s="14"/>
-      <c r="BO30" s="14"/>
-      <c r="BP30" s="14"/>
-      <c r="BQ30" s="14"/>
-      <c r="BR30" s="14"/>
-      <c r="BS30" s="14"/>
-      <c r="BT30" s="14"/>
-      <c r="BU30" s="14"/>
-      <c r="BV30" s="14"/>
-      <c r="BW30" s="14"/>
-      <c r="BX30" s="14"/>
-      <c r="BY30" s="14"/>
-      <c r="BZ30" s="14"/>
-      <c r="CA30" s="14"/>
-      <c r="CB30" s="14"/>
-      <c r="CC30" s="14"/>
-      <c r="CD30" s="14"/>
-      <c r="CE30" s="14"/>
-      <c r="CF30" s="14"/>
-      <c r="CG30" s="14"/>
-      <c r="CH30" s="14"/>
-      <c r="CI30" s="14"/>
-      <c r="CJ30" s="14"/>
-      <c r="CK30" s="14"/>
-      <c r="CL30" s="14"/>
-      <c r="CM30" s="14"/>
-      <c r="CN30" s="14"/>
-      <c r="CO30" s="14"/>
-      <c r="CP30" s="14"/>
-      <c r="CQ30" s="14"/>
-      <c r="CR30" s="14"/>
-      <c r="CS30" s="14"/>
-      <c r="CT30" s="14"/>
-      <c r="CU30" s="14"/>
-      <c r="CV30" s="14"/>
-      <c r="CW30" s="14"/>
-      <c r="CX30" s="14"/>
-      <c r="CY30" s="14"/>
-      <c r="CZ30" s="14"/>
-      <c r="DA30" s="14"/>
-      <c r="DB30" s="14"/>
-      <c r="DC30" s="14"/>
-      <c r="DD30" s="14"/>
-      <c r="DE30" s="14"/>
-      <c r="DF30" s="14"/>
-      <c r="DG30" s="14"/>
-      <c r="DH30" s="14"/>
-      <c r="DI30" s="14"/>
-      <c r="DJ30" s="14"/>
-      <c r="DK30" s="14"/>
-      <c r="DL30" s="14"/>
-      <c r="DM30" s="14"/>
-      <c r="DN30" s="14"/>
-      <c r="DO30" s="14"/>
-      <c r="DP30" s="14"/>
-      <c r="DQ30" s="14"/>
-      <c r="DR30" s="14"/>
-      <c r="DS30" s="14"/>
-      <c r="DT30" s="14"/>
-      <c r="DU30" s="14"/>
-      <c r="DV30" s="14"/>
-      <c r="DW30" s="14"/>
-      <c r="DX30" s="14"/>
-      <c r="DY30" s="14"/>
-      <c r="DZ30" s="14"/>
-      <c r="EA30" s="14"/>
-      <c r="EB30" s="14"/>
-      <c r="EC30" s="14"/>
-      <c r="ED30" s="14"/>
-      <c r="EE30" s="14"/>
-      <c r="EF30" s="14"/>
-      <c r="EG30" s="14"/>
-      <c r="EH30" s="14"/>
-      <c r="EI30" s="14"/>
-      <c r="EJ30" s="14"/>
-      <c r="EK30" s="14"/>
-      <c r="EL30" s="14"/>
-      <c r="EM30" s="14"/>
-      <c r="EN30" s="14"/>
-      <c r="EO30" s="14"/>
-      <c r="EP30" s="14"/>
-      <c r="EQ30" s="14"/>
-      <c r="ER30" s="14"/>
-      <c r="ES30" s="14"/>
-      <c r="ET30" s="14"/>
-      <c r="EU30" s="14"/>
-      <c r="EV30" s="14"/>
-      <c r="EW30" s="14"/>
-      <c r="EX30" s="14"/>
-      <c r="EY30" s="14"/>
-      <c r="EZ30" s="14"/>
-      <c r="FA30" s="14"/>
-      <c r="FB30" s="14"/>
-      <c r="FC30" s="14"/>
-      <c r="FD30" s="14"/>
-      <c r="FE30" s="14"/>
-      <c r="FF30" s="14"/>
-      <c r="FG30" s="14"/>
-      <c r="FH30" s="14"/>
-      <c r="FI30" s="14"/>
-      <c r="FJ30" s="14"/>
-      <c r="FK30" s="14"/>
-      <c r="FL30" s="14"/>
-      <c r="FM30" s="14"/>
-      <c r="FN30" s="14"/>
-      <c r="FO30" s="14"/>
-      <c r="FP30" s="14"/>
-      <c r="FQ30" s="14"/>
-      <c r="FR30" s="14"/>
-      <c r="FS30" s="14"/>
-      <c r="FT30" s="14"/>
-      <c r="FU30" s="14"/>
-      <c r="FV30" s="14"/>
-      <c r="FW30" s="14"/>
-      <c r="FX30" s="14"/>
-      <c r="FY30" s="14"/>
-      <c r="FZ30" s="14"/>
-      <c r="GA30" s="14"/>
-      <c r="GB30" s="14"/>
-      <c r="GC30" s="14"/>
-      <c r="GD30" s="14"/>
-      <c r="GE30" s="14"/>
-      <c r="GF30" s="14"/>
-      <c r="GG30" s="14"/>
-      <c r="GH30" s="14"/>
-      <c r="GI30" s="14"/>
-      <c r="GJ30" s="14"/>
-      <c r="GK30" s="14"/>
-      <c r="GL30" s="14"/>
-      <c r="GM30" s="14"/>
-      <c r="GN30" s="14"/>
-      <c r="GO30" s="14"/>
-      <c r="GP30" s="14"/>
-      <c r="GQ30" s="14"/>
-      <c r="GR30" s="14"/>
-      <c r="GS30" s="14"/>
-      <c r="GT30" s="14"/>
-      <c r="GU30" s="14"/>
-      <c r="GV30" s="14"/>
-      <c r="GW30" s="14"/>
-      <c r="GX30" s="14"/>
-      <c r="GY30" s="14"/>
-      <c r="GZ30" s="14"/>
-      <c r="HA30" s="14"/>
-      <c r="HB30" s="14"/>
-      <c r="HC30" s="14"/>
-      <c r="HD30" s="14"/>
-      <c r="HE30" s="14"/>
-      <c r="HF30" s="14"/>
-      <c r="HG30" s="14"/>
-      <c r="HH30" s="14"/>
-      <c r="HI30" s="14"/>
-      <c r="HJ30" s="14"/>
-      <c r="HK30" s="14"/>
-      <c r="HL30" s="14"/>
-      <c r="HM30" s="14"/>
-      <c r="HN30" s="14"/>
-      <c r="HO30" s="14"/>
-      <c r="HP30" s="14"/>
-      <c r="HQ30" s="14"/>
-      <c r="HR30" s="14"/>
-      <c r="HS30" s="14"/>
-      <c r="HT30" s="14"/>
-      <c r="HU30" s="14"/>
-      <c r="HV30" s="14"/>
-      <c r="HW30" s="14"/>
-      <c r="HX30" s="14"/>
-      <c r="HY30" s="14"/>
-      <c r="HZ30" s="14"/>
-      <c r="IA30" s="14"/>
-      <c r="IB30" s="14"/>
-      <c r="IC30" s="14"/>
-      <c r="ID30" s="14"/>
-      <c r="IE30" s="14"/>
-      <c r="IF30" s="14"/>
-      <c r="IG30" s="14"/>
-      <c r="IH30" s="14"/>
-      <c r="II30" s="14"/>
-      <c r="IJ30" s="14"/>
-      <c r="IK30" s="14"/>
-      <c r="IL30" s="14"/>
-      <c r="IM30" s="14"/>
-      <c r="IN30" s="14"/>
-      <c r="IO30" s="14"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="42"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
+      <c r="AT30" s="42"/>
+      <c r="AU30" s="42"/>
+      <c r="AV30" s="42"/>
+      <c r="AW30" s="42"/>
+      <c r="AX30" s="42"/>
+      <c r="AY30" s="42"/>
+      <c r="AZ30" s="42"/>
+      <c r="BA30" s="42"/>
+      <c r="BB30" s="42"/>
+      <c r="BC30" s="42"/>
+      <c r="BD30" s="42"/>
+      <c r="BE30" s="42"/>
+      <c r="BF30" s="42"/>
+      <c r="BG30" s="42"/>
+      <c r="BH30" s="42"/>
+      <c r="BI30" s="42"/>
+      <c r="BJ30" s="42"/>
+      <c r="BK30" s="42"/>
+      <c r="BL30" s="42"/>
+      <c r="BM30" s="42"/>
+      <c r="BN30" s="42"/>
+      <c r="BO30" s="42"/>
+      <c r="BP30" s="42"/>
+      <c r="BQ30" s="42"/>
+      <c r="BR30" s="42"/>
+      <c r="BS30" s="42"/>
+      <c r="BT30" s="42"/>
+      <c r="BU30" s="42"/>
+      <c r="BV30" s="42"/>
+      <c r="BW30" s="42"/>
+      <c r="BX30" s="42"/>
+      <c r="BY30" s="42"/>
+      <c r="BZ30" s="42"/>
+      <c r="CA30" s="42"/>
+      <c r="CB30" s="42"/>
+      <c r="CC30" s="42"/>
+      <c r="CD30" s="42"/>
+      <c r="CE30" s="42"/>
+      <c r="CF30" s="42"/>
+      <c r="CG30" s="42"/>
+      <c r="CH30" s="42"/>
+      <c r="CI30" s="42"/>
+      <c r="CJ30" s="42"/>
+      <c r="CK30" s="42"/>
+      <c r="CL30" s="42"/>
+      <c r="CM30" s="42"/>
+      <c r="CN30" s="42"/>
+      <c r="CO30" s="42"/>
+      <c r="CP30" s="42"/>
+      <c r="CQ30" s="42"/>
+      <c r="CR30" s="42"/>
+      <c r="CS30" s="42"/>
+      <c r="CT30" s="42"/>
+      <c r="CU30" s="42"/>
+      <c r="CV30" s="42"/>
+      <c r="CW30" s="42"/>
+      <c r="CX30" s="42"/>
+      <c r="CY30" s="42"/>
+      <c r="CZ30" s="42"/>
+      <c r="DA30" s="42"/>
+      <c r="DB30" s="42"/>
+      <c r="DC30" s="42"/>
+      <c r="DD30" s="42"/>
+      <c r="DE30" s="42"/>
+      <c r="DF30" s="42"/>
+      <c r="DG30" s="42"/>
+      <c r="DH30" s="42"/>
+      <c r="DI30" s="42"/>
+      <c r="DJ30" s="42"/>
+      <c r="DK30" s="42"/>
+      <c r="DL30" s="42"/>
+      <c r="DM30" s="42"/>
+      <c r="DN30" s="42"/>
+      <c r="DO30" s="42"/>
+      <c r="DP30" s="42"/>
+      <c r="DQ30" s="42"/>
+      <c r="DR30" s="42"/>
+      <c r="DS30" s="42"/>
+      <c r="DT30" s="42"/>
+      <c r="DU30" s="42"/>
+      <c r="DV30" s="42"/>
+      <c r="DW30" s="42"/>
+      <c r="DX30" s="42"/>
+      <c r="DY30" s="42"/>
+      <c r="DZ30" s="42"/>
+      <c r="EA30" s="42"/>
+      <c r="EB30" s="42"/>
+      <c r="EC30" s="42"/>
+      <c r="ED30" s="42"/>
+      <c r="EE30" s="42"/>
+      <c r="EF30" s="42"/>
+      <c r="EG30" s="42"/>
+      <c r="EH30" s="42"/>
+      <c r="EI30" s="42"/>
+      <c r="EJ30" s="42"/>
+      <c r="EK30" s="42"/>
+      <c r="EL30" s="42"/>
+      <c r="EM30" s="42"/>
+      <c r="EN30" s="42"/>
+      <c r="EO30" s="42"/>
+      <c r="EP30" s="42"/>
+      <c r="EQ30" s="42"/>
+      <c r="ER30" s="42"/>
+      <c r="ES30" s="42"/>
+      <c r="ET30" s="42"/>
+      <c r="EU30" s="42"/>
+      <c r="EV30" s="42"/>
+      <c r="EW30" s="42"/>
+      <c r="EX30" s="42"/>
+      <c r="EY30" s="42"/>
+      <c r="EZ30" s="42"/>
+      <c r="FA30" s="42"/>
+      <c r="FB30" s="42"/>
+      <c r="FC30" s="42"/>
+      <c r="FD30" s="42"/>
+      <c r="FE30" s="42"/>
+      <c r="FF30" s="42"/>
+      <c r="FG30" s="42"/>
+      <c r="FH30" s="42"/>
+      <c r="FI30" s="42"/>
+      <c r="FJ30" s="42"/>
+      <c r="FK30" s="42"/>
+      <c r="FL30" s="42"/>
+      <c r="FM30" s="42"/>
+      <c r="FN30" s="42"/>
+      <c r="FO30" s="42"/>
+      <c r="FP30" s="42"/>
+      <c r="FQ30" s="42"/>
+      <c r="FR30" s="42"/>
+      <c r="FS30" s="42"/>
+      <c r="FT30" s="42"/>
+      <c r="FU30" s="42"/>
+      <c r="FV30" s="42"/>
+      <c r="FW30" s="42"/>
+      <c r="FX30" s="42"/>
+      <c r="FY30" s="42"/>
+      <c r="FZ30" s="42"/>
+      <c r="GA30" s="42"/>
+      <c r="GB30" s="42"/>
+      <c r="GC30" s="42"/>
+      <c r="GD30" s="42"/>
+      <c r="GE30" s="42"/>
+      <c r="GF30" s="42"/>
+      <c r="GG30" s="42"/>
+      <c r="GH30" s="42"/>
+      <c r="GI30" s="42"/>
+      <c r="GJ30" s="42"/>
+      <c r="GK30" s="42"/>
+      <c r="GL30" s="42"/>
+      <c r="GM30" s="42"/>
+      <c r="GN30" s="42"/>
+      <c r="GO30" s="42"/>
+      <c r="GP30" s="42"/>
+      <c r="GQ30" s="42"/>
+      <c r="GR30" s="42"/>
+      <c r="GS30" s="42"/>
+      <c r="GT30" s="42"/>
+      <c r="GU30" s="42"/>
+      <c r="GV30" s="42"/>
+      <c r="GW30" s="42"/>
+      <c r="GX30" s="42"/>
+      <c r="GY30" s="42"/>
+      <c r="GZ30" s="42"/>
+      <c r="HA30" s="42"/>
+      <c r="HB30" s="42"/>
+      <c r="HC30" s="42"/>
+      <c r="HD30" s="42"/>
+      <c r="HE30" s="42"/>
+      <c r="HF30" s="42"/>
+      <c r="HG30" s="42"/>
+      <c r="HH30" s="42"/>
+      <c r="HI30" s="42"/>
+      <c r="HJ30" s="42"/>
+      <c r="HK30" s="42"/>
+      <c r="HL30" s="42"/>
+      <c r="HM30" s="42"/>
+      <c r="HN30" s="42"/>
+      <c r="HO30" s="42"/>
+      <c r="HP30" s="42"/>
+      <c r="HQ30" s="42"/>
+      <c r="HR30" s="42"/>
+      <c r="HS30" s="42"/>
+      <c r="HT30" s="42"/>
+      <c r="HU30" s="42"/>
+      <c r="HV30" s="42"/>
+      <c r="HW30" s="42"/>
+      <c r="HX30" s="42"/>
+      <c r="HY30" s="42"/>
+      <c r="HZ30" s="42"/>
+      <c r="IA30" s="42"/>
+      <c r="IB30" s="42"/>
+      <c r="IC30" s="42"/>
+      <c r="ID30" s="42"/>
+      <c r="IE30" s="42"/>
+      <c r="IF30" s="42"/>
+      <c r="IG30" s="42"/>
+      <c r="IH30" s="42"/>
+      <c r="II30" s="42"/>
+      <c r="IJ30" s="42"/>
+      <c r="IK30" s="42"/>
+      <c r="IL30" s="42"/>
+      <c r="IM30" s="42"/>
+      <c r="IN30" s="42"/>
+      <c r="IO30" s="42"/>
       <c r="IP30" s="14"/>
       <c r="IQ30" s="14"/>
       <c r="IR30" s="14"/>
@@ -10324,22 +10319,22 @@
       <c r="IX30" s="14"/>
     </row>
     <row r="31" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="65"/>
+      <c r="A31" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="66"/>
       <c r="C31" s="24">
-        <f>DATE(2022,6,1)</f>
-        <v>44713</v>
+        <f>DATE(2021,11,15)</f>
+        <v>44515</v>
       </c>
       <c r="D31" s="24">
-        <f>DATE(2022,6,31)</f>
-        <v>44743</v>
+        <f>DATE(2022,1,31)</f>
+        <v>44592</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13">
         <f t="shared" si="156"/>
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -10595,14 +10590,22 @@
       <c r="IX31" s="14"/>
     </row>
     <row r="32" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="24">
+        <f>DATE(2022,6,1)</f>
+        <v>44713</v>
+      </c>
+      <c r="D32" s="24">
+        <f>DATE(2022,6,31)</f>
+        <v>44743</v>
+      </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="13" t="str">
+      <c r="F32" s="13">
         <f t="shared" si="156"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
@@ -10857,21 +10860,284 @@
       <c r="IW32" s="14"/>
       <c r="IX32" s="14"/>
     </row>
-    <row r="33" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="4"/>
+    <row r="33" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13" t="str">
+        <f t="shared" si="156"/>
+        <v/>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="14"/>
+      <c r="BB33" s="14"/>
+      <c r="BC33" s="14"/>
+      <c r="BD33" s="14"/>
+      <c r="BE33" s="14"/>
+      <c r="BF33" s="14"/>
+      <c r="BG33" s="14"/>
+      <c r="BH33" s="14"/>
+      <c r="BI33" s="14"/>
+      <c r="BJ33" s="14"/>
+      <c r="BK33" s="14"/>
+      <c r="BL33" s="14"/>
+      <c r="BM33" s="14"/>
+      <c r="BN33" s="14"/>
+      <c r="BO33" s="14"/>
+      <c r="BP33" s="14"/>
+      <c r="BQ33" s="14"/>
+      <c r="BR33" s="14"/>
+      <c r="BS33" s="14"/>
+      <c r="BT33" s="14"/>
+      <c r="BU33" s="14"/>
+      <c r="BV33" s="14"/>
+      <c r="BW33" s="14"/>
+      <c r="BX33" s="14"/>
+      <c r="BY33" s="14"/>
+      <c r="BZ33" s="14"/>
+      <c r="CA33" s="14"/>
+      <c r="CB33" s="14"/>
+      <c r="CC33" s="14"/>
+      <c r="CD33" s="14"/>
+      <c r="CE33" s="14"/>
+      <c r="CF33" s="14"/>
+      <c r="CG33" s="14"/>
+      <c r="CH33" s="14"/>
+      <c r="CI33" s="14"/>
+      <c r="CJ33" s="14"/>
+      <c r="CK33" s="14"/>
+      <c r="CL33" s="14"/>
+      <c r="CM33" s="14"/>
+      <c r="CN33" s="14"/>
+      <c r="CO33" s="14"/>
+      <c r="CP33" s="14"/>
+      <c r="CQ33" s="14"/>
+      <c r="CR33" s="14"/>
+      <c r="CS33" s="14"/>
+      <c r="CT33" s="14"/>
+      <c r="CU33" s="14"/>
+      <c r="CV33" s="14"/>
+      <c r="CW33" s="14"/>
+      <c r="CX33" s="14"/>
+      <c r="CY33" s="14"/>
+      <c r="CZ33" s="14"/>
+      <c r="DA33" s="14"/>
+      <c r="DB33" s="14"/>
+      <c r="DC33" s="14"/>
+      <c r="DD33" s="14"/>
+      <c r="DE33" s="14"/>
+      <c r="DF33" s="14"/>
+      <c r="DG33" s="14"/>
+      <c r="DH33" s="14"/>
+      <c r="DI33" s="14"/>
+      <c r="DJ33" s="14"/>
+      <c r="DK33" s="14"/>
+      <c r="DL33" s="14"/>
+      <c r="DM33" s="14"/>
+      <c r="DN33" s="14"/>
+      <c r="DO33" s="14"/>
+      <c r="DP33" s="14"/>
+      <c r="DQ33" s="14"/>
+      <c r="DR33" s="14"/>
+      <c r="DS33" s="14"/>
+      <c r="DT33" s="14"/>
+      <c r="DU33" s="14"/>
+      <c r="DV33" s="14"/>
+      <c r="DW33" s="14"/>
+      <c r="DX33" s="14"/>
+      <c r="DY33" s="14"/>
+      <c r="DZ33" s="14"/>
+      <c r="EA33" s="14"/>
+      <c r="EB33" s="14"/>
+      <c r="EC33" s="14"/>
+      <c r="ED33" s="14"/>
+      <c r="EE33" s="14"/>
+      <c r="EF33" s="14"/>
+      <c r="EG33" s="14"/>
+      <c r="EH33" s="14"/>
+      <c r="EI33" s="14"/>
+      <c r="EJ33" s="14"/>
+      <c r="EK33" s="14"/>
+      <c r="EL33" s="14"/>
+      <c r="EM33" s="14"/>
+      <c r="EN33" s="14"/>
+      <c r="EO33" s="14"/>
+      <c r="EP33" s="14"/>
+      <c r="EQ33" s="14"/>
+      <c r="ER33" s="14"/>
+      <c r="ES33" s="14"/>
+      <c r="ET33" s="14"/>
+      <c r="EU33" s="14"/>
+      <c r="EV33" s="14"/>
+      <c r="EW33" s="14"/>
+      <c r="EX33" s="14"/>
+      <c r="EY33" s="14"/>
+      <c r="EZ33" s="14"/>
+      <c r="FA33" s="14"/>
+      <c r="FB33" s="14"/>
+      <c r="FC33" s="14"/>
+      <c r="FD33" s="14"/>
+      <c r="FE33" s="14"/>
+      <c r="FF33" s="14"/>
+      <c r="FG33" s="14"/>
+      <c r="FH33" s="14"/>
+      <c r="FI33" s="14"/>
+      <c r="FJ33" s="14"/>
+      <c r="FK33" s="14"/>
+      <c r="FL33" s="14"/>
+      <c r="FM33" s="14"/>
+      <c r="FN33" s="14"/>
+      <c r="FO33" s="14"/>
+      <c r="FP33" s="14"/>
+      <c r="FQ33" s="14"/>
+      <c r="FR33" s="14"/>
+      <c r="FS33" s="14"/>
+      <c r="FT33" s="14"/>
+      <c r="FU33" s="14"/>
+      <c r="FV33" s="14"/>
+      <c r="FW33" s="14"/>
+      <c r="FX33" s="14"/>
+      <c r="FY33" s="14"/>
+      <c r="FZ33" s="14"/>
+      <c r="GA33" s="14"/>
+      <c r="GB33" s="14"/>
+      <c r="GC33" s="14"/>
+      <c r="GD33" s="14"/>
+      <c r="GE33" s="14"/>
+      <c r="GF33" s="14"/>
+      <c r="GG33" s="14"/>
+      <c r="GH33" s="14"/>
+      <c r="GI33" s="14"/>
+      <c r="GJ33" s="14"/>
+      <c r="GK33" s="14"/>
+      <c r="GL33" s="14"/>
+      <c r="GM33" s="14"/>
+      <c r="GN33" s="14"/>
+      <c r="GO33" s="14"/>
+      <c r="GP33" s="14"/>
+      <c r="GQ33" s="14"/>
+      <c r="GR33" s="14"/>
+      <c r="GS33" s="14"/>
+      <c r="GT33" s="14"/>
+      <c r="GU33" s="14"/>
+      <c r="GV33" s="14"/>
+      <c r="GW33" s="14"/>
+      <c r="GX33" s="14"/>
+      <c r="GY33" s="14"/>
+      <c r="GZ33" s="14"/>
+      <c r="HA33" s="14"/>
+      <c r="HB33" s="14"/>
+      <c r="HC33" s="14"/>
+      <c r="HD33" s="14"/>
+      <c r="HE33" s="14"/>
+      <c r="HF33" s="14"/>
+      <c r="HG33" s="14"/>
+      <c r="HH33" s="14"/>
+      <c r="HI33" s="14"/>
+      <c r="HJ33" s="14"/>
+      <c r="HK33" s="14"/>
+      <c r="HL33" s="14"/>
+      <c r="HM33" s="14"/>
+      <c r="HN33" s="14"/>
+      <c r="HO33" s="14"/>
+      <c r="HP33" s="14"/>
+      <c r="HQ33" s="14"/>
+      <c r="HR33" s="14"/>
+      <c r="HS33" s="14"/>
+      <c r="HT33" s="14"/>
+      <c r="HU33" s="14"/>
+      <c r="HV33" s="14"/>
+      <c r="HW33" s="14"/>
+      <c r="HX33" s="14"/>
+      <c r="HY33" s="14"/>
+      <c r="HZ33" s="14"/>
+      <c r="IA33" s="14"/>
+      <c r="IB33" s="14"/>
+      <c r="IC33" s="14"/>
+      <c r="ID33" s="14"/>
+      <c r="IE33" s="14"/>
+      <c r="IF33" s="14"/>
+      <c r="IG33" s="14"/>
+      <c r="IH33" s="14"/>
+      <c r="II33" s="14"/>
+      <c r="IJ33" s="14"/>
+      <c r="IK33" s="14"/>
+      <c r="IL33" s="14"/>
+      <c r="IM33" s="14"/>
+      <c r="IN33" s="14"/>
+      <c r="IO33" s="14"/>
+      <c r="IP33" s="14"/>
+      <c r="IQ33" s="14"/>
+      <c r="IR33" s="14"/>
+      <c r="IS33" s="14"/>
+      <c r="IT33" s="14"/>
+      <c r="IU33" s="14"/>
+      <c r="IV33" s="14"/>
+      <c r="IW33" s="14"/>
+      <c r="IX33" s="14"/>
     </row>
-    <row r="34" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="16"/>
+    <row r="34" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -10922,12 +11188,12 @@
     <mergeCell ref="AB4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="G5:IX32">
+  <conditionalFormatting sqref="G5:IX33">
     <cfRule type="expression" dxfId="2" priority="126">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:IX32">
+  <conditionalFormatting sqref="G7:IX33">
     <cfRule type="expression" dxfId="1" priority="120">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>

--- a/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
+++ b/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF52909-45E0-4C20-A05A-375F4A78B7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B074E-52F4-44C4-949D-B1C0E2C05400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Mondragon Unibertsitatea
 TU Wien</t>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Reorganize to support SOA</t>
+  </si>
+  <si>
+    <t>Develop hardware</t>
   </si>
 </sst>
 </file>
@@ -865,8 +868,29 @@
     <xf numFmtId="14" fontId="14" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -878,29 +902,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1412,11 +1415,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IX35"/>
+  <dimension ref="A1:IX36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A26" sqref="A26:D26"/>
+      <selection pane="topRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1454,383 +1457,383 @@
       <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="70">
         <f>DATE(2021,11,3)</f>
         <v>44503</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="70"/>
     </row>
     <row r="4" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="66">
         <f>G5</f>
         <v>44501</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="59">
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="66">
         <f>N5</f>
         <v>44508</v>
       </c>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="59">
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="66">
         <f>U5</f>
         <v>44515</v>
       </c>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="59">
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="66">
         <f>AB5</f>
         <v>44522</v>
       </c>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="59">
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="66">
         <f>AI5</f>
         <v>44529</v>
       </c>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="59">
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="66">
         <f>AP5</f>
         <v>44536</v>
       </c>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="59">
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="67"/>
+      <c r="AS4" s="67"/>
+      <c r="AT4" s="67"/>
+      <c r="AU4" s="67"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="66">
         <f>AW5</f>
         <v>44543</v>
       </c>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="59">
+      <c r="AX4" s="67"/>
+      <c r="AY4" s="67"/>
+      <c r="AZ4" s="67"/>
+      <c r="BA4" s="67"/>
+      <c r="BB4" s="67"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="66">
         <f>BD5</f>
         <v>44550</v>
       </c>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="59">
+      <c r="BE4" s="67"/>
+      <c r="BF4" s="67"/>
+      <c r="BG4" s="67"/>
+      <c r="BH4" s="67"/>
+      <c r="BI4" s="67"/>
+      <c r="BJ4" s="68"/>
+      <c r="BK4" s="66">
         <f>BK5</f>
         <v>44557</v>
       </c>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="60"/>
-      <c r="BN4" s="60"/>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="60"/>
-      <c r="BQ4" s="61"/>
-      <c r="BR4" s="59">
+      <c r="BL4" s="67"/>
+      <c r="BM4" s="67"/>
+      <c r="BN4" s="67"/>
+      <c r="BO4" s="67"/>
+      <c r="BP4" s="67"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="66">
         <f>BR5</f>
         <v>44564</v>
       </c>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="60"/>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="60"/>
-      <c r="BW4" s="60"/>
-      <c r="BX4" s="61"/>
-      <c r="BY4" s="59">
+      <c r="BS4" s="67"/>
+      <c r="BT4" s="67"/>
+      <c r="BU4" s="67"/>
+      <c r="BV4" s="67"/>
+      <c r="BW4" s="67"/>
+      <c r="BX4" s="68"/>
+      <c r="BY4" s="66">
         <f>BY5</f>
         <v>44571</v>
       </c>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="60"/>
-      <c r="CC4" s="60"/>
-      <c r="CD4" s="60"/>
-      <c r="CE4" s="61"/>
-      <c r="CF4" s="59">
+      <c r="BZ4" s="67"/>
+      <c r="CA4" s="67"/>
+      <c r="CB4" s="67"/>
+      <c r="CC4" s="67"/>
+      <c r="CD4" s="67"/>
+      <c r="CE4" s="68"/>
+      <c r="CF4" s="66">
         <f>CF5</f>
         <v>44578</v>
       </c>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="60"/>
-      <c r="CI4" s="60"/>
-      <c r="CJ4" s="60"/>
-      <c r="CK4" s="60"/>
-      <c r="CL4" s="61"/>
-      <c r="CM4" s="59">
+      <c r="CG4" s="67"/>
+      <c r="CH4" s="67"/>
+      <c r="CI4" s="67"/>
+      <c r="CJ4" s="67"/>
+      <c r="CK4" s="67"/>
+      <c r="CL4" s="68"/>
+      <c r="CM4" s="66">
         <f>CM5</f>
         <v>44585</v>
       </c>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="60"/>
-      <c r="CP4" s="60"/>
-      <c r="CQ4" s="60"/>
-      <c r="CR4" s="60"/>
-      <c r="CS4" s="61"/>
-      <c r="CT4" s="59">
+      <c r="CN4" s="67"/>
+      <c r="CO4" s="67"/>
+      <c r="CP4" s="67"/>
+      <c r="CQ4" s="67"/>
+      <c r="CR4" s="67"/>
+      <c r="CS4" s="68"/>
+      <c r="CT4" s="66">
         <f>CT5</f>
         <v>44592</v>
       </c>
-      <c r="CU4" s="60"/>
-      <c r="CV4" s="60"/>
-      <c r="CW4" s="60"/>
-      <c r="CX4" s="60"/>
-      <c r="CY4" s="60"/>
-      <c r="CZ4" s="61"/>
-      <c r="DA4" s="59">
+      <c r="CU4" s="67"/>
+      <c r="CV4" s="67"/>
+      <c r="CW4" s="67"/>
+      <c r="CX4" s="67"/>
+      <c r="CY4" s="67"/>
+      <c r="CZ4" s="68"/>
+      <c r="DA4" s="66">
         <f>DA5</f>
         <v>44599</v>
       </c>
-      <c r="DB4" s="60"/>
-      <c r="DC4" s="60"/>
-      <c r="DD4" s="60"/>
-      <c r="DE4" s="60"/>
-      <c r="DF4" s="60"/>
-      <c r="DG4" s="61"/>
-      <c r="DH4" s="59">
+      <c r="DB4" s="67"/>
+      <c r="DC4" s="67"/>
+      <c r="DD4" s="67"/>
+      <c r="DE4" s="67"/>
+      <c r="DF4" s="67"/>
+      <c r="DG4" s="68"/>
+      <c r="DH4" s="66">
         <f>DH5</f>
         <v>44606</v>
       </c>
-      <c r="DI4" s="60"/>
-      <c r="DJ4" s="60"/>
-      <c r="DK4" s="60"/>
-      <c r="DL4" s="60"/>
-      <c r="DM4" s="60"/>
-      <c r="DN4" s="61"/>
-      <c r="DO4" s="59">
+      <c r="DI4" s="67"/>
+      <c r="DJ4" s="67"/>
+      <c r="DK4" s="67"/>
+      <c r="DL4" s="67"/>
+      <c r="DM4" s="67"/>
+      <c r="DN4" s="68"/>
+      <c r="DO4" s="66">
         <f>DO5</f>
         <v>44613</v>
       </c>
-      <c r="DP4" s="60"/>
-      <c r="DQ4" s="60"/>
-      <c r="DR4" s="60"/>
-      <c r="DS4" s="60"/>
-      <c r="DT4" s="60"/>
-      <c r="DU4" s="61"/>
-      <c r="DV4" s="59">
+      <c r="DP4" s="67"/>
+      <c r="DQ4" s="67"/>
+      <c r="DR4" s="67"/>
+      <c r="DS4" s="67"/>
+      <c r="DT4" s="67"/>
+      <c r="DU4" s="68"/>
+      <c r="DV4" s="66">
         <f>DV5</f>
         <v>44620</v>
       </c>
-      <c r="DW4" s="60"/>
-      <c r="DX4" s="60"/>
-      <c r="DY4" s="60"/>
-      <c r="DZ4" s="60"/>
-      <c r="EA4" s="60"/>
-      <c r="EB4" s="61"/>
-      <c r="EC4" s="59">
+      <c r="DW4" s="67"/>
+      <c r="DX4" s="67"/>
+      <c r="DY4" s="67"/>
+      <c r="DZ4" s="67"/>
+      <c r="EA4" s="67"/>
+      <c r="EB4" s="68"/>
+      <c r="EC4" s="66">
         <f>EC5</f>
         <v>44627</v>
       </c>
-      <c r="ED4" s="60"/>
-      <c r="EE4" s="60"/>
-      <c r="EF4" s="60"/>
-      <c r="EG4" s="60"/>
-      <c r="EH4" s="60"/>
-      <c r="EI4" s="61"/>
-      <c r="EJ4" s="59">
+      <c r="ED4" s="67"/>
+      <c r="EE4" s="67"/>
+      <c r="EF4" s="67"/>
+      <c r="EG4" s="67"/>
+      <c r="EH4" s="67"/>
+      <c r="EI4" s="68"/>
+      <c r="EJ4" s="66">
         <f>EJ5</f>
         <v>44634</v>
       </c>
-      <c r="EK4" s="60"/>
-      <c r="EL4" s="60"/>
-      <c r="EM4" s="60"/>
-      <c r="EN4" s="60"/>
-      <c r="EO4" s="60"/>
-      <c r="EP4" s="61"/>
-      <c r="EQ4" s="59">
+      <c r="EK4" s="67"/>
+      <c r="EL4" s="67"/>
+      <c r="EM4" s="67"/>
+      <c r="EN4" s="67"/>
+      <c r="EO4" s="67"/>
+      <c r="EP4" s="68"/>
+      <c r="EQ4" s="66">
         <f>EQ5</f>
         <v>44641</v>
       </c>
-      <c r="ER4" s="60"/>
-      <c r="ES4" s="60"/>
-      <c r="ET4" s="60"/>
-      <c r="EU4" s="60"/>
-      <c r="EV4" s="60"/>
-      <c r="EW4" s="61"/>
-      <c r="EX4" s="59">
+      <c r="ER4" s="67"/>
+      <c r="ES4" s="67"/>
+      <c r="ET4" s="67"/>
+      <c r="EU4" s="67"/>
+      <c r="EV4" s="67"/>
+      <c r="EW4" s="68"/>
+      <c r="EX4" s="66">
         <f>EX5</f>
         <v>44648</v>
       </c>
-      <c r="EY4" s="60"/>
-      <c r="EZ4" s="60"/>
-      <c r="FA4" s="60"/>
-      <c r="FB4" s="60"/>
-      <c r="FC4" s="60"/>
-      <c r="FD4" s="61"/>
-      <c r="FE4" s="59">
+      <c r="EY4" s="67"/>
+      <c r="EZ4" s="67"/>
+      <c r="FA4" s="67"/>
+      <c r="FB4" s="67"/>
+      <c r="FC4" s="67"/>
+      <c r="FD4" s="68"/>
+      <c r="FE4" s="66">
         <f>FE5</f>
         <v>44655</v>
       </c>
-      <c r="FF4" s="60"/>
-      <c r="FG4" s="60"/>
-      <c r="FH4" s="60"/>
-      <c r="FI4" s="60"/>
-      <c r="FJ4" s="60"/>
-      <c r="FK4" s="61"/>
-      <c r="FL4" s="59">
+      <c r="FF4" s="67"/>
+      <c r="FG4" s="67"/>
+      <c r="FH4" s="67"/>
+      <c r="FI4" s="67"/>
+      <c r="FJ4" s="67"/>
+      <c r="FK4" s="68"/>
+      <c r="FL4" s="66">
         <f>FL5</f>
         <v>44662</v>
       </c>
-      <c r="FM4" s="60"/>
-      <c r="FN4" s="60"/>
-      <c r="FO4" s="60"/>
-      <c r="FP4" s="60"/>
-      <c r="FQ4" s="60"/>
-      <c r="FR4" s="61"/>
-      <c r="FS4" s="59">
+      <c r="FM4" s="67"/>
+      <c r="FN4" s="67"/>
+      <c r="FO4" s="67"/>
+      <c r="FP4" s="67"/>
+      <c r="FQ4" s="67"/>
+      <c r="FR4" s="68"/>
+      <c r="FS4" s="66">
         <f>FS5</f>
         <v>44669</v>
       </c>
-      <c r="FT4" s="60"/>
-      <c r="FU4" s="60"/>
-      <c r="FV4" s="60"/>
-      <c r="FW4" s="60"/>
-      <c r="FX4" s="60"/>
-      <c r="FY4" s="61"/>
-      <c r="FZ4" s="59">
+      <c r="FT4" s="67"/>
+      <c r="FU4" s="67"/>
+      <c r="FV4" s="67"/>
+      <c r="FW4" s="67"/>
+      <c r="FX4" s="67"/>
+      <c r="FY4" s="68"/>
+      <c r="FZ4" s="66">
         <f>FZ5</f>
         <v>44676</v>
       </c>
-      <c r="GA4" s="60"/>
-      <c r="GB4" s="60"/>
-      <c r="GC4" s="60"/>
-      <c r="GD4" s="60"/>
-      <c r="GE4" s="60"/>
-      <c r="GF4" s="61"/>
-      <c r="GG4" s="59">
+      <c r="GA4" s="67"/>
+      <c r="GB4" s="67"/>
+      <c r="GC4" s="67"/>
+      <c r="GD4" s="67"/>
+      <c r="GE4" s="67"/>
+      <c r="GF4" s="68"/>
+      <c r="GG4" s="66">
         <f>GG5</f>
         <v>44683</v>
       </c>
-      <c r="GH4" s="60"/>
-      <c r="GI4" s="60"/>
-      <c r="GJ4" s="60"/>
-      <c r="GK4" s="60"/>
-      <c r="GL4" s="60"/>
-      <c r="GM4" s="61"/>
-      <c r="GN4" s="59">
+      <c r="GH4" s="67"/>
+      <c r="GI4" s="67"/>
+      <c r="GJ4" s="67"/>
+      <c r="GK4" s="67"/>
+      <c r="GL4" s="67"/>
+      <c r="GM4" s="68"/>
+      <c r="GN4" s="66">
         <f>GN5</f>
         <v>44690</v>
       </c>
-      <c r="GO4" s="60"/>
-      <c r="GP4" s="60"/>
-      <c r="GQ4" s="60"/>
-      <c r="GR4" s="60"/>
-      <c r="GS4" s="60"/>
-      <c r="GT4" s="61"/>
-      <c r="GU4" s="59">
+      <c r="GO4" s="67"/>
+      <c r="GP4" s="67"/>
+      <c r="GQ4" s="67"/>
+      <c r="GR4" s="67"/>
+      <c r="GS4" s="67"/>
+      <c r="GT4" s="68"/>
+      <c r="GU4" s="66">
         <f>GU5</f>
         <v>44697</v>
       </c>
-      <c r="GV4" s="60"/>
-      <c r="GW4" s="60"/>
-      <c r="GX4" s="60"/>
-      <c r="GY4" s="60"/>
-      <c r="GZ4" s="60"/>
-      <c r="HA4" s="61"/>
-      <c r="HB4" s="59">
+      <c r="GV4" s="67"/>
+      <c r="GW4" s="67"/>
+      <c r="GX4" s="67"/>
+      <c r="GY4" s="67"/>
+      <c r="GZ4" s="67"/>
+      <c r="HA4" s="68"/>
+      <c r="HB4" s="66">
         <f>HB5</f>
         <v>44704</v>
       </c>
-      <c r="HC4" s="60"/>
-      <c r="HD4" s="60"/>
-      <c r="HE4" s="60"/>
-      <c r="HF4" s="60"/>
-      <c r="HG4" s="60"/>
-      <c r="HH4" s="61"/>
-      <c r="HI4" s="59">
+      <c r="HC4" s="67"/>
+      <c r="HD4" s="67"/>
+      <c r="HE4" s="67"/>
+      <c r="HF4" s="67"/>
+      <c r="HG4" s="67"/>
+      <c r="HH4" s="68"/>
+      <c r="HI4" s="66">
         <f>HI5</f>
         <v>44711</v>
       </c>
-      <c r="HJ4" s="60"/>
-      <c r="HK4" s="60"/>
-      <c r="HL4" s="60"/>
-      <c r="HM4" s="60"/>
-      <c r="HN4" s="60"/>
-      <c r="HO4" s="61"/>
-      <c r="HP4" s="59">
+      <c r="HJ4" s="67"/>
+      <c r="HK4" s="67"/>
+      <c r="HL4" s="67"/>
+      <c r="HM4" s="67"/>
+      <c r="HN4" s="67"/>
+      <c r="HO4" s="68"/>
+      <c r="HP4" s="66">
         <f>HP5</f>
         <v>44718</v>
       </c>
-      <c r="HQ4" s="60"/>
-      <c r="HR4" s="60"/>
-      <c r="HS4" s="60"/>
-      <c r="HT4" s="60"/>
-      <c r="HU4" s="60"/>
-      <c r="HV4" s="61"/>
-      <c r="HW4" s="59">
+      <c r="HQ4" s="67"/>
+      <c r="HR4" s="67"/>
+      <c r="HS4" s="67"/>
+      <c r="HT4" s="67"/>
+      <c r="HU4" s="67"/>
+      <c r="HV4" s="68"/>
+      <c r="HW4" s="66">
         <f>HW5</f>
         <v>44725</v>
       </c>
-      <c r="HX4" s="60"/>
-      <c r="HY4" s="60"/>
-      <c r="HZ4" s="60"/>
-      <c r="IA4" s="60"/>
-      <c r="IB4" s="60"/>
-      <c r="IC4" s="61"/>
-      <c r="ID4" s="59">
+      <c r="HX4" s="67"/>
+      <c r="HY4" s="67"/>
+      <c r="HZ4" s="67"/>
+      <c r="IA4" s="67"/>
+      <c r="IB4" s="67"/>
+      <c r="IC4" s="68"/>
+      <c r="ID4" s="66">
         <f>ID5</f>
         <v>44732</v>
       </c>
-      <c r="IE4" s="60"/>
-      <c r="IF4" s="60"/>
-      <c r="IG4" s="60"/>
-      <c r="IH4" s="60"/>
-      <c r="II4" s="60"/>
-      <c r="IJ4" s="61"/>
-      <c r="IK4" s="59">
+      <c r="IE4" s="67"/>
+      <c r="IF4" s="67"/>
+      <c r="IG4" s="67"/>
+      <c r="IH4" s="67"/>
+      <c r="II4" s="67"/>
+      <c r="IJ4" s="68"/>
+      <c r="IK4" s="66">
         <f>IK5</f>
         <v>44739</v>
       </c>
-      <c r="IL4" s="60"/>
-      <c r="IM4" s="60"/>
-      <c r="IN4" s="60"/>
-      <c r="IO4" s="60"/>
-      <c r="IP4" s="60"/>
-      <c r="IQ4" s="61"/>
-      <c r="IR4" s="59">
+      <c r="IL4" s="67"/>
+      <c r="IM4" s="67"/>
+      <c r="IN4" s="67"/>
+      <c r="IO4" s="67"/>
+      <c r="IP4" s="67"/>
+      <c r="IQ4" s="68"/>
+      <c r="IR4" s="66">
         <f>IR5</f>
         <v>44746</v>
       </c>
-      <c r="IS4" s="60"/>
-      <c r="IT4" s="60"/>
-      <c r="IU4" s="60"/>
-      <c r="IV4" s="60"/>
-      <c r="IW4" s="60"/>
-      <c r="IX4" s="61"/>
+      <c r="IS4" s="67"/>
+      <c r="IT4" s="67"/>
+      <c r="IU4" s="67"/>
+      <c r="IV4" s="67"/>
+      <c r="IW4" s="67"/>
+      <c r="IX4" s="68"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
       <c r="G5" s="9">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44501</v>
@@ -4124,10 +4127,10 @@
       <c r="IX7" s="14"/>
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="43" t="s">
         <v>29</v>
       </c>
@@ -4136,7 +4139,7 @@
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
-        <f t="shared" ref="F8:F33" si="156">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="F8:F34" si="156">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>41</v>
       </c>
       <c r="G8" s="14"/>
@@ -4393,10 +4396,10 @@
       <c r="IX8" s="14"/>
     </row>
     <row r="9" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="34">
         <f>Project_Start</f>
         <v>44503</v>
@@ -4664,10 +4667,10 @@
       <c r="IX9" s="14"/>
     </row>
     <row r="10" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="24">
         <f>D9+1</f>
         <v>44513</v>
@@ -4935,10 +4938,10 @@
       <c r="IX10" s="14"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="66"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="24">
         <f>DATE(2021,11,24)</f>
         <v>44524</v>
@@ -5206,10 +5209,10 @@
       <c r="IX11" s="14"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="67"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="35">
         <f>DATE(2021,11,31)</f>
         <v>44531</v>
@@ -5477,10 +5480,10 @@
       <c r="IX12" s="14"/>
     </row>
     <row r="13" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="64"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="45" t="s">
         <v>31</v>
       </c>
@@ -5747,10 +5750,10 @@
       <c r="IX13" s="14"/>
     </row>
     <row r="14" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="34">
         <f>DATE(2021,11,19)</f>
         <v>44519</v>
@@ -6018,10 +6021,10 @@
       <c r="IX14" s="14"/>
     </row>
     <row r="15" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="66"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="24">
         <f>DATE(2022,1,10)</f>
         <v>44571</v>
@@ -6289,10 +6292,10 @@
       <c r="IX15" s="14"/>
     </row>
     <row r="16" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="35">
         <f>DATE(2022,2,7)</f>
         <v>44599</v>
@@ -6560,16 +6563,16 @@
       <c r="IX16" s="14"/>
     </row>
     <row r="17" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="64"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="36" t="str">
         <f>C18</f>
         <v>14/12/2021</v>
       </c>
       <c r="D17" s="37">
-        <f>D27</f>
+        <f>D28</f>
         <v>44742</v>
       </c>
       <c r="E17" s="13"/>
@@ -6831,21 +6834,21 @@
       <c r="IX17" s="14"/>
     </row>
     <row r="18" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="46" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="38">
-        <f>DATE(2022,4,1)</f>
-        <v>44652</v>
+        <f>DATE(2022,4,3)</f>
+        <v>44654</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13">
         <f t="shared" si="156"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -8712,17 +8715,17 @@
       <c r="IX24" s="14"/>
     </row>
     <row r="25" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57">
-        <f>DATE(2022,4,1)</f>
-        <v>44652</v>
-      </c>
-      <c r="D25" s="57">
-        <f>DATE(2022,6,30)</f>
-        <v>44742</v>
+      <c r="A25" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33">
+        <f>DATE(2022,3,29)</f>
+        <v>44649</v>
+      </c>
+      <c r="D25" s="33">
+        <f>DATE(2022,4,4)</f>
+        <v>44655</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -8980,10 +8983,18 @@
       <c r="IX25" s="14"/>
     </row>
     <row r="26" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="A26" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57">
+        <f>DATE(2022,4,4)</f>
+        <v>44655</v>
+      </c>
+      <c r="D26" s="57">
+        <f>DATE(2022,6,30)</f>
+        <v>44742</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
@@ -9240,18 +9251,10 @@
       <c r="IX26" s="14"/>
     </row>
     <row r="27" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="24">
-        <f>DATE(2022,2,21)</f>
-        <v>44613</v>
-      </c>
-      <c r="D27" s="24">
-        <f>DATE(2022,6,30)</f>
-        <v>44742</v>
-      </c>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
@@ -9508,23 +9511,20 @@
       <c r="IX27" s="14"/>
     </row>
     <row r="28" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="35">
-        <f>DATE(2022,1,1)</f>
-        <v>44562</v>
-      </c>
-      <c r="D28" s="35">
-        <f>DATE(2022,1,23)</f>
-        <v>44584</v>
+      <c r="A28" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="24">
+        <f>DATE(2022,2,21)</f>
+        <v>44613</v>
+      </c>
+      <c r="D28" s="24">
+        <f>DATE(2022,6,30)</f>
+        <v>44742</v>
       </c>
       <c r="E28" s="13"/>
-      <c r="F28" s="13">
-        <f t="shared" si="156"/>
-        <v>23</v>
-      </c>
+      <c r="F28" s="13"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -9539,235 +9539,235 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="41"/>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="41"/>
-      <c r="AP28" s="41"/>
-      <c r="AQ28" s="41"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="41"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="41"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="41"/>
-      <c r="AX28" s="41"/>
-      <c r="AY28" s="41"/>
-      <c r="AZ28" s="41"/>
-      <c r="BA28" s="41"/>
-      <c r="BB28" s="41"/>
-      <c r="BC28" s="41"/>
-      <c r="BD28" s="41"/>
-      <c r="BE28" s="41"/>
-      <c r="BF28" s="41"/>
-      <c r="BG28" s="41"/>
-      <c r="BH28" s="41"/>
-      <c r="BI28" s="41"/>
-      <c r="BJ28" s="41"/>
-      <c r="BK28" s="41"/>
-      <c r="BL28" s="41"/>
-      <c r="BM28" s="41"/>
-      <c r="BN28" s="41"/>
-      <c r="BO28" s="41"/>
-      <c r="BP28" s="41"/>
-      <c r="BQ28" s="41"/>
-      <c r="BR28" s="41"/>
-      <c r="BS28" s="41"/>
-      <c r="BT28" s="41"/>
-      <c r="BU28" s="41"/>
-      <c r="BV28" s="41"/>
-      <c r="BW28" s="41"/>
-      <c r="BX28" s="41"/>
-      <c r="BY28" s="41"/>
-      <c r="BZ28" s="41"/>
-      <c r="CA28" s="41"/>
-      <c r="CB28" s="41"/>
-      <c r="CC28" s="41"/>
-      <c r="CD28" s="41"/>
-      <c r="CE28" s="41"/>
-      <c r="CF28" s="41"/>
-      <c r="CG28" s="41"/>
-      <c r="CH28" s="41"/>
-      <c r="CI28" s="41"/>
-      <c r="CJ28" s="41"/>
-      <c r="CK28" s="41"/>
-      <c r="CL28" s="41"/>
-      <c r="CM28" s="41"/>
-      <c r="CN28" s="41"/>
-      <c r="CO28" s="41"/>
-      <c r="CP28" s="41"/>
-      <c r="CQ28" s="41"/>
-      <c r="CR28" s="41"/>
-      <c r="CS28" s="41"/>
-      <c r="CT28" s="41"/>
-      <c r="CU28" s="41"/>
-      <c r="CV28" s="41"/>
-      <c r="CW28" s="41"/>
-      <c r="CX28" s="41"/>
-      <c r="CY28" s="41"/>
-      <c r="CZ28" s="41"/>
-      <c r="DA28" s="41"/>
-      <c r="DB28" s="41"/>
-      <c r="DC28" s="41"/>
-      <c r="DD28" s="41"/>
-      <c r="DE28" s="41"/>
-      <c r="DF28" s="41"/>
-      <c r="DG28" s="41"/>
-      <c r="DH28" s="41"/>
-      <c r="DI28" s="41"/>
-      <c r="DJ28" s="41"/>
-      <c r="DK28" s="41"/>
-      <c r="DL28" s="41"/>
-      <c r="DM28" s="41"/>
-      <c r="DN28" s="41"/>
-      <c r="DO28" s="41"/>
-      <c r="DP28" s="41"/>
-      <c r="DQ28" s="41"/>
-      <c r="DR28" s="41"/>
-      <c r="DS28" s="41"/>
-      <c r="DT28" s="41"/>
-      <c r="DU28" s="41"/>
-      <c r="DV28" s="41"/>
-      <c r="DW28" s="41"/>
-      <c r="DX28" s="41"/>
-      <c r="DY28" s="41"/>
-      <c r="DZ28" s="41"/>
-      <c r="EA28" s="41"/>
-      <c r="EB28" s="41"/>
-      <c r="EC28" s="41"/>
-      <c r="ED28" s="41"/>
-      <c r="EE28" s="41"/>
-      <c r="EF28" s="41"/>
-      <c r="EG28" s="41"/>
-      <c r="EH28" s="41"/>
-      <c r="EI28" s="41"/>
-      <c r="EJ28" s="41"/>
-      <c r="EK28" s="41"/>
-      <c r="EL28" s="41"/>
-      <c r="EM28" s="41"/>
-      <c r="EN28" s="41"/>
-      <c r="EO28" s="41"/>
-      <c r="EP28" s="41"/>
-      <c r="EQ28" s="41"/>
-      <c r="ER28" s="41"/>
-      <c r="ES28" s="41"/>
-      <c r="ET28" s="41"/>
-      <c r="EU28" s="41"/>
-      <c r="EV28" s="41"/>
-      <c r="EW28" s="41"/>
-      <c r="EX28" s="41"/>
-      <c r="EY28" s="41"/>
-      <c r="EZ28" s="41"/>
-      <c r="FA28" s="41"/>
-      <c r="FB28" s="41"/>
-      <c r="FC28" s="41"/>
-      <c r="FD28" s="41"/>
-      <c r="FE28" s="41"/>
-      <c r="FF28" s="41"/>
-      <c r="FG28" s="41"/>
-      <c r="FH28" s="41"/>
-      <c r="FI28" s="41"/>
-      <c r="FJ28" s="41"/>
-      <c r="FK28" s="41"/>
-      <c r="FL28" s="41"/>
-      <c r="FM28" s="41"/>
-      <c r="FN28" s="41"/>
-      <c r="FO28" s="41"/>
-      <c r="FP28" s="41"/>
-      <c r="FQ28" s="41"/>
-      <c r="FR28" s="41"/>
-      <c r="FS28" s="41"/>
-      <c r="FT28" s="41"/>
-      <c r="FU28" s="41"/>
-      <c r="FV28" s="41"/>
-      <c r="FW28" s="41"/>
-      <c r="FX28" s="41"/>
-      <c r="FY28" s="41"/>
-      <c r="FZ28" s="41"/>
-      <c r="GA28" s="41"/>
-      <c r="GB28" s="41"/>
-      <c r="GC28" s="41"/>
-      <c r="GD28" s="41"/>
-      <c r="GE28" s="41"/>
-      <c r="GF28" s="41"/>
-      <c r="GG28" s="41"/>
-      <c r="GH28" s="41"/>
-      <c r="GI28" s="41"/>
-      <c r="GJ28" s="41"/>
-      <c r="GK28" s="41"/>
-      <c r="GL28" s="41"/>
-      <c r="GM28" s="41"/>
-      <c r="GN28" s="41"/>
-      <c r="GO28" s="41"/>
-      <c r="GP28" s="41"/>
-      <c r="GQ28" s="41"/>
-      <c r="GR28" s="41"/>
-      <c r="GS28" s="41"/>
-      <c r="GT28" s="41"/>
-      <c r="GU28" s="41"/>
-      <c r="GV28" s="41"/>
-      <c r="GW28" s="41"/>
-      <c r="GX28" s="41"/>
-      <c r="GY28" s="41"/>
-      <c r="GZ28" s="41"/>
-      <c r="HA28" s="41"/>
-      <c r="HB28" s="41"/>
-      <c r="HC28" s="41"/>
-      <c r="HD28" s="41"/>
-      <c r="HE28" s="41"/>
-      <c r="HF28" s="41"/>
-      <c r="HG28" s="41"/>
-      <c r="HH28" s="41"/>
-      <c r="HI28" s="41"/>
-      <c r="HJ28" s="41"/>
-      <c r="HK28" s="41"/>
-      <c r="HL28" s="41"/>
-      <c r="HM28" s="41"/>
-      <c r="HN28" s="41"/>
-      <c r="HO28" s="41"/>
-      <c r="HP28" s="41"/>
-      <c r="HQ28" s="41"/>
-      <c r="HR28" s="41"/>
-      <c r="HS28" s="41"/>
-      <c r="HT28" s="41"/>
-      <c r="HU28" s="41"/>
-      <c r="HV28" s="41"/>
-      <c r="HW28" s="41"/>
-      <c r="HX28" s="41"/>
-      <c r="HY28" s="41"/>
-      <c r="HZ28" s="41"/>
-      <c r="IA28" s="41"/>
-      <c r="IB28" s="41"/>
-      <c r="IC28" s="41"/>
-      <c r="ID28" s="41"/>
-      <c r="IE28" s="41"/>
-      <c r="IF28" s="41"/>
-      <c r="IG28" s="41"/>
-      <c r="IH28" s="41"/>
-      <c r="II28" s="41"/>
-      <c r="IJ28" s="41"/>
-      <c r="IK28" s="41"/>
-      <c r="IL28" s="41"/>
-      <c r="IM28" s="41"/>
-      <c r="IN28" s="41"/>
-      <c r="IO28" s="41"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+      <c r="BA28" s="14"/>
+      <c r="BB28" s="14"/>
+      <c r="BC28" s="14"/>
+      <c r="BD28" s="14"/>
+      <c r="BE28" s="14"/>
+      <c r="BF28" s="14"/>
+      <c r="BG28" s="14"/>
+      <c r="BH28" s="14"/>
+      <c r="BI28" s="14"/>
+      <c r="BJ28" s="14"/>
+      <c r="BK28" s="14"/>
+      <c r="BL28" s="14"/>
+      <c r="BM28" s="14"/>
+      <c r="BN28" s="14"/>
+      <c r="BO28" s="14"/>
+      <c r="BP28" s="14"/>
+      <c r="BQ28" s="14"/>
+      <c r="BR28" s="14"/>
+      <c r="BS28" s="14"/>
+      <c r="BT28" s="14"/>
+      <c r="BU28" s="14"/>
+      <c r="BV28" s="14"/>
+      <c r="BW28" s="14"/>
+      <c r="BX28" s="14"/>
+      <c r="BY28" s="14"/>
+      <c r="BZ28" s="14"/>
+      <c r="CA28" s="14"/>
+      <c r="CB28" s="14"/>
+      <c r="CC28" s="14"/>
+      <c r="CD28" s="14"/>
+      <c r="CE28" s="14"/>
+      <c r="CF28" s="14"/>
+      <c r="CG28" s="14"/>
+      <c r="CH28" s="14"/>
+      <c r="CI28" s="14"/>
+      <c r="CJ28" s="14"/>
+      <c r="CK28" s="14"/>
+      <c r="CL28" s="14"/>
+      <c r="CM28" s="14"/>
+      <c r="CN28" s="14"/>
+      <c r="CO28" s="14"/>
+      <c r="CP28" s="14"/>
+      <c r="CQ28" s="14"/>
+      <c r="CR28" s="14"/>
+      <c r="CS28" s="14"/>
+      <c r="CT28" s="14"/>
+      <c r="CU28" s="14"/>
+      <c r="CV28" s="14"/>
+      <c r="CW28" s="14"/>
+      <c r="CX28" s="14"/>
+      <c r="CY28" s="14"/>
+      <c r="CZ28" s="14"/>
+      <c r="DA28" s="14"/>
+      <c r="DB28" s="14"/>
+      <c r="DC28" s="14"/>
+      <c r="DD28" s="14"/>
+      <c r="DE28" s="14"/>
+      <c r="DF28" s="14"/>
+      <c r="DG28" s="14"/>
+      <c r="DH28" s="14"/>
+      <c r="DI28" s="14"/>
+      <c r="DJ28" s="14"/>
+      <c r="DK28" s="14"/>
+      <c r="DL28" s="14"/>
+      <c r="DM28" s="14"/>
+      <c r="DN28" s="14"/>
+      <c r="DO28" s="14"/>
+      <c r="DP28" s="14"/>
+      <c r="DQ28" s="14"/>
+      <c r="DR28" s="14"/>
+      <c r="DS28" s="14"/>
+      <c r="DT28" s="14"/>
+      <c r="DU28" s="14"/>
+      <c r="DV28" s="14"/>
+      <c r="DW28" s="14"/>
+      <c r="DX28" s="14"/>
+      <c r="DY28" s="14"/>
+      <c r="DZ28" s="14"/>
+      <c r="EA28" s="14"/>
+      <c r="EB28" s="14"/>
+      <c r="EC28" s="14"/>
+      <c r="ED28" s="14"/>
+      <c r="EE28" s="14"/>
+      <c r="EF28" s="14"/>
+      <c r="EG28" s="14"/>
+      <c r="EH28" s="14"/>
+      <c r="EI28" s="14"/>
+      <c r="EJ28" s="14"/>
+      <c r="EK28" s="14"/>
+      <c r="EL28" s="14"/>
+      <c r="EM28" s="14"/>
+      <c r="EN28" s="14"/>
+      <c r="EO28" s="14"/>
+      <c r="EP28" s="14"/>
+      <c r="EQ28" s="14"/>
+      <c r="ER28" s="14"/>
+      <c r="ES28" s="14"/>
+      <c r="ET28" s="14"/>
+      <c r="EU28" s="14"/>
+      <c r="EV28" s="14"/>
+      <c r="EW28" s="14"/>
+      <c r="EX28" s="14"/>
+      <c r="EY28" s="14"/>
+      <c r="EZ28" s="14"/>
+      <c r="FA28" s="14"/>
+      <c r="FB28" s="14"/>
+      <c r="FC28" s="14"/>
+      <c r="FD28" s="14"/>
+      <c r="FE28" s="14"/>
+      <c r="FF28" s="14"/>
+      <c r="FG28" s="14"/>
+      <c r="FH28" s="14"/>
+      <c r="FI28" s="14"/>
+      <c r="FJ28" s="14"/>
+      <c r="FK28" s="14"/>
+      <c r="FL28" s="14"/>
+      <c r="FM28" s="14"/>
+      <c r="FN28" s="14"/>
+      <c r="FO28" s="14"/>
+      <c r="FP28" s="14"/>
+      <c r="FQ28" s="14"/>
+      <c r="FR28" s="14"/>
+      <c r="FS28" s="14"/>
+      <c r="FT28" s="14"/>
+      <c r="FU28" s="14"/>
+      <c r="FV28" s="14"/>
+      <c r="FW28" s="14"/>
+      <c r="FX28" s="14"/>
+      <c r="FY28" s="14"/>
+      <c r="FZ28" s="14"/>
+      <c r="GA28" s="14"/>
+      <c r="GB28" s="14"/>
+      <c r="GC28" s="14"/>
+      <c r="GD28" s="14"/>
+      <c r="GE28" s="14"/>
+      <c r="GF28" s="14"/>
+      <c r="GG28" s="14"/>
+      <c r="GH28" s="14"/>
+      <c r="GI28" s="14"/>
+      <c r="GJ28" s="14"/>
+      <c r="GK28" s="14"/>
+      <c r="GL28" s="14"/>
+      <c r="GM28" s="14"/>
+      <c r="GN28" s="14"/>
+      <c r="GO28" s="14"/>
+      <c r="GP28" s="14"/>
+      <c r="GQ28" s="14"/>
+      <c r="GR28" s="14"/>
+      <c r="GS28" s="14"/>
+      <c r="GT28" s="14"/>
+      <c r="GU28" s="14"/>
+      <c r="GV28" s="14"/>
+      <c r="GW28" s="14"/>
+      <c r="GX28" s="14"/>
+      <c r="GY28" s="14"/>
+      <c r="GZ28" s="14"/>
+      <c r="HA28" s="14"/>
+      <c r="HB28" s="14"/>
+      <c r="HC28" s="14"/>
+      <c r="HD28" s="14"/>
+      <c r="HE28" s="14"/>
+      <c r="HF28" s="14"/>
+      <c r="HG28" s="14"/>
+      <c r="HH28" s="14"/>
+      <c r="HI28" s="14"/>
+      <c r="HJ28" s="14"/>
+      <c r="HK28" s="14"/>
+      <c r="HL28" s="14"/>
+      <c r="HM28" s="14"/>
+      <c r="HN28" s="14"/>
+      <c r="HO28" s="14"/>
+      <c r="HP28" s="14"/>
+      <c r="HQ28" s="14"/>
+      <c r="HR28" s="14"/>
+      <c r="HS28" s="14"/>
+      <c r="HT28" s="14"/>
+      <c r="HU28" s="14"/>
+      <c r="HV28" s="14"/>
+      <c r="HW28" s="14"/>
+      <c r="HX28" s="14"/>
+      <c r="HY28" s="14"/>
+      <c r="HZ28" s="14"/>
+      <c r="IA28" s="14"/>
+      <c r="IB28" s="14"/>
+      <c r="IC28" s="14"/>
+      <c r="ID28" s="14"/>
+      <c r="IE28" s="14"/>
+      <c r="IF28" s="14"/>
+      <c r="IG28" s="14"/>
+      <c r="IH28" s="14"/>
+      <c r="II28" s="14"/>
+      <c r="IJ28" s="14"/>
+      <c r="IK28" s="14"/>
+      <c r="IL28" s="14"/>
+      <c r="IM28" s="14"/>
+      <c r="IN28" s="14"/>
+      <c r="IO28" s="14"/>
       <c r="IP28" s="14"/>
       <c r="IQ28" s="14"/>
       <c r="IR28" s="14"/>
@@ -9779,20 +9779,22 @@
       <c r="IX28" s="14"/>
     </row>
     <row r="29" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="54" t="s">
-        <v>36</v>
+      <c r="A29" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="63"/>
+      <c r="C29" s="35">
+        <f>DATE(2022,1,1)</f>
+        <v>44562</v>
+      </c>
+      <c r="D29" s="35">
+        <f>DATE(2022,1,23)</f>
+        <v>44584</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13">
         <f t="shared" si="156"/>
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -9807,237 +9809,237 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="55"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="55"/>
-      <c r="AJ29" s="55"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="55"/>
-      <c r="AN29" s="55"/>
-      <c r="AO29" s="55"/>
-      <c r="AP29" s="55"/>
-      <c r="AQ29" s="55"/>
-      <c r="AR29" s="55"/>
-      <c r="AS29" s="55"/>
-      <c r="AT29" s="55"/>
-      <c r="AU29" s="55"/>
-      <c r="AV29" s="55"/>
-      <c r="AW29" s="55"/>
-      <c r="AX29" s="55"/>
-      <c r="AY29" s="55"/>
-      <c r="AZ29" s="55"/>
-      <c r="BA29" s="55"/>
-      <c r="BB29" s="55"/>
-      <c r="BC29" s="55"/>
-      <c r="BD29" s="55"/>
-      <c r="BE29" s="55"/>
-      <c r="BF29" s="55"/>
-      <c r="BG29" s="55"/>
-      <c r="BH29" s="55"/>
-      <c r="BI29" s="55"/>
-      <c r="BJ29" s="55"/>
-      <c r="BK29" s="55"/>
-      <c r="BL29" s="55"/>
-      <c r="BM29" s="55"/>
-      <c r="BN29" s="55"/>
-      <c r="BO29" s="55"/>
-      <c r="BP29" s="55"/>
-      <c r="BQ29" s="55"/>
-      <c r="BR29" s="55"/>
-      <c r="BS29" s="55"/>
-      <c r="BT29" s="55"/>
-      <c r="BU29" s="55"/>
-      <c r="BV29" s="55"/>
-      <c r="BW29" s="55"/>
-      <c r="BX29" s="55"/>
-      <c r="BY29" s="55"/>
-      <c r="BZ29" s="55"/>
-      <c r="CA29" s="55"/>
-      <c r="CB29" s="55"/>
-      <c r="CC29" s="55"/>
-      <c r="CD29" s="55"/>
-      <c r="CE29" s="55"/>
-      <c r="CF29" s="55"/>
-      <c r="CG29" s="55"/>
-      <c r="CH29" s="55"/>
-      <c r="CI29" s="55"/>
-      <c r="CJ29" s="55"/>
-      <c r="CK29" s="55"/>
-      <c r="CL29" s="55"/>
-      <c r="CM29" s="55"/>
-      <c r="CN29" s="55"/>
-      <c r="CO29" s="55"/>
-      <c r="CP29" s="55"/>
-      <c r="CQ29" s="55"/>
-      <c r="CR29" s="55"/>
-      <c r="CS29" s="55"/>
-      <c r="CT29" s="55"/>
-      <c r="CU29" s="55"/>
-      <c r="CV29" s="55"/>
-      <c r="CW29" s="55"/>
-      <c r="CX29" s="55"/>
-      <c r="CY29" s="55"/>
-      <c r="CZ29" s="55"/>
-      <c r="DA29" s="55"/>
-      <c r="DB29" s="55"/>
-      <c r="DC29" s="55"/>
-      <c r="DD29" s="55"/>
-      <c r="DE29" s="55"/>
-      <c r="DF29" s="55"/>
-      <c r="DG29" s="55"/>
-      <c r="DH29" s="55"/>
-      <c r="DI29" s="55"/>
-      <c r="DJ29" s="55"/>
-      <c r="DK29" s="55"/>
-      <c r="DL29" s="55"/>
-      <c r="DM29" s="55"/>
-      <c r="DN29" s="55"/>
-      <c r="DO29" s="55"/>
-      <c r="DP29" s="55"/>
-      <c r="DQ29" s="55"/>
-      <c r="DR29" s="55"/>
-      <c r="DS29" s="55"/>
-      <c r="DT29" s="55"/>
-      <c r="DU29" s="55"/>
-      <c r="DV29" s="55"/>
-      <c r="DW29" s="55"/>
-      <c r="DX29" s="55"/>
-      <c r="DY29" s="55"/>
-      <c r="DZ29" s="55"/>
-      <c r="EA29" s="55"/>
-      <c r="EB29" s="55"/>
-      <c r="EC29" s="55"/>
-      <c r="ED29" s="55"/>
-      <c r="EE29" s="55"/>
-      <c r="EF29" s="55"/>
-      <c r="EG29" s="55"/>
-      <c r="EH29" s="55"/>
-      <c r="EI29" s="55"/>
-      <c r="EJ29" s="55"/>
-      <c r="EK29" s="55"/>
-      <c r="EL29" s="55"/>
-      <c r="EM29" s="55"/>
-      <c r="EN29" s="55"/>
-      <c r="EO29" s="55"/>
-      <c r="EP29" s="55"/>
-      <c r="EQ29" s="55"/>
-      <c r="ER29" s="55"/>
-      <c r="ES29" s="55"/>
-      <c r="ET29" s="55"/>
-      <c r="EU29" s="55"/>
-      <c r="EV29" s="55"/>
-      <c r="EW29" s="55"/>
-      <c r="EX29" s="55"/>
-      <c r="EY29" s="55"/>
-      <c r="EZ29" s="55"/>
-      <c r="FA29" s="55"/>
-      <c r="FB29" s="55"/>
-      <c r="FC29" s="55"/>
-      <c r="FD29" s="55"/>
-      <c r="FE29" s="55"/>
-      <c r="FF29" s="55"/>
-      <c r="FG29" s="55"/>
-      <c r="FH29" s="55"/>
-      <c r="FI29" s="55"/>
-      <c r="FJ29" s="55"/>
-      <c r="FK29" s="55"/>
-      <c r="FL29" s="55"/>
-      <c r="FM29" s="55"/>
-      <c r="FN29" s="55"/>
-      <c r="FO29" s="55"/>
-      <c r="FP29" s="55"/>
-      <c r="FQ29" s="55"/>
-      <c r="FR29" s="55"/>
-      <c r="FS29" s="55"/>
-      <c r="FT29" s="55"/>
-      <c r="FU29" s="55"/>
-      <c r="FV29" s="55"/>
-      <c r="FW29" s="55"/>
-      <c r="FX29" s="55"/>
-      <c r="FY29" s="55"/>
-      <c r="FZ29" s="55"/>
-      <c r="GA29" s="55"/>
-      <c r="GB29" s="55"/>
-      <c r="GC29" s="55"/>
-      <c r="GD29" s="55"/>
-      <c r="GE29" s="55"/>
-      <c r="GF29" s="55"/>
-      <c r="GG29" s="55"/>
-      <c r="GH29" s="55"/>
-      <c r="GI29" s="55"/>
-      <c r="GJ29" s="55"/>
-      <c r="GK29" s="55"/>
-      <c r="GL29" s="55"/>
-      <c r="GM29" s="55"/>
-      <c r="GN29" s="55"/>
-      <c r="GO29" s="55"/>
-      <c r="GP29" s="55"/>
-      <c r="GQ29" s="55"/>
-      <c r="GR29" s="55"/>
-      <c r="GS29" s="55"/>
-      <c r="GT29" s="55"/>
-      <c r="GU29" s="55"/>
-      <c r="GV29" s="55"/>
-      <c r="GW29" s="55"/>
-      <c r="GX29" s="55"/>
-      <c r="GY29" s="55"/>
-      <c r="GZ29" s="55"/>
-      <c r="HA29" s="55"/>
-      <c r="HB29" s="55"/>
-      <c r="HC29" s="55"/>
-      <c r="HD29" s="55"/>
-      <c r="HE29" s="55"/>
-      <c r="HF29" s="55"/>
-      <c r="HG29" s="55"/>
-      <c r="HH29" s="55"/>
-      <c r="HI29" s="55"/>
-      <c r="HJ29" s="55"/>
-      <c r="HK29" s="55"/>
-      <c r="HL29" s="55"/>
-      <c r="HM29" s="55"/>
-      <c r="HN29" s="55"/>
-      <c r="HO29" s="55"/>
-      <c r="HP29" s="55"/>
-      <c r="HQ29" s="55"/>
-      <c r="HR29" s="55"/>
-      <c r="HS29" s="55"/>
-      <c r="HT29" s="55"/>
-      <c r="HU29" s="55"/>
-      <c r="HV29" s="55"/>
-      <c r="HW29" s="55"/>
-      <c r="HX29" s="55"/>
-      <c r="HY29" s="55"/>
-      <c r="HZ29" s="55"/>
-      <c r="IA29" s="55"/>
-      <c r="IB29" s="55"/>
-      <c r="IC29" s="55"/>
-      <c r="ID29" s="55"/>
-      <c r="IE29" s="55"/>
-      <c r="IF29" s="55"/>
-      <c r="IG29" s="55"/>
-      <c r="IH29" s="55"/>
-      <c r="II29" s="55"/>
-      <c r="IJ29" s="55"/>
-      <c r="IK29" s="55"/>
-      <c r="IL29" s="55"/>
-      <c r="IM29" s="55"/>
-      <c r="IN29" s="55"/>
-      <c r="IO29" s="55"/>
-      <c r="IP29" s="40"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+      <c r="AK29" s="41"/>
+      <c r="AL29" s="41"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="41"/>
+      <c r="AO29" s="41"/>
+      <c r="AP29" s="41"/>
+      <c r="AQ29" s="41"/>
+      <c r="AR29" s="41"/>
+      <c r="AS29" s="41"/>
+      <c r="AT29" s="41"/>
+      <c r="AU29" s="41"/>
+      <c r="AV29" s="41"/>
+      <c r="AW29" s="41"/>
+      <c r="AX29" s="41"/>
+      <c r="AY29" s="41"/>
+      <c r="AZ29" s="41"/>
+      <c r="BA29" s="41"/>
+      <c r="BB29" s="41"/>
+      <c r="BC29" s="41"/>
+      <c r="BD29" s="41"/>
+      <c r="BE29" s="41"/>
+      <c r="BF29" s="41"/>
+      <c r="BG29" s="41"/>
+      <c r="BH29" s="41"/>
+      <c r="BI29" s="41"/>
+      <c r="BJ29" s="41"/>
+      <c r="BK29" s="41"/>
+      <c r="BL29" s="41"/>
+      <c r="BM29" s="41"/>
+      <c r="BN29" s="41"/>
+      <c r="BO29" s="41"/>
+      <c r="BP29" s="41"/>
+      <c r="BQ29" s="41"/>
+      <c r="BR29" s="41"/>
+      <c r="BS29" s="41"/>
+      <c r="BT29" s="41"/>
+      <c r="BU29" s="41"/>
+      <c r="BV29" s="41"/>
+      <c r="BW29" s="41"/>
+      <c r="BX29" s="41"/>
+      <c r="BY29" s="41"/>
+      <c r="BZ29" s="41"/>
+      <c r="CA29" s="41"/>
+      <c r="CB29" s="41"/>
+      <c r="CC29" s="41"/>
+      <c r="CD29" s="41"/>
+      <c r="CE29" s="41"/>
+      <c r="CF29" s="41"/>
+      <c r="CG29" s="41"/>
+      <c r="CH29" s="41"/>
+      <c r="CI29" s="41"/>
+      <c r="CJ29" s="41"/>
+      <c r="CK29" s="41"/>
+      <c r="CL29" s="41"/>
+      <c r="CM29" s="41"/>
+      <c r="CN29" s="41"/>
+      <c r="CO29" s="41"/>
+      <c r="CP29" s="41"/>
+      <c r="CQ29" s="41"/>
+      <c r="CR29" s="41"/>
+      <c r="CS29" s="41"/>
+      <c r="CT29" s="41"/>
+      <c r="CU29" s="41"/>
+      <c r="CV29" s="41"/>
+      <c r="CW29" s="41"/>
+      <c r="CX29" s="41"/>
+      <c r="CY29" s="41"/>
+      <c r="CZ29" s="41"/>
+      <c r="DA29" s="41"/>
+      <c r="DB29" s="41"/>
+      <c r="DC29" s="41"/>
+      <c r="DD29" s="41"/>
+      <c r="DE29" s="41"/>
+      <c r="DF29" s="41"/>
+      <c r="DG29" s="41"/>
+      <c r="DH29" s="41"/>
+      <c r="DI29" s="41"/>
+      <c r="DJ29" s="41"/>
+      <c r="DK29" s="41"/>
+      <c r="DL29" s="41"/>
+      <c r="DM29" s="41"/>
+      <c r="DN29" s="41"/>
+      <c r="DO29" s="41"/>
+      <c r="DP29" s="41"/>
+      <c r="DQ29" s="41"/>
+      <c r="DR29" s="41"/>
+      <c r="DS29" s="41"/>
+      <c r="DT29" s="41"/>
+      <c r="DU29" s="41"/>
+      <c r="DV29" s="41"/>
+      <c r="DW29" s="41"/>
+      <c r="DX29" s="41"/>
+      <c r="DY29" s="41"/>
+      <c r="DZ29" s="41"/>
+      <c r="EA29" s="41"/>
+      <c r="EB29" s="41"/>
+      <c r="EC29" s="41"/>
+      <c r="ED29" s="41"/>
+      <c r="EE29" s="41"/>
+      <c r="EF29" s="41"/>
+      <c r="EG29" s="41"/>
+      <c r="EH29" s="41"/>
+      <c r="EI29" s="41"/>
+      <c r="EJ29" s="41"/>
+      <c r="EK29" s="41"/>
+      <c r="EL29" s="41"/>
+      <c r="EM29" s="41"/>
+      <c r="EN29" s="41"/>
+      <c r="EO29" s="41"/>
+      <c r="EP29" s="41"/>
+      <c r="EQ29" s="41"/>
+      <c r="ER29" s="41"/>
+      <c r="ES29" s="41"/>
+      <c r="ET29" s="41"/>
+      <c r="EU29" s="41"/>
+      <c r="EV29" s="41"/>
+      <c r="EW29" s="41"/>
+      <c r="EX29" s="41"/>
+      <c r="EY29" s="41"/>
+      <c r="EZ29" s="41"/>
+      <c r="FA29" s="41"/>
+      <c r="FB29" s="41"/>
+      <c r="FC29" s="41"/>
+      <c r="FD29" s="41"/>
+      <c r="FE29" s="41"/>
+      <c r="FF29" s="41"/>
+      <c r="FG29" s="41"/>
+      <c r="FH29" s="41"/>
+      <c r="FI29" s="41"/>
+      <c r="FJ29" s="41"/>
+      <c r="FK29" s="41"/>
+      <c r="FL29" s="41"/>
+      <c r="FM29" s="41"/>
+      <c r="FN29" s="41"/>
+      <c r="FO29" s="41"/>
+      <c r="FP29" s="41"/>
+      <c r="FQ29" s="41"/>
+      <c r="FR29" s="41"/>
+      <c r="FS29" s="41"/>
+      <c r="FT29" s="41"/>
+      <c r="FU29" s="41"/>
+      <c r="FV29" s="41"/>
+      <c r="FW29" s="41"/>
+      <c r="FX29" s="41"/>
+      <c r="FY29" s="41"/>
+      <c r="FZ29" s="41"/>
+      <c r="GA29" s="41"/>
+      <c r="GB29" s="41"/>
+      <c r="GC29" s="41"/>
+      <c r="GD29" s="41"/>
+      <c r="GE29" s="41"/>
+      <c r="GF29" s="41"/>
+      <c r="GG29" s="41"/>
+      <c r="GH29" s="41"/>
+      <c r="GI29" s="41"/>
+      <c r="GJ29" s="41"/>
+      <c r="GK29" s="41"/>
+      <c r="GL29" s="41"/>
+      <c r="GM29" s="41"/>
+      <c r="GN29" s="41"/>
+      <c r="GO29" s="41"/>
+      <c r="GP29" s="41"/>
+      <c r="GQ29" s="41"/>
+      <c r="GR29" s="41"/>
+      <c r="GS29" s="41"/>
+      <c r="GT29" s="41"/>
+      <c r="GU29" s="41"/>
+      <c r="GV29" s="41"/>
+      <c r="GW29" s="41"/>
+      <c r="GX29" s="41"/>
+      <c r="GY29" s="41"/>
+      <c r="GZ29" s="41"/>
+      <c r="HA29" s="41"/>
+      <c r="HB29" s="41"/>
+      <c r="HC29" s="41"/>
+      <c r="HD29" s="41"/>
+      <c r="HE29" s="41"/>
+      <c r="HF29" s="41"/>
+      <c r="HG29" s="41"/>
+      <c r="HH29" s="41"/>
+      <c r="HI29" s="41"/>
+      <c r="HJ29" s="41"/>
+      <c r="HK29" s="41"/>
+      <c r="HL29" s="41"/>
+      <c r="HM29" s="41"/>
+      <c r="HN29" s="41"/>
+      <c r="HO29" s="41"/>
+      <c r="HP29" s="41"/>
+      <c r="HQ29" s="41"/>
+      <c r="HR29" s="41"/>
+      <c r="HS29" s="41"/>
+      <c r="HT29" s="41"/>
+      <c r="HU29" s="41"/>
+      <c r="HV29" s="41"/>
+      <c r="HW29" s="41"/>
+      <c r="HX29" s="41"/>
+      <c r="HY29" s="41"/>
+      <c r="HZ29" s="41"/>
+      <c r="IA29" s="41"/>
+      <c r="IB29" s="41"/>
+      <c r="IC29" s="41"/>
+      <c r="ID29" s="41"/>
+      <c r="IE29" s="41"/>
+      <c r="IF29" s="41"/>
+      <c r="IG29" s="41"/>
+      <c r="IH29" s="41"/>
+      <c r="II29" s="41"/>
+      <c r="IJ29" s="41"/>
+      <c r="IK29" s="41"/>
+      <c r="IL29" s="41"/>
+      <c r="IM29" s="41"/>
+      <c r="IN29" s="41"/>
+      <c r="IO29" s="41"/>
+      <c r="IP29" s="14"/>
       <c r="IQ29" s="14"/>
       <c r="IR29" s="14"/>
       <c r="IS29" s="14"/>
@@ -10048,22 +10050,20 @@
       <c r="IX29" s="14"/>
     </row>
     <row r="30" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="34">
-        <f>DATE(2022,1,23)</f>
-        <v>44584</v>
-      </c>
-      <c r="D30" s="34">
-        <f>DATE(2022,2,13)</f>
-        <v>44605</v>
+      <c r="A30" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="62"/>
+      <c r="C30" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13">
         <f t="shared" si="156"/>
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -10078,237 +10078,237 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="42"/>
-      <c r="AM30" s="42"/>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="42"/>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="42"/>
-      <c r="BA30" s="42"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="42"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="42"/>
-      <c r="BH30" s="42"/>
-      <c r="BI30" s="42"/>
-      <c r="BJ30" s="42"/>
-      <c r="BK30" s="42"/>
-      <c r="BL30" s="42"/>
-      <c r="BM30" s="42"/>
-      <c r="BN30" s="42"/>
-      <c r="BO30" s="42"/>
-      <c r="BP30" s="42"/>
-      <c r="BQ30" s="42"/>
-      <c r="BR30" s="42"/>
-      <c r="BS30" s="42"/>
-      <c r="BT30" s="42"/>
-      <c r="BU30" s="42"/>
-      <c r="BV30" s="42"/>
-      <c r="BW30" s="42"/>
-      <c r="BX30" s="42"/>
-      <c r="BY30" s="42"/>
-      <c r="BZ30" s="42"/>
-      <c r="CA30" s="42"/>
-      <c r="CB30" s="42"/>
-      <c r="CC30" s="42"/>
-      <c r="CD30" s="42"/>
-      <c r="CE30" s="42"/>
-      <c r="CF30" s="42"/>
-      <c r="CG30" s="42"/>
-      <c r="CH30" s="42"/>
-      <c r="CI30" s="42"/>
-      <c r="CJ30" s="42"/>
-      <c r="CK30" s="42"/>
-      <c r="CL30" s="42"/>
-      <c r="CM30" s="42"/>
-      <c r="CN30" s="42"/>
-      <c r="CO30" s="42"/>
-      <c r="CP30" s="42"/>
-      <c r="CQ30" s="42"/>
-      <c r="CR30" s="42"/>
-      <c r="CS30" s="42"/>
-      <c r="CT30" s="42"/>
-      <c r="CU30" s="42"/>
-      <c r="CV30" s="42"/>
-      <c r="CW30" s="42"/>
-      <c r="CX30" s="42"/>
-      <c r="CY30" s="42"/>
-      <c r="CZ30" s="42"/>
-      <c r="DA30" s="42"/>
-      <c r="DB30" s="42"/>
-      <c r="DC30" s="42"/>
-      <c r="DD30" s="42"/>
-      <c r="DE30" s="42"/>
-      <c r="DF30" s="42"/>
-      <c r="DG30" s="42"/>
-      <c r="DH30" s="42"/>
-      <c r="DI30" s="42"/>
-      <c r="DJ30" s="42"/>
-      <c r="DK30" s="42"/>
-      <c r="DL30" s="42"/>
-      <c r="DM30" s="42"/>
-      <c r="DN30" s="42"/>
-      <c r="DO30" s="42"/>
-      <c r="DP30" s="42"/>
-      <c r="DQ30" s="42"/>
-      <c r="DR30" s="42"/>
-      <c r="DS30" s="42"/>
-      <c r="DT30" s="42"/>
-      <c r="DU30" s="42"/>
-      <c r="DV30" s="42"/>
-      <c r="DW30" s="42"/>
-      <c r="DX30" s="42"/>
-      <c r="DY30" s="42"/>
-      <c r="DZ30" s="42"/>
-      <c r="EA30" s="42"/>
-      <c r="EB30" s="42"/>
-      <c r="EC30" s="42"/>
-      <c r="ED30" s="42"/>
-      <c r="EE30" s="42"/>
-      <c r="EF30" s="42"/>
-      <c r="EG30" s="42"/>
-      <c r="EH30" s="42"/>
-      <c r="EI30" s="42"/>
-      <c r="EJ30" s="42"/>
-      <c r="EK30" s="42"/>
-      <c r="EL30" s="42"/>
-      <c r="EM30" s="42"/>
-      <c r="EN30" s="42"/>
-      <c r="EO30" s="42"/>
-      <c r="EP30" s="42"/>
-      <c r="EQ30" s="42"/>
-      <c r="ER30" s="42"/>
-      <c r="ES30" s="42"/>
-      <c r="ET30" s="42"/>
-      <c r="EU30" s="42"/>
-      <c r="EV30" s="42"/>
-      <c r="EW30" s="42"/>
-      <c r="EX30" s="42"/>
-      <c r="EY30" s="42"/>
-      <c r="EZ30" s="42"/>
-      <c r="FA30" s="42"/>
-      <c r="FB30" s="42"/>
-      <c r="FC30" s="42"/>
-      <c r="FD30" s="42"/>
-      <c r="FE30" s="42"/>
-      <c r="FF30" s="42"/>
-      <c r="FG30" s="42"/>
-      <c r="FH30" s="42"/>
-      <c r="FI30" s="42"/>
-      <c r="FJ30" s="42"/>
-      <c r="FK30" s="42"/>
-      <c r="FL30" s="42"/>
-      <c r="FM30" s="42"/>
-      <c r="FN30" s="42"/>
-      <c r="FO30" s="42"/>
-      <c r="FP30" s="42"/>
-      <c r="FQ30" s="42"/>
-      <c r="FR30" s="42"/>
-      <c r="FS30" s="42"/>
-      <c r="FT30" s="42"/>
-      <c r="FU30" s="42"/>
-      <c r="FV30" s="42"/>
-      <c r="FW30" s="42"/>
-      <c r="FX30" s="42"/>
-      <c r="FY30" s="42"/>
-      <c r="FZ30" s="42"/>
-      <c r="GA30" s="42"/>
-      <c r="GB30" s="42"/>
-      <c r="GC30" s="42"/>
-      <c r="GD30" s="42"/>
-      <c r="GE30" s="42"/>
-      <c r="GF30" s="42"/>
-      <c r="GG30" s="42"/>
-      <c r="GH30" s="42"/>
-      <c r="GI30" s="42"/>
-      <c r="GJ30" s="42"/>
-      <c r="GK30" s="42"/>
-      <c r="GL30" s="42"/>
-      <c r="GM30" s="42"/>
-      <c r="GN30" s="42"/>
-      <c r="GO30" s="42"/>
-      <c r="GP30" s="42"/>
-      <c r="GQ30" s="42"/>
-      <c r="GR30" s="42"/>
-      <c r="GS30" s="42"/>
-      <c r="GT30" s="42"/>
-      <c r="GU30" s="42"/>
-      <c r="GV30" s="42"/>
-      <c r="GW30" s="42"/>
-      <c r="GX30" s="42"/>
-      <c r="GY30" s="42"/>
-      <c r="GZ30" s="42"/>
-      <c r="HA30" s="42"/>
-      <c r="HB30" s="42"/>
-      <c r="HC30" s="42"/>
-      <c r="HD30" s="42"/>
-      <c r="HE30" s="42"/>
-      <c r="HF30" s="42"/>
-      <c r="HG30" s="42"/>
-      <c r="HH30" s="42"/>
-      <c r="HI30" s="42"/>
-      <c r="HJ30" s="42"/>
-      <c r="HK30" s="42"/>
-      <c r="HL30" s="42"/>
-      <c r="HM30" s="42"/>
-      <c r="HN30" s="42"/>
-      <c r="HO30" s="42"/>
-      <c r="HP30" s="42"/>
-      <c r="HQ30" s="42"/>
-      <c r="HR30" s="42"/>
-      <c r="HS30" s="42"/>
-      <c r="HT30" s="42"/>
-      <c r="HU30" s="42"/>
-      <c r="HV30" s="42"/>
-      <c r="HW30" s="42"/>
-      <c r="HX30" s="42"/>
-      <c r="HY30" s="42"/>
-      <c r="HZ30" s="42"/>
-      <c r="IA30" s="42"/>
-      <c r="IB30" s="42"/>
-      <c r="IC30" s="42"/>
-      <c r="ID30" s="42"/>
-      <c r="IE30" s="42"/>
-      <c r="IF30" s="42"/>
-      <c r="IG30" s="42"/>
-      <c r="IH30" s="42"/>
-      <c r="II30" s="42"/>
-      <c r="IJ30" s="42"/>
-      <c r="IK30" s="42"/>
-      <c r="IL30" s="42"/>
-      <c r="IM30" s="42"/>
-      <c r="IN30" s="42"/>
-      <c r="IO30" s="42"/>
-      <c r="IP30" s="14"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="55"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="55"/>
+      <c r="AV30" s="55"/>
+      <c r="AW30" s="55"/>
+      <c r="AX30" s="55"/>
+      <c r="AY30" s="55"/>
+      <c r="AZ30" s="55"/>
+      <c r="BA30" s="55"/>
+      <c r="BB30" s="55"/>
+      <c r="BC30" s="55"/>
+      <c r="BD30" s="55"/>
+      <c r="BE30" s="55"/>
+      <c r="BF30" s="55"/>
+      <c r="BG30" s="55"/>
+      <c r="BH30" s="55"/>
+      <c r="BI30" s="55"/>
+      <c r="BJ30" s="55"/>
+      <c r="BK30" s="55"/>
+      <c r="BL30" s="55"/>
+      <c r="BM30" s="55"/>
+      <c r="BN30" s="55"/>
+      <c r="BO30" s="55"/>
+      <c r="BP30" s="55"/>
+      <c r="BQ30" s="55"/>
+      <c r="BR30" s="55"/>
+      <c r="BS30" s="55"/>
+      <c r="BT30" s="55"/>
+      <c r="BU30" s="55"/>
+      <c r="BV30" s="55"/>
+      <c r="BW30" s="55"/>
+      <c r="BX30" s="55"/>
+      <c r="BY30" s="55"/>
+      <c r="BZ30" s="55"/>
+      <c r="CA30" s="55"/>
+      <c r="CB30" s="55"/>
+      <c r="CC30" s="55"/>
+      <c r="CD30" s="55"/>
+      <c r="CE30" s="55"/>
+      <c r="CF30" s="55"/>
+      <c r="CG30" s="55"/>
+      <c r="CH30" s="55"/>
+      <c r="CI30" s="55"/>
+      <c r="CJ30" s="55"/>
+      <c r="CK30" s="55"/>
+      <c r="CL30" s="55"/>
+      <c r="CM30" s="55"/>
+      <c r="CN30" s="55"/>
+      <c r="CO30" s="55"/>
+      <c r="CP30" s="55"/>
+      <c r="CQ30" s="55"/>
+      <c r="CR30" s="55"/>
+      <c r="CS30" s="55"/>
+      <c r="CT30" s="55"/>
+      <c r="CU30" s="55"/>
+      <c r="CV30" s="55"/>
+      <c r="CW30" s="55"/>
+      <c r="CX30" s="55"/>
+      <c r="CY30" s="55"/>
+      <c r="CZ30" s="55"/>
+      <c r="DA30" s="55"/>
+      <c r="DB30" s="55"/>
+      <c r="DC30" s="55"/>
+      <c r="DD30" s="55"/>
+      <c r="DE30" s="55"/>
+      <c r="DF30" s="55"/>
+      <c r="DG30" s="55"/>
+      <c r="DH30" s="55"/>
+      <c r="DI30" s="55"/>
+      <c r="DJ30" s="55"/>
+      <c r="DK30" s="55"/>
+      <c r="DL30" s="55"/>
+      <c r="DM30" s="55"/>
+      <c r="DN30" s="55"/>
+      <c r="DO30" s="55"/>
+      <c r="DP30" s="55"/>
+      <c r="DQ30" s="55"/>
+      <c r="DR30" s="55"/>
+      <c r="DS30" s="55"/>
+      <c r="DT30" s="55"/>
+      <c r="DU30" s="55"/>
+      <c r="DV30" s="55"/>
+      <c r="DW30" s="55"/>
+      <c r="DX30" s="55"/>
+      <c r="DY30" s="55"/>
+      <c r="DZ30" s="55"/>
+      <c r="EA30" s="55"/>
+      <c r="EB30" s="55"/>
+      <c r="EC30" s="55"/>
+      <c r="ED30" s="55"/>
+      <c r="EE30" s="55"/>
+      <c r="EF30" s="55"/>
+      <c r="EG30" s="55"/>
+      <c r="EH30" s="55"/>
+      <c r="EI30" s="55"/>
+      <c r="EJ30" s="55"/>
+      <c r="EK30" s="55"/>
+      <c r="EL30" s="55"/>
+      <c r="EM30" s="55"/>
+      <c r="EN30" s="55"/>
+      <c r="EO30" s="55"/>
+      <c r="EP30" s="55"/>
+      <c r="EQ30" s="55"/>
+      <c r="ER30" s="55"/>
+      <c r="ES30" s="55"/>
+      <c r="ET30" s="55"/>
+      <c r="EU30" s="55"/>
+      <c r="EV30" s="55"/>
+      <c r="EW30" s="55"/>
+      <c r="EX30" s="55"/>
+      <c r="EY30" s="55"/>
+      <c r="EZ30" s="55"/>
+      <c r="FA30" s="55"/>
+      <c r="FB30" s="55"/>
+      <c r="FC30" s="55"/>
+      <c r="FD30" s="55"/>
+      <c r="FE30" s="55"/>
+      <c r="FF30" s="55"/>
+      <c r="FG30" s="55"/>
+      <c r="FH30" s="55"/>
+      <c r="FI30" s="55"/>
+      <c r="FJ30" s="55"/>
+      <c r="FK30" s="55"/>
+      <c r="FL30" s="55"/>
+      <c r="FM30" s="55"/>
+      <c r="FN30" s="55"/>
+      <c r="FO30" s="55"/>
+      <c r="FP30" s="55"/>
+      <c r="FQ30" s="55"/>
+      <c r="FR30" s="55"/>
+      <c r="FS30" s="55"/>
+      <c r="FT30" s="55"/>
+      <c r="FU30" s="55"/>
+      <c r="FV30" s="55"/>
+      <c r="FW30" s="55"/>
+      <c r="FX30" s="55"/>
+      <c r="FY30" s="55"/>
+      <c r="FZ30" s="55"/>
+      <c r="GA30" s="55"/>
+      <c r="GB30" s="55"/>
+      <c r="GC30" s="55"/>
+      <c r="GD30" s="55"/>
+      <c r="GE30" s="55"/>
+      <c r="GF30" s="55"/>
+      <c r="GG30" s="55"/>
+      <c r="GH30" s="55"/>
+      <c r="GI30" s="55"/>
+      <c r="GJ30" s="55"/>
+      <c r="GK30" s="55"/>
+      <c r="GL30" s="55"/>
+      <c r="GM30" s="55"/>
+      <c r="GN30" s="55"/>
+      <c r="GO30" s="55"/>
+      <c r="GP30" s="55"/>
+      <c r="GQ30" s="55"/>
+      <c r="GR30" s="55"/>
+      <c r="GS30" s="55"/>
+      <c r="GT30" s="55"/>
+      <c r="GU30" s="55"/>
+      <c r="GV30" s="55"/>
+      <c r="GW30" s="55"/>
+      <c r="GX30" s="55"/>
+      <c r="GY30" s="55"/>
+      <c r="GZ30" s="55"/>
+      <c r="HA30" s="55"/>
+      <c r="HB30" s="55"/>
+      <c r="HC30" s="55"/>
+      <c r="HD30" s="55"/>
+      <c r="HE30" s="55"/>
+      <c r="HF30" s="55"/>
+      <c r="HG30" s="55"/>
+      <c r="HH30" s="55"/>
+      <c r="HI30" s="55"/>
+      <c r="HJ30" s="55"/>
+      <c r="HK30" s="55"/>
+      <c r="HL30" s="55"/>
+      <c r="HM30" s="55"/>
+      <c r="HN30" s="55"/>
+      <c r="HO30" s="55"/>
+      <c r="HP30" s="55"/>
+      <c r="HQ30" s="55"/>
+      <c r="HR30" s="55"/>
+      <c r="HS30" s="55"/>
+      <c r="HT30" s="55"/>
+      <c r="HU30" s="55"/>
+      <c r="HV30" s="55"/>
+      <c r="HW30" s="55"/>
+      <c r="HX30" s="55"/>
+      <c r="HY30" s="55"/>
+      <c r="HZ30" s="55"/>
+      <c r="IA30" s="55"/>
+      <c r="IB30" s="55"/>
+      <c r="IC30" s="55"/>
+      <c r="ID30" s="55"/>
+      <c r="IE30" s="55"/>
+      <c r="IF30" s="55"/>
+      <c r="IG30" s="55"/>
+      <c r="IH30" s="55"/>
+      <c r="II30" s="55"/>
+      <c r="IJ30" s="55"/>
+      <c r="IK30" s="55"/>
+      <c r="IL30" s="55"/>
+      <c r="IM30" s="55"/>
+      <c r="IN30" s="55"/>
+      <c r="IO30" s="55"/>
+      <c r="IP30" s="40"/>
       <c r="IQ30" s="14"/>
       <c r="IR30" s="14"/>
       <c r="IS30" s="14"/>
@@ -10319,22 +10319,22 @@
       <c r="IX30" s="14"/>
     </row>
     <row r="31" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="24">
-        <f>DATE(2021,11,15)</f>
-        <v>44515</v>
-      </c>
-      <c r="D31" s="24">
-        <f>DATE(2022,1,31)</f>
-        <v>44592</v>
+      <c r="A31" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="34">
+        <f>DATE(2022,1,23)</f>
+        <v>44584</v>
+      </c>
+      <c r="D31" s="34">
+        <f>DATE(2022,2,13)</f>
+        <v>44605</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13">
         <f t="shared" si="156"/>
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -10350,235 +10350,235 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="14"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="14"/>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="14"/>
-      <c r="AR31" s="14"/>
-      <c r="AS31" s="14"/>
-      <c r="AT31" s="14"/>
-      <c r="AU31" s="14"/>
-      <c r="AV31" s="14"/>
-      <c r="AW31" s="14"/>
-      <c r="AX31" s="14"/>
-      <c r="AY31" s="14"/>
-      <c r="AZ31" s="14"/>
-      <c r="BA31" s="14"/>
-      <c r="BB31" s="14"/>
-      <c r="BC31" s="14"/>
-      <c r="BD31" s="14"/>
-      <c r="BE31" s="14"/>
-      <c r="BF31" s="14"/>
-      <c r="BG31" s="14"/>
-      <c r="BH31" s="14"/>
-      <c r="BI31" s="14"/>
-      <c r="BJ31" s="14"/>
-      <c r="BK31" s="14"/>
-      <c r="BL31" s="14"/>
-      <c r="BM31" s="14"/>
-      <c r="BN31" s="14"/>
-      <c r="BO31" s="14"/>
-      <c r="BP31" s="14"/>
-      <c r="BQ31" s="14"/>
-      <c r="BR31" s="14"/>
-      <c r="BS31" s="14"/>
-      <c r="BT31" s="14"/>
-      <c r="BU31" s="14"/>
-      <c r="BV31" s="14"/>
-      <c r="BW31" s="14"/>
-      <c r="BX31" s="14"/>
-      <c r="BY31" s="14"/>
-      <c r="BZ31" s="14"/>
-      <c r="CA31" s="14"/>
-      <c r="CB31" s="14"/>
-      <c r="CC31" s="14"/>
-      <c r="CD31" s="14"/>
-      <c r="CE31" s="14"/>
-      <c r="CF31" s="14"/>
-      <c r="CG31" s="14"/>
-      <c r="CH31" s="14"/>
-      <c r="CI31" s="14"/>
-      <c r="CJ31" s="14"/>
-      <c r="CK31" s="14"/>
-      <c r="CL31" s="14"/>
-      <c r="CM31" s="14"/>
-      <c r="CN31" s="14"/>
-      <c r="CO31" s="14"/>
-      <c r="CP31" s="14"/>
-      <c r="CQ31" s="14"/>
-      <c r="CR31" s="14"/>
-      <c r="CS31" s="14"/>
-      <c r="CT31" s="14"/>
-      <c r="CU31" s="14"/>
-      <c r="CV31" s="14"/>
-      <c r="CW31" s="14"/>
-      <c r="CX31" s="14"/>
-      <c r="CY31" s="14"/>
-      <c r="CZ31" s="14"/>
-      <c r="DA31" s="14"/>
-      <c r="DB31" s="14"/>
-      <c r="DC31" s="14"/>
-      <c r="DD31" s="14"/>
-      <c r="DE31" s="14"/>
-      <c r="DF31" s="14"/>
-      <c r="DG31" s="14"/>
-      <c r="DH31" s="14"/>
-      <c r="DI31" s="14"/>
-      <c r="DJ31" s="14"/>
-      <c r="DK31" s="14"/>
-      <c r="DL31" s="14"/>
-      <c r="DM31" s="14"/>
-      <c r="DN31" s="14"/>
-      <c r="DO31" s="14"/>
-      <c r="DP31" s="14"/>
-      <c r="DQ31" s="14"/>
-      <c r="DR31" s="14"/>
-      <c r="DS31" s="14"/>
-      <c r="DT31" s="14"/>
-      <c r="DU31" s="14"/>
-      <c r="DV31" s="14"/>
-      <c r="DW31" s="14"/>
-      <c r="DX31" s="14"/>
-      <c r="DY31" s="14"/>
-      <c r="DZ31" s="14"/>
-      <c r="EA31" s="14"/>
-      <c r="EB31" s="14"/>
-      <c r="EC31" s="14"/>
-      <c r="ED31" s="14"/>
-      <c r="EE31" s="14"/>
-      <c r="EF31" s="14"/>
-      <c r="EG31" s="14"/>
-      <c r="EH31" s="14"/>
-      <c r="EI31" s="14"/>
-      <c r="EJ31" s="14"/>
-      <c r="EK31" s="14"/>
-      <c r="EL31" s="14"/>
-      <c r="EM31" s="14"/>
-      <c r="EN31" s="14"/>
-      <c r="EO31" s="14"/>
-      <c r="EP31" s="14"/>
-      <c r="EQ31" s="14"/>
-      <c r="ER31" s="14"/>
-      <c r="ES31" s="14"/>
-      <c r="ET31" s="14"/>
-      <c r="EU31" s="14"/>
-      <c r="EV31" s="14"/>
-      <c r="EW31" s="14"/>
-      <c r="EX31" s="14"/>
-      <c r="EY31" s="14"/>
-      <c r="EZ31" s="14"/>
-      <c r="FA31" s="14"/>
-      <c r="FB31" s="14"/>
-      <c r="FC31" s="14"/>
-      <c r="FD31" s="14"/>
-      <c r="FE31" s="14"/>
-      <c r="FF31" s="14"/>
-      <c r="FG31" s="14"/>
-      <c r="FH31" s="14"/>
-      <c r="FI31" s="14"/>
-      <c r="FJ31" s="14"/>
-      <c r="FK31" s="14"/>
-      <c r="FL31" s="14"/>
-      <c r="FM31" s="14"/>
-      <c r="FN31" s="14"/>
-      <c r="FO31" s="14"/>
-      <c r="FP31" s="14"/>
-      <c r="FQ31" s="14"/>
-      <c r="FR31" s="14"/>
-      <c r="FS31" s="14"/>
-      <c r="FT31" s="14"/>
-      <c r="FU31" s="14"/>
-      <c r="FV31" s="14"/>
-      <c r="FW31" s="14"/>
-      <c r="FX31" s="14"/>
-      <c r="FY31" s="14"/>
-      <c r="FZ31" s="14"/>
-      <c r="GA31" s="14"/>
-      <c r="GB31" s="14"/>
-      <c r="GC31" s="14"/>
-      <c r="GD31" s="14"/>
-      <c r="GE31" s="14"/>
-      <c r="GF31" s="14"/>
-      <c r="GG31" s="14"/>
-      <c r="GH31" s="14"/>
-      <c r="GI31" s="14"/>
-      <c r="GJ31" s="14"/>
-      <c r="GK31" s="14"/>
-      <c r="GL31" s="14"/>
-      <c r="GM31" s="14"/>
-      <c r="GN31" s="14"/>
-      <c r="GO31" s="14"/>
-      <c r="GP31" s="14"/>
-      <c r="GQ31" s="14"/>
-      <c r="GR31" s="14"/>
-      <c r="GS31" s="14"/>
-      <c r="GT31" s="14"/>
-      <c r="GU31" s="14"/>
-      <c r="GV31" s="14"/>
-      <c r="GW31" s="14"/>
-      <c r="GX31" s="14"/>
-      <c r="GY31" s="14"/>
-      <c r="GZ31" s="14"/>
-      <c r="HA31" s="14"/>
-      <c r="HB31" s="14"/>
-      <c r="HC31" s="14"/>
-      <c r="HD31" s="14"/>
-      <c r="HE31" s="14"/>
-      <c r="HF31" s="14"/>
-      <c r="HG31" s="14"/>
-      <c r="HH31" s="14"/>
-      <c r="HI31" s="14"/>
-      <c r="HJ31" s="14"/>
-      <c r="HK31" s="14"/>
-      <c r="HL31" s="14"/>
-      <c r="HM31" s="14"/>
-      <c r="HN31" s="14"/>
-      <c r="HO31" s="14"/>
-      <c r="HP31" s="14"/>
-      <c r="HQ31" s="14"/>
-      <c r="HR31" s="14"/>
-      <c r="HS31" s="14"/>
-      <c r="HT31" s="14"/>
-      <c r="HU31" s="14"/>
-      <c r="HV31" s="14"/>
-      <c r="HW31" s="14"/>
-      <c r="HX31" s="14"/>
-      <c r="HY31" s="14"/>
-      <c r="HZ31" s="14"/>
-      <c r="IA31" s="14"/>
-      <c r="IB31" s="14"/>
-      <c r="IC31" s="14"/>
-      <c r="ID31" s="14"/>
-      <c r="IE31" s="14"/>
-      <c r="IF31" s="14"/>
-      <c r="IG31" s="14"/>
-      <c r="IH31" s="14"/>
-      <c r="II31" s="14"/>
-      <c r="IJ31" s="14"/>
-      <c r="IK31" s="14"/>
-      <c r="IL31" s="14"/>
-      <c r="IM31" s="14"/>
-      <c r="IN31" s="14"/>
-      <c r="IO31" s="14"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="42"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="42"/>
+      <c r="BC31" s="42"/>
+      <c r="BD31" s="42"/>
+      <c r="BE31" s="42"/>
+      <c r="BF31" s="42"/>
+      <c r="BG31" s="42"/>
+      <c r="BH31" s="42"/>
+      <c r="BI31" s="42"/>
+      <c r="BJ31" s="42"/>
+      <c r="BK31" s="42"/>
+      <c r="BL31" s="42"/>
+      <c r="BM31" s="42"/>
+      <c r="BN31" s="42"/>
+      <c r="BO31" s="42"/>
+      <c r="BP31" s="42"/>
+      <c r="BQ31" s="42"/>
+      <c r="BR31" s="42"/>
+      <c r="BS31" s="42"/>
+      <c r="BT31" s="42"/>
+      <c r="BU31" s="42"/>
+      <c r="BV31" s="42"/>
+      <c r="BW31" s="42"/>
+      <c r="BX31" s="42"/>
+      <c r="BY31" s="42"/>
+      <c r="BZ31" s="42"/>
+      <c r="CA31" s="42"/>
+      <c r="CB31" s="42"/>
+      <c r="CC31" s="42"/>
+      <c r="CD31" s="42"/>
+      <c r="CE31" s="42"/>
+      <c r="CF31" s="42"/>
+      <c r="CG31" s="42"/>
+      <c r="CH31" s="42"/>
+      <c r="CI31" s="42"/>
+      <c r="CJ31" s="42"/>
+      <c r="CK31" s="42"/>
+      <c r="CL31" s="42"/>
+      <c r="CM31" s="42"/>
+      <c r="CN31" s="42"/>
+      <c r="CO31" s="42"/>
+      <c r="CP31" s="42"/>
+      <c r="CQ31" s="42"/>
+      <c r="CR31" s="42"/>
+      <c r="CS31" s="42"/>
+      <c r="CT31" s="42"/>
+      <c r="CU31" s="42"/>
+      <c r="CV31" s="42"/>
+      <c r="CW31" s="42"/>
+      <c r="CX31" s="42"/>
+      <c r="CY31" s="42"/>
+      <c r="CZ31" s="42"/>
+      <c r="DA31" s="42"/>
+      <c r="DB31" s="42"/>
+      <c r="DC31" s="42"/>
+      <c r="DD31" s="42"/>
+      <c r="DE31" s="42"/>
+      <c r="DF31" s="42"/>
+      <c r="DG31" s="42"/>
+      <c r="DH31" s="42"/>
+      <c r="DI31" s="42"/>
+      <c r="DJ31" s="42"/>
+      <c r="DK31" s="42"/>
+      <c r="DL31" s="42"/>
+      <c r="DM31" s="42"/>
+      <c r="DN31" s="42"/>
+      <c r="DO31" s="42"/>
+      <c r="DP31" s="42"/>
+      <c r="DQ31" s="42"/>
+      <c r="DR31" s="42"/>
+      <c r="DS31" s="42"/>
+      <c r="DT31" s="42"/>
+      <c r="DU31" s="42"/>
+      <c r="DV31" s="42"/>
+      <c r="DW31" s="42"/>
+      <c r="DX31" s="42"/>
+      <c r="DY31" s="42"/>
+      <c r="DZ31" s="42"/>
+      <c r="EA31" s="42"/>
+      <c r="EB31" s="42"/>
+      <c r="EC31" s="42"/>
+      <c r="ED31" s="42"/>
+      <c r="EE31" s="42"/>
+      <c r="EF31" s="42"/>
+      <c r="EG31" s="42"/>
+      <c r="EH31" s="42"/>
+      <c r="EI31" s="42"/>
+      <c r="EJ31" s="42"/>
+      <c r="EK31" s="42"/>
+      <c r="EL31" s="42"/>
+      <c r="EM31" s="42"/>
+      <c r="EN31" s="42"/>
+      <c r="EO31" s="42"/>
+      <c r="EP31" s="42"/>
+      <c r="EQ31" s="42"/>
+      <c r="ER31" s="42"/>
+      <c r="ES31" s="42"/>
+      <c r="ET31" s="42"/>
+      <c r="EU31" s="42"/>
+      <c r="EV31" s="42"/>
+      <c r="EW31" s="42"/>
+      <c r="EX31" s="42"/>
+      <c r="EY31" s="42"/>
+      <c r="EZ31" s="42"/>
+      <c r="FA31" s="42"/>
+      <c r="FB31" s="42"/>
+      <c r="FC31" s="42"/>
+      <c r="FD31" s="42"/>
+      <c r="FE31" s="42"/>
+      <c r="FF31" s="42"/>
+      <c r="FG31" s="42"/>
+      <c r="FH31" s="42"/>
+      <c r="FI31" s="42"/>
+      <c r="FJ31" s="42"/>
+      <c r="FK31" s="42"/>
+      <c r="FL31" s="42"/>
+      <c r="FM31" s="42"/>
+      <c r="FN31" s="42"/>
+      <c r="FO31" s="42"/>
+      <c r="FP31" s="42"/>
+      <c r="FQ31" s="42"/>
+      <c r="FR31" s="42"/>
+      <c r="FS31" s="42"/>
+      <c r="FT31" s="42"/>
+      <c r="FU31" s="42"/>
+      <c r="FV31" s="42"/>
+      <c r="FW31" s="42"/>
+      <c r="FX31" s="42"/>
+      <c r="FY31" s="42"/>
+      <c r="FZ31" s="42"/>
+      <c r="GA31" s="42"/>
+      <c r="GB31" s="42"/>
+      <c r="GC31" s="42"/>
+      <c r="GD31" s="42"/>
+      <c r="GE31" s="42"/>
+      <c r="GF31" s="42"/>
+      <c r="GG31" s="42"/>
+      <c r="GH31" s="42"/>
+      <c r="GI31" s="42"/>
+      <c r="GJ31" s="42"/>
+      <c r="GK31" s="42"/>
+      <c r="GL31" s="42"/>
+      <c r="GM31" s="42"/>
+      <c r="GN31" s="42"/>
+      <c r="GO31" s="42"/>
+      <c r="GP31" s="42"/>
+      <c r="GQ31" s="42"/>
+      <c r="GR31" s="42"/>
+      <c r="GS31" s="42"/>
+      <c r="GT31" s="42"/>
+      <c r="GU31" s="42"/>
+      <c r="GV31" s="42"/>
+      <c r="GW31" s="42"/>
+      <c r="GX31" s="42"/>
+      <c r="GY31" s="42"/>
+      <c r="GZ31" s="42"/>
+      <c r="HA31" s="42"/>
+      <c r="HB31" s="42"/>
+      <c r="HC31" s="42"/>
+      <c r="HD31" s="42"/>
+      <c r="HE31" s="42"/>
+      <c r="HF31" s="42"/>
+      <c r="HG31" s="42"/>
+      <c r="HH31" s="42"/>
+      <c r="HI31" s="42"/>
+      <c r="HJ31" s="42"/>
+      <c r="HK31" s="42"/>
+      <c r="HL31" s="42"/>
+      <c r="HM31" s="42"/>
+      <c r="HN31" s="42"/>
+      <c r="HO31" s="42"/>
+      <c r="HP31" s="42"/>
+      <c r="HQ31" s="42"/>
+      <c r="HR31" s="42"/>
+      <c r="HS31" s="42"/>
+      <c r="HT31" s="42"/>
+      <c r="HU31" s="42"/>
+      <c r="HV31" s="42"/>
+      <c r="HW31" s="42"/>
+      <c r="HX31" s="42"/>
+      <c r="HY31" s="42"/>
+      <c r="HZ31" s="42"/>
+      <c r="IA31" s="42"/>
+      <c r="IB31" s="42"/>
+      <c r="IC31" s="42"/>
+      <c r="ID31" s="42"/>
+      <c r="IE31" s="42"/>
+      <c r="IF31" s="42"/>
+      <c r="IG31" s="42"/>
+      <c r="IH31" s="42"/>
+      <c r="II31" s="42"/>
+      <c r="IJ31" s="42"/>
+      <c r="IK31" s="42"/>
+      <c r="IL31" s="42"/>
+      <c r="IM31" s="42"/>
+      <c r="IN31" s="42"/>
+      <c r="IO31" s="42"/>
       <c r="IP31" s="14"/>
       <c r="IQ31" s="14"/>
       <c r="IR31" s="14"/>
@@ -10590,22 +10590,22 @@
       <c r="IX31" s="14"/>
     </row>
     <row r="32" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="66"/>
+      <c r="A32" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="58"/>
       <c r="C32" s="24">
-        <f>DATE(2022,6,1)</f>
-        <v>44713</v>
+        <f>DATE(2021,11,15)</f>
+        <v>44515</v>
       </c>
       <c r="D32" s="24">
-        <f>DATE(2022,6,31)</f>
-        <v>44743</v>
+        <f>DATE(2022,1,31)</f>
+        <v>44592</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13">
         <f t="shared" si="156"/>
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
@@ -10861,14 +10861,22 @@
       <c r="IX32" s="14"/>
     </row>
     <row r="33" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="24">
+        <f>DATE(2022,6,1)</f>
+        <v>44713</v>
+      </c>
+      <c r="D33" s="24">
+        <f>DATE(2022,6,31)</f>
+        <v>44743</v>
+      </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="13" t="str">
+      <c r="F33" s="13">
         <f t="shared" si="156"/>
-        <v/>
+        <v>31</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -11123,39 +11131,291 @@
       <c r="IW33" s="14"/>
       <c r="IX33" s="14"/>
     </row>
-    <row r="34" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="4"/>
+    <row r="34" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13" t="str">
+        <f t="shared" si="156"/>
+        <v/>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="14"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="14"/>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14"/>
+      <c r="AU34" s="14"/>
+      <c r="AV34" s="14"/>
+      <c r="AW34" s="14"/>
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="14"/>
+      <c r="AZ34" s="14"/>
+      <c r="BA34" s="14"/>
+      <c r="BB34" s="14"/>
+      <c r="BC34" s="14"/>
+      <c r="BD34" s="14"/>
+      <c r="BE34" s="14"/>
+      <c r="BF34" s="14"/>
+      <c r="BG34" s="14"/>
+      <c r="BH34" s="14"/>
+      <c r="BI34" s="14"/>
+      <c r="BJ34" s="14"/>
+      <c r="BK34" s="14"/>
+      <c r="BL34" s="14"/>
+      <c r="BM34" s="14"/>
+      <c r="BN34" s="14"/>
+      <c r="BO34" s="14"/>
+      <c r="BP34" s="14"/>
+      <c r="BQ34" s="14"/>
+      <c r="BR34" s="14"/>
+      <c r="BS34" s="14"/>
+      <c r="BT34" s="14"/>
+      <c r="BU34" s="14"/>
+      <c r="BV34" s="14"/>
+      <c r="BW34" s="14"/>
+      <c r="BX34" s="14"/>
+      <c r="BY34" s="14"/>
+      <c r="BZ34" s="14"/>
+      <c r="CA34" s="14"/>
+      <c r="CB34" s="14"/>
+      <c r="CC34" s="14"/>
+      <c r="CD34" s="14"/>
+      <c r="CE34" s="14"/>
+      <c r="CF34" s="14"/>
+      <c r="CG34" s="14"/>
+      <c r="CH34" s="14"/>
+      <c r="CI34" s="14"/>
+      <c r="CJ34" s="14"/>
+      <c r="CK34" s="14"/>
+      <c r="CL34" s="14"/>
+      <c r="CM34" s="14"/>
+      <c r="CN34" s="14"/>
+      <c r="CO34" s="14"/>
+      <c r="CP34" s="14"/>
+      <c r="CQ34" s="14"/>
+      <c r="CR34" s="14"/>
+      <c r="CS34" s="14"/>
+      <c r="CT34" s="14"/>
+      <c r="CU34" s="14"/>
+      <c r="CV34" s="14"/>
+      <c r="CW34" s="14"/>
+      <c r="CX34" s="14"/>
+      <c r="CY34" s="14"/>
+      <c r="CZ34" s="14"/>
+      <c r="DA34" s="14"/>
+      <c r="DB34" s="14"/>
+      <c r="DC34" s="14"/>
+      <c r="DD34" s="14"/>
+      <c r="DE34" s="14"/>
+      <c r="DF34" s="14"/>
+      <c r="DG34" s="14"/>
+      <c r="DH34" s="14"/>
+      <c r="DI34" s="14"/>
+      <c r="DJ34" s="14"/>
+      <c r="DK34" s="14"/>
+      <c r="DL34" s="14"/>
+      <c r="DM34" s="14"/>
+      <c r="DN34" s="14"/>
+      <c r="DO34" s="14"/>
+      <c r="DP34" s="14"/>
+      <c r="DQ34" s="14"/>
+      <c r="DR34" s="14"/>
+      <c r="DS34" s="14"/>
+      <c r="DT34" s="14"/>
+      <c r="DU34" s="14"/>
+      <c r="DV34" s="14"/>
+      <c r="DW34" s="14"/>
+      <c r="DX34" s="14"/>
+      <c r="DY34" s="14"/>
+      <c r="DZ34" s="14"/>
+      <c r="EA34" s="14"/>
+      <c r="EB34" s="14"/>
+      <c r="EC34" s="14"/>
+      <c r="ED34" s="14"/>
+      <c r="EE34" s="14"/>
+      <c r="EF34" s="14"/>
+      <c r="EG34" s="14"/>
+      <c r="EH34" s="14"/>
+      <c r="EI34" s="14"/>
+      <c r="EJ34" s="14"/>
+      <c r="EK34" s="14"/>
+      <c r="EL34" s="14"/>
+      <c r="EM34" s="14"/>
+      <c r="EN34" s="14"/>
+      <c r="EO34" s="14"/>
+      <c r="EP34" s="14"/>
+      <c r="EQ34" s="14"/>
+      <c r="ER34" s="14"/>
+      <c r="ES34" s="14"/>
+      <c r="ET34" s="14"/>
+      <c r="EU34" s="14"/>
+      <c r="EV34" s="14"/>
+      <c r="EW34" s="14"/>
+      <c r="EX34" s="14"/>
+      <c r="EY34" s="14"/>
+      <c r="EZ34" s="14"/>
+      <c r="FA34" s="14"/>
+      <c r="FB34" s="14"/>
+      <c r="FC34" s="14"/>
+      <c r="FD34" s="14"/>
+      <c r="FE34" s="14"/>
+      <c r="FF34" s="14"/>
+      <c r="FG34" s="14"/>
+      <c r="FH34" s="14"/>
+      <c r="FI34" s="14"/>
+      <c r="FJ34" s="14"/>
+      <c r="FK34" s="14"/>
+      <c r="FL34" s="14"/>
+      <c r="FM34" s="14"/>
+      <c r="FN34" s="14"/>
+      <c r="FO34" s="14"/>
+      <c r="FP34" s="14"/>
+      <c r="FQ34" s="14"/>
+      <c r="FR34" s="14"/>
+      <c r="FS34" s="14"/>
+      <c r="FT34" s="14"/>
+      <c r="FU34" s="14"/>
+      <c r="FV34" s="14"/>
+      <c r="FW34" s="14"/>
+      <c r="FX34" s="14"/>
+      <c r="FY34" s="14"/>
+      <c r="FZ34" s="14"/>
+      <c r="GA34" s="14"/>
+      <c r="GB34" s="14"/>
+      <c r="GC34" s="14"/>
+      <c r="GD34" s="14"/>
+      <c r="GE34" s="14"/>
+      <c r="GF34" s="14"/>
+      <c r="GG34" s="14"/>
+      <c r="GH34" s="14"/>
+      <c r="GI34" s="14"/>
+      <c r="GJ34" s="14"/>
+      <c r="GK34" s="14"/>
+      <c r="GL34" s="14"/>
+      <c r="GM34" s="14"/>
+      <c r="GN34" s="14"/>
+      <c r="GO34" s="14"/>
+      <c r="GP34" s="14"/>
+      <c r="GQ34" s="14"/>
+      <c r="GR34" s="14"/>
+      <c r="GS34" s="14"/>
+      <c r="GT34" s="14"/>
+      <c r="GU34" s="14"/>
+      <c r="GV34" s="14"/>
+      <c r="GW34" s="14"/>
+      <c r="GX34" s="14"/>
+      <c r="GY34" s="14"/>
+      <c r="GZ34" s="14"/>
+      <c r="HA34" s="14"/>
+      <c r="HB34" s="14"/>
+      <c r="HC34" s="14"/>
+      <c r="HD34" s="14"/>
+      <c r="HE34" s="14"/>
+      <c r="HF34" s="14"/>
+      <c r="HG34" s="14"/>
+      <c r="HH34" s="14"/>
+      <c r="HI34" s="14"/>
+      <c r="HJ34" s="14"/>
+      <c r="HK34" s="14"/>
+      <c r="HL34" s="14"/>
+      <c r="HM34" s="14"/>
+      <c r="HN34" s="14"/>
+      <c r="HO34" s="14"/>
+      <c r="HP34" s="14"/>
+      <c r="HQ34" s="14"/>
+      <c r="HR34" s="14"/>
+      <c r="HS34" s="14"/>
+      <c r="HT34" s="14"/>
+      <c r="HU34" s="14"/>
+      <c r="HV34" s="14"/>
+      <c r="HW34" s="14"/>
+      <c r="HX34" s="14"/>
+      <c r="HY34" s="14"/>
+      <c r="HZ34" s="14"/>
+      <c r="IA34" s="14"/>
+      <c r="IB34" s="14"/>
+      <c r="IC34" s="14"/>
+      <c r="ID34" s="14"/>
+      <c r="IE34" s="14"/>
+      <c r="IF34" s="14"/>
+      <c r="IG34" s="14"/>
+      <c r="IH34" s="14"/>
+      <c r="II34" s="14"/>
+      <c r="IJ34" s="14"/>
+      <c r="IK34" s="14"/>
+      <c r="IL34" s="14"/>
+      <c r="IM34" s="14"/>
+      <c r="IN34" s="14"/>
+      <c r="IO34" s="14"/>
+      <c r="IP34" s="14"/>
+      <c r="IQ34" s="14"/>
+      <c r="IR34" s="14"/>
+      <c r="IS34" s="14"/>
+      <c r="IT34" s="14"/>
+      <c r="IU34" s="14"/>
+      <c r="IV34" s="14"/>
+      <c r="IW34" s="14"/>
+      <c r="IX34" s="14"/>
     </row>
     <row r="35" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="16"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="EQ4:EW4"/>
-    <mergeCell ref="EX4:FD4"/>
-    <mergeCell ref="HW4:IC4"/>
-    <mergeCell ref="FE4:FK4"/>
-    <mergeCell ref="FL4:FR4"/>
-    <mergeCell ref="FS4:FY4"/>
-    <mergeCell ref="FZ4:GF4"/>
-    <mergeCell ref="GG4:GM4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="CF4:CL4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
     <mergeCell ref="CM4:CS4"/>
     <mergeCell ref="ID4:IJ4"/>
     <mergeCell ref="IK4:IQ4"/>
@@ -11172,28 +11432,39 @@
     <mergeCell ref="DV4:EB4"/>
     <mergeCell ref="EC4:EI4"/>
     <mergeCell ref="EJ4:EP4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="CF4:CL4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="EQ4:EW4"/>
+    <mergeCell ref="EX4:FD4"/>
+    <mergeCell ref="HW4:IC4"/>
+    <mergeCell ref="FE4:FK4"/>
+    <mergeCell ref="FL4:FR4"/>
+    <mergeCell ref="FS4:FY4"/>
+    <mergeCell ref="FZ4:GF4"/>
+    <mergeCell ref="GG4:GM4"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="G5:IX33">
+  <conditionalFormatting sqref="G5:IX34">
     <cfRule type="expression" dxfId="2" priority="126">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:IX33">
+  <conditionalFormatting sqref="G7:IX34">
     <cfRule type="expression" dxfId="1" priority="120">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
@@ -11327,6 +11598,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010021CB413651170D4FBFA874F8BEE755CA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="42743fc73206d53d9dc0a38c59eadd60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dc598aa0-d9ce-4a6b-81d3-1bfd1d95be93" xmlns:ns4="0f3824ba-70ce-4e7b-b9df-d016a901c15a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe924b3eb92af8fdbe5696825ae74dba" ns3:_="" ns4:_="">
     <xsd:import namespace="dc598aa0-d9ce-4a6b-81d3-1bfd1d95be93"/>
@@ -11511,22 +11797,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94DE01B-F382-4B59-8124-92C815CDB8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5933DF-E5C2-4102-897C-E72E9DA32B8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFF8F1F2-15C5-48DC-909D-47DBCB39B9F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11543,21 +11831,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5933DF-E5C2-4102-897C-E72E9DA32B8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94DE01B-F382-4B59-8124-92C815CDB8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
+++ b/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B074E-52F4-44C4-949D-B1C0E2C05400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BB5103-8C77-432F-8136-88AA765C22BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Mondragon Unibertsitatea
 TU Wien</t>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Product development</t>
-  </si>
-  <si>
-    <t>Use case definition</t>
   </si>
   <si>
     <t xml:space="preserve">Beta release </t>
@@ -156,6 +153,18 @@
   </si>
   <si>
     <t>Develop hardware</t>
+  </si>
+  <si>
+    <t>Learning thingsboard</t>
+  </si>
+  <si>
+    <t>Add dashboard service</t>
+  </si>
+  <si>
+    <t>08/04/2022</t>
+  </si>
+  <si>
+    <t>30/06/2022</t>
   </si>
 </sst>
 </file>
@@ -283,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,12 +313,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,19 +325,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +742,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -718,10 +757,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -733,7 +772,7 @@
     <xf numFmtId="168" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -769,46 +808,10 @@
     <xf numFmtId="14" fontId="15" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="2" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -823,73 +826,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="12" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="9" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="12" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="2" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="11" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="14" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="14" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,6 +1219,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF001DBC"/>
       <color rgb="FFFFE1D9"/>
       <color rgb="FFFDF1ED"/>
       <color rgb="FFF6D3C6"/>
@@ -1135,7 +1229,6 @@
       <color rgb="FFC0C0C0"/>
       <color rgb="FF427FC2"/>
       <color rgb="FF44678E"/>
-      <color rgb="FF4A6F9C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1152,7 +1245,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escala de grises">
+    <a:clrScheme name="Personalizado 21">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1166,22 +1259,22 @@
         <a:srgbClr val="F8F8F8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="DDDDDD"/>
+        <a:srgbClr val="6699FF"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="B2B2B2"/>
+        <a:srgbClr val="66FFCC"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="969696"/>
+        <a:srgbClr val="FFFF99"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="808080"/>
+        <a:srgbClr val="919191"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5F5F5F"/>
+        <a:srgbClr val="FFCC66"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4D4D4D"/>
+        <a:srgbClr val="FF7C80"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="5F5F5F"/>
@@ -1417,9 +1510,9 @@
   </sheetPr>
   <dimension ref="A1:IX36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1528,7 @@
   <sheetData>
     <row r="1" spans="1:258" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1457,383 +1550,383 @@
       <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="88">
         <f>DATE(2021,11,3)</f>
         <v>44503</v>
       </c>
-      <c r="D3" s="70"/>
+      <c r="D3" s="88"/>
     </row>
     <row r="4" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="84">
         <f>G5</f>
         <v>44501</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="66">
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="84">
         <f>N5</f>
         <v>44508</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="66">
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="84">
         <f>U5</f>
         <v>44515</v>
       </c>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="66">
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="84">
         <f>AB5</f>
         <v>44522</v>
       </c>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="66">
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="84">
         <f>AI5</f>
         <v>44529</v>
       </c>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="66">
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="84">
         <f>AP5</f>
         <v>44536</v>
       </c>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="66">
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="85"/>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="84">
         <f>AW5</f>
         <v>44543</v>
       </c>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="66">
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="85"/>
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="85"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="84">
         <f>BD5</f>
         <v>44550</v>
       </c>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="67"/>
-      <c r="BG4" s="67"/>
-      <c r="BH4" s="67"/>
-      <c r="BI4" s="67"/>
-      <c r="BJ4" s="68"/>
-      <c r="BK4" s="66">
+      <c r="BE4" s="85"/>
+      <c r="BF4" s="85"/>
+      <c r="BG4" s="85"/>
+      <c r="BH4" s="85"/>
+      <c r="BI4" s="85"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="84">
         <f>BK5</f>
         <v>44557</v>
       </c>
-      <c r="BL4" s="67"/>
-      <c r="BM4" s="67"/>
-      <c r="BN4" s="67"/>
-      <c r="BO4" s="67"/>
-      <c r="BP4" s="67"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="66">
+      <c r="BL4" s="85"/>
+      <c r="BM4" s="85"/>
+      <c r="BN4" s="85"/>
+      <c r="BO4" s="85"/>
+      <c r="BP4" s="85"/>
+      <c r="BQ4" s="86"/>
+      <c r="BR4" s="84">
         <f>BR5</f>
         <v>44564</v>
       </c>
-      <c r="BS4" s="67"/>
-      <c r="BT4" s="67"/>
-      <c r="BU4" s="67"/>
-      <c r="BV4" s="67"/>
-      <c r="BW4" s="67"/>
-      <c r="BX4" s="68"/>
-      <c r="BY4" s="66">
+      <c r="BS4" s="85"/>
+      <c r="BT4" s="85"/>
+      <c r="BU4" s="85"/>
+      <c r="BV4" s="85"/>
+      <c r="BW4" s="85"/>
+      <c r="BX4" s="86"/>
+      <c r="BY4" s="84">
         <f>BY5</f>
         <v>44571</v>
       </c>
-      <c r="BZ4" s="67"/>
-      <c r="CA4" s="67"/>
-      <c r="CB4" s="67"/>
-      <c r="CC4" s="67"/>
-      <c r="CD4" s="67"/>
-      <c r="CE4" s="68"/>
-      <c r="CF4" s="66">
+      <c r="BZ4" s="85"/>
+      <c r="CA4" s="85"/>
+      <c r="CB4" s="85"/>
+      <c r="CC4" s="85"/>
+      <c r="CD4" s="85"/>
+      <c r="CE4" s="86"/>
+      <c r="CF4" s="84">
         <f>CF5</f>
         <v>44578</v>
       </c>
-      <c r="CG4" s="67"/>
-      <c r="CH4" s="67"/>
-      <c r="CI4" s="67"/>
-      <c r="CJ4" s="67"/>
-      <c r="CK4" s="67"/>
-      <c r="CL4" s="68"/>
-      <c r="CM4" s="66">
+      <c r="CG4" s="85"/>
+      <c r="CH4" s="85"/>
+      <c r="CI4" s="85"/>
+      <c r="CJ4" s="85"/>
+      <c r="CK4" s="85"/>
+      <c r="CL4" s="86"/>
+      <c r="CM4" s="84">
         <f>CM5</f>
         <v>44585</v>
       </c>
-      <c r="CN4" s="67"/>
-      <c r="CO4" s="67"/>
-      <c r="CP4" s="67"/>
-      <c r="CQ4" s="67"/>
-      <c r="CR4" s="67"/>
-      <c r="CS4" s="68"/>
-      <c r="CT4" s="66">
+      <c r="CN4" s="85"/>
+      <c r="CO4" s="85"/>
+      <c r="CP4" s="85"/>
+      <c r="CQ4" s="85"/>
+      <c r="CR4" s="85"/>
+      <c r="CS4" s="86"/>
+      <c r="CT4" s="84">
         <f>CT5</f>
         <v>44592</v>
       </c>
-      <c r="CU4" s="67"/>
-      <c r="CV4" s="67"/>
-      <c r="CW4" s="67"/>
-      <c r="CX4" s="67"/>
-      <c r="CY4" s="67"/>
-      <c r="CZ4" s="68"/>
-      <c r="DA4" s="66">
+      <c r="CU4" s="85"/>
+      <c r="CV4" s="85"/>
+      <c r="CW4" s="85"/>
+      <c r="CX4" s="85"/>
+      <c r="CY4" s="85"/>
+      <c r="CZ4" s="86"/>
+      <c r="DA4" s="84">
         <f>DA5</f>
         <v>44599</v>
       </c>
-      <c r="DB4" s="67"/>
-      <c r="DC4" s="67"/>
-      <c r="DD4" s="67"/>
-      <c r="DE4" s="67"/>
-      <c r="DF4" s="67"/>
-      <c r="DG4" s="68"/>
-      <c r="DH4" s="66">
+      <c r="DB4" s="85"/>
+      <c r="DC4" s="85"/>
+      <c r="DD4" s="85"/>
+      <c r="DE4" s="85"/>
+      <c r="DF4" s="85"/>
+      <c r="DG4" s="86"/>
+      <c r="DH4" s="84">
         <f>DH5</f>
         <v>44606</v>
       </c>
-      <c r="DI4" s="67"/>
-      <c r="DJ4" s="67"/>
-      <c r="DK4" s="67"/>
-      <c r="DL4" s="67"/>
-      <c r="DM4" s="67"/>
-      <c r="DN4" s="68"/>
-      <c r="DO4" s="66">
+      <c r="DI4" s="85"/>
+      <c r="DJ4" s="85"/>
+      <c r="DK4" s="85"/>
+      <c r="DL4" s="85"/>
+      <c r="DM4" s="85"/>
+      <c r="DN4" s="86"/>
+      <c r="DO4" s="84">
         <f>DO5</f>
         <v>44613</v>
       </c>
-      <c r="DP4" s="67"/>
-      <c r="DQ4" s="67"/>
-      <c r="DR4" s="67"/>
-      <c r="DS4" s="67"/>
-      <c r="DT4" s="67"/>
-      <c r="DU4" s="68"/>
-      <c r="DV4" s="66">
+      <c r="DP4" s="85"/>
+      <c r="DQ4" s="85"/>
+      <c r="DR4" s="85"/>
+      <c r="DS4" s="85"/>
+      <c r="DT4" s="85"/>
+      <c r="DU4" s="86"/>
+      <c r="DV4" s="84">
         <f>DV5</f>
         <v>44620</v>
       </c>
-      <c r="DW4" s="67"/>
-      <c r="DX4" s="67"/>
-      <c r="DY4" s="67"/>
-      <c r="DZ4" s="67"/>
-      <c r="EA4" s="67"/>
-      <c r="EB4" s="68"/>
-      <c r="EC4" s="66">
+      <c r="DW4" s="85"/>
+      <c r="DX4" s="85"/>
+      <c r="DY4" s="85"/>
+      <c r="DZ4" s="85"/>
+      <c r="EA4" s="85"/>
+      <c r="EB4" s="86"/>
+      <c r="EC4" s="84">
         <f>EC5</f>
         <v>44627</v>
       </c>
-      <c r="ED4" s="67"/>
-      <c r="EE4" s="67"/>
-      <c r="EF4" s="67"/>
-      <c r="EG4" s="67"/>
-      <c r="EH4" s="67"/>
-      <c r="EI4" s="68"/>
-      <c r="EJ4" s="66">
+      <c r="ED4" s="85"/>
+      <c r="EE4" s="85"/>
+      <c r="EF4" s="85"/>
+      <c r="EG4" s="85"/>
+      <c r="EH4" s="85"/>
+      <c r="EI4" s="86"/>
+      <c r="EJ4" s="84">
         <f>EJ5</f>
         <v>44634</v>
       </c>
-      <c r="EK4" s="67"/>
-      <c r="EL4" s="67"/>
-      <c r="EM4" s="67"/>
-      <c r="EN4" s="67"/>
-      <c r="EO4" s="67"/>
-      <c r="EP4" s="68"/>
-      <c r="EQ4" s="66">
+      <c r="EK4" s="85"/>
+      <c r="EL4" s="85"/>
+      <c r="EM4" s="85"/>
+      <c r="EN4" s="85"/>
+      <c r="EO4" s="85"/>
+      <c r="EP4" s="86"/>
+      <c r="EQ4" s="84">
         <f>EQ5</f>
         <v>44641</v>
       </c>
-      <c r="ER4" s="67"/>
-      <c r="ES4" s="67"/>
-      <c r="ET4" s="67"/>
-      <c r="EU4" s="67"/>
-      <c r="EV4" s="67"/>
-      <c r="EW4" s="68"/>
-      <c r="EX4" s="66">
+      <c r="ER4" s="85"/>
+      <c r="ES4" s="85"/>
+      <c r="ET4" s="85"/>
+      <c r="EU4" s="85"/>
+      <c r="EV4" s="85"/>
+      <c r="EW4" s="86"/>
+      <c r="EX4" s="84">
         <f>EX5</f>
         <v>44648</v>
       </c>
-      <c r="EY4" s="67"/>
-      <c r="EZ4" s="67"/>
-      <c r="FA4" s="67"/>
-      <c r="FB4" s="67"/>
-      <c r="FC4" s="67"/>
-      <c r="FD4" s="68"/>
-      <c r="FE4" s="66">
+      <c r="EY4" s="85"/>
+      <c r="EZ4" s="85"/>
+      <c r="FA4" s="85"/>
+      <c r="FB4" s="85"/>
+      <c r="FC4" s="85"/>
+      <c r="FD4" s="86"/>
+      <c r="FE4" s="84">
         <f>FE5</f>
         <v>44655</v>
       </c>
-      <c r="FF4" s="67"/>
-      <c r="FG4" s="67"/>
-      <c r="FH4" s="67"/>
-      <c r="FI4" s="67"/>
-      <c r="FJ4" s="67"/>
-      <c r="FK4" s="68"/>
-      <c r="FL4" s="66">
+      <c r="FF4" s="85"/>
+      <c r="FG4" s="85"/>
+      <c r="FH4" s="85"/>
+      <c r="FI4" s="85"/>
+      <c r="FJ4" s="85"/>
+      <c r="FK4" s="86"/>
+      <c r="FL4" s="84">
         <f>FL5</f>
         <v>44662</v>
       </c>
-      <c r="FM4" s="67"/>
-      <c r="FN4" s="67"/>
-      <c r="FO4" s="67"/>
-      <c r="FP4" s="67"/>
-      <c r="FQ4" s="67"/>
-      <c r="FR4" s="68"/>
-      <c r="FS4" s="66">
+      <c r="FM4" s="85"/>
+      <c r="FN4" s="85"/>
+      <c r="FO4" s="85"/>
+      <c r="FP4" s="85"/>
+      <c r="FQ4" s="85"/>
+      <c r="FR4" s="86"/>
+      <c r="FS4" s="84">
         <f>FS5</f>
         <v>44669</v>
       </c>
-      <c r="FT4" s="67"/>
-      <c r="FU4" s="67"/>
-      <c r="FV4" s="67"/>
-      <c r="FW4" s="67"/>
-      <c r="FX4" s="67"/>
-      <c r="FY4" s="68"/>
-      <c r="FZ4" s="66">
+      <c r="FT4" s="85"/>
+      <c r="FU4" s="85"/>
+      <c r="FV4" s="85"/>
+      <c r="FW4" s="85"/>
+      <c r="FX4" s="85"/>
+      <c r="FY4" s="86"/>
+      <c r="FZ4" s="84">
         <f>FZ5</f>
         <v>44676</v>
       </c>
-      <c r="GA4" s="67"/>
-      <c r="GB4" s="67"/>
-      <c r="GC4" s="67"/>
-      <c r="GD4" s="67"/>
-      <c r="GE4" s="67"/>
-      <c r="GF4" s="68"/>
-      <c r="GG4" s="66">
+      <c r="GA4" s="85"/>
+      <c r="GB4" s="85"/>
+      <c r="GC4" s="85"/>
+      <c r="GD4" s="85"/>
+      <c r="GE4" s="85"/>
+      <c r="GF4" s="86"/>
+      <c r="GG4" s="84">
         <f>GG5</f>
         <v>44683</v>
       </c>
-      <c r="GH4" s="67"/>
-      <c r="GI4" s="67"/>
-      <c r="GJ4" s="67"/>
-      <c r="GK4" s="67"/>
-      <c r="GL4" s="67"/>
-      <c r="GM4" s="68"/>
-      <c r="GN4" s="66">
+      <c r="GH4" s="85"/>
+      <c r="GI4" s="85"/>
+      <c r="GJ4" s="85"/>
+      <c r="GK4" s="85"/>
+      <c r="GL4" s="85"/>
+      <c r="GM4" s="86"/>
+      <c r="GN4" s="84">
         <f>GN5</f>
         <v>44690</v>
       </c>
-      <c r="GO4" s="67"/>
-      <c r="GP4" s="67"/>
-      <c r="GQ4" s="67"/>
-      <c r="GR4" s="67"/>
-      <c r="GS4" s="67"/>
-      <c r="GT4" s="68"/>
-      <c r="GU4" s="66">
+      <c r="GO4" s="85"/>
+      <c r="GP4" s="85"/>
+      <c r="GQ4" s="85"/>
+      <c r="GR4" s="85"/>
+      <c r="GS4" s="85"/>
+      <c r="GT4" s="86"/>
+      <c r="GU4" s="84">
         <f>GU5</f>
         <v>44697</v>
       </c>
-      <c r="GV4" s="67"/>
-      <c r="GW4" s="67"/>
-      <c r="GX4" s="67"/>
-      <c r="GY4" s="67"/>
-      <c r="GZ4" s="67"/>
-      <c r="HA4" s="68"/>
-      <c r="HB4" s="66">
+      <c r="GV4" s="85"/>
+      <c r="GW4" s="85"/>
+      <c r="GX4" s="85"/>
+      <c r="GY4" s="85"/>
+      <c r="GZ4" s="85"/>
+      <c r="HA4" s="86"/>
+      <c r="HB4" s="84">
         <f>HB5</f>
         <v>44704</v>
       </c>
-      <c r="HC4" s="67"/>
-      <c r="HD4" s="67"/>
-      <c r="HE4" s="67"/>
-      <c r="HF4" s="67"/>
-      <c r="HG4" s="67"/>
-      <c r="HH4" s="68"/>
-      <c r="HI4" s="66">
+      <c r="HC4" s="85"/>
+      <c r="HD4" s="85"/>
+      <c r="HE4" s="85"/>
+      <c r="HF4" s="85"/>
+      <c r="HG4" s="85"/>
+      <c r="HH4" s="86"/>
+      <c r="HI4" s="84">
         <f>HI5</f>
         <v>44711</v>
       </c>
-      <c r="HJ4" s="67"/>
-      <c r="HK4" s="67"/>
-      <c r="HL4" s="67"/>
-      <c r="HM4" s="67"/>
-      <c r="HN4" s="67"/>
-      <c r="HO4" s="68"/>
-      <c r="HP4" s="66">
+      <c r="HJ4" s="85"/>
+      <c r="HK4" s="85"/>
+      <c r="HL4" s="85"/>
+      <c r="HM4" s="85"/>
+      <c r="HN4" s="85"/>
+      <c r="HO4" s="86"/>
+      <c r="HP4" s="84">
         <f>HP5</f>
         <v>44718</v>
       </c>
-      <c r="HQ4" s="67"/>
-      <c r="HR4" s="67"/>
-      <c r="HS4" s="67"/>
-      <c r="HT4" s="67"/>
-      <c r="HU4" s="67"/>
-      <c r="HV4" s="68"/>
-      <c r="HW4" s="66">
+      <c r="HQ4" s="85"/>
+      <c r="HR4" s="85"/>
+      <c r="HS4" s="85"/>
+      <c r="HT4" s="85"/>
+      <c r="HU4" s="85"/>
+      <c r="HV4" s="86"/>
+      <c r="HW4" s="84">
         <f>HW5</f>
         <v>44725</v>
       </c>
-      <c r="HX4" s="67"/>
-      <c r="HY4" s="67"/>
-      <c r="HZ4" s="67"/>
-      <c r="IA4" s="67"/>
-      <c r="IB4" s="67"/>
-      <c r="IC4" s="68"/>
-      <c r="ID4" s="66">
+      <c r="HX4" s="85"/>
+      <c r="HY4" s="85"/>
+      <c r="HZ4" s="85"/>
+      <c r="IA4" s="85"/>
+      <c r="IB4" s="85"/>
+      <c r="IC4" s="86"/>
+      <c r="ID4" s="84">
         <f>ID5</f>
         <v>44732</v>
       </c>
-      <c r="IE4" s="67"/>
-      <c r="IF4" s="67"/>
-      <c r="IG4" s="67"/>
-      <c r="IH4" s="67"/>
-      <c r="II4" s="67"/>
-      <c r="IJ4" s="68"/>
-      <c r="IK4" s="66">
+      <c r="IE4" s="85"/>
+      <c r="IF4" s="85"/>
+      <c r="IG4" s="85"/>
+      <c r="IH4" s="85"/>
+      <c r="II4" s="85"/>
+      <c r="IJ4" s="86"/>
+      <c r="IK4" s="84">
         <f>IK5</f>
         <v>44739</v>
       </c>
-      <c r="IL4" s="67"/>
-      <c r="IM4" s="67"/>
-      <c r="IN4" s="67"/>
-      <c r="IO4" s="67"/>
-      <c r="IP4" s="67"/>
-      <c r="IQ4" s="68"/>
-      <c r="IR4" s="66">
+      <c r="IL4" s="85"/>
+      <c r="IM4" s="85"/>
+      <c r="IN4" s="85"/>
+      <c r="IO4" s="85"/>
+      <c r="IP4" s="85"/>
+      <c r="IQ4" s="86"/>
+      <c r="IR4" s="84">
         <f>IR5</f>
         <v>44746</v>
       </c>
-      <c r="IS4" s="67"/>
-      <c r="IT4" s="67"/>
-      <c r="IU4" s="67"/>
-      <c r="IV4" s="67"/>
-      <c r="IW4" s="67"/>
-      <c r="IX4" s="68"/>
+      <c r="IS4" s="85"/>
+      <c r="IT4" s="85"/>
+      <c r="IU4" s="85"/>
+      <c r="IV4" s="85"/>
+      <c r="IW4" s="85"/>
+      <c r="IX4" s="86"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
       <c r="G5" s="9">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44501</v>
@@ -3875,47 +3968,47 @@
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="41"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="29"/>
+      <c r="AW7" s="29"/>
       <c r="AX7" s="14"/>
       <c r="AY7" s="14"/>
       <c r="AZ7" s="14"/>
@@ -4127,15 +4220,15 @@
       <c r="IX7" s="14"/>
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
@@ -4143,49 +4236,49 @@
         <v>41</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="49"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="49"/>
-      <c r="AM8" s="49"/>
-      <c r="AN8" s="49"/>
-      <c r="AO8" s="49"/>
-      <c r="AP8" s="49"/>
-      <c r="AQ8" s="49"/>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="49"/>
-      <c r="AT8" s="49"/>
-      <c r="AU8" s="49"/>
-      <c r="AV8" s="49"/>
-      <c r="AW8" s="49"/>
-      <c r="AX8" s="40"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="33"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="33"/>
+      <c r="AS8" s="33"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="33"/>
+      <c r="AV8" s="33"/>
+      <c r="AW8" s="33"/>
+      <c r="AX8" s="28"/>
       <c r="AY8" s="14"/>
       <c r="AZ8" s="14"/>
       <c r="BA8" s="14"/>
@@ -4396,15 +4489,15 @@
       <c r="IX8" s="14"/>
     </row>
     <row r="9" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="34">
+      <c r="B9" s="74"/>
+      <c r="C9" s="40">
         <f>Project_Start</f>
         <v>44503</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="40">
         <f>DATE(2021,11,12)</f>
         <v>44512</v>
       </c>
@@ -4415,47 +4508,47 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
       <c r="AX9" s="14"/>
       <c r="AY9" s="14"/>
       <c r="AZ9" s="14"/>
@@ -4667,15 +4760,15 @@
       <c r="IX9" s="14"/>
     </row>
     <row r="10" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="24">
+      <c r="B10" s="75"/>
+      <c r="C10" s="41">
         <f>D9+1</f>
         <v>44513</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="41">
         <f>DATE(2021,11,23)</f>
         <v>44523</v>
       </c>
@@ -4938,15 +5031,15 @@
       <c r="IX10" s="14"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="24">
+      <c r="B11" s="75"/>
+      <c r="C11" s="41">
         <f>DATE(2021,11,24)</f>
         <v>44524</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="41">
         <f>C11+6</f>
         <v>44530</v>
       </c>
@@ -5209,15 +5302,15 @@
       <c r="IX11" s="14"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="35">
+      <c r="B12" s="76"/>
+      <c r="C12" s="42">
         <f>DATE(2021,11,31)</f>
         <v>44531</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="42">
         <f>DATE(2021,12,13)</f>
         <v>44543</v>
       </c>
@@ -5244,170 +5337,170 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41"/>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="41"/>
-      <c r="BF12" s="41"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="41"/>
-      <c r="BI12" s="41"/>
-      <c r="BJ12" s="41"/>
-      <c r="BK12" s="41"/>
-      <c r="BL12" s="41"/>
-      <c r="BM12" s="41"/>
-      <c r="BN12" s="41"/>
-      <c r="BO12" s="41"/>
-      <c r="BP12" s="41"/>
-      <c r="BQ12" s="41"/>
-      <c r="BR12" s="41"/>
-      <c r="BS12" s="41"/>
-      <c r="BT12" s="41"/>
-      <c r="BU12" s="41"/>
-      <c r="BV12" s="41"/>
-      <c r="BW12" s="41"/>
-      <c r="BX12" s="41"/>
-      <c r="BY12" s="41"/>
-      <c r="BZ12" s="41"/>
-      <c r="CA12" s="41"/>
-      <c r="CB12" s="41"/>
-      <c r="CC12" s="41"/>
-      <c r="CD12" s="41"/>
-      <c r="CE12" s="41"/>
-      <c r="CF12" s="41"/>
-      <c r="CG12" s="41"/>
-      <c r="CH12" s="41"/>
-      <c r="CI12" s="41"/>
-      <c r="CJ12" s="41"/>
-      <c r="CK12" s="41"/>
-      <c r="CL12" s="41"/>
-      <c r="CM12" s="41"/>
-      <c r="CN12" s="41"/>
-      <c r="CO12" s="41"/>
-      <c r="CP12" s="41"/>
-      <c r="CQ12" s="41"/>
-      <c r="CR12" s="41"/>
-      <c r="CS12" s="41"/>
-      <c r="CT12" s="41"/>
-      <c r="CU12" s="41"/>
-      <c r="CV12" s="41"/>
-      <c r="CW12" s="41"/>
-      <c r="CX12" s="41"/>
-      <c r="CY12" s="41"/>
-      <c r="CZ12" s="41"/>
-      <c r="DA12" s="41"/>
-      <c r="DB12" s="41"/>
-      <c r="DC12" s="41"/>
-      <c r="DD12" s="41"/>
-      <c r="DE12" s="41"/>
-      <c r="DF12" s="41"/>
-      <c r="DG12" s="41"/>
-      <c r="DH12" s="41"/>
-      <c r="DI12" s="41"/>
-      <c r="DJ12" s="41"/>
-      <c r="DK12" s="41"/>
-      <c r="DL12" s="41"/>
-      <c r="DM12" s="41"/>
-      <c r="DN12" s="41"/>
-      <c r="DO12" s="41"/>
-      <c r="DP12" s="41"/>
-      <c r="DQ12" s="41"/>
-      <c r="DR12" s="41"/>
-      <c r="DS12" s="41"/>
-      <c r="DT12" s="41"/>
-      <c r="DU12" s="41"/>
-      <c r="DV12" s="41"/>
-      <c r="DW12" s="41"/>
-      <c r="DX12" s="41"/>
-      <c r="DY12" s="41"/>
-      <c r="DZ12" s="41"/>
-      <c r="EA12" s="41"/>
-      <c r="EB12" s="41"/>
-      <c r="EC12" s="41"/>
-      <c r="ED12" s="41"/>
-      <c r="EE12" s="41"/>
-      <c r="EF12" s="41"/>
-      <c r="EG12" s="41"/>
-      <c r="EH12" s="41"/>
-      <c r="EI12" s="41"/>
-      <c r="EJ12" s="41"/>
-      <c r="EK12" s="41"/>
-      <c r="EL12" s="41"/>
-      <c r="EM12" s="41"/>
-      <c r="EN12" s="41"/>
-      <c r="EO12" s="41"/>
-      <c r="EP12" s="41"/>
-      <c r="EQ12" s="41"/>
-      <c r="ER12" s="41"/>
-      <c r="ES12" s="41"/>
-      <c r="ET12" s="41"/>
-      <c r="EU12" s="41"/>
-      <c r="EV12" s="41"/>
-      <c r="EW12" s="41"/>
-      <c r="EX12" s="41"/>
-      <c r="EY12" s="41"/>
-      <c r="EZ12" s="41"/>
-      <c r="FA12" s="41"/>
-      <c r="FB12" s="41"/>
-      <c r="FC12" s="41"/>
-      <c r="FD12" s="41"/>
-      <c r="FE12" s="41"/>
-      <c r="FF12" s="41"/>
-      <c r="FG12" s="41"/>
-      <c r="FH12" s="41"/>
-      <c r="FI12" s="41"/>
-      <c r="FJ12" s="41"/>
-      <c r="FK12" s="41"/>
-      <c r="FL12" s="41"/>
-      <c r="FM12" s="41"/>
-      <c r="FN12" s="41"/>
-      <c r="FO12" s="41"/>
-      <c r="FP12" s="41"/>
-      <c r="FQ12" s="41"/>
-      <c r="FR12" s="41"/>
-      <c r="FS12" s="41"/>
-      <c r="FT12" s="41"/>
-      <c r="FU12" s="41"/>
-      <c r="FV12" s="41"/>
-      <c r="FW12" s="41"/>
-      <c r="FX12" s="41"/>
-      <c r="FY12" s="41"/>
-      <c r="FZ12" s="41"/>
-      <c r="GA12" s="41"/>
-      <c r="GB12" s="41"/>
-      <c r="GC12" s="41"/>
-      <c r="GD12" s="41"/>
-      <c r="GE12" s="41"/>
-      <c r="GF12" s="41"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="29"/>
+      <c r="BE12" s="29"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="29"/>
+      <c r="BK12" s="29"/>
+      <c r="BL12" s="29"/>
+      <c r="BM12" s="29"/>
+      <c r="BN12" s="29"/>
+      <c r="BO12" s="29"/>
+      <c r="BP12" s="29"/>
+      <c r="BQ12" s="29"/>
+      <c r="BR12" s="29"/>
+      <c r="BS12" s="29"/>
+      <c r="BT12" s="29"/>
+      <c r="BU12" s="29"/>
+      <c r="BV12" s="29"/>
+      <c r="BW12" s="29"/>
+      <c r="BX12" s="29"/>
+      <c r="BY12" s="29"/>
+      <c r="BZ12" s="29"/>
+      <c r="CA12" s="29"/>
+      <c r="CB12" s="29"/>
+      <c r="CC12" s="29"/>
+      <c r="CD12" s="29"/>
+      <c r="CE12" s="29"/>
+      <c r="CF12" s="29"/>
+      <c r="CG12" s="29"/>
+      <c r="CH12" s="29"/>
+      <c r="CI12" s="29"/>
+      <c r="CJ12" s="29"/>
+      <c r="CK12" s="29"/>
+      <c r="CL12" s="29"/>
+      <c r="CM12" s="29"/>
+      <c r="CN12" s="29"/>
+      <c r="CO12" s="29"/>
+      <c r="CP12" s="29"/>
+      <c r="CQ12" s="29"/>
+      <c r="CR12" s="29"/>
+      <c r="CS12" s="29"/>
+      <c r="CT12" s="29"/>
+      <c r="CU12" s="29"/>
+      <c r="CV12" s="29"/>
+      <c r="CW12" s="29"/>
+      <c r="CX12" s="29"/>
+      <c r="CY12" s="29"/>
+      <c r="CZ12" s="29"/>
+      <c r="DA12" s="29"/>
+      <c r="DB12" s="29"/>
+      <c r="DC12" s="29"/>
+      <c r="DD12" s="29"/>
+      <c r="DE12" s="29"/>
+      <c r="DF12" s="29"/>
+      <c r="DG12" s="29"/>
+      <c r="DH12" s="29"/>
+      <c r="DI12" s="29"/>
+      <c r="DJ12" s="29"/>
+      <c r="DK12" s="29"/>
+      <c r="DL12" s="29"/>
+      <c r="DM12" s="29"/>
+      <c r="DN12" s="29"/>
+      <c r="DO12" s="29"/>
+      <c r="DP12" s="29"/>
+      <c r="DQ12" s="29"/>
+      <c r="DR12" s="29"/>
+      <c r="DS12" s="29"/>
+      <c r="DT12" s="29"/>
+      <c r="DU12" s="29"/>
+      <c r="DV12" s="29"/>
+      <c r="DW12" s="29"/>
+      <c r="DX12" s="29"/>
+      <c r="DY12" s="29"/>
+      <c r="DZ12" s="29"/>
+      <c r="EA12" s="29"/>
+      <c r="EB12" s="29"/>
+      <c r="EC12" s="29"/>
+      <c r="ED12" s="29"/>
+      <c r="EE12" s="29"/>
+      <c r="EF12" s="29"/>
+      <c r="EG12" s="29"/>
+      <c r="EH12" s="29"/>
+      <c r="EI12" s="29"/>
+      <c r="EJ12" s="29"/>
+      <c r="EK12" s="29"/>
+      <c r="EL12" s="29"/>
+      <c r="EM12" s="29"/>
+      <c r="EN12" s="29"/>
+      <c r="EO12" s="29"/>
+      <c r="EP12" s="29"/>
+      <c r="EQ12" s="29"/>
+      <c r="ER12" s="29"/>
+      <c r="ES12" s="29"/>
+      <c r="ET12" s="29"/>
+      <c r="EU12" s="29"/>
+      <c r="EV12" s="29"/>
+      <c r="EW12" s="29"/>
+      <c r="EX12" s="29"/>
+      <c r="EY12" s="29"/>
+      <c r="EZ12" s="29"/>
+      <c r="FA12" s="29"/>
+      <c r="FB12" s="29"/>
+      <c r="FC12" s="29"/>
+      <c r="FD12" s="29"/>
+      <c r="FE12" s="29"/>
+      <c r="FF12" s="29"/>
+      <c r="FG12" s="29"/>
+      <c r="FH12" s="29"/>
+      <c r="FI12" s="29"/>
+      <c r="FJ12" s="29"/>
+      <c r="FK12" s="29"/>
+      <c r="FL12" s="29"/>
+      <c r="FM12" s="29"/>
+      <c r="FN12" s="29"/>
+      <c r="FO12" s="29"/>
+      <c r="FP12" s="29"/>
+      <c r="FQ12" s="29"/>
+      <c r="FR12" s="29"/>
+      <c r="FS12" s="29"/>
+      <c r="FT12" s="29"/>
+      <c r="FU12" s="29"/>
+      <c r="FV12" s="29"/>
+      <c r="FW12" s="29"/>
+      <c r="FX12" s="29"/>
+      <c r="FY12" s="29"/>
+      <c r="FZ12" s="29"/>
+      <c r="GA12" s="29"/>
+      <c r="GB12" s="29"/>
+      <c r="GC12" s="29"/>
+      <c r="GD12" s="29"/>
+      <c r="GE12" s="29"/>
+      <c r="GF12" s="29"/>
       <c r="GG12" s="14"/>
       <c r="GH12" s="14"/>
       <c r="GI12" s="14"/>
@@ -5480,14 +5573,14 @@
       <c r="IX12" s="14"/>
     </row>
     <row r="13" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="37">
+      <c r="B13" s="78"/>
+      <c r="C13" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="44">
         <f>D16</f>
         <v>44682</v>
       </c>
@@ -5513,172 +5606,172 @@
       <c r="U13" s="14"/>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="49"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49"/>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="49"/>
-      <c r="AP13" s="49"/>
-      <c r="AQ13" s="49"/>
-      <c r="AR13" s="49"/>
-      <c r="AS13" s="49"/>
-      <c r="AT13" s="49"/>
-      <c r="AU13" s="49"/>
-      <c r="AV13" s="49"/>
-      <c r="AW13" s="49"/>
-      <c r="AX13" s="49"/>
-      <c r="AY13" s="49"/>
-      <c r="AZ13" s="49"/>
-      <c r="BA13" s="49"/>
-      <c r="BB13" s="49"/>
-      <c r="BC13" s="49"/>
-      <c r="BD13" s="49"/>
-      <c r="BE13" s="49"/>
-      <c r="BF13" s="49"/>
-      <c r="BG13" s="49"/>
-      <c r="BH13" s="49"/>
-      <c r="BI13" s="49"/>
-      <c r="BJ13" s="49"/>
-      <c r="BK13" s="49"/>
-      <c r="BL13" s="49"/>
-      <c r="BM13" s="49"/>
-      <c r="BN13" s="49"/>
-      <c r="BO13" s="49"/>
-      <c r="BP13" s="49"/>
-      <c r="BQ13" s="49"/>
-      <c r="BR13" s="49"/>
-      <c r="BS13" s="49"/>
-      <c r="BT13" s="49"/>
-      <c r="BU13" s="49"/>
-      <c r="BV13" s="49"/>
-      <c r="BW13" s="49"/>
-      <c r="BX13" s="49"/>
-      <c r="BY13" s="49"/>
-      <c r="BZ13" s="49"/>
-      <c r="CA13" s="49"/>
-      <c r="CB13" s="49"/>
-      <c r="CC13" s="49"/>
-      <c r="CD13" s="49"/>
-      <c r="CE13" s="49"/>
-      <c r="CF13" s="49"/>
-      <c r="CG13" s="49"/>
-      <c r="CH13" s="49"/>
-      <c r="CI13" s="49"/>
-      <c r="CJ13" s="49"/>
-      <c r="CK13" s="49"/>
-      <c r="CL13" s="49"/>
-      <c r="CM13" s="49"/>
-      <c r="CN13" s="49"/>
-      <c r="CO13" s="49"/>
-      <c r="CP13" s="49"/>
-      <c r="CQ13" s="49"/>
-      <c r="CR13" s="49"/>
-      <c r="CS13" s="49"/>
-      <c r="CT13" s="49"/>
-      <c r="CU13" s="49"/>
-      <c r="CV13" s="49"/>
-      <c r="CW13" s="49"/>
-      <c r="CX13" s="49"/>
-      <c r="CY13" s="49"/>
-      <c r="CZ13" s="49"/>
-      <c r="DA13" s="49"/>
-      <c r="DB13" s="49"/>
-      <c r="DC13" s="49"/>
-      <c r="DD13" s="49"/>
-      <c r="DE13" s="49"/>
-      <c r="DF13" s="49"/>
-      <c r="DG13" s="49"/>
-      <c r="DH13" s="49"/>
-      <c r="DI13" s="49"/>
-      <c r="DJ13" s="49"/>
-      <c r="DK13" s="49"/>
-      <c r="DL13" s="49"/>
-      <c r="DM13" s="49"/>
-      <c r="DN13" s="49"/>
-      <c r="DO13" s="49"/>
-      <c r="DP13" s="49"/>
-      <c r="DQ13" s="49"/>
-      <c r="DR13" s="49"/>
-      <c r="DS13" s="49"/>
-      <c r="DT13" s="49"/>
-      <c r="DU13" s="49"/>
-      <c r="DV13" s="49"/>
-      <c r="DW13" s="49"/>
-      <c r="DX13" s="49"/>
-      <c r="DY13" s="49"/>
-      <c r="DZ13" s="49"/>
-      <c r="EA13" s="49"/>
-      <c r="EB13" s="49"/>
-      <c r="EC13" s="49"/>
-      <c r="ED13" s="49"/>
-      <c r="EE13" s="49"/>
-      <c r="EF13" s="49"/>
-      <c r="EG13" s="49"/>
-      <c r="EH13" s="49"/>
-      <c r="EI13" s="49"/>
-      <c r="EJ13" s="49"/>
-      <c r="EK13" s="49"/>
-      <c r="EL13" s="49"/>
-      <c r="EM13" s="49"/>
-      <c r="EN13" s="49"/>
-      <c r="EO13" s="49"/>
-      <c r="EP13" s="49"/>
-      <c r="EQ13" s="49"/>
-      <c r="ER13" s="49"/>
-      <c r="ES13" s="49"/>
-      <c r="ET13" s="49"/>
-      <c r="EU13" s="49"/>
-      <c r="EV13" s="49"/>
-      <c r="EW13" s="49"/>
-      <c r="EX13" s="49"/>
-      <c r="EY13" s="49"/>
-      <c r="EZ13" s="49"/>
-      <c r="FA13" s="49"/>
-      <c r="FB13" s="49"/>
-      <c r="FC13" s="49"/>
-      <c r="FD13" s="49"/>
-      <c r="FE13" s="49"/>
-      <c r="FF13" s="49"/>
-      <c r="FG13" s="49"/>
-      <c r="FH13" s="49"/>
-      <c r="FI13" s="49"/>
-      <c r="FJ13" s="49"/>
-      <c r="FK13" s="49"/>
-      <c r="FL13" s="49"/>
-      <c r="FM13" s="49"/>
-      <c r="FN13" s="49"/>
-      <c r="FO13" s="49"/>
-      <c r="FP13" s="49"/>
-      <c r="FQ13" s="49"/>
-      <c r="FR13" s="49"/>
-      <c r="FS13" s="49"/>
-      <c r="FT13" s="49"/>
-      <c r="FU13" s="49"/>
-      <c r="FV13" s="49"/>
-      <c r="FW13" s="49"/>
-      <c r="FX13" s="49"/>
-      <c r="FY13" s="49"/>
-      <c r="FZ13" s="49"/>
-      <c r="GA13" s="49"/>
-      <c r="GB13" s="49"/>
-      <c r="GC13" s="49"/>
-      <c r="GD13" s="49"/>
-      <c r="GE13" s="49"/>
-      <c r="GF13" s="49"/>
-      <c r="GG13" s="40"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="33"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="33"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="33"/>
+      <c r="AP13" s="33"/>
+      <c r="AQ13" s="33"/>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="33"/>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="33"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="33"/>
+      <c r="BD13" s="33"/>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="33"/>
+      <c r="BG13" s="33"/>
+      <c r="BH13" s="33"/>
+      <c r="BI13" s="33"/>
+      <c r="BJ13" s="33"/>
+      <c r="BK13" s="33"/>
+      <c r="BL13" s="33"/>
+      <c r="BM13" s="33"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="33"/>
+      <c r="BP13" s="33"/>
+      <c r="BQ13" s="33"/>
+      <c r="BR13" s="33"/>
+      <c r="BS13" s="33"/>
+      <c r="BT13" s="33"/>
+      <c r="BU13" s="33"/>
+      <c r="BV13" s="33"/>
+      <c r="BW13" s="33"/>
+      <c r="BX13" s="33"/>
+      <c r="BY13" s="33"/>
+      <c r="BZ13" s="33"/>
+      <c r="CA13" s="33"/>
+      <c r="CB13" s="33"/>
+      <c r="CC13" s="33"/>
+      <c r="CD13" s="33"/>
+      <c r="CE13" s="33"/>
+      <c r="CF13" s="33"/>
+      <c r="CG13" s="33"/>
+      <c r="CH13" s="33"/>
+      <c r="CI13" s="33"/>
+      <c r="CJ13" s="33"/>
+      <c r="CK13" s="33"/>
+      <c r="CL13" s="33"/>
+      <c r="CM13" s="33"/>
+      <c r="CN13" s="33"/>
+      <c r="CO13" s="33"/>
+      <c r="CP13" s="33"/>
+      <c r="CQ13" s="33"/>
+      <c r="CR13" s="33"/>
+      <c r="CS13" s="33"/>
+      <c r="CT13" s="33"/>
+      <c r="CU13" s="33"/>
+      <c r="CV13" s="33"/>
+      <c r="CW13" s="33"/>
+      <c r="CX13" s="33"/>
+      <c r="CY13" s="33"/>
+      <c r="CZ13" s="33"/>
+      <c r="DA13" s="33"/>
+      <c r="DB13" s="33"/>
+      <c r="DC13" s="33"/>
+      <c r="DD13" s="33"/>
+      <c r="DE13" s="33"/>
+      <c r="DF13" s="33"/>
+      <c r="DG13" s="33"/>
+      <c r="DH13" s="33"/>
+      <c r="DI13" s="33"/>
+      <c r="DJ13" s="33"/>
+      <c r="DK13" s="33"/>
+      <c r="DL13" s="33"/>
+      <c r="DM13" s="33"/>
+      <c r="DN13" s="33"/>
+      <c r="DO13" s="33"/>
+      <c r="DP13" s="33"/>
+      <c r="DQ13" s="33"/>
+      <c r="DR13" s="33"/>
+      <c r="DS13" s="33"/>
+      <c r="DT13" s="33"/>
+      <c r="DU13" s="33"/>
+      <c r="DV13" s="33"/>
+      <c r="DW13" s="33"/>
+      <c r="DX13" s="33"/>
+      <c r="DY13" s="33"/>
+      <c r="DZ13" s="33"/>
+      <c r="EA13" s="33"/>
+      <c r="EB13" s="33"/>
+      <c r="EC13" s="33"/>
+      <c r="ED13" s="33"/>
+      <c r="EE13" s="33"/>
+      <c r="EF13" s="33"/>
+      <c r="EG13" s="33"/>
+      <c r="EH13" s="33"/>
+      <c r="EI13" s="33"/>
+      <c r="EJ13" s="33"/>
+      <c r="EK13" s="33"/>
+      <c r="EL13" s="33"/>
+      <c r="EM13" s="33"/>
+      <c r="EN13" s="33"/>
+      <c r="EO13" s="33"/>
+      <c r="EP13" s="33"/>
+      <c r="EQ13" s="33"/>
+      <c r="ER13" s="33"/>
+      <c r="ES13" s="33"/>
+      <c r="ET13" s="33"/>
+      <c r="EU13" s="33"/>
+      <c r="EV13" s="33"/>
+      <c r="EW13" s="33"/>
+      <c r="EX13" s="33"/>
+      <c r="EY13" s="33"/>
+      <c r="EZ13" s="33"/>
+      <c r="FA13" s="33"/>
+      <c r="FB13" s="33"/>
+      <c r="FC13" s="33"/>
+      <c r="FD13" s="33"/>
+      <c r="FE13" s="33"/>
+      <c r="FF13" s="33"/>
+      <c r="FG13" s="33"/>
+      <c r="FH13" s="33"/>
+      <c r="FI13" s="33"/>
+      <c r="FJ13" s="33"/>
+      <c r="FK13" s="33"/>
+      <c r="FL13" s="33"/>
+      <c r="FM13" s="33"/>
+      <c r="FN13" s="33"/>
+      <c r="FO13" s="33"/>
+      <c r="FP13" s="33"/>
+      <c r="FQ13" s="33"/>
+      <c r="FR13" s="33"/>
+      <c r="FS13" s="33"/>
+      <c r="FT13" s="33"/>
+      <c r="FU13" s="33"/>
+      <c r="FV13" s="33"/>
+      <c r="FW13" s="33"/>
+      <c r="FX13" s="33"/>
+      <c r="FY13" s="33"/>
+      <c r="FZ13" s="33"/>
+      <c r="GA13" s="33"/>
+      <c r="GB13" s="33"/>
+      <c r="GC13" s="33"/>
+      <c r="GD13" s="33"/>
+      <c r="GE13" s="33"/>
+      <c r="GF13" s="33"/>
+      <c r="GG13" s="28"/>
       <c r="GH13" s="14"/>
       <c r="GI13" s="14"/>
       <c r="GJ13" s="14"/>
@@ -5750,15 +5843,15 @@
       <c r="IX13" s="14"/>
     </row>
     <row r="14" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="34">
+      <c r="B14" s="79"/>
+      <c r="C14" s="25">
         <f>DATE(2021,11,19)</f>
         <v>44519</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="25">
         <f>DATE(2022,2,6)</f>
         <v>44598</v>
       </c>
@@ -5785,170 +5878,170 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="42"/>
-      <c r="AL14" s="42"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="42"/>
-      <c r="AU14" s="42"/>
-      <c r="AV14" s="42"/>
-      <c r="AW14" s="42"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="42"/>
-      <c r="BA14" s="42"/>
-      <c r="BB14" s="42"/>
-      <c r="BC14" s="42"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="42"/>
-      <c r="BG14" s="42"/>
-      <c r="BH14" s="42"/>
-      <c r="BI14" s="42"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="42"/>
-      <c r="BL14" s="42"/>
-      <c r="BM14" s="42"/>
-      <c r="BN14" s="42"/>
-      <c r="BO14" s="42"/>
-      <c r="BP14" s="42"/>
-      <c r="BQ14" s="42"/>
-      <c r="BR14" s="42"/>
-      <c r="BS14" s="42"/>
-      <c r="BT14" s="42"/>
-      <c r="BU14" s="42"/>
-      <c r="BV14" s="42"/>
-      <c r="BW14" s="42"/>
-      <c r="BX14" s="42"/>
-      <c r="BY14" s="42"/>
-      <c r="BZ14" s="42"/>
-      <c r="CA14" s="42"/>
-      <c r="CB14" s="42"/>
-      <c r="CC14" s="42"/>
-      <c r="CD14" s="42"/>
-      <c r="CE14" s="42"/>
-      <c r="CF14" s="42"/>
-      <c r="CG14" s="42"/>
-      <c r="CH14" s="42"/>
-      <c r="CI14" s="42"/>
-      <c r="CJ14" s="42"/>
-      <c r="CK14" s="42"/>
-      <c r="CL14" s="42"/>
-      <c r="CM14" s="42"/>
-      <c r="CN14" s="42"/>
-      <c r="CO14" s="42"/>
-      <c r="CP14" s="42"/>
-      <c r="CQ14" s="42"/>
-      <c r="CR14" s="42"/>
-      <c r="CS14" s="42"/>
-      <c r="CT14" s="42"/>
-      <c r="CU14" s="42"/>
-      <c r="CV14" s="42"/>
-      <c r="CW14" s="42"/>
-      <c r="CX14" s="42"/>
-      <c r="CY14" s="42"/>
-      <c r="CZ14" s="42"/>
-      <c r="DA14" s="42"/>
-      <c r="DB14" s="42"/>
-      <c r="DC14" s="42"/>
-      <c r="DD14" s="42"/>
-      <c r="DE14" s="42"/>
-      <c r="DF14" s="42"/>
-      <c r="DG14" s="42"/>
-      <c r="DH14" s="42"/>
-      <c r="DI14" s="42"/>
-      <c r="DJ14" s="42"/>
-      <c r="DK14" s="42"/>
-      <c r="DL14" s="42"/>
-      <c r="DM14" s="42"/>
-      <c r="DN14" s="42"/>
-      <c r="DO14" s="42"/>
-      <c r="DP14" s="42"/>
-      <c r="DQ14" s="42"/>
-      <c r="DR14" s="42"/>
-      <c r="DS14" s="42"/>
-      <c r="DT14" s="42"/>
-      <c r="DU14" s="42"/>
-      <c r="DV14" s="42"/>
-      <c r="DW14" s="42"/>
-      <c r="DX14" s="42"/>
-      <c r="DY14" s="42"/>
-      <c r="DZ14" s="42"/>
-      <c r="EA14" s="42"/>
-      <c r="EB14" s="42"/>
-      <c r="EC14" s="42"/>
-      <c r="ED14" s="42"/>
-      <c r="EE14" s="42"/>
-      <c r="EF14" s="42"/>
-      <c r="EG14" s="42"/>
-      <c r="EH14" s="42"/>
-      <c r="EI14" s="42"/>
-      <c r="EJ14" s="42"/>
-      <c r="EK14" s="42"/>
-      <c r="EL14" s="42"/>
-      <c r="EM14" s="42"/>
-      <c r="EN14" s="42"/>
-      <c r="EO14" s="42"/>
-      <c r="EP14" s="42"/>
-      <c r="EQ14" s="42"/>
-      <c r="ER14" s="42"/>
-      <c r="ES14" s="42"/>
-      <c r="ET14" s="42"/>
-      <c r="EU14" s="42"/>
-      <c r="EV14" s="42"/>
-      <c r="EW14" s="42"/>
-      <c r="EX14" s="42"/>
-      <c r="EY14" s="42"/>
-      <c r="EZ14" s="42"/>
-      <c r="FA14" s="42"/>
-      <c r="FB14" s="42"/>
-      <c r="FC14" s="42"/>
-      <c r="FD14" s="42"/>
-      <c r="FE14" s="42"/>
-      <c r="FF14" s="42"/>
-      <c r="FG14" s="42"/>
-      <c r="FH14" s="42"/>
-      <c r="FI14" s="42"/>
-      <c r="FJ14" s="42"/>
-      <c r="FK14" s="42"/>
-      <c r="FL14" s="42"/>
-      <c r="FM14" s="42"/>
-      <c r="FN14" s="42"/>
-      <c r="FO14" s="42"/>
-      <c r="FP14" s="42"/>
-      <c r="FQ14" s="42"/>
-      <c r="FR14" s="42"/>
-      <c r="FS14" s="42"/>
-      <c r="FT14" s="42"/>
-      <c r="FU14" s="42"/>
-      <c r="FV14" s="42"/>
-      <c r="FW14" s="42"/>
-      <c r="FX14" s="47"/>
-      <c r="FY14" s="48"/>
-      <c r="FZ14" s="42"/>
-      <c r="GA14" s="42"/>
-      <c r="GB14" s="42"/>
-      <c r="GC14" s="42"/>
-      <c r="GD14" s="42"/>
-      <c r="GE14" s="42"/>
-      <c r="GF14" s="42"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="30"/>
+      <c r="AW14" s="30"/>
+      <c r="AX14" s="30"/>
+      <c r="AY14" s="30"/>
+      <c r="AZ14" s="30"/>
+      <c r="BA14" s="30"/>
+      <c r="BB14" s="30"/>
+      <c r="BC14" s="30"/>
+      <c r="BD14" s="30"/>
+      <c r="BE14" s="30"/>
+      <c r="BF14" s="30"/>
+      <c r="BG14" s="30"/>
+      <c r="BH14" s="30"/>
+      <c r="BI14" s="30"/>
+      <c r="BJ14" s="30"/>
+      <c r="BK14" s="30"/>
+      <c r="BL14" s="30"/>
+      <c r="BM14" s="30"/>
+      <c r="BN14" s="30"/>
+      <c r="BO14" s="30"/>
+      <c r="BP14" s="30"/>
+      <c r="BQ14" s="30"/>
+      <c r="BR14" s="30"/>
+      <c r="BS14" s="30"/>
+      <c r="BT14" s="30"/>
+      <c r="BU14" s="30"/>
+      <c r="BV14" s="30"/>
+      <c r="BW14" s="30"/>
+      <c r="BX14" s="30"/>
+      <c r="BY14" s="30"/>
+      <c r="BZ14" s="30"/>
+      <c r="CA14" s="30"/>
+      <c r="CB14" s="30"/>
+      <c r="CC14" s="30"/>
+      <c r="CD14" s="30"/>
+      <c r="CE14" s="30"/>
+      <c r="CF14" s="30"/>
+      <c r="CG14" s="30"/>
+      <c r="CH14" s="30"/>
+      <c r="CI14" s="30"/>
+      <c r="CJ14" s="30"/>
+      <c r="CK14" s="30"/>
+      <c r="CL14" s="30"/>
+      <c r="CM14" s="30"/>
+      <c r="CN14" s="30"/>
+      <c r="CO14" s="30"/>
+      <c r="CP14" s="30"/>
+      <c r="CQ14" s="30"/>
+      <c r="CR14" s="30"/>
+      <c r="CS14" s="30"/>
+      <c r="CT14" s="30"/>
+      <c r="CU14" s="30"/>
+      <c r="CV14" s="30"/>
+      <c r="CW14" s="30"/>
+      <c r="CX14" s="30"/>
+      <c r="CY14" s="30"/>
+      <c r="CZ14" s="30"/>
+      <c r="DA14" s="30"/>
+      <c r="DB14" s="30"/>
+      <c r="DC14" s="30"/>
+      <c r="DD14" s="30"/>
+      <c r="DE14" s="30"/>
+      <c r="DF14" s="30"/>
+      <c r="DG14" s="30"/>
+      <c r="DH14" s="30"/>
+      <c r="DI14" s="30"/>
+      <c r="DJ14" s="30"/>
+      <c r="DK14" s="30"/>
+      <c r="DL14" s="30"/>
+      <c r="DM14" s="30"/>
+      <c r="DN14" s="30"/>
+      <c r="DO14" s="30"/>
+      <c r="DP14" s="30"/>
+      <c r="DQ14" s="30"/>
+      <c r="DR14" s="30"/>
+      <c r="DS14" s="30"/>
+      <c r="DT14" s="30"/>
+      <c r="DU14" s="30"/>
+      <c r="DV14" s="30"/>
+      <c r="DW14" s="30"/>
+      <c r="DX14" s="30"/>
+      <c r="DY14" s="30"/>
+      <c r="DZ14" s="30"/>
+      <c r="EA14" s="30"/>
+      <c r="EB14" s="30"/>
+      <c r="EC14" s="30"/>
+      <c r="ED14" s="30"/>
+      <c r="EE14" s="30"/>
+      <c r="EF14" s="30"/>
+      <c r="EG14" s="30"/>
+      <c r="EH14" s="30"/>
+      <c r="EI14" s="30"/>
+      <c r="EJ14" s="30"/>
+      <c r="EK14" s="30"/>
+      <c r="EL14" s="30"/>
+      <c r="EM14" s="30"/>
+      <c r="EN14" s="30"/>
+      <c r="EO14" s="30"/>
+      <c r="EP14" s="30"/>
+      <c r="EQ14" s="30"/>
+      <c r="ER14" s="30"/>
+      <c r="ES14" s="30"/>
+      <c r="ET14" s="30"/>
+      <c r="EU14" s="30"/>
+      <c r="EV14" s="30"/>
+      <c r="EW14" s="30"/>
+      <c r="EX14" s="30"/>
+      <c r="EY14" s="30"/>
+      <c r="EZ14" s="30"/>
+      <c r="FA14" s="30"/>
+      <c r="FB14" s="30"/>
+      <c r="FC14" s="30"/>
+      <c r="FD14" s="30"/>
+      <c r="FE14" s="30"/>
+      <c r="FF14" s="30"/>
+      <c r="FG14" s="30"/>
+      <c r="FH14" s="30"/>
+      <c r="FI14" s="30"/>
+      <c r="FJ14" s="30"/>
+      <c r="FK14" s="30"/>
+      <c r="FL14" s="30"/>
+      <c r="FM14" s="30"/>
+      <c r="FN14" s="30"/>
+      <c r="FO14" s="30"/>
+      <c r="FP14" s="30"/>
+      <c r="FQ14" s="30"/>
+      <c r="FR14" s="30"/>
+      <c r="FS14" s="30"/>
+      <c r="FT14" s="30"/>
+      <c r="FU14" s="30"/>
+      <c r="FV14" s="30"/>
+      <c r="FW14" s="30"/>
+      <c r="FX14" s="31"/>
+      <c r="FY14" s="32"/>
+      <c r="FZ14" s="30"/>
+      <c r="GA14" s="30"/>
+      <c r="GB14" s="30"/>
+      <c r="GC14" s="30"/>
+      <c r="GD14" s="30"/>
+      <c r="GE14" s="30"/>
+      <c r="GF14" s="30"/>
       <c r="GG14" s="14"/>
       <c r="GH14" s="14"/>
       <c r="GI14" s="14"/>
@@ -6021,10 +6114,10 @@
       <c r="IX14" s="14"/>
     </row>
     <row r="15" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="58"/>
+      <c r="A15" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="80"/>
       <c r="C15" s="24">
         <f>DATE(2022,1,10)</f>
         <v>44571</v>
@@ -6292,15 +6385,15 @@
       <c r="IX15" s="14"/>
     </row>
     <row r="16" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="35">
+      <c r="A16" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="26">
         <f>DATE(2022,2,7)</f>
         <v>44599</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="26">
         <f>DATE(2022,5,1)</f>
         <v>44682</v>
       </c>
@@ -6352,205 +6445,205 @@
       <c r="AU16" s="14"/>
       <c r="AV16" s="14"/>
       <c r="AW16" s="14"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="41"/>
-      <c r="BB16" s="41"/>
-      <c r="BC16" s="41"/>
-      <c r="BD16" s="41"/>
-      <c r="BE16" s="41"/>
-      <c r="BF16" s="41"/>
-      <c r="BG16" s="41"/>
-      <c r="BH16" s="41"/>
-      <c r="BI16" s="41"/>
-      <c r="BJ16" s="41"/>
-      <c r="BK16" s="41"/>
-      <c r="BL16" s="41"/>
-      <c r="BM16" s="41"/>
-      <c r="BN16" s="41"/>
-      <c r="BO16" s="41"/>
-      <c r="BP16" s="41"/>
-      <c r="BQ16" s="41"/>
-      <c r="BR16" s="41"/>
-      <c r="BS16" s="41"/>
-      <c r="BT16" s="41"/>
-      <c r="BU16" s="41"/>
-      <c r="BV16" s="41"/>
-      <c r="BW16" s="41"/>
-      <c r="BX16" s="41"/>
-      <c r="BY16" s="41"/>
-      <c r="BZ16" s="41"/>
-      <c r="CA16" s="41"/>
-      <c r="CB16" s="41"/>
-      <c r="CC16" s="41"/>
-      <c r="CD16" s="41"/>
-      <c r="CE16" s="41"/>
-      <c r="CF16" s="41"/>
-      <c r="CG16" s="41"/>
-      <c r="CH16" s="41"/>
-      <c r="CI16" s="41"/>
-      <c r="CJ16" s="41"/>
-      <c r="CK16" s="41"/>
-      <c r="CL16" s="41"/>
-      <c r="CM16" s="41"/>
-      <c r="CN16" s="41"/>
-      <c r="CO16" s="41"/>
-      <c r="CP16" s="41"/>
-      <c r="CQ16" s="41"/>
-      <c r="CR16" s="41"/>
-      <c r="CS16" s="41"/>
-      <c r="CT16" s="41"/>
-      <c r="CU16" s="41"/>
-      <c r="CV16" s="41"/>
-      <c r="CW16" s="41"/>
-      <c r="CX16" s="41"/>
-      <c r="CY16" s="41"/>
-      <c r="CZ16" s="41"/>
-      <c r="DA16" s="41"/>
-      <c r="DB16" s="41"/>
-      <c r="DC16" s="41"/>
-      <c r="DD16" s="41"/>
-      <c r="DE16" s="41"/>
-      <c r="DF16" s="41"/>
-      <c r="DG16" s="41"/>
-      <c r="DH16" s="41"/>
-      <c r="DI16" s="41"/>
-      <c r="DJ16" s="41"/>
-      <c r="DK16" s="41"/>
-      <c r="DL16" s="41"/>
-      <c r="DM16" s="41"/>
-      <c r="DN16" s="41"/>
-      <c r="DO16" s="41"/>
-      <c r="DP16" s="41"/>
-      <c r="DQ16" s="41"/>
-      <c r="DR16" s="41"/>
-      <c r="DS16" s="41"/>
-      <c r="DT16" s="41"/>
-      <c r="DU16" s="41"/>
-      <c r="DV16" s="41"/>
-      <c r="DW16" s="41"/>
-      <c r="DX16" s="41"/>
-      <c r="DY16" s="41"/>
-      <c r="DZ16" s="41"/>
-      <c r="EA16" s="41"/>
-      <c r="EB16" s="41"/>
-      <c r="EC16" s="41"/>
-      <c r="ED16" s="41"/>
-      <c r="EE16" s="41"/>
-      <c r="EF16" s="41"/>
-      <c r="EG16" s="41"/>
-      <c r="EH16" s="41"/>
-      <c r="EI16" s="41"/>
-      <c r="EJ16" s="41"/>
-      <c r="EK16" s="41"/>
-      <c r="EL16" s="41"/>
-      <c r="EM16" s="41"/>
-      <c r="EN16" s="41"/>
-      <c r="EO16" s="41"/>
-      <c r="EP16" s="41"/>
-      <c r="EQ16" s="41"/>
-      <c r="ER16" s="41"/>
-      <c r="ES16" s="41"/>
-      <c r="ET16" s="41"/>
-      <c r="EU16" s="41"/>
-      <c r="EV16" s="41"/>
-      <c r="EW16" s="41"/>
-      <c r="EX16" s="41"/>
-      <c r="EY16" s="41"/>
-      <c r="EZ16" s="41"/>
-      <c r="FA16" s="41"/>
-      <c r="FB16" s="41"/>
-      <c r="FC16" s="41"/>
-      <c r="FD16" s="41"/>
-      <c r="FE16" s="41"/>
-      <c r="FF16" s="41"/>
-      <c r="FG16" s="41"/>
-      <c r="FH16" s="41"/>
-      <c r="FI16" s="41"/>
-      <c r="FJ16" s="41"/>
-      <c r="FK16" s="41"/>
-      <c r="FL16" s="41"/>
-      <c r="FM16" s="41"/>
-      <c r="FN16" s="41"/>
-      <c r="FO16" s="41"/>
-      <c r="FP16" s="41"/>
-      <c r="FQ16" s="41"/>
-      <c r="FR16" s="41"/>
-      <c r="FS16" s="41"/>
-      <c r="FT16" s="41"/>
-      <c r="FU16" s="41"/>
-      <c r="FV16" s="41"/>
-      <c r="FW16" s="41"/>
-      <c r="FX16" s="41"/>
-      <c r="FY16" s="41"/>
-      <c r="FZ16" s="41"/>
-      <c r="GA16" s="41"/>
-      <c r="GB16" s="41"/>
-      <c r="GC16" s="41"/>
-      <c r="GD16" s="41"/>
-      <c r="GE16" s="41"/>
-      <c r="GF16" s="41"/>
-      <c r="GG16" s="41"/>
-      <c r="GH16" s="41"/>
-      <c r="GI16" s="41"/>
-      <c r="GJ16" s="41"/>
-      <c r="GK16" s="41"/>
-      <c r="GL16" s="41"/>
-      <c r="GM16" s="41"/>
-      <c r="GN16" s="41"/>
-      <c r="GO16" s="41"/>
-      <c r="GP16" s="41"/>
-      <c r="GQ16" s="41"/>
-      <c r="GR16" s="41"/>
-      <c r="GS16" s="41"/>
-      <c r="GT16" s="41"/>
-      <c r="GU16" s="41"/>
-      <c r="GV16" s="41"/>
-      <c r="GW16" s="41"/>
-      <c r="GX16" s="41"/>
-      <c r="GY16" s="41"/>
-      <c r="GZ16" s="41"/>
-      <c r="HA16" s="41"/>
-      <c r="HB16" s="41"/>
-      <c r="HC16" s="41"/>
-      <c r="HD16" s="41"/>
-      <c r="HE16" s="41"/>
-      <c r="HF16" s="41"/>
-      <c r="HG16" s="41"/>
-      <c r="HH16" s="41"/>
-      <c r="HI16" s="41"/>
-      <c r="HJ16" s="41"/>
-      <c r="HK16" s="41"/>
-      <c r="HL16" s="41"/>
-      <c r="HM16" s="41"/>
-      <c r="HN16" s="41"/>
-      <c r="HO16" s="41"/>
-      <c r="HP16" s="41"/>
-      <c r="HQ16" s="41"/>
-      <c r="HR16" s="41"/>
-      <c r="HS16" s="41"/>
-      <c r="HT16" s="41"/>
-      <c r="HU16" s="41"/>
-      <c r="HV16" s="41"/>
-      <c r="HW16" s="41"/>
-      <c r="HX16" s="41"/>
-      <c r="HY16" s="41"/>
-      <c r="HZ16" s="41"/>
-      <c r="IA16" s="41"/>
-      <c r="IB16" s="41"/>
-      <c r="IC16" s="41"/>
-      <c r="ID16" s="41"/>
-      <c r="IE16" s="41"/>
-      <c r="IF16" s="41"/>
-      <c r="IG16" s="41"/>
-      <c r="IH16" s="41"/>
-      <c r="II16" s="41"/>
-      <c r="IJ16" s="41"/>
-      <c r="IK16" s="41"/>
-      <c r="IL16" s="41"/>
-      <c r="IM16" s="41"/>
-      <c r="IN16" s="41"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="29"/>
+      <c r="BA16" s="29"/>
+      <c r="BB16" s="29"/>
+      <c r="BC16" s="29"/>
+      <c r="BD16" s="29"/>
+      <c r="BE16" s="29"/>
+      <c r="BF16" s="29"/>
+      <c r="BG16" s="29"/>
+      <c r="BH16" s="29"/>
+      <c r="BI16" s="29"/>
+      <c r="BJ16" s="29"/>
+      <c r="BK16" s="29"/>
+      <c r="BL16" s="29"/>
+      <c r="BM16" s="29"/>
+      <c r="BN16" s="29"/>
+      <c r="BO16" s="29"/>
+      <c r="BP16" s="29"/>
+      <c r="BQ16" s="29"/>
+      <c r="BR16" s="29"/>
+      <c r="BS16" s="29"/>
+      <c r="BT16" s="29"/>
+      <c r="BU16" s="29"/>
+      <c r="BV16" s="29"/>
+      <c r="BW16" s="29"/>
+      <c r="BX16" s="29"/>
+      <c r="BY16" s="29"/>
+      <c r="BZ16" s="29"/>
+      <c r="CA16" s="29"/>
+      <c r="CB16" s="29"/>
+      <c r="CC16" s="29"/>
+      <c r="CD16" s="29"/>
+      <c r="CE16" s="29"/>
+      <c r="CF16" s="29"/>
+      <c r="CG16" s="29"/>
+      <c r="CH16" s="29"/>
+      <c r="CI16" s="29"/>
+      <c r="CJ16" s="29"/>
+      <c r="CK16" s="29"/>
+      <c r="CL16" s="29"/>
+      <c r="CM16" s="29"/>
+      <c r="CN16" s="29"/>
+      <c r="CO16" s="29"/>
+      <c r="CP16" s="29"/>
+      <c r="CQ16" s="29"/>
+      <c r="CR16" s="29"/>
+      <c r="CS16" s="29"/>
+      <c r="CT16" s="29"/>
+      <c r="CU16" s="29"/>
+      <c r="CV16" s="29"/>
+      <c r="CW16" s="29"/>
+      <c r="CX16" s="29"/>
+      <c r="CY16" s="29"/>
+      <c r="CZ16" s="29"/>
+      <c r="DA16" s="29"/>
+      <c r="DB16" s="29"/>
+      <c r="DC16" s="29"/>
+      <c r="DD16" s="29"/>
+      <c r="DE16" s="29"/>
+      <c r="DF16" s="29"/>
+      <c r="DG16" s="29"/>
+      <c r="DH16" s="29"/>
+      <c r="DI16" s="29"/>
+      <c r="DJ16" s="29"/>
+      <c r="DK16" s="29"/>
+      <c r="DL16" s="29"/>
+      <c r="DM16" s="29"/>
+      <c r="DN16" s="29"/>
+      <c r="DO16" s="29"/>
+      <c r="DP16" s="29"/>
+      <c r="DQ16" s="29"/>
+      <c r="DR16" s="29"/>
+      <c r="DS16" s="29"/>
+      <c r="DT16" s="29"/>
+      <c r="DU16" s="29"/>
+      <c r="DV16" s="29"/>
+      <c r="DW16" s="29"/>
+      <c r="DX16" s="29"/>
+      <c r="DY16" s="29"/>
+      <c r="DZ16" s="29"/>
+      <c r="EA16" s="29"/>
+      <c r="EB16" s="29"/>
+      <c r="EC16" s="29"/>
+      <c r="ED16" s="29"/>
+      <c r="EE16" s="29"/>
+      <c r="EF16" s="29"/>
+      <c r="EG16" s="29"/>
+      <c r="EH16" s="29"/>
+      <c r="EI16" s="29"/>
+      <c r="EJ16" s="29"/>
+      <c r="EK16" s="29"/>
+      <c r="EL16" s="29"/>
+      <c r="EM16" s="29"/>
+      <c r="EN16" s="29"/>
+      <c r="EO16" s="29"/>
+      <c r="EP16" s="29"/>
+      <c r="EQ16" s="29"/>
+      <c r="ER16" s="29"/>
+      <c r="ES16" s="29"/>
+      <c r="ET16" s="29"/>
+      <c r="EU16" s="29"/>
+      <c r="EV16" s="29"/>
+      <c r="EW16" s="29"/>
+      <c r="EX16" s="29"/>
+      <c r="EY16" s="29"/>
+      <c r="EZ16" s="29"/>
+      <c r="FA16" s="29"/>
+      <c r="FB16" s="29"/>
+      <c r="FC16" s="29"/>
+      <c r="FD16" s="29"/>
+      <c r="FE16" s="29"/>
+      <c r="FF16" s="29"/>
+      <c r="FG16" s="29"/>
+      <c r="FH16" s="29"/>
+      <c r="FI16" s="29"/>
+      <c r="FJ16" s="29"/>
+      <c r="FK16" s="29"/>
+      <c r="FL16" s="29"/>
+      <c r="FM16" s="29"/>
+      <c r="FN16" s="29"/>
+      <c r="FO16" s="29"/>
+      <c r="FP16" s="29"/>
+      <c r="FQ16" s="29"/>
+      <c r="FR16" s="29"/>
+      <c r="FS16" s="29"/>
+      <c r="FT16" s="29"/>
+      <c r="FU16" s="29"/>
+      <c r="FV16" s="29"/>
+      <c r="FW16" s="29"/>
+      <c r="FX16" s="29"/>
+      <c r="FY16" s="29"/>
+      <c r="FZ16" s="29"/>
+      <c r="GA16" s="29"/>
+      <c r="GB16" s="29"/>
+      <c r="GC16" s="29"/>
+      <c r="GD16" s="29"/>
+      <c r="GE16" s="29"/>
+      <c r="GF16" s="29"/>
+      <c r="GG16" s="29"/>
+      <c r="GH16" s="29"/>
+      <c r="GI16" s="29"/>
+      <c r="GJ16" s="29"/>
+      <c r="GK16" s="29"/>
+      <c r="GL16" s="29"/>
+      <c r="GM16" s="29"/>
+      <c r="GN16" s="29"/>
+      <c r="GO16" s="29"/>
+      <c r="GP16" s="29"/>
+      <c r="GQ16" s="29"/>
+      <c r="GR16" s="29"/>
+      <c r="GS16" s="29"/>
+      <c r="GT16" s="29"/>
+      <c r="GU16" s="29"/>
+      <c r="GV16" s="29"/>
+      <c r="GW16" s="29"/>
+      <c r="GX16" s="29"/>
+      <c r="GY16" s="29"/>
+      <c r="GZ16" s="29"/>
+      <c r="HA16" s="29"/>
+      <c r="HB16" s="29"/>
+      <c r="HC16" s="29"/>
+      <c r="HD16" s="29"/>
+      <c r="HE16" s="29"/>
+      <c r="HF16" s="29"/>
+      <c r="HG16" s="29"/>
+      <c r="HH16" s="29"/>
+      <c r="HI16" s="29"/>
+      <c r="HJ16" s="29"/>
+      <c r="HK16" s="29"/>
+      <c r="HL16" s="29"/>
+      <c r="HM16" s="29"/>
+      <c r="HN16" s="29"/>
+      <c r="HO16" s="29"/>
+      <c r="HP16" s="29"/>
+      <c r="HQ16" s="29"/>
+      <c r="HR16" s="29"/>
+      <c r="HS16" s="29"/>
+      <c r="HT16" s="29"/>
+      <c r="HU16" s="29"/>
+      <c r="HV16" s="29"/>
+      <c r="HW16" s="29"/>
+      <c r="HX16" s="29"/>
+      <c r="HY16" s="29"/>
+      <c r="HZ16" s="29"/>
+      <c r="IA16" s="29"/>
+      <c r="IB16" s="29"/>
+      <c r="IC16" s="29"/>
+      <c r="ID16" s="29"/>
+      <c r="IE16" s="29"/>
+      <c r="IF16" s="29"/>
+      <c r="IG16" s="29"/>
+      <c r="IH16" s="29"/>
+      <c r="II16" s="29"/>
+      <c r="IJ16" s="29"/>
+      <c r="IK16" s="29"/>
+      <c r="IL16" s="29"/>
+      <c r="IM16" s="29"/>
+      <c r="IN16" s="29"/>
       <c r="IO16" s="14"/>
       <c r="IP16" s="14"/>
       <c r="IQ16" s="14"/>
@@ -6563,16 +6656,16 @@
       <c r="IX16" s="14"/>
     </row>
     <row r="17" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="36" t="str">
+      <c r="B17" s="83"/>
+      <c r="C17" s="45" t="str">
         <f>C18</f>
         <v>14/12/2021</v>
       </c>
-      <c r="D17" s="37">
-        <f>D28</f>
+      <c r="D17" s="46">
+        <f>D29</f>
         <v>44742</v>
       </c>
       <c r="E17" s="13"/>
@@ -6623,205 +6716,205 @@
       <c r="AU17" s="14"/>
       <c r="AV17" s="14"/>
       <c r="AW17" s="14"/>
-      <c r="AX17" s="50"/>
-      <c r="AY17" s="51"/>
-      <c r="AZ17" s="51"/>
-      <c r="BA17" s="51"/>
-      <c r="BB17" s="51"/>
-      <c r="BC17" s="51"/>
-      <c r="BD17" s="51"/>
-      <c r="BE17" s="51"/>
-      <c r="BF17" s="51"/>
-      <c r="BG17" s="51"/>
-      <c r="BH17" s="51"/>
-      <c r="BI17" s="51"/>
-      <c r="BJ17" s="51"/>
-      <c r="BK17" s="51"/>
-      <c r="BL17" s="51"/>
-      <c r="BM17" s="51"/>
-      <c r="BN17" s="51"/>
-      <c r="BO17" s="51"/>
-      <c r="BP17" s="51"/>
-      <c r="BQ17" s="51"/>
-      <c r="BR17" s="51"/>
-      <c r="BS17" s="51"/>
-      <c r="BT17" s="51"/>
-      <c r="BU17" s="51"/>
-      <c r="BV17" s="51"/>
-      <c r="BW17" s="51"/>
-      <c r="BX17" s="51"/>
-      <c r="BY17" s="51"/>
-      <c r="BZ17" s="51"/>
-      <c r="CA17" s="51"/>
-      <c r="CB17" s="51"/>
-      <c r="CC17" s="51"/>
-      <c r="CD17" s="51"/>
-      <c r="CE17" s="51"/>
-      <c r="CF17" s="51"/>
-      <c r="CG17" s="51"/>
-      <c r="CH17" s="51"/>
-      <c r="CI17" s="51"/>
-      <c r="CJ17" s="51"/>
-      <c r="CK17" s="51"/>
-      <c r="CL17" s="51"/>
-      <c r="CM17" s="51"/>
-      <c r="CN17" s="51"/>
-      <c r="CO17" s="51"/>
-      <c r="CP17" s="51"/>
-      <c r="CQ17" s="51"/>
-      <c r="CR17" s="51"/>
-      <c r="CS17" s="51"/>
-      <c r="CT17" s="51"/>
-      <c r="CU17" s="51"/>
-      <c r="CV17" s="51"/>
-      <c r="CW17" s="51"/>
-      <c r="CX17" s="51"/>
-      <c r="CY17" s="51"/>
-      <c r="CZ17" s="51"/>
-      <c r="DA17" s="51"/>
-      <c r="DB17" s="51"/>
-      <c r="DC17" s="51"/>
-      <c r="DD17" s="51"/>
-      <c r="DE17" s="51"/>
-      <c r="DF17" s="51"/>
-      <c r="DG17" s="51"/>
-      <c r="DH17" s="51"/>
-      <c r="DI17" s="51"/>
-      <c r="DJ17" s="51"/>
-      <c r="DK17" s="51"/>
-      <c r="DL17" s="51"/>
-      <c r="DM17" s="51"/>
-      <c r="DN17" s="51"/>
-      <c r="DO17" s="51"/>
-      <c r="DP17" s="51"/>
-      <c r="DQ17" s="51"/>
-      <c r="DR17" s="51"/>
-      <c r="DS17" s="51"/>
-      <c r="DT17" s="51"/>
-      <c r="DU17" s="51"/>
-      <c r="DV17" s="51"/>
-      <c r="DW17" s="51"/>
-      <c r="DX17" s="51"/>
-      <c r="DY17" s="51"/>
-      <c r="DZ17" s="51"/>
-      <c r="EA17" s="51"/>
-      <c r="EB17" s="51"/>
-      <c r="EC17" s="51"/>
-      <c r="ED17" s="51"/>
-      <c r="EE17" s="51"/>
-      <c r="EF17" s="51"/>
-      <c r="EG17" s="51"/>
-      <c r="EH17" s="51"/>
-      <c r="EI17" s="51"/>
-      <c r="EJ17" s="51"/>
-      <c r="EK17" s="51"/>
-      <c r="EL17" s="51"/>
-      <c r="EM17" s="51"/>
-      <c r="EN17" s="51"/>
-      <c r="EO17" s="51"/>
-      <c r="EP17" s="51"/>
-      <c r="EQ17" s="51"/>
-      <c r="ER17" s="51"/>
-      <c r="ES17" s="51"/>
-      <c r="ET17" s="51"/>
-      <c r="EU17" s="51"/>
-      <c r="EV17" s="51"/>
-      <c r="EW17" s="51"/>
-      <c r="EX17" s="51"/>
-      <c r="EY17" s="51"/>
-      <c r="EZ17" s="51"/>
-      <c r="FA17" s="51"/>
-      <c r="FB17" s="51"/>
-      <c r="FC17" s="51"/>
-      <c r="FD17" s="51"/>
-      <c r="FE17" s="51"/>
-      <c r="FF17" s="51"/>
-      <c r="FG17" s="51"/>
-      <c r="FH17" s="51"/>
-      <c r="FI17" s="51"/>
-      <c r="FJ17" s="51"/>
-      <c r="FK17" s="51"/>
-      <c r="FL17" s="51"/>
-      <c r="FM17" s="51"/>
-      <c r="FN17" s="51"/>
-      <c r="FO17" s="51"/>
-      <c r="FP17" s="51"/>
-      <c r="FQ17" s="51"/>
-      <c r="FR17" s="51"/>
-      <c r="FS17" s="51"/>
-      <c r="FT17" s="51"/>
-      <c r="FU17" s="51"/>
-      <c r="FV17" s="51"/>
-      <c r="FW17" s="51"/>
-      <c r="FX17" s="51"/>
-      <c r="FY17" s="51"/>
-      <c r="FZ17" s="51"/>
-      <c r="GA17" s="51"/>
-      <c r="GB17" s="51"/>
-      <c r="GC17" s="51"/>
-      <c r="GD17" s="51"/>
-      <c r="GE17" s="51"/>
-      <c r="GF17" s="51"/>
-      <c r="GG17" s="51"/>
-      <c r="GH17" s="51"/>
-      <c r="GI17" s="51"/>
-      <c r="GJ17" s="51"/>
-      <c r="GK17" s="51"/>
-      <c r="GL17" s="51"/>
-      <c r="GM17" s="51"/>
-      <c r="GN17" s="51"/>
-      <c r="GO17" s="51"/>
-      <c r="GP17" s="51"/>
-      <c r="GQ17" s="51"/>
-      <c r="GR17" s="51"/>
-      <c r="GS17" s="51"/>
-      <c r="GT17" s="51"/>
-      <c r="GU17" s="51"/>
-      <c r="GV17" s="51"/>
-      <c r="GW17" s="51"/>
-      <c r="GX17" s="51"/>
-      <c r="GY17" s="51"/>
-      <c r="GZ17" s="51"/>
-      <c r="HA17" s="51"/>
-      <c r="HB17" s="51"/>
-      <c r="HC17" s="51"/>
-      <c r="HD17" s="51"/>
-      <c r="HE17" s="51"/>
-      <c r="HF17" s="51"/>
-      <c r="HG17" s="51"/>
-      <c r="HH17" s="51"/>
-      <c r="HI17" s="51"/>
-      <c r="HJ17" s="51"/>
-      <c r="HK17" s="51"/>
-      <c r="HL17" s="51"/>
-      <c r="HM17" s="51"/>
-      <c r="HN17" s="51"/>
-      <c r="HO17" s="51"/>
-      <c r="HP17" s="51"/>
-      <c r="HQ17" s="51"/>
-      <c r="HR17" s="51"/>
-      <c r="HS17" s="51"/>
-      <c r="HT17" s="51"/>
-      <c r="HU17" s="51"/>
-      <c r="HV17" s="51"/>
-      <c r="HW17" s="51"/>
-      <c r="HX17" s="51"/>
-      <c r="HY17" s="51"/>
-      <c r="HZ17" s="51"/>
-      <c r="IA17" s="51"/>
-      <c r="IB17" s="51"/>
-      <c r="IC17" s="51"/>
-      <c r="ID17" s="51"/>
-      <c r="IE17" s="51"/>
-      <c r="IF17" s="51"/>
-      <c r="IG17" s="51"/>
-      <c r="IH17" s="51"/>
-      <c r="II17" s="51"/>
-      <c r="IJ17" s="51"/>
-      <c r="IK17" s="51"/>
-      <c r="IL17" s="51"/>
-      <c r="IM17" s="51"/>
-      <c r="IN17" s="52"/>
+      <c r="AX17" s="34"/>
+      <c r="AY17" s="35"/>
+      <c r="AZ17" s="35"/>
+      <c r="BA17" s="35"/>
+      <c r="BB17" s="35"/>
+      <c r="BC17" s="35"/>
+      <c r="BD17" s="35"/>
+      <c r="BE17" s="35"/>
+      <c r="BF17" s="35"/>
+      <c r="BG17" s="35"/>
+      <c r="BH17" s="35"/>
+      <c r="BI17" s="35"/>
+      <c r="BJ17" s="35"/>
+      <c r="BK17" s="35"/>
+      <c r="BL17" s="35"/>
+      <c r="BM17" s="35"/>
+      <c r="BN17" s="35"/>
+      <c r="BO17" s="35"/>
+      <c r="BP17" s="35"/>
+      <c r="BQ17" s="35"/>
+      <c r="BR17" s="35"/>
+      <c r="BS17" s="35"/>
+      <c r="BT17" s="35"/>
+      <c r="BU17" s="35"/>
+      <c r="BV17" s="35"/>
+      <c r="BW17" s="35"/>
+      <c r="BX17" s="35"/>
+      <c r="BY17" s="35"/>
+      <c r="BZ17" s="35"/>
+      <c r="CA17" s="35"/>
+      <c r="CB17" s="35"/>
+      <c r="CC17" s="35"/>
+      <c r="CD17" s="35"/>
+      <c r="CE17" s="35"/>
+      <c r="CF17" s="35"/>
+      <c r="CG17" s="35"/>
+      <c r="CH17" s="35"/>
+      <c r="CI17" s="35"/>
+      <c r="CJ17" s="35"/>
+      <c r="CK17" s="35"/>
+      <c r="CL17" s="35"/>
+      <c r="CM17" s="35"/>
+      <c r="CN17" s="35"/>
+      <c r="CO17" s="35"/>
+      <c r="CP17" s="35"/>
+      <c r="CQ17" s="35"/>
+      <c r="CR17" s="35"/>
+      <c r="CS17" s="35"/>
+      <c r="CT17" s="35"/>
+      <c r="CU17" s="35"/>
+      <c r="CV17" s="35"/>
+      <c r="CW17" s="35"/>
+      <c r="CX17" s="35"/>
+      <c r="CY17" s="35"/>
+      <c r="CZ17" s="35"/>
+      <c r="DA17" s="35"/>
+      <c r="DB17" s="35"/>
+      <c r="DC17" s="35"/>
+      <c r="DD17" s="35"/>
+      <c r="DE17" s="35"/>
+      <c r="DF17" s="35"/>
+      <c r="DG17" s="35"/>
+      <c r="DH17" s="35"/>
+      <c r="DI17" s="35"/>
+      <c r="DJ17" s="35"/>
+      <c r="DK17" s="35"/>
+      <c r="DL17" s="35"/>
+      <c r="DM17" s="35"/>
+      <c r="DN17" s="35"/>
+      <c r="DO17" s="35"/>
+      <c r="DP17" s="35"/>
+      <c r="DQ17" s="35"/>
+      <c r="DR17" s="35"/>
+      <c r="DS17" s="35"/>
+      <c r="DT17" s="35"/>
+      <c r="DU17" s="35"/>
+      <c r="DV17" s="35"/>
+      <c r="DW17" s="35"/>
+      <c r="DX17" s="35"/>
+      <c r="DY17" s="35"/>
+      <c r="DZ17" s="35"/>
+      <c r="EA17" s="35"/>
+      <c r="EB17" s="35"/>
+      <c r="EC17" s="35"/>
+      <c r="ED17" s="35"/>
+      <c r="EE17" s="35"/>
+      <c r="EF17" s="35"/>
+      <c r="EG17" s="35"/>
+      <c r="EH17" s="35"/>
+      <c r="EI17" s="35"/>
+      <c r="EJ17" s="35"/>
+      <c r="EK17" s="35"/>
+      <c r="EL17" s="35"/>
+      <c r="EM17" s="35"/>
+      <c r="EN17" s="35"/>
+      <c r="EO17" s="35"/>
+      <c r="EP17" s="35"/>
+      <c r="EQ17" s="35"/>
+      <c r="ER17" s="35"/>
+      <c r="ES17" s="35"/>
+      <c r="ET17" s="35"/>
+      <c r="EU17" s="35"/>
+      <c r="EV17" s="35"/>
+      <c r="EW17" s="35"/>
+      <c r="EX17" s="35"/>
+      <c r="EY17" s="35"/>
+      <c r="EZ17" s="35"/>
+      <c r="FA17" s="35"/>
+      <c r="FB17" s="35"/>
+      <c r="FC17" s="35"/>
+      <c r="FD17" s="35"/>
+      <c r="FE17" s="35"/>
+      <c r="FF17" s="35"/>
+      <c r="FG17" s="35"/>
+      <c r="FH17" s="35"/>
+      <c r="FI17" s="35"/>
+      <c r="FJ17" s="35"/>
+      <c r="FK17" s="35"/>
+      <c r="FL17" s="35"/>
+      <c r="FM17" s="35"/>
+      <c r="FN17" s="35"/>
+      <c r="FO17" s="35"/>
+      <c r="FP17" s="35"/>
+      <c r="FQ17" s="35"/>
+      <c r="FR17" s="35"/>
+      <c r="FS17" s="35"/>
+      <c r="FT17" s="35"/>
+      <c r="FU17" s="35"/>
+      <c r="FV17" s="35"/>
+      <c r="FW17" s="35"/>
+      <c r="FX17" s="35"/>
+      <c r="FY17" s="35"/>
+      <c r="FZ17" s="35"/>
+      <c r="GA17" s="35"/>
+      <c r="GB17" s="35"/>
+      <c r="GC17" s="35"/>
+      <c r="GD17" s="35"/>
+      <c r="GE17" s="35"/>
+      <c r="GF17" s="35"/>
+      <c r="GG17" s="35"/>
+      <c r="GH17" s="35"/>
+      <c r="GI17" s="35"/>
+      <c r="GJ17" s="35"/>
+      <c r="GK17" s="35"/>
+      <c r="GL17" s="35"/>
+      <c r="GM17" s="35"/>
+      <c r="GN17" s="35"/>
+      <c r="GO17" s="35"/>
+      <c r="GP17" s="35"/>
+      <c r="GQ17" s="35"/>
+      <c r="GR17" s="35"/>
+      <c r="GS17" s="35"/>
+      <c r="GT17" s="35"/>
+      <c r="GU17" s="35"/>
+      <c r="GV17" s="35"/>
+      <c r="GW17" s="35"/>
+      <c r="GX17" s="35"/>
+      <c r="GY17" s="35"/>
+      <c r="GZ17" s="35"/>
+      <c r="HA17" s="35"/>
+      <c r="HB17" s="35"/>
+      <c r="HC17" s="35"/>
+      <c r="HD17" s="35"/>
+      <c r="HE17" s="35"/>
+      <c r="HF17" s="35"/>
+      <c r="HG17" s="35"/>
+      <c r="HH17" s="35"/>
+      <c r="HI17" s="35"/>
+      <c r="HJ17" s="35"/>
+      <c r="HK17" s="35"/>
+      <c r="HL17" s="35"/>
+      <c r="HM17" s="35"/>
+      <c r="HN17" s="35"/>
+      <c r="HO17" s="35"/>
+      <c r="HP17" s="35"/>
+      <c r="HQ17" s="35"/>
+      <c r="HR17" s="35"/>
+      <c r="HS17" s="35"/>
+      <c r="HT17" s="35"/>
+      <c r="HU17" s="35"/>
+      <c r="HV17" s="35"/>
+      <c r="HW17" s="35"/>
+      <c r="HX17" s="35"/>
+      <c r="HY17" s="35"/>
+      <c r="HZ17" s="35"/>
+      <c r="IA17" s="35"/>
+      <c r="IB17" s="35"/>
+      <c r="IC17" s="35"/>
+      <c r="ID17" s="35"/>
+      <c r="IE17" s="35"/>
+      <c r="IF17" s="35"/>
+      <c r="IG17" s="35"/>
+      <c r="IH17" s="35"/>
+      <c r="II17" s="35"/>
+      <c r="IJ17" s="35"/>
+      <c r="IK17" s="35"/>
+      <c r="IL17" s="35"/>
+      <c r="IM17" s="35"/>
+      <c r="IN17" s="36"/>
       <c r="IO17" s="14"/>
       <c r="IP17" s="14"/>
       <c r="IQ17" s="14"/>
@@ -6834,14 +6927,14 @@
       <c r="IX17" s="14"/>
     </row>
     <row r="18" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="38">
+      <c r="A18" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="48">
         <f>DATE(2022,4,3)</f>
         <v>44654</v>
       </c>
@@ -6893,205 +6986,205 @@
       <c r="AU18" s="14"/>
       <c r="AV18" s="14"/>
       <c r="AW18" s="14"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="42"/>
-      <c r="BB18" s="42"/>
-      <c r="BC18" s="42"/>
-      <c r="BD18" s="42"/>
-      <c r="BE18" s="42"/>
-      <c r="BF18" s="42"/>
-      <c r="BG18" s="42"/>
-      <c r="BH18" s="42"/>
-      <c r="BI18" s="42"/>
-      <c r="BJ18" s="42"/>
-      <c r="BK18" s="42"/>
-      <c r="BL18" s="42"/>
-      <c r="BM18" s="42"/>
-      <c r="BN18" s="42"/>
-      <c r="BO18" s="42"/>
-      <c r="BP18" s="42"/>
-      <c r="BQ18" s="42"/>
-      <c r="BR18" s="42"/>
-      <c r="BS18" s="42"/>
-      <c r="BT18" s="42"/>
-      <c r="BU18" s="42"/>
-      <c r="BV18" s="42"/>
-      <c r="BW18" s="42"/>
-      <c r="BX18" s="42"/>
-      <c r="BY18" s="42"/>
-      <c r="BZ18" s="42"/>
-      <c r="CA18" s="42"/>
-      <c r="CB18" s="42"/>
-      <c r="CC18" s="42"/>
-      <c r="CD18" s="42"/>
-      <c r="CE18" s="42"/>
-      <c r="CF18" s="42"/>
-      <c r="CG18" s="42"/>
-      <c r="CH18" s="42"/>
-      <c r="CI18" s="42"/>
-      <c r="CJ18" s="42"/>
-      <c r="CK18" s="42"/>
-      <c r="CL18" s="42"/>
-      <c r="CM18" s="42"/>
-      <c r="CN18" s="42"/>
-      <c r="CO18" s="42"/>
-      <c r="CP18" s="42"/>
-      <c r="CQ18" s="42"/>
-      <c r="CR18" s="42"/>
-      <c r="CS18" s="42"/>
-      <c r="CT18" s="42"/>
-      <c r="CU18" s="42"/>
-      <c r="CV18" s="42"/>
-      <c r="CW18" s="42"/>
-      <c r="CX18" s="42"/>
-      <c r="CY18" s="42"/>
-      <c r="CZ18" s="42"/>
-      <c r="DA18" s="42"/>
-      <c r="DB18" s="42"/>
-      <c r="DC18" s="42"/>
-      <c r="DD18" s="42"/>
-      <c r="DE18" s="42"/>
-      <c r="DF18" s="42"/>
-      <c r="DG18" s="42"/>
-      <c r="DH18" s="42"/>
-      <c r="DI18" s="42"/>
-      <c r="DJ18" s="42"/>
-      <c r="DK18" s="42"/>
-      <c r="DL18" s="42"/>
-      <c r="DM18" s="42"/>
-      <c r="DN18" s="42"/>
-      <c r="DO18" s="42"/>
-      <c r="DP18" s="42"/>
-      <c r="DQ18" s="42"/>
-      <c r="DR18" s="42"/>
-      <c r="DS18" s="42"/>
-      <c r="DT18" s="42"/>
-      <c r="DU18" s="42"/>
-      <c r="DV18" s="42"/>
-      <c r="DW18" s="42"/>
-      <c r="DX18" s="42"/>
-      <c r="DY18" s="42"/>
-      <c r="DZ18" s="42"/>
-      <c r="EA18" s="42"/>
-      <c r="EB18" s="42"/>
-      <c r="EC18" s="42"/>
-      <c r="ED18" s="42"/>
-      <c r="EE18" s="42"/>
-      <c r="EF18" s="42"/>
-      <c r="EG18" s="42"/>
-      <c r="EH18" s="42"/>
-      <c r="EI18" s="42"/>
-      <c r="EJ18" s="42"/>
-      <c r="EK18" s="42"/>
-      <c r="EL18" s="42"/>
-      <c r="EM18" s="42"/>
-      <c r="EN18" s="42"/>
-      <c r="EO18" s="42"/>
-      <c r="EP18" s="42"/>
-      <c r="EQ18" s="42"/>
-      <c r="ER18" s="42"/>
-      <c r="ES18" s="42"/>
-      <c r="ET18" s="42"/>
-      <c r="EU18" s="42"/>
-      <c r="EV18" s="42"/>
-      <c r="EW18" s="42"/>
-      <c r="EX18" s="42"/>
-      <c r="EY18" s="42"/>
-      <c r="EZ18" s="42"/>
-      <c r="FA18" s="42"/>
-      <c r="FB18" s="42"/>
-      <c r="FC18" s="42"/>
-      <c r="FD18" s="42"/>
-      <c r="FE18" s="42"/>
-      <c r="FF18" s="42"/>
-      <c r="FG18" s="42"/>
-      <c r="FH18" s="42"/>
-      <c r="FI18" s="42"/>
-      <c r="FJ18" s="42"/>
-      <c r="FK18" s="42"/>
-      <c r="FL18" s="42"/>
-      <c r="FM18" s="42"/>
-      <c r="FN18" s="42"/>
-      <c r="FO18" s="42"/>
-      <c r="FP18" s="42"/>
-      <c r="FQ18" s="42"/>
-      <c r="FR18" s="42"/>
-      <c r="FS18" s="42"/>
-      <c r="FT18" s="42"/>
-      <c r="FU18" s="42"/>
-      <c r="FV18" s="42"/>
-      <c r="FW18" s="42"/>
-      <c r="FX18" s="42"/>
-      <c r="FY18" s="42"/>
-      <c r="FZ18" s="42"/>
-      <c r="GA18" s="42"/>
-      <c r="GB18" s="42"/>
-      <c r="GC18" s="42"/>
-      <c r="GD18" s="42"/>
-      <c r="GE18" s="42"/>
-      <c r="GF18" s="42"/>
-      <c r="GG18" s="42"/>
-      <c r="GH18" s="42"/>
-      <c r="GI18" s="42"/>
-      <c r="GJ18" s="42"/>
-      <c r="GK18" s="42"/>
-      <c r="GL18" s="42"/>
-      <c r="GM18" s="42"/>
-      <c r="GN18" s="42"/>
-      <c r="GO18" s="42"/>
-      <c r="GP18" s="42"/>
-      <c r="GQ18" s="42"/>
-      <c r="GR18" s="42"/>
-      <c r="GS18" s="42"/>
-      <c r="GT18" s="42"/>
-      <c r="GU18" s="42"/>
-      <c r="GV18" s="42"/>
-      <c r="GW18" s="42"/>
-      <c r="GX18" s="42"/>
-      <c r="GY18" s="42"/>
-      <c r="GZ18" s="42"/>
-      <c r="HA18" s="42"/>
-      <c r="HB18" s="42"/>
-      <c r="HC18" s="42"/>
-      <c r="HD18" s="42"/>
-      <c r="HE18" s="42"/>
-      <c r="HF18" s="42"/>
-      <c r="HG18" s="42"/>
-      <c r="HH18" s="42"/>
-      <c r="HI18" s="42"/>
-      <c r="HJ18" s="42"/>
-      <c r="HK18" s="42"/>
-      <c r="HL18" s="42"/>
-      <c r="HM18" s="42"/>
-      <c r="HN18" s="42"/>
-      <c r="HO18" s="42"/>
-      <c r="HP18" s="42"/>
-      <c r="HQ18" s="42"/>
-      <c r="HR18" s="42"/>
-      <c r="HS18" s="42"/>
-      <c r="HT18" s="42"/>
-      <c r="HU18" s="42"/>
-      <c r="HV18" s="42"/>
-      <c r="HW18" s="42"/>
-      <c r="HX18" s="42"/>
-      <c r="HY18" s="42"/>
-      <c r="HZ18" s="42"/>
-      <c r="IA18" s="42"/>
-      <c r="IB18" s="42"/>
-      <c r="IC18" s="42"/>
-      <c r="ID18" s="42"/>
-      <c r="IE18" s="42"/>
-      <c r="IF18" s="42"/>
-      <c r="IG18" s="42"/>
-      <c r="IH18" s="42"/>
-      <c r="II18" s="42"/>
-      <c r="IJ18" s="42"/>
-      <c r="IK18" s="42"/>
-      <c r="IL18" s="42"/>
-      <c r="IM18" s="42"/>
-      <c r="IN18" s="42"/>
+      <c r="AX18" s="30"/>
+      <c r="AY18" s="30"/>
+      <c r="AZ18" s="30"/>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="30"/>
+      <c r="BC18" s="30"/>
+      <c r="BD18" s="30"/>
+      <c r="BE18" s="30"/>
+      <c r="BF18" s="30"/>
+      <c r="BG18" s="30"/>
+      <c r="BH18" s="30"/>
+      <c r="BI18" s="30"/>
+      <c r="BJ18" s="30"/>
+      <c r="BK18" s="30"/>
+      <c r="BL18" s="30"/>
+      <c r="BM18" s="30"/>
+      <c r="BN18" s="30"/>
+      <c r="BO18" s="30"/>
+      <c r="BP18" s="30"/>
+      <c r="BQ18" s="30"/>
+      <c r="BR18" s="30"/>
+      <c r="BS18" s="30"/>
+      <c r="BT18" s="30"/>
+      <c r="BU18" s="30"/>
+      <c r="BV18" s="30"/>
+      <c r="BW18" s="30"/>
+      <c r="BX18" s="30"/>
+      <c r="BY18" s="30"/>
+      <c r="BZ18" s="30"/>
+      <c r="CA18" s="30"/>
+      <c r="CB18" s="30"/>
+      <c r="CC18" s="30"/>
+      <c r="CD18" s="30"/>
+      <c r="CE18" s="30"/>
+      <c r="CF18" s="30"/>
+      <c r="CG18" s="30"/>
+      <c r="CH18" s="30"/>
+      <c r="CI18" s="30"/>
+      <c r="CJ18" s="30"/>
+      <c r="CK18" s="30"/>
+      <c r="CL18" s="30"/>
+      <c r="CM18" s="30"/>
+      <c r="CN18" s="30"/>
+      <c r="CO18" s="30"/>
+      <c r="CP18" s="30"/>
+      <c r="CQ18" s="30"/>
+      <c r="CR18" s="30"/>
+      <c r="CS18" s="30"/>
+      <c r="CT18" s="30"/>
+      <c r="CU18" s="30"/>
+      <c r="CV18" s="30"/>
+      <c r="CW18" s="30"/>
+      <c r="CX18" s="30"/>
+      <c r="CY18" s="30"/>
+      <c r="CZ18" s="30"/>
+      <c r="DA18" s="30"/>
+      <c r="DB18" s="30"/>
+      <c r="DC18" s="30"/>
+      <c r="DD18" s="30"/>
+      <c r="DE18" s="30"/>
+      <c r="DF18" s="30"/>
+      <c r="DG18" s="30"/>
+      <c r="DH18" s="30"/>
+      <c r="DI18" s="30"/>
+      <c r="DJ18" s="30"/>
+      <c r="DK18" s="30"/>
+      <c r="DL18" s="30"/>
+      <c r="DM18" s="30"/>
+      <c r="DN18" s="30"/>
+      <c r="DO18" s="30"/>
+      <c r="DP18" s="30"/>
+      <c r="DQ18" s="30"/>
+      <c r="DR18" s="30"/>
+      <c r="DS18" s="30"/>
+      <c r="DT18" s="30"/>
+      <c r="DU18" s="30"/>
+      <c r="DV18" s="30"/>
+      <c r="DW18" s="30"/>
+      <c r="DX18" s="30"/>
+      <c r="DY18" s="30"/>
+      <c r="DZ18" s="30"/>
+      <c r="EA18" s="30"/>
+      <c r="EB18" s="30"/>
+      <c r="EC18" s="30"/>
+      <c r="ED18" s="30"/>
+      <c r="EE18" s="30"/>
+      <c r="EF18" s="30"/>
+      <c r="EG18" s="30"/>
+      <c r="EH18" s="30"/>
+      <c r="EI18" s="30"/>
+      <c r="EJ18" s="30"/>
+      <c r="EK18" s="30"/>
+      <c r="EL18" s="30"/>
+      <c r="EM18" s="30"/>
+      <c r="EN18" s="30"/>
+      <c r="EO18" s="30"/>
+      <c r="EP18" s="30"/>
+      <c r="EQ18" s="30"/>
+      <c r="ER18" s="30"/>
+      <c r="ES18" s="30"/>
+      <c r="ET18" s="30"/>
+      <c r="EU18" s="30"/>
+      <c r="EV18" s="30"/>
+      <c r="EW18" s="30"/>
+      <c r="EX18" s="30"/>
+      <c r="EY18" s="30"/>
+      <c r="EZ18" s="30"/>
+      <c r="FA18" s="30"/>
+      <c r="FB18" s="30"/>
+      <c r="FC18" s="30"/>
+      <c r="FD18" s="30"/>
+      <c r="FE18" s="30"/>
+      <c r="FF18" s="30"/>
+      <c r="FG18" s="30"/>
+      <c r="FH18" s="30"/>
+      <c r="FI18" s="30"/>
+      <c r="FJ18" s="30"/>
+      <c r="FK18" s="30"/>
+      <c r="FL18" s="30"/>
+      <c r="FM18" s="30"/>
+      <c r="FN18" s="30"/>
+      <c r="FO18" s="30"/>
+      <c r="FP18" s="30"/>
+      <c r="FQ18" s="30"/>
+      <c r="FR18" s="30"/>
+      <c r="FS18" s="30"/>
+      <c r="FT18" s="30"/>
+      <c r="FU18" s="30"/>
+      <c r="FV18" s="30"/>
+      <c r="FW18" s="30"/>
+      <c r="FX18" s="30"/>
+      <c r="FY18" s="30"/>
+      <c r="FZ18" s="30"/>
+      <c r="GA18" s="30"/>
+      <c r="GB18" s="30"/>
+      <c r="GC18" s="30"/>
+      <c r="GD18" s="30"/>
+      <c r="GE18" s="30"/>
+      <c r="GF18" s="30"/>
+      <c r="GG18" s="30"/>
+      <c r="GH18" s="30"/>
+      <c r="GI18" s="30"/>
+      <c r="GJ18" s="30"/>
+      <c r="GK18" s="30"/>
+      <c r="GL18" s="30"/>
+      <c r="GM18" s="30"/>
+      <c r="GN18" s="30"/>
+      <c r="GO18" s="30"/>
+      <c r="GP18" s="30"/>
+      <c r="GQ18" s="30"/>
+      <c r="GR18" s="30"/>
+      <c r="GS18" s="30"/>
+      <c r="GT18" s="30"/>
+      <c r="GU18" s="30"/>
+      <c r="GV18" s="30"/>
+      <c r="GW18" s="30"/>
+      <c r="GX18" s="30"/>
+      <c r="GY18" s="30"/>
+      <c r="GZ18" s="30"/>
+      <c r="HA18" s="30"/>
+      <c r="HB18" s="30"/>
+      <c r="HC18" s="30"/>
+      <c r="HD18" s="30"/>
+      <c r="HE18" s="30"/>
+      <c r="HF18" s="30"/>
+      <c r="HG18" s="30"/>
+      <c r="HH18" s="30"/>
+      <c r="HI18" s="30"/>
+      <c r="HJ18" s="30"/>
+      <c r="HK18" s="30"/>
+      <c r="HL18" s="30"/>
+      <c r="HM18" s="30"/>
+      <c r="HN18" s="30"/>
+      <c r="HO18" s="30"/>
+      <c r="HP18" s="30"/>
+      <c r="HQ18" s="30"/>
+      <c r="HR18" s="30"/>
+      <c r="HS18" s="30"/>
+      <c r="HT18" s="30"/>
+      <c r="HU18" s="30"/>
+      <c r="HV18" s="30"/>
+      <c r="HW18" s="30"/>
+      <c r="HX18" s="30"/>
+      <c r="HY18" s="30"/>
+      <c r="HZ18" s="30"/>
+      <c r="IA18" s="30"/>
+      <c r="IB18" s="30"/>
+      <c r="IC18" s="30"/>
+      <c r="ID18" s="30"/>
+      <c r="IE18" s="30"/>
+      <c r="IF18" s="30"/>
+      <c r="IG18" s="30"/>
+      <c r="IH18" s="30"/>
+      <c r="II18" s="30"/>
+      <c r="IJ18" s="30"/>
+      <c r="IK18" s="30"/>
+      <c r="IL18" s="30"/>
+      <c r="IM18" s="30"/>
+      <c r="IN18" s="30"/>
       <c r="IO18" s="14"/>
       <c r="IP18" s="14"/>
       <c r="IQ18" s="14"/>
@@ -7104,15 +7197,15 @@
       <c r="IX18" s="14"/>
     </row>
     <row r="19" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27">
+      <c r="A19" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51">
         <f>DATE(2021,12,14)</f>
         <v>44544</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="51">
         <f>DATE(2022,2,20)</f>
         <v>44612</v>
       </c>
@@ -7372,15 +7465,15 @@
       <c r="IX19" s="14"/>
     </row>
     <row r="20" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27">
+      <c r="A20" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51">
         <f>DATE(2022,2,21)</f>
         <v>44613</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="51">
         <f>DATE(2022,2,28)</f>
         <v>44620</v>
       </c>
@@ -7640,15 +7733,15 @@
       <c r="IX20" s="14"/>
     </row>
     <row r="21" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30">
+      <c r="A21" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54">
         <f>DATE(2022,3,1)</f>
         <v>44621</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="54">
         <f>DATE(2022,3,2)</f>
         <v>44622</v>
       </c>
@@ -7911,15 +8004,15 @@
       <c r="IX21" s="14"/>
     </row>
     <row r="22" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33">
+      <c r="A22" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57">
         <f>DATE(2022,3,3)</f>
         <v>44623</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="57">
         <f>DATE(2022,3,7)</f>
         <v>44627</v>
       </c>
@@ -8179,15 +8272,15 @@
       <c r="IX22" s="14"/>
     </row>
     <row r="23" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33">
+      <c r="A23" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57">
         <f>DATE(2022,3,8)</f>
         <v>44628</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="57">
         <f>DATE(2022,3,21)</f>
         <v>44641</v>
       </c>
@@ -8447,15 +8540,15 @@
       <c r="IX23" s="14"/>
     </row>
     <row r="24" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33">
+      <c r="A24" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57">
         <f>DATE(2022,3,22)</f>
         <v>44642</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="57">
         <f>DATE(2022,3,28)</f>
         <v>44648</v>
       </c>
@@ -8715,17 +8808,17 @@
       <c r="IX24" s="14"/>
     </row>
     <row r="25" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33">
+      <c r="A25" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57">
         <f>DATE(2022,3,29)</f>
         <v>44649</v>
       </c>
-      <c r="D25" s="33">
-        <f>DATE(2022,4,4)</f>
-        <v>44655</v>
+      <c r="D25" s="57">
+        <f>DATE(2022,4,8)</f>
+        <v>44659</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -8983,17 +9076,15 @@
       <c r="IX25" s="14"/>
     </row>
     <row r="26" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57">
-        <f>DATE(2022,4,4)</f>
-        <v>44655</v>
-      </c>
-      <c r="D26" s="57">
-        <f>DATE(2022,6,30)</f>
-        <v>44742</v>
+      <c r="A26" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>41</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -9251,10 +9342,18 @@
       <c r="IX26" s="14"/>
     </row>
     <row r="27" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57">
+        <f>DATE(2022,4,25)</f>
+        <v>44676</v>
+      </c>
+      <c r="D27" s="57">
+        <f>DATE(2022,5,2)</f>
+        <v>44683</v>
+      </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
@@ -9511,17 +9610,17 @@
       <c r="IX27" s="14"/>
     </row>
     <row r="28" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="24">
-        <f>DATE(2022,2,21)</f>
-        <v>44613</v>
-      </c>
-      <c r="D28" s="24">
-        <f>DATE(2022,6,30)</f>
-        <v>44742</v>
+      <c r="A28" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57">
+        <f>DATE(2022,5,3)</f>
+        <v>44684</v>
+      </c>
+      <c r="D28" s="57">
+        <f>DATE(2022,5,9)</f>
+        <v>44690</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -9779,23 +9878,20 @@
       <c r="IX28" s="14"/>
     </row>
     <row r="29" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="35">
-        <f>DATE(2022,1,1)</f>
-        <v>44562</v>
-      </c>
-      <c r="D29" s="35">
-        <f>DATE(2022,1,23)</f>
-        <v>44584</v>
+      <c r="A29" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="68"/>
+      <c r="C29" s="60">
+        <f>DATE(2022,2,21)</f>
+        <v>44613</v>
+      </c>
+      <c r="D29" s="60">
+        <f>DATE(2022,6,30)</f>
+        <v>44742</v>
       </c>
       <c r="E29" s="13"/>
-      <c r="F29" s="13">
-        <f t="shared" si="156"/>
-        <v>23</v>
-      </c>
+      <c r="F29" s="13"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -9810,235 +9906,235 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="41"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="41"/>
-      <c r="AJ29" s="41"/>
-      <c r="AK29" s="41"/>
-      <c r="AL29" s="41"/>
-      <c r="AM29" s="41"/>
-      <c r="AN29" s="41"/>
-      <c r="AO29" s="41"/>
-      <c r="AP29" s="41"/>
-      <c r="AQ29" s="41"/>
-      <c r="AR29" s="41"/>
-      <c r="AS29" s="41"/>
-      <c r="AT29" s="41"/>
-      <c r="AU29" s="41"/>
-      <c r="AV29" s="41"/>
-      <c r="AW29" s="41"/>
-      <c r="AX29" s="41"/>
-      <c r="AY29" s="41"/>
-      <c r="AZ29" s="41"/>
-      <c r="BA29" s="41"/>
-      <c r="BB29" s="41"/>
-      <c r="BC29" s="41"/>
-      <c r="BD29" s="41"/>
-      <c r="BE29" s="41"/>
-      <c r="BF29" s="41"/>
-      <c r="BG29" s="41"/>
-      <c r="BH29" s="41"/>
-      <c r="BI29" s="41"/>
-      <c r="BJ29" s="41"/>
-      <c r="BK29" s="41"/>
-      <c r="BL29" s="41"/>
-      <c r="BM29" s="41"/>
-      <c r="BN29" s="41"/>
-      <c r="BO29" s="41"/>
-      <c r="BP29" s="41"/>
-      <c r="BQ29" s="41"/>
-      <c r="BR29" s="41"/>
-      <c r="BS29" s="41"/>
-      <c r="BT29" s="41"/>
-      <c r="BU29" s="41"/>
-      <c r="BV29" s="41"/>
-      <c r="BW29" s="41"/>
-      <c r="BX29" s="41"/>
-      <c r="BY29" s="41"/>
-      <c r="BZ29" s="41"/>
-      <c r="CA29" s="41"/>
-      <c r="CB29" s="41"/>
-      <c r="CC29" s="41"/>
-      <c r="CD29" s="41"/>
-      <c r="CE29" s="41"/>
-      <c r="CF29" s="41"/>
-      <c r="CG29" s="41"/>
-      <c r="CH29" s="41"/>
-      <c r="CI29" s="41"/>
-      <c r="CJ29" s="41"/>
-      <c r="CK29" s="41"/>
-      <c r="CL29" s="41"/>
-      <c r="CM29" s="41"/>
-      <c r="CN29" s="41"/>
-      <c r="CO29" s="41"/>
-      <c r="CP29" s="41"/>
-      <c r="CQ29" s="41"/>
-      <c r="CR29" s="41"/>
-      <c r="CS29" s="41"/>
-      <c r="CT29" s="41"/>
-      <c r="CU29" s="41"/>
-      <c r="CV29" s="41"/>
-      <c r="CW29" s="41"/>
-      <c r="CX29" s="41"/>
-      <c r="CY29" s="41"/>
-      <c r="CZ29" s="41"/>
-      <c r="DA29" s="41"/>
-      <c r="DB29" s="41"/>
-      <c r="DC29" s="41"/>
-      <c r="DD29" s="41"/>
-      <c r="DE29" s="41"/>
-      <c r="DF29" s="41"/>
-      <c r="DG29" s="41"/>
-      <c r="DH29" s="41"/>
-      <c r="DI29" s="41"/>
-      <c r="DJ29" s="41"/>
-      <c r="DK29" s="41"/>
-      <c r="DL29" s="41"/>
-      <c r="DM29" s="41"/>
-      <c r="DN29" s="41"/>
-      <c r="DO29" s="41"/>
-      <c r="DP29" s="41"/>
-      <c r="DQ29" s="41"/>
-      <c r="DR29" s="41"/>
-      <c r="DS29" s="41"/>
-      <c r="DT29" s="41"/>
-      <c r="DU29" s="41"/>
-      <c r="DV29" s="41"/>
-      <c r="DW29" s="41"/>
-      <c r="DX29" s="41"/>
-      <c r="DY29" s="41"/>
-      <c r="DZ29" s="41"/>
-      <c r="EA29" s="41"/>
-      <c r="EB29" s="41"/>
-      <c r="EC29" s="41"/>
-      <c r="ED29" s="41"/>
-      <c r="EE29" s="41"/>
-      <c r="EF29" s="41"/>
-      <c r="EG29" s="41"/>
-      <c r="EH29" s="41"/>
-      <c r="EI29" s="41"/>
-      <c r="EJ29" s="41"/>
-      <c r="EK29" s="41"/>
-      <c r="EL29" s="41"/>
-      <c r="EM29" s="41"/>
-      <c r="EN29" s="41"/>
-      <c r="EO29" s="41"/>
-      <c r="EP29" s="41"/>
-      <c r="EQ29" s="41"/>
-      <c r="ER29" s="41"/>
-      <c r="ES29" s="41"/>
-      <c r="ET29" s="41"/>
-      <c r="EU29" s="41"/>
-      <c r="EV29" s="41"/>
-      <c r="EW29" s="41"/>
-      <c r="EX29" s="41"/>
-      <c r="EY29" s="41"/>
-      <c r="EZ29" s="41"/>
-      <c r="FA29" s="41"/>
-      <c r="FB29" s="41"/>
-      <c r="FC29" s="41"/>
-      <c r="FD29" s="41"/>
-      <c r="FE29" s="41"/>
-      <c r="FF29" s="41"/>
-      <c r="FG29" s="41"/>
-      <c r="FH29" s="41"/>
-      <c r="FI29" s="41"/>
-      <c r="FJ29" s="41"/>
-      <c r="FK29" s="41"/>
-      <c r="FL29" s="41"/>
-      <c r="FM29" s="41"/>
-      <c r="FN29" s="41"/>
-      <c r="FO29" s="41"/>
-      <c r="FP29" s="41"/>
-      <c r="FQ29" s="41"/>
-      <c r="FR29" s="41"/>
-      <c r="FS29" s="41"/>
-      <c r="FT29" s="41"/>
-      <c r="FU29" s="41"/>
-      <c r="FV29" s="41"/>
-      <c r="FW29" s="41"/>
-      <c r="FX29" s="41"/>
-      <c r="FY29" s="41"/>
-      <c r="FZ29" s="41"/>
-      <c r="GA29" s="41"/>
-      <c r="GB29" s="41"/>
-      <c r="GC29" s="41"/>
-      <c r="GD29" s="41"/>
-      <c r="GE29" s="41"/>
-      <c r="GF29" s="41"/>
-      <c r="GG29" s="41"/>
-      <c r="GH29" s="41"/>
-      <c r="GI29" s="41"/>
-      <c r="GJ29" s="41"/>
-      <c r="GK29" s="41"/>
-      <c r="GL29" s="41"/>
-      <c r="GM29" s="41"/>
-      <c r="GN29" s="41"/>
-      <c r="GO29" s="41"/>
-      <c r="GP29" s="41"/>
-      <c r="GQ29" s="41"/>
-      <c r="GR29" s="41"/>
-      <c r="GS29" s="41"/>
-      <c r="GT29" s="41"/>
-      <c r="GU29" s="41"/>
-      <c r="GV29" s="41"/>
-      <c r="GW29" s="41"/>
-      <c r="GX29" s="41"/>
-      <c r="GY29" s="41"/>
-      <c r="GZ29" s="41"/>
-      <c r="HA29" s="41"/>
-      <c r="HB29" s="41"/>
-      <c r="HC29" s="41"/>
-      <c r="HD29" s="41"/>
-      <c r="HE29" s="41"/>
-      <c r="HF29" s="41"/>
-      <c r="HG29" s="41"/>
-      <c r="HH29" s="41"/>
-      <c r="HI29" s="41"/>
-      <c r="HJ29" s="41"/>
-      <c r="HK29" s="41"/>
-      <c r="HL29" s="41"/>
-      <c r="HM29" s="41"/>
-      <c r="HN29" s="41"/>
-      <c r="HO29" s="41"/>
-      <c r="HP29" s="41"/>
-      <c r="HQ29" s="41"/>
-      <c r="HR29" s="41"/>
-      <c r="HS29" s="41"/>
-      <c r="HT29" s="41"/>
-      <c r="HU29" s="41"/>
-      <c r="HV29" s="41"/>
-      <c r="HW29" s="41"/>
-      <c r="HX29" s="41"/>
-      <c r="HY29" s="41"/>
-      <c r="HZ29" s="41"/>
-      <c r="IA29" s="41"/>
-      <c r="IB29" s="41"/>
-      <c r="IC29" s="41"/>
-      <c r="ID29" s="41"/>
-      <c r="IE29" s="41"/>
-      <c r="IF29" s="41"/>
-      <c r="IG29" s="41"/>
-      <c r="IH29" s="41"/>
-      <c r="II29" s="41"/>
-      <c r="IJ29" s="41"/>
-      <c r="IK29" s="41"/>
-      <c r="IL29" s="41"/>
-      <c r="IM29" s="41"/>
-      <c r="IN29" s="41"/>
-      <c r="IO29" s="41"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="14"/>
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="14"/>
+      <c r="AR29" s="14"/>
+      <c r="AS29" s="14"/>
+      <c r="AT29" s="14"/>
+      <c r="AU29" s="14"/>
+      <c r="AV29" s="14"/>
+      <c r="AW29" s="14"/>
+      <c r="AX29" s="14"/>
+      <c r="AY29" s="14"/>
+      <c r="AZ29" s="14"/>
+      <c r="BA29" s="14"/>
+      <c r="BB29" s="14"/>
+      <c r="BC29" s="14"/>
+      <c r="BD29" s="14"/>
+      <c r="BE29" s="14"/>
+      <c r="BF29" s="14"/>
+      <c r="BG29" s="14"/>
+      <c r="BH29" s="14"/>
+      <c r="BI29" s="14"/>
+      <c r="BJ29" s="14"/>
+      <c r="BK29" s="14"/>
+      <c r="BL29" s="14"/>
+      <c r="BM29" s="14"/>
+      <c r="BN29" s="14"/>
+      <c r="BO29" s="14"/>
+      <c r="BP29" s="14"/>
+      <c r="BQ29" s="14"/>
+      <c r="BR29" s="14"/>
+      <c r="BS29" s="14"/>
+      <c r="BT29" s="14"/>
+      <c r="BU29" s="14"/>
+      <c r="BV29" s="14"/>
+      <c r="BW29" s="14"/>
+      <c r="BX29" s="14"/>
+      <c r="BY29" s="14"/>
+      <c r="BZ29" s="14"/>
+      <c r="CA29" s="14"/>
+      <c r="CB29" s="14"/>
+      <c r="CC29" s="14"/>
+      <c r="CD29" s="14"/>
+      <c r="CE29" s="14"/>
+      <c r="CF29" s="14"/>
+      <c r="CG29" s="14"/>
+      <c r="CH29" s="14"/>
+      <c r="CI29" s="14"/>
+      <c r="CJ29" s="14"/>
+      <c r="CK29" s="14"/>
+      <c r="CL29" s="14"/>
+      <c r="CM29" s="14"/>
+      <c r="CN29" s="14"/>
+      <c r="CO29" s="14"/>
+      <c r="CP29" s="14"/>
+      <c r="CQ29" s="14"/>
+      <c r="CR29" s="14"/>
+      <c r="CS29" s="14"/>
+      <c r="CT29" s="14"/>
+      <c r="CU29" s="14"/>
+      <c r="CV29" s="14"/>
+      <c r="CW29" s="14"/>
+      <c r="CX29" s="14"/>
+      <c r="CY29" s="14"/>
+      <c r="CZ29" s="14"/>
+      <c r="DA29" s="14"/>
+      <c r="DB29" s="14"/>
+      <c r="DC29" s="14"/>
+      <c r="DD29" s="14"/>
+      <c r="DE29" s="14"/>
+      <c r="DF29" s="14"/>
+      <c r="DG29" s="14"/>
+      <c r="DH29" s="14"/>
+      <c r="DI29" s="14"/>
+      <c r="DJ29" s="14"/>
+      <c r="DK29" s="14"/>
+      <c r="DL29" s="14"/>
+      <c r="DM29" s="14"/>
+      <c r="DN29" s="14"/>
+      <c r="DO29" s="14"/>
+      <c r="DP29" s="14"/>
+      <c r="DQ29" s="14"/>
+      <c r="DR29" s="14"/>
+      <c r="DS29" s="14"/>
+      <c r="DT29" s="14"/>
+      <c r="DU29" s="14"/>
+      <c r="DV29" s="14"/>
+      <c r="DW29" s="14"/>
+      <c r="DX29" s="14"/>
+      <c r="DY29" s="14"/>
+      <c r="DZ29" s="14"/>
+      <c r="EA29" s="14"/>
+      <c r="EB29" s="14"/>
+      <c r="EC29" s="14"/>
+      <c r="ED29" s="14"/>
+      <c r="EE29" s="14"/>
+      <c r="EF29" s="14"/>
+      <c r="EG29" s="14"/>
+      <c r="EH29" s="14"/>
+      <c r="EI29" s="14"/>
+      <c r="EJ29" s="14"/>
+      <c r="EK29" s="14"/>
+      <c r="EL29" s="14"/>
+      <c r="EM29" s="14"/>
+      <c r="EN29" s="14"/>
+      <c r="EO29" s="14"/>
+      <c r="EP29" s="14"/>
+      <c r="EQ29" s="14"/>
+      <c r="ER29" s="14"/>
+      <c r="ES29" s="14"/>
+      <c r="ET29" s="14"/>
+      <c r="EU29" s="14"/>
+      <c r="EV29" s="14"/>
+      <c r="EW29" s="14"/>
+      <c r="EX29" s="14"/>
+      <c r="EY29" s="14"/>
+      <c r="EZ29" s="14"/>
+      <c r="FA29" s="14"/>
+      <c r="FB29" s="14"/>
+      <c r="FC29" s="14"/>
+      <c r="FD29" s="14"/>
+      <c r="FE29" s="14"/>
+      <c r="FF29" s="14"/>
+      <c r="FG29" s="14"/>
+      <c r="FH29" s="14"/>
+      <c r="FI29" s="14"/>
+      <c r="FJ29" s="14"/>
+      <c r="FK29" s="14"/>
+      <c r="FL29" s="14"/>
+      <c r="FM29" s="14"/>
+      <c r="FN29" s="14"/>
+      <c r="FO29" s="14"/>
+      <c r="FP29" s="14"/>
+      <c r="FQ29" s="14"/>
+      <c r="FR29" s="14"/>
+      <c r="FS29" s="14"/>
+      <c r="FT29" s="14"/>
+      <c r="FU29" s="14"/>
+      <c r="FV29" s="14"/>
+      <c r="FW29" s="14"/>
+      <c r="FX29" s="14"/>
+      <c r="FY29" s="14"/>
+      <c r="FZ29" s="14"/>
+      <c r="GA29" s="14"/>
+      <c r="GB29" s="14"/>
+      <c r="GC29" s="14"/>
+      <c r="GD29" s="14"/>
+      <c r="GE29" s="14"/>
+      <c r="GF29" s="14"/>
+      <c r="GG29" s="14"/>
+      <c r="GH29" s="14"/>
+      <c r="GI29" s="14"/>
+      <c r="GJ29" s="14"/>
+      <c r="GK29" s="14"/>
+      <c r="GL29" s="14"/>
+      <c r="GM29" s="14"/>
+      <c r="GN29" s="14"/>
+      <c r="GO29" s="14"/>
+      <c r="GP29" s="14"/>
+      <c r="GQ29" s="14"/>
+      <c r="GR29" s="14"/>
+      <c r="GS29" s="14"/>
+      <c r="GT29" s="14"/>
+      <c r="GU29" s="14"/>
+      <c r="GV29" s="14"/>
+      <c r="GW29" s="14"/>
+      <c r="GX29" s="14"/>
+      <c r="GY29" s="14"/>
+      <c r="GZ29" s="14"/>
+      <c r="HA29" s="14"/>
+      <c r="HB29" s="14"/>
+      <c r="HC29" s="14"/>
+      <c r="HD29" s="14"/>
+      <c r="HE29" s="14"/>
+      <c r="HF29" s="14"/>
+      <c r="HG29" s="14"/>
+      <c r="HH29" s="14"/>
+      <c r="HI29" s="14"/>
+      <c r="HJ29" s="14"/>
+      <c r="HK29" s="14"/>
+      <c r="HL29" s="14"/>
+      <c r="HM29" s="14"/>
+      <c r="HN29" s="14"/>
+      <c r="HO29" s="14"/>
+      <c r="HP29" s="14"/>
+      <c r="HQ29" s="14"/>
+      <c r="HR29" s="14"/>
+      <c r="HS29" s="14"/>
+      <c r="HT29" s="14"/>
+      <c r="HU29" s="14"/>
+      <c r="HV29" s="14"/>
+      <c r="HW29" s="14"/>
+      <c r="HX29" s="14"/>
+      <c r="HY29" s="14"/>
+      <c r="HZ29" s="14"/>
+      <c r="IA29" s="14"/>
+      <c r="IB29" s="14"/>
+      <c r="IC29" s="14"/>
+      <c r="ID29" s="14"/>
+      <c r="IE29" s="14"/>
+      <c r="IF29" s="14"/>
+      <c r="IG29" s="14"/>
+      <c r="IH29" s="14"/>
+      <c r="II29" s="14"/>
+      <c r="IJ29" s="14"/>
+      <c r="IK29" s="14"/>
+      <c r="IL29" s="14"/>
+      <c r="IM29" s="14"/>
+      <c r="IN29" s="14"/>
+      <c r="IO29" s="14"/>
       <c r="IP29" s="14"/>
       <c r="IQ29" s="14"/>
       <c r="IR29" s="14"/>
@@ -10050,15 +10146,15 @@
       <c r="IX29" s="14"/>
     </row>
     <row r="30" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="53" t="s">
+      <c r="A30" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="70"/>
+      <c r="C30" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="62" t="s">
         <v>35</v>
-      </c>
-      <c r="D30" s="54" t="s">
-        <v>36</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13">
@@ -10078,237 +10174,237 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="55"/>
-      <c r="AO30" s="55"/>
-      <c r="AP30" s="55"/>
-      <c r="AQ30" s="55"/>
-      <c r="AR30" s="55"/>
-      <c r="AS30" s="55"/>
-      <c r="AT30" s="55"/>
-      <c r="AU30" s="55"/>
-      <c r="AV30" s="55"/>
-      <c r="AW30" s="55"/>
-      <c r="AX30" s="55"/>
-      <c r="AY30" s="55"/>
-      <c r="AZ30" s="55"/>
-      <c r="BA30" s="55"/>
-      <c r="BB30" s="55"/>
-      <c r="BC30" s="55"/>
-      <c r="BD30" s="55"/>
-      <c r="BE30" s="55"/>
-      <c r="BF30" s="55"/>
-      <c r="BG30" s="55"/>
-      <c r="BH30" s="55"/>
-      <c r="BI30" s="55"/>
-      <c r="BJ30" s="55"/>
-      <c r="BK30" s="55"/>
-      <c r="BL30" s="55"/>
-      <c r="BM30" s="55"/>
-      <c r="BN30" s="55"/>
-      <c r="BO30" s="55"/>
-      <c r="BP30" s="55"/>
-      <c r="BQ30" s="55"/>
-      <c r="BR30" s="55"/>
-      <c r="BS30" s="55"/>
-      <c r="BT30" s="55"/>
-      <c r="BU30" s="55"/>
-      <c r="BV30" s="55"/>
-      <c r="BW30" s="55"/>
-      <c r="BX30" s="55"/>
-      <c r="BY30" s="55"/>
-      <c r="BZ30" s="55"/>
-      <c r="CA30" s="55"/>
-      <c r="CB30" s="55"/>
-      <c r="CC30" s="55"/>
-      <c r="CD30" s="55"/>
-      <c r="CE30" s="55"/>
-      <c r="CF30" s="55"/>
-      <c r="CG30" s="55"/>
-      <c r="CH30" s="55"/>
-      <c r="CI30" s="55"/>
-      <c r="CJ30" s="55"/>
-      <c r="CK30" s="55"/>
-      <c r="CL30" s="55"/>
-      <c r="CM30" s="55"/>
-      <c r="CN30" s="55"/>
-      <c r="CO30" s="55"/>
-      <c r="CP30" s="55"/>
-      <c r="CQ30" s="55"/>
-      <c r="CR30" s="55"/>
-      <c r="CS30" s="55"/>
-      <c r="CT30" s="55"/>
-      <c r="CU30" s="55"/>
-      <c r="CV30" s="55"/>
-      <c r="CW30" s="55"/>
-      <c r="CX30" s="55"/>
-      <c r="CY30" s="55"/>
-      <c r="CZ30" s="55"/>
-      <c r="DA30" s="55"/>
-      <c r="DB30" s="55"/>
-      <c r="DC30" s="55"/>
-      <c r="DD30" s="55"/>
-      <c r="DE30" s="55"/>
-      <c r="DF30" s="55"/>
-      <c r="DG30" s="55"/>
-      <c r="DH30" s="55"/>
-      <c r="DI30" s="55"/>
-      <c r="DJ30" s="55"/>
-      <c r="DK30" s="55"/>
-      <c r="DL30" s="55"/>
-      <c r="DM30" s="55"/>
-      <c r="DN30" s="55"/>
-      <c r="DO30" s="55"/>
-      <c r="DP30" s="55"/>
-      <c r="DQ30" s="55"/>
-      <c r="DR30" s="55"/>
-      <c r="DS30" s="55"/>
-      <c r="DT30" s="55"/>
-      <c r="DU30" s="55"/>
-      <c r="DV30" s="55"/>
-      <c r="DW30" s="55"/>
-      <c r="DX30" s="55"/>
-      <c r="DY30" s="55"/>
-      <c r="DZ30" s="55"/>
-      <c r="EA30" s="55"/>
-      <c r="EB30" s="55"/>
-      <c r="EC30" s="55"/>
-      <c r="ED30" s="55"/>
-      <c r="EE30" s="55"/>
-      <c r="EF30" s="55"/>
-      <c r="EG30" s="55"/>
-      <c r="EH30" s="55"/>
-      <c r="EI30" s="55"/>
-      <c r="EJ30" s="55"/>
-      <c r="EK30" s="55"/>
-      <c r="EL30" s="55"/>
-      <c r="EM30" s="55"/>
-      <c r="EN30" s="55"/>
-      <c r="EO30" s="55"/>
-      <c r="EP30" s="55"/>
-      <c r="EQ30" s="55"/>
-      <c r="ER30" s="55"/>
-      <c r="ES30" s="55"/>
-      <c r="ET30" s="55"/>
-      <c r="EU30" s="55"/>
-      <c r="EV30" s="55"/>
-      <c r="EW30" s="55"/>
-      <c r="EX30" s="55"/>
-      <c r="EY30" s="55"/>
-      <c r="EZ30" s="55"/>
-      <c r="FA30" s="55"/>
-      <c r="FB30" s="55"/>
-      <c r="FC30" s="55"/>
-      <c r="FD30" s="55"/>
-      <c r="FE30" s="55"/>
-      <c r="FF30" s="55"/>
-      <c r="FG30" s="55"/>
-      <c r="FH30" s="55"/>
-      <c r="FI30" s="55"/>
-      <c r="FJ30" s="55"/>
-      <c r="FK30" s="55"/>
-      <c r="FL30" s="55"/>
-      <c r="FM30" s="55"/>
-      <c r="FN30" s="55"/>
-      <c r="FO30" s="55"/>
-      <c r="FP30" s="55"/>
-      <c r="FQ30" s="55"/>
-      <c r="FR30" s="55"/>
-      <c r="FS30" s="55"/>
-      <c r="FT30" s="55"/>
-      <c r="FU30" s="55"/>
-      <c r="FV30" s="55"/>
-      <c r="FW30" s="55"/>
-      <c r="FX30" s="55"/>
-      <c r="FY30" s="55"/>
-      <c r="FZ30" s="55"/>
-      <c r="GA30" s="55"/>
-      <c r="GB30" s="55"/>
-      <c r="GC30" s="55"/>
-      <c r="GD30" s="55"/>
-      <c r="GE30" s="55"/>
-      <c r="GF30" s="55"/>
-      <c r="GG30" s="55"/>
-      <c r="GH30" s="55"/>
-      <c r="GI30" s="55"/>
-      <c r="GJ30" s="55"/>
-      <c r="GK30" s="55"/>
-      <c r="GL30" s="55"/>
-      <c r="GM30" s="55"/>
-      <c r="GN30" s="55"/>
-      <c r="GO30" s="55"/>
-      <c r="GP30" s="55"/>
-      <c r="GQ30" s="55"/>
-      <c r="GR30" s="55"/>
-      <c r="GS30" s="55"/>
-      <c r="GT30" s="55"/>
-      <c r="GU30" s="55"/>
-      <c r="GV30" s="55"/>
-      <c r="GW30" s="55"/>
-      <c r="GX30" s="55"/>
-      <c r="GY30" s="55"/>
-      <c r="GZ30" s="55"/>
-      <c r="HA30" s="55"/>
-      <c r="HB30" s="55"/>
-      <c r="HC30" s="55"/>
-      <c r="HD30" s="55"/>
-      <c r="HE30" s="55"/>
-      <c r="HF30" s="55"/>
-      <c r="HG30" s="55"/>
-      <c r="HH30" s="55"/>
-      <c r="HI30" s="55"/>
-      <c r="HJ30" s="55"/>
-      <c r="HK30" s="55"/>
-      <c r="HL30" s="55"/>
-      <c r="HM30" s="55"/>
-      <c r="HN30" s="55"/>
-      <c r="HO30" s="55"/>
-      <c r="HP30" s="55"/>
-      <c r="HQ30" s="55"/>
-      <c r="HR30" s="55"/>
-      <c r="HS30" s="55"/>
-      <c r="HT30" s="55"/>
-      <c r="HU30" s="55"/>
-      <c r="HV30" s="55"/>
-      <c r="HW30" s="55"/>
-      <c r="HX30" s="55"/>
-      <c r="HY30" s="55"/>
-      <c r="HZ30" s="55"/>
-      <c r="IA30" s="55"/>
-      <c r="IB30" s="55"/>
-      <c r="IC30" s="55"/>
-      <c r="ID30" s="55"/>
-      <c r="IE30" s="55"/>
-      <c r="IF30" s="55"/>
-      <c r="IG30" s="55"/>
-      <c r="IH30" s="55"/>
-      <c r="II30" s="55"/>
-      <c r="IJ30" s="55"/>
-      <c r="IK30" s="55"/>
-      <c r="IL30" s="55"/>
-      <c r="IM30" s="55"/>
-      <c r="IN30" s="55"/>
-      <c r="IO30" s="55"/>
-      <c r="IP30" s="40"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AM30" s="37"/>
+      <c r="AN30" s="37"/>
+      <c r="AO30" s="37"/>
+      <c r="AP30" s="37"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AS30" s="37"/>
+      <c r="AT30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AV30" s="37"/>
+      <c r="AW30" s="37"/>
+      <c r="AX30" s="37"/>
+      <c r="AY30" s="37"/>
+      <c r="AZ30" s="37"/>
+      <c r="BA30" s="37"/>
+      <c r="BB30" s="37"/>
+      <c r="BC30" s="37"/>
+      <c r="BD30" s="37"/>
+      <c r="BE30" s="37"/>
+      <c r="BF30" s="37"/>
+      <c r="BG30" s="37"/>
+      <c r="BH30" s="37"/>
+      <c r="BI30" s="37"/>
+      <c r="BJ30" s="37"/>
+      <c r="BK30" s="37"/>
+      <c r="BL30" s="37"/>
+      <c r="BM30" s="37"/>
+      <c r="BN30" s="37"/>
+      <c r="BO30" s="37"/>
+      <c r="BP30" s="37"/>
+      <c r="BQ30" s="37"/>
+      <c r="BR30" s="37"/>
+      <c r="BS30" s="37"/>
+      <c r="BT30" s="37"/>
+      <c r="BU30" s="37"/>
+      <c r="BV30" s="37"/>
+      <c r="BW30" s="37"/>
+      <c r="BX30" s="37"/>
+      <c r="BY30" s="37"/>
+      <c r="BZ30" s="37"/>
+      <c r="CA30" s="37"/>
+      <c r="CB30" s="37"/>
+      <c r="CC30" s="37"/>
+      <c r="CD30" s="37"/>
+      <c r="CE30" s="37"/>
+      <c r="CF30" s="37"/>
+      <c r="CG30" s="37"/>
+      <c r="CH30" s="37"/>
+      <c r="CI30" s="37"/>
+      <c r="CJ30" s="37"/>
+      <c r="CK30" s="37"/>
+      <c r="CL30" s="37"/>
+      <c r="CM30" s="37"/>
+      <c r="CN30" s="37"/>
+      <c r="CO30" s="37"/>
+      <c r="CP30" s="37"/>
+      <c r="CQ30" s="37"/>
+      <c r="CR30" s="37"/>
+      <c r="CS30" s="37"/>
+      <c r="CT30" s="37"/>
+      <c r="CU30" s="37"/>
+      <c r="CV30" s="37"/>
+      <c r="CW30" s="37"/>
+      <c r="CX30" s="37"/>
+      <c r="CY30" s="37"/>
+      <c r="CZ30" s="37"/>
+      <c r="DA30" s="37"/>
+      <c r="DB30" s="37"/>
+      <c r="DC30" s="37"/>
+      <c r="DD30" s="37"/>
+      <c r="DE30" s="37"/>
+      <c r="DF30" s="37"/>
+      <c r="DG30" s="37"/>
+      <c r="DH30" s="37"/>
+      <c r="DI30" s="37"/>
+      <c r="DJ30" s="37"/>
+      <c r="DK30" s="37"/>
+      <c r="DL30" s="37"/>
+      <c r="DM30" s="37"/>
+      <c r="DN30" s="37"/>
+      <c r="DO30" s="37"/>
+      <c r="DP30" s="37"/>
+      <c r="DQ30" s="37"/>
+      <c r="DR30" s="37"/>
+      <c r="DS30" s="37"/>
+      <c r="DT30" s="37"/>
+      <c r="DU30" s="37"/>
+      <c r="DV30" s="37"/>
+      <c r="DW30" s="37"/>
+      <c r="DX30" s="37"/>
+      <c r="DY30" s="37"/>
+      <c r="DZ30" s="37"/>
+      <c r="EA30" s="37"/>
+      <c r="EB30" s="37"/>
+      <c r="EC30" s="37"/>
+      <c r="ED30" s="37"/>
+      <c r="EE30" s="37"/>
+      <c r="EF30" s="37"/>
+      <c r="EG30" s="37"/>
+      <c r="EH30" s="37"/>
+      <c r="EI30" s="37"/>
+      <c r="EJ30" s="37"/>
+      <c r="EK30" s="37"/>
+      <c r="EL30" s="37"/>
+      <c r="EM30" s="37"/>
+      <c r="EN30" s="37"/>
+      <c r="EO30" s="37"/>
+      <c r="EP30" s="37"/>
+      <c r="EQ30" s="37"/>
+      <c r="ER30" s="37"/>
+      <c r="ES30" s="37"/>
+      <c r="ET30" s="37"/>
+      <c r="EU30" s="37"/>
+      <c r="EV30" s="37"/>
+      <c r="EW30" s="37"/>
+      <c r="EX30" s="37"/>
+      <c r="EY30" s="37"/>
+      <c r="EZ30" s="37"/>
+      <c r="FA30" s="37"/>
+      <c r="FB30" s="37"/>
+      <c r="FC30" s="37"/>
+      <c r="FD30" s="37"/>
+      <c r="FE30" s="37"/>
+      <c r="FF30" s="37"/>
+      <c r="FG30" s="37"/>
+      <c r="FH30" s="37"/>
+      <c r="FI30" s="37"/>
+      <c r="FJ30" s="37"/>
+      <c r="FK30" s="37"/>
+      <c r="FL30" s="37"/>
+      <c r="FM30" s="37"/>
+      <c r="FN30" s="37"/>
+      <c r="FO30" s="37"/>
+      <c r="FP30" s="37"/>
+      <c r="FQ30" s="37"/>
+      <c r="FR30" s="37"/>
+      <c r="FS30" s="37"/>
+      <c r="FT30" s="37"/>
+      <c r="FU30" s="37"/>
+      <c r="FV30" s="37"/>
+      <c r="FW30" s="37"/>
+      <c r="FX30" s="37"/>
+      <c r="FY30" s="37"/>
+      <c r="FZ30" s="37"/>
+      <c r="GA30" s="37"/>
+      <c r="GB30" s="37"/>
+      <c r="GC30" s="37"/>
+      <c r="GD30" s="37"/>
+      <c r="GE30" s="37"/>
+      <c r="GF30" s="37"/>
+      <c r="GG30" s="37"/>
+      <c r="GH30" s="37"/>
+      <c r="GI30" s="37"/>
+      <c r="GJ30" s="37"/>
+      <c r="GK30" s="37"/>
+      <c r="GL30" s="37"/>
+      <c r="GM30" s="37"/>
+      <c r="GN30" s="37"/>
+      <c r="GO30" s="37"/>
+      <c r="GP30" s="37"/>
+      <c r="GQ30" s="37"/>
+      <c r="GR30" s="37"/>
+      <c r="GS30" s="37"/>
+      <c r="GT30" s="37"/>
+      <c r="GU30" s="37"/>
+      <c r="GV30" s="37"/>
+      <c r="GW30" s="37"/>
+      <c r="GX30" s="37"/>
+      <c r="GY30" s="37"/>
+      <c r="GZ30" s="37"/>
+      <c r="HA30" s="37"/>
+      <c r="HB30" s="37"/>
+      <c r="HC30" s="37"/>
+      <c r="HD30" s="37"/>
+      <c r="HE30" s="37"/>
+      <c r="HF30" s="37"/>
+      <c r="HG30" s="37"/>
+      <c r="HH30" s="37"/>
+      <c r="HI30" s="37"/>
+      <c r="HJ30" s="37"/>
+      <c r="HK30" s="37"/>
+      <c r="HL30" s="37"/>
+      <c r="HM30" s="37"/>
+      <c r="HN30" s="37"/>
+      <c r="HO30" s="37"/>
+      <c r="HP30" s="37"/>
+      <c r="HQ30" s="37"/>
+      <c r="HR30" s="37"/>
+      <c r="HS30" s="37"/>
+      <c r="HT30" s="37"/>
+      <c r="HU30" s="37"/>
+      <c r="HV30" s="37"/>
+      <c r="HW30" s="37"/>
+      <c r="HX30" s="37"/>
+      <c r="HY30" s="37"/>
+      <c r="HZ30" s="37"/>
+      <c r="IA30" s="37"/>
+      <c r="IB30" s="37"/>
+      <c r="IC30" s="37"/>
+      <c r="ID30" s="37"/>
+      <c r="IE30" s="37"/>
+      <c r="IF30" s="37"/>
+      <c r="IG30" s="37"/>
+      <c r="IH30" s="37"/>
+      <c r="II30" s="37"/>
+      <c r="IJ30" s="37"/>
+      <c r="IK30" s="37"/>
+      <c r="IL30" s="37"/>
+      <c r="IM30" s="37"/>
+      <c r="IN30" s="37"/>
+      <c r="IO30" s="37"/>
+      <c r="IP30" s="28"/>
       <c r="IQ30" s="14"/>
       <c r="IR30" s="14"/>
       <c r="IS30" s="14"/>
@@ -10319,15 +10415,15 @@
       <c r="IX30" s="14"/>
     </row>
     <row r="31" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="34">
+      <c r="A31" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="71"/>
+      <c r="C31" s="63">
         <f>DATE(2022,1,23)</f>
         <v>44584</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="63">
         <f>DATE(2022,2,13)</f>
         <v>44605</v>
       </c>
@@ -10350,235 +10446,235 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AJ31" s="42"/>
-      <c r="AK31" s="42"/>
-      <c r="AL31" s="42"/>
-      <c r="AM31" s="42"/>
-      <c r="AN31" s="42"/>
-      <c r="AO31" s="42"/>
-      <c r="AP31" s="42"/>
-      <c r="AQ31" s="42"/>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="42"/>
-      <c r="AU31" s="42"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="42"/>
-      <c r="BC31" s="42"/>
-      <c r="BD31" s="42"/>
-      <c r="BE31" s="42"/>
-      <c r="BF31" s="42"/>
-      <c r="BG31" s="42"/>
-      <c r="BH31" s="42"/>
-      <c r="BI31" s="42"/>
-      <c r="BJ31" s="42"/>
-      <c r="BK31" s="42"/>
-      <c r="BL31" s="42"/>
-      <c r="BM31" s="42"/>
-      <c r="BN31" s="42"/>
-      <c r="BO31" s="42"/>
-      <c r="BP31" s="42"/>
-      <c r="BQ31" s="42"/>
-      <c r="BR31" s="42"/>
-      <c r="BS31" s="42"/>
-      <c r="BT31" s="42"/>
-      <c r="BU31" s="42"/>
-      <c r="BV31" s="42"/>
-      <c r="BW31" s="42"/>
-      <c r="BX31" s="42"/>
-      <c r="BY31" s="42"/>
-      <c r="BZ31" s="42"/>
-      <c r="CA31" s="42"/>
-      <c r="CB31" s="42"/>
-      <c r="CC31" s="42"/>
-      <c r="CD31" s="42"/>
-      <c r="CE31" s="42"/>
-      <c r="CF31" s="42"/>
-      <c r="CG31" s="42"/>
-      <c r="CH31" s="42"/>
-      <c r="CI31" s="42"/>
-      <c r="CJ31" s="42"/>
-      <c r="CK31" s="42"/>
-      <c r="CL31" s="42"/>
-      <c r="CM31" s="42"/>
-      <c r="CN31" s="42"/>
-      <c r="CO31" s="42"/>
-      <c r="CP31" s="42"/>
-      <c r="CQ31" s="42"/>
-      <c r="CR31" s="42"/>
-      <c r="CS31" s="42"/>
-      <c r="CT31" s="42"/>
-      <c r="CU31" s="42"/>
-      <c r="CV31" s="42"/>
-      <c r="CW31" s="42"/>
-      <c r="CX31" s="42"/>
-      <c r="CY31" s="42"/>
-      <c r="CZ31" s="42"/>
-      <c r="DA31" s="42"/>
-      <c r="DB31" s="42"/>
-      <c r="DC31" s="42"/>
-      <c r="DD31" s="42"/>
-      <c r="DE31" s="42"/>
-      <c r="DF31" s="42"/>
-      <c r="DG31" s="42"/>
-      <c r="DH31" s="42"/>
-      <c r="DI31" s="42"/>
-      <c r="DJ31" s="42"/>
-      <c r="DK31" s="42"/>
-      <c r="DL31" s="42"/>
-      <c r="DM31" s="42"/>
-      <c r="DN31" s="42"/>
-      <c r="DO31" s="42"/>
-      <c r="DP31" s="42"/>
-      <c r="DQ31" s="42"/>
-      <c r="DR31" s="42"/>
-      <c r="DS31" s="42"/>
-      <c r="DT31" s="42"/>
-      <c r="DU31" s="42"/>
-      <c r="DV31" s="42"/>
-      <c r="DW31" s="42"/>
-      <c r="DX31" s="42"/>
-      <c r="DY31" s="42"/>
-      <c r="DZ31" s="42"/>
-      <c r="EA31" s="42"/>
-      <c r="EB31" s="42"/>
-      <c r="EC31" s="42"/>
-      <c r="ED31" s="42"/>
-      <c r="EE31" s="42"/>
-      <c r="EF31" s="42"/>
-      <c r="EG31" s="42"/>
-      <c r="EH31" s="42"/>
-      <c r="EI31" s="42"/>
-      <c r="EJ31" s="42"/>
-      <c r="EK31" s="42"/>
-      <c r="EL31" s="42"/>
-      <c r="EM31" s="42"/>
-      <c r="EN31" s="42"/>
-      <c r="EO31" s="42"/>
-      <c r="EP31" s="42"/>
-      <c r="EQ31" s="42"/>
-      <c r="ER31" s="42"/>
-      <c r="ES31" s="42"/>
-      <c r="ET31" s="42"/>
-      <c r="EU31" s="42"/>
-      <c r="EV31" s="42"/>
-      <c r="EW31" s="42"/>
-      <c r="EX31" s="42"/>
-      <c r="EY31" s="42"/>
-      <c r="EZ31" s="42"/>
-      <c r="FA31" s="42"/>
-      <c r="FB31" s="42"/>
-      <c r="FC31" s="42"/>
-      <c r="FD31" s="42"/>
-      <c r="FE31" s="42"/>
-      <c r="FF31" s="42"/>
-      <c r="FG31" s="42"/>
-      <c r="FH31" s="42"/>
-      <c r="FI31" s="42"/>
-      <c r="FJ31" s="42"/>
-      <c r="FK31" s="42"/>
-      <c r="FL31" s="42"/>
-      <c r="FM31" s="42"/>
-      <c r="FN31" s="42"/>
-      <c r="FO31" s="42"/>
-      <c r="FP31" s="42"/>
-      <c r="FQ31" s="42"/>
-      <c r="FR31" s="42"/>
-      <c r="FS31" s="42"/>
-      <c r="FT31" s="42"/>
-      <c r="FU31" s="42"/>
-      <c r="FV31" s="42"/>
-      <c r="FW31" s="42"/>
-      <c r="FX31" s="42"/>
-      <c r="FY31" s="42"/>
-      <c r="FZ31" s="42"/>
-      <c r="GA31" s="42"/>
-      <c r="GB31" s="42"/>
-      <c r="GC31" s="42"/>
-      <c r="GD31" s="42"/>
-      <c r="GE31" s="42"/>
-      <c r="GF31" s="42"/>
-      <c r="GG31" s="42"/>
-      <c r="GH31" s="42"/>
-      <c r="GI31" s="42"/>
-      <c r="GJ31" s="42"/>
-      <c r="GK31" s="42"/>
-      <c r="GL31" s="42"/>
-      <c r="GM31" s="42"/>
-      <c r="GN31" s="42"/>
-      <c r="GO31" s="42"/>
-      <c r="GP31" s="42"/>
-      <c r="GQ31" s="42"/>
-      <c r="GR31" s="42"/>
-      <c r="GS31" s="42"/>
-      <c r="GT31" s="42"/>
-      <c r="GU31" s="42"/>
-      <c r="GV31" s="42"/>
-      <c r="GW31" s="42"/>
-      <c r="GX31" s="42"/>
-      <c r="GY31" s="42"/>
-      <c r="GZ31" s="42"/>
-      <c r="HA31" s="42"/>
-      <c r="HB31" s="42"/>
-      <c r="HC31" s="42"/>
-      <c r="HD31" s="42"/>
-      <c r="HE31" s="42"/>
-      <c r="HF31" s="42"/>
-      <c r="HG31" s="42"/>
-      <c r="HH31" s="42"/>
-      <c r="HI31" s="42"/>
-      <c r="HJ31" s="42"/>
-      <c r="HK31" s="42"/>
-      <c r="HL31" s="42"/>
-      <c r="HM31" s="42"/>
-      <c r="HN31" s="42"/>
-      <c r="HO31" s="42"/>
-      <c r="HP31" s="42"/>
-      <c r="HQ31" s="42"/>
-      <c r="HR31" s="42"/>
-      <c r="HS31" s="42"/>
-      <c r="HT31" s="42"/>
-      <c r="HU31" s="42"/>
-      <c r="HV31" s="42"/>
-      <c r="HW31" s="42"/>
-      <c r="HX31" s="42"/>
-      <c r="HY31" s="42"/>
-      <c r="HZ31" s="42"/>
-      <c r="IA31" s="42"/>
-      <c r="IB31" s="42"/>
-      <c r="IC31" s="42"/>
-      <c r="ID31" s="42"/>
-      <c r="IE31" s="42"/>
-      <c r="IF31" s="42"/>
-      <c r="IG31" s="42"/>
-      <c r="IH31" s="42"/>
-      <c r="II31" s="42"/>
-      <c r="IJ31" s="42"/>
-      <c r="IK31" s="42"/>
-      <c r="IL31" s="42"/>
-      <c r="IM31" s="42"/>
-      <c r="IN31" s="42"/>
-      <c r="IO31" s="42"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30"/>
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="30"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="30"/>
+      <c r="AM31" s="30"/>
+      <c r="AN31" s="30"/>
+      <c r="AO31" s="30"/>
+      <c r="AP31" s="30"/>
+      <c r="AQ31" s="30"/>
+      <c r="AR31" s="30"/>
+      <c r="AS31" s="30"/>
+      <c r="AT31" s="30"/>
+      <c r="AU31" s="30"/>
+      <c r="AV31" s="30"/>
+      <c r="AW31" s="30"/>
+      <c r="AX31" s="30"/>
+      <c r="AY31" s="30"/>
+      <c r="AZ31" s="30"/>
+      <c r="BA31" s="30"/>
+      <c r="BB31" s="30"/>
+      <c r="BC31" s="30"/>
+      <c r="BD31" s="30"/>
+      <c r="BE31" s="30"/>
+      <c r="BF31" s="30"/>
+      <c r="BG31" s="30"/>
+      <c r="BH31" s="30"/>
+      <c r="BI31" s="30"/>
+      <c r="BJ31" s="30"/>
+      <c r="BK31" s="30"/>
+      <c r="BL31" s="30"/>
+      <c r="BM31" s="30"/>
+      <c r="BN31" s="30"/>
+      <c r="BO31" s="30"/>
+      <c r="BP31" s="30"/>
+      <c r="BQ31" s="30"/>
+      <c r="BR31" s="30"/>
+      <c r="BS31" s="30"/>
+      <c r="BT31" s="30"/>
+      <c r="BU31" s="30"/>
+      <c r="BV31" s="30"/>
+      <c r="BW31" s="30"/>
+      <c r="BX31" s="30"/>
+      <c r="BY31" s="30"/>
+      <c r="BZ31" s="30"/>
+      <c r="CA31" s="30"/>
+      <c r="CB31" s="30"/>
+      <c r="CC31" s="30"/>
+      <c r="CD31" s="30"/>
+      <c r="CE31" s="30"/>
+      <c r="CF31" s="30"/>
+      <c r="CG31" s="30"/>
+      <c r="CH31" s="30"/>
+      <c r="CI31" s="30"/>
+      <c r="CJ31" s="30"/>
+      <c r="CK31" s="30"/>
+      <c r="CL31" s="30"/>
+      <c r="CM31" s="30"/>
+      <c r="CN31" s="30"/>
+      <c r="CO31" s="30"/>
+      <c r="CP31" s="30"/>
+      <c r="CQ31" s="30"/>
+      <c r="CR31" s="30"/>
+      <c r="CS31" s="30"/>
+      <c r="CT31" s="30"/>
+      <c r="CU31" s="30"/>
+      <c r="CV31" s="30"/>
+      <c r="CW31" s="30"/>
+      <c r="CX31" s="30"/>
+      <c r="CY31" s="30"/>
+      <c r="CZ31" s="30"/>
+      <c r="DA31" s="30"/>
+      <c r="DB31" s="30"/>
+      <c r="DC31" s="30"/>
+      <c r="DD31" s="30"/>
+      <c r="DE31" s="30"/>
+      <c r="DF31" s="30"/>
+      <c r="DG31" s="30"/>
+      <c r="DH31" s="30"/>
+      <c r="DI31" s="30"/>
+      <c r="DJ31" s="30"/>
+      <c r="DK31" s="30"/>
+      <c r="DL31" s="30"/>
+      <c r="DM31" s="30"/>
+      <c r="DN31" s="30"/>
+      <c r="DO31" s="30"/>
+      <c r="DP31" s="30"/>
+      <c r="DQ31" s="30"/>
+      <c r="DR31" s="30"/>
+      <c r="DS31" s="30"/>
+      <c r="DT31" s="30"/>
+      <c r="DU31" s="30"/>
+      <c r="DV31" s="30"/>
+      <c r="DW31" s="30"/>
+      <c r="DX31" s="30"/>
+      <c r="DY31" s="30"/>
+      <c r="DZ31" s="30"/>
+      <c r="EA31" s="30"/>
+      <c r="EB31" s="30"/>
+      <c r="EC31" s="30"/>
+      <c r="ED31" s="30"/>
+      <c r="EE31" s="30"/>
+      <c r="EF31" s="30"/>
+      <c r="EG31" s="30"/>
+      <c r="EH31" s="30"/>
+      <c r="EI31" s="30"/>
+      <c r="EJ31" s="30"/>
+      <c r="EK31" s="30"/>
+      <c r="EL31" s="30"/>
+      <c r="EM31" s="30"/>
+      <c r="EN31" s="30"/>
+      <c r="EO31" s="30"/>
+      <c r="EP31" s="30"/>
+      <c r="EQ31" s="30"/>
+      <c r="ER31" s="30"/>
+      <c r="ES31" s="30"/>
+      <c r="ET31" s="30"/>
+      <c r="EU31" s="30"/>
+      <c r="EV31" s="30"/>
+      <c r="EW31" s="30"/>
+      <c r="EX31" s="30"/>
+      <c r="EY31" s="30"/>
+      <c r="EZ31" s="30"/>
+      <c r="FA31" s="30"/>
+      <c r="FB31" s="30"/>
+      <c r="FC31" s="30"/>
+      <c r="FD31" s="30"/>
+      <c r="FE31" s="30"/>
+      <c r="FF31" s="30"/>
+      <c r="FG31" s="30"/>
+      <c r="FH31" s="30"/>
+      <c r="FI31" s="30"/>
+      <c r="FJ31" s="30"/>
+      <c r="FK31" s="30"/>
+      <c r="FL31" s="30"/>
+      <c r="FM31" s="30"/>
+      <c r="FN31" s="30"/>
+      <c r="FO31" s="30"/>
+      <c r="FP31" s="30"/>
+      <c r="FQ31" s="30"/>
+      <c r="FR31" s="30"/>
+      <c r="FS31" s="30"/>
+      <c r="FT31" s="30"/>
+      <c r="FU31" s="30"/>
+      <c r="FV31" s="30"/>
+      <c r="FW31" s="30"/>
+      <c r="FX31" s="30"/>
+      <c r="FY31" s="30"/>
+      <c r="FZ31" s="30"/>
+      <c r="GA31" s="30"/>
+      <c r="GB31" s="30"/>
+      <c r="GC31" s="30"/>
+      <c r="GD31" s="30"/>
+      <c r="GE31" s="30"/>
+      <c r="GF31" s="30"/>
+      <c r="GG31" s="30"/>
+      <c r="GH31" s="30"/>
+      <c r="GI31" s="30"/>
+      <c r="GJ31" s="30"/>
+      <c r="GK31" s="30"/>
+      <c r="GL31" s="30"/>
+      <c r="GM31" s="30"/>
+      <c r="GN31" s="30"/>
+      <c r="GO31" s="30"/>
+      <c r="GP31" s="30"/>
+      <c r="GQ31" s="30"/>
+      <c r="GR31" s="30"/>
+      <c r="GS31" s="30"/>
+      <c r="GT31" s="30"/>
+      <c r="GU31" s="30"/>
+      <c r="GV31" s="30"/>
+      <c r="GW31" s="30"/>
+      <c r="GX31" s="30"/>
+      <c r="GY31" s="30"/>
+      <c r="GZ31" s="30"/>
+      <c r="HA31" s="30"/>
+      <c r="HB31" s="30"/>
+      <c r="HC31" s="30"/>
+      <c r="HD31" s="30"/>
+      <c r="HE31" s="30"/>
+      <c r="HF31" s="30"/>
+      <c r="HG31" s="30"/>
+      <c r="HH31" s="30"/>
+      <c r="HI31" s="30"/>
+      <c r="HJ31" s="30"/>
+      <c r="HK31" s="30"/>
+      <c r="HL31" s="30"/>
+      <c r="HM31" s="30"/>
+      <c r="HN31" s="30"/>
+      <c r="HO31" s="30"/>
+      <c r="HP31" s="30"/>
+      <c r="HQ31" s="30"/>
+      <c r="HR31" s="30"/>
+      <c r="HS31" s="30"/>
+      <c r="HT31" s="30"/>
+      <c r="HU31" s="30"/>
+      <c r="HV31" s="30"/>
+      <c r="HW31" s="30"/>
+      <c r="HX31" s="30"/>
+      <c r="HY31" s="30"/>
+      <c r="HZ31" s="30"/>
+      <c r="IA31" s="30"/>
+      <c r="IB31" s="30"/>
+      <c r="IC31" s="30"/>
+      <c r="ID31" s="30"/>
+      <c r="IE31" s="30"/>
+      <c r="IF31" s="30"/>
+      <c r="IG31" s="30"/>
+      <c r="IH31" s="30"/>
+      <c r="II31" s="30"/>
+      <c r="IJ31" s="30"/>
+      <c r="IK31" s="30"/>
+      <c r="IL31" s="30"/>
+      <c r="IM31" s="30"/>
+      <c r="IN31" s="30"/>
+      <c r="IO31" s="30"/>
       <c r="IP31" s="14"/>
       <c r="IQ31" s="14"/>
       <c r="IR31" s="14"/>
@@ -10590,15 +10686,15 @@
       <c r="IX31" s="14"/>
     </row>
     <row r="32" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="24">
+      <c r="A32" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="64">
         <f>DATE(2021,11,15)</f>
         <v>44515</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="64">
         <f>DATE(2022,1,31)</f>
         <v>44592</v>
       </c>
@@ -10861,15 +10957,15 @@
       <c r="IX32" s="14"/>
     </row>
     <row r="33" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="24">
+      <c r="A33" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="64">
         <f>DATE(2022,6,1)</f>
         <v>44713</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="64">
         <f>DATE(2022,6,31)</f>
         <v>44743</v>
       </c>
@@ -11401,7 +11497,7 @@
       <c r="D36" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="54">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G4:M4"/>
     <mergeCell ref="N4:T4"/>
@@ -11453,10 +11549,9 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="G5:IX34">
@@ -11598,21 +11693,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010021CB413651170D4FBFA874F8BEE755CA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="42743fc73206d53d9dc0a38c59eadd60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dc598aa0-d9ce-4a6b-81d3-1bfd1d95be93" xmlns:ns4="0f3824ba-70ce-4e7b-b9df-d016a901c15a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe924b3eb92af8fdbe5696825ae74dba" ns3:_="" ns4:_="">
     <xsd:import namespace="dc598aa0-d9ce-4a6b-81d3-1bfd1d95be93"/>
@@ -11797,24 +11877,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94DE01B-F382-4B59-8124-92C815CDB8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5933DF-E5C2-4102-897C-E72E9DA32B8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFF8F1F2-15C5-48DC-909D-47DBCB39B9F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11831,4 +11909,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94DE01B-F382-4B59-8124-92C815CDB8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5933DF-E5C2-4102-897C-E72E9DA32B8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
+++ b/Documents/GanttChart_GarciaAnakabeOihanav2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF29A08-DB8B-44BE-8EF6-DB92C52F8E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226A45F1-304C-46D2-A48F-A999C2CDCF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Mondragon Unibertsitatea
 TU Wien</t>
@@ -169,6 +169,12 @@
   <si>
     <t>Fix some bugs &amp; improve the product</t>
   </si>
+  <si>
+    <t>Testing and prepare the second partial release</t>
+  </si>
+  <si>
+    <t>Presentation 2nd version</t>
+  </si>
 </sst>
 </file>
 
@@ -178,9 +184,9 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="168" formatCode="d"/>
-    <numFmt numFmtId="169" formatCode="ddd\,\ d/m/yyyy"/>
-    <numFmt numFmtId="173" formatCode="m"/>
+    <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ d/m/yyyy"/>
+    <numFmt numFmtId="169" formatCode="m"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -804,13 +810,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,24 +881,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,37 +898,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="11" borderId="12" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -957,9 +920,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,21 +930,6 @@
     </xf>
     <xf numFmtId="14" fontId="17" fillId="11" borderId="2" xfId="9" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1003,15 +948,6 @@
     </xf>
     <xf numFmtId="14" fontId="18" fillId="8" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="14" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1062,6 +998,76 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Date" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
@@ -1572,11 +1578,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IX38"/>
+  <dimension ref="A1:IX40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1601,398 +1607,398 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:258" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="18"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="72">
         <f>DATE(2021,11,3)</f>
         <v>44503</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="72"/>
     </row>
     <row r="4" spans="1:258" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34">
         <v>1</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="G4" s="33">
+      <c r="D4" s="33"/>
+      <c r="G4" s="73">
         <f>G5</f>
         <v>44501</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="33">
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="73">
         <f>N5</f>
         <v>44508</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="33">
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="73">
         <f>U5</f>
         <v>44515</v>
       </c>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="33">
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="73">
         <f>AB5</f>
         <v>44522</v>
       </c>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="33">
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="73">
         <f>AI5</f>
         <v>44529</v>
       </c>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="33">
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="73">
         <f>AP5</f>
         <v>44536</v>
       </c>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="33">
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="75"/>
+      <c r="AW4" s="73">
         <f>AW5</f>
         <v>44543</v>
       </c>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="33">
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="75"/>
+      <c r="BD4" s="73">
         <f>BD5</f>
         <v>44550</v>
       </c>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="33">
+      <c r="BE4" s="74"/>
+      <c r="BF4" s="74"/>
+      <c r="BG4" s="74"/>
+      <c r="BH4" s="74"/>
+      <c r="BI4" s="74"/>
+      <c r="BJ4" s="75"/>
+      <c r="BK4" s="73">
         <f>BK5</f>
         <v>44557</v>
       </c>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="35"/>
-      <c r="BR4" s="33">
+      <c r="BL4" s="74"/>
+      <c r="BM4" s="74"/>
+      <c r="BN4" s="74"/>
+      <c r="BO4" s="74"/>
+      <c r="BP4" s="74"/>
+      <c r="BQ4" s="75"/>
+      <c r="BR4" s="73">
         <f>BR5</f>
         <v>44564</v>
       </c>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="34"/>
-      <c r="BX4" s="35"/>
-      <c r="BY4" s="33">
+      <c r="BS4" s="74"/>
+      <c r="BT4" s="74"/>
+      <c r="BU4" s="74"/>
+      <c r="BV4" s="74"/>
+      <c r="BW4" s="74"/>
+      <c r="BX4" s="75"/>
+      <c r="BY4" s="73">
         <f>BY5</f>
         <v>44571</v>
       </c>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="34"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="34"/>
-      <c r="CD4" s="34"/>
-      <c r="CE4" s="35"/>
-      <c r="CF4" s="33">
+      <c r="BZ4" s="74"/>
+      <c r="CA4" s="74"/>
+      <c r="CB4" s="74"/>
+      <c r="CC4" s="74"/>
+      <c r="CD4" s="74"/>
+      <c r="CE4" s="75"/>
+      <c r="CF4" s="73">
         <f>CF5</f>
         <v>44578</v>
       </c>
-      <c r="CG4" s="34"/>
-      <c r="CH4" s="34"/>
-      <c r="CI4" s="34"/>
-      <c r="CJ4" s="34"/>
-      <c r="CK4" s="34"/>
-      <c r="CL4" s="35"/>
-      <c r="CM4" s="33">
+      <c r="CG4" s="74"/>
+      <c r="CH4" s="74"/>
+      <c r="CI4" s="74"/>
+      <c r="CJ4" s="74"/>
+      <c r="CK4" s="74"/>
+      <c r="CL4" s="75"/>
+      <c r="CM4" s="73">
         <f>CM5</f>
         <v>44585</v>
       </c>
-      <c r="CN4" s="34"/>
-      <c r="CO4" s="34"/>
-      <c r="CP4" s="34"/>
-      <c r="CQ4" s="34"/>
-      <c r="CR4" s="34"/>
-      <c r="CS4" s="35"/>
-      <c r="CT4" s="33">
+      <c r="CN4" s="74"/>
+      <c r="CO4" s="74"/>
+      <c r="CP4" s="74"/>
+      <c r="CQ4" s="74"/>
+      <c r="CR4" s="74"/>
+      <c r="CS4" s="75"/>
+      <c r="CT4" s="73">
         <f>CT5</f>
         <v>44592</v>
       </c>
-      <c r="CU4" s="34"/>
-      <c r="CV4" s="34"/>
-      <c r="CW4" s="34"/>
-      <c r="CX4" s="34"/>
-      <c r="CY4" s="34"/>
-      <c r="CZ4" s="35"/>
-      <c r="DA4" s="33">
+      <c r="CU4" s="74"/>
+      <c r="CV4" s="74"/>
+      <c r="CW4" s="74"/>
+      <c r="CX4" s="74"/>
+      <c r="CY4" s="74"/>
+      <c r="CZ4" s="75"/>
+      <c r="DA4" s="73">
         <f>DA5</f>
         <v>44599</v>
       </c>
-      <c r="DB4" s="34"/>
-      <c r="DC4" s="34"/>
-      <c r="DD4" s="34"/>
-      <c r="DE4" s="34"/>
-      <c r="DF4" s="34"/>
-      <c r="DG4" s="35"/>
-      <c r="DH4" s="33">
+      <c r="DB4" s="74"/>
+      <c r="DC4" s="74"/>
+      <c r="DD4" s="74"/>
+      <c r="DE4" s="74"/>
+      <c r="DF4" s="74"/>
+      <c r="DG4" s="75"/>
+      <c r="DH4" s="73">
         <f>DH5</f>
         <v>44606</v>
       </c>
-      <c r="DI4" s="34"/>
-      <c r="DJ4" s="34"/>
-      <c r="DK4" s="34"/>
-      <c r="DL4" s="34"/>
-      <c r="DM4" s="34"/>
-      <c r="DN4" s="35"/>
-      <c r="DO4" s="33">
+      <c r="DI4" s="74"/>
+      <c r="DJ4" s="74"/>
+      <c r="DK4" s="74"/>
+      <c r="DL4" s="74"/>
+      <c r="DM4" s="74"/>
+      <c r="DN4" s="75"/>
+      <c r="DO4" s="73">
         <f>DO5</f>
         <v>44613</v>
       </c>
-      <c r="DP4" s="34"/>
-      <c r="DQ4" s="34"/>
-      <c r="DR4" s="34"/>
-      <c r="DS4" s="34"/>
-      <c r="DT4" s="34"/>
-      <c r="DU4" s="35"/>
-      <c r="DV4" s="33">
+      <c r="DP4" s="74"/>
+      <c r="DQ4" s="74"/>
+      <c r="DR4" s="74"/>
+      <c r="DS4" s="74"/>
+      <c r="DT4" s="74"/>
+      <c r="DU4" s="75"/>
+      <c r="DV4" s="73">
         <f>DV5</f>
         <v>44620</v>
       </c>
-      <c r="DW4" s="34"/>
-      <c r="DX4" s="34"/>
-      <c r="DY4" s="34"/>
-      <c r="DZ4" s="34"/>
-      <c r="EA4" s="34"/>
-      <c r="EB4" s="35"/>
-      <c r="EC4" s="33">
+      <c r="DW4" s="74"/>
+      <c r="DX4" s="74"/>
+      <c r="DY4" s="74"/>
+      <c r="DZ4" s="74"/>
+      <c r="EA4" s="74"/>
+      <c r="EB4" s="75"/>
+      <c r="EC4" s="73">
         <f>EC5</f>
         <v>44627</v>
       </c>
-      <c r="ED4" s="34"/>
-      <c r="EE4" s="34"/>
-      <c r="EF4" s="34"/>
-      <c r="EG4" s="34"/>
-      <c r="EH4" s="34"/>
-      <c r="EI4" s="35"/>
-      <c r="EJ4" s="33">
+      <c r="ED4" s="74"/>
+      <c r="EE4" s="74"/>
+      <c r="EF4" s="74"/>
+      <c r="EG4" s="74"/>
+      <c r="EH4" s="74"/>
+      <c r="EI4" s="75"/>
+      <c r="EJ4" s="73">
         <f>EJ5</f>
         <v>44634</v>
       </c>
-      <c r="EK4" s="34"/>
-      <c r="EL4" s="34"/>
-      <c r="EM4" s="34"/>
-      <c r="EN4" s="34"/>
-      <c r="EO4" s="34"/>
-      <c r="EP4" s="35"/>
-      <c r="EQ4" s="33">
+      <c r="EK4" s="74"/>
+      <c r="EL4" s="74"/>
+      <c r="EM4" s="74"/>
+      <c r="EN4" s="74"/>
+      <c r="EO4" s="74"/>
+      <c r="EP4" s="75"/>
+      <c r="EQ4" s="73">
         <f>EQ5</f>
         <v>44641</v>
       </c>
-      <c r="ER4" s="34"/>
-      <c r="ES4" s="34"/>
-      <c r="ET4" s="34"/>
-      <c r="EU4" s="34"/>
-      <c r="EV4" s="34"/>
-      <c r="EW4" s="35"/>
-      <c r="EX4" s="33">
+      <c r="ER4" s="74"/>
+      <c r="ES4" s="74"/>
+      <c r="ET4" s="74"/>
+      <c r="EU4" s="74"/>
+      <c r="EV4" s="74"/>
+      <c r="EW4" s="75"/>
+      <c r="EX4" s="73">
         <f>EX5</f>
         <v>44648</v>
       </c>
-      <c r="EY4" s="34"/>
-      <c r="EZ4" s="34"/>
-      <c r="FA4" s="34"/>
-      <c r="FB4" s="34"/>
-      <c r="FC4" s="34"/>
-      <c r="FD4" s="35"/>
-      <c r="FE4" s="33">
+      <c r="EY4" s="74"/>
+      <c r="EZ4" s="74"/>
+      <c r="FA4" s="74"/>
+      <c r="FB4" s="74"/>
+      <c r="FC4" s="74"/>
+      <c r="FD4" s="75"/>
+      <c r="FE4" s="73">
         <f>FE5</f>
         <v>44655</v>
       </c>
-      <c r="FF4" s="34"/>
-      <c r="FG4" s="34"/>
-      <c r="FH4" s="34"/>
-      <c r="FI4" s="34"/>
-      <c r="FJ4" s="34"/>
-      <c r="FK4" s="35"/>
-      <c r="FL4" s="33">
+      <c r="FF4" s="74"/>
+      <c r="FG4" s="74"/>
+      <c r="FH4" s="74"/>
+      <c r="FI4" s="74"/>
+      <c r="FJ4" s="74"/>
+      <c r="FK4" s="75"/>
+      <c r="FL4" s="73">
         <f>FL5</f>
         <v>44662</v>
       </c>
-      <c r="FM4" s="34"/>
-      <c r="FN4" s="34"/>
-      <c r="FO4" s="34"/>
-      <c r="FP4" s="34"/>
-      <c r="FQ4" s="34"/>
-      <c r="FR4" s="35"/>
-      <c r="FS4" s="33">
+      <c r="FM4" s="74"/>
+      <c r="FN4" s="74"/>
+      <c r="FO4" s="74"/>
+      <c r="FP4" s="74"/>
+      <c r="FQ4" s="74"/>
+      <c r="FR4" s="75"/>
+      <c r="FS4" s="73">
         <f>FS5</f>
         <v>44669</v>
       </c>
-      <c r="FT4" s="34"/>
-      <c r="FU4" s="34"/>
-      <c r="FV4" s="34"/>
-      <c r="FW4" s="34"/>
-      <c r="FX4" s="34"/>
-      <c r="FY4" s="35"/>
-      <c r="FZ4" s="33">
+      <c r="FT4" s="74"/>
+      <c r="FU4" s="74"/>
+      <c r="FV4" s="74"/>
+      <c r="FW4" s="74"/>
+      <c r="FX4" s="74"/>
+      <c r="FY4" s="75"/>
+      <c r="FZ4" s="73">
         <f>FZ5</f>
         <v>44676</v>
       </c>
-      <c r="GA4" s="34"/>
-      <c r="GB4" s="34"/>
-      <c r="GC4" s="34"/>
-      <c r="GD4" s="34"/>
-      <c r="GE4" s="34"/>
-      <c r="GF4" s="35"/>
-      <c r="GG4" s="33">
+      <c r="GA4" s="74"/>
+      <c r="GB4" s="74"/>
+      <c r="GC4" s="74"/>
+      <c r="GD4" s="74"/>
+      <c r="GE4" s="74"/>
+      <c r="GF4" s="75"/>
+      <c r="GG4" s="73">
         <f>GG5</f>
         <v>44683</v>
       </c>
-      <c r="GH4" s="34"/>
-      <c r="GI4" s="34"/>
-      <c r="GJ4" s="34"/>
-      <c r="GK4" s="34"/>
-      <c r="GL4" s="34"/>
-      <c r="GM4" s="35"/>
-      <c r="GN4" s="33">
+      <c r="GH4" s="74"/>
+      <c r="GI4" s="74"/>
+      <c r="GJ4" s="74"/>
+      <c r="GK4" s="74"/>
+      <c r="GL4" s="74"/>
+      <c r="GM4" s="75"/>
+      <c r="GN4" s="73">
         <f>GN5</f>
         <v>44690</v>
       </c>
-      <c r="GO4" s="34"/>
-      <c r="GP4" s="34"/>
-      <c r="GQ4" s="34"/>
-      <c r="GR4" s="34"/>
-      <c r="GS4" s="34"/>
-      <c r="GT4" s="35"/>
-      <c r="GU4" s="33">
+      <c r="GO4" s="74"/>
+      <c r="GP4" s="74"/>
+      <c r="GQ4" s="74"/>
+      <c r="GR4" s="74"/>
+      <c r="GS4" s="74"/>
+      <c r="GT4" s="75"/>
+      <c r="GU4" s="73">
         <f>GU5</f>
         <v>44697</v>
       </c>
-      <c r="GV4" s="34"/>
-      <c r="GW4" s="34"/>
-      <c r="GX4" s="34"/>
-      <c r="GY4" s="34"/>
-      <c r="GZ4" s="34"/>
-      <c r="HA4" s="35"/>
-      <c r="HB4" s="33">
+      <c r="GV4" s="74"/>
+      <c r="GW4" s="74"/>
+      <c r="GX4" s="74"/>
+      <c r="GY4" s="74"/>
+      <c r="GZ4" s="74"/>
+      <c r="HA4" s="75"/>
+      <c r="HB4" s="73">
         <f>HB5</f>
         <v>44704</v>
       </c>
-      <c r="HC4" s="34"/>
-      <c r="HD4" s="34"/>
-      <c r="HE4" s="34"/>
-      <c r="HF4" s="34"/>
-      <c r="HG4" s="34"/>
-      <c r="HH4" s="35"/>
-      <c r="HI4" s="33">
+      <c r="HC4" s="74"/>
+      <c r="HD4" s="74"/>
+      <c r="HE4" s="74"/>
+      <c r="HF4" s="74"/>
+      <c r="HG4" s="74"/>
+      <c r="HH4" s="75"/>
+      <c r="HI4" s="73">
         <f>HI5</f>
         <v>44711</v>
       </c>
-      <c r="HJ4" s="34"/>
-      <c r="HK4" s="34"/>
-      <c r="HL4" s="34"/>
-      <c r="HM4" s="34"/>
-      <c r="HN4" s="34"/>
-      <c r="HO4" s="35"/>
-      <c r="HP4" s="33">
+      <c r="HJ4" s="74"/>
+      <c r="HK4" s="74"/>
+      <c r="HL4" s="74"/>
+      <c r="HM4" s="74"/>
+      <c r="HN4" s="74"/>
+      <c r="HO4" s="75"/>
+      <c r="HP4" s="73">
         <f>HP5</f>
         <v>44718</v>
       </c>
-      <c r="HQ4" s="34"/>
-      <c r="HR4" s="34"/>
-      <c r="HS4" s="34"/>
-      <c r="HT4" s="34"/>
-      <c r="HU4" s="34"/>
-      <c r="HV4" s="35"/>
-      <c r="HW4" s="33">
+      <c r="HQ4" s="74"/>
+      <c r="HR4" s="74"/>
+      <c r="HS4" s="74"/>
+      <c r="HT4" s="74"/>
+      <c r="HU4" s="74"/>
+      <c r="HV4" s="75"/>
+      <c r="HW4" s="73">
         <f>HW5</f>
         <v>44725</v>
       </c>
-      <c r="HX4" s="34"/>
-      <c r="HY4" s="34"/>
-      <c r="HZ4" s="34"/>
-      <c r="IA4" s="34"/>
-      <c r="IB4" s="34"/>
-      <c r="IC4" s="35"/>
-      <c r="ID4" s="33">
+      <c r="HX4" s="74"/>
+      <c r="HY4" s="74"/>
+      <c r="HZ4" s="74"/>
+      <c r="IA4" s="74"/>
+      <c r="IB4" s="74"/>
+      <c r="IC4" s="75"/>
+      <c r="ID4" s="73">
         <f>ID5</f>
         <v>44732</v>
       </c>
-      <c r="IE4" s="34"/>
-      <c r="IF4" s="34"/>
-      <c r="IG4" s="34"/>
-      <c r="IH4" s="34"/>
-      <c r="II4" s="34"/>
-      <c r="IJ4" s="35"/>
-      <c r="IK4" s="33">
+      <c r="IE4" s="74"/>
+      <c r="IF4" s="74"/>
+      <c r="IG4" s="74"/>
+      <c r="IH4" s="74"/>
+      <c r="II4" s="74"/>
+      <c r="IJ4" s="75"/>
+      <c r="IK4" s="73">
         <f>IK5</f>
         <v>44739</v>
       </c>
-      <c r="IL4" s="34"/>
-      <c r="IM4" s="34"/>
-      <c r="IN4" s="34"/>
-      <c r="IO4" s="34"/>
-      <c r="IP4" s="34"/>
-      <c r="IQ4" s="35"/>
-      <c r="IR4" s="33">
+      <c r="IL4" s="74"/>
+      <c r="IM4" s="74"/>
+      <c r="IN4" s="74"/>
+      <c r="IO4" s="74"/>
+      <c r="IP4" s="74"/>
+      <c r="IQ4" s="75"/>
+      <c r="IR4" s="73">
         <f>IR5</f>
         <v>44746</v>
       </c>
-      <c r="IS4" s="34"/>
-      <c r="IT4" s="34"/>
-      <c r="IU4" s="34"/>
-      <c r="IV4" s="34"/>
-      <c r="IW4" s="34"/>
-      <c r="IX4" s="35"/>
+      <c r="IS4" s="74"/>
+      <c r="IT4" s="74"/>
+      <c r="IU4" s="74"/>
+      <c r="IV4" s="74"/>
+      <c r="IW4" s="74"/>
+      <c r="IX4" s="75"/>
     </row>
     <row r="5" spans="1:258" ht="1.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
       <c r="G5" s="7">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44501</v>
@@ -3003,14 +3009,14 @@
       </c>
     </row>
     <row r="6" spans="1:258" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="5"/>
@@ -4027,10 +4033,10 @@
       </c>
     </row>
     <row r="7" spans="1:258" ht="4.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="F7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
@@ -4289,19 +4295,19 @@
       <c r="IX7" s="12"/>
     </row>
     <row r="8" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="92" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="69" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11">
-        <f t="shared" ref="F8:F36" si="156">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="F8:F38" si="156">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v>41</v>
       </c>
       <c r="G8" s="12"/>
@@ -4558,15 +4564,15 @@
       <c r="IX8" s="12"/>
     </row>
     <row r="9" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="73">
+      <c r="B9" s="86"/>
+      <c r="C9" s="52">
         <f>Project_Start</f>
         <v>44503</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="52">
         <f>DATE(2021,11,12)</f>
         <v>44512</v>
       </c>
@@ -4829,15 +4835,15 @@
       <c r="IX9" s="12"/>
     </row>
     <row r="10" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="74">
+      <c r="B10" s="87"/>
+      <c r="C10" s="53">
         <f>D9+1</f>
         <v>44513</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="53">
         <f>DATE(2021,11,23)</f>
         <v>44523</v>
       </c>
@@ -5100,15 +5106,15 @@
       <c r="IX10" s="12"/>
     </row>
     <row r="11" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="74">
+      <c r="B11" s="87"/>
+      <c r="C11" s="53">
         <f>DATE(2021,11,24)</f>
         <v>44524</v>
       </c>
-      <c r="D11" s="74">
+      <c r="D11" s="53">
         <f>C11+6</f>
         <v>44530</v>
       </c>
@@ -5371,15 +5377,15 @@
       <c r="IX11" s="12"/>
     </row>
     <row r="12" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="75">
+      <c r="B12" s="88"/>
+      <c r="C12" s="54">
         <f>DATE(2021,11,31)</f>
         <v>44531</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="54">
         <f>DATE(2021,12,13)</f>
         <v>44543</v>
       </c>
@@ -5642,15 +5648,15 @@
       <c r="IX12" s="12"/>
     </row>
     <row r="13" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="91">
-        <f>D16</f>
+      <c r="D13" s="67">
+        <f>D17</f>
         <v>44742</v>
       </c>
       <c r="E13" s="11"/>
@@ -5840,66 +5846,66 @@
       <c r="GD13" s="26"/>
       <c r="GE13" s="26"/>
       <c r="GF13" s="26"/>
-      <c r="GG13" s="32"/>
-      <c r="GH13" s="32"/>
-      <c r="GI13" s="32"/>
-      <c r="GJ13" s="32"/>
-      <c r="GK13" s="32"/>
-      <c r="GL13" s="32"/>
-      <c r="GM13" s="32"/>
-      <c r="GN13" s="32"/>
-      <c r="GO13" s="32"/>
-      <c r="GP13" s="32"/>
-      <c r="GQ13" s="32"/>
-      <c r="GR13" s="32"/>
-      <c r="GS13" s="32"/>
-      <c r="GT13" s="32"/>
-      <c r="GU13" s="32"/>
-      <c r="GV13" s="32"/>
-      <c r="GW13" s="32"/>
-      <c r="GX13" s="32"/>
-      <c r="GY13" s="32"/>
-      <c r="GZ13" s="32"/>
-      <c r="HA13" s="32"/>
-      <c r="HB13" s="32"/>
-      <c r="HC13" s="32"/>
-      <c r="HD13" s="32"/>
-      <c r="HE13" s="32"/>
-      <c r="HF13" s="32"/>
-      <c r="HG13" s="32"/>
-      <c r="HH13" s="32"/>
-      <c r="HI13" s="32"/>
-      <c r="HJ13" s="32"/>
-      <c r="HK13" s="32"/>
-      <c r="HL13" s="32"/>
-      <c r="HM13" s="32"/>
-      <c r="HN13" s="32"/>
-      <c r="HO13" s="32"/>
-      <c r="HP13" s="32"/>
-      <c r="HQ13" s="32"/>
-      <c r="HR13" s="32"/>
-      <c r="HS13" s="32"/>
-      <c r="HT13" s="32"/>
-      <c r="HU13" s="32"/>
-      <c r="HV13" s="32"/>
-      <c r="HW13" s="32"/>
-      <c r="HX13" s="32"/>
-      <c r="HY13" s="32"/>
-      <c r="HZ13" s="32"/>
-      <c r="IA13" s="32"/>
-      <c r="IB13" s="32"/>
-      <c r="IC13" s="32"/>
-      <c r="ID13" s="32"/>
-      <c r="IE13" s="32"/>
-      <c r="IF13" s="32"/>
-      <c r="IG13" s="32"/>
-      <c r="IH13" s="32"/>
-      <c r="II13" s="32"/>
-      <c r="IJ13" s="32"/>
-      <c r="IK13" s="32"/>
-      <c r="IL13" s="32"/>
-      <c r="IM13" s="32"/>
-      <c r="IN13" s="32"/>
+      <c r="GG13" s="31"/>
+      <c r="GH13" s="31"/>
+      <c r="GI13" s="31"/>
+      <c r="GJ13" s="31"/>
+      <c r="GK13" s="31"/>
+      <c r="GL13" s="31"/>
+      <c r="GM13" s="31"/>
+      <c r="GN13" s="31"/>
+      <c r="GO13" s="31"/>
+      <c r="GP13" s="31"/>
+      <c r="GQ13" s="31"/>
+      <c r="GR13" s="31"/>
+      <c r="GS13" s="31"/>
+      <c r="GT13" s="31"/>
+      <c r="GU13" s="31"/>
+      <c r="GV13" s="31"/>
+      <c r="GW13" s="31"/>
+      <c r="GX13" s="31"/>
+      <c r="GY13" s="31"/>
+      <c r="GZ13" s="31"/>
+      <c r="HA13" s="31"/>
+      <c r="HB13" s="31"/>
+      <c r="HC13" s="31"/>
+      <c r="HD13" s="31"/>
+      <c r="HE13" s="31"/>
+      <c r="HF13" s="31"/>
+      <c r="HG13" s="31"/>
+      <c r="HH13" s="31"/>
+      <c r="HI13" s="31"/>
+      <c r="HJ13" s="31"/>
+      <c r="HK13" s="31"/>
+      <c r="HL13" s="31"/>
+      <c r="HM13" s="31"/>
+      <c r="HN13" s="31"/>
+      <c r="HO13" s="31"/>
+      <c r="HP13" s="31"/>
+      <c r="HQ13" s="31"/>
+      <c r="HR13" s="31"/>
+      <c r="HS13" s="31"/>
+      <c r="HT13" s="31"/>
+      <c r="HU13" s="31"/>
+      <c r="HV13" s="31"/>
+      <c r="HW13" s="31"/>
+      <c r="HX13" s="31"/>
+      <c r="HY13" s="31"/>
+      <c r="HZ13" s="31"/>
+      <c r="IA13" s="31"/>
+      <c r="IB13" s="31"/>
+      <c r="IC13" s="31"/>
+      <c r="ID13" s="31"/>
+      <c r="IE13" s="31"/>
+      <c r="IF13" s="31"/>
+      <c r="IG13" s="31"/>
+      <c r="IH13" s="31"/>
+      <c r="II13" s="31"/>
+      <c r="IJ13" s="31"/>
+      <c r="IK13" s="31"/>
+      <c r="IL13" s="31"/>
+      <c r="IM13" s="31"/>
+      <c r="IN13" s="31"/>
       <c r="IO13" s="21"/>
       <c r="IP13" s="12"/>
       <c r="IQ13" s="12"/>
@@ -5912,15 +5918,15 @@
       <c r="IX13" s="12"/>
     </row>
     <row r="14" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="70">
+      <c r="B14" s="79"/>
+      <c r="C14" s="49">
         <f>DATE(2021,11,19)</f>
         <v>44519</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="49">
         <f>DATE(2022,2,6)</f>
         <v>44598</v>
       </c>
@@ -6183,15 +6189,15 @@
       <c r="IX14" s="12"/>
     </row>
     <row r="15" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="71">
+      <c r="B15" s="80"/>
+      <c r="C15" s="50">
         <f>DATE(2022,1,10)</f>
         <v>44571</v>
       </c>
-      <c r="D15" s="71">
+      <c r="D15" s="50">
         <f>DATE(2022,2,6)</f>
         <v>44598</v>
       </c>
@@ -6454,23 +6460,20 @@
       <c r="IX15" s="12"/>
     </row>
     <row r="16" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="72">
-        <f>DATE(2022,2,7)</f>
-        <v>44599</v>
-      </c>
-      <c r="D16" s="72">
-        <f>DATE(2022,6,30)</f>
-        <v>44742</v>
+      <c r="A16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="50">
+        <f>DATE(2022,5,2)</f>
+        <v>44683</v>
+      </c>
+      <c r="D16" s="50">
+        <f>DATE(2022,6,1)</f>
+        <v>44713</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="11">
-        <f t="shared" si="156"/>
-        <v>144</v>
-      </c>
+      <c r="F16" s="11"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -6483,11 +6486,11 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
+      <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
@@ -6725,22 +6728,22 @@
       <c r="IX16" s="12"/>
     </row>
     <row r="17" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="88" t="str">
-        <f>C18</f>
-        <v>14/12/2021</v>
-      </c>
-      <c r="D17" s="89">
-        <f>D31</f>
+      <c r="A17" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="81"/>
+      <c r="C17" s="51">
+        <f>DATE(2022,2,7)</f>
+        <v>44599</v>
+      </c>
+      <c r="D17" s="51">
+        <f>DATE(2022,6,30)</f>
         <v>44742</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11">
         <f t="shared" si="156"/>
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -6758,7 +6761,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
+      <c r="W17" s="13"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
@@ -6785,205 +6788,205 @@
       <c r="AU17" s="12"/>
       <c r="AV17" s="12"/>
       <c r="AW17" s="12"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="28"/>
-      <c r="AZ17" s="28"/>
-      <c r="BA17" s="28"/>
-      <c r="BB17" s="28"/>
-      <c r="BC17" s="28"/>
-      <c r="BD17" s="28"/>
-      <c r="BE17" s="28"/>
-      <c r="BF17" s="28"/>
-      <c r="BG17" s="28"/>
-      <c r="BH17" s="28"/>
-      <c r="BI17" s="28"/>
-      <c r="BJ17" s="28"/>
-      <c r="BK17" s="28"/>
-      <c r="BL17" s="28"/>
-      <c r="BM17" s="28"/>
-      <c r="BN17" s="28"/>
-      <c r="BO17" s="28"/>
-      <c r="BP17" s="28"/>
-      <c r="BQ17" s="28"/>
-      <c r="BR17" s="28"/>
-      <c r="BS17" s="28"/>
-      <c r="BT17" s="28"/>
-      <c r="BU17" s="28"/>
-      <c r="BV17" s="28"/>
-      <c r="BW17" s="28"/>
-      <c r="BX17" s="28"/>
-      <c r="BY17" s="28"/>
-      <c r="BZ17" s="28"/>
-      <c r="CA17" s="28"/>
-      <c r="CB17" s="28"/>
-      <c r="CC17" s="28"/>
-      <c r="CD17" s="28"/>
-      <c r="CE17" s="28"/>
-      <c r="CF17" s="28"/>
-      <c r="CG17" s="28"/>
-      <c r="CH17" s="28"/>
-      <c r="CI17" s="28"/>
-      <c r="CJ17" s="28"/>
-      <c r="CK17" s="28"/>
-      <c r="CL17" s="28"/>
-      <c r="CM17" s="28"/>
-      <c r="CN17" s="28"/>
-      <c r="CO17" s="28"/>
-      <c r="CP17" s="28"/>
-      <c r="CQ17" s="28"/>
-      <c r="CR17" s="28"/>
-      <c r="CS17" s="28"/>
-      <c r="CT17" s="28"/>
-      <c r="CU17" s="28"/>
-      <c r="CV17" s="28"/>
-      <c r="CW17" s="28"/>
-      <c r="CX17" s="28"/>
-      <c r="CY17" s="28"/>
-      <c r="CZ17" s="28"/>
-      <c r="DA17" s="28"/>
-      <c r="DB17" s="28"/>
-      <c r="DC17" s="28"/>
-      <c r="DD17" s="28"/>
-      <c r="DE17" s="28"/>
-      <c r="DF17" s="28"/>
-      <c r="DG17" s="28"/>
-      <c r="DH17" s="28"/>
-      <c r="DI17" s="28"/>
-      <c r="DJ17" s="28"/>
-      <c r="DK17" s="28"/>
-      <c r="DL17" s="28"/>
-      <c r="DM17" s="28"/>
-      <c r="DN17" s="28"/>
-      <c r="DO17" s="28"/>
-      <c r="DP17" s="28"/>
-      <c r="DQ17" s="28"/>
-      <c r="DR17" s="28"/>
-      <c r="DS17" s="28"/>
-      <c r="DT17" s="28"/>
-      <c r="DU17" s="28"/>
-      <c r="DV17" s="28"/>
-      <c r="DW17" s="28"/>
-      <c r="DX17" s="28"/>
-      <c r="DY17" s="28"/>
-      <c r="DZ17" s="28"/>
-      <c r="EA17" s="28"/>
-      <c r="EB17" s="28"/>
-      <c r="EC17" s="28"/>
-      <c r="ED17" s="28"/>
-      <c r="EE17" s="28"/>
-      <c r="EF17" s="28"/>
-      <c r="EG17" s="28"/>
-      <c r="EH17" s="28"/>
-      <c r="EI17" s="28"/>
-      <c r="EJ17" s="28"/>
-      <c r="EK17" s="28"/>
-      <c r="EL17" s="28"/>
-      <c r="EM17" s="28"/>
-      <c r="EN17" s="28"/>
-      <c r="EO17" s="28"/>
-      <c r="EP17" s="28"/>
-      <c r="EQ17" s="28"/>
-      <c r="ER17" s="28"/>
-      <c r="ES17" s="28"/>
-      <c r="ET17" s="28"/>
-      <c r="EU17" s="28"/>
-      <c r="EV17" s="28"/>
-      <c r="EW17" s="28"/>
-      <c r="EX17" s="28"/>
-      <c r="EY17" s="28"/>
-      <c r="EZ17" s="28"/>
-      <c r="FA17" s="28"/>
-      <c r="FB17" s="28"/>
-      <c r="FC17" s="28"/>
-      <c r="FD17" s="28"/>
-      <c r="FE17" s="28"/>
-      <c r="FF17" s="28"/>
-      <c r="FG17" s="28"/>
-      <c r="FH17" s="28"/>
-      <c r="FI17" s="28"/>
-      <c r="FJ17" s="28"/>
-      <c r="FK17" s="28"/>
-      <c r="FL17" s="28"/>
-      <c r="FM17" s="28"/>
-      <c r="FN17" s="28"/>
-      <c r="FO17" s="28"/>
-      <c r="FP17" s="28"/>
-      <c r="FQ17" s="28"/>
-      <c r="FR17" s="28"/>
-      <c r="FS17" s="28"/>
-      <c r="FT17" s="28"/>
-      <c r="FU17" s="28"/>
-      <c r="FV17" s="28"/>
-      <c r="FW17" s="28"/>
-      <c r="FX17" s="28"/>
-      <c r="FY17" s="28"/>
-      <c r="FZ17" s="28"/>
-      <c r="GA17" s="28"/>
-      <c r="GB17" s="28"/>
-      <c r="GC17" s="28"/>
-      <c r="GD17" s="28"/>
-      <c r="GE17" s="28"/>
-      <c r="GF17" s="28"/>
-      <c r="GG17" s="28"/>
-      <c r="GH17" s="28"/>
-      <c r="GI17" s="28"/>
-      <c r="GJ17" s="28"/>
-      <c r="GK17" s="28"/>
-      <c r="GL17" s="28"/>
-      <c r="GM17" s="28"/>
-      <c r="GN17" s="28"/>
-      <c r="GO17" s="28"/>
-      <c r="GP17" s="28"/>
-      <c r="GQ17" s="28"/>
-      <c r="GR17" s="28"/>
-      <c r="GS17" s="28"/>
-      <c r="GT17" s="28"/>
-      <c r="GU17" s="28"/>
-      <c r="GV17" s="28"/>
-      <c r="GW17" s="28"/>
-      <c r="GX17" s="28"/>
-      <c r="GY17" s="28"/>
-      <c r="GZ17" s="28"/>
-      <c r="HA17" s="28"/>
-      <c r="HB17" s="28"/>
-      <c r="HC17" s="28"/>
-      <c r="HD17" s="28"/>
-      <c r="HE17" s="28"/>
-      <c r="HF17" s="28"/>
-      <c r="HG17" s="28"/>
-      <c r="HH17" s="28"/>
-      <c r="HI17" s="28"/>
-      <c r="HJ17" s="28"/>
-      <c r="HK17" s="28"/>
-      <c r="HL17" s="28"/>
-      <c r="HM17" s="28"/>
-      <c r="HN17" s="28"/>
-      <c r="HO17" s="28"/>
-      <c r="HP17" s="28"/>
-      <c r="HQ17" s="28"/>
-      <c r="HR17" s="28"/>
-      <c r="HS17" s="28"/>
-      <c r="HT17" s="28"/>
-      <c r="HU17" s="28"/>
-      <c r="HV17" s="28"/>
-      <c r="HW17" s="28"/>
-      <c r="HX17" s="28"/>
-      <c r="HY17" s="28"/>
-      <c r="HZ17" s="28"/>
-      <c r="IA17" s="28"/>
-      <c r="IB17" s="28"/>
-      <c r="IC17" s="28"/>
-      <c r="ID17" s="28"/>
-      <c r="IE17" s="28"/>
-      <c r="IF17" s="28"/>
-      <c r="IG17" s="28"/>
-      <c r="IH17" s="28"/>
-      <c r="II17" s="28"/>
-      <c r="IJ17" s="28"/>
-      <c r="IK17" s="28"/>
-      <c r="IL17" s="28"/>
-      <c r="IM17" s="28"/>
-      <c r="IN17" s="29"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="22"/>
+      <c r="BB17" s="22"/>
+      <c r="BC17" s="22"/>
+      <c r="BD17" s="22"/>
+      <c r="BE17" s="22"/>
+      <c r="BF17" s="22"/>
+      <c r="BG17" s="22"/>
+      <c r="BH17" s="22"/>
+      <c r="BI17" s="22"/>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="22"/>
+      <c r="BL17" s="22"/>
+      <c r="BM17" s="22"/>
+      <c r="BN17" s="22"/>
+      <c r="BO17" s="22"/>
+      <c r="BP17" s="22"/>
+      <c r="BQ17" s="22"/>
+      <c r="BR17" s="22"/>
+      <c r="BS17" s="22"/>
+      <c r="BT17" s="22"/>
+      <c r="BU17" s="22"/>
+      <c r="BV17" s="22"/>
+      <c r="BW17" s="22"/>
+      <c r="BX17" s="22"/>
+      <c r="BY17" s="22"/>
+      <c r="BZ17" s="22"/>
+      <c r="CA17" s="22"/>
+      <c r="CB17" s="22"/>
+      <c r="CC17" s="22"/>
+      <c r="CD17" s="22"/>
+      <c r="CE17" s="22"/>
+      <c r="CF17" s="22"/>
+      <c r="CG17" s="22"/>
+      <c r="CH17" s="22"/>
+      <c r="CI17" s="22"/>
+      <c r="CJ17" s="22"/>
+      <c r="CK17" s="22"/>
+      <c r="CL17" s="22"/>
+      <c r="CM17" s="22"/>
+      <c r="CN17" s="22"/>
+      <c r="CO17" s="22"/>
+      <c r="CP17" s="22"/>
+      <c r="CQ17" s="22"/>
+      <c r="CR17" s="22"/>
+      <c r="CS17" s="22"/>
+      <c r="CT17" s="22"/>
+      <c r="CU17" s="22"/>
+      <c r="CV17" s="22"/>
+      <c r="CW17" s="22"/>
+      <c r="CX17" s="22"/>
+      <c r="CY17" s="22"/>
+      <c r="CZ17" s="22"/>
+      <c r="DA17" s="22"/>
+      <c r="DB17" s="22"/>
+      <c r="DC17" s="22"/>
+      <c r="DD17" s="22"/>
+      <c r="DE17" s="22"/>
+      <c r="DF17" s="22"/>
+      <c r="DG17" s="22"/>
+      <c r="DH17" s="22"/>
+      <c r="DI17" s="22"/>
+      <c r="DJ17" s="22"/>
+      <c r="DK17" s="22"/>
+      <c r="DL17" s="22"/>
+      <c r="DM17" s="22"/>
+      <c r="DN17" s="22"/>
+      <c r="DO17" s="22"/>
+      <c r="DP17" s="22"/>
+      <c r="DQ17" s="22"/>
+      <c r="DR17" s="22"/>
+      <c r="DS17" s="22"/>
+      <c r="DT17" s="22"/>
+      <c r="DU17" s="22"/>
+      <c r="DV17" s="22"/>
+      <c r="DW17" s="22"/>
+      <c r="DX17" s="22"/>
+      <c r="DY17" s="22"/>
+      <c r="DZ17" s="22"/>
+      <c r="EA17" s="22"/>
+      <c r="EB17" s="22"/>
+      <c r="EC17" s="22"/>
+      <c r="ED17" s="22"/>
+      <c r="EE17" s="22"/>
+      <c r="EF17" s="22"/>
+      <c r="EG17" s="22"/>
+      <c r="EH17" s="22"/>
+      <c r="EI17" s="22"/>
+      <c r="EJ17" s="22"/>
+      <c r="EK17" s="22"/>
+      <c r="EL17" s="22"/>
+      <c r="EM17" s="22"/>
+      <c r="EN17" s="22"/>
+      <c r="EO17" s="22"/>
+      <c r="EP17" s="22"/>
+      <c r="EQ17" s="22"/>
+      <c r="ER17" s="22"/>
+      <c r="ES17" s="22"/>
+      <c r="ET17" s="22"/>
+      <c r="EU17" s="22"/>
+      <c r="EV17" s="22"/>
+      <c r="EW17" s="22"/>
+      <c r="EX17" s="22"/>
+      <c r="EY17" s="22"/>
+      <c r="EZ17" s="22"/>
+      <c r="FA17" s="22"/>
+      <c r="FB17" s="22"/>
+      <c r="FC17" s="22"/>
+      <c r="FD17" s="22"/>
+      <c r="FE17" s="22"/>
+      <c r="FF17" s="22"/>
+      <c r="FG17" s="22"/>
+      <c r="FH17" s="22"/>
+      <c r="FI17" s="22"/>
+      <c r="FJ17" s="22"/>
+      <c r="FK17" s="22"/>
+      <c r="FL17" s="22"/>
+      <c r="FM17" s="22"/>
+      <c r="FN17" s="22"/>
+      <c r="FO17" s="22"/>
+      <c r="FP17" s="22"/>
+      <c r="FQ17" s="22"/>
+      <c r="FR17" s="22"/>
+      <c r="FS17" s="22"/>
+      <c r="FT17" s="22"/>
+      <c r="FU17" s="22"/>
+      <c r="FV17" s="22"/>
+      <c r="FW17" s="22"/>
+      <c r="FX17" s="22"/>
+      <c r="FY17" s="22"/>
+      <c r="FZ17" s="22"/>
+      <c r="GA17" s="22"/>
+      <c r="GB17" s="22"/>
+      <c r="GC17" s="22"/>
+      <c r="GD17" s="22"/>
+      <c r="GE17" s="22"/>
+      <c r="GF17" s="22"/>
+      <c r="GG17" s="22"/>
+      <c r="GH17" s="22"/>
+      <c r="GI17" s="22"/>
+      <c r="GJ17" s="22"/>
+      <c r="GK17" s="22"/>
+      <c r="GL17" s="22"/>
+      <c r="GM17" s="22"/>
+      <c r="GN17" s="22"/>
+      <c r="GO17" s="22"/>
+      <c r="GP17" s="22"/>
+      <c r="GQ17" s="22"/>
+      <c r="GR17" s="22"/>
+      <c r="GS17" s="22"/>
+      <c r="GT17" s="22"/>
+      <c r="GU17" s="22"/>
+      <c r="GV17" s="22"/>
+      <c r="GW17" s="22"/>
+      <c r="GX17" s="22"/>
+      <c r="GY17" s="22"/>
+      <c r="GZ17" s="22"/>
+      <c r="HA17" s="22"/>
+      <c r="HB17" s="22"/>
+      <c r="HC17" s="22"/>
+      <c r="HD17" s="22"/>
+      <c r="HE17" s="22"/>
+      <c r="HF17" s="22"/>
+      <c r="HG17" s="22"/>
+      <c r="HH17" s="22"/>
+      <c r="HI17" s="22"/>
+      <c r="HJ17" s="22"/>
+      <c r="HK17" s="22"/>
+      <c r="HL17" s="22"/>
+      <c r="HM17" s="22"/>
+      <c r="HN17" s="22"/>
+      <c r="HO17" s="22"/>
+      <c r="HP17" s="22"/>
+      <c r="HQ17" s="22"/>
+      <c r="HR17" s="22"/>
+      <c r="HS17" s="22"/>
+      <c r="HT17" s="22"/>
+      <c r="HU17" s="22"/>
+      <c r="HV17" s="22"/>
+      <c r="HW17" s="22"/>
+      <c r="HX17" s="22"/>
+      <c r="HY17" s="22"/>
+      <c r="HZ17" s="22"/>
+      <c r="IA17" s="22"/>
+      <c r="IB17" s="22"/>
+      <c r="IC17" s="22"/>
+      <c r="ID17" s="22"/>
+      <c r="IE17" s="22"/>
+      <c r="IF17" s="22"/>
+      <c r="IG17" s="22"/>
+      <c r="IH17" s="22"/>
+      <c r="II17" s="22"/>
+      <c r="IJ17" s="22"/>
+      <c r="IK17" s="22"/>
+      <c r="IL17" s="22"/>
+      <c r="IM17" s="22"/>
+      <c r="IN17" s="22"/>
       <c r="IO17" s="12"/>
       <c r="IP17" s="12"/>
       <c r="IQ17" s="12"/>
@@ -6996,21 +6999,22 @@
       <c r="IX17" s="12"/>
     </row>
     <row r="18" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="55">
-        <f>DATE(2022,4,3)</f>
-        <v>44654</v>
+      <c r="A18" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="83"/>
+      <c r="C18" s="64" t="str">
+        <f>C19</f>
+        <v>14/12/2021</v>
+      </c>
+      <c r="D18" s="65">
+        <f>D33</f>
+        <v>44742</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11">
         <f t="shared" si="156"/>
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -7055,205 +7059,205 @@
       <c r="AU18" s="12"/>
       <c r="AV18" s="12"/>
       <c r="AW18" s="12"/>
-      <c r="AX18" s="23"/>
-      <c r="AY18" s="23"/>
-      <c r="AZ18" s="23"/>
-      <c r="BA18" s="23"/>
-      <c r="BB18" s="23"/>
-      <c r="BC18" s="23"/>
-      <c r="BD18" s="23"/>
-      <c r="BE18" s="23"/>
-      <c r="BF18" s="23"/>
-      <c r="BG18" s="23"/>
-      <c r="BH18" s="23"/>
-      <c r="BI18" s="23"/>
-      <c r="BJ18" s="23"/>
-      <c r="BK18" s="23"/>
-      <c r="BL18" s="23"/>
-      <c r="BM18" s="23"/>
-      <c r="BN18" s="23"/>
-      <c r="BO18" s="23"/>
-      <c r="BP18" s="23"/>
-      <c r="BQ18" s="23"/>
-      <c r="BR18" s="23"/>
-      <c r="BS18" s="23"/>
-      <c r="BT18" s="23"/>
-      <c r="BU18" s="23"/>
-      <c r="BV18" s="23"/>
-      <c r="BW18" s="23"/>
-      <c r="BX18" s="23"/>
-      <c r="BY18" s="23"/>
-      <c r="BZ18" s="23"/>
-      <c r="CA18" s="23"/>
-      <c r="CB18" s="23"/>
-      <c r="CC18" s="23"/>
-      <c r="CD18" s="23"/>
-      <c r="CE18" s="23"/>
-      <c r="CF18" s="23"/>
-      <c r="CG18" s="23"/>
-      <c r="CH18" s="23"/>
-      <c r="CI18" s="23"/>
-      <c r="CJ18" s="23"/>
-      <c r="CK18" s="23"/>
-      <c r="CL18" s="23"/>
-      <c r="CM18" s="23"/>
-      <c r="CN18" s="23"/>
-      <c r="CO18" s="23"/>
-      <c r="CP18" s="23"/>
-      <c r="CQ18" s="23"/>
-      <c r="CR18" s="23"/>
-      <c r="CS18" s="23"/>
-      <c r="CT18" s="23"/>
-      <c r="CU18" s="23"/>
-      <c r="CV18" s="23"/>
-      <c r="CW18" s="23"/>
-      <c r="CX18" s="23"/>
-      <c r="CY18" s="23"/>
-      <c r="CZ18" s="23"/>
-      <c r="DA18" s="23"/>
-      <c r="DB18" s="23"/>
-      <c r="DC18" s="23"/>
-      <c r="DD18" s="23"/>
-      <c r="DE18" s="23"/>
-      <c r="DF18" s="23"/>
-      <c r="DG18" s="23"/>
-      <c r="DH18" s="23"/>
-      <c r="DI18" s="23"/>
-      <c r="DJ18" s="23"/>
-      <c r="DK18" s="23"/>
-      <c r="DL18" s="23"/>
-      <c r="DM18" s="23"/>
-      <c r="DN18" s="23"/>
-      <c r="DO18" s="23"/>
-      <c r="DP18" s="23"/>
-      <c r="DQ18" s="23"/>
-      <c r="DR18" s="23"/>
-      <c r="DS18" s="23"/>
-      <c r="DT18" s="23"/>
-      <c r="DU18" s="23"/>
-      <c r="DV18" s="23"/>
-      <c r="DW18" s="23"/>
-      <c r="DX18" s="23"/>
-      <c r="DY18" s="23"/>
-      <c r="DZ18" s="23"/>
-      <c r="EA18" s="23"/>
-      <c r="EB18" s="23"/>
-      <c r="EC18" s="23"/>
-      <c r="ED18" s="23"/>
-      <c r="EE18" s="23"/>
-      <c r="EF18" s="23"/>
-      <c r="EG18" s="23"/>
-      <c r="EH18" s="23"/>
-      <c r="EI18" s="23"/>
-      <c r="EJ18" s="23"/>
-      <c r="EK18" s="23"/>
-      <c r="EL18" s="23"/>
-      <c r="EM18" s="23"/>
-      <c r="EN18" s="23"/>
-      <c r="EO18" s="23"/>
-      <c r="EP18" s="23"/>
-      <c r="EQ18" s="23"/>
-      <c r="ER18" s="23"/>
-      <c r="ES18" s="23"/>
-      <c r="ET18" s="23"/>
-      <c r="EU18" s="23"/>
-      <c r="EV18" s="23"/>
-      <c r="EW18" s="23"/>
-      <c r="EX18" s="23"/>
-      <c r="EY18" s="23"/>
-      <c r="EZ18" s="23"/>
-      <c r="FA18" s="23"/>
-      <c r="FB18" s="23"/>
-      <c r="FC18" s="23"/>
-      <c r="FD18" s="23"/>
-      <c r="FE18" s="23"/>
-      <c r="FF18" s="23"/>
-      <c r="FG18" s="23"/>
-      <c r="FH18" s="23"/>
-      <c r="FI18" s="23"/>
-      <c r="FJ18" s="23"/>
-      <c r="FK18" s="23"/>
-      <c r="FL18" s="23"/>
-      <c r="FM18" s="23"/>
-      <c r="FN18" s="23"/>
-      <c r="FO18" s="23"/>
-      <c r="FP18" s="23"/>
-      <c r="FQ18" s="23"/>
-      <c r="FR18" s="23"/>
-      <c r="FS18" s="23"/>
-      <c r="FT18" s="23"/>
-      <c r="FU18" s="23"/>
-      <c r="FV18" s="23"/>
-      <c r="FW18" s="23"/>
-      <c r="FX18" s="23"/>
-      <c r="FY18" s="23"/>
-      <c r="FZ18" s="23"/>
-      <c r="GA18" s="23"/>
-      <c r="GB18" s="23"/>
-      <c r="GC18" s="23"/>
-      <c r="GD18" s="23"/>
-      <c r="GE18" s="23"/>
-      <c r="GF18" s="23"/>
-      <c r="GG18" s="23"/>
-      <c r="GH18" s="23"/>
-      <c r="GI18" s="23"/>
-      <c r="GJ18" s="23"/>
-      <c r="GK18" s="23"/>
-      <c r="GL18" s="23"/>
-      <c r="GM18" s="23"/>
-      <c r="GN18" s="23"/>
-      <c r="GO18" s="23"/>
-      <c r="GP18" s="23"/>
-      <c r="GQ18" s="23"/>
-      <c r="GR18" s="23"/>
-      <c r="GS18" s="23"/>
-      <c r="GT18" s="23"/>
-      <c r="GU18" s="23"/>
-      <c r="GV18" s="23"/>
-      <c r="GW18" s="23"/>
-      <c r="GX18" s="23"/>
-      <c r="GY18" s="23"/>
-      <c r="GZ18" s="23"/>
-      <c r="HA18" s="23"/>
-      <c r="HB18" s="23"/>
-      <c r="HC18" s="23"/>
-      <c r="HD18" s="23"/>
-      <c r="HE18" s="23"/>
-      <c r="HF18" s="23"/>
-      <c r="HG18" s="23"/>
-      <c r="HH18" s="23"/>
-      <c r="HI18" s="23"/>
-      <c r="HJ18" s="23"/>
-      <c r="HK18" s="23"/>
-      <c r="HL18" s="23"/>
-      <c r="HM18" s="23"/>
-      <c r="HN18" s="23"/>
-      <c r="HO18" s="23"/>
-      <c r="HP18" s="23"/>
-      <c r="HQ18" s="23"/>
-      <c r="HR18" s="23"/>
-      <c r="HS18" s="23"/>
-      <c r="HT18" s="23"/>
-      <c r="HU18" s="23"/>
-      <c r="HV18" s="23"/>
-      <c r="HW18" s="23"/>
-      <c r="HX18" s="23"/>
-      <c r="HY18" s="23"/>
-      <c r="HZ18" s="23"/>
-      <c r="IA18" s="23"/>
-      <c r="IB18" s="23"/>
-      <c r="IC18" s="23"/>
-      <c r="ID18" s="23"/>
-      <c r="IE18" s="23"/>
-      <c r="IF18" s="23"/>
-      <c r="IG18" s="23"/>
-      <c r="IH18" s="23"/>
-      <c r="II18" s="23"/>
-      <c r="IJ18" s="23"/>
-      <c r="IK18" s="23"/>
-      <c r="IL18" s="23"/>
-      <c r="IM18" s="23"/>
-      <c r="IN18" s="23"/>
+      <c r="AX18" s="27"/>
+      <c r="AY18" s="28"/>
+      <c r="AZ18" s="28"/>
+      <c r="BA18" s="28"/>
+      <c r="BB18" s="28"/>
+      <c r="BC18" s="28"/>
+      <c r="BD18" s="28"/>
+      <c r="BE18" s="28"/>
+      <c r="BF18" s="28"/>
+      <c r="BG18" s="28"/>
+      <c r="BH18" s="28"/>
+      <c r="BI18" s="28"/>
+      <c r="BJ18" s="28"/>
+      <c r="BK18" s="28"/>
+      <c r="BL18" s="28"/>
+      <c r="BM18" s="28"/>
+      <c r="BN18" s="28"/>
+      <c r="BO18" s="28"/>
+      <c r="BP18" s="28"/>
+      <c r="BQ18" s="28"/>
+      <c r="BR18" s="28"/>
+      <c r="BS18" s="28"/>
+      <c r="BT18" s="28"/>
+      <c r="BU18" s="28"/>
+      <c r="BV18" s="28"/>
+      <c r="BW18" s="28"/>
+      <c r="BX18" s="28"/>
+      <c r="BY18" s="28"/>
+      <c r="BZ18" s="28"/>
+      <c r="CA18" s="28"/>
+      <c r="CB18" s="28"/>
+      <c r="CC18" s="28"/>
+      <c r="CD18" s="28"/>
+      <c r="CE18" s="28"/>
+      <c r="CF18" s="28"/>
+      <c r="CG18" s="28"/>
+      <c r="CH18" s="28"/>
+      <c r="CI18" s="28"/>
+      <c r="CJ18" s="28"/>
+      <c r="CK18" s="28"/>
+      <c r="CL18" s="28"/>
+      <c r="CM18" s="28"/>
+      <c r="CN18" s="28"/>
+      <c r="CO18" s="28"/>
+      <c r="CP18" s="28"/>
+      <c r="CQ18" s="28"/>
+      <c r="CR18" s="28"/>
+      <c r="CS18" s="28"/>
+      <c r="CT18" s="28"/>
+      <c r="CU18" s="28"/>
+      <c r="CV18" s="28"/>
+      <c r="CW18" s="28"/>
+      <c r="CX18" s="28"/>
+      <c r="CY18" s="28"/>
+      <c r="CZ18" s="28"/>
+      <c r="DA18" s="28"/>
+      <c r="DB18" s="28"/>
+      <c r="DC18" s="28"/>
+      <c r="DD18" s="28"/>
+      <c r="DE18" s="28"/>
+      <c r="DF18" s="28"/>
+      <c r="DG18" s="28"/>
+      <c r="DH18" s="28"/>
+      <c r="DI18" s="28"/>
+      <c r="DJ18" s="28"/>
+      <c r="DK18" s="28"/>
+      <c r="DL18" s="28"/>
+      <c r="DM18" s="28"/>
+      <c r="DN18" s="28"/>
+      <c r="DO18" s="28"/>
+      <c r="DP18" s="28"/>
+      <c r="DQ18" s="28"/>
+      <c r="DR18" s="28"/>
+      <c r="DS18" s="28"/>
+      <c r="DT18" s="28"/>
+      <c r="DU18" s="28"/>
+      <c r="DV18" s="28"/>
+      <c r="DW18" s="28"/>
+      <c r="DX18" s="28"/>
+      <c r="DY18" s="28"/>
+      <c r="DZ18" s="28"/>
+      <c r="EA18" s="28"/>
+      <c r="EB18" s="28"/>
+      <c r="EC18" s="28"/>
+      <c r="ED18" s="28"/>
+      <c r="EE18" s="28"/>
+      <c r="EF18" s="28"/>
+      <c r="EG18" s="28"/>
+      <c r="EH18" s="28"/>
+      <c r="EI18" s="28"/>
+      <c r="EJ18" s="28"/>
+      <c r="EK18" s="28"/>
+      <c r="EL18" s="28"/>
+      <c r="EM18" s="28"/>
+      <c r="EN18" s="28"/>
+      <c r="EO18" s="28"/>
+      <c r="EP18" s="28"/>
+      <c r="EQ18" s="28"/>
+      <c r="ER18" s="28"/>
+      <c r="ES18" s="28"/>
+      <c r="ET18" s="28"/>
+      <c r="EU18" s="28"/>
+      <c r="EV18" s="28"/>
+      <c r="EW18" s="28"/>
+      <c r="EX18" s="28"/>
+      <c r="EY18" s="28"/>
+      <c r="EZ18" s="28"/>
+      <c r="FA18" s="28"/>
+      <c r="FB18" s="28"/>
+      <c r="FC18" s="28"/>
+      <c r="FD18" s="28"/>
+      <c r="FE18" s="28"/>
+      <c r="FF18" s="28"/>
+      <c r="FG18" s="28"/>
+      <c r="FH18" s="28"/>
+      <c r="FI18" s="28"/>
+      <c r="FJ18" s="28"/>
+      <c r="FK18" s="28"/>
+      <c r="FL18" s="28"/>
+      <c r="FM18" s="28"/>
+      <c r="FN18" s="28"/>
+      <c r="FO18" s="28"/>
+      <c r="FP18" s="28"/>
+      <c r="FQ18" s="28"/>
+      <c r="FR18" s="28"/>
+      <c r="FS18" s="28"/>
+      <c r="FT18" s="28"/>
+      <c r="FU18" s="28"/>
+      <c r="FV18" s="28"/>
+      <c r="FW18" s="28"/>
+      <c r="FX18" s="28"/>
+      <c r="FY18" s="28"/>
+      <c r="FZ18" s="28"/>
+      <c r="GA18" s="28"/>
+      <c r="GB18" s="28"/>
+      <c r="GC18" s="28"/>
+      <c r="GD18" s="28"/>
+      <c r="GE18" s="28"/>
+      <c r="GF18" s="28"/>
+      <c r="GG18" s="28"/>
+      <c r="GH18" s="28"/>
+      <c r="GI18" s="28"/>
+      <c r="GJ18" s="28"/>
+      <c r="GK18" s="28"/>
+      <c r="GL18" s="28"/>
+      <c r="GM18" s="28"/>
+      <c r="GN18" s="28"/>
+      <c r="GO18" s="28"/>
+      <c r="GP18" s="28"/>
+      <c r="GQ18" s="28"/>
+      <c r="GR18" s="28"/>
+      <c r="GS18" s="28"/>
+      <c r="GT18" s="28"/>
+      <c r="GU18" s="28"/>
+      <c r="GV18" s="28"/>
+      <c r="GW18" s="28"/>
+      <c r="GX18" s="28"/>
+      <c r="GY18" s="28"/>
+      <c r="GZ18" s="28"/>
+      <c r="HA18" s="28"/>
+      <c r="HB18" s="28"/>
+      <c r="HC18" s="28"/>
+      <c r="HD18" s="28"/>
+      <c r="HE18" s="28"/>
+      <c r="HF18" s="28"/>
+      <c r="HG18" s="28"/>
+      <c r="HH18" s="28"/>
+      <c r="HI18" s="28"/>
+      <c r="HJ18" s="28"/>
+      <c r="HK18" s="28"/>
+      <c r="HL18" s="28"/>
+      <c r="HM18" s="28"/>
+      <c r="HN18" s="28"/>
+      <c r="HO18" s="28"/>
+      <c r="HP18" s="28"/>
+      <c r="HQ18" s="28"/>
+      <c r="HR18" s="28"/>
+      <c r="HS18" s="28"/>
+      <c r="HT18" s="28"/>
+      <c r="HU18" s="28"/>
+      <c r="HV18" s="28"/>
+      <c r="HW18" s="28"/>
+      <c r="HX18" s="28"/>
+      <c r="HY18" s="28"/>
+      <c r="HZ18" s="28"/>
+      <c r="IA18" s="28"/>
+      <c r="IB18" s="28"/>
+      <c r="IC18" s="28"/>
+      <c r="ID18" s="28"/>
+      <c r="IE18" s="28"/>
+      <c r="IF18" s="28"/>
+      <c r="IG18" s="28"/>
+      <c r="IH18" s="28"/>
+      <c r="II18" s="28"/>
+      <c r="IJ18" s="28"/>
+      <c r="IK18" s="28"/>
+      <c r="IL18" s="28"/>
+      <c r="IM18" s="28"/>
+      <c r="IN18" s="29"/>
       <c r="IO18" s="12"/>
       <c r="IP18" s="12"/>
       <c r="IQ18" s="12"/>
@@ -7266,20 +7270,22 @@
       <c r="IX18" s="12"/>
     </row>
     <row r="19" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57">
-        <f>DATE(2021,12,14)</f>
-        <v>44544</v>
-      </c>
-      <c r="D19" s="57">
-        <f>DATE(2022,2,20)</f>
-        <v>44612</v>
+      <c r="A19" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="91"/>
+      <c r="C19" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="40">
+        <f>DATE(2022,4,3)</f>
+        <v>44654</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="11">
+        <f t="shared" si="156"/>
+        <v>111</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -7323,205 +7329,205 @@
       <c r="AU19" s="12"/>
       <c r="AV19" s="12"/>
       <c r="AW19" s="12"/>
-      <c r="AX19" s="12"/>
-      <c r="AY19" s="12"/>
-      <c r="AZ19" s="12"/>
-      <c r="BA19" s="12"/>
-      <c r="BB19" s="12"/>
-      <c r="BC19" s="12"/>
-      <c r="BD19" s="12"/>
-      <c r="BE19" s="12"/>
-      <c r="BF19" s="12"/>
-      <c r="BG19" s="12"/>
-      <c r="BH19" s="12"/>
-      <c r="BI19" s="12"/>
-      <c r="BJ19" s="12"/>
-      <c r="BK19" s="12"/>
-      <c r="BL19" s="12"/>
-      <c r="BM19" s="12"/>
-      <c r="BN19" s="12"/>
-      <c r="BO19" s="12"/>
-      <c r="BP19" s="12"/>
-      <c r="BQ19" s="12"/>
-      <c r="BR19" s="12"/>
-      <c r="BS19" s="12"/>
-      <c r="BT19" s="12"/>
-      <c r="BU19" s="12"/>
-      <c r="BV19" s="12"/>
-      <c r="BW19" s="12"/>
-      <c r="BX19" s="12"/>
-      <c r="BY19" s="12"/>
-      <c r="BZ19" s="12"/>
-      <c r="CA19" s="12"/>
-      <c r="CB19" s="12"/>
-      <c r="CC19" s="12"/>
-      <c r="CD19" s="12"/>
-      <c r="CE19" s="12"/>
-      <c r="CF19" s="12"/>
-      <c r="CG19" s="12"/>
-      <c r="CH19" s="12"/>
-      <c r="CI19" s="12"/>
-      <c r="CJ19" s="12"/>
-      <c r="CK19" s="12"/>
-      <c r="CL19" s="12"/>
-      <c r="CM19" s="12"/>
-      <c r="CN19" s="12"/>
-      <c r="CO19" s="12"/>
-      <c r="CP19" s="12"/>
-      <c r="CQ19" s="12"/>
-      <c r="CR19" s="12"/>
-      <c r="CS19" s="12"/>
-      <c r="CT19" s="12"/>
-      <c r="CU19" s="12"/>
-      <c r="CV19" s="12"/>
-      <c r="CW19" s="12"/>
-      <c r="CX19" s="12"/>
-      <c r="CY19" s="12"/>
-      <c r="CZ19" s="12"/>
-      <c r="DA19" s="12"/>
-      <c r="DB19" s="12"/>
-      <c r="DC19" s="12"/>
-      <c r="DD19" s="12"/>
-      <c r="DE19" s="12"/>
-      <c r="DF19" s="12"/>
-      <c r="DG19" s="12"/>
-      <c r="DH19" s="12"/>
-      <c r="DI19" s="12"/>
-      <c r="DJ19" s="12"/>
-      <c r="DK19" s="12"/>
-      <c r="DL19" s="12"/>
-      <c r="DM19" s="12"/>
-      <c r="DN19" s="12"/>
-      <c r="DO19" s="12"/>
-      <c r="DP19" s="12"/>
-      <c r="DQ19" s="12"/>
-      <c r="DR19" s="12"/>
-      <c r="DS19" s="12"/>
-      <c r="DT19" s="12"/>
-      <c r="DU19" s="12"/>
-      <c r="DV19" s="12"/>
-      <c r="DW19" s="12"/>
-      <c r="DX19" s="12"/>
-      <c r="DY19" s="12"/>
-      <c r="DZ19" s="12"/>
-      <c r="EA19" s="12"/>
-      <c r="EB19" s="12"/>
-      <c r="EC19" s="12"/>
-      <c r="ED19" s="12"/>
-      <c r="EE19" s="12"/>
-      <c r="EF19" s="12"/>
-      <c r="EG19" s="12"/>
-      <c r="EH19" s="12"/>
-      <c r="EI19" s="12"/>
-      <c r="EJ19" s="12"/>
-      <c r="EK19" s="12"/>
-      <c r="EL19" s="12"/>
-      <c r="EM19" s="12"/>
-      <c r="EN19" s="12"/>
-      <c r="EO19" s="12"/>
-      <c r="EP19" s="12"/>
-      <c r="EQ19" s="12"/>
-      <c r="ER19" s="12"/>
-      <c r="ES19" s="12"/>
-      <c r="ET19" s="12"/>
-      <c r="EU19" s="12"/>
-      <c r="EV19" s="12"/>
-      <c r="EW19" s="12"/>
-      <c r="EX19" s="12"/>
-      <c r="EY19" s="12"/>
-      <c r="EZ19" s="12"/>
-      <c r="FA19" s="12"/>
-      <c r="FB19" s="12"/>
-      <c r="FC19" s="12"/>
-      <c r="FD19" s="12"/>
-      <c r="FE19" s="12"/>
-      <c r="FF19" s="12"/>
-      <c r="FG19" s="12"/>
-      <c r="FH19" s="12"/>
-      <c r="FI19" s="12"/>
-      <c r="FJ19" s="12"/>
-      <c r="FK19" s="12"/>
-      <c r="FL19" s="12"/>
-      <c r="FM19" s="12"/>
-      <c r="FN19" s="12"/>
-      <c r="FO19" s="12"/>
-      <c r="FP19" s="12"/>
-      <c r="FQ19" s="12"/>
-      <c r="FR19" s="12"/>
-      <c r="FS19" s="12"/>
-      <c r="FT19" s="12"/>
-      <c r="FU19" s="12"/>
-      <c r="FV19" s="12"/>
-      <c r="FW19" s="12"/>
-      <c r="FX19" s="12"/>
-      <c r="FY19" s="12"/>
-      <c r="FZ19" s="12"/>
-      <c r="GA19" s="12"/>
-      <c r="GB19" s="12"/>
-      <c r="GC19" s="12"/>
-      <c r="GD19" s="12"/>
-      <c r="GE19" s="12"/>
-      <c r="GF19" s="12"/>
-      <c r="GG19" s="12"/>
-      <c r="GH19" s="12"/>
-      <c r="GI19" s="12"/>
-      <c r="GJ19" s="12"/>
-      <c r="GK19" s="12"/>
-      <c r="GL19" s="12"/>
-      <c r="GM19" s="12"/>
-      <c r="GN19" s="12"/>
-      <c r="GO19" s="12"/>
-      <c r="GP19" s="12"/>
-      <c r="GQ19" s="12"/>
-      <c r="GR19" s="12"/>
-      <c r="GS19" s="12"/>
-      <c r="GT19" s="12"/>
-      <c r="GU19" s="12"/>
-      <c r="GV19" s="12"/>
-      <c r="GW19" s="12"/>
-      <c r="GX19" s="12"/>
-      <c r="GY19" s="12"/>
-      <c r="GZ19" s="12"/>
-      <c r="HA19" s="12"/>
-      <c r="HB19" s="12"/>
-      <c r="HC19" s="12"/>
-      <c r="HD19" s="12"/>
-      <c r="HE19" s="12"/>
-      <c r="HF19" s="12"/>
-      <c r="HG19" s="12"/>
-      <c r="HH19" s="12"/>
-      <c r="HI19" s="12"/>
-      <c r="HJ19" s="12"/>
-      <c r="HK19" s="12"/>
-      <c r="HL19" s="12"/>
-      <c r="HM19" s="12"/>
-      <c r="HN19" s="12"/>
-      <c r="HO19" s="12"/>
-      <c r="HP19" s="12"/>
-      <c r="HQ19" s="12"/>
-      <c r="HR19" s="12"/>
-      <c r="HS19" s="12"/>
-      <c r="HT19" s="12"/>
-      <c r="HU19" s="12"/>
-      <c r="HV19" s="12"/>
-      <c r="HW19" s="12"/>
-      <c r="HX19" s="12"/>
-      <c r="HY19" s="12"/>
-      <c r="HZ19" s="12"/>
-      <c r="IA19" s="12"/>
-      <c r="IB19" s="12"/>
-      <c r="IC19" s="12"/>
-      <c r="ID19" s="12"/>
-      <c r="IE19" s="12"/>
-      <c r="IF19" s="12"/>
-      <c r="IG19" s="12"/>
-      <c r="IH19" s="12"/>
-      <c r="II19" s="12"/>
-      <c r="IJ19" s="12"/>
-      <c r="IK19" s="12"/>
-      <c r="IL19" s="12"/>
-      <c r="IM19" s="12"/>
-      <c r="IN19" s="12"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
+      <c r="BF19" s="23"/>
+      <c r="BG19" s="23"/>
+      <c r="BH19" s="23"/>
+      <c r="BI19" s="23"/>
+      <c r="BJ19" s="23"/>
+      <c r="BK19" s="23"/>
+      <c r="BL19" s="23"/>
+      <c r="BM19" s="23"/>
+      <c r="BN19" s="23"/>
+      <c r="BO19" s="23"/>
+      <c r="BP19" s="23"/>
+      <c r="BQ19" s="23"/>
+      <c r="BR19" s="23"/>
+      <c r="BS19" s="23"/>
+      <c r="BT19" s="23"/>
+      <c r="BU19" s="23"/>
+      <c r="BV19" s="23"/>
+      <c r="BW19" s="23"/>
+      <c r="BX19" s="23"/>
+      <c r="BY19" s="23"/>
+      <c r="BZ19" s="23"/>
+      <c r="CA19" s="23"/>
+      <c r="CB19" s="23"/>
+      <c r="CC19" s="23"/>
+      <c r="CD19" s="23"/>
+      <c r="CE19" s="23"/>
+      <c r="CF19" s="23"/>
+      <c r="CG19" s="23"/>
+      <c r="CH19" s="23"/>
+      <c r="CI19" s="23"/>
+      <c r="CJ19" s="23"/>
+      <c r="CK19" s="23"/>
+      <c r="CL19" s="23"/>
+      <c r="CM19" s="23"/>
+      <c r="CN19" s="23"/>
+      <c r="CO19" s="23"/>
+      <c r="CP19" s="23"/>
+      <c r="CQ19" s="23"/>
+      <c r="CR19" s="23"/>
+      <c r="CS19" s="23"/>
+      <c r="CT19" s="23"/>
+      <c r="CU19" s="23"/>
+      <c r="CV19" s="23"/>
+      <c r="CW19" s="23"/>
+      <c r="CX19" s="23"/>
+      <c r="CY19" s="23"/>
+      <c r="CZ19" s="23"/>
+      <c r="DA19" s="23"/>
+      <c r="DB19" s="23"/>
+      <c r="DC19" s="23"/>
+      <c r="DD19" s="23"/>
+      <c r="DE19" s="23"/>
+      <c r="DF19" s="23"/>
+      <c r="DG19" s="23"/>
+      <c r="DH19" s="23"/>
+      <c r="DI19" s="23"/>
+      <c r="DJ19" s="23"/>
+      <c r="DK19" s="23"/>
+      <c r="DL19" s="23"/>
+      <c r="DM19" s="23"/>
+      <c r="DN19" s="23"/>
+      <c r="DO19" s="23"/>
+      <c r="DP19" s="23"/>
+      <c r="DQ19" s="23"/>
+      <c r="DR19" s="23"/>
+      <c r="DS19" s="23"/>
+      <c r="DT19" s="23"/>
+      <c r="DU19" s="23"/>
+      <c r="DV19" s="23"/>
+      <c r="DW19" s="23"/>
+      <c r="DX19" s="23"/>
+      <c r="DY19" s="23"/>
+      <c r="DZ19" s="23"/>
+      <c r="EA19" s="23"/>
+      <c r="EB19" s="23"/>
+      <c r="EC19" s="23"/>
+      <c r="ED19" s="23"/>
+      <c r="EE19" s="23"/>
+      <c r="EF19" s="23"/>
+      <c r="EG19" s="23"/>
+      <c r="EH19" s="23"/>
+      <c r="EI19" s="23"/>
+      <c r="EJ19" s="23"/>
+      <c r="EK19" s="23"/>
+      <c r="EL19" s="23"/>
+      <c r="EM19" s="23"/>
+      <c r="EN19" s="23"/>
+      <c r="EO19" s="23"/>
+      <c r="EP19" s="23"/>
+      <c r="EQ19" s="23"/>
+      <c r="ER19" s="23"/>
+      <c r="ES19" s="23"/>
+      <c r="ET19" s="23"/>
+      <c r="EU19" s="23"/>
+      <c r="EV19" s="23"/>
+      <c r="EW19" s="23"/>
+      <c r="EX19" s="23"/>
+      <c r="EY19" s="23"/>
+      <c r="EZ19" s="23"/>
+      <c r="FA19" s="23"/>
+      <c r="FB19" s="23"/>
+      <c r="FC19" s="23"/>
+      <c r="FD19" s="23"/>
+      <c r="FE19" s="23"/>
+      <c r="FF19" s="23"/>
+      <c r="FG19" s="23"/>
+      <c r="FH19" s="23"/>
+      <c r="FI19" s="23"/>
+      <c r="FJ19" s="23"/>
+      <c r="FK19" s="23"/>
+      <c r="FL19" s="23"/>
+      <c r="FM19" s="23"/>
+      <c r="FN19" s="23"/>
+      <c r="FO19" s="23"/>
+      <c r="FP19" s="23"/>
+      <c r="FQ19" s="23"/>
+      <c r="FR19" s="23"/>
+      <c r="FS19" s="23"/>
+      <c r="FT19" s="23"/>
+      <c r="FU19" s="23"/>
+      <c r="FV19" s="23"/>
+      <c r="FW19" s="23"/>
+      <c r="FX19" s="23"/>
+      <c r="FY19" s="23"/>
+      <c r="FZ19" s="23"/>
+      <c r="GA19" s="23"/>
+      <c r="GB19" s="23"/>
+      <c r="GC19" s="23"/>
+      <c r="GD19" s="23"/>
+      <c r="GE19" s="23"/>
+      <c r="GF19" s="23"/>
+      <c r="GG19" s="23"/>
+      <c r="GH19" s="23"/>
+      <c r="GI19" s="23"/>
+      <c r="GJ19" s="23"/>
+      <c r="GK19" s="23"/>
+      <c r="GL19" s="23"/>
+      <c r="GM19" s="23"/>
+      <c r="GN19" s="23"/>
+      <c r="GO19" s="23"/>
+      <c r="GP19" s="23"/>
+      <c r="GQ19" s="23"/>
+      <c r="GR19" s="23"/>
+      <c r="GS19" s="23"/>
+      <c r="GT19" s="23"/>
+      <c r="GU19" s="23"/>
+      <c r="GV19" s="23"/>
+      <c r="GW19" s="23"/>
+      <c r="GX19" s="23"/>
+      <c r="GY19" s="23"/>
+      <c r="GZ19" s="23"/>
+      <c r="HA19" s="23"/>
+      <c r="HB19" s="23"/>
+      <c r="HC19" s="23"/>
+      <c r="HD19" s="23"/>
+      <c r="HE19" s="23"/>
+      <c r="HF19" s="23"/>
+      <c r="HG19" s="23"/>
+      <c r="HH19" s="23"/>
+      <c r="HI19" s="23"/>
+      <c r="HJ19" s="23"/>
+      <c r="HK19" s="23"/>
+      <c r="HL19" s="23"/>
+      <c r="HM19" s="23"/>
+      <c r="HN19" s="23"/>
+      <c r="HO19" s="23"/>
+      <c r="HP19" s="23"/>
+      <c r="HQ19" s="23"/>
+      <c r="HR19" s="23"/>
+      <c r="HS19" s="23"/>
+      <c r="HT19" s="23"/>
+      <c r="HU19" s="23"/>
+      <c r="HV19" s="23"/>
+      <c r="HW19" s="23"/>
+      <c r="HX19" s="23"/>
+      <c r="HY19" s="23"/>
+      <c r="HZ19" s="23"/>
+      <c r="IA19" s="23"/>
+      <c r="IB19" s="23"/>
+      <c r="IC19" s="23"/>
+      <c r="ID19" s="23"/>
+      <c r="IE19" s="23"/>
+      <c r="IF19" s="23"/>
+      <c r="IG19" s="23"/>
+      <c r="IH19" s="23"/>
+      <c r="II19" s="23"/>
+      <c r="IJ19" s="23"/>
+      <c r="IK19" s="23"/>
+      <c r="IL19" s="23"/>
+      <c r="IM19" s="23"/>
+      <c r="IN19" s="23"/>
       <c r="IO19" s="12"/>
       <c r="IP19" s="12"/>
       <c r="IQ19" s="12"/>
@@ -7534,17 +7540,17 @@
       <c r="IX19" s="12"/>
     </row>
     <row r="20" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57">
-        <f>DATE(2022,2,21)</f>
-        <v>44613</v>
-      </c>
-      <c r="D20" s="57">
-        <f>DATE(2022,2,28)</f>
-        <v>44620</v>
+      <c r="A20" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42">
+        <f>DATE(2021,12,14)</f>
+        <v>44544</v>
+      </c>
+      <c r="D20" s="42">
+        <f>DATE(2022,2,20)</f>
+        <v>44612</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -7802,23 +7808,20 @@
       <c r="IX20" s="12"/>
     </row>
     <row r="21" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59">
-        <f>DATE(2022,3,1)</f>
-        <v>44621</v>
-      </c>
-      <c r="D21" s="59">
-        <f>DATE(2022,3,2)</f>
-        <v>44622</v>
+      <c r="A21" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
+        <f>DATE(2022,2,21)</f>
+        <v>44613</v>
+      </c>
+      <c r="D21" s="42">
+        <f>DATE(2022,2,28)</f>
+        <v>44620</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="11">
-        <f t="shared" si="156"/>
-        <v>2</v>
-      </c>
+      <c r="F21" s="11"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -8073,20 +8076,23 @@
       <c r="IX21" s="12"/>
     </row>
     <row r="22" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="83" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62">
-        <f>DATE(2022,3,3)</f>
-        <v>44623</v>
-      </c>
-      <c r="D22" s="62">
-        <f>DATE(2022,3,7)</f>
-        <v>44627</v>
+      <c r="A22" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
+        <f>DATE(2022,3,1)</f>
+        <v>44621</v>
+      </c>
+      <c r="D22" s="44">
+        <f>DATE(2022,3,2)</f>
+        <v>44622</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="11">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -8341,17 +8347,17 @@
       <c r="IX22" s="12"/>
     </row>
     <row r="23" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62">
-        <f>DATE(2022,3,8)</f>
-        <v>44628</v>
-      </c>
-      <c r="D23" s="62">
-        <f>DATE(2022,3,21)</f>
-        <v>44641</v>
+      <c r="A23" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46">
+        <f>DATE(2022,3,3)</f>
+        <v>44623</v>
+      </c>
+      <c r="D23" s="46">
+        <f>DATE(2022,3,7)</f>
+        <v>44627</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -8609,17 +8615,17 @@
       <c r="IX23" s="12"/>
     </row>
     <row r="24" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="62">
-        <f>DATE(2022,3,22)</f>
-        <v>44642</v>
-      </c>
-      <c r="D24" s="62">
-        <f>DATE(2022,3,28)</f>
-        <v>44648</v>
+      <c r="A24" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46">
+        <f>DATE(2022,3,8)</f>
+        <v>44628</v>
+      </c>
+      <c r="D24" s="46">
+        <f>DATE(2022,3,21)</f>
+        <v>44641</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -8877,17 +8883,17 @@
       <c r="IX24" s="12"/>
     </row>
     <row r="25" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62">
-        <f>DATE(2022,3,29)</f>
-        <v>44649</v>
-      </c>
-      <c r="D25" s="62">
-        <f>DATE(2022,4,8)</f>
-        <v>44659</v>
+      <c r="A25" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46">
+        <f>DATE(2022,3,22)</f>
+        <v>44642</v>
+      </c>
+      <c r="D25" s="46">
+        <f>DATE(2022,3,28)</f>
+        <v>44648</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -9145,15 +9151,17 @@
       <c r="IX25" s="12"/>
     </row>
     <row r="26" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>41</v>
+      <c r="A26" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46">
+        <f>DATE(2022,3,29)</f>
+        <v>44649</v>
+      </c>
+      <c r="D26" s="46">
+        <f>DATE(2022,4,8)</f>
+        <v>44659</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -9411,17 +9419,15 @@
       <c r="IX26" s="12"/>
     </row>
     <row r="27" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="62">
-        <f>DATE(2022,4,25)</f>
-        <v>44676</v>
-      </c>
-      <c r="D27" s="62">
-        <f>DATE(2022,5,2)</f>
-        <v>44683</v>
+      <c r="A27" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>41</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -9679,17 +9685,17 @@
       <c r="IX27" s="12"/>
     </row>
     <row r="28" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="62">
-        <f>DATE(2022,5,3)</f>
-        <v>44684</v>
-      </c>
-      <c r="D28" s="62">
-        <f>DATE(2022,5,9)</f>
-        <v>44690</v>
+      <c r="A28" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46">
+        <f>DATE(2022,4,25)</f>
+        <v>44676</v>
+      </c>
+      <c r="D28" s="46">
+        <f>DATE(2022,5,2)</f>
+        <v>44683</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -9947,17 +9953,17 @@
       <c r="IX28" s="12"/>
     </row>
     <row r="29" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62">
-        <f>DATE(2022,5,10)</f>
-        <v>44691</v>
-      </c>
-      <c r="D29" s="62">
-        <f>DATE(2022,5,23)</f>
-        <v>44704</v>
+      <c r="A29" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46">
+        <f>DATE(2022,5,3)</f>
+        <v>44684</v>
+      </c>
+      <c r="D29" s="46">
+        <f>DATE(2022,5,9)</f>
+        <v>44690</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -10215,10 +10221,18 @@
       <c r="IX29" s="12"/>
     </row>
     <row r="30" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="60"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
+      <c r="A30" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46">
+        <f>DATE(2022,5,10)</f>
+        <v>44691</v>
+      </c>
+      <c r="D30" s="46">
+        <f>DATE(2022,5,23)</f>
+        <v>44704</v>
+      </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
@@ -10475,17 +10489,17 @@
       <c r="IX30" s="12"/>
     </row>
     <row r="31" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="85">
-        <f>DATE(2022,2,21)</f>
-        <v>44613</v>
-      </c>
-      <c r="D31" s="85">
-        <f>DATE(2022,6,30)</f>
-        <v>44742</v>
+      <c r="A31" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46">
+        <f>DATE(2022,5,24)</f>
+        <v>44705</v>
+      </c>
+      <c r="D31" s="46">
+        <f>DATE(2022,6,1)</f>
+        <v>44713</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -10743,21 +10757,12 @@
       <c r="IX31" s="12"/>
     </row>
     <row r="32" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="87" t="s">
-        <v>35</v>
-      </c>
+      <c r="A32" s="59"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="11">
-        <f t="shared" si="156"/>
-        <v>160</v>
-      </c>
+      <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -10771,237 +10776,237 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="30"/>
-      <c r="AI32" s="30"/>
-      <c r="AJ32" s="30"/>
-      <c r="AK32" s="30"/>
-      <c r="AL32" s="30"/>
-      <c r="AM32" s="30"/>
-      <c r="AN32" s="30"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="30"/>
-      <c r="AQ32" s="30"/>
-      <c r="AR32" s="30"/>
-      <c r="AS32" s="30"/>
-      <c r="AT32" s="30"/>
-      <c r="AU32" s="30"/>
-      <c r="AV32" s="30"/>
-      <c r="AW32" s="30"/>
-      <c r="AX32" s="30"/>
-      <c r="AY32" s="30"/>
-      <c r="AZ32" s="30"/>
-      <c r="BA32" s="30"/>
-      <c r="BB32" s="30"/>
-      <c r="BC32" s="30"/>
-      <c r="BD32" s="30"/>
-      <c r="BE32" s="30"/>
-      <c r="BF32" s="30"/>
-      <c r="BG32" s="30"/>
-      <c r="BH32" s="30"/>
-      <c r="BI32" s="30"/>
-      <c r="BJ32" s="30"/>
-      <c r="BK32" s="30"/>
-      <c r="BL32" s="30"/>
-      <c r="BM32" s="30"/>
-      <c r="BN32" s="30"/>
-      <c r="BO32" s="30"/>
-      <c r="BP32" s="30"/>
-      <c r="BQ32" s="30"/>
-      <c r="BR32" s="30"/>
-      <c r="BS32" s="30"/>
-      <c r="BT32" s="30"/>
-      <c r="BU32" s="30"/>
-      <c r="BV32" s="30"/>
-      <c r="BW32" s="30"/>
-      <c r="BX32" s="30"/>
-      <c r="BY32" s="30"/>
-      <c r="BZ32" s="30"/>
-      <c r="CA32" s="30"/>
-      <c r="CB32" s="30"/>
-      <c r="CC32" s="30"/>
-      <c r="CD32" s="30"/>
-      <c r="CE32" s="30"/>
-      <c r="CF32" s="30"/>
-      <c r="CG32" s="30"/>
-      <c r="CH32" s="30"/>
-      <c r="CI32" s="30"/>
-      <c r="CJ32" s="30"/>
-      <c r="CK32" s="30"/>
-      <c r="CL32" s="30"/>
-      <c r="CM32" s="30"/>
-      <c r="CN32" s="30"/>
-      <c r="CO32" s="30"/>
-      <c r="CP32" s="30"/>
-      <c r="CQ32" s="30"/>
-      <c r="CR32" s="30"/>
-      <c r="CS32" s="30"/>
-      <c r="CT32" s="30"/>
-      <c r="CU32" s="30"/>
-      <c r="CV32" s="30"/>
-      <c r="CW32" s="30"/>
-      <c r="CX32" s="30"/>
-      <c r="CY32" s="30"/>
-      <c r="CZ32" s="30"/>
-      <c r="DA32" s="30"/>
-      <c r="DB32" s="30"/>
-      <c r="DC32" s="30"/>
-      <c r="DD32" s="30"/>
-      <c r="DE32" s="30"/>
-      <c r="DF32" s="30"/>
-      <c r="DG32" s="30"/>
-      <c r="DH32" s="30"/>
-      <c r="DI32" s="30"/>
-      <c r="DJ32" s="30"/>
-      <c r="DK32" s="30"/>
-      <c r="DL32" s="30"/>
-      <c r="DM32" s="30"/>
-      <c r="DN32" s="30"/>
-      <c r="DO32" s="30"/>
-      <c r="DP32" s="30"/>
-      <c r="DQ32" s="30"/>
-      <c r="DR32" s="30"/>
-      <c r="DS32" s="30"/>
-      <c r="DT32" s="30"/>
-      <c r="DU32" s="30"/>
-      <c r="DV32" s="30"/>
-      <c r="DW32" s="30"/>
-      <c r="DX32" s="30"/>
-      <c r="DY32" s="30"/>
-      <c r="DZ32" s="30"/>
-      <c r="EA32" s="30"/>
-      <c r="EB32" s="30"/>
-      <c r="EC32" s="30"/>
-      <c r="ED32" s="30"/>
-      <c r="EE32" s="30"/>
-      <c r="EF32" s="30"/>
-      <c r="EG32" s="30"/>
-      <c r="EH32" s="30"/>
-      <c r="EI32" s="30"/>
-      <c r="EJ32" s="30"/>
-      <c r="EK32" s="30"/>
-      <c r="EL32" s="30"/>
-      <c r="EM32" s="30"/>
-      <c r="EN32" s="30"/>
-      <c r="EO32" s="30"/>
-      <c r="EP32" s="30"/>
-      <c r="EQ32" s="30"/>
-      <c r="ER32" s="30"/>
-      <c r="ES32" s="30"/>
-      <c r="ET32" s="30"/>
-      <c r="EU32" s="30"/>
-      <c r="EV32" s="30"/>
-      <c r="EW32" s="30"/>
-      <c r="EX32" s="30"/>
-      <c r="EY32" s="30"/>
-      <c r="EZ32" s="30"/>
-      <c r="FA32" s="30"/>
-      <c r="FB32" s="30"/>
-      <c r="FC32" s="30"/>
-      <c r="FD32" s="30"/>
-      <c r="FE32" s="30"/>
-      <c r="FF32" s="30"/>
-      <c r="FG32" s="30"/>
-      <c r="FH32" s="30"/>
-      <c r="FI32" s="30"/>
-      <c r="FJ32" s="30"/>
-      <c r="FK32" s="30"/>
-      <c r="FL32" s="30"/>
-      <c r="FM32" s="30"/>
-      <c r="FN32" s="30"/>
-      <c r="FO32" s="30"/>
-      <c r="FP32" s="30"/>
-      <c r="FQ32" s="30"/>
-      <c r="FR32" s="30"/>
-      <c r="FS32" s="30"/>
-      <c r="FT32" s="30"/>
-      <c r="FU32" s="30"/>
-      <c r="FV32" s="30"/>
-      <c r="FW32" s="30"/>
-      <c r="FX32" s="30"/>
-      <c r="FY32" s="30"/>
-      <c r="FZ32" s="30"/>
-      <c r="GA32" s="30"/>
-      <c r="GB32" s="30"/>
-      <c r="GC32" s="30"/>
-      <c r="GD32" s="30"/>
-      <c r="GE32" s="30"/>
-      <c r="GF32" s="30"/>
-      <c r="GG32" s="30"/>
-      <c r="GH32" s="30"/>
-      <c r="GI32" s="30"/>
-      <c r="GJ32" s="30"/>
-      <c r="GK32" s="30"/>
-      <c r="GL32" s="30"/>
-      <c r="GM32" s="30"/>
-      <c r="GN32" s="30"/>
-      <c r="GO32" s="30"/>
-      <c r="GP32" s="30"/>
-      <c r="GQ32" s="30"/>
-      <c r="GR32" s="30"/>
-      <c r="GS32" s="30"/>
-      <c r="GT32" s="30"/>
-      <c r="GU32" s="30"/>
-      <c r="GV32" s="30"/>
-      <c r="GW32" s="30"/>
-      <c r="GX32" s="30"/>
-      <c r="GY32" s="30"/>
-      <c r="GZ32" s="30"/>
-      <c r="HA32" s="30"/>
-      <c r="HB32" s="30"/>
-      <c r="HC32" s="30"/>
-      <c r="HD32" s="30"/>
-      <c r="HE32" s="30"/>
-      <c r="HF32" s="30"/>
-      <c r="HG32" s="30"/>
-      <c r="HH32" s="30"/>
-      <c r="HI32" s="30"/>
-      <c r="HJ32" s="30"/>
-      <c r="HK32" s="30"/>
-      <c r="HL32" s="30"/>
-      <c r="HM32" s="30"/>
-      <c r="HN32" s="30"/>
-      <c r="HO32" s="30"/>
-      <c r="HP32" s="30"/>
-      <c r="HQ32" s="30"/>
-      <c r="HR32" s="30"/>
-      <c r="HS32" s="30"/>
-      <c r="HT32" s="30"/>
-      <c r="HU32" s="30"/>
-      <c r="HV32" s="30"/>
-      <c r="HW32" s="30"/>
-      <c r="HX32" s="30"/>
-      <c r="HY32" s="30"/>
-      <c r="HZ32" s="30"/>
-      <c r="IA32" s="30"/>
-      <c r="IB32" s="30"/>
-      <c r="IC32" s="30"/>
-      <c r="ID32" s="30"/>
-      <c r="IE32" s="30"/>
-      <c r="IF32" s="30"/>
-      <c r="IG32" s="30"/>
-      <c r="IH32" s="30"/>
-      <c r="II32" s="30"/>
-      <c r="IJ32" s="30"/>
-      <c r="IK32" s="30"/>
-      <c r="IL32" s="30"/>
-      <c r="IM32" s="30"/>
-      <c r="IN32" s="30"/>
-      <c r="IO32" s="30"/>
-      <c r="IP32" s="21"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12"/>
+      <c r="BG32" s="12"/>
+      <c r="BH32" s="12"/>
+      <c r="BI32" s="12"/>
+      <c r="BJ32" s="12"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+      <c r="BP32" s="12"/>
+      <c r="BQ32" s="12"/>
+      <c r="BR32" s="12"/>
+      <c r="BS32" s="12"/>
+      <c r="BT32" s="12"/>
+      <c r="BU32" s="12"/>
+      <c r="BV32" s="12"/>
+      <c r="BW32" s="12"/>
+      <c r="BX32" s="12"/>
+      <c r="BY32" s="12"/>
+      <c r="BZ32" s="12"/>
+      <c r="CA32" s="12"/>
+      <c r="CB32" s="12"/>
+      <c r="CC32" s="12"/>
+      <c r="CD32" s="12"/>
+      <c r="CE32" s="12"/>
+      <c r="CF32" s="12"/>
+      <c r="CG32" s="12"/>
+      <c r="CH32" s="12"/>
+      <c r="CI32" s="12"/>
+      <c r="CJ32" s="12"/>
+      <c r="CK32" s="12"/>
+      <c r="CL32" s="12"/>
+      <c r="CM32" s="12"/>
+      <c r="CN32" s="12"/>
+      <c r="CO32" s="12"/>
+      <c r="CP32" s="12"/>
+      <c r="CQ32" s="12"/>
+      <c r="CR32" s="12"/>
+      <c r="CS32" s="12"/>
+      <c r="CT32" s="12"/>
+      <c r="CU32" s="12"/>
+      <c r="CV32" s="12"/>
+      <c r="CW32" s="12"/>
+      <c r="CX32" s="12"/>
+      <c r="CY32" s="12"/>
+      <c r="CZ32" s="12"/>
+      <c r="DA32" s="12"/>
+      <c r="DB32" s="12"/>
+      <c r="DC32" s="12"/>
+      <c r="DD32" s="12"/>
+      <c r="DE32" s="12"/>
+      <c r="DF32" s="12"/>
+      <c r="DG32" s="12"/>
+      <c r="DH32" s="12"/>
+      <c r="DI32" s="12"/>
+      <c r="DJ32" s="12"/>
+      <c r="DK32" s="12"/>
+      <c r="DL32" s="12"/>
+      <c r="DM32" s="12"/>
+      <c r="DN32" s="12"/>
+      <c r="DO32" s="12"/>
+      <c r="DP32" s="12"/>
+      <c r="DQ32" s="12"/>
+      <c r="DR32" s="12"/>
+      <c r="DS32" s="12"/>
+      <c r="DT32" s="12"/>
+      <c r="DU32" s="12"/>
+      <c r="DV32" s="12"/>
+      <c r="DW32" s="12"/>
+      <c r="DX32" s="12"/>
+      <c r="DY32" s="12"/>
+      <c r="DZ32" s="12"/>
+      <c r="EA32" s="12"/>
+      <c r="EB32" s="12"/>
+      <c r="EC32" s="12"/>
+      <c r="ED32" s="12"/>
+      <c r="EE32" s="12"/>
+      <c r="EF32" s="12"/>
+      <c r="EG32" s="12"/>
+      <c r="EH32" s="12"/>
+      <c r="EI32" s="12"/>
+      <c r="EJ32" s="12"/>
+      <c r="EK32" s="12"/>
+      <c r="EL32" s="12"/>
+      <c r="EM32" s="12"/>
+      <c r="EN32" s="12"/>
+      <c r="EO32" s="12"/>
+      <c r="EP32" s="12"/>
+      <c r="EQ32" s="12"/>
+      <c r="ER32" s="12"/>
+      <c r="ES32" s="12"/>
+      <c r="ET32" s="12"/>
+      <c r="EU32" s="12"/>
+      <c r="EV32" s="12"/>
+      <c r="EW32" s="12"/>
+      <c r="EX32" s="12"/>
+      <c r="EY32" s="12"/>
+      <c r="EZ32" s="12"/>
+      <c r="FA32" s="12"/>
+      <c r="FB32" s="12"/>
+      <c r="FC32" s="12"/>
+      <c r="FD32" s="12"/>
+      <c r="FE32" s="12"/>
+      <c r="FF32" s="12"/>
+      <c r="FG32" s="12"/>
+      <c r="FH32" s="12"/>
+      <c r="FI32" s="12"/>
+      <c r="FJ32" s="12"/>
+      <c r="FK32" s="12"/>
+      <c r="FL32" s="12"/>
+      <c r="FM32" s="12"/>
+      <c r="FN32" s="12"/>
+      <c r="FO32" s="12"/>
+      <c r="FP32" s="12"/>
+      <c r="FQ32" s="12"/>
+      <c r="FR32" s="12"/>
+      <c r="FS32" s="12"/>
+      <c r="FT32" s="12"/>
+      <c r="FU32" s="12"/>
+      <c r="FV32" s="12"/>
+      <c r="FW32" s="12"/>
+      <c r="FX32" s="12"/>
+      <c r="FY32" s="12"/>
+      <c r="FZ32" s="12"/>
+      <c r="GA32" s="12"/>
+      <c r="GB32" s="12"/>
+      <c r="GC32" s="12"/>
+      <c r="GD32" s="12"/>
+      <c r="GE32" s="12"/>
+      <c r="GF32" s="12"/>
+      <c r="GG32" s="12"/>
+      <c r="GH32" s="12"/>
+      <c r="GI32" s="12"/>
+      <c r="GJ32" s="12"/>
+      <c r="GK32" s="12"/>
+      <c r="GL32" s="12"/>
+      <c r="GM32" s="12"/>
+      <c r="GN32" s="12"/>
+      <c r="GO32" s="12"/>
+      <c r="GP32" s="12"/>
+      <c r="GQ32" s="12"/>
+      <c r="GR32" s="12"/>
+      <c r="GS32" s="12"/>
+      <c r="GT32" s="12"/>
+      <c r="GU32" s="12"/>
+      <c r="GV32" s="12"/>
+      <c r="GW32" s="12"/>
+      <c r="GX32" s="12"/>
+      <c r="GY32" s="12"/>
+      <c r="GZ32" s="12"/>
+      <c r="HA32" s="12"/>
+      <c r="HB32" s="12"/>
+      <c r="HC32" s="12"/>
+      <c r="HD32" s="12"/>
+      <c r="HE32" s="12"/>
+      <c r="HF32" s="12"/>
+      <c r="HG32" s="12"/>
+      <c r="HH32" s="12"/>
+      <c r="HI32" s="12"/>
+      <c r="HJ32" s="12"/>
+      <c r="HK32" s="12"/>
+      <c r="HL32" s="12"/>
+      <c r="HM32" s="12"/>
+      <c r="HN32" s="12"/>
+      <c r="HO32" s="12"/>
+      <c r="HP32" s="12"/>
+      <c r="HQ32" s="12"/>
+      <c r="HR32" s="12"/>
+      <c r="HS32" s="12"/>
+      <c r="HT32" s="12"/>
+      <c r="HU32" s="12"/>
+      <c r="HV32" s="12"/>
+      <c r="HW32" s="12"/>
+      <c r="HX32" s="12"/>
+      <c r="HY32" s="12"/>
+      <c r="HZ32" s="12"/>
+      <c r="IA32" s="12"/>
+      <c r="IB32" s="12"/>
+      <c r="IC32" s="12"/>
+      <c r="ID32" s="12"/>
+      <c r="IE32" s="12"/>
+      <c r="IF32" s="12"/>
+      <c r="IG32" s="12"/>
+      <c r="IH32" s="12"/>
+      <c r="II32" s="12"/>
+      <c r="IJ32" s="12"/>
+      <c r="IK32" s="12"/>
+      <c r="IL32" s="12"/>
+      <c r="IM32" s="12"/>
+      <c r="IN32" s="12"/>
+      <c r="IO32" s="12"/>
+      <c r="IP32" s="12"/>
       <c r="IQ32" s="12"/>
       <c r="IR32" s="12"/>
       <c r="IS32" s="12"/>
@@ -11012,23 +11017,20 @@
       <c r="IX32" s="12"/>
     </row>
     <row r="33" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="79">
-        <f>DATE(2022,1,23)</f>
-        <v>44584</v>
-      </c>
-      <c r="D33" s="79">
-        <f>DATE(2022,2,13)</f>
-        <v>44605</v>
+      <c r="A33" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="61">
+        <f>DATE(2022,2,21)</f>
+        <v>44613</v>
+      </c>
+      <c r="D33" s="61">
+        <f>DATE(2022,6,30)</f>
+        <v>44742</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="11">
-        <f t="shared" si="156"/>
-        <v>22</v>
-      </c>
+      <c r="F33" s="11"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
@@ -11043,235 +11045,235 @@
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
-      <c r="AE33" s="23"/>
-      <c r="AF33" s="23"/>
-      <c r="AG33" s="23"/>
-      <c r="AH33" s="23"/>
-      <c r="AI33" s="23"/>
-      <c r="AJ33" s="23"/>
-      <c r="AK33" s="23"/>
-      <c r="AL33" s="23"/>
-      <c r="AM33" s="23"/>
-      <c r="AN33" s="23"/>
-      <c r="AO33" s="23"/>
-      <c r="AP33" s="23"/>
-      <c r="AQ33" s="23"/>
-      <c r="AR33" s="23"/>
-      <c r="AS33" s="23"/>
-      <c r="AT33" s="23"/>
-      <c r="AU33" s="23"/>
-      <c r="AV33" s="23"/>
-      <c r="AW33" s="23"/>
-      <c r="AX33" s="23"/>
-      <c r="AY33" s="23"/>
-      <c r="AZ33" s="23"/>
-      <c r="BA33" s="23"/>
-      <c r="BB33" s="23"/>
-      <c r="BC33" s="23"/>
-      <c r="BD33" s="23"/>
-      <c r="BE33" s="23"/>
-      <c r="BF33" s="23"/>
-      <c r="BG33" s="23"/>
-      <c r="BH33" s="23"/>
-      <c r="BI33" s="23"/>
-      <c r="BJ33" s="23"/>
-      <c r="BK33" s="23"/>
-      <c r="BL33" s="23"/>
-      <c r="BM33" s="23"/>
-      <c r="BN33" s="23"/>
-      <c r="BO33" s="23"/>
-      <c r="BP33" s="23"/>
-      <c r="BQ33" s="23"/>
-      <c r="BR33" s="23"/>
-      <c r="BS33" s="23"/>
-      <c r="BT33" s="23"/>
-      <c r="BU33" s="23"/>
-      <c r="BV33" s="23"/>
-      <c r="BW33" s="23"/>
-      <c r="BX33" s="23"/>
-      <c r="BY33" s="23"/>
-      <c r="BZ33" s="23"/>
-      <c r="CA33" s="23"/>
-      <c r="CB33" s="23"/>
-      <c r="CC33" s="23"/>
-      <c r="CD33" s="23"/>
-      <c r="CE33" s="23"/>
-      <c r="CF33" s="23"/>
-      <c r="CG33" s="23"/>
-      <c r="CH33" s="23"/>
-      <c r="CI33" s="23"/>
-      <c r="CJ33" s="23"/>
-      <c r="CK33" s="23"/>
-      <c r="CL33" s="23"/>
-      <c r="CM33" s="23"/>
-      <c r="CN33" s="23"/>
-      <c r="CO33" s="23"/>
-      <c r="CP33" s="23"/>
-      <c r="CQ33" s="23"/>
-      <c r="CR33" s="23"/>
-      <c r="CS33" s="23"/>
-      <c r="CT33" s="23"/>
-      <c r="CU33" s="23"/>
-      <c r="CV33" s="23"/>
-      <c r="CW33" s="23"/>
-      <c r="CX33" s="23"/>
-      <c r="CY33" s="23"/>
-      <c r="CZ33" s="23"/>
-      <c r="DA33" s="23"/>
-      <c r="DB33" s="23"/>
-      <c r="DC33" s="23"/>
-      <c r="DD33" s="23"/>
-      <c r="DE33" s="23"/>
-      <c r="DF33" s="23"/>
-      <c r="DG33" s="23"/>
-      <c r="DH33" s="23"/>
-      <c r="DI33" s="23"/>
-      <c r="DJ33" s="23"/>
-      <c r="DK33" s="23"/>
-      <c r="DL33" s="23"/>
-      <c r="DM33" s="23"/>
-      <c r="DN33" s="23"/>
-      <c r="DO33" s="23"/>
-      <c r="DP33" s="23"/>
-      <c r="DQ33" s="23"/>
-      <c r="DR33" s="23"/>
-      <c r="DS33" s="23"/>
-      <c r="DT33" s="23"/>
-      <c r="DU33" s="23"/>
-      <c r="DV33" s="23"/>
-      <c r="DW33" s="23"/>
-      <c r="DX33" s="23"/>
-      <c r="DY33" s="23"/>
-      <c r="DZ33" s="23"/>
-      <c r="EA33" s="23"/>
-      <c r="EB33" s="23"/>
-      <c r="EC33" s="23"/>
-      <c r="ED33" s="23"/>
-      <c r="EE33" s="23"/>
-      <c r="EF33" s="23"/>
-      <c r="EG33" s="23"/>
-      <c r="EH33" s="23"/>
-      <c r="EI33" s="23"/>
-      <c r="EJ33" s="23"/>
-      <c r="EK33" s="23"/>
-      <c r="EL33" s="23"/>
-      <c r="EM33" s="23"/>
-      <c r="EN33" s="23"/>
-      <c r="EO33" s="23"/>
-      <c r="EP33" s="23"/>
-      <c r="EQ33" s="23"/>
-      <c r="ER33" s="23"/>
-      <c r="ES33" s="23"/>
-      <c r="ET33" s="23"/>
-      <c r="EU33" s="23"/>
-      <c r="EV33" s="23"/>
-      <c r="EW33" s="23"/>
-      <c r="EX33" s="23"/>
-      <c r="EY33" s="23"/>
-      <c r="EZ33" s="23"/>
-      <c r="FA33" s="23"/>
-      <c r="FB33" s="23"/>
-      <c r="FC33" s="23"/>
-      <c r="FD33" s="23"/>
-      <c r="FE33" s="23"/>
-      <c r="FF33" s="23"/>
-      <c r="FG33" s="23"/>
-      <c r="FH33" s="23"/>
-      <c r="FI33" s="23"/>
-      <c r="FJ33" s="23"/>
-      <c r="FK33" s="23"/>
-      <c r="FL33" s="23"/>
-      <c r="FM33" s="23"/>
-      <c r="FN33" s="23"/>
-      <c r="FO33" s="23"/>
-      <c r="FP33" s="23"/>
-      <c r="FQ33" s="23"/>
-      <c r="FR33" s="23"/>
-      <c r="FS33" s="23"/>
-      <c r="FT33" s="23"/>
-      <c r="FU33" s="23"/>
-      <c r="FV33" s="23"/>
-      <c r="FW33" s="23"/>
-      <c r="FX33" s="23"/>
-      <c r="FY33" s="23"/>
-      <c r="FZ33" s="23"/>
-      <c r="GA33" s="23"/>
-      <c r="GB33" s="23"/>
-      <c r="GC33" s="23"/>
-      <c r="GD33" s="23"/>
-      <c r="GE33" s="23"/>
-      <c r="GF33" s="23"/>
-      <c r="GG33" s="23"/>
-      <c r="GH33" s="23"/>
-      <c r="GI33" s="23"/>
-      <c r="GJ33" s="23"/>
-      <c r="GK33" s="23"/>
-      <c r="GL33" s="23"/>
-      <c r="GM33" s="23"/>
-      <c r="GN33" s="23"/>
-      <c r="GO33" s="23"/>
-      <c r="GP33" s="23"/>
-      <c r="GQ33" s="23"/>
-      <c r="GR33" s="23"/>
-      <c r="GS33" s="23"/>
-      <c r="GT33" s="23"/>
-      <c r="GU33" s="23"/>
-      <c r="GV33" s="23"/>
-      <c r="GW33" s="23"/>
-      <c r="GX33" s="23"/>
-      <c r="GY33" s="23"/>
-      <c r="GZ33" s="23"/>
-      <c r="HA33" s="23"/>
-      <c r="HB33" s="23"/>
-      <c r="HC33" s="23"/>
-      <c r="HD33" s="23"/>
-      <c r="HE33" s="23"/>
-      <c r="HF33" s="23"/>
-      <c r="HG33" s="23"/>
-      <c r="HH33" s="23"/>
-      <c r="HI33" s="23"/>
-      <c r="HJ33" s="23"/>
-      <c r="HK33" s="23"/>
-      <c r="HL33" s="23"/>
-      <c r="HM33" s="23"/>
-      <c r="HN33" s="23"/>
-      <c r="HO33" s="23"/>
-      <c r="HP33" s="23"/>
-      <c r="HQ33" s="23"/>
-      <c r="HR33" s="23"/>
-      <c r="HS33" s="23"/>
-      <c r="HT33" s="23"/>
-      <c r="HU33" s="23"/>
-      <c r="HV33" s="23"/>
-      <c r="HW33" s="23"/>
-      <c r="HX33" s="23"/>
-      <c r="HY33" s="23"/>
-      <c r="HZ33" s="23"/>
-      <c r="IA33" s="23"/>
-      <c r="IB33" s="23"/>
-      <c r="IC33" s="23"/>
-      <c r="ID33" s="23"/>
-      <c r="IE33" s="23"/>
-      <c r="IF33" s="23"/>
-      <c r="IG33" s="23"/>
-      <c r="IH33" s="23"/>
-      <c r="II33" s="23"/>
-      <c r="IJ33" s="23"/>
-      <c r="IK33" s="23"/>
-      <c r="IL33" s="23"/>
-      <c r="IM33" s="23"/>
-      <c r="IN33" s="23"/>
-      <c r="IO33" s="23"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
+      <c r="AU33" s="12"/>
+      <c r="AV33" s="12"/>
+      <c r="AW33" s="12"/>
+      <c r="AX33" s="12"/>
+      <c r="AY33" s="12"/>
+      <c r="AZ33" s="12"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="12"/>
+      <c r="BC33" s="12"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="12"/>
+      <c r="BF33" s="12"/>
+      <c r="BG33" s="12"/>
+      <c r="BH33" s="12"/>
+      <c r="BI33" s="12"/>
+      <c r="BJ33" s="12"/>
+      <c r="BK33" s="12"/>
+      <c r="BL33" s="12"/>
+      <c r="BM33" s="12"/>
+      <c r="BN33" s="12"/>
+      <c r="BO33" s="12"/>
+      <c r="BP33" s="12"/>
+      <c r="BQ33" s="12"/>
+      <c r="BR33" s="12"/>
+      <c r="BS33" s="12"/>
+      <c r="BT33" s="12"/>
+      <c r="BU33" s="12"/>
+      <c r="BV33" s="12"/>
+      <c r="BW33" s="12"/>
+      <c r="BX33" s="12"/>
+      <c r="BY33" s="12"/>
+      <c r="BZ33" s="12"/>
+      <c r="CA33" s="12"/>
+      <c r="CB33" s="12"/>
+      <c r="CC33" s="12"/>
+      <c r="CD33" s="12"/>
+      <c r="CE33" s="12"/>
+      <c r="CF33" s="12"/>
+      <c r="CG33" s="12"/>
+      <c r="CH33" s="12"/>
+      <c r="CI33" s="12"/>
+      <c r="CJ33" s="12"/>
+      <c r="CK33" s="12"/>
+      <c r="CL33" s="12"/>
+      <c r="CM33" s="12"/>
+      <c r="CN33" s="12"/>
+      <c r="CO33" s="12"/>
+      <c r="CP33" s="12"/>
+      <c r="CQ33" s="12"/>
+      <c r="CR33" s="12"/>
+      <c r="CS33" s="12"/>
+      <c r="CT33" s="12"/>
+      <c r="CU33" s="12"/>
+      <c r="CV33" s="12"/>
+      <c r="CW33" s="12"/>
+      <c r="CX33" s="12"/>
+      <c r="CY33" s="12"/>
+      <c r="CZ33" s="12"/>
+      <c r="DA33" s="12"/>
+      <c r="DB33" s="12"/>
+      <c r="DC33" s="12"/>
+      <c r="DD33" s="12"/>
+      <c r="DE33" s="12"/>
+      <c r="DF33" s="12"/>
+      <c r="DG33" s="12"/>
+      <c r="DH33" s="12"/>
+      <c r="DI33" s="12"/>
+      <c r="DJ33" s="12"/>
+      <c r="DK33" s="12"/>
+      <c r="DL33" s="12"/>
+      <c r="DM33" s="12"/>
+      <c r="DN33" s="12"/>
+      <c r="DO33" s="12"/>
+      <c r="DP33" s="12"/>
+      <c r="DQ33" s="12"/>
+      <c r="DR33" s="12"/>
+      <c r="DS33" s="12"/>
+      <c r="DT33" s="12"/>
+      <c r="DU33" s="12"/>
+      <c r="DV33" s="12"/>
+      <c r="DW33" s="12"/>
+      <c r="DX33" s="12"/>
+      <c r="DY33" s="12"/>
+      <c r="DZ33" s="12"/>
+      <c r="EA33" s="12"/>
+      <c r="EB33" s="12"/>
+      <c r="EC33" s="12"/>
+      <c r="ED33" s="12"/>
+      <c r="EE33" s="12"/>
+      <c r="EF33" s="12"/>
+      <c r="EG33" s="12"/>
+      <c r="EH33" s="12"/>
+      <c r="EI33" s="12"/>
+      <c r="EJ33" s="12"/>
+      <c r="EK33" s="12"/>
+      <c r="EL33" s="12"/>
+      <c r="EM33" s="12"/>
+      <c r="EN33" s="12"/>
+      <c r="EO33" s="12"/>
+      <c r="EP33" s="12"/>
+      <c r="EQ33" s="12"/>
+      <c r="ER33" s="12"/>
+      <c r="ES33" s="12"/>
+      <c r="ET33" s="12"/>
+      <c r="EU33" s="12"/>
+      <c r="EV33" s="12"/>
+      <c r="EW33" s="12"/>
+      <c r="EX33" s="12"/>
+      <c r="EY33" s="12"/>
+      <c r="EZ33" s="12"/>
+      <c r="FA33" s="12"/>
+      <c r="FB33" s="12"/>
+      <c r="FC33" s="12"/>
+      <c r="FD33" s="12"/>
+      <c r="FE33" s="12"/>
+      <c r="FF33" s="12"/>
+      <c r="FG33" s="12"/>
+      <c r="FH33" s="12"/>
+      <c r="FI33" s="12"/>
+      <c r="FJ33" s="12"/>
+      <c r="FK33" s="12"/>
+      <c r="FL33" s="12"/>
+      <c r="FM33" s="12"/>
+      <c r="FN33" s="12"/>
+      <c r="FO33" s="12"/>
+      <c r="FP33" s="12"/>
+      <c r="FQ33" s="12"/>
+      <c r="FR33" s="12"/>
+      <c r="FS33" s="12"/>
+      <c r="FT33" s="12"/>
+      <c r="FU33" s="12"/>
+      <c r="FV33" s="12"/>
+      <c r="FW33" s="12"/>
+      <c r="FX33" s="12"/>
+      <c r="FY33" s="12"/>
+      <c r="FZ33" s="12"/>
+      <c r="GA33" s="12"/>
+      <c r="GB33" s="12"/>
+      <c r="GC33" s="12"/>
+      <c r="GD33" s="12"/>
+      <c r="GE33" s="12"/>
+      <c r="GF33" s="12"/>
+      <c r="GG33" s="12"/>
+      <c r="GH33" s="12"/>
+      <c r="GI33" s="12"/>
+      <c r="GJ33" s="12"/>
+      <c r="GK33" s="12"/>
+      <c r="GL33" s="12"/>
+      <c r="GM33" s="12"/>
+      <c r="GN33" s="12"/>
+      <c r="GO33" s="12"/>
+      <c r="GP33" s="12"/>
+      <c r="GQ33" s="12"/>
+      <c r="GR33" s="12"/>
+      <c r="GS33" s="12"/>
+      <c r="GT33" s="12"/>
+      <c r="GU33" s="12"/>
+      <c r="GV33" s="12"/>
+      <c r="GW33" s="12"/>
+      <c r="GX33" s="12"/>
+      <c r="GY33" s="12"/>
+      <c r="GZ33" s="12"/>
+      <c r="HA33" s="12"/>
+      <c r="HB33" s="12"/>
+      <c r="HC33" s="12"/>
+      <c r="HD33" s="12"/>
+      <c r="HE33" s="12"/>
+      <c r="HF33" s="12"/>
+      <c r="HG33" s="12"/>
+      <c r="HH33" s="12"/>
+      <c r="HI33" s="12"/>
+      <c r="HJ33" s="12"/>
+      <c r="HK33" s="12"/>
+      <c r="HL33" s="12"/>
+      <c r="HM33" s="12"/>
+      <c r="HN33" s="12"/>
+      <c r="HO33" s="12"/>
+      <c r="HP33" s="12"/>
+      <c r="HQ33" s="12"/>
+      <c r="HR33" s="12"/>
+      <c r="HS33" s="12"/>
+      <c r="HT33" s="12"/>
+      <c r="HU33" s="12"/>
+      <c r="HV33" s="12"/>
+      <c r="HW33" s="12"/>
+      <c r="HX33" s="12"/>
+      <c r="HY33" s="12"/>
+      <c r="HZ33" s="12"/>
+      <c r="IA33" s="12"/>
+      <c r="IB33" s="12"/>
+      <c r="IC33" s="12"/>
+      <c r="ID33" s="12"/>
+      <c r="IE33" s="12"/>
+      <c r="IF33" s="12"/>
+      <c r="IG33" s="12"/>
+      <c r="IH33" s="12"/>
+      <c r="II33" s="12"/>
+      <c r="IJ33" s="12"/>
+      <c r="IK33" s="12"/>
+      <c r="IL33" s="12"/>
+      <c r="IM33" s="12"/>
+      <c r="IN33" s="12"/>
+      <c r="IO33" s="12"/>
       <c r="IP33" s="12"/>
       <c r="IQ33" s="12"/>
       <c r="IR33" s="12"/>
@@ -11283,22 +11285,20 @@
       <c r="IX33" s="12"/>
     </row>
     <row r="34" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="80">
-        <f>DATE(2021,11,15)</f>
-        <v>44515</v>
-      </c>
-      <c r="D34" s="80">
-        <f>DATE(2022,1,31)</f>
-        <v>44592</v>
+      <c r="A34" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="94"/>
+      <c r="C34" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>35</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11">
         <f t="shared" si="156"/>
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -11313,237 +11313,237 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="12"/>
-      <c r="AO34" s="12"/>
-      <c r="AP34" s="12"/>
-      <c r="AQ34" s="12"/>
-      <c r="AR34" s="12"/>
-      <c r="AS34" s="12"/>
-      <c r="AT34" s="12"/>
-      <c r="AU34" s="12"/>
-      <c r="AV34" s="12"/>
-      <c r="AW34" s="12"/>
-      <c r="AX34" s="12"/>
-      <c r="AY34" s="12"/>
-      <c r="AZ34" s="12"/>
-      <c r="BA34" s="12"/>
-      <c r="BB34" s="12"/>
-      <c r="BC34" s="12"/>
-      <c r="BD34" s="12"/>
-      <c r="BE34" s="12"/>
-      <c r="BF34" s="12"/>
-      <c r="BG34" s="12"/>
-      <c r="BH34" s="12"/>
-      <c r="BI34" s="12"/>
-      <c r="BJ34" s="12"/>
-      <c r="BK34" s="12"/>
-      <c r="BL34" s="12"/>
-      <c r="BM34" s="12"/>
-      <c r="BN34" s="12"/>
-      <c r="BO34" s="12"/>
-      <c r="BP34" s="12"/>
-      <c r="BQ34" s="12"/>
-      <c r="BR34" s="12"/>
-      <c r="BS34" s="12"/>
-      <c r="BT34" s="12"/>
-      <c r="BU34" s="12"/>
-      <c r="BV34" s="12"/>
-      <c r="BW34" s="12"/>
-      <c r="BX34" s="12"/>
-      <c r="BY34" s="12"/>
-      <c r="BZ34" s="12"/>
-      <c r="CA34" s="12"/>
-      <c r="CB34" s="12"/>
-      <c r="CC34" s="12"/>
-      <c r="CD34" s="12"/>
-      <c r="CE34" s="12"/>
-      <c r="CF34" s="12"/>
-      <c r="CG34" s="12"/>
-      <c r="CH34" s="12"/>
-      <c r="CI34" s="12"/>
-      <c r="CJ34" s="12"/>
-      <c r="CK34" s="12"/>
-      <c r="CL34" s="12"/>
-      <c r="CM34" s="12"/>
-      <c r="CN34" s="12"/>
-      <c r="CO34" s="12"/>
-      <c r="CP34" s="12"/>
-      <c r="CQ34" s="12"/>
-      <c r="CR34" s="12"/>
-      <c r="CS34" s="12"/>
-      <c r="CT34" s="12"/>
-      <c r="CU34" s="12"/>
-      <c r="CV34" s="12"/>
-      <c r="CW34" s="12"/>
-      <c r="CX34" s="12"/>
-      <c r="CY34" s="12"/>
-      <c r="CZ34" s="12"/>
-      <c r="DA34" s="12"/>
-      <c r="DB34" s="12"/>
-      <c r="DC34" s="12"/>
-      <c r="DD34" s="12"/>
-      <c r="DE34" s="12"/>
-      <c r="DF34" s="12"/>
-      <c r="DG34" s="12"/>
-      <c r="DH34" s="12"/>
-      <c r="DI34" s="12"/>
-      <c r="DJ34" s="12"/>
-      <c r="DK34" s="12"/>
-      <c r="DL34" s="12"/>
-      <c r="DM34" s="12"/>
-      <c r="DN34" s="12"/>
-      <c r="DO34" s="12"/>
-      <c r="DP34" s="12"/>
-      <c r="DQ34" s="12"/>
-      <c r="DR34" s="12"/>
-      <c r="DS34" s="12"/>
-      <c r="DT34" s="12"/>
-      <c r="DU34" s="12"/>
-      <c r="DV34" s="12"/>
-      <c r="DW34" s="12"/>
-      <c r="DX34" s="12"/>
-      <c r="DY34" s="12"/>
-      <c r="DZ34" s="12"/>
-      <c r="EA34" s="12"/>
-      <c r="EB34" s="12"/>
-      <c r="EC34" s="12"/>
-      <c r="ED34" s="12"/>
-      <c r="EE34" s="12"/>
-      <c r="EF34" s="12"/>
-      <c r="EG34" s="12"/>
-      <c r="EH34" s="12"/>
-      <c r="EI34" s="12"/>
-      <c r="EJ34" s="12"/>
-      <c r="EK34" s="12"/>
-      <c r="EL34" s="12"/>
-      <c r="EM34" s="12"/>
-      <c r="EN34" s="12"/>
-      <c r="EO34" s="12"/>
-      <c r="EP34" s="12"/>
-      <c r="EQ34" s="12"/>
-      <c r="ER34" s="12"/>
-      <c r="ES34" s="12"/>
-      <c r="ET34" s="12"/>
-      <c r="EU34" s="12"/>
-      <c r="EV34" s="12"/>
-      <c r="EW34" s="12"/>
-      <c r="EX34" s="12"/>
-      <c r="EY34" s="12"/>
-      <c r="EZ34" s="12"/>
-      <c r="FA34" s="12"/>
-      <c r="FB34" s="12"/>
-      <c r="FC34" s="12"/>
-      <c r="FD34" s="12"/>
-      <c r="FE34" s="12"/>
-      <c r="FF34" s="12"/>
-      <c r="FG34" s="12"/>
-      <c r="FH34" s="12"/>
-      <c r="FI34" s="12"/>
-      <c r="FJ34" s="12"/>
-      <c r="FK34" s="12"/>
-      <c r="FL34" s="12"/>
-      <c r="FM34" s="12"/>
-      <c r="FN34" s="12"/>
-      <c r="FO34" s="12"/>
-      <c r="FP34" s="12"/>
-      <c r="FQ34" s="12"/>
-      <c r="FR34" s="12"/>
-      <c r="FS34" s="12"/>
-      <c r="FT34" s="12"/>
-      <c r="FU34" s="12"/>
-      <c r="FV34" s="12"/>
-      <c r="FW34" s="12"/>
-      <c r="FX34" s="12"/>
-      <c r="FY34" s="12"/>
-      <c r="FZ34" s="12"/>
-      <c r="GA34" s="12"/>
-      <c r="GB34" s="12"/>
-      <c r="GC34" s="12"/>
-      <c r="GD34" s="12"/>
-      <c r="GE34" s="12"/>
-      <c r="GF34" s="12"/>
-      <c r="GG34" s="12"/>
-      <c r="GH34" s="12"/>
-      <c r="GI34" s="12"/>
-      <c r="GJ34" s="12"/>
-      <c r="GK34" s="12"/>
-      <c r="GL34" s="12"/>
-      <c r="GM34" s="12"/>
-      <c r="GN34" s="12"/>
-      <c r="GO34" s="12"/>
-      <c r="GP34" s="12"/>
-      <c r="GQ34" s="12"/>
-      <c r="GR34" s="12"/>
-      <c r="GS34" s="12"/>
-      <c r="GT34" s="12"/>
-      <c r="GU34" s="12"/>
-      <c r="GV34" s="12"/>
-      <c r="GW34" s="12"/>
-      <c r="GX34" s="12"/>
-      <c r="GY34" s="12"/>
-      <c r="GZ34" s="12"/>
-      <c r="HA34" s="12"/>
-      <c r="HB34" s="12"/>
-      <c r="HC34" s="12"/>
-      <c r="HD34" s="12"/>
-      <c r="HE34" s="12"/>
-      <c r="HF34" s="12"/>
-      <c r="HG34" s="12"/>
-      <c r="HH34" s="12"/>
-      <c r="HI34" s="12"/>
-      <c r="HJ34" s="12"/>
-      <c r="HK34" s="12"/>
-      <c r="HL34" s="12"/>
-      <c r="HM34" s="12"/>
-      <c r="HN34" s="12"/>
-      <c r="HO34" s="12"/>
-      <c r="HP34" s="12"/>
-      <c r="HQ34" s="12"/>
-      <c r="HR34" s="12"/>
-      <c r="HS34" s="12"/>
-      <c r="HT34" s="12"/>
-      <c r="HU34" s="12"/>
-      <c r="HV34" s="12"/>
-      <c r="HW34" s="12"/>
-      <c r="HX34" s="12"/>
-      <c r="HY34" s="12"/>
-      <c r="HZ34" s="12"/>
-      <c r="IA34" s="12"/>
-      <c r="IB34" s="12"/>
-      <c r="IC34" s="12"/>
-      <c r="ID34" s="12"/>
-      <c r="IE34" s="12"/>
-      <c r="IF34" s="12"/>
-      <c r="IG34" s="12"/>
-      <c r="IH34" s="12"/>
-      <c r="II34" s="12"/>
-      <c r="IJ34" s="12"/>
-      <c r="IK34" s="12"/>
-      <c r="IL34" s="12"/>
-      <c r="IM34" s="12"/>
-      <c r="IN34" s="12"/>
-      <c r="IO34" s="12"/>
-      <c r="IP34" s="12"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="30"/>
+      <c r="AM34" s="30"/>
+      <c r="AN34" s="30"/>
+      <c r="AO34" s="30"/>
+      <c r="AP34" s="30"/>
+      <c r="AQ34" s="30"/>
+      <c r="AR34" s="30"/>
+      <c r="AS34" s="30"/>
+      <c r="AT34" s="30"/>
+      <c r="AU34" s="30"/>
+      <c r="AV34" s="30"/>
+      <c r="AW34" s="30"/>
+      <c r="AX34" s="30"/>
+      <c r="AY34" s="30"/>
+      <c r="AZ34" s="30"/>
+      <c r="BA34" s="30"/>
+      <c r="BB34" s="30"/>
+      <c r="BC34" s="30"/>
+      <c r="BD34" s="30"/>
+      <c r="BE34" s="30"/>
+      <c r="BF34" s="30"/>
+      <c r="BG34" s="30"/>
+      <c r="BH34" s="30"/>
+      <c r="BI34" s="30"/>
+      <c r="BJ34" s="30"/>
+      <c r="BK34" s="30"/>
+      <c r="BL34" s="30"/>
+      <c r="BM34" s="30"/>
+      <c r="BN34" s="30"/>
+      <c r="BO34" s="30"/>
+      <c r="BP34" s="30"/>
+      <c r="BQ34" s="30"/>
+      <c r="BR34" s="30"/>
+      <c r="BS34" s="30"/>
+      <c r="BT34" s="30"/>
+      <c r="BU34" s="30"/>
+      <c r="BV34" s="30"/>
+      <c r="BW34" s="30"/>
+      <c r="BX34" s="30"/>
+      <c r="BY34" s="30"/>
+      <c r="BZ34" s="30"/>
+      <c r="CA34" s="30"/>
+      <c r="CB34" s="30"/>
+      <c r="CC34" s="30"/>
+      <c r="CD34" s="30"/>
+      <c r="CE34" s="30"/>
+      <c r="CF34" s="30"/>
+      <c r="CG34" s="30"/>
+      <c r="CH34" s="30"/>
+      <c r="CI34" s="30"/>
+      <c r="CJ34" s="30"/>
+      <c r="CK34" s="30"/>
+      <c r="CL34" s="30"/>
+      <c r="CM34" s="30"/>
+      <c r="CN34" s="30"/>
+      <c r="CO34" s="30"/>
+      <c r="CP34" s="30"/>
+      <c r="CQ34" s="30"/>
+      <c r="CR34" s="30"/>
+      <c r="CS34" s="30"/>
+      <c r="CT34" s="30"/>
+      <c r="CU34" s="30"/>
+      <c r="CV34" s="30"/>
+      <c r="CW34" s="30"/>
+      <c r="CX34" s="30"/>
+      <c r="CY34" s="30"/>
+      <c r="CZ34" s="30"/>
+      <c r="DA34" s="30"/>
+      <c r="DB34" s="30"/>
+      <c r="DC34" s="30"/>
+      <c r="DD34" s="30"/>
+      <c r="DE34" s="30"/>
+      <c r="DF34" s="30"/>
+      <c r="DG34" s="30"/>
+      <c r="DH34" s="30"/>
+      <c r="DI34" s="30"/>
+      <c r="DJ34" s="30"/>
+      <c r="DK34" s="30"/>
+      <c r="DL34" s="30"/>
+      <c r="DM34" s="30"/>
+      <c r="DN34" s="30"/>
+      <c r="DO34" s="30"/>
+      <c r="DP34" s="30"/>
+      <c r="DQ34" s="30"/>
+      <c r="DR34" s="30"/>
+      <c r="DS34" s="30"/>
+      <c r="DT34" s="30"/>
+      <c r="DU34" s="30"/>
+      <c r="DV34" s="30"/>
+      <c r="DW34" s="30"/>
+      <c r="DX34" s="30"/>
+      <c r="DY34" s="30"/>
+      <c r="DZ34" s="30"/>
+      <c r="EA34" s="30"/>
+      <c r="EB34" s="30"/>
+      <c r="EC34" s="30"/>
+      <c r="ED34" s="30"/>
+      <c r="EE34" s="30"/>
+      <c r="EF34" s="30"/>
+      <c r="EG34" s="30"/>
+      <c r="EH34" s="30"/>
+      <c r="EI34" s="30"/>
+      <c r="EJ34" s="30"/>
+      <c r="EK34" s="30"/>
+      <c r="EL34" s="30"/>
+      <c r="EM34" s="30"/>
+      <c r="EN34" s="30"/>
+      <c r="EO34" s="30"/>
+      <c r="EP34" s="30"/>
+      <c r="EQ34" s="30"/>
+      <c r="ER34" s="30"/>
+      <c r="ES34" s="30"/>
+      <c r="ET34" s="30"/>
+      <c r="EU34" s="30"/>
+      <c r="EV34" s="30"/>
+      <c r="EW34" s="30"/>
+      <c r="EX34" s="30"/>
+      <c r="EY34" s="30"/>
+      <c r="EZ34" s="30"/>
+      <c r="FA34" s="30"/>
+      <c r="FB34" s="30"/>
+      <c r="FC34" s="30"/>
+      <c r="FD34" s="30"/>
+      <c r="FE34" s="30"/>
+      <c r="FF34" s="30"/>
+      <c r="FG34" s="30"/>
+      <c r="FH34" s="30"/>
+      <c r="FI34" s="30"/>
+      <c r="FJ34" s="30"/>
+      <c r="FK34" s="30"/>
+      <c r="FL34" s="30"/>
+      <c r="FM34" s="30"/>
+      <c r="FN34" s="30"/>
+      <c r="FO34" s="30"/>
+      <c r="FP34" s="30"/>
+      <c r="FQ34" s="30"/>
+      <c r="FR34" s="30"/>
+      <c r="FS34" s="30"/>
+      <c r="FT34" s="30"/>
+      <c r="FU34" s="30"/>
+      <c r="FV34" s="30"/>
+      <c r="FW34" s="30"/>
+      <c r="FX34" s="30"/>
+      <c r="FY34" s="30"/>
+      <c r="FZ34" s="30"/>
+      <c r="GA34" s="30"/>
+      <c r="GB34" s="30"/>
+      <c r="GC34" s="30"/>
+      <c r="GD34" s="30"/>
+      <c r="GE34" s="30"/>
+      <c r="GF34" s="30"/>
+      <c r="GG34" s="30"/>
+      <c r="GH34" s="30"/>
+      <c r="GI34" s="30"/>
+      <c r="GJ34" s="30"/>
+      <c r="GK34" s="30"/>
+      <c r="GL34" s="30"/>
+      <c r="GM34" s="30"/>
+      <c r="GN34" s="30"/>
+      <c r="GO34" s="30"/>
+      <c r="GP34" s="30"/>
+      <c r="GQ34" s="30"/>
+      <c r="GR34" s="30"/>
+      <c r="GS34" s="30"/>
+      <c r="GT34" s="30"/>
+      <c r="GU34" s="30"/>
+      <c r="GV34" s="30"/>
+      <c r="GW34" s="30"/>
+      <c r="GX34" s="30"/>
+      <c r="GY34" s="30"/>
+      <c r="GZ34" s="30"/>
+      <c r="HA34" s="30"/>
+      <c r="HB34" s="30"/>
+      <c r="HC34" s="30"/>
+      <c r="HD34" s="30"/>
+      <c r="HE34" s="30"/>
+      <c r="HF34" s="30"/>
+      <c r="HG34" s="30"/>
+      <c r="HH34" s="30"/>
+      <c r="HI34" s="30"/>
+      <c r="HJ34" s="30"/>
+      <c r="HK34" s="30"/>
+      <c r="HL34" s="30"/>
+      <c r="HM34" s="30"/>
+      <c r="HN34" s="30"/>
+      <c r="HO34" s="30"/>
+      <c r="HP34" s="30"/>
+      <c r="HQ34" s="30"/>
+      <c r="HR34" s="30"/>
+      <c r="HS34" s="30"/>
+      <c r="HT34" s="30"/>
+      <c r="HU34" s="30"/>
+      <c r="HV34" s="30"/>
+      <c r="HW34" s="30"/>
+      <c r="HX34" s="30"/>
+      <c r="HY34" s="30"/>
+      <c r="HZ34" s="30"/>
+      <c r="IA34" s="30"/>
+      <c r="IB34" s="30"/>
+      <c r="IC34" s="30"/>
+      <c r="ID34" s="30"/>
+      <c r="IE34" s="30"/>
+      <c r="IF34" s="30"/>
+      <c r="IG34" s="30"/>
+      <c r="IH34" s="30"/>
+      <c r="II34" s="30"/>
+      <c r="IJ34" s="30"/>
+      <c r="IK34" s="30"/>
+      <c r="IL34" s="30"/>
+      <c r="IM34" s="30"/>
+      <c r="IN34" s="30"/>
+      <c r="IO34" s="30"/>
+      <c r="IP34" s="21"/>
       <c r="IQ34" s="12"/>
       <c r="IR34" s="12"/>
       <c r="IS34" s="12"/>
@@ -11554,22 +11554,22 @@
       <c r="IX34" s="12"/>
     </row>
     <row r="35" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="80">
-        <f>DATE(2022,6,1)</f>
-        <v>44713</v>
-      </c>
-      <c r="D35" s="80">
-        <f>DATE(2022,6,31)</f>
-        <v>44743</v>
+      <c r="A35" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="95"/>
+      <c r="C35" s="55">
+        <f>DATE(2022,1,23)</f>
+        <v>44584</v>
+      </c>
+      <c r="D35" s="55">
+        <f>DATE(2022,2,13)</f>
+        <v>44605</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11">
         <f t="shared" si="156"/>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -11585,235 +11585,235 @@
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="12"/>
-      <c r="AM35" s="12"/>
-      <c r="AN35" s="12"/>
-      <c r="AO35" s="12"/>
-      <c r="AP35" s="12"/>
-      <c r="AQ35" s="12"/>
-      <c r="AR35" s="12"/>
-      <c r="AS35" s="12"/>
-      <c r="AT35" s="12"/>
-      <c r="AU35" s="12"/>
-      <c r="AV35" s="12"/>
-      <c r="AW35" s="12"/>
-      <c r="AX35" s="12"/>
-      <c r="AY35" s="12"/>
-      <c r="AZ35" s="12"/>
-      <c r="BA35" s="12"/>
-      <c r="BB35" s="12"/>
-      <c r="BC35" s="12"/>
-      <c r="BD35" s="12"/>
-      <c r="BE35" s="12"/>
-      <c r="BF35" s="12"/>
-      <c r="BG35" s="12"/>
-      <c r="BH35" s="12"/>
-      <c r="BI35" s="12"/>
-      <c r="BJ35" s="12"/>
-      <c r="BK35" s="12"/>
-      <c r="BL35" s="12"/>
-      <c r="BM35" s="12"/>
-      <c r="BN35" s="12"/>
-      <c r="BO35" s="12"/>
-      <c r="BP35" s="12"/>
-      <c r="BQ35" s="12"/>
-      <c r="BR35" s="12"/>
-      <c r="BS35" s="12"/>
-      <c r="BT35" s="12"/>
-      <c r="BU35" s="12"/>
-      <c r="BV35" s="12"/>
-      <c r="BW35" s="12"/>
-      <c r="BX35" s="12"/>
-      <c r="BY35" s="12"/>
-      <c r="BZ35" s="12"/>
-      <c r="CA35" s="12"/>
-      <c r="CB35" s="12"/>
-      <c r="CC35" s="12"/>
-      <c r="CD35" s="12"/>
-      <c r="CE35" s="12"/>
-      <c r="CF35" s="12"/>
-      <c r="CG35" s="12"/>
-      <c r="CH35" s="12"/>
-      <c r="CI35" s="12"/>
-      <c r="CJ35" s="12"/>
-      <c r="CK35" s="12"/>
-      <c r="CL35" s="12"/>
-      <c r="CM35" s="12"/>
-      <c r="CN35" s="12"/>
-      <c r="CO35" s="12"/>
-      <c r="CP35" s="12"/>
-      <c r="CQ35" s="12"/>
-      <c r="CR35" s="12"/>
-      <c r="CS35" s="12"/>
-      <c r="CT35" s="12"/>
-      <c r="CU35" s="12"/>
-      <c r="CV35" s="12"/>
-      <c r="CW35" s="12"/>
-      <c r="CX35" s="12"/>
-      <c r="CY35" s="12"/>
-      <c r="CZ35" s="12"/>
-      <c r="DA35" s="12"/>
-      <c r="DB35" s="12"/>
-      <c r="DC35" s="12"/>
-      <c r="DD35" s="12"/>
-      <c r="DE35" s="12"/>
-      <c r="DF35" s="12"/>
-      <c r="DG35" s="12"/>
-      <c r="DH35" s="12"/>
-      <c r="DI35" s="12"/>
-      <c r="DJ35" s="12"/>
-      <c r="DK35" s="12"/>
-      <c r="DL35" s="12"/>
-      <c r="DM35" s="12"/>
-      <c r="DN35" s="12"/>
-      <c r="DO35" s="12"/>
-      <c r="DP35" s="12"/>
-      <c r="DQ35" s="12"/>
-      <c r="DR35" s="12"/>
-      <c r="DS35" s="12"/>
-      <c r="DT35" s="12"/>
-      <c r="DU35" s="12"/>
-      <c r="DV35" s="12"/>
-      <c r="DW35" s="12"/>
-      <c r="DX35" s="12"/>
-      <c r="DY35" s="12"/>
-      <c r="DZ35" s="12"/>
-      <c r="EA35" s="12"/>
-      <c r="EB35" s="12"/>
-      <c r="EC35" s="12"/>
-      <c r="ED35" s="12"/>
-      <c r="EE35" s="12"/>
-      <c r="EF35" s="12"/>
-      <c r="EG35" s="12"/>
-      <c r="EH35" s="12"/>
-      <c r="EI35" s="12"/>
-      <c r="EJ35" s="12"/>
-      <c r="EK35" s="12"/>
-      <c r="EL35" s="12"/>
-      <c r="EM35" s="12"/>
-      <c r="EN35" s="12"/>
-      <c r="EO35" s="12"/>
-      <c r="EP35" s="12"/>
-      <c r="EQ35" s="12"/>
-      <c r="ER35" s="12"/>
-      <c r="ES35" s="12"/>
-      <c r="ET35" s="12"/>
-      <c r="EU35" s="12"/>
-      <c r="EV35" s="12"/>
-      <c r="EW35" s="12"/>
-      <c r="EX35" s="12"/>
-      <c r="EY35" s="12"/>
-      <c r="EZ35" s="12"/>
-      <c r="FA35" s="12"/>
-      <c r="FB35" s="12"/>
-      <c r="FC35" s="12"/>
-      <c r="FD35" s="12"/>
-      <c r="FE35" s="12"/>
-      <c r="FF35" s="12"/>
-      <c r="FG35" s="12"/>
-      <c r="FH35" s="12"/>
-      <c r="FI35" s="12"/>
-      <c r="FJ35" s="12"/>
-      <c r="FK35" s="12"/>
-      <c r="FL35" s="12"/>
-      <c r="FM35" s="12"/>
-      <c r="FN35" s="12"/>
-      <c r="FO35" s="12"/>
-      <c r="FP35" s="12"/>
-      <c r="FQ35" s="12"/>
-      <c r="FR35" s="12"/>
-      <c r="FS35" s="12"/>
-      <c r="FT35" s="12"/>
-      <c r="FU35" s="12"/>
-      <c r="FV35" s="12"/>
-      <c r="FW35" s="12"/>
-      <c r="FX35" s="12"/>
-      <c r="FY35" s="12"/>
-      <c r="FZ35" s="12"/>
-      <c r="GA35" s="12"/>
-      <c r="GB35" s="12"/>
-      <c r="GC35" s="12"/>
-      <c r="GD35" s="12"/>
-      <c r="GE35" s="12"/>
-      <c r="GF35" s="12"/>
-      <c r="GG35" s="12"/>
-      <c r="GH35" s="12"/>
-      <c r="GI35" s="12"/>
-      <c r="GJ35" s="12"/>
-      <c r="GK35" s="12"/>
-      <c r="GL35" s="12"/>
-      <c r="GM35" s="12"/>
-      <c r="GN35" s="12"/>
-      <c r="GO35" s="12"/>
-      <c r="GP35" s="12"/>
-      <c r="GQ35" s="12"/>
-      <c r="GR35" s="12"/>
-      <c r="GS35" s="12"/>
-      <c r="GT35" s="12"/>
-      <c r="GU35" s="12"/>
-      <c r="GV35" s="12"/>
-      <c r="GW35" s="12"/>
-      <c r="GX35" s="12"/>
-      <c r="GY35" s="12"/>
-      <c r="GZ35" s="12"/>
-      <c r="HA35" s="12"/>
-      <c r="HB35" s="12"/>
-      <c r="HC35" s="12"/>
-      <c r="HD35" s="12"/>
-      <c r="HE35" s="12"/>
-      <c r="HF35" s="12"/>
-      <c r="HG35" s="12"/>
-      <c r="HH35" s="12"/>
-      <c r="HI35" s="12"/>
-      <c r="HJ35" s="12"/>
-      <c r="HK35" s="12"/>
-      <c r="HL35" s="12"/>
-      <c r="HM35" s="12"/>
-      <c r="HN35" s="12"/>
-      <c r="HO35" s="12"/>
-      <c r="HP35" s="12"/>
-      <c r="HQ35" s="12"/>
-      <c r="HR35" s="12"/>
-      <c r="HS35" s="12"/>
-      <c r="HT35" s="12"/>
-      <c r="HU35" s="12"/>
-      <c r="HV35" s="12"/>
-      <c r="HW35" s="12"/>
-      <c r="HX35" s="12"/>
-      <c r="HY35" s="12"/>
-      <c r="HZ35" s="12"/>
-      <c r="IA35" s="12"/>
-      <c r="IB35" s="12"/>
-      <c r="IC35" s="12"/>
-      <c r="ID35" s="12"/>
-      <c r="IE35" s="12"/>
-      <c r="IF35" s="12"/>
-      <c r="IG35" s="12"/>
-      <c r="IH35" s="12"/>
-      <c r="II35" s="12"/>
-      <c r="IJ35" s="12"/>
-      <c r="IK35" s="12"/>
-      <c r="IL35" s="12"/>
-      <c r="IM35" s="12"/>
-      <c r="IN35" s="12"/>
-      <c r="IO35" s="12"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="23"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="23"/>
+      <c r="AN35" s="23"/>
+      <c r="AO35" s="23"/>
+      <c r="AP35" s="23"/>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="23"/>
+      <c r="AS35" s="23"/>
+      <c r="AT35" s="23"/>
+      <c r="AU35" s="23"/>
+      <c r="AV35" s="23"/>
+      <c r="AW35" s="23"/>
+      <c r="AX35" s="23"/>
+      <c r="AY35" s="23"/>
+      <c r="AZ35" s="23"/>
+      <c r="BA35" s="23"/>
+      <c r="BB35" s="23"/>
+      <c r="BC35" s="23"/>
+      <c r="BD35" s="23"/>
+      <c r="BE35" s="23"/>
+      <c r="BF35" s="23"/>
+      <c r="BG35" s="23"/>
+      <c r="BH35" s="23"/>
+      <c r="BI35" s="23"/>
+      <c r="BJ35" s="23"/>
+      <c r="BK35" s="23"/>
+      <c r="BL35" s="23"/>
+      <c r="BM35" s="23"/>
+      <c r="BN35" s="23"/>
+      <c r="BO35" s="23"/>
+      <c r="BP35" s="23"/>
+      <c r="BQ35" s="23"/>
+      <c r="BR35" s="23"/>
+      <c r="BS35" s="23"/>
+      <c r="BT35" s="23"/>
+      <c r="BU35" s="23"/>
+      <c r="BV35" s="23"/>
+      <c r="BW35" s="23"/>
+      <c r="BX35" s="23"/>
+      <c r="BY35" s="23"/>
+      <c r="BZ35" s="23"/>
+      <c r="CA35" s="23"/>
+      <c r="CB35" s="23"/>
+      <c r="CC35" s="23"/>
+      <c r="CD35" s="23"/>
+      <c r="CE35" s="23"/>
+      <c r="CF35" s="23"/>
+      <c r="CG35" s="23"/>
+      <c r="CH35" s="23"/>
+      <c r="CI35" s="23"/>
+      <c r="CJ35" s="23"/>
+      <c r="CK35" s="23"/>
+      <c r="CL35" s="23"/>
+      <c r="CM35" s="23"/>
+      <c r="CN35" s="23"/>
+      <c r="CO35" s="23"/>
+      <c r="CP35" s="23"/>
+      <c r="CQ35" s="23"/>
+      <c r="CR35" s="23"/>
+      <c r="CS35" s="23"/>
+      <c r="CT35" s="23"/>
+      <c r="CU35" s="23"/>
+      <c r="CV35" s="23"/>
+      <c r="CW35" s="23"/>
+      <c r="CX35" s="23"/>
+      <c r="CY35" s="23"/>
+      <c r="CZ35" s="23"/>
+      <c r="DA35" s="23"/>
+      <c r="DB35" s="23"/>
+      <c r="DC35" s="23"/>
+      <c r="DD35" s="23"/>
+      <c r="DE35" s="23"/>
+      <c r="DF35" s="23"/>
+      <c r="DG35" s="23"/>
+      <c r="DH35" s="23"/>
+      <c r="DI35" s="23"/>
+      <c r="DJ35" s="23"/>
+      <c r="DK35" s="23"/>
+      <c r="DL35" s="23"/>
+      <c r="DM35" s="23"/>
+      <c r="DN35" s="23"/>
+      <c r="DO35" s="23"/>
+      <c r="DP35" s="23"/>
+      <c r="DQ35" s="23"/>
+      <c r="DR35" s="23"/>
+      <c r="DS35" s="23"/>
+      <c r="DT35" s="23"/>
+      <c r="DU35" s="23"/>
+      <c r="DV35" s="23"/>
+      <c r="DW35" s="23"/>
+      <c r="DX35" s="23"/>
+      <c r="DY35" s="23"/>
+      <c r="DZ35" s="23"/>
+      <c r="EA35" s="23"/>
+      <c r="EB35" s="23"/>
+      <c r="EC35" s="23"/>
+      <c r="ED35" s="23"/>
+      <c r="EE35" s="23"/>
+      <c r="EF35" s="23"/>
+      <c r="EG35" s="23"/>
+      <c r="EH35" s="23"/>
+      <c r="EI35" s="23"/>
+      <c r="EJ35" s="23"/>
+      <c r="EK35" s="23"/>
+      <c r="EL35" s="23"/>
+      <c r="EM35" s="23"/>
+      <c r="EN35" s="23"/>
+      <c r="EO35" s="23"/>
+      <c r="EP35" s="23"/>
+      <c r="EQ35" s="23"/>
+      <c r="ER35" s="23"/>
+      <c r="ES35" s="23"/>
+      <c r="ET35" s="23"/>
+      <c r="EU35" s="23"/>
+      <c r="EV35" s="23"/>
+      <c r="EW35" s="23"/>
+      <c r="EX35" s="23"/>
+      <c r="EY35" s="23"/>
+      <c r="EZ35" s="23"/>
+      <c r="FA35" s="23"/>
+      <c r="FB35" s="23"/>
+      <c r="FC35" s="23"/>
+      <c r="FD35" s="23"/>
+      <c r="FE35" s="23"/>
+      <c r="FF35" s="23"/>
+      <c r="FG35" s="23"/>
+      <c r="FH35" s="23"/>
+      <c r="FI35" s="23"/>
+      <c r="FJ35" s="23"/>
+      <c r="FK35" s="23"/>
+      <c r="FL35" s="23"/>
+      <c r="FM35" s="23"/>
+      <c r="FN35" s="23"/>
+      <c r="FO35" s="23"/>
+      <c r="FP35" s="23"/>
+      <c r="FQ35" s="23"/>
+      <c r="FR35" s="23"/>
+      <c r="FS35" s="23"/>
+      <c r="FT35" s="23"/>
+      <c r="FU35" s="23"/>
+      <c r="FV35" s="23"/>
+      <c r="FW35" s="23"/>
+      <c r="FX35" s="23"/>
+      <c r="FY35" s="23"/>
+      <c r="FZ35" s="23"/>
+      <c r="GA35" s="23"/>
+      <c r="GB35" s="23"/>
+      <c r="GC35" s="23"/>
+      <c r="GD35" s="23"/>
+      <c r="GE35" s="23"/>
+      <c r="GF35" s="23"/>
+      <c r="GG35" s="23"/>
+      <c r="GH35" s="23"/>
+      <c r="GI35" s="23"/>
+      <c r="GJ35" s="23"/>
+      <c r="GK35" s="23"/>
+      <c r="GL35" s="23"/>
+      <c r="GM35" s="23"/>
+      <c r="GN35" s="23"/>
+      <c r="GO35" s="23"/>
+      <c r="GP35" s="23"/>
+      <c r="GQ35" s="23"/>
+      <c r="GR35" s="23"/>
+      <c r="GS35" s="23"/>
+      <c r="GT35" s="23"/>
+      <c r="GU35" s="23"/>
+      <c r="GV35" s="23"/>
+      <c r="GW35" s="23"/>
+      <c r="GX35" s="23"/>
+      <c r="GY35" s="23"/>
+      <c r="GZ35" s="23"/>
+      <c r="HA35" s="23"/>
+      <c r="HB35" s="23"/>
+      <c r="HC35" s="23"/>
+      <c r="HD35" s="23"/>
+      <c r="HE35" s="23"/>
+      <c r="HF35" s="23"/>
+      <c r="HG35" s="23"/>
+      <c r="HH35" s="23"/>
+      <c r="HI35" s="23"/>
+      <c r="HJ35" s="23"/>
+      <c r="HK35" s="23"/>
+      <c r="HL35" s="23"/>
+      <c r="HM35" s="23"/>
+      <c r="HN35" s="23"/>
+      <c r="HO35" s="23"/>
+      <c r="HP35" s="23"/>
+      <c r="HQ35" s="23"/>
+      <c r="HR35" s="23"/>
+      <c r="HS35" s="23"/>
+      <c r="HT35" s="23"/>
+      <c r="HU35" s="23"/>
+      <c r="HV35" s="23"/>
+      <c r="HW35" s="23"/>
+      <c r="HX35" s="23"/>
+      <c r="HY35" s="23"/>
+      <c r="HZ35" s="23"/>
+      <c r="IA35" s="23"/>
+      <c r="IB35" s="23"/>
+      <c r="IC35" s="23"/>
+      <c r="ID35" s="23"/>
+      <c r="IE35" s="23"/>
+      <c r="IF35" s="23"/>
+      <c r="IG35" s="23"/>
+      <c r="IH35" s="23"/>
+      <c r="II35" s="23"/>
+      <c r="IJ35" s="23"/>
+      <c r="IK35" s="23"/>
+      <c r="IL35" s="23"/>
+      <c r="IM35" s="23"/>
+      <c r="IN35" s="23"/>
+      <c r="IO35" s="23"/>
       <c r="IP35" s="12"/>
       <c r="IQ35" s="12"/>
       <c r="IR35" s="12"/>
@@ -11825,14 +11825,22 @@
       <c r="IX35" s="12"/>
     </row>
     <row r="36" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="89"/>
+      <c r="C36" s="56">
+        <f>DATE(2021,11,15)</f>
+        <v>44515</v>
+      </c>
+      <c r="D36" s="56">
+        <f>DATE(2022,1,31)</f>
+        <v>44592</v>
+      </c>
       <c r="E36" s="11"/>
-      <c r="F36" s="11" t="str">
+      <c r="F36" s="11">
         <f t="shared" si="156"/>
-        <v/>
+        <v>78</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -12087,28 +12095,572 @@
       <c r="IW36" s="12"/>
       <c r="IX36" s="12"/>
     </row>
-    <row r="37" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="4"/>
+    <row r="37" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="89"/>
+      <c r="C37" s="56">
+        <f>DATE(2022,6,1)</f>
+        <v>44713</v>
+      </c>
+      <c r="D37" s="56">
+        <f>DATE(2022,6,31)</f>
+        <v>44743</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11">
+        <f t="shared" si="156"/>
+        <v>31</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+      <c r="BC37" s="12"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
+      <c r="BF37" s="12"/>
+      <c r="BG37" s="12"/>
+      <c r="BH37" s="12"/>
+      <c r="BI37" s="12"/>
+      <c r="BJ37" s="12"/>
+      <c r="BK37" s="12"/>
+      <c r="BL37" s="12"/>
+      <c r="BM37" s="12"/>
+      <c r="BN37" s="12"/>
+      <c r="BO37" s="12"/>
+      <c r="BP37" s="12"/>
+      <c r="BQ37" s="12"/>
+      <c r="BR37" s="12"/>
+      <c r="BS37" s="12"/>
+      <c r="BT37" s="12"/>
+      <c r="BU37" s="12"/>
+      <c r="BV37" s="12"/>
+      <c r="BW37" s="12"/>
+      <c r="BX37" s="12"/>
+      <c r="BY37" s="12"/>
+      <c r="BZ37" s="12"/>
+      <c r="CA37" s="12"/>
+      <c r="CB37" s="12"/>
+      <c r="CC37" s="12"/>
+      <c r="CD37" s="12"/>
+      <c r="CE37" s="12"/>
+      <c r="CF37" s="12"/>
+      <c r="CG37" s="12"/>
+      <c r="CH37" s="12"/>
+      <c r="CI37" s="12"/>
+      <c r="CJ37" s="12"/>
+      <c r="CK37" s="12"/>
+      <c r="CL37" s="12"/>
+      <c r="CM37" s="12"/>
+      <c r="CN37" s="12"/>
+      <c r="CO37" s="12"/>
+      <c r="CP37" s="12"/>
+      <c r="CQ37" s="12"/>
+      <c r="CR37" s="12"/>
+      <c r="CS37" s="12"/>
+      <c r="CT37" s="12"/>
+      <c r="CU37" s="12"/>
+      <c r="CV37" s="12"/>
+      <c r="CW37" s="12"/>
+      <c r="CX37" s="12"/>
+      <c r="CY37" s="12"/>
+      <c r="CZ37" s="12"/>
+      <c r="DA37" s="12"/>
+      <c r="DB37" s="12"/>
+      <c r="DC37" s="12"/>
+      <c r="DD37" s="12"/>
+      <c r="DE37" s="12"/>
+      <c r="DF37" s="12"/>
+      <c r="DG37" s="12"/>
+      <c r="DH37" s="12"/>
+      <c r="DI37" s="12"/>
+      <c r="DJ37" s="12"/>
+      <c r="DK37" s="12"/>
+      <c r="DL37" s="12"/>
+      <c r="DM37" s="12"/>
+      <c r="DN37" s="12"/>
+      <c r="DO37" s="12"/>
+      <c r="DP37" s="12"/>
+      <c r="DQ37" s="12"/>
+      <c r="DR37" s="12"/>
+      <c r="DS37" s="12"/>
+      <c r="DT37" s="12"/>
+      <c r="DU37" s="12"/>
+      <c r="DV37" s="12"/>
+      <c r="DW37" s="12"/>
+      <c r="DX37" s="12"/>
+      <c r="DY37" s="12"/>
+      <c r="DZ37" s="12"/>
+      <c r="EA37" s="12"/>
+      <c r="EB37" s="12"/>
+      <c r="EC37" s="12"/>
+      <c r="ED37" s="12"/>
+      <c r="EE37" s="12"/>
+      <c r="EF37" s="12"/>
+      <c r="EG37" s="12"/>
+      <c r="EH37" s="12"/>
+      <c r="EI37" s="12"/>
+      <c r="EJ37" s="12"/>
+      <c r="EK37" s="12"/>
+      <c r="EL37" s="12"/>
+      <c r="EM37" s="12"/>
+      <c r="EN37" s="12"/>
+      <c r="EO37" s="12"/>
+      <c r="EP37" s="12"/>
+      <c r="EQ37" s="12"/>
+      <c r="ER37" s="12"/>
+      <c r="ES37" s="12"/>
+      <c r="ET37" s="12"/>
+      <c r="EU37" s="12"/>
+      <c r="EV37" s="12"/>
+      <c r="EW37" s="12"/>
+      <c r="EX37" s="12"/>
+      <c r="EY37" s="12"/>
+      <c r="EZ37" s="12"/>
+      <c r="FA37" s="12"/>
+      <c r="FB37" s="12"/>
+      <c r="FC37" s="12"/>
+      <c r="FD37" s="12"/>
+      <c r="FE37" s="12"/>
+      <c r="FF37" s="12"/>
+      <c r="FG37" s="12"/>
+      <c r="FH37" s="12"/>
+      <c r="FI37" s="12"/>
+      <c r="FJ37" s="12"/>
+      <c r="FK37" s="12"/>
+      <c r="FL37" s="12"/>
+      <c r="FM37" s="12"/>
+      <c r="FN37" s="12"/>
+      <c r="FO37" s="12"/>
+      <c r="FP37" s="12"/>
+      <c r="FQ37" s="12"/>
+      <c r="FR37" s="12"/>
+      <c r="FS37" s="12"/>
+      <c r="FT37" s="12"/>
+      <c r="FU37" s="12"/>
+      <c r="FV37" s="12"/>
+      <c r="FW37" s="12"/>
+      <c r="FX37" s="12"/>
+      <c r="FY37" s="12"/>
+      <c r="FZ37" s="12"/>
+      <c r="GA37" s="12"/>
+      <c r="GB37" s="12"/>
+      <c r="GC37" s="12"/>
+      <c r="GD37" s="12"/>
+      <c r="GE37" s="12"/>
+      <c r="GF37" s="12"/>
+      <c r="GG37" s="12"/>
+      <c r="GH37" s="12"/>
+      <c r="GI37" s="12"/>
+      <c r="GJ37" s="12"/>
+      <c r="GK37" s="12"/>
+      <c r="GL37" s="12"/>
+      <c r="GM37" s="12"/>
+      <c r="GN37" s="12"/>
+      <c r="GO37" s="12"/>
+      <c r="GP37" s="12"/>
+      <c r="GQ37" s="12"/>
+      <c r="GR37" s="12"/>
+      <c r="GS37" s="12"/>
+      <c r="GT37" s="12"/>
+      <c r="GU37" s="12"/>
+      <c r="GV37" s="12"/>
+      <c r="GW37" s="12"/>
+      <c r="GX37" s="12"/>
+      <c r="GY37" s="12"/>
+      <c r="GZ37" s="12"/>
+      <c r="HA37" s="12"/>
+      <c r="HB37" s="12"/>
+      <c r="HC37" s="12"/>
+      <c r="HD37" s="12"/>
+      <c r="HE37" s="12"/>
+      <c r="HF37" s="12"/>
+      <c r="HG37" s="12"/>
+      <c r="HH37" s="12"/>
+      <c r="HI37" s="12"/>
+      <c r="HJ37" s="12"/>
+      <c r="HK37" s="12"/>
+      <c r="HL37" s="12"/>
+      <c r="HM37" s="12"/>
+      <c r="HN37" s="12"/>
+      <c r="HO37" s="12"/>
+      <c r="HP37" s="12"/>
+      <c r="HQ37" s="12"/>
+      <c r="HR37" s="12"/>
+      <c r="HS37" s="12"/>
+      <c r="HT37" s="12"/>
+      <c r="HU37" s="12"/>
+      <c r="HV37" s="12"/>
+      <c r="HW37" s="12"/>
+      <c r="HX37" s="12"/>
+      <c r="HY37" s="12"/>
+      <c r="HZ37" s="12"/>
+      <c r="IA37" s="12"/>
+      <c r="IB37" s="12"/>
+      <c r="IC37" s="12"/>
+      <c r="ID37" s="12"/>
+      <c r="IE37" s="12"/>
+      <c r="IF37" s="12"/>
+      <c r="IG37" s="12"/>
+      <c r="IH37" s="12"/>
+      <c r="II37" s="12"/>
+      <c r="IJ37" s="12"/>
+      <c r="IK37" s="12"/>
+      <c r="IL37" s="12"/>
+      <c r="IM37" s="12"/>
+      <c r="IN37" s="12"/>
+      <c r="IO37" s="12"/>
+      <c r="IP37" s="12"/>
+      <c r="IQ37" s="12"/>
+      <c r="IR37" s="12"/>
+      <c r="IS37" s="12"/>
+      <c r="IT37" s="12"/>
+      <c r="IU37" s="12"/>
+      <c r="IV37" s="12"/>
+      <c r="IW37" s="12"/>
+      <c r="IX37" s="12"/>
     </row>
-    <row r="38" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="14"/>
+    <row r="38" spans="1:258" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11" t="str">
+        <f t="shared" si="156"/>
+        <v/>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
+      <c r="AI38" s="12"/>
+      <c r="AJ38" s="12"/>
+      <c r="AK38" s="12"/>
+      <c r="AL38" s="12"/>
+      <c r="AM38" s="12"/>
+      <c r="AN38" s="12"/>
+      <c r="AO38" s="12"/>
+      <c r="AP38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+      <c r="BB38" s="12"/>
+      <c r="BC38" s="12"/>
+      <c r="BD38" s="12"/>
+      <c r="BE38" s="12"/>
+      <c r="BF38" s="12"/>
+      <c r="BG38" s="12"/>
+      <c r="BH38" s="12"/>
+      <c r="BI38" s="12"/>
+      <c r="BJ38" s="12"/>
+      <c r="BK38" s="12"/>
+      <c r="BL38" s="12"/>
+      <c r="BM38" s="12"/>
+      <c r="BN38" s="12"/>
+      <c r="BO38" s="12"/>
+      <c r="BP38" s="12"/>
+      <c r="BQ38" s="12"/>
+      <c r="BR38" s="12"/>
+      <c r="BS38" s="12"/>
+      <c r="BT38" s="12"/>
+      <c r="BU38" s="12"/>
+      <c r="BV38" s="12"/>
+      <c r="BW38" s="12"/>
+      <c r="BX38" s="12"/>
+      <c r="BY38" s="12"/>
+      <c r="BZ38" s="12"/>
+      <c r="CA38" s="12"/>
+      <c r="CB38" s="12"/>
+      <c r="CC38" s="12"/>
+      <c r="CD38" s="12"/>
+      <c r="CE38" s="12"/>
+      <c r="CF38" s="12"/>
+      <c r="CG38" s="12"/>
+      <c r="CH38" s="12"/>
+      <c r="CI38" s="12"/>
+      <c r="CJ38" s="12"/>
+      <c r="CK38" s="12"/>
+      <c r="CL38" s="12"/>
+      <c r="CM38" s="12"/>
+      <c r="CN38" s="12"/>
+      <c r="CO38" s="12"/>
+      <c r="CP38" s="12"/>
+      <c r="CQ38" s="12"/>
+      <c r="CR38" s="12"/>
+      <c r="CS38" s="12"/>
+      <c r="CT38" s="12"/>
+      <c r="CU38" s="12"/>
+      <c r="CV38" s="12"/>
+      <c r="CW38" s="12"/>
+      <c r="CX38" s="12"/>
+      <c r="CY38" s="12"/>
+      <c r="CZ38" s="12"/>
+      <c r="DA38" s="12"/>
+      <c r="DB38" s="12"/>
+      <c r="DC38" s="12"/>
+      <c r="DD38" s="12"/>
+      <c r="DE38" s="12"/>
+      <c r="DF38" s="12"/>
+      <c r="DG38" s="12"/>
+      <c r="DH38" s="12"/>
+      <c r="DI38" s="12"/>
+      <c r="DJ38" s="12"/>
+      <c r="DK38" s="12"/>
+      <c r="DL38" s="12"/>
+      <c r="DM38" s="12"/>
+      <c r="DN38" s="12"/>
+      <c r="DO38" s="12"/>
+      <c r="DP38" s="12"/>
+      <c r="DQ38" s="12"/>
+      <c r="DR38" s="12"/>
+      <c r="DS38" s="12"/>
+      <c r="DT38" s="12"/>
+      <c r="DU38" s="12"/>
+      <c r="DV38" s="12"/>
+      <c r="DW38" s="12"/>
+      <c r="DX38" s="12"/>
+      <c r="DY38" s="12"/>
+      <c r="DZ38" s="12"/>
+      <c r="EA38" s="12"/>
+      <c r="EB38" s="12"/>
+      <c r="EC38" s="12"/>
+      <c r="ED38" s="12"/>
+      <c r="EE38" s="12"/>
+      <c r="EF38" s="12"/>
+      <c r="EG38" s="12"/>
+      <c r="EH38" s="12"/>
+      <c r="EI38" s="12"/>
+      <c r="EJ38" s="12"/>
+      <c r="EK38" s="12"/>
+      <c r="EL38" s="12"/>
+      <c r="EM38" s="12"/>
+      <c r="EN38" s="12"/>
+      <c r="EO38" s="12"/>
+      <c r="EP38" s="12"/>
+      <c r="EQ38" s="12"/>
+      <c r="ER38" s="12"/>
+      <c r="ES38" s="12"/>
+      <c r="ET38" s="12"/>
+      <c r="EU38" s="12"/>
+      <c r="EV38" s="12"/>
+      <c r="EW38" s="12"/>
+      <c r="EX38" s="12"/>
+      <c r="EY38" s="12"/>
+      <c r="EZ38" s="12"/>
+      <c r="FA38" s="12"/>
+      <c r="FB38" s="12"/>
+      <c r="FC38" s="12"/>
+      <c r="FD38" s="12"/>
+      <c r="FE38" s="12"/>
+      <c r="FF38" s="12"/>
+      <c r="FG38" s="12"/>
+      <c r="FH38" s="12"/>
+      <c r="FI38" s="12"/>
+      <c r="FJ38" s="12"/>
+      <c r="FK38" s="12"/>
+      <c r="FL38" s="12"/>
+      <c r="FM38" s="12"/>
+      <c r="FN38" s="12"/>
+      <c r="FO38" s="12"/>
+      <c r="FP38" s="12"/>
+      <c r="FQ38" s="12"/>
+      <c r="FR38" s="12"/>
+      <c r="FS38" s="12"/>
+      <c r="FT38" s="12"/>
+      <c r="FU38" s="12"/>
+      <c r="FV38" s="12"/>
+      <c r="FW38" s="12"/>
+      <c r="FX38" s="12"/>
+      <c r="FY38" s="12"/>
+      <c r="FZ38" s="12"/>
+      <c r="GA38" s="12"/>
+      <c r="GB38" s="12"/>
+      <c r="GC38" s="12"/>
+      <c r="GD38" s="12"/>
+      <c r="GE38" s="12"/>
+      <c r="GF38" s="12"/>
+      <c r="GG38" s="12"/>
+      <c r="GH38" s="12"/>
+      <c r="GI38" s="12"/>
+      <c r="GJ38" s="12"/>
+      <c r="GK38" s="12"/>
+      <c r="GL38" s="12"/>
+      <c r="GM38" s="12"/>
+      <c r="GN38" s="12"/>
+      <c r="GO38" s="12"/>
+      <c r="GP38" s="12"/>
+      <c r="GQ38" s="12"/>
+      <c r="GR38" s="12"/>
+      <c r="GS38" s="12"/>
+      <c r="GT38" s="12"/>
+      <c r="GU38" s="12"/>
+      <c r="GV38" s="12"/>
+      <c r="GW38" s="12"/>
+      <c r="GX38" s="12"/>
+      <c r="GY38" s="12"/>
+      <c r="GZ38" s="12"/>
+      <c r="HA38" s="12"/>
+      <c r="HB38" s="12"/>
+      <c r="HC38" s="12"/>
+      <c r="HD38" s="12"/>
+      <c r="HE38" s="12"/>
+      <c r="HF38" s="12"/>
+      <c r="HG38" s="12"/>
+      <c r="HH38" s="12"/>
+      <c r="HI38" s="12"/>
+      <c r="HJ38" s="12"/>
+      <c r="HK38" s="12"/>
+      <c r="HL38" s="12"/>
+      <c r="HM38" s="12"/>
+      <c r="HN38" s="12"/>
+      <c r="HO38" s="12"/>
+      <c r="HP38" s="12"/>
+      <c r="HQ38" s="12"/>
+      <c r="HR38" s="12"/>
+      <c r="HS38" s="12"/>
+      <c r="HT38" s="12"/>
+      <c r="HU38" s="12"/>
+      <c r="HV38" s="12"/>
+      <c r="HW38" s="12"/>
+      <c r="HX38" s="12"/>
+      <c r="HY38" s="12"/>
+      <c r="HZ38" s="12"/>
+      <c r="IA38" s="12"/>
+      <c r="IB38" s="12"/>
+      <c r="IC38" s="12"/>
+      <c r="ID38" s="12"/>
+      <c r="IE38" s="12"/>
+      <c r="IF38" s="12"/>
+      <c r="IG38" s="12"/>
+      <c r="IH38" s="12"/>
+      <c r="II38" s="12"/>
+      <c r="IJ38" s="12"/>
+      <c r="IK38" s="12"/>
+      <c r="IL38" s="12"/>
+      <c r="IM38" s="12"/>
+      <c r="IN38" s="12"/>
+      <c r="IO38" s="12"/>
+      <c r="IP38" s="12"/>
+      <c r="IQ38" s="12"/>
+      <c r="IR38" s="12"/>
+      <c r="IS38" s="12"/>
+      <c r="IT38" s="12"/>
+      <c r="IU38" s="12"/>
+      <c r="IV38" s="12"/>
+      <c r="IW38" s="12"/>
+      <c r="IX38" s="12"/>
+    </row>
+    <row r="39" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:258" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="N4:T4"/>
-    <mergeCell ref="U4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
-    <mergeCell ref="BY4:CE4"/>
-    <mergeCell ref="CF4:CL4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AP4:AV4"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="EQ4:EW4"/>
+    <mergeCell ref="EX4:FD4"/>
+    <mergeCell ref="HW4:IC4"/>
+    <mergeCell ref="FE4:FK4"/>
+    <mergeCell ref="FL4:FR4"/>
+    <mergeCell ref="FS4:FY4"/>
+    <mergeCell ref="FZ4:GF4"/>
+    <mergeCell ref="GG4:GM4"/>
     <mergeCell ref="CM4:CS4"/>
     <mergeCell ref="ID4:IJ4"/>
     <mergeCell ref="IK4:IQ4"/>
@@ -12125,38 +12677,28 @@
     <mergeCell ref="DV4:EB4"/>
     <mergeCell ref="EC4:EI4"/>
     <mergeCell ref="EJ4:EP4"/>
-    <mergeCell ref="EQ4:EW4"/>
-    <mergeCell ref="EX4:FD4"/>
-    <mergeCell ref="HW4:IC4"/>
-    <mergeCell ref="FE4:FK4"/>
-    <mergeCell ref="FL4:FR4"/>
-    <mergeCell ref="FS4:FY4"/>
-    <mergeCell ref="FZ4:GF4"/>
-    <mergeCell ref="GG4:GM4"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="BY4:CE4"/>
+    <mergeCell ref="CF4:CL4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="G5:IX36">
+  <conditionalFormatting sqref="G5:IX38">
     <cfRule type="expression" dxfId="2" priority="126">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:IX36">
+  <conditionalFormatting sqref="G7:IX38">
     <cfRule type="expression" dxfId="1" priority="120">
       <formula>AND(task_start&lt;=G$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$5)</formula>
     </cfRule>
@@ -12208,7 +12750,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX17:IN17">
+  <conditionalFormatting sqref="AX18:IN18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -12281,7 +12823,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AX17:IN17</xm:sqref>
+          <xm:sqref>AX18:IN18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12290,6 +12832,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010021CB413651170D4FBFA874F8BEE755CA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="42743fc73206d53d9dc0a38c59eadd60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dc598aa0-d9ce-4a6b-81d3-1bfd1d95be93" xmlns:ns4="0f3824ba-70ce-4e7b-b9df-d016a901c15a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fe924b3eb92af8fdbe5696825ae74dba" ns3:_="" ns4:_="">
     <xsd:import namespace="dc598aa0-d9ce-4a6b-81d3-1bfd1d95be93"/>
@@ -12474,22 +13031,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5933DF-E5C2-4102-897C-E72E9DA32B8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94DE01B-F382-4B59-8124-92C815CDB8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFF8F1F2-15C5-48DC-909D-47DBCB39B9F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12506,21 +13065,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94DE01B-F382-4B59-8124-92C815CDB8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5933DF-E5C2-4102-897C-E72E9DA32B8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>